--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391584</v>
+        <v>1.05152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392598</v>
+        <v>0.975892</v>
       </c>
       <c r="D2" t="n">
-        <v>0.382304</v>
+        <v>0.958266</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.380884</v>
+        <v>0.951685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.385025</v>
+        <v>0.966744</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37496</v>
+        <v>0.929579</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373494</v>
+        <v>0.923011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.378247</v>
+        <v>0.938873</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369567</v>
+        <v>0.938346</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.36751</v>
+        <v>0.941638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372957</v>
+        <v>0.9389459999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364991</v>
+        <v>0.889163</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361405</v>
+        <v>0.930604</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368941</v>
+        <v>0.91183</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36173</v>
+        <v>0.902549</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.356886</v>
+        <v>0.915588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.365007</v>
+        <v>0.948775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359544</v>
+        <v>0.895364</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353743</v>
+        <v>0.894248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363047</v>
+        <v>0.903856</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359659</v>
+        <v>0.913202</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352371</v>
+        <v>0.900191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363004</v>
+        <v>0.896709</v>
       </c>
       <c r="D9" t="n">
-        <v>0.470035</v>
+        <v>1.00807</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465872</v>
+        <v>1.00116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484264</v>
+        <v>0.995217</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464697</v>
+        <v>1.00917</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.455071</v>
+        <v>0.987982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.472942</v>
+        <v>1.01006</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453685</v>
+        <v>0.950591</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444348</v>
+        <v>0.985138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.462494</v>
+        <v>0.9637829999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44359</v>
+        <v>0.973616</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434172</v>
+        <v>0.9688909999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.451761</v>
+        <v>0.997871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433379</v>
+        <v>0.966085</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424406</v>
+        <v>0.951175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441275</v>
+        <v>0.97856</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424468</v>
+        <v>0.961652</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415113</v>
+        <v>0.942159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.431945</v>
+        <v>0.935343</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415627</v>
+        <v>0.941957</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406507</v>
+        <v>0.9477989999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.42273</v>
+        <v>0.9413049999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407305</v>
+        <v>0.91218</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398157</v>
+        <v>0.932606</v>
       </c>
       <c r="C17" t="n">
-        <v>0.414327</v>
+        <v>0.914227</v>
       </c>
       <c r="D17" t="n">
-        <v>0.40006</v>
+        <v>0.93016</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390758</v>
+        <v>0.925207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407209</v>
+        <v>0.901548</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393364</v>
+        <v>0.926749</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383939</v>
+        <v>0.91157</v>
       </c>
       <c r="C19" t="n">
-        <v>0.400002</v>
+        <v>0.921612</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387477</v>
+        <v>0.912945</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377612</v>
+        <v>0.906199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.393607</v>
+        <v>0.9105760000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382041</v>
+        <v>0.917649</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371795</v>
+        <v>0.914386</v>
       </c>
       <c r="C21" t="n">
-        <v>0.388843</v>
+        <v>0.908258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.378651</v>
+        <v>0.885551</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.368034</v>
+        <v>0.8976690000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.385187</v>
+        <v>0.8853529999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377098</v>
+        <v>0.89107</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.366301</v>
+        <v>0.919906</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383502</v>
+        <v>0.883</v>
       </c>
       <c r="D23" t="n">
-        <v>0.49331</v>
+        <v>1.10619</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481522</v>
+        <v>1.07469</v>
       </c>
       <c r="C24" t="n">
-        <v>0.457058</v>
+        <v>1.06258</v>
       </c>
       <c r="D24" t="n">
-        <v>0.441165</v>
+        <v>1.11336</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470822</v>
+        <v>1.06755</v>
       </c>
       <c r="C25" t="n">
-        <v>0.447286</v>
+        <v>1.06961</v>
       </c>
       <c r="D25" t="n">
-        <v>0.432006</v>
+        <v>1.06957</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459991</v>
+        <v>1.0738</v>
       </c>
       <c r="C26" t="n">
-        <v>0.439512</v>
+        <v>1.06767</v>
       </c>
       <c r="D26" t="n">
-        <v>0.42332</v>
+        <v>1.06889</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449527</v>
+        <v>1.04783</v>
       </c>
       <c r="C27" t="n">
-        <v>0.42957</v>
+        <v>1.02803</v>
       </c>
       <c r="D27" t="n">
-        <v>0.414512</v>
+        <v>1.05663</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439763</v>
+        <v>1.01517</v>
       </c>
       <c r="C28" t="n">
-        <v>0.425094</v>
+        <v>1.01922</v>
       </c>
       <c r="D28" t="n">
-        <v>0.410826</v>
+        <v>1.04864</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430594</v>
+        <v>1.02868</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414161</v>
+        <v>1.01258</v>
       </c>
       <c r="D29" t="n">
-        <v>0.40113</v>
+        <v>1.04367</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421722</v>
+        <v>1.01168</v>
       </c>
       <c r="C30" t="n">
-        <v>0.406206</v>
+        <v>0.986708</v>
       </c>
       <c r="D30" t="n">
-        <v>0.393354</v>
+        <v>1.03324</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413184</v>
+        <v>1.01985</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398999</v>
+        <v>0.989318</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386791</v>
+        <v>1.04255</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405348</v>
+        <v>1.02902</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392091</v>
+        <v>0.972401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381038</v>
+        <v>1.00236</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398155</v>
+        <v>0.996495</v>
       </c>
       <c r="C33" t="n">
-        <v>0.386303</v>
+        <v>0.965027</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376766</v>
+        <v>0.992883</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391437</v>
+        <v>0.986013</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381424</v>
+        <v>0.963717</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372336</v>
+        <v>0.981159</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386062</v>
+        <v>0.970735</v>
       </c>
       <c r="C35" t="n">
-        <v>0.377301</v>
+        <v>0.952344</v>
       </c>
       <c r="D35" t="n">
-        <v>0.370007</v>
+        <v>0.974602</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381749</v>
+        <v>0.969929</v>
       </c>
       <c r="C36" t="n">
-        <v>0.37429</v>
+        <v>0.9580689999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368037</v>
+        <v>0.956245</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379384</v>
+        <v>0.961961</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373889</v>
+        <v>0.945591</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510406</v>
+        <v>1.19871</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495975</v>
+        <v>1.14419</v>
       </c>
       <c r="C38" t="n">
-        <v>0.468403</v>
+        <v>1.13444</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452655</v>
+        <v>1.17289</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485743</v>
+        <v>1.14323</v>
       </c>
       <c r="C39" t="n">
-        <v>0.459946</v>
+        <v>1.11942</v>
       </c>
       <c r="D39" t="n">
-        <v>0.446162</v>
+        <v>1.14518</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474807</v>
+        <v>1.11706</v>
       </c>
       <c r="C40" t="n">
-        <v>0.451753</v>
+        <v>1.13144</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437234</v>
+        <v>1.1409</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464423</v>
+        <v>1.10539</v>
       </c>
       <c r="C41" t="n">
-        <v>0.442707</v>
+        <v>1.09286</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428499</v>
+        <v>1.11427</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454792</v>
+        <v>1.087</v>
       </c>
       <c r="C42" t="n">
-        <v>0.435445</v>
+        <v>1.07702</v>
       </c>
       <c r="D42" t="n">
-        <v>0.422189</v>
+        <v>1.09105</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445498</v>
+        <v>1.1002</v>
       </c>
       <c r="C43" t="n">
-        <v>0.430492</v>
+        <v>1.11583</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414512</v>
+        <v>1.07447</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436824</v>
+        <v>1.0649</v>
       </c>
       <c r="C44" t="n">
-        <v>0.424482</v>
+        <v>1.03413</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409446</v>
+        <v>1.08788</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428911</v>
+        <v>1.06869</v>
       </c>
       <c r="C45" t="n">
-        <v>0.413516</v>
+        <v>1.0461</v>
       </c>
       <c r="D45" t="n">
-        <v>0.401932</v>
+        <v>1.06698</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420916</v>
+        <v>1.06805</v>
       </c>
       <c r="C46" t="n">
-        <v>0.408942</v>
+        <v>1.03408</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397683</v>
+        <v>1.03763</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413745</v>
+        <v>1.03731</v>
       </c>
       <c r="C47" t="n">
-        <v>0.402495</v>
+        <v>1.02776</v>
       </c>
       <c r="D47" t="n">
-        <v>0.392483</v>
+        <v>1.03091</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407462</v>
+        <v>1.03983</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397736</v>
+        <v>1.00749</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388755</v>
+        <v>1.03494</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.40136</v>
+        <v>1.01276</v>
       </c>
       <c r="C49" t="n">
-        <v>0.393153</v>
+        <v>1.04617</v>
       </c>
       <c r="D49" t="n">
-        <v>0.38465</v>
+        <v>1.02819</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.397384</v>
+        <v>1.03692</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392329</v>
+        <v>0.997994</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384633</v>
+        <v>1.02504</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394353</v>
+        <v>1.0249</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389711</v>
+        <v>1.02378</v>
       </c>
       <c r="D51" t="n">
-        <v>0.52954</v>
+        <v>1.20756</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.363686</v>
+        <v>1.00728</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390934</v>
+        <v>1.0143</v>
       </c>
       <c r="D52" t="n">
-        <v>0.518898</v>
+        <v>1.19527</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5022759999999999</v>
+        <v>1.21789</v>
       </c>
       <c r="C53" t="n">
-        <v>0.480223</v>
+        <v>1.17731</v>
       </c>
       <c r="D53" t="n">
-        <v>0.462446</v>
+        <v>1.18078</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.491913</v>
+        <v>1.19645</v>
       </c>
       <c r="C54" t="n">
-        <v>0.471254</v>
+        <v>1.15689</v>
       </c>
       <c r="D54" t="n">
-        <v>0.455742</v>
+        <v>1.16298</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482372</v>
+        <v>1.15443</v>
       </c>
       <c r="C55" t="n">
-        <v>0.463343</v>
+        <v>1.14312</v>
       </c>
       <c r="D55" t="n">
-        <v>0.447953</v>
+        <v>1.16821</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.472698</v>
+        <v>1.18047</v>
       </c>
       <c r="C56" t="n">
-        <v>0.45651</v>
+        <v>1.14705</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442007</v>
+        <v>1.15885</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.463186</v>
+        <v>1.13744</v>
       </c>
       <c r="C57" t="n">
-        <v>0.449876</v>
+        <v>1.13628</v>
       </c>
       <c r="D57" t="n">
-        <v>0.434427</v>
+        <v>1.12769</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.454691</v>
+        <v>1.12628</v>
       </c>
       <c r="C58" t="n">
-        <v>0.440751</v>
+        <v>1.12338</v>
       </c>
       <c r="D58" t="n">
-        <v>0.429166</v>
+        <v>1.09427</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.446754</v>
+        <v>1.15144</v>
       </c>
       <c r="C59" t="n">
-        <v>0.434324</v>
+        <v>1.09988</v>
       </c>
       <c r="D59" t="n">
-        <v>0.423946</v>
+        <v>1.09348</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.439317</v>
+        <v>1.11544</v>
       </c>
       <c r="C60" t="n">
-        <v>0.429297</v>
+        <v>1.08289</v>
       </c>
       <c r="D60" t="n">
-        <v>0.418172</v>
+        <v>1.10765</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.432718</v>
+        <v>1.11748</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422821</v>
+        <v>1.09034</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413356</v>
+        <v>1.07074</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.426837</v>
+        <v>1.11587</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420312</v>
+        <v>1.08636</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409785</v>
+        <v>1.0818</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.421811</v>
+        <v>1.11031</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416166</v>
+        <v>1.05613</v>
       </c>
       <c r="D63" t="n">
-        <v>0.407083</v>
+        <v>1.07233</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.416367</v>
+        <v>1.07207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.412605</v>
+        <v>1.03925</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405923</v>
+        <v>1.04701</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.412286</v>
+        <v>1.0861</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413235</v>
+        <v>1.03045</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405723</v>
+        <v>1.04048</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.411761</v>
+        <v>1.07825</v>
       </c>
       <c r="C66" t="n">
-        <v>0.413192</v>
+        <v>1.04394</v>
       </c>
       <c r="D66" t="n">
-        <v>0.539694</v>
+        <v>1.28949</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.52512</v>
+        <v>1.24549</v>
       </c>
       <c r="C67" t="n">
-        <v>0.503533</v>
+        <v>1.24466</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486152</v>
+        <v>1.27982</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.514447</v>
+        <v>1.24232</v>
       </c>
       <c r="C68" t="n">
-        <v>0.495362</v>
+        <v>1.25239</v>
       </c>
       <c r="D68" t="n">
-        <v>0.478635</v>
+        <v>1.22131</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505053</v>
+        <v>1.24417</v>
       </c>
       <c r="C69" t="n">
-        <v>0.487117</v>
+        <v>1.22909</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470918</v>
+        <v>1.24198</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.494925</v>
+        <v>1.26503</v>
       </c>
       <c r="C70" t="n">
-        <v>0.480655</v>
+        <v>1.20257</v>
       </c>
       <c r="D70" t="n">
-        <v>0.463964</v>
+        <v>1.21814</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.485998</v>
+        <v>1.2125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.470808</v>
+        <v>1.21281</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457862</v>
+        <v>1.1832</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.477213</v>
+        <v>1.21813</v>
       </c>
       <c r="C72" t="n">
-        <v>0.464727</v>
+        <v>1.20894</v>
       </c>
       <c r="D72" t="n">
-        <v>0.450704</v>
+        <v>1.18709</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.468042</v>
+        <v>1.24292</v>
       </c>
       <c r="C73" t="n">
-        <v>0.457898</v>
+        <v>1.19191</v>
       </c>
       <c r="D73" t="n">
-        <v>0.445806</v>
+        <v>1.16264</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.460486</v>
+        <v>1.20221</v>
       </c>
       <c r="C74" t="n">
-        <v>0.451151</v>
+        <v>1.16035</v>
       </c>
       <c r="D74" t="n">
-        <v>0.440065</v>
+        <v>1.1654</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.453493</v>
+        <v>1.19644</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44658</v>
+        <v>1.17443</v>
       </c>
       <c r="D75" t="n">
-        <v>0.435634</v>
+        <v>1.15345</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.44746</v>
+        <v>1.16468</v>
       </c>
       <c r="C76" t="n">
-        <v>0.443213</v>
+        <v>1.18759</v>
       </c>
       <c r="D76" t="n">
-        <v>0.431772</v>
+        <v>1.15869</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.441656</v>
+        <v>1.18274</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437782</v>
+        <v>1.15298</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427857</v>
+        <v>1.17497</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.437389</v>
+        <v>1.1594</v>
       </c>
       <c r="C78" t="n">
-        <v>0.434564</v>
+        <v>1.15372</v>
       </c>
       <c r="D78" t="n">
-        <v>0.42662</v>
+        <v>1.14909</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.433723</v>
+        <v>1.1456</v>
       </c>
       <c r="C79" t="n">
-        <v>0.433215</v>
+        <v>1.13904</v>
       </c>
       <c r="D79" t="n">
-        <v>0.428247</v>
+        <v>1.1485</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.432534</v>
+        <v>1.15479</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435696</v>
+        <v>1.15322</v>
       </c>
       <c r="D80" t="n">
-        <v>0.580037</v>
+        <v>1.35444</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.567105</v>
+        <v>1.38104</v>
       </c>
       <c r="C81" t="n">
-        <v>0.536287</v>
+        <v>1.39272</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5172909999999999</v>
+        <v>1.38347</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.559455</v>
+        <v>1.3732</v>
       </c>
       <c r="C82" t="n">
-        <v>0.525465</v>
+        <v>1.39126</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506219</v>
+        <v>1.35358</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.551023</v>
+        <v>1.3516</v>
       </c>
       <c r="C83" t="n">
-        <v>0.518648</v>
+        <v>1.39048</v>
       </c>
       <c r="D83" t="n">
-        <v>0.498405</v>
+        <v>1.32334</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5449889999999999</v>
+        <v>1.35615</v>
       </c>
       <c r="C84" t="n">
-        <v>0.509864</v>
+        <v>1.35399</v>
       </c>
       <c r="D84" t="n">
-        <v>0.489837</v>
+        <v>1.34963</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.540566</v>
+        <v>1.34571</v>
       </c>
       <c r="C85" t="n">
-        <v>0.505553</v>
+        <v>1.36786</v>
       </c>
       <c r="D85" t="n">
-        <v>0.483979</v>
+        <v>1.31059</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.532727</v>
+        <v>1.34614</v>
       </c>
       <c r="C86" t="n">
-        <v>0.499929</v>
+        <v>1.32711</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481888</v>
+        <v>1.31716</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.524343</v>
+        <v>1.31275</v>
       </c>
       <c r="C87" t="n">
-        <v>0.492632</v>
+        <v>1.32134</v>
       </c>
       <c r="D87" t="n">
-        <v>0.475653</v>
+        <v>1.32457</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.516408</v>
+        <v>1.30487</v>
       </c>
       <c r="C88" t="n">
-        <v>0.487953</v>
+        <v>1.29314</v>
       </c>
       <c r="D88" t="n">
-        <v>0.471947</v>
+        <v>1.29223</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.507687</v>
+        <v>1.30904</v>
       </c>
       <c r="C89" t="n">
-        <v>0.478116</v>
+        <v>1.29542</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4637</v>
+        <v>1.26936</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.499752</v>
+        <v>1.31517</v>
       </c>
       <c r="C90" t="n">
-        <v>0.47391</v>
+        <v>1.29328</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458671</v>
+        <v>1.27563</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.493917</v>
+        <v>1.36396</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468147</v>
+        <v>1.29911</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455293</v>
+        <v>1.28854</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.486511</v>
+        <v>1.30567</v>
       </c>
       <c r="C92" t="n">
-        <v>0.464162</v>
+        <v>1.27968</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453317</v>
+        <v>1.28858</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.482733</v>
+        <v>1.27849</v>
       </c>
       <c r="C93" t="n">
-        <v>0.461648</v>
+        <v>1.27695</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452949</v>
+        <v>1.2608</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.479703</v>
+        <v>1.29616</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462172</v>
+        <v>1.33333</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6260250000000001</v>
+        <v>1.50919</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.621727</v>
+        <v>1.48541</v>
       </c>
       <c r="C95" t="n">
-        <v>0.584808</v>
+        <v>1.5096</v>
       </c>
       <c r="D95" t="n">
-        <v>0.585106</v>
+        <v>1.4925</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.632328</v>
+        <v>1.55995</v>
       </c>
       <c r="C96" t="n">
-        <v>0.599768</v>
+        <v>1.53275</v>
       </c>
       <c r="D96" t="n">
-        <v>0.588488</v>
+        <v>1.49295</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.636729</v>
+        <v>1.50253</v>
       </c>
       <c r="C97" t="n">
-        <v>0.597939</v>
+        <v>1.50903</v>
       </c>
       <c r="D97" t="n">
-        <v>0.585901</v>
+        <v>1.47225</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.636612</v>
+        <v>1.52313</v>
       </c>
       <c r="C98" t="n">
-        <v>0.598979</v>
+        <v>1.5033</v>
       </c>
       <c r="D98" t="n">
-        <v>0.583189</v>
+        <v>1.47169</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.633644</v>
+        <v>1.4997</v>
       </c>
       <c r="C99" t="n">
-        <v>0.599606</v>
+        <v>1.50626</v>
       </c>
       <c r="D99" t="n">
-        <v>0.581291</v>
+        <v>1.45328</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.631182</v>
+        <v>1.48516</v>
       </c>
       <c r="C100" t="n">
-        <v>0.597797</v>
+        <v>1.46773</v>
       </c>
       <c r="D100" t="n">
-        <v>0.578844</v>
+        <v>1.43162</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.627408</v>
+        <v>1.47438</v>
       </c>
       <c r="C101" t="n">
-        <v>0.593979</v>
+        <v>1.47508</v>
       </c>
       <c r="D101" t="n">
-        <v>0.575095</v>
+        <v>1.46779</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.622934</v>
+        <v>1.51188</v>
       </c>
       <c r="C102" t="n">
-        <v>0.577273</v>
+        <v>1.48149</v>
       </c>
       <c r="D102" t="n">
-        <v>0.552843</v>
+        <v>1.42333</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.619038</v>
+        <v>1.5062</v>
       </c>
       <c r="C103" t="n">
-        <v>0.58828</v>
+        <v>1.45105</v>
       </c>
       <c r="D103" t="n">
-        <v>0.565185</v>
+        <v>1.43533</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.616439</v>
+        <v>1.48441</v>
       </c>
       <c r="C104" t="n">
-        <v>0.58916</v>
+        <v>1.44724</v>
       </c>
       <c r="D104" t="n">
-        <v>0.568348</v>
+        <v>1.43773</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.613038</v>
+        <v>1.46618</v>
       </c>
       <c r="C105" t="n">
-        <v>0.587967</v>
+        <v>1.47209</v>
       </c>
       <c r="D105" t="n">
-        <v>0.562822</v>
+        <v>1.41973</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.606702</v>
+        <v>1.49132</v>
       </c>
       <c r="C106" t="n">
-        <v>0.583545</v>
+        <v>1.46878</v>
       </c>
       <c r="D106" t="n">
-        <v>0.560603</v>
+        <v>1.40927</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.603352</v>
+        <v>1.44056</v>
       </c>
       <c r="C107" t="n">
-        <v>0.564918</v>
+        <v>1.43192</v>
       </c>
       <c r="D107" t="n">
-        <v>0.53972</v>
+        <v>1.44413</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.600754</v>
+        <v>1.49154</v>
       </c>
       <c r="C108" t="n">
-        <v>0.562802</v>
+        <v>1.43813</v>
       </c>
       <c r="D108" t="n">
-        <v>0.731297</v>
+        <v>1.67753</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.564624</v>
+        <v>1.4791</v>
       </c>
       <c r="C109" t="n">
-        <v>0.586929</v>
+        <v>1.43623</v>
       </c>
       <c r="D109" t="n">
-        <v>0.744142</v>
+        <v>1.64838</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.725454</v>
+        <v>1.67972</v>
       </c>
       <c r="C110" t="n">
-        <v>0.741946</v>
+        <v>1.6945</v>
       </c>
       <c r="D110" t="n">
-        <v>0.73527</v>
+        <v>1.61917</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.733679</v>
+        <v>1.6973</v>
       </c>
       <c r="C111" t="n">
-        <v>0.749599</v>
+        <v>1.67189</v>
       </c>
       <c r="D111" t="n">
-        <v>0.758636</v>
+        <v>1.62608</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.73794</v>
+        <v>1.6972</v>
       </c>
       <c r="C112" t="n">
-        <v>0.754528</v>
+        <v>1.64198</v>
       </c>
       <c r="D112" t="n">
-        <v>0.762229</v>
+        <v>1.62541</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.743696</v>
+        <v>1.67626</v>
       </c>
       <c r="C113" t="n">
-        <v>0.758121</v>
+        <v>1.65548</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7605229999999999</v>
+        <v>1.63631</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.754708</v>
+        <v>1.64924</v>
       </c>
       <c r="C114" t="n">
-        <v>0.766547</v>
+        <v>1.68841</v>
       </c>
       <c r="D114" t="n">
-        <v>0.757421</v>
+        <v>1.58449</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.760181</v>
+        <v>1.68101</v>
       </c>
       <c r="C115" t="n">
-        <v>0.767501</v>
+        <v>1.67182</v>
       </c>
       <c r="D115" t="n">
-        <v>0.775214</v>
+        <v>1.60021</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.763304</v>
+        <v>1.70311</v>
       </c>
       <c r="C116" t="n">
-        <v>0.776329</v>
+        <v>1.64922</v>
       </c>
       <c r="D116" t="n">
-        <v>0.777048</v>
+        <v>1.60226</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.772293</v>
+        <v>1.71501</v>
       </c>
       <c r="C117" t="n">
-        <v>0.77734</v>
+        <v>1.65396</v>
       </c>
       <c r="D117" t="n">
-        <v>0.76245</v>
+        <v>1.60714</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.777937</v>
+        <v>1.68681</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7863329999999999</v>
+        <v>1.67033</v>
       </c>
       <c r="D118" t="n">
-        <v>0.785131</v>
+        <v>1.6162</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7768659999999999</v>
+        <v>1.64308</v>
       </c>
       <c r="C119" t="n">
-        <v>0.792143</v>
+        <v>1.65287</v>
       </c>
       <c r="D119" t="n">
-        <v>0.788871</v>
+        <v>1.5844</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.780211</v>
+        <v>1.72392</v>
       </c>
       <c r="C120" t="n">
-        <v>0.787191</v>
+        <v>1.67654</v>
       </c>
       <c r="D120" t="n">
-        <v>0.792669</v>
+        <v>1.58817</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.786552</v>
+        <v>1.69508</v>
       </c>
       <c r="C121" t="n">
-        <v>0.805071</v>
+        <v>1.67213</v>
       </c>
       <c r="D121" t="n">
-        <v>0.797892</v>
+        <v>1.59408</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.792141</v>
+        <v>1.71083</v>
       </c>
       <c r="C122" t="n">
-        <v>0.810284</v>
+        <v>1.67404</v>
       </c>
       <c r="D122" t="n">
-        <v>0.802336</v>
+        <v>1.60726</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.799252</v>
+        <v>1.67493</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8131660000000001</v>
+        <v>1.66415</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9560689999999999</v>
+        <v>1.84701</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.962443</v>
+        <v>1.92954</v>
       </c>
       <c r="C124" t="n">
-        <v>0.971047</v>
+        <v>1.93876</v>
       </c>
       <c r="D124" t="n">
-        <v>0.961714</v>
+        <v>1.83672</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.975092</v>
+        <v>1.93899</v>
       </c>
       <c r="C125" t="n">
-        <v>0.979122</v>
+        <v>1.89973</v>
       </c>
       <c r="D125" t="n">
-        <v>0.95573</v>
+        <v>1.82706</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.984259</v>
+        <v>1.93436</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9947279999999999</v>
+        <v>1.91703</v>
       </c>
       <c r="D126" t="n">
-        <v>0.966557</v>
+        <v>1.83174</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.993085</v>
+        <v>1.92977</v>
       </c>
       <c r="C127" t="n">
-        <v>1.00017</v>
+        <v>1.92628</v>
       </c>
       <c r="D127" t="n">
-        <v>0.975206</v>
+        <v>1.86092</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9999130000000001</v>
+        <v>1.94498</v>
       </c>
       <c r="C128" t="n">
-        <v>1.01174</v>
+        <v>1.91324</v>
       </c>
       <c r="D128" t="n">
-        <v>0.999387</v>
+        <v>1.83161</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.00772</v>
+        <v>1.9563</v>
       </c>
       <c r="C129" t="n">
-        <v>1.01574</v>
+        <v>1.88813</v>
       </c>
       <c r="D129" t="n">
-        <v>1.01014</v>
+        <v>1.83818</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.01596</v>
+        <v>1.96302</v>
       </c>
       <c r="C130" t="n">
-        <v>1.02268</v>
+        <v>1.92576</v>
       </c>
       <c r="D130" t="n">
-        <v>1.01907</v>
+        <v>1.83414</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.0203</v>
+        <v>1.92914</v>
       </c>
       <c r="C131" t="n">
-        <v>1.0383</v>
+        <v>1.92679</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01786</v>
+        <v>1.82677</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0275</v>
+        <v>1.97768</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04566</v>
+        <v>1.916</v>
       </c>
       <c r="D132" t="n">
-        <v>1.03362</v>
+        <v>1.82048</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03372</v>
+        <v>1.96142</v>
       </c>
       <c r="C133" t="n">
-        <v>1.05396</v>
+        <v>1.90417</v>
       </c>
       <c r="D133" t="n">
-        <v>1.04029</v>
+        <v>1.84343</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04223</v>
+        <v>1.94882</v>
       </c>
       <c r="C134" t="n">
-        <v>1.06238</v>
+        <v>1.90614</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04162</v>
+        <v>1.85827</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04696</v>
+        <v>1.95207</v>
       </c>
       <c r="C135" t="n">
-        <v>1.06864</v>
+        <v>1.93322</v>
       </c>
       <c r="D135" t="n">
-        <v>1.05511</v>
+        <v>1.84984</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05794</v>
+        <v>1.99095</v>
       </c>
       <c r="C136" t="n">
-        <v>1.08425</v>
+        <v>1.94097</v>
       </c>
       <c r="D136" t="n">
-        <v>1.04966</v>
+        <v>1.84749</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05878</v>
+        <v>1.97526</v>
       </c>
       <c r="C137" t="n">
-        <v>1.09007</v>
+        <v>1.93614</v>
       </c>
       <c r="D137" t="n">
-        <v>1.20919</v>
+        <v>2.12227</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.22119</v>
+        <v>2.20169</v>
       </c>
       <c r="C138" t="n">
-        <v>1.24407</v>
+        <v>2.20059</v>
       </c>
       <c r="D138" t="n">
-        <v>1.22687</v>
+        <v>2.11375</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.22613</v>
+        <v>2.2303</v>
       </c>
       <c r="C139" t="n">
-        <v>1.25142</v>
+        <v>2.19625</v>
       </c>
       <c r="D139" t="n">
-        <v>1.23735</v>
+        <v>2.11314</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.23216</v>
+        <v>2.22633</v>
       </c>
       <c r="C140" t="n">
-        <v>1.26255</v>
+        <v>2.21361</v>
       </c>
       <c r="D140" t="n">
-        <v>1.24906</v>
+        <v>2.11545</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.23947</v>
+        <v>2.22772</v>
       </c>
       <c r="C141" t="n">
-        <v>1.27007</v>
+        <v>2.20569</v>
       </c>
       <c r="D141" t="n">
-        <v>1.25754</v>
+        <v>2.11202</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25029</v>
+        <v>2.24985</v>
       </c>
       <c r="C142" t="n">
-        <v>1.27627</v>
+        <v>2.18432</v>
       </c>
       <c r="D142" t="n">
-        <v>1.26309</v>
+        <v>2.13865</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26091</v>
+        <v>2.24588</v>
       </c>
       <c r="C143" t="n">
-        <v>1.28698</v>
+        <v>2.20066</v>
       </c>
       <c r="D143" t="n">
-        <v>1.27478</v>
+        <v>2.13015</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>1.05152</v>
+        <v>1.02318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.975892</v>
+        <v>0.91729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.958266</v>
+        <v>0.882705</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.951685</v>
+        <v>0.878328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.966744</v>
+        <v>0.902166</v>
       </c>
       <c r="D3" t="n">
-        <v>0.929579</v>
+        <v>0.902593</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.923011</v>
+        <v>0.919706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.938873</v>
+        <v>0.891827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.938346</v>
+        <v>0.872466</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.941638</v>
+        <v>0.921666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9389459999999999</v>
+        <v>0.887639</v>
       </c>
       <c r="D5" t="n">
-        <v>0.889163</v>
+        <v>0.87343</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.930604</v>
+        <v>0.914238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.91183</v>
+        <v>0.874568</v>
       </c>
       <c r="D6" t="n">
-        <v>0.902549</v>
+        <v>0.864951</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.915588</v>
+        <v>0.935624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.948775</v>
+        <v>0.860823</v>
       </c>
       <c r="D7" t="n">
-        <v>0.895364</v>
+        <v>0.8863799999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.894248</v>
+        <v>0.892842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.903856</v>
+        <v>0.857106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.913202</v>
+        <v>0.851593</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.900191</v>
+        <v>0.92111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.896709</v>
+        <v>0.866321</v>
       </c>
       <c r="D9" t="n">
-        <v>1.00807</v>
+        <v>1.02404</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.00116</v>
+        <v>0.979579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.995217</v>
+        <v>0.9564589999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>1.00917</v>
+        <v>0.983113</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.987982</v>
+        <v>0.97781</v>
       </c>
       <c r="C11" t="n">
-        <v>1.01006</v>
+        <v>1.01438</v>
       </c>
       <c r="D11" t="n">
-        <v>0.950591</v>
+        <v>0.970132</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.985138</v>
+        <v>0.960971</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9637829999999999</v>
+        <v>0.939816</v>
       </c>
       <c r="D12" t="n">
-        <v>0.973616</v>
+        <v>0.927758</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9688909999999999</v>
+        <v>0.945215</v>
       </c>
       <c r="C13" t="n">
-        <v>0.997871</v>
+        <v>0.927906</v>
       </c>
       <c r="D13" t="n">
-        <v>0.966085</v>
+        <v>0.914985</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.951175</v>
+        <v>0.929573</v>
       </c>
       <c r="C14" t="n">
-        <v>0.97856</v>
+        <v>0.973461</v>
       </c>
       <c r="D14" t="n">
-        <v>0.961652</v>
+        <v>0.920926</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.942159</v>
+        <v>0.91382</v>
       </c>
       <c r="C15" t="n">
-        <v>0.935343</v>
+        <v>0.919907</v>
       </c>
       <c r="D15" t="n">
-        <v>0.941957</v>
+        <v>0.932009</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9477989999999999</v>
+        <v>0.8983409999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9413049999999999</v>
+        <v>0.8940709999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.91218</v>
+        <v>0.885158</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.932606</v>
+        <v>0.901546</v>
       </c>
       <c r="C17" t="n">
-        <v>0.914227</v>
+        <v>0.898478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.93016</v>
+        <v>0.879536</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.925207</v>
+        <v>0.897716</v>
       </c>
       <c r="C18" t="n">
-        <v>0.901548</v>
+        <v>0.878808</v>
       </c>
       <c r="D18" t="n">
-        <v>0.926749</v>
+        <v>0.874923</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.91157</v>
+        <v>0.893169</v>
       </c>
       <c r="C19" t="n">
-        <v>0.921612</v>
+        <v>0.87115</v>
       </c>
       <c r="D19" t="n">
-        <v>0.912945</v>
+        <v>0.867395</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.906199</v>
+        <v>0.899552</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9105760000000001</v>
+        <v>0.868183</v>
       </c>
       <c r="D20" t="n">
-        <v>0.917649</v>
+        <v>0.881542</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.914386</v>
+        <v>0.875381</v>
       </c>
       <c r="C21" t="n">
-        <v>0.908258</v>
+        <v>0.902849</v>
       </c>
       <c r="D21" t="n">
-        <v>0.885551</v>
+        <v>0.851633</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8976690000000001</v>
+        <v>0.8791</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8853529999999999</v>
+        <v>0.905012</v>
       </c>
       <c r="D22" t="n">
-        <v>0.89107</v>
+        <v>0.886011</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.919906</v>
+        <v>0.8849860000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.883</v>
+        <v>0.853702</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10619</v>
+        <v>1.09436</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.07469</v>
+        <v>1.03828</v>
       </c>
       <c r="C24" t="n">
-        <v>1.06258</v>
+        <v>1.04741</v>
       </c>
       <c r="D24" t="n">
-        <v>1.11336</v>
+        <v>1.06199</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.06755</v>
+        <v>1.02394</v>
       </c>
       <c r="C25" t="n">
-        <v>1.06961</v>
+        <v>1.04524</v>
       </c>
       <c r="D25" t="n">
-        <v>1.06957</v>
+        <v>1.0877</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0738</v>
+        <v>1.01606</v>
       </c>
       <c r="C26" t="n">
-        <v>1.06767</v>
+        <v>1.01329</v>
       </c>
       <c r="D26" t="n">
-        <v>1.06889</v>
+        <v>1.04082</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.04783</v>
+        <v>1.038</v>
       </c>
       <c r="C27" t="n">
-        <v>1.02803</v>
+        <v>1.04062</v>
       </c>
       <c r="D27" t="n">
-        <v>1.05663</v>
+        <v>1.07006</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.01517</v>
+        <v>1.03115</v>
       </c>
       <c r="C28" t="n">
-        <v>1.01922</v>
+        <v>1.03022</v>
       </c>
       <c r="D28" t="n">
-        <v>1.04864</v>
+        <v>1.02166</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.02868</v>
+        <v>1.02052</v>
       </c>
       <c r="C29" t="n">
-        <v>1.01258</v>
+        <v>1.04224</v>
       </c>
       <c r="D29" t="n">
-        <v>1.04367</v>
+        <v>1.02443</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01168</v>
+        <v>1.02466</v>
       </c>
       <c r="C30" t="n">
-        <v>0.986708</v>
+        <v>0.984854</v>
       </c>
       <c r="D30" t="n">
-        <v>1.03324</v>
+        <v>0.984978</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.01985</v>
+        <v>1.00005</v>
       </c>
       <c r="C31" t="n">
-        <v>0.989318</v>
+        <v>0.986318</v>
       </c>
       <c r="D31" t="n">
-        <v>1.04255</v>
+        <v>0.971906</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.02902</v>
+        <v>0.969815</v>
       </c>
       <c r="C32" t="n">
-        <v>0.972401</v>
+        <v>0.94654</v>
       </c>
       <c r="D32" t="n">
-        <v>1.00236</v>
+        <v>0.988824</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.996495</v>
+        <v>0.981205</v>
       </c>
       <c r="C33" t="n">
-        <v>0.965027</v>
+        <v>0.975368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.992883</v>
+        <v>0.969676</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.986013</v>
+        <v>0.9471309999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.963717</v>
+        <v>0.936871</v>
       </c>
       <c r="D34" t="n">
-        <v>0.981159</v>
+        <v>0.945159</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.970735</v>
+        <v>0.9726</v>
       </c>
       <c r="C35" t="n">
-        <v>0.952344</v>
+        <v>0.922743</v>
       </c>
       <c r="D35" t="n">
-        <v>0.974602</v>
+        <v>0.946993</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.969929</v>
+        <v>0.97906</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9580689999999999</v>
+        <v>0.92604</v>
       </c>
       <c r="D36" t="n">
-        <v>0.956245</v>
+        <v>0.9560149999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.961961</v>
+        <v>0.994892</v>
       </c>
       <c r="C37" t="n">
-        <v>0.945591</v>
+        <v>0.956045</v>
       </c>
       <c r="D37" t="n">
-        <v>1.19871</v>
+        <v>1.1378</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.14419</v>
+        <v>1.11505</v>
       </c>
       <c r="C38" t="n">
-        <v>1.13444</v>
+        <v>1.10151</v>
       </c>
       <c r="D38" t="n">
-        <v>1.17289</v>
+        <v>1.12766</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.14323</v>
+        <v>1.13099</v>
       </c>
       <c r="C39" t="n">
-        <v>1.11942</v>
+        <v>1.09402</v>
       </c>
       <c r="D39" t="n">
-        <v>1.14518</v>
+        <v>1.17064</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.11706</v>
+        <v>1.11481</v>
       </c>
       <c r="C40" t="n">
-        <v>1.13144</v>
+        <v>1.07744</v>
       </c>
       <c r="D40" t="n">
-        <v>1.1409</v>
+        <v>1.11133</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.10539</v>
+        <v>1.12718</v>
       </c>
       <c r="C41" t="n">
-        <v>1.09286</v>
+        <v>1.08409</v>
       </c>
       <c r="D41" t="n">
-        <v>1.11427</v>
+        <v>1.06644</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.087</v>
+        <v>1.11198</v>
       </c>
       <c r="C42" t="n">
-        <v>1.07702</v>
+        <v>1.07048</v>
       </c>
       <c r="D42" t="n">
-        <v>1.09105</v>
+        <v>1.08127</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.1002</v>
+        <v>1.05929</v>
       </c>
       <c r="C43" t="n">
-        <v>1.11583</v>
+        <v>1.08777</v>
       </c>
       <c r="D43" t="n">
-        <v>1.07447</v>
+        <v>1.07185</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0649</v>
+        <v>1.07145</v>
       </c>
       <c r="C44" t="n">
-        <v>1.03413</v>
+        <v>1.04238</v>
       </c>
       <c r="D44" t="n">
-        <v>1.08788</v>
+        <v>1.02985</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.06869</v>
+        <v>1.02861</v>
       </c>
       <c r="C45" t="n">
-        <v>1.0461</v>
+        <v>1.04665</v>
       </c>
       <c r="D45" t="n">
-        <v>1.06698</v>
+        <v>1.04051</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.06805</v>
+        <v>1.03095</v>
       </c>
       <c r="C46" t="n">
-        <v>1.03408</v>
+        <v>1.00708</v>
       </c>
       <c r="D46" t="n">
-        <v>1.03763</v>
+        <v>1.0031</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03731</v>
+        <v>1.01144</v>
       </c>
       <c r="C47" t="n">
-        <v>1.02776</v>
+        <v>1.01894</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03091</v>
+        <v>1.02625</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.03983</v>
+        <v>0.998584</v>
       </c>
       <c r="C48" t="n">
-        <v>1.00749</v>
+        <v>1.0072</v>
       </c>
       <c r="D48" t="n">
-        <v>1.03494</v>
+        <v>0.994052</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.01276</v>
+        <v>1.00243</v>
       </c>
       <c r="C49" t="n">
-        <v>1.04617</v>
+        <v>0.972776</v>
       </c>
       <c r="D49" t="n">
-        <v>1.02819</v>
+        <v>1.00845</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.03692</v>
+        <v>1.03499</v>
       </c>
       <c r="C50" t="n">
-        <v>0.997994</v>
+        <v>0.973423</v>
       </c>
       <c r="D50" t="n">
-        <v>1.02504</v>
+        <v>0.998674</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0249</v>
+        <v>1.00428</v>
       </c>
       <c r="C51" t="n">
-        <v>1.02378</v>
+        <v>0.999352</v>
       </c>
       <c r="D51" t="n">
-        <v>1.20756</v>
+        <v>1.18735</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.00728</v>
+        <v>0.972971</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0143</v>
+        <v>0.956989</v>
       </c>
       <c r="D52" t="n">
-        <v>1.19527</v>
+        <v>1.18591</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.21789</v>
+        <v>1.16444</v>
       </c>
       <c r="C53" t="n">
-        <v>1.17731</v>
+        <v>1.13947</v>
       </c>
       <c r="D53" t="n">
-        <v>1.18078</v>
+        <v>1.17475</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.19645</v>
+        <v>1.15308</v>
       </c>
       <c r="C54" t="n">
-        <v>1.15689</v>
+        <v>1.14686</v>
       </c>
       <c r="D54" t="n">
-        <v>1.16298</v>
+        <v>1.14065</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.15443</v>
+        <v>1.19404</v>
       </c>
       <c r="C55" t="n">
-        <v>1.14312</v>
+        <v>1.12142</v>
       </c>
       <c r="D55" t="n">
-        <v>1.16821</v>
+        <v>1.12977</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.18047</v>
+        <v>1.13295</v>
       </c>
       <c r="C56" t="n">
-        <v>1.14705</v>
+        <v>1.09863</v>
       </c>
       <c r="D56" t="n">
-        <v>1.15885</v>
+        <v>1.09408</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.13744</v>
+        <v>1.12406</v>
       </c>
       <c r="C57" t="n">
-        <v>1.13628</v>
+        <v>1.08589</v>
       </c>
       <c r="D57" t="n">
-        <v>1.12769</v>
+        <v>1.08384</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.12628</v>
+        <v>1.11214</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12338</v>
+        <v>1.11666</v>
       </c>
       <c r="D58" t="n">
-        <v>1.09427</v>
+        <v>1.08089</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.15144</v>
+        <v>1.09758</v>
       </c>
       <c r="C59" t="n">
-        <v>1.09988</v>
+        <v>1.09105</v>
       </c>
       <c r="D59" t="n">
-        <v>1.09348</v>
+        <v>1.05654</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11544</v>
+        <v>1.071</v>
       </c>
       <c r="C60" t="n">
-        <v>1.08289</v>
+        <v>1.04931</v>
       </c>
       <c r="D60" t="n">
-        <v>1.10765</v>
+        <v>1.05257</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.11748</v>
+        <v>1.07845</v>
       </c>
       <c r="C61" t="n">
-        <v>1.09034</v>
+        <v>1.05247</v>
       </c>
       <c r="D61" t="n">
-        <v>1.07074</v>
+        <v>1.04124</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.11587</v>
+        <v>1.09309</v>
       </c>
       <c r="C62" t="n">
-        <v>1.08636</v>
+        <v>1.0336</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0818</v>
+        <v>1.0385</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.11031</v>
+        <v>1.0461</v>
       </c>
       <c r="C63" t="n">
-        <v>1.05613</v>
+        <v>1.04311</v>
       </c>
       <c r="D63" t="n">
-        <v>1.07233</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.07207</v>
+        <v>1.05477</v>
       </c>
       <c r="C64" t="n">
-        <v>1.03925</v>
+        <v>1.01498</v>
       </c>
       <c r="D64" t="n">
-        <v>1.04701</v>
+        <v>1.05977</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.0861</v>
+        <v>1.04822</v>
       </c>
       <c r="C65" t="n">
-        <v>1.03045</v>
+        <v>1.01784</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04048</v>
+        <v>1.01977</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.07825</v>
+        <v>1.0568</v>
       </c>
       <c r="C66" t="n">
-        <v>1.04394</v>
+        <v>1.00704</v>
       </c>
       <c r="D66" t="n">
-        <v>1.28949</v>
+        <v>1.21353</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.24549</v>
+        <v>1.2248</v>
       </c>
       <c r="C67" t="n">
-        <v>1.24466</v>
+        <v>1.20951</v>
       </c>
       <c r="D67" t="n">
-        <v>1.27982</v>
+        <v>1.23731</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.24232</v>
+        <v>1.22713</v>
       </c>
       <c r="C68" t="n">
-        <v>1.25239</v>
+        <v>1.24342</v>
       </c>
       <c r="D68" t="n">
-        <v>1.22131</v>
+        <v>1.23659</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.24417</v>
+        <v>1.24494</v>
       </c>
       <c r="C69" t="n">
-        <v>1.22909</v>
+        <v>1.21544</v>
       </c>
       <c r="D69" t="n">
-        <v>1.24198</v>
+        <v>1.22925</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.26503</v>
+        <v>1.22635</v>
       </c>
       <c r="C70" t="n">
-        <v>1.20257</v>
+        <v>1.18363</v>
       </c>
       <c r="D70" t="n">
-        <v>1.21814</v>
+        <v>1.15964</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.2125</v>
+        <v>1.22443</v>
       </c>
       <c r="C71" t="n">
-        <v>1.21281</v>
+        <v>1.19436</v>
       </c>
       <c r="D71" t="n">
-        <v>1.1832</v>
+        <v>1.19797</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.21813</v>
+        <v>1.19004</v>
       </c>
       <c r="C72" t="n">
-        <v>1.20894</v>
+        <v>1.15781</v>
       </c>
       <c r="D72" t="n">
-        <v>1.18709</v>
+        <v>1.15569</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.24292</v>
+        <v>1.16768</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19191</v>
+        <v>1.15973</v>
       </c>
       <c r="D73" t="n">
-        <v>1.16264</v>
+        <v>1.18496</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.20221</v>
+        <v>1.17329</v>
       </c>
       <c r="C74" t="n">
-        <v>1.16035</v>
+        <v>1.13744</v>
       </c>
       <c r="D74" t="n">
-        <v>1.1654</v>
+        <v>1.13203</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19644</v>
+        <v>1.2205</v>
       </c>
       <c r="C75" t="n">
-        <v>1.17443</v>
+        <v>1.14669</v>
       </c>
       <c r="D75" t="n">
-        <v>1.15345</v>
+        <v>1.12685</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.16468</v>
+        <v>1.17604</v>
       </c>
       <c r="C76" t="n">
-        <v>1.18759</v>
+        <v>1.14417</v>
       </c>
       <c r="D76" t="n">
-        <v>1.15869</v>
+        <v>1.1504</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.18274</v>
+        <v>1.19747</v>
       </c>
       <c r="C77" t="n">
-        <v>1.15298</v>
+        <v>1.15932</v>
       </c>
       <c r="D77" t="n">
-        <v>1.17497</v>
+        <v>1.12721</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.1594</v>
+        <v>1.15253</v>
       </c>
       <c r="C78" t="n">
-        <v>1.15372</v>
+        <v>1.1432</v>
       </c>
       <c r="D78" t="n">
-        <v>1.14909</v>
+        <v>1.10535</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.1456</v>
+        <v>1.12772</v>
       </c>
       <c r="C79" t="n">
-        <v>1.13904</v>
+        <v>1.14102</v>
       </c>
       <c r="D79" t="n">
-        <v>1.1485</v>
+        <v>1.16785</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15479</v>
+        <v>1.13706</v>
       </c>
       <c r="C80" t="n">
-        <v>1.15322</v>
+        <v>1.14217</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35444</v>
+        <v>1.35775</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.38104</v>
+        <v>1.35738</v>
       </c>
       <c r="C81" t="n">
-        <v>1.39272</v>
+        <v>1.37585</v>
       </c>
       <c r="D81" t="n">
-        <v>1.38347</v>
+        <v>1.34768</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.3732</v>
+        <v>1.35528</v>
       </c>
       <c r="C82" t="n">
-        <v>1.39126</v>
+        <v>1.40972</v>
       </c>
       <c r="D82" t="n">
-        <v>1.35358</v>
+        <v>1.30766</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.3516</v>
+        <v>1.3471</v>
       </c>
       <c r="C83" t="n">
-        <v>1.39048</v>
+        <v>1.34249</v>
       </c>
       <c r="D83" t="n">
-        <v>1.32334</v>
+        <v>1.3215</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.35615</v>
+        <v>1.33711</v>
       </c>
       <c r="C84" t="n">
-        <v>1.35399</v>
+        <v>1.32995</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34963</v>
+        <v>1.27816</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.34571</v>
+        <v>1.34166</v>
       </c>
       <c r="C85" t="n">
-        <v>1.36786</v>
+        <v>1.29781</v>
       </c>
       <c r="D85" t="n">
-        <v>1.31059</v>
+        <v>1.27924</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.34614</v>
+        <v>1.3137</v>
       </c>
       <c r="C86" t="n">
-        <v>1.32711</v>
+        <v>1.32653</v>
       </c>
       <c r="D86" t="n">
-        <v>1.31716</v>
+        <v>1.29878</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.31275</v>
+        <v>1.28617</v>
       </c>
       <c r="C87" t="n">
-        <v>1.32134</v>
+        <v>1.29803</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32457</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.30487</v>
+        <v>1.33467</v>
       </c>
       <c r="C88" t="n">
-        <v>1.29314</v>
+        <v>1.2817</v>
       </c>
       <c r="D88" t="n">
-        <v>1.29223</v>
+        <v>1.26671</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.30904</v>
+        <v>1.3489</v>
       </c>
       <c r="C89" t="n">
-        <v>1.29542</v>
+        <v>1.26205</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26936</v>
+        <v>1.26926</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.31517</v>
+        <v>1.32588</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29328</v>
+        <v>1.26543</v>
       </c>
       <c r="D90" t="n">
-        <v>1.27563</v>
+        <v>1.26377</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.36396</v>
+        <v>1.36617</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29911</v>
+        <v>1.24273</v>
       </c>
       <c r="D91" t="n">
-        <v>1.28854</v>
+        <v>1.26707</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.30567</v>
+        <v>1.32702</v>
       </c>
       <c r="C92" t="n">
-        <v>1.27968</v>
+        <v>1.24131</v>
       </c>
       <c r="D92" t="n">
-        <v>1.28858</v>
+        <v>1.27661</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.27849</v>
+        <v>1.25461</v>
       </c>
       <c r="C93" t="n">
-        <v>1.27695</v>
+        <v>1.28397</v>
       </c>
       <c r="D93" t="n">
-        <v>1.2608</v>
+        <v>1.21925</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.29616</v>
+        <v>1.26029</v>
       </c>
       <c r="C94" t="n">
-        <v>1.33333</v>
+        <v>1.23162</v>
       </c>
       <c r="D94" t="n">
-        <v>1.50919</v>
+        <v>1.4896</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.48541</v>
+        <v>1.49835</v>
       </c>
       <c r="C95" t="n">
-        <v>1.5096</v>
+        <v>1.47884</v>
       </c>
       <c r="D95" t="n">
-        <v>1.4925</v>
+        <v>1.45065</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.55995</v>
+        <v>1.49335</v>
       </c>
       <c r="C96" t="n">
-        <v>1.53275</v>
+        <v>1.48806</v>
       </c>
       <c r="D96" t="n">
-        <v>1.49295</v>
+        <v>1.46816</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.50253</v>
+        <v>1.49505</v>
       </c>
       <c r="C97" t="n">
-        <v>1.50903</v>
+        <v>1.47565</v>
       </c>
       <c r="D97" t="n">
-        <v>1.47225</v>
+        <v>1.43232</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.52313</v>
+        <v>1.53722</v>
       </c>
       <c r="C98" t="n">
-        <v>1.5033</v>
+        <v>1.46679</v>
       </c>
       <c r="D98" t="n">
-        <v>1.47169</v>
+        <v>1.44362</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.4997</v>
+        <v>1.46589</v>
       </c>
       <c r="C99" t="n">
-        <v>1.50626</v>
+        <v>1.46887</v>
       </c>
       <c r="D99" t="n">
-        <v>1.45328</v>
+        <v>1.43118</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.48516</v>
+        <v>1.47562</v>
       </c>
       <c r="C100" t="n">
-        <v>1.46773</v>
+        <v>1.44473</v>
       </c>
       <c r="D100" t="n">
-        <v>1.43162</v>
+        <v>1.42321</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.47438</v>
+        <v>1.45519</v>
       </c>
       <c r="C101" t="n">
-        <v>1.47508</v>
+        <v>1.47694</v>
       </c>
       <c r="D101" t="n">
-        <v>1.46779</v>
+        <v>1.4007</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.51188</v>
+        <v>1.47266</v>
       </c>
       <c r="C102" t="n">
-        <v>1.48149</v>
+        <v>1.47133</v>
       </c>
       <c r="D102" t="n">
-        <v>1.42333</v>
+        <v>1.40563</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.5062</v>
+        <v>1.44143</v>
       </c>
       <c r="C103" t="n">
-        <v>1.45105</v>
+        <v>1.43335</v>
       </c>
       <c r="D103" t="n">
-        <v>1.43533</v>
+        <v>1.39706</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48441</v>
+        <v>1.4538</v>
       </c>
       <c r="C104" t="n">
-        <v>1.44724</v>
+        <v>1.43109</v>
       </c>
       <c r="D104" t="n">
-        <v>1.43773</v>
+        <v>1.41944</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.46618</v>
+        <v>1.43385</v>
       </c>
       <c r="C105" t="n">
-        <v>1.47209</v>
+        <v>1.4099</v>
       </c>
       <c r="D105" t="n">
-        <v>1.41973</v>
+        <v>1.39976</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.49132</v>
+        <v>1.45213</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46878</v>
+        <v>1.42202</v>
       </c>
       <c r="D106" t="n">
-        <v>1.40927</v>
+        <v>1.36791</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.44056</v>
+        <v>1.43562</v>
       </c>
       <c r="C107" t="n">
-        <v>1.43192</v>
+        <v>1.46799</v>
       </c>
       <c r="D107" t="n">
-        <v>1.44413</v>
+        <v>1.44456</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.49154</v>
+        <v>1.48007</v>
       </c>
       <c r="C108" t="n">
-        <v>1.43813</v>
+        <v>1.4844</v>
       </c>
       <c r="D108" t="n">
-        <v>1.67753</v>
+        <v>1.67595</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.4791</v>
+        <v>1.4613</v>
       </c>
       <c r="C109" t="n">
-        <v>1.43623</v>
+        <v>1.46111</v>
       </c>
       <c r="D109" t="n">
-        <v>1.64838</v>
+        <v>1.65263</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.67972</v>
+        <v>1.68598</v>
       </c>
       <c r="C110" t="n">
-        <v>1.6945</v>
+        <v>1.66454</v>
       </c>
       <c r="D110" t="n">
-        <v>1.61917</v>
+        <v>1.67509</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.6973</v>
+        <v>1.67141</v>
       </c>
       <c r="C111" t="n">
-        <v>1.67189</v>
+        <v>1.65736</v>
       </c>
       <c r="D111" t="n">
-        <v>1.62608</v>
+        <v>1.64057</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.6972</v>
+        <v>1.69773</v>
       </c>
       <c r="C112" t="n">
-        <v>1.64198</v>
+        <v>1.683</v>
       </c>
       <c r="D112" t="n">
-        <v>1.62541</v>
+        <v>1.63328</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.67626</v>
+        <v>1.6701</v>
       </c>
       <c r="C113" t="n">
-        <v>1.65548</v>
+        <v>1.68195</v>
       </c>
       <c r="D113" t="n">
-        <v>1.63631</v>
+        <v>1.59283</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.64924</v>
+        <v>1.68976</v>
       </c>
       <c r="C114" t="n">
-        <v>1.68841</v>
+        <v>1.68431</v>
       </c>
       <c r="D114" t="n">
-        <v>1.58449</v>
+        <v>1.60719</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.68101</v>
+        <v>1.7113</v>
       </c>
       <c r="C115" t="n">
-        <v>1.67182</v>
+        <v>1.69844</v>
       </c>
       <c r="D115" t="n">
-        <v>1.60021</v>
+        <v>1.6558</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.70311</v>
+        <v>1.69715</v>
       </c>
       <c r="C116" t="n">
-        <v>1.64922</v>
+        <v>1.70599</v>
       </c>
       <c r="D116" t="n">
-        <v>1.60226</v>
+        <v>1.62001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.71501</v>
+        <v>1.69358</v>
       </c>
       <c r="C117" t="n">
-        <v>1.65396</v>
+        <v>1.68687</v>
       </c>
       <c r="D117" t="n">
-        <v>1.60714</v>
+        <v>1.60502</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.68681</v>
+        <v>1.704</v>
       </c>
       <c r="C118" t="n">
-        <v>1.67033</v>
+        <v>1.68577</v>
       </c>
       <c r="D118" t="n">
-        <v>1.6162</v>
+        <v>1.59254</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.64308</v>
+        <v>1.67217</v>
       </c>
       <c r="C119" t="n">
-        <v>1.65287</v>
+        <v>1.68468</v>
       </c>
       <c r="D119" t="n">
-        <v>1.5844</v>
+        <v>1.58255</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.72392</v>
+        <v>1.70818</v>
       </c>
       <c r="C120" t="n">
-        <v>1.67654</v>
+        <v>1.63966</v>
       </c>
       <c r="D120" t="n">
-        <v>1.58817</v>
+        <v>1.58392</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.69508</v>
+        <v>1.69831</v>
       </c>
       <c r="C121" t="n">
-        <v>1.67213</v>
+        <v>1.67375</v>
       </c>
       <c r="D121" t="n">
-        <v>1.59408</v>
+        <v>1.61809</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.71083</v>
+        <v>1.69445</v>
       </c>
       <c r="C122" t="n">
-        <v>1.67404</v>
+        <v>1.74225</v>
       </c>
       <c r="D122" t="n">
-        <v>1.60726</v>
+        <v>1.60582</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.67493</v>
+        <v>1.70541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.66415</v>
+        <v>1.70878</v>
       </c>
       <c r="D123" t="n">
-        <v>1.84701</v>
+        <v>1.88299</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.92954</v>
+        <v>1.91723</v>
       </c>
       <c r="C124" t="n">
-        <v>1.93876</v>
+        <v>1.90677</v>
       </c>
       <c r="D124" t="n">
-        <v>1.83672</v>
+        <v>1.85169</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.93899</v>
+        <v>1.93463</v>
       </c>
       <c r="C125" t="n">
-        <v>1.89973</v>
+        <v>1.91949</v>
       </c>
       <c r="D125" t="n">
-        <v>1.82706</v>
+        <v>1.82812</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.93436</v>
+        <v>1.95152</v>
       </c>
       <c r="C126" t="n">
-        <v>1.91703</v>
+        <v>1.89653</v>
       </c>
       <c r="D126" t="n">
-        <v>1.83174</v>
+        <v>1.80456</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.92977</v>
+        <v>1.95484</v>
       </c>
       <c r="C127" t="n">
-        <v>1.92628</v>
+        <v>1.92317</v>
       </c>
       <c r="D127" t="n">
-        <v>1.86092</v>
+        <v>1.83225</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.94498</v>
+        <v>1.98102</v>
       </c>
       <c r="C128" t="n">
-        <v>1.91324</v>
+        <v>1.91294</v>
       </c>
       <c r="D128" t="n">
-        <v>1.83161</v>
+        <v>1.81889</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.9563</v>
+        <v>1.94102</v>
       </c>
       <c r="C129" t="n">
-        <v>1.88813</v>
+        <v>1.90979</v>
       </c>
       <c r="D129" t="n">
-        <v>1.83818</v>
+        <v>1.8408</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.96302</v>
+        <v>1.95676</v>
       </c>
       <c r="C130" t="n">
-        <v>1.92576</v>
+        <v>1.91052</v>
       </c>
       <c r="D130" t="n">
-        <v>1.83414</v>
+        <v>1.84438</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.92914</v>
+        <v>1.9639</v>
       </c>
       <c r="C131" t="n">
-        <v>1.92679</v>
+        <v>1.89193</v>
       </c>
       <c r="D131" t="n">
-        <v>1.82677</v>
+        <v>1.85361</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.97768</v>
+        <v>1.98611</v>
       </c>
       <c r="C132" t="n">
-        <v>1.916</v>
+        <v>1.93413</v>
       </c>
       <c r="D132" t="n">
-        <v>1.82048</v>
+        <v>1.83826</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.96142</v>
+        <v>1.94309</v>
       </c>
       <c r="C133" t="n">
-        <v>1.90417</v>
+        <v>1.93299</v>
       </c>
       <c r="D133" t="n">
-        <v>1.84343</v>
+        <v>1.8547</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.94882</v>
+        <v>1.94059</v>
       </c>
       <c r="C134" t="n">
-        <v>1.90614</v>
+        <v>1.93931</v>
       </c>
       <c r="D134" t="n">
-        <v>1.85827</v>
+        <v>1.8694</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.95207</v>
+        <v>1.97673</v>
       </c>
       <c r="C135" t="n">
-        <v>1.93322</v>
+        <v>1.91533</v>
       </c>
       <c r="D135" t="n">
-        <v>1.84984</v>
+        <v>1.84343</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.99095</v>
+        <v>1.99877</v>
       </c>
       <c r="C136" t="n">
-        <v>1.94097</v>
+        <v>1.9283</v>
       </c>
       <c r="D136" t="n">
-        <v>1.84749</v>
+        <v>1.86049</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.97526</v>
+        <v>1.97911</v>
       </c>
       <c r="C137" t="n">
-        <v>1.93614</v>
+        <v>1.94954</v>
       </c>
       <c r="D137" t="n">
-        <v>2.12227</v>
+        <v>2.15748</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.20169</v>
+        <v>2.24658</v>
       </c>
       <c r="C138" t="n">
-        <v>2.20059</v>
+        <v>2.19348</v>
       </c>
       <c r="D138" t="n">
-        <v>2.11375</v>
+        <v>2.1244</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.2303</v>
+        <v>2.24712</v>
       </c>
       <c r="C139" t="n">
-        <v>2.19625</v>
+        <v>2.18853</v>
       </c>
       <c r="D139" t="n">
-        <v>2.11314</v>
+        <v>2.12632</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.22633</v>
+        <v>2.24943</v>
       </c>
       <c r="C140" t="n">
-        <v>2.21361</v>
+        <v>2.18533</v>
       </c>
       <c r="D140" t="n">
-        <v>2.11545</v>
+        <v>2.12688</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.22772</v>
+        <v>2.24805</v>
       </c>
       <c r="C141" t="n">
-        <v>2.20569</v>
+        <v>2.18024</v>
       </c>
       <c r="D141" t="n">
-        <v>2.11202</v>
+        <v>2.12234</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.24985</v>
+        <v>2.27594</v>
       </c>
       <c r="C142" t="n">
-        <v>2.18432</v>
+        <v>2.19346</v>
       </c>
       <c r="D142" t="n">
-        <v>2.13865</v>
+        <v>2.14352</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.24588</v>
+        <v>2.26636</v>
       </c>
       <c r="C143" t="n">
-        <v>2.20066</v>
+        <v>2.20559</v>
       </c>
       <c r="D143" t="n">
-        <v>2.13015</v>
+        <v>2.13864</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>1.02318</v>
+        <v>1.05215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.91729</v>
+        <v>0.9496250000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.882705</v>
+        <v>0.95151</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.878328</v>
+        <v>0.955559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.902166</v>
+        <v>0.9393860000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.902593</v>
+        <v>0.937966</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.919706</v>
+        <v>0.93581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.891827</v>
+        <v>0.900079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.872466</v>
+        <v>0.923156</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.921666</v>
+        <v>0.93299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.887639</v>
+        <v>0.924272</v>
       </c>
       <c r="D5" t="n">
-        <v>0.87343</v>
+        <v>0.90179</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.914238</v>
+        <v>0.943295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.874568</v>
+        <v>0.89539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.864951</v>
+        <v>0.8896770000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.935624</v>
+        <v>0.889823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.860823</v>
+        <v>0.912736</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8863799999999999</v>
+        <v>0.891593</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.892842</v>
+        <v>0.9220469999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.857106</v>
+        <v>0.92363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.851593</v>
+        <v>0.9326950000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.92111</v>
+        <v>0.936532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.866321</v>
+        <v>0.947586</v>
       </c>
       <c r="D9" t="n">
-        <v>1.02404</v>
+        <v>1.01337</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.979579</v>
+        <v>1.03913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9564589999999999</v>
+        <v>1.04334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.983113</v>
+        <v>1.0249</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.97781</v>
+        <v>1.01302</v>
       </c>
       <c r="C11" t="n">
-        <v>1.01438</v>
+        <v>1.03815</v>
       </c>
       <c r="D11" t="n">
-        <v>0.970132</v>
+        <v>0.994126</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.960971</v>
+        <v>1.01376</v>
       </c>
       <c r="C12" t="n">
-        <v>0.939816</v>
+        <v>0.996801</v>
       </c>
       <c r="D12" t="n">
-        <v>0.927758</v>
+        <v>0.977364</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.945215</v>
+        <v>0.992646</v>
       </c>
       <c r="C13" t="n">
-        <v>0.927906</v>
+        <v>0.993382</v>
       </c>
       <c r="D13" t="n">
-        <v>0.914985</v>
+        <v>0.98364</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.929573</v>
+        <v>0.99357</v>
       </c>
       <c r="C14" t="n">
-        <v>0.973461</v>
+        <v>0.949693</v>
       </c>
       <c r="D14" t="n">
-        <v>0.920926</v>
+        <v>0.988232</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.91382</v>
+        <v>0.961226</v>
       </c>
       <c r="C15" t="n">
-        <v>0.919907</v>
+        <v>0.939089</v>
       </c>
       <c r="D15" t="n">
-        <v>0.932009</v>
+        <v>0.946075</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8983409999999999</v>
+        <v>0.99479</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8940709999999999</v>
+        <v>0.974623</v>
       </c>
       <c r="D16" t="n">
-        <v>0.885158</v>
+        <v>0.947102</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.901546</v>
+        <v>0.96695</v>
       </c>
       <c r="C17" t="n">
-        <v>0.898478</v>
+        <v>0.9625280000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.879536</v>
+        <v>0.9421349999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.897716</v>
+        <v>0.912535</v>
       </c>
       <c r="C18" t="n">
-        <v>0.878808</v>
+        <v>0.921831</v>
       </c>
       <c r="D18" t="n">
-        <v>0.874923</v>
+        <v>0.910598</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.893169</v>
+        <v>0.920702</v>
       </c>
       <c r="C19" t="n">
-        <v>0.87115</v>
+        <v>0.9160199999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.867395</v>
+        <v>0.906301</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.899552</v>
+        <v>0.945891</v>
       </c>
       <c r="C20" t="n">
-        <v>0.868183</v>
+        <v>0.9165720000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.881542</v>
+        <v>0.889624</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.875381</v>
+        <v>0.89331</v>
       </c>
       <c r="C21" t="n">
-        <v>0.902849</v>
+        <v>0.907127</v>
       </c>
       <c r="D21" t="n">
-        <v>0.851633</v>
+        <v>0.917231</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8791</v>
+        <v>0.90796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.905012</v>
+        <v>0.906907</v>
       </c>
       <c r="D22" t="n">
-        <v>0.886011</v>
+        <v>0.907142</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8849860000000001</v>
+        <v>0.892774</v>
       </c>
       <c r="C23" t="n">
-        <v>0.853702</v>
+        <v>0.906732</v>
       </c>
       <c r="D23" t="n">
-        <v>1.09436</v>
+        <v>1.11972</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.03828</v>
+        <v>1.10082</v>
       </c>
       <c r="C24" t="n">
-        <v>1.04741</v>
+        <v>1.08379</v>
       </c>
       <c r="D24" t="n">
-        <v>1.06199</v>
+        <v>1.0965</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.02394</v>
+        <v>1.05321</v>
       </c>
       <c r="C25" t="n">
-        <v>1.04524</v>
+        <v>1.0518</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0877</v>
+        <v>1.08719</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01606</v>
+        <v>1.03057</v>
       </c>
       <c r="C26" t="n">
-        <v>1.01329</v>
+        <v>1.06186</v>
       </c>
       <c r="D26" t="n">
-        <v>1.04082</v>
+        <v>1.07022</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.038</v>
+        <v>1.07382</v>
       </c>
       <c r="C27" t="n">
-        <v>1.04062</v>
+        <v>1.04333</v>
       </c>
       <c r="D27" t="n">
-        <v>1.07006</v>
+        <v>1.04686</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.03115</v>
+        <v>1.04302</v>
       </c>
       <c r="C28" t="n">
-        <v>1.03022</v>
+        <v>1.02817</v>
       </c>
       <c r="D28" t="n">
-        <v>1.02166</v>
+        <v>1.06557</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.02052</v>
+        <v>1.01876</v>
       </c>
       <c r="C29" t="n">
-        <v>1.04224</v>
+        <v>1.01548</v>
       </c>
       <c r="D29" t="n">
-        <v>1.02443</v>
+        <v>1.04028</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.02466</v>
+        <v>0.987951</v>
       </c>
       <c r="C30" t="n">
-        <v>0.984854</v>
+        <v>0.999595</v>
       </c>
       <c r="D30" t="n">
-        <v>0.984978</v>
+        <v>1.01761</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.00005</v>
+        <v>0.997906</v>
       </c>
       <c r="C31" t="n">
-        <v>0.986318</v>
+        <v>0.997649</v>
       </c>
       <c r="D31" t="n">
-        <v>0.971906</v>
+        <v>1.02524</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.969815</v>
+        <v>1.00098</v>
       </c>
       <c r="C32" t="n">
-        <v>0.94654</v>
+        <v>0.977534</v>
       </c>
       <c r="D32" t="n">
-        <v>0.988824</v>
+        <v>1.00186</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.981205</v>
+        <v>0.992588</v>
       </c>
       <c r="C33" t="n">
-        <v>0.975368</v>
+        <v>0.959901</v>
       </c>
       <c r="D33" t="n">
-        <v>0.969676</v>
+        <v>0.994608</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9471309999999999</v>
+        <v>0.981329</v>
       </c>
       <c r="C34" t="n">
-        <v>0.936871</v>
+        <v>0.946468</v>
       </c>
       <c r="D34" t="n">
-        <v>0.945159</v>
+        <v>0.963596</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9726</v>
+        <v>0.956089</v>
       </c>
       <c r="C35" t="n">
-        <v>0.922743</v>
+        <v>0.939958</v>
       </c>
       <c r="D35" t="n">
-        <v>0.946993</v>
+        <v>0.979566</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.97906</v>
+        <v>0.964653</v>
       </c>
       <c r="C36" t="n">
-        <v>0.92604</v>
+        <v>0.94673</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9560149999999999</v>
+        <v>0.968464</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.994892</v>
+        <v>0.967313</v>
       </c>
       <c r="C37" t="n">
-        <v>0.956045</v>
+        <v>0.94512</v>
       </c>
       <c r="D37" t="n">
-        <v>1.1378</v>
+        <v>1.15759</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.11505</v>
+        <v>1.15443</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10151</v>
+        <v>1.16038</v>
       </c>
       <c r="D38" t="n">
-        <v>1.12766</v>
+        <v>1.15467</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.13099</v>
+        <v>1.1689</v>
       </c>
       <c r="C39" t="n">
-        <v>1.09402</v>
+        <v>1.14068</v>
       </c>
       <c r="D39" t="n">
-        <v>1.17064</v>
+        <v>1.14978</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.11481</v>
+        <v>1.1453</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07744</v>
+        <v>1.13012</v>
       </c>
       <c r="D40" t="n">
-        <v>1.11133</v>
+        <v>1.10931</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.12718</v>
+        <v>1.12209</v>
       </c>
       <c r="C41" t="n">
-        <v>1.08409</v>
+        <v>1.12151</v>
       </c>
       <c r="D41" t="n">
-        <v>1.06644</v>
+        <v>1.0978</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.11198</v>
+        <v>1.10985</v>
       </c>
       <c r="C42" t="n">
-        <v>1.07048</v>
+        <v>1.08055</v>
       </c>
       <c r="D42" t="n">
-        <v>1.08127</v>
+        <v>1.10157</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.05929</v>
+        <v>1.07847</v>
       </c>
       <c r="C43" t="n">
-        <v>1.08777</v>
+        <v>1.07756</v>
       </c>
       <c r="D43" t="n">
-        <v>1.07185</v>
+        <v>1.08542</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.07145</v>
+        <v>1.09877</v>
       </c>
       <c r="C44" t="n">
-        <v>1.04238</v>
+        <v>1.05161</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02985</v>
+        <v>1.08063</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.02861</v>
+        <v>1.03484</v>
       </c>
       <c r="C45" t="n">
-        <v>1.04665</v>
+        <v>1.06686</v>
       </c>
       <c r="D45" t="n">
-        <v>1.04051</v>
+        <v>1.04375</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.03095</v>
+        <v>1.0688</v>
       </c>
       <c r="C46" t="n">
-        <v>1.00708</v>
+        <v>1.02928</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0031</v>
+        <v>1.03164</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.01144</v>
+        <v>1.05688</v>
       </c>
       <c r="C47" t="n">
-        <v>1.01894</v>
+        <v>1.01129</v>
       </c>
       <c r="D47" t="n">
-        <v>1.02625</v>
+        <v>1.03006</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.998584</v>
+        <v>1.03272</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0072</v>
+        <v>1.00834</v>
       </c>
       <c r="D48" t="n">
-        <v>0.994052</v>
+        <v>1.01157</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00243</v>
+        <v>1.02129</v>
       </c>
       <c r="C49" t="n">
-        <v>0.972776</v>
+        <v>1.0137</v>
       </c>
       <c r="D49" t="n">
-        <v>1.00845</v>
+        <v>1.01333</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.03499</v>
+        <v>1.02327</v>
       </c>
       <c r="C50" t="n">
-        <v>0.973423</v>
+        <v>1.00291</v>
       </c>
       <c r="D50" t="n">
-        <v>0.998674</v>
+        <v>1.01729</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.00428</v>
+        <v>1.00784</v>
       </c>
       <c r="C51" t="n">
-        <v>0.999352</v>
+        <v>0.979796</v>
       </c>
       <c r="D51" t="n">
-        <v>1.18735</v>
+        <v>1.17657</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.972971</v>
+        <v>1.07235</v>
       </c>
       <c r="C52" t="n">
-        <v>0.956989</v>
+        <v>0.997501</v>
       </c>
       <c r="D52" t="n">
-        <v>1.18591</v>
+        <v>1.1693</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.16444</v>
+        <v>1.18497</v>
       </c>
       <c r="C53" t="n">
-        <v>1.13947</v>
+        <v>1.17618</v>
       </c>
       <c r="D53" t="n">
-        <v>1.17475</v>
+        <v>1.17829</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.15308</v>
+        <v>1.17039</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14686</v>
+        <v>1.15938</v>
       </c>
       <c r="D54" t="n">
-        <v>1.14065</v>
+        <v>1.18158</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.19404</v>
+        <v>1.15833</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12142</v>
+        <v>1.14296</v>
       </c>
       <c r="D55" t="n">
-        <v>1.12977</v>
+        <v>1.16327</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.13295</v>
+        <v>1.16358</v>
       </c>
       <c r="C56" t="n">
-        <v>1.09863</v>
+        <v>1.14849</v>
       </c>
       <c r="D56" t="n">
-        <v>1.09408</v>
+        <v>1.12337</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.12406</v>
+        <v>1.15913</v>
       </c>
       <c r="C57" t="n">
-        <v>1.08589</v>
+        <v>1.13981</v>
       </c>
       <c r="D57" t="n">
-        <v>1.08384</v>
+        <v>1.1057</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.11214</v>
+        <v>1.10851</v>
       </c>
       <c r="C58" t="n">
-        <v>1.11666</v>
+        <v>1.11843</v>
       </c>
       <c r="D58" t="n">
-        <v>1.08089</v>
+        <v>1.089</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.09758</v>
+        <v>1.11408</v>
       </c>
       <c r="C59" t="n">
-        <v>1.09105</v>
+        <v>1.11493</v>
       </c>
       <c r="D59" t="n">
-        <v>1.05654</v>
+        <v>1.1143</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.071</v>
+        <v>1.14465</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04931</v>
+        <v>1.12214</v>
       </c>
       <c r="D60" t="n">
-        <v>1.05257</v>
+        <v>1.08344</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.07845</v>
+        <v>1.10643</v>
       </c>
       <c r="C61" t="n">
-        <v>1.05247</v>
+        <v>1.08563</v>
       </c>
       <c r="D61" t="n">
-        <v>1.04124</v>
+        <v>1.08751</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.09309</v>
+        <v>1.08982</v>
       </c>
       <c r="C62" t="n">
-        <v>1.0336</v>
+        <v>1.07876</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0385</v>
+        <v>1.05864</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.0461</v>
+        <v>1.0685</v>
       </c>
       <c r="C63" t="n">
-        <v>1.04311</v>
+        <v>1.06836</v>
       </c>
       <c r="D63" t="n">
-        <v>1.03125</v>
+        <v>1.06773</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.05477</v>
+        <v>1.09266</v>
       </c>
       <c r="C64" t="n">
-        <v>1.01498</v>
+        <v>1.06027</v>
       </c>
       <c r="D64" t="n">
-        <v>1.05977</v>
+        <v>1.05619</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.04822</v>
+        <v>1.07136</v>
       </c>
       <c r="C65" t="n">
-        <v>1.01784</v>
+        <v>1.05685</v>
       </c>
       <c r="D65" t="n">
-        <v>1.01977</v>
+        <v>1.04993</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0568</v>
+        <v>1.05343</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00704</v>
+        <v>1.07241</v>
       </c>
       <c r="D66" t="n">
-        <v>1.21353</v>
+        <v>1.24242</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.2248</v>
+        <v>1.25711</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20951</v>
+        <v>1.25535</v>
       </c>
       <c r="D67" t="n">
-        <v>1.23731</v>
+        <v>1.22636</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.22713</v>
+        <v>1.29145</v>
       </c>
       <c r="C68" t="n">
-        <v>1.24342</v>
+        <v>1.23636</v>
       </c>
       <c r="D68" t="n">
-        <v>1.23659</v>
+        <v>1.21979</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.24494</v>
+        <v>1.25255</v>
       </c>
       <c r="C69" t="n">
-        <v>1.21544</v>
+        <v>1.25956</v>
       </c>
       <c r="D69" t="n">
-        <v>1.22925</v>
+        <v>1.21167</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.22635</v>
+        <v>1.24267</v>
       </c>
       <c r="C70" t="n">
-        <v>1.18363</v>
+        <v>1.21925</v>
       </c>
       <c r="D70" t="n">
-        <v>1.15964</v>
+        <v>1.21773</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.22443</v>
+        <v>1.19454</v>
       </c>
       <c r="C71" t="n">
-        <v>1.19436</v>
+        <v>1.20978</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19797</v>
+        <v>1.19234</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.19004</v>
+        <v>1.20488</v>
       </c>
       <c r="C72" t="n">
-        <v>1.15781</v>
+        <v>1.19756</v>
       </c>
       <c r="D72" t="n">
-        <v>1.15569</v>
+        <v>1.18103</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.16768</v>
+        <v>1.203</v>
       </c>
       <c r="C73" t="n">
-        <v>1.15973</v>
+        <v>1.20806</v>
       </c>
       <c r="D73" t="n">
-        <v>1.18496</v>
+        <v>1.20309</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17329</v>
+        <v>1.19359</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13744</v>
+        <v>1.176</v>
       </c>
       <c r="D74" t="n">
-        <v>1.13203</v>
+        <v>1.18523</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.2205</v>
+        <v>1.19402</v>
       </c>
       <c r="C75" t="n">
-        <v>1.14669</v>
+        <v>1.20067</v>
       </c>
       <c r="D75" t="n">
-        <v>1.12685</v>
+        <v>1.18824</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.17604</v>
+        <v>1.1769</v>
       </c>
       <c r="C76" t="n">
-        <v>1.14417</v>
+        <v>1.14649</v>
       </c>
       <c r="D76" t="n">
-        <v>1.1504</v>
+        <v>1.19969</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.19747</v>
+        <v>1.1617</v>
       </c>
       <c r="C77" t="n">
-        <v>1.15932</v>
+        <v>1.16105</v>
       </c>
       <c r="D77" t="n">
-        <v>1.12721</v>
+        <v>1.1402</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.15253</v>
+        <v>1.183</v>
       </c>
       <c r="C78" t="n">
-        <v>1.1432</v>
+        <v>1.15498</v>
       </c>
       <c r="D78" t="n">
-        <v>1.10535</v>
+        <v>1.14778</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.12772</v>
+        <v>1.16136</v>
       </c>
       <c r="C79" t="n">
-        <v>1.14102</v>
+        <v>1.13069</v>
       </c>
       <c r="D79" t="n">
-        <v>1.16785</v>
+        <v>1.16421</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.13706</v>
+        <v>1.17025</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14217</v>
+        <v>1.17385</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35775</v>
+        <v>1.39265</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.35738</v>
+        <v>1.38419</v>
       </c>
       <c r="C81" t="n">
-        <v>1.37585</v>
+        <v>1.37404</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34768</v>
+        <v>1.35038</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.35528</v>
+        <v>1.37791</v>
       </c>
       <c r="C82" t="n">
-        <v>1.40972</v>
+        <v>1.33523</v>
       </c>
       <c r="D82" t="n">
-        <v>1.30766</v>
+        <v>1.32419</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.3471</v>
+        <v>1.35236</v>
       </c>
       <c r="C83" t="n">
-        <v>1.34249</v>
+        <v>1.38605</v>
       </c>
       <c r="D83" t="n">
-        <v>1.3215</v>
+        <v>1.37195</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.33711</v>
+        <v>1.3586</v>
       </c>
       <c r="C84" t="n">
-        <v>1.32995</v>
+        <v>1.31935</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27816</v>
+        <v>1.34392</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.34166</v>
+        <v>1.33577</v>
       </c>
       <c r="C85" t="n">
-        <v>1.29781</v>
+        <v>1.31441</v>
       </c>
       <c r="D85" t="n">
-        <v>1.27924</v>
+        <v>1.31028</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.3137</v>
+        <v>1.35125</v>
       </c>
       <c r="C86" t="n">
-        <v>1.32653</v>
+        <v>1.33189</v>
       </c>
       <c r="D86" t="n">
-        <v>1.29878</v>
+        <v>1.2808</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.28617</v>
+        <v>1.35033</v>
       </c>
       <c r="C87" t="n">
-        <v>1.29803</v>
+        <v>1.29685</v>
       </c>
       <c r="D87" t="n">
-        <v>1.304</v>
+        <v>1.28525</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.33467</v>
+        <v>1.32161</v>
       </c>
       <c r="C88" t="n">
-        <v>1.2817</v>
+        <v>1.28038</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26671</v>
+        <v>1.28157</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.3489</v>
+        <v>1.34904</v>
       </c>
       <c r="C89" t="n">
-        <v>1.26205</v>
+        <v>1.33477</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26926</v>
+        <v>1.28522</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.32588</v>
+        <v>1.29941</v>
       </c>
       <c r="C90" t="n">
-        <v>1.26543</v>
+        <v>1.36188</v>
       </c>
       <c r="D90" t="n">
-        <v>1.26377</v>
+        <v>1.29095</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.36617</v>
+        <v>1.32037</v>
       </c>
       <c r="C91" t="n">
-        <v>1.24273</v>
+        <v>1.31835</v>
       </c>
       <c r="D91" t="n">
-        <v>1.26707</v>
+        <v>1.29256</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.32702</v>
+        <v>1.31124</v>
       </c>
       <c r="C92" t="n">
-        <v>1.24131</v>
+        <v>1.31372</v>
       </c>
       <c r="D92" t="n">
-        <v>1.27661</v>
+        <v>1.26489</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.25461</v>
+        <v>1.27396</v>
       </c>
       <c r="C93" t="n">
-        <v>1.28397</v>
+        <v>1.3058</v>
       </c>
       <c r="D93" t="n">
-        <v>1.21925</v>
+        <v>1.27572</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.26029</v>
+        <v>1.25576</v>
       </c>
       <c r="C94" t="n">
-        <v>1.23162</v>
+        <v>1.2898</v>
       </c>
       <c r="D94" t="n">
-        <v>1.4896</v>
+        <v>1.53648</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.49835</v>
+        <v>1.51477</v>
       </c>
       <c r="C95" t="n">
-        <v>1.47884</v>
+        <v>1.51236</v>
       </c>
       <c r="D95" t="n">
-        <v>1.45065</v>
+        <v>1.50013</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.49335</v>
+        <v>1.48986</v>
       </c>
       <c r="C96" t="n">
-        <v>1.48806</v>
+        <v>1.52327</v>
       </c>
       <c r="D96" t="n">
-        <v>1.46816</v>
+        <v>1.49179</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.49505</v>
+        <v>1.54942</v>
       </c>
       <c r="C97" t="n">
-        <v>1.47565</v>
+        <v>1.49628</v>
       </c>
       <c r="D97" t="n">
-        <v>1.43232</v>
+        <v>1.46278</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.53722</v>
+        <v>1.52273</v>
       </c>
       <c r="C98" t="n">
-        <v>1.46679</v>
+        <v>1.48447</v>
       </c>
       <c r="D98" t="n">
-        <v>1.44362</v>
+        <v>1.45894</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.46589</v>
+        <v>1.50496</v>
       </c>
       <c r="C99" t="n">
-        <v>1.46887</v>
+        <v>1.50686</v>
       </c>
       <c r="D99" t="n">
-        <v>1.43118</v>
+        <v>1.50509</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.47562</v>
+        <v>1.48799</v>
       </c>
       <c r="C100" t="n">
-        <v>1.44473</v>
+        <v>1.47263</v>
       </c>
       <c r="D100" t="n">
-        <v>1.42321</v>
+        <v>1.43054</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.45519</v>
+        <v>1.47726</v>
       </c>
       <c r="C101" t="n">
-        <v>1.47694</v>
+        <v>1.46411</v>
       </c>
       <c r="D101" t="n">
-        <v>1.4007</v>
+        <v>1.45384</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.47266</v>
+        <v>1.485</v>
       </c>
       <c r="C102" t="n">
-        <v>1.47133</v>
+        <v>1.4917</v>
       </c>
       <c r="D102" t="n">
-        <v>1.40563</v>
+        <v>1.42893</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.44143</v>
+        <v>1.49302</v>
       </c>
       <c r="C103" t="n">
-        <v>1.43335</v>
+        <v>1.48533</v>
       </c>
       <c r="D103" t="n">
-        <v>1.39706</v>
+        <v>1.44993</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.4538</v>
+        <v>1.44233</v>
       </c>
       <c r="C104" t="n">
-        <v>1.43109</v>
+        <v>1.44969</v>
       </c>
       <c r="D104" t="n">
-        <v>1.41944</v>
+        <v>1.40721</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.43385</v>
+        <v>1.44293</v>
       </c>
       <c r="C105" t="n">
-        <v>1.4099</v>
+        <v>1.43451</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39976</v>
+        <v>1.38301</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.45213</v>
+        <v>1.44797</v>
       </c>
       <c r="C106" t="n">
-        <v>1.42202</v>
+        <v>1.42524</v>
       </c>
       <c r="D106" t="n">
-        <v>1.36791</v>
+        <v>1.38536</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.43562</v>
+        <v>1.45472</v>
       </c>
       <c r="C107" t="n">
-        <v>1.46799</v>
+        <v>1.44273</v>
       </c>
       <c r="D107" t="n">
-        <v>1.44456</v>
+        <v>1.37622</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.48007</v>
+        <v>1.45597</v>
       </c>
       <c r="C108" t="n">
-        <v>1.4844</v>
+        <v>1.4288</v>
       </c>
       <c r="D108" t="n">
-        <v>1.67595</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.4613</v>
+        <v>1.43991</v>
       </c>
       <c r="C109" t="n">
-        <v>1.46111</v>
+        <v>1.45849</v>
       </c>
       <c r="D109" t="n">
-        <v>1.65263</v>
+        <v>1.66438</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.68598</v>
+        <v>1.67196</v>
       </c>
       <c r="C110" t="n">
-        <v>1.66454</v>
+        <v>1.73481</v>
       </c>
       <c r="D110" t="n">
-        <v>1.67509</v>
+        <v>1.62503</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.67141</v>
+        <v>1.66118</v>
       </c>
       <c r="C111" t="n">
-        <v>1.65736</v>
+        <v>1.70661</v>
       </c>
       <c r="D111" t="n">
-        <v>1.64057</v>
+        <v>1.64099</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.69773</v>
+        <v>1.69791</v>
       </c>
       <c r="C112" t="n">
-        <v>1.683</v>
+        <v>1.70054</v>
       </c>
       <c r="D112" t="n">
-        <v>1.63328</v>
+        <v>1.6364</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.6701</v>
+        <v>1.68685</v>
       </c>
       <c r="C113" t="n">
-        <v>1.68195</v>
+        <v>1.68983</v>
       </c>
       <c r="D113" t="n">
-        <v>1.59283</v>
+        <v>1.61824</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.68976</v>
+        <v>1.6666</v>
       </c>
       <c r="C114" t="n">
-        <v>1.68431</v>
+        <v>1.68424</v>
       </c>
       <c r="D114" t="n">
-        <v>1.60719</v>
+        <v>1.61032</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.7113</v>
+        <v>1.69377</v>
       </c>
       <c r="C115" t="n">
-        <v>1.69844</v>
+        <v>1.69052</v>
       </c>
       <c r="D115" t="n">
-        <v>1.6558</v>
+        <v>1.58039</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.69715</v>
+        <v>1.66508</v>
       </c>
       <c r="C116" t="n">
-        <v>1.70599</v>
+        <v>1.68506</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62001</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.69358</v>
+        <v>1.68309</v>
       </c>
       <c r="C117" t="n">
-        <v>1.68687</v>
+        <v>1.6702</v>
       </c>
       <c r="D117" t="n">
-        <v>1.60502</v>
+        <v>1.61004</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.704</v>
+        <v>1.68764</v>
       </c>
       <c r="C118" t="n">
-        <v>1.68577</v>
+        <v>1.67705</v>
       </c>
       <c r="D118" t="n">
-        <v>1.59254</v>
+        <v>1.58341</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.67217</v>
+        <v>1.66372</v>
       </c>
       <c r="C119" t="n">
-        <v>1.68468</v>
+        <v>1.67779</v>
       </c>
       <c r="D119" t="n">
-        <v>1.58255</v>
+        <v>1.59469</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.70818</v>
+        <v>1.69831</v>
       </c>
       <c r="C120" t="n">
-        <v>1.63966</v>
+        <v>1.68182</v>
       </c>
       <c r="D120" t="n">
-        <v>1.58392</v>
+        <v>1.58498</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.69831</v>
+        <v>1.69161</v>
       </c>
       <c r="C121" t="n">
-        <v>1.67375</v>
+        <v>1.67351</v>
       </c>
       <c r="D121" t="n">
-        <v>1.61809</v>
+        <v>1.57528</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.69445</v>
+        <v>1.70369</v>
       </c>
       <c r="C122" t="n">
-        <v>1.74225</v>
+        <v>1.68402</v>
       </c>
       <c r="D122" t="n">
-        <v>1.60582</v>
+        <v>1.57736</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.70541</v>
+        <v>1.67162</v>
       </c>
       <c r="C123" t="n">
-        <v>1.70878</v>
+        <v>1.69712</v>
       </c>
       <c r="D123" t="n">
-        <v>1.88299</v>
+        <v>1.84509</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.91723</v>
+        <v>1.92784</v>
       </c>
       <c r="C124" t="n">
-        <v>1.90677</v>
+        <v>1.93064</v>
       </c>
       <c r="D124" t="n">
-        <v>1.85169</v>
+        <v>1.82667</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.93463</v>
+        <v>1.91423</v>
       </c>
       <c r="C125" t="n">
-        <v>1.91949</v>
+        <v>1.94902</v>
       </c>
       <c r="D125" t="n">
-        <v>1.82812</v>
+        <v>1.84378</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.95152</v>
+        <v>1.91484</v>
       </c>
       <c r="C126" t="n">
-        <v>1.89653</v>
+        <v>1.91739</v>
       </c>
       <c r="D126" t="n">
-        <v>1.80456</v>
+        <v>1.85271</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.95484</v>
+        <v>1.9376</v>
       </c>
       <c r="C127" t="n">
-        <v>1.92317</v>
+        <v>1.9166</v>
       </c>
       <c r="D127" t="n">
-        <v>1.83225</v>
+        <v>1.86211</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.98102</v>
+        <v>1.9503</v>
       </c>
       <c r="C128" t="n">
-        <v>1.91294</v>
+        <v>1.93098</v>
       </c>
       <c r="D128" t="n">
-        <v>1.81889</v>
+        <v>1.85714</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.94102</v>
+        <v>1.92896</v>
       </c>
       <c r="C129" t="n">
-        <v>1.90979</v>
+        <v>1.89368</v>
       </c>
       <c r="D129" t="n">
-        <v>1.8408</v>
+        <v>1.84825</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.95676</v>
+        <v>1.94342</v>
       </c>
       <c r="C130" t="n">
-        <v>1.91052</v>
+        <v>1.90132</v>
       </c>
       <c r="D130" t="n">
-        <v>1.84438</v>
+        <v>1.83338</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.9639</v>
+        <v>1.96916</v>
       </c>
       <c r="C131" t="n">
-        <v>1.89193</v>
+        <v>1.92653</v>
       </c>
       <c r="D131" t="n">
-        <v>1.85361</v>
+        <v>1.83529</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.98611</v>
+        <v>1.95392</v>
       </c>
       <c r="C132" t="n">
-        <v>1.93413</v>
+        <v>1.89546</v>
       </c>
       <c r="D132" t="n">
-        <v>1.83826</v>
+        <v>1.83922</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.94309</v>
+        <v>1.94709</v>
       </c>
       <c r="C133" t="n">
-        <v>1.93299</v>
+        <v>1.92608</v>
       </c>
       <c r="D133" t="n">
-        <v>1.8547</v>
+        <v>1.85934</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.94059</v>
+        <v>1.97195</v>
       </c>
       <c r="C134" t="n">
-        <v>1.93931</v>
+        <v>1.9362</v>
       </c>
       <c r="D134" t="n">
-        <v>1.8694</v>
+        <v>1.85258</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.97673</v>
+        <v>1.97317</v>
       </c>
       <c r="C135" t="n">
-        <v>1.91533</v>
+        <v>1.92386</v>
       </c>
       <c r="D135" t="n">
-        <v>1.84343</v>
+        <v>1.83998</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.99877</v>
+        <v>1.99594</v>
       </c>
       <c r="C136" t="n">
-        <v>1.9283</v>
+        <v>1.95419</v>
       </c>
       <c r="D136" t="n">
-        <v>1.86049</v>
+        <v>1.85035</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.97911</v>
+        <v>1.98434</v>
       </c>
       <c r="C137" t="n">
-        <v>1.94954</v>
+        <v>1.91332</v>
       </c>
       <c r="D137" t="n">
-        <v>2.15748</v>
+        <v>2.13348</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.24658</v>
+        <v>2.24607</v>
       </c>
       <c r="C138" t="n">
-        <v>2.19348</v>
+        <v>2.19176</v>
       </c>
       <c r="D138" t="n">
-        <v>2.1244</v>
+        <v>2.09995</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.24712</v>
+        <v>2.22797</v>
       </c>
       <c r="C139" t="n">
-        <v>2.18853</v>
+        <v>2.18139</v>
       </c>
       <c r="D139" t="n">
-        <v>2.12632</v>
+        <v>2.12759</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.24943</v>
+        <v>2.25616</v>
       </c>
       <c r="C140" t="n">
-        <v>2.18533</v>
+        <v>2.18173</v>
       </c>
       <c r="D140" t="n">
-        <v>2.12688</v>
+        <v>2.13582</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.24805</v>
+        <v>2.26914</v>
       </c>
       <c r="C141" t="n">
-        <v>2.18024</v>
+        <v>2.18361</v>
       </c>
       <c r="D141" t="n">
-        <v>2.12234</v>
+        <v>2.11301</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.27594</v>
+        <v>2.29682</v>
       </c>
       <c r="C142" t="n">
-        <v>2.19346</v>
+        <v>2.18538</v>
       </c>
       <c r="D142" t="n">
-        <v>2.14352</v>
+        <v>2.1485</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.26636</v>
+        <v>2.27069</v>
       </c>
       <c r="C143" t="n">
-        <v>2.20559</v>
+        <v>2.18874</v>
       </c>
       <c r="D143" t="n">
-        <v>2.13864</v>
+        <v>2.17091</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>1.05215</v>
+        <v>1.1564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9496250000000001</v>
+        <v>0.984339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.95151</v>
+        <v>0.986845</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.955559</v>
+        <v>0.942651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9393860000000001</v>
+        <v>0.940327</v>
       </c>
       <c r="D3" t="n">
-        <v>0.937966</v>
+        <v>0.9216490000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.93581</v>
+        <v>0.928663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.900079</v>
+        <v>0.9629180000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.923156</v>
+        <v>0.995223</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.93299</v>
+        <v>0.919239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.924272</v>
+        <v>0.928444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.90179</v>
+        <v>0.929976</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.943295</v>
+        <v>0.908818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.89539</v>
+        <v>0.915617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8896770000000001</v>
+        <v>0.920596</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.889823</v>
+        <v>0.93213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.912736</v>
+        <v>0.927242</v>
       </c>
       <c r="D7" t="n">
-        <v>0.891593</v>
+        <v>0.92219</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9220469999999999</v>
+        <v>0.942824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.92363</v>
+        <v>0.905632</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9326950000000001</v>
+        <v>0.910321</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.936532</v>
+        <v>0.925569</v>
       </c>
       <c r="C9" t="n">
-        <v>0.947586</v>
+        <v>0.986362</v>
       </c>
       <c r="D9" t="n">
-        <v>1.01337</v>
+        <v>1.05641</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.03913</v>
+        <v>1.12223</v>
       </c>
       <c r="C10" t="n">
-        <v>1.04334</v>
+        <v>1.12632</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0249</v>
+        <v>1.02643</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>1.01302</v>
+        <v>1.01284</v>
       </c>
       <c r="C11" t="n">
-        <v>1.03815</v>
+        <v>1.01218</v>
       </c>
       <c r="D11" t="n">
-        <v>0.994126</v>
+        <v>1.00408</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>1.01376</v>
+        <v>0.985755</v>
       </c>
       <c r="C12" t="n">
-        <v>0.996801</v>
+        <v>0.996279</v>
       </c>
       <c r="D12" t="n">
-        <v>0.977364</v>
+        <v>0.968058</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.992646</v>
+        <v>0.979781</v>
       </c>
       <c r="C13" t="n">
-        <v>0.993382</v>
+        <v>1.0268</v>
       </c>
       <c r="D13" t="n">
-        <v>0.98364</v>
+        <v>0.955719</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.99357</v>
+        <v>0.949888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.949693</v>
+        <v>0.951537</v>
       </c>
       <c r="D14" t="n">
-        <v>0.988232</v>
+        <v>0.947447</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.961226</v>
+        <v>0.939341</v>
       </c>
       <c r="C15" t="n">
-        <v>0.939089</v>
+        <v>0.926629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.946075</v>
+        <v>0.926137</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.99479</v>
+        <v>0.925552</v>
       </c>
       <c r="C16" t="n">
-        <v>0.974623</v>
+        <v>0.948967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.947102</v>
+        <v>0.947533</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.96695</v>
+        <v>0.950846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9625280000000001</v>
+        <v>0.925133</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9421349999999999</v>
+        <v>0.917191</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.912535</v>
+        <v>0.917621</v>
       </c>
       <c r="C18" t="n">
-        <v>0.921831</v>
+        <v>0.90006</v>
       </c>
       <c r="D18" t="n">
-        <v>0.910598</v>
+        <v>0.896612</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.920702</v>
+        <v>0.9397799999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9160199999999999</v>
+        <v>0.91582</v>
       </c>
       <c r="D19" t="n">
-        <v>0.906301</v>
+        <v>0.8941789999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.945891</v>
+        <v>0.936682</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9165720000000001</v>
+        <v>0.918795</v>
       </c>
       <c r="D20" t="n">
-        <v>0.889624</v>
+        <v>0.900876</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.89331</v>
+        <v>0.9700490000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.907127</v>
+        <v>0.893468</v>
       </c>
       <c r="D21" t="n">
-        <v>0.917231</v>
+        <v>0.959737</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.90796</v>
+        <v>0.897193</v>
       </c>
       <c r="C22" t="n">
-        <v>0.906907</v>
+        <v>0.910947</v>
       </c>
       <c r="D22" t="n">
-        <v>0.907142</v>
+        <v>0.87658</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.892774</v>
+        <v>0.888879</v>
       </c>
       <c r="C23" t="n">
-        <v>0.906732</v>
+        <v>0.885446</v>
       </c>
       <c r="D23" t="n">
-        <v>1.11972</v>
+        <v>1.12321</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.10082</v>
+        <v>1.11477</v>
       </c>
       <c r="C24" t="n">
-        <v>1.08379</v>
+        <v>1.08867</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0965</v>
+        <v>1.12068</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.05321</v>
+        <v>1.07231</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0518</v>
+        <v>1.0556</v>
       </c>
       <c r="D25" t="n">
-        <v>1.08719</v>
+        <v>1.11081</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.03057</v>
+        <v>1.09675</v>
       </c>
       <c r="C26" t="n">
-        <v>1.06186</v>
+        <v>1.0572</v>
       </c>
       <c r="D26" t="n">
-        <v>1.07022</v>
+        <v>1.0922</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.07382</v>
+        <v>1.0648</v>
       </c>
       <c r="C27" t="n">
-        <v>1.04333</v>
+        <v>1.04695</v>
       </c>
       <c r="D27" t="n">
-        <v>1.04686</v>
+        <v>1.10846</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.04302</v>
+        <v>1.04575</v>
       </c>
       <c r="C28" t="n">
-        <v>1.02817</v>
+        <v>1.02669</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06557</v>
+        <v>1.06735</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.01876</v>
+        <v>1.06684</v>
       </c>
       <c r="C29" t="n">
-        <v>1.01548</v>
+        <v>1.0233</v>
       </c>
       <c r="D29" t="n">
-        <v>1.04028</v>
+        <v>1.06344</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.987951</v>
+        <v>1.01921</v>
       </c>
       <c r="C30" t="n">
-        <v>0.999595</v>
+        <v>1.02383</v>
       </c>
       <c r="D30" t="n">
-        <v>1.01761</v>
+        <v>1.05775</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.997906</v>
+        <v>1.02127</v>
       </c>
       <c r="C31" t="n">
-        <v>0.997649</v>
+        <v>1.18991</v>
       </c>
       <c r="D31" t="n">
-        <v>1.02524</v>
+        <v>1.00851</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.00098</v>
+        <v>1.02026</v>
       </c>
       <c r="C32" t="n">
-        <v>0.977534</v>
+        <v>1.0283</v>
       </c>
       <c r="D32" t="n">
-        <v>1.00186</v>
+        <v>1.02175</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.992588</v>
+        <v>0.990895</v>
       </c>
       <c r="C33" t="n">
-        <v>0.959901</v>
+        <v>1.01785</v>
       </c>
       <c r="D33" t="n">
-        <v>0.994608</v>
+        <v>1.00477</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.981329</v>
+        <v>1.00179</v>
       </c>
       <c r="C34" t="n">
-        <v>0.946468</v>
+        <v>1.00664</v>
       </c>
       <c r="D34" t="n">
-        <v>0.963596</v>
+        <v>1.09586</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.956089</v>
+        <v>1.02128</v>
       </c>
       <c r="C35" t="n">
-        <v>0.939958</v>
+        <v>0.964421</v>
       </c>
       <c r="D35" t="n">
-        <v>0.979566</v>
+        <v>0.987499</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.964653</v>
+        <v>1.01097</v>
       </c>
       <c r="C36" t="n">
-        <v>0.94673</v>
+        <v>0.9750760000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.968464</v>
+        <v>0.983425</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.967313</v>
+        <v>0.980806</v>
       </c>
       <c r="C37" t="n">
-        <v>0.94512</v>
+        <v>0.954972</v>
       </c>
       <c r="D37" t="n">
-        <v>1.15759</v>
+        <v>1.18475</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.15443</v>
+        <v>1.17456</v>
       </c>
       <c r="C38" t="n">
-        <v>1.16038</v>
+        <v>1.15164</v>
       </c>
       <c r="D38" t="n">
-        <v>1.15467</v>
+        <v>1.16267</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1689</v>
+        <v>1.1625</v>
       </c>
       <c r="C39" t="n">
-        <v>1.14068</v>
+        <v>1.15</v>
       </c>
       <c r="D39" t="n">
-        <v>1.14978</v>
+        <v>1.14381</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.1453</v>
+        <v>1.18043</v>
       </c>
       <c r="C40" t="n">
-        <v>1.13012</v>
+        <v>1.15112</v>
       </c>
       <c r="D40" t="n">
-        <v>1.10931</v>
+        <v>1.12451</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.12209</v>
+        <v>1.11393</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12151</v>
+        <v>1.11773</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0978</v>
+        <v>1.11591</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.10985</v>
+        <v>1.14746</v>
       </c>
       <c r="C42" t="n">
-        <v>1.08055</v>
+        <v>1.13766</v>
       </c>
       <c r="D42" t="n">
-        <v>1.10157</v>
+        <v>1.2764</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.07847</v>
+        <v>1.24519</v>
       </c>
       <c r="C43" t="n">
-        <v>1.07756</v>
+        <v>1.0767</v>
       </c>
       <c r="D43" t="n">
-        <v>1.08542</v>
+        <v>1.07256</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.09877</v>
+        <v>1.09023</v>
       </c>
       <c r="C44" t="n">
-        <v>1.05161</v>
+        <v>1.08943</v>
       </c>
       <c r="D44" t="n">
-        <v>1.08063</v>
+        <v>1.0897</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.03484</v>
+        <v>1.09579</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06686</v>
+        <v>1.07725</v>
       </c>
       <c r="D45" t="n">
-        <v>1.04375</v>
+        <v>1.07571</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0688</v>
+        <v>1.08983</v>
       </c>
       <c r="C46" t="n">
-        <v>1.02928</v>
+        <v>1.0668</v>
       </c>
       <c r="D46" t="n">
-        <v>1.03164</v>
+        <v>1.05439</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.05688</v>
+        <v>1.07484</v>
       </c>
       <c r="C47" t="n">
-        <v>1.01129</v>
+        <v>1.05904</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03006</v>
+        <v>1.03773</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.03272</v>
+        <v>1.0603</v>
       </c>
       <c r="C48" t="n">
-        <v>1.00834</v>
+        <v>1.04475</v>
       </c>
       <c r="D48" t="n">
-        <v>1.01157</v>
+        <v>1.04342</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02129</v>
+        <v>1.05372</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0137</v>
+        <v>1.01722</v>
       </c>
       <c r="D49" t="n">
-        <v>1.01333</v>
+        <v>1.05902</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.02327</v>
+        <v>1.11564</v>
       </c>
       <c r="C50" t="n">
-        <v>1.00291</v>
+        <v>1.03363</v>
       </c>
       <c r="D50" t="n">
-        <v>1.01729</v>
+        <v>1.00818</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.00784</v>
+        <v>1.09156</v>
       </c>
       <c r="C51" t="n">
-        <v>0.979796</v>
+        <v>1.03904</v>
       </c>
       <c r="D51" t="n">
-        <v>1.17657</v>
+        <v>1.2288</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.07235</v>
+        <v>1.0265</v>
       </c>
       <c r="C52" t="n">
-        <v>0.997501</v>
+        <v>1.01037</v>
       </c>
       <c r="D52" t="n">
-        <v>1.1693</v>
+        <v>1.20147</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18497</v>
+        <v>1.31175</v>
       </c>
       <c r="C53" t="n">
-        <v>1.17618</v>
+        <v>1.35315</v>
       </c>
       <c r="D53" t="n">
-        <v>1.17829</v>
+        <v>1.19265</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.17039</v>
+        <v>1.2432</v>
       </c>
       <c r="C54" t="n">
-        <v>1.15938</v>
+        <v>1.19604</v>
       </c>
       <c r="D54" t="n">
-        <v>1.18158</v>
+        <v>1.19829</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.15833</v>
+        <v>1.23049</v>
       </c>
       <c r="C55" t="n">
-        <v>1.14296</v>
+        <v>1.16623</v>
       </c>
       <c r="D55" t="n">
-        <v>1.16327</v>
+        <v>1.16005</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.16358</v>
+        <v>1.20197</v>
       </c>
       <c r="C56" t="n">
-        <v>1.14849</v>
+        <v>1.15326</v>
       </c>
       <c r="D56" t="n">
-        <v>1.12337</v>
+        <v>1.1435</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.15913</v>
+        <v>1.16404</v>
       </c>
       <c r="C57" t="n">
-        <v>1.13981</v>
+        <v>1.14232</v>
       </c>
       <c r="D57" t="n">
-        <v>1.1057</v>
+        <v>1.12824</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.10851</v>
+        <v>1.18097</v>
       </c>
       <c r="C58" t="n">
-        <v>1.11843</v>
+        <v>1.12671</v>
       </c>
       <c r="D58" t="n">
-        <v>1.089</v>
+        <v>1.11006</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.11408</v>
+        <v>1.13669</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11493</v>
+        <v>1.13764</v>
       </c>
       <c r="D59" t="n">
-        <v>1.1143</v>
+        <v>1.10731</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.14465</v>
+        <v>1.13883</v>
       </c>
       <c r="C60" t="n">
-        <v>1.12214</v>
+        <v>1.10214</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08344</v>
+        <v>1.082</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.10643</v>
+        <v>1.11895</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08563</v>
+        <v>1.11006</v>
       </c>
       <c r="D61" t="n">
-        <v>1.08751</v>
+        <v>1.10273</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.08982</v>
+        <v>1.10774</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07876</v>
+        <v>1.08788</v>
       </c>
       <c r="D62" t="n">
-        <v>1.05864</v>
+        <v>1.07101</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.0685</v>
+        <v>1.09742</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06836</v>
+        <v>1.08105</v>
       </c>
       <c r="D63" t="n">
-        <v>1.06773</v>
+        <v>1.06779</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.09266</v>
+        <v>1.09272</v>
       </c>
       <c r="C64" t="n">
-        <v>1.06027</v>
+        <v>1.08287</v>
       </c>
       <c r="D64" t="n">
-        <v>1.05619</v>
+        <v>1.0627</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.07136</v>
+        <v>1.0902</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05685</v>
+        <v>1.05558</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04993</v>
+        <v>1.05438</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.05343</v>
+        <v>1.08749</v>
       </c>
       <c r="C66" t="n">
-        <v>1.07241</v>
+        <v>1.06656</v>
       </c>
       <c r="D66" t="n">
-        <v>1.24242</v>
+        <v>1.27969</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.25711</v>
+        <v>1.28973</v>
       </c>
       <c r="C67" t="n">
-        <v>1.25535</v>
+        <v>1.28699</v>
       </c>
       <c r="D67" t="n">
-        <v>1.22636</v>
+        <v>1.26076</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.29145</v>
+        <v>1.28161</v>
       </c>
       <c r="C68" t="n">
-        <v>1.23636</v>
+        <v>1.29212</v>
       </c>
       <c r="D68" t="n">
-        <v>1.21979</v>
+        <v>1.23993</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.25255</v>
+        <v>1.29578</v>
       </c>
       <c r="C69" t="n">
-        <v>1.25956</v>
+        <v>1.26556</v>
       </c>
       <c r="D69" t="n">
-        <v>1.21167</v>
+        <v>1.25988</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.24267</v>
+        <v>1.28473</v>
       </c>
       <c r="C70" t="n">
-        <v>1.21925</v>
+        <v>1.2693</v>
       </c>
       <c r="D70" t="n">
-        <v>1.21773</v>
+        <v>1.23984</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.19454</v>
+        <v>1.26497</v>
       </c>
       <c r="C71" t="n">
-        <v>1.20978</v>
+        <v>1.24453</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19234</v>
+        <v>1.2201</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.20488</v>
+        <v>1.25578</v>
       </c>
       <c r="C72" t="n">
-        <v>1.19756</v>
+        <v>1.2248</v>
       </c>
       <c r="D72" t="n">
-        <v>1.18103</v>
+        <v>1.20832</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.203</v>
+        <v>1.25086</v>
       </c>
       <c r="C73" t="n">
-        <v>1.20806</v>
+        <v>1.22532</v>
       </c>
       <c r="D73" t="n">
-        <v>1.20309</v>
+        <v>1.19392</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.19359</v>
+        <v>1.25643</v>
       </c>
       <c r="C74" t="n">
-        <v>1.176</v>
+        <v>1.21179</v>
       </c>
       <c r="D74" t="n">
-        <v>1.18523</v>
+        <v>1.18776</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19402</v>
+        <v>1.23389</v>
       </c>
       <c r="C75" t="n">
-        <v>1.20067</v>
+        <v>1.23163</v>
       </c>
       <c r="D75" t="n">
-        <v>1.18824</v>
+        <v>1.20476</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.1769</v>
+        <v>1.23353</v>
       </c>
       <c r="C76" t="n">
-        <v>1.14649</v>
+        <v>1.20067</v>
       </c>
       <c r="D76" t="n">
-        <v>1.19969</v>
+        <v>1.16611</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.1617</v>
+        <v>1.21329</v>
       </c>
       <c r="C77" t="n">
-        <v>1.16105</v>
+        <v>1.24706</v>
       </c>
       <c r="D77" t="n">
-        <v>1.1402</v>
+        <v>1.21854</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.183</v>
+        <v>1.21878</v>
       </c>
       <c r="C78" t="n">
-        <v>1.15498</v>
+        <v>1.20107</v>
       </c>
       <c r="D78" t="n">
-        <v>1.14778</v>
+        <v>1.16449</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.16136</v>
+        <v>1.20981</v>
       </c>
       <c r="C79" t="n">
-        <v>1.13069</v>
+        <v>1.19569</v>
       </c>
       <c r="D79" t="n">
-        <v>1.16421</v>
+        <v>1.16064</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.17025</v>
+        <v>1.21202</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17385</v>
+        <v>1.18104</v>
       </c>
       <c r="D80" t="n">
-        <v>1.39265</v>
+        <v>1.41517</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.38419</v>
+        <v>1.43002</v>
       </c>
       <c r="C81" t="n">
-        <v>1.37404</v>
+        <v>1.47381</v>
       </c>
       <c r="D81" t="n">
-        <v>1.35038</v>
+        <v>1.40679</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.37791</v>
+        <v>1.44419</v>
       </c>
       <c r="C82" t="n">
-        <v>1.33523</v>
+        <v>1.41444</v>
       </c>
       <c r="D82" t="n">
-        <v>1.32419</v>
+        <v>1.43382</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.35236</v>
+        <v>1.43736</v>
       </c>
       <c r="C83" t="n">
-        <v>1.38605</v>
+        <v>1.41293</v>
       </c>
       <c r="D83" t="n">
-        <v>1.37195</v>
+        <v>1.38066</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.3586</v>
+        <v>1.45659</v>
       </c>
       <c r="C84" t="n">
-        <v>1.31935</v>
+        <v>1.4099</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34392</v>
+        <v>1.34749</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.33577</v>
+        <v>1.41888</v>
       </c>
       <c r="C85" t="n">
-        <v>1.31441</v>
+        <v>1.41857</v>
       </c>
       <c r="D85" t="n">
-        <v>1.31028</v>
+        <v>1.34789</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.35125</v>
+        <v>1.40784</v>
       </c>
       <c r="C86" t="n">
-        <v>1.33189</v>
+        <v>1.38924</v>
       </c>
       <c r="D86" t="n">
-        <v>1.2808</v>
+        <v>1.37909</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.35033</v>
+        <v>1.40094</v>
       </c>
       <c r="C87" t="n">
-        <v>1.29685</v>
+        <v>1.37723</v>
       </c>
       <c r="D87" t="n">
-        <v>1.28525</v>
+        <v>1.32667</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.32161</v>
+        <v>1.3976</v>
       </c>
       <c r="C88" t="n">
-        <v>1.28038</v>
+        <v>1.41048</v>
       </c>
       <c r="D88" t="n">
-        <v>1.28157</v>
+        <v>1.35044</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.34904</v>
+        <v>1.37104</v>
       </c>
       <c r="C89" t="n">
-        <v>1.33477</v>
+        <v>1.35745</v>
       </c>
       <c r="D89" t="n">
-        <v>1.28522</v>
+        <v>1.31633</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.29941</v>
+        <v>1.40852</v>
       </c>
       <c r="C90" t="n">
-        <v>1.36188</v>
+        <v>1.4182</v>
       </c>
       <c r="D90" t="n">
-        <v>1.29095</v>
+        <v>1.30788</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.32037</v>
+        <v>1.388</v>
       </c>
       <c r="C91" t="n">
-        <v>1.31835</v>
+        <v>1.37445</v>
       </c>
       <c r="D91" t="n">
-        <v>1.29256</v>
+        <v>1.33718</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.31124</v>
+        <v>1.36318</v>
       </c>
       <c r="C92" t="n">
-        <v>1.31372</v>
+        <v>1.35016</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26489</v>
+        <v>1.29595</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.27396</v>
+        <v>1.36243</v>
       </c>
       <c r="C93" t="n">
-        <v>1.3058</v>
+        <v>1.35592</v>
       </c>
       <c r="D93" t="n">
-        <v>1.27572</v>
+        <v>1.30731</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.25576</v>
+        <v>1.37164</v>
       </c>
       <c r="C94" t="n">
-        <v>1.2898</v>
+        <v>1.3495</v>
       </c>
       <c r="D94" t="n">
-        <v>1.53648</v>
+        <v>1.56564</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.51477</v>
+        <v>1.57862</v>
       </c>
       <c r="C95" t="n">
-        <v>1.51236</v>
+        <v>1.58421</v>
       </c>
       <c r="D95" t="n">
-        <v>1.50013</v>
+        <v>1.54741</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.48986</v>
+        <v>1.59577</v>
       </c>
       <c r="C96" t="n">
-        <v>1.52327</v>
+        <v>1.58615</v>
       </c>
       <c r="D96" t="n">
-        <v>1.49179</v>
+        <v>1.51678</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.54942</v>
+        <v>1.65412</v>
       </c>
       <c r="C97" t="n">
-        <v>1.49628</v>
+        <v>1.67985</v>
       </c>
       <c r="D97" t="n">
-        <v>1.46278</v>
+        <v>1.57607</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.52273</v>
+        <v>1.59892</v>
       </c>
       <c r="C98" t="n">
-        <v>1.48447</v>
+        <v>1.6058</v>
       </c>
       <c r="D98" t="n">
-        <v>1.45894</v>
+        <v>1.53474</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.50496</v>
+        <v>1.60872</v>
       </c>
       <c r="C99" t="n">
-        <v>1.50686</v>
+        <v>1.58633</v>
       </c>
       <c r="D99" t="n">
-        <v>1.50509</v>
+        <v>1.50406</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.48799</v>
+        <v>1.64405</v>
       </c>
       <c r="C100" t="n">
-        <v>1.47263</v>
+        <v>1.57198</v>
       </c>
       <c r="D100" t="n">
-        <v>1.43054</v>
+        <v>1.52383</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.47726</v>
+        <v>1.61286</v>
       </c>
       <c r="C101" t="n">
-        <v>1.46411</v>
+        <v>1.59839</v>
       </c>
       <c r="D101" t="n">
-        <v>1.45384</v>
+        <v>1.48389</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.485</v>
+        <v>1.58066</v>
       </c>
       <c r="C102" t="n">
-        <v>1.4917</v>
+        <v>1.59948</v>
       </c>
       <c r="D102" t="n">
-        <v>1.42893</v>
+        <v>1.50852</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.49302</v>
+        <v>1.61996</v>
       </c>
       <c r="C103" t="n">
-        <v>1.48533</v>
+        <v>1.58798</v>
       </c>
       <c r="D103" t="n">
-        <v>1.44993</v>
+        <v>1.49738</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.44233</v>
+        <v>1.59457</v>
       </c>
       <c r="C104" t="n">
-        <v>1.44969</v>
+        <v>1.58284</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40721</v>
+        <v>1.48298</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.44293</v>
+        <v>1.60222</v>
       </c>
       <c r="C105" t="n">
-        <v>1.43451</v>
+        <v>1.59749</v>
       </c>
       <c r="D105" t="n">
-        <v>1.38301</v>
+        <v>1.50565</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.44797</v>
+        <v>1.5955</v>
       </c>
       <c r="C106" t="n">
-        <v>1.42524</v>
+        <v>1.57923</v>
       </c>
       <c r="D106" t="n">
-        <v>1.38536</v>
+        <v>1.46905</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.45472</v>
+        <v>1.57828</v>
       </c>
       <c r="C107" t="n">
-        <v>1.44273</v>
+        <v>1.56919</v>
       </c>
       <c r="D107" t="n">
-        <v>1.37622</v>
+        <v>1.45455</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.45597</v>
+        <v>1.58875</v>
       </c>
       <c r="C108" t="n">
-        <v>1.4288</v>
+        <v>1.58326</v>
       </c>
       <c r="D108" t="n">
-        <v>1.655</v>
+        <v>1.78359</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43991</v>
+        <v>1.57357</v>
       </c>
       <c r="C109" t="n">
-        <v>1.45849</v>
+        <v>1.57938</v>
       </c>
       <c r="D109" t="n">
-        <v>1.66438</v>
+        <v>1.71385</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.67196</v>
+        <v>1.81815</v>
       </c>
       <c r="C110" t="n">
-        <v>1.73481</v>
+        <v>1.86655</v>
       </c>
       <c r="D110" t="n">
-        <v>1.62503</v>
+        <v>1.75646</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.66118</v>
+        <v>1.85858</v>
       </c>
       <c r="C111" t="n">
-        <v>1.70661</v>
+        <v>1.824</v>
       </c>
       <c r="D111" t="n">
-        <v>1.64099</v>
+        <v>1.75839</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.69791</v>
+        <v>1.85539</v>
       </c>
       <c r="C112" t="n">
-        <v>1.70054</v>
+        <v>1.81904</v>
       </c>
       <c r="D112" t="n">
-        <v>1.6364</v>
+        <v>1.74335</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.68685</v>
+        <v>1.8617</v>
       </c>
       <c r="C113" t="n">
-        <v>1.68983</v>
+        <v>1.82701</v>
       </c>
       <c r="D113" t="n">
-        <v>1.61824</v>
+        <v>1.72585</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.6666</v>
+        <v>1.87322</v>
       </c>
       <c r="C114" t="n">
-        <v>1.68424</v>
+        <v>1.81639</v>
       </c>
       <c r="D114" t="n">
-        <v>1.61032</v>
+        <v>1.81197</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.69377</v>
+        <v>1.89935</v>
       </c>
       <c r="C115" t="n">
-        <v>1.69052</v>
+        <v>1.88579</v>
       </c>
       <c r="D115" t="n">
-        <v>1.58039</v>
+        <v>1.71301</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.66508</v>
+        <v>1.83613</v>
       </c>
       <c r="C116" t="n">
-        <v>1.68506</v>
+        <v>1.8212</v>
       </c>
       <c r="D116" t="n">
-        <v>1.58</v>
+        <v>1.72316</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.68309</v>
+        <v>1.89456</v>
       </c>
       <c r="C117" t="n">
-        <v>1.6702</v>
+        <v>1.8745</v>
       </c>
       <c r="D117" t="n">
-        <v>1.61004</v>
+        <v>1.83303</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.68764</v>
+        <v>1.84852</v>
       </c>
       <c r="C118" t="n">
-        <v>1.67705</v>
+        <v>1.82854</v>
       </c>
       <c r="D118" t="n">
-        <v>1.58341</v>
+        <v>1.71651</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.66372</v>
+        <v>1.87287</v>
       </c>
       <c r="C119" t="n">
-        <v>1.67779</v>
+        <v>1.83752</v>
       </c>
       <c r="D119" t="n">
-        <v>1.59469</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.69831</v>
+        <v>1.84447</v>
       </c>
       <c r="C120" t="n">
-        <v>1.68182</v>
+        <v>1.85845</v>
       </c>
       <c r="D120" t="n">
-        <v>1.58498</v>
+        <v>1.71953</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.69161</v>
+        <v>1.85505</v>
       </c>
       <c r="C121" t="n">
-        <v>1.67351</v>
+        <v>1.83287</v>
       </c>
       <c r="D121" t="n">
-        <v>1.57528</v>
+        <v>1.74409</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.70369</v>
+        <v>1.89255</v>
       </c>
       <c r="C122" t="n">
-        <v>1.68402</v>
+        <v>1.9256</v>
       </c>
       <c r="D122" t="n">
-        <v>1.57736</v>
+        <v>1.75568</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.67162</v>
+        <v>1.92338</v>
       </c>
       <c r="C123" t="n">
-        <v>1.69712</v>
+        <v>1.85328</v>
       </c>
       <c r="D123" t="n">
-        <v>1.84509</v>
+        <v>2.0373</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.92784</v>
+        <v>2.19877</v>
       </c>
       <c r="C124" t="n">
-        <v>1.93064</v>
+        <v>2.14172</v>
       </c>
       <c r="D124" t="n">
-        <v>1.82667</v>
+        <v>2.02919</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.91423</v>
+        <v>2.11263</v>
       </c>
       <c r="C125" t="n">
-        <v>1.94902</v>
+        <v>2.12008</v>
       </c>
       <c r="D125" t="n">
-        <v>1.84378</v>
+        <v>1.99513</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.91484</v>
+        <v>2.13809</v>
       </c>
       <c r="C126" t="n">
-        <v>1.91739</v>
+        <v>2.09974</v>
       </c>
       <c r="D126" t="n">
-        <v>1.85271</v>
+        <v>1.98413</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.9376</v>
+        <v>2.20648</v>
       </c>
       <c r="C127" t="n">
-        <v>1.9166</v>
+        <v>2.09646</v>
       </c>
       <c r="D127" t="n">
-        <v>1.86211</v>
+        <v>1.9949</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.9503</v>
+        <v>2.15605</v>
       </c>
       <c r="C128" t="n">
-        <v>1.93098</v>
+        <v>2.12459</v>
       </c>
       <c r="D128" t="n">
-        <v>1.85714</v>
+        <v>2.0089</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.92896</v>
+        <v>2.1686</v>
       </c>
       <c r="C129" t="n">
-        <v>1.89368</v>
+        <v>2.1032</v>
       </c>
       <c r="D129" t="n">
-        <v>1.84825</v>
+        <v>1.98065</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.94342</v>
+        <v>2.19078</v>
       </c>
       <c r="C130" t="n">
-        <v>1.90132</v>
+        <v>2.11682</v>
       </c>
       <c r="D130" t="n">
-        <v>1.83338</v>
+        <v>2.04805</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.96916</v>
+        <v>2.15674</v>
       </c>
       <c r="C131" t="n">
-        <v>1.92653</v>
+        <v>2.11495</v>
       </c>
       <c r="D131" t="n">
-        <v>1.83529</v>
+        <v>2.0146</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.95392</v>
+        <v>2.16461</v>
       </c>
       <c r="C132" t="n">
-        <v>1.89546</v>
+        <v>2.10753</v>
       </c>
       <c r="D132" t="n">
-        <v>1.83922</v>
+        <v>2.0611</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.94709</v>
+        <v>2.19286</v>
       </c>
       <c r="C133" t="n">
-        <v>1.92608</v>
+        <v>2.14935</v>
       </c>
       <c r="D133" t="n">
-        <v>1.85934</v>
+        <v>2.01419</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.97195</v>
+        <v>2.2017</v>
       </c>
       <c r="C134" t="n">
-        <v>1.9362</v>
+        <v>2.10648</v>
       </c>
       <c r="D134" t="n">
-        <v>1.85258</v>
+        <v>1.99993</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.97317</v>
+        <v>2.17204</v>
       </c>
       <c r="C135" t="n">
-        <v>1.92386</v>
+        <v>2.14335</v>
       </c>
       <c r="D135" t="n">
-        <v>1.83998</v>
+        <v>2.05155</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.99594</v>
+        <v>2.21629</v>
       </c>
       <c r="C136" t="n">
-        <v>1.95419</v>
+        <v>2.11522</v>
       </c>
       <c r="D136" t="n">
-        <v>1.85035</v>
+        <v>2.05431</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.98434</v>
+        <v>2.21646</v>
       </c>
       <c r="C137" t="n">
-        <v>1.91332</v>
+        <v>2.12078</v>
       </c>
       <c r="D137" t="n">
-        <v>2.13348</v>
+        <v>2.31964</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.24607</v>
+        <v>2.46718</v>
       </c>
       <c r="C138" t="n">
-        <v>2.19176</v>
+        <v>2.37874</v>
       </c>
       <c r="D138" t="n">
-        <v>2.09995</v>
+        <v>2.30233</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.22797</v>
+        <v>2.37672</v>
       </c>
       <c r="C139" t="n">
-        <v>2.18139</v>
+        <v>2.2273</v>
       </c>
       <c r="D139" t="n">
-        <v>2.12759</v>
+        <v>2.16565</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.25616</v>
+        <v>2.30394</v>
       </c>
       <c r="C140" t="n">
-        <v>2.18173</v>
+        <v>2.29008</v>
       </c>
       <c r="D140" t="n">
-        <v>2.13582</v>
+        <v>2.18579</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.26914</v>
+        <v>2.32113</v>
       </c>
       <c r="C141" t="n">
-        <v>2.18361</v>
+        <v>2.28718</v>
       </c>
       <c r="D141" t="n">
-        <v>2.11301</v>
+        <v>2.20981</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.29682</v>
+        <v>2.35592</v>
       </c>
       <c r="C142" t="n">
-        <v>2.18538</v>
+        <v>2.27646</v>
       </c>
       <c r="D142" t="n">
-        <v>2.1485</v>
+        <v>2.24954</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.27069</v>
+        <v>2.40849</v>
       </c>
       <c r="C143" t="n">
-        <v>2.18874</v>
+        <v>2.31402</v>
       </c>
       <c r="D143" t="n">
-        <v>2.17091</v>
+        <v>2.28431</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>1.1564</v>
+        <v>1.04855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.984339</v>
+        <v>0.959237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.986845</v>
+        <v>0.921668</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.942651</v>
+        <v>0.940565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.940327</v>
+        <v>0.971712</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9216490000000001</v>
+        <v>0.918049</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.928663</v>
+        <v>0.898334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9629180000000001</v>
+        <v>0.933723</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995223</v>
+        <v>0.94199</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.919239</v>
+        <v>0.937842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.928444</v>
+        <v>0.941898</v>
       </c>
       <c r="D5" t="n">
-        <v>0.929976</v>
+        <v>0.943871</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.908818</v>
+        <v>0.932859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.915617</v>
+        <v>0.913835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.920596</v>
+        <v>0.91133</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.93213</v>
+        <v>0.938744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.927242</v>
+        <v>0.9044140000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.92219</v>
+        <v>0.900963</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.942824</v>
+        <v>0.900728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.905632</v>
+        <v>0.892289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.910321</v>
+        <v>0.8914029999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.925569</v>
+        <v>0.939044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.986362</v>
+        <v>0.886448</v>
       </c>
       <c r="D9" t="n">
-        <v>1.05641</v>
+        <v>1.01418</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.12223</v>
+        <v>0.9915620000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>1.12632</v>
+        <v>1.00257</v>
       </c>
       <c r="D10" t="n">
-        <v>1.02643</v>
+        <v>0.95921</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>1.01284</v>
+        <v>0.954113</v>
       </c>
       <c r="C11" t="n">
-        <v>1.01218</v>
+        <v>0.98256</v>
       </c>
       <c r="D11" t="n">
-        <v>1.00408</v>
+        <v>0.981397</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.985755</v>
+        <v>0.992859</v>
       </c>
       <c r="C12" t="n">
-        <v>0.996279</v>
+        <v>0.980114</v>
       </c>
       <c r="D12" t="n">
-        <v>0.968058</v>
+        <v>0.962068</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.979781</v>
+        <v>0.98003</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0268</v>
+        <v>0.964731</v>
       </c>
       <c r="D13" t="n">
-        <v>0.955719</v>
+        <v>0.960145</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.949888</v>
+        <v>0.956877</v>
       </c>
       <c r="C14" t="n">
-        <v>0.951537</v>
+        <v>0.979548</v>
       </c>
       <c r="D14" t="n">
-        <v>0.947447</v>
+        <v>0.97594</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.939341</v>
+        <v>0.980646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.926629</v>
+        <v>0.946807</v>
       </c>
       <c r="D15" t="n">
-        <v>0.926137</v>
+        <v>0.954583</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.925552</v>
+        <v>0.930202</v>
       </c>
       <c r="C16" t="n">
-        <v>0.948967</v>
+        <v>0.903684</v>
       </c>
       <c r="D16" t="n">
-        <v>0.947533</v>
+        <v>0.933681</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.950846</v>
+        <v>0.903601</v>
       </c>
       <c r="C17" t="n">
-        <v>0.925133</v>
+        <v>0.914161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.917191</v>
+        <v>0.932238</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.917621</v>
+        <v>0.9363899999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.90006</v>
+        <v>0.897467</v>
       </c>
       <c r="D18" t="n">
-        <v>0.896612</v>
+        <v>0.889689</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9397799999999999</v>
+        <v>0.905589</v>
       </c>
       <c r="C19" t="n">
-        <v>0.91582</v>
+        <v>0.9157380000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8941789999999999</v>
+        <v>0.894061</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.936682</v>
+        <v>0.895109</v>
       </c>
       <c r="C20" t="n">
-        <v>0.918795</v>
+        <v>0.893645</v>
       </c>
       <c r="D20" t="n">
-        <v>0.900876</v>
+        <v>0.888913</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9700490000000001</v>
+        <v>0.936667</v>
       </c>
       <c r="C21" t="n">
-        <v>0.893468</v>
+        <v>0.892279</v>
       </c>
       <c r="D21" t="n">
-        <v>0.959737</v>
+        <v>0.896992</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.897193</v>
+        <v>0.893591</v>
       </c>
       <c r="C22" t="n">
-        <v>0.910947</v>
+        <v>0.865202</v>
       </c>
       <c r="D22" t="n">
-        <v>0.87658</v>
+        <v>0.880733</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.888879</v>
+        <v>0.883964</v>
       </c>
       <c r="C23" t="n">
-        <v>0.885446</v>
+        <v>0.871721</v>
       </c>
       <c r="D23" t="n">
-        <v>1.12321</v>
+        <v>1.13004</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.11477</v>
+        <v>1.095</v>
       </c>
       <c r="C24" t="n">
-        <v>1.08867</v>
+        <v>1.07439</v>
       </c>
       <c r="D24" t="n">
-        <v>1.12068</v>
+        <v>1.10662</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.07231</v>
+        <v>1.0775</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0556</v>
+        <v>1.08527</v>
       </c>
       <c r="D25" t="n">
-        <v>1.11081</v>
+        <v>1.10874</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.09675</v>
+        <v>1.07562</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0572</v>
+        <v>1.06936</v>
       </c>
       <c r="D26" t="n">
-        <v>1.0922</v>
+        <v>1.08673</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.0648</v>
+        <v>1.03774</v>
       </c>
       <c r="C27" t="n">
-        <v>1.04695</v>
+        <v>1.02445</v>
       </c>
       <c r="D27" t="n">
-        <v>1.10846</v>
+        <v>1.05954</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.04575</v>
+        <v>1.06615</v>
       </c>
       <c r="C28" t="n">
-        <v>1.02669</v>
+        <v>1.04247</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06735</v>
+        <v>1.02993</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.06684</v>
+        <v>1.0445</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0233</v>
+        <v>1.03534</v>
       </c>
       <c r="D29" t="n">
-        <v>1.06344</v>
+        <v>1.05117</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01921</v>
+        <v>1.01752</v>
       </c>
       <c r="C30" t="n">
-        <v>1.02383</v>
+        <v>1.01853</v>
       </c>
       <c r="D30" t="n">
-        <v>1.05775</v>
+        <v>1.01257</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.02127</v>
+        <v>1.015</v>
       </c>
       <c r="C31" t="n">
-        <v>1.18991</v>
+        <v>0.974703</v>
       </c>
       <c r="D31" t="n">
-        <v>1.00851</v>
+        <v>1.02506</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.02026</v>
+        <v>1.00451</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0283</v>
+        <v>0.972013</v>
       </c>
       <c r="D32" t="n">
-        <v>1.02175</v>
+        <v>0.982908</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.990895</v>
+        <v>0.989644</v>
       </c>
       <c r="C33" t="n">
-        <v>1.01785</v>
+        <v>0.974206</v>
       </c>
       <c r="D33" t="n">
-        <v>1.00477</v>
+        <v>0.99903</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00179</v>
+        <v>0.993544</v>
       </c>
       <c r="C34" t="n">
-        <v>1.00664</v>
+        <v>0.981219</v>
       </c>
       <c r="D34" t="n">
-        <v>1.09586</v>
+        <v>0.982812</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.02128</v>
+        <v>0.975944</v>
       </c>
       <c r="C35" t="n">
-        <v>0.964421</v>
+        <v>0.971359</v>
       </c>
       <c r="D35" t="n">
-        <v>0.987499</v>
+        <v>0.960824</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.01097</v>
+        <v>0.98024</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9750760000000001</v>
+        <v>0.9672770000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.983425</v>
+        <v>0.958829</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.980806</v>
+        <v>0.9666</v>
       </c>
       <c r="C37" t="n">
-        <v>0.954972</v>
+        <v>0.951249</v>
       </c>
       <c r="D37" t="n">
-        <v>1.18475</v>
+        <v>1.15322</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.17456</v>
+        <v>1.13955</v>
       </c>
       <c r="C38" t="n">
-        <v>1.15164</v>
+        <v>1.16163</v>
       </c>
       <c r="D38" t="n">
-        <v>1.16267</v>
+        <v>1.15824</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1625</v>
+        <v>1.13503</v>
       </c>
       <c r="C39" t="n">
-        <v>1.15</v>
+        <v>1.1316</v>
       </c>
       <c r="D39" t="n">
-        <v>1.14381</v>
+        <v>1.14906</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.18043</v>
+        <v>1.12517</v>
       </c>
       <c r="C40" t="n">
-        <v>1.15112</v>
+        <v>1.13771</v>
       </c>
       <c r="D40" t="n">
-        <v>1.12451</v>
+        <v>1.11542</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.11393</v>
+        <v>1.12146</v>
       </c>
       <c r="C41" t="n">
-        <v>1.11773</v>
+        <v>1.10132</v>
       </c>
       <c r="D41" t="n">
-        <v>1.11591</v>
+        <v>1.12414</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.14746</v>
+        <v>1.11231</v>
       </c>
       <c r="C42" t="n">
-        <v>1.13766</v>
+        <v>1.09457</v>
       </c>
       <c r="D42" t="n">
-        <v>1.2764</v>
+        <v>1.0851</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.24519</v>
+        <v>1.08272</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0767</v>
+        <v>1.0801</v>
       </c>
       <c r="D43" t="n">
-        <v>1.07256</v>
+        <v>1.06219</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.09023</v>
+        <v>1.08496</v>
       </c>
       <c r="C44" t="n">
-        <v>1.08943</v>
+        <v>1.07106</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0897</v>
+        <v>1.06061</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.09579</v>
+        <v>1.06937</v>
       </c>
       <c r="C45" t="n">
-        <v>1.07725</v>
+        <v>1.04413</v>
       </c>
       <c r="D45" t="n">
-        <v>1.07571</v>
+        <v>1.04998</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.08983</v>
+        <v>1.06146</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0668</v>
+        <v>1.02848</v>
       </c>
       <c r="D46" t="n">
-        <v>1.05439</v>
+        <v>1.02987</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.07484</v>
+        <v>1.05043</v>
       </c>
       <c r="C47" t="n">
-        <v>1.05904</v>
+        <v>1.03962</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03773</v>
+        <v>1.0441</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0603</v>
+        <v>1.0398</v>
       </c>
       <c r="C48" t="n">
-        <v>1.04475</v>
+        <v>1.05088</v>
       </c>
       <c r="D48" t="n">
-        <v>1.04342</v>
+        <v>1.01719</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.05372</v>
+        <v>1.03072</v>
       </c>
       <c r="C49" t="n">
-        <v>1.01722</v>
+        <v>1.00728</v>
       </c>
       <c r="D49" t="n">
-        <v>1.05902</v>
+        <v>1.01512</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.11564</v>
+        <v>1.0234</v>
       </c>
       <c r="C50" t="n">
-        <v>1.03363</v>
+        <v>0.996654</v>
       </c>
       <c r="D50" t="n">
-        <v>1.00818</v>
+        <v>1.00947</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09156</v>
+        <v>1.03752</v>
       </c>
       <c r="C51" t="n">
-        <v>1.03904</v>
+        <v>1.00044</v>
       </c>
       <c r="D51" t="n">
-        <v>1.2288</v>
+        <v>1.23331</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.0265</v>
+        <v>1.01246</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01037</v>
+        <v>1.01136</v>
       </c>
       <c r="D52" t="n">
-        <v>1.20147</v>
+        <v>1.19653</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.31175</v>
+        <v>1.19765</v>
       </c>
       <c r="C53" t="n">
-        <v>1.35315</v>
+        <v>1.17617</v>
       </c>
       <c r="D53" t="n">
-        <v>1.19265</v>
+        <v>1.17162</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.2432</v>
+        <v>1.19114</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19604</v>
+        <v>1.15485</v>
       </c>
       <c r="D54" t="n">
-        <v>1.19829</v>
+        <v>1.15699</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.23049</v>
+        <v>1.17948</v>
       </c>
       <c r="C55" t="n">
-        <v>1.16623</v>
+        <v>1.1538</v>
       </c>
       <c r="D55" t="n">
-        <v>1.16005</v>
+        <v>1.15884</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.20197</v>
+        <v>1.16794</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15326</v>
+        <v>1.1378</v>
       </c>
       <c r="D56" t="n">
-        <v>1.1435</v>
+        <v>1.14212</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.16404</v>
+        <v>1.12228</v>
       </c>
       <c r="C57" t="n">
-        <v>1.14232</v>
+        <v>1.11447</v>
       </c>
       <c r="D57" t="n">
-        <v>1.12824</v>
+        <v>1.12647</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.18097</v>
+        <v>1.14816</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12671</v>
+        <v>1.12685</v>
       </c>
       <c r="D58" t="n">
-        <v>1.11006</v>
+        <v>1.12369</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.13669</v>
+        <v>1.11885</v>
       </c>
       <c r="C59" t="n">
-        <v>1.13764</v>
+        <v>1.0913</v>
       </c>
       <c r="D59" t="n">
-        <v>1.10731</v>
+        <v>1.09543</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.13883</v>
+        <v>1.10503</v>
       </c>
       <c r="C60" t="n">
-        <v>1.10214</v>
+        <v>1.09364</v>
       </c>
       <c r="D60" t="n">
-        <v>1.082</v>
+        <v>1.07574</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.11895</v>
+        <v>1.09839</v>
       </c>
       <c r="C61" t="n">
-        <v>1.11006</v>
+        <v>1.07331</v>
       </c>
       <c r="D61" t="n">
-        <v>1.10273</v>
+        <v>1.09118</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.10774</v>
+        <v>1.09869</v>
       </c>
       <c r="C62" t="n">
-        <v>1.08788</v>
+        <v>1.08942</v>
       </c>
       <c r="D62" t="n">
-        <v>1.07101</v>
+        <v>1.0564</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.09742</v>
+        <v>1.08945</v>
       </c>
       <c r="C63" t="n">
-        <v>1.08105</v>
+        <v>1.04696</v>
       </c>
       <c r="D63" t="n">
-        <v>1.06779</v>
+        <v>1.07435</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.09272</v>
+        <v>1.07837</v>
       </c>
       <c r="C64" t="n">
-        <v>1.08287</v>
+        <v>1.03777</v>
       </c>
       <c r="D64" t="n">
-        <v>1.0627</v>
+        <v>1.08187</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.0902</v>
+        <v>1.06913</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05558</v>
+        <v>1.03909</v>
       </c>
       <c r="D65" t="n">
-        <v>1.05438</v>
+        <v>1.05906</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.08749</v>
+        <v>1.06414</v>
       </c>
       <c r="C66" t="n">
-        <v>1.06656</v>
+        <v>1.05532</v>
       </c>
       <c r="D66" t="n">
-        <v>1.27969</v>
+        <v>1.24893</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.28973</v>
+        <v>1.27567</v>
       </c>
       <c r="C67" t="n">
-        <v>1.28699</v>
+        <v>1.26376</v>
       </c>
       <c r="D67" t="n">
-        <v>1.26076</v>
+        <v>1.24368</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.28161</v>
+        <v>1.22741</v>
       </c>
       <c r="C68" t="n">
-        <v>1.29212</v>
+        <v>1.24156</v>
       </c>
       <c r="D68" t="n">
-        <v>1.23993</v>
+        <v>1.23708</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.29578</v>
+        <v>1.23385</v>
       </c>
       <c r="C69" t="n">
-        <v>1.26556</v>
+        <v>1.2343</v>
       </c>
       <c r="D69" t="n">
-        <v>1.25988</v>
+        <v>1.21344</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.28473</v>
+        <v>1.24591</v>
       </c>
       <c r="C70" t="n">
-        <v>1.2693</v>
+        <v>1.21112</v>
       </c>
       <c r="D70" t="n">
-        <v>1.23984</v>
+        <v>1.21285</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.26497</v>
+        <v>1.24439</v>
       </c>
       <c r="C71" t="n">
-        <v>1.24453</v>
+        <v>1.23964</v>
       </c>
       <c r="D71" t="n">
-        <v>1.2201</v>
+        <v>1.20022</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.25578</v>
+        <v>1.22896</v>
       </c>
       <c r="C72" t="n">
-        <v>1.2248</v>
+        <v>1.18711</v>
       </c>
       <c r="D72" t="n">
-        <v>1.20832</v>
+        <v>1.19478</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.25086</v>
+        <v>1.20434</v>
       </c>
       <c r="C73" t="n">
-        <v>1.22532</v>
+        <v>1.17934</v>
       </c>
       <c r="D73" t="n">
-        <v>1.19392</v>
+        <v>1.18175</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.25643</v>
+        <v>1.19924</v>
       </c>
       <c r="C74" t="n">
-        <v>1.21179</v>
+        <v>1.15877</v>
       </c>
       <c r="D74" t="n">
-        <v>1.18776</v>
+        <v>1.17658</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23389</v>
+        <v>1.18699</v>
       </c>
       <c r="C75" t="n">
-        <v>1.23163</v>
+        <v>1.17789</v>
       </c>
       <c r="D75" t="n">
-        <v>1.20476</v>
+        <v>1.16862</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.23353</v>
+        <v>1.16299</v>
       </c>
       <c r="C76" t="n">
-        <v>1.20067</v>
+        <v>1.16594</v>
       </c>
       <c r="D76" t="n">
-        <v>1.16611</v>
+        <v>1.17821</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.21329</v>
+        <v>1.17848</v>
       </c>
       <c r="C77" t="n">
-        <v>1.24706</v>
+        <v>1.18448</v>
       </c>
       <c r="D77" t="n">
-        <v>1.21854</v>
+        <v>1.1603</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.21878</v>
+        <v>1.18733</v>
       </c>
       <c r="C78" t="n">
-        <v>1.20107</v>
+        <v>1.15592</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16449</v>
+        <v>1.16351</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.20981</v>
+        <v>1.16179</v>
       </c>
       <c r="C79" t="n">
-        <v>1.19569</v>
+        <v>1.13877</v>
       </c>
       <c r="D79" t="n">
-        <v>1.16064</v>
+        <v>1.1485</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.21202</v>
+        <v>1.17389</v>
       </c>
       <c r="C80" t="n">
-        <v>1.18104</v>
+        <v>1.16024</v>
       </c>
       <c r="D80" t="n">
-        <v>1.41517</v>
+        <v>1.38886</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.43002</v>
+        <v>1.39014</v>
       </c>
       <c r="C81" t="n">
-        <v>1.47381</v>
+        <v>1.37231</v>
       </c>
       <c r="D81" t="n">
-        <v>1.40679</v>
+        <v>1.39342</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.44419</v>
+        <v>1.37559</v>
       </c>
       <c r="C82" t="n">
-        <v>1.41444</v>
+        <v>1.3446</v>
       </c>
       <c r="D82" t="n">
-        <v>1.43382</v>
+        <v>1.38599</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.43736</v>
+        <v>1.36707</v>
       </c>
       <c r="C83" t="n">
-        <v>1.41293</v>
+        <v>1.38341</v>
       </c>
       <c r="D83" t="n">
-        <v>1.38066</v>
+        <v>1.31903</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.45659</v>
+        <v>1.33989</v>
       </c>
       <c r="C84" t="n">
-        <v>1.4099</v>
+        <v>1.39866</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34749</v>
+        <v>1.40596</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.41888</v>
+        <v>1.38449</v>
       </c>
       <c r="C85" t="n">
-        <v>1.41857</v>
+        <v>1.34229</v>
       </c>
       <c r="D85" t="n">
-        <v>1.34789</v>
+        <v>1.33084</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.40784</v>
+        <v>1.34634</v>
       </c>
       <c r="C86" t="n">
-        <v>1.38924</v>
+        <v>1.33518</v>
       </c>
       <c r="D86" t="n">
-        <v>1.37909</v>
+        <v>1.31647</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.40094</v>
+        <v>1.34969</v>
       </c>
       <c r="C87" t="n">
-        <v>1.37723</v>
+        <v>1.33744</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32667</v>
+        <v>1.33065</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.3976</v>
+        <v>1.33148</v>
       </c>
       <c r="C88" t="n">
-        <v>1.41048</v>
+        <v>1.37792</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35044</v>
+        <v>1.30313</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.37104</v>
+        <v>1.34404</v>
       </c>
       <c r="C89" t="n">
-        <v>1.35745</v>
+        <v>1.29484</v>
       </c>
       <c r="D89" t="n">
-        <v>1.31633</v>
+        <v>1.30529</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.40852</v>
+        <v>1.3223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.4182</v>
+        <v>1.30581</v>
       </c>
       <c r="D90" t="n">
-        <v>1.30788</v>
+        <v>1.2629</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.388</v>
+        <v>1.3146</v>
       </c>
       <c r="C91" t="n">
-        <v>1.37445</v>
+        <v>1.31009</v>
       </c>
       <c r="D91" t="n">
-        <v>1.33718</v>
+        <v>1.29036</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.36318</v>
+        <v>1.28688</v>
       </c>
       <c r="C92" t="n">
-        <v>1.35016</v>
+        <v>1.25767</v>
       </c>
       <c r="D92" t="n">
-        <v>1.29595</v>
+        <v>1.30382</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.36243</v>
+        <v>1.30858</v>
       </c>
       <c r="C93" t="n">
-        <v>1.35592</v>
+        <v>1.26205</v>
       </c>
       <c r="D93" t="n">
-        <v>1.30731</v>
+        <v>1.24911</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.37164</v>
+        <v>1.31305</v>
       </c>
       <c r="C94" t="n">
-        <v>1.3495</v>
+        <v>1.27378</v>
       </c>
       <c r="D94" t="n">
-        <v>1.56564</v>
+        <v>1.53844</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.57862</v>
+        <v>1.54792</v>
       </c>
       <c r="C95" t="n">
-        <v>1.58421</v>
+        <v>1.51566</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54741</v>
+        <v>1.50687</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.59577</v>
+        <v>1.52348</v>
       </c>
       <c r="C96" t="n">
-        <v>1.58615</v>
+        <v>1.51794</v>
       </c>
       <c r="D96" t="n">
-        <v>1.51678</v>
+        <v>1.49191</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.65412</v>
+        <v>1.5393</v>
       </c>
       <c r="C97" t="n">
-        <v>1.67985</v>
+        <v>1.51062</v>
       </c>
       <c r="D97" t="n">
-        <v>1.57607</v>
+        <v>1.49346</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.59892</v>
+        <v>1.48881</v>
       </c>
       <c r="C98" t="n">
-        <v>1.6058</v>
+        <v>1.51974</v>
       </c>
       <c r="D98" t="n">
-        <v>1.53474</v>
+        <v>1.46898</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.60872</v>
+        <v>1.49904</v>
       </c>
       <c r="C99" t="n">
-        <v>1.58633</v>
+        <v>1.51488</v>
       </c>
       <c r="D99" t="n">
-        <v>1.50406</v>
+        <v>1.46018</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.64405</v>
+        <v>1.49007</v>
       </c>
       <c r="C100" t="n">
-        <v>1.57198</v>
+        <v>1.46894</v>
       </c>
       <c r="D100" t="n">
-        <v>1.52383</v>
+        <v>1.45911</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.61286</v>
+        <v>1.46852</v>
       </c>
       <c r="C101" t="n">
-        <v>1.59839</v>
+        <v>1.47838</v>
       </c>
       <c r="D101" t="n">
-        <v>1.48389</v>
+        <v>1.44338</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.58066</v>
+        <v>1.48591</v>
       </c>
       <c r="C102" t="n">
-        <v>1.59948</v>
+        <v>1.48534</v>
       </c>
       <c r="D102" t="n">
-        <v>1.50852</v>
+        <v>1.44573</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.61996</v>
+        <v>1.48239</v>
       </c>
       <c r="C103" t="n">
-        <v>1.58798</v>
+        <v>1.48499</v>
       </c>
       <c r="D103" t="n">
-        <v>1.49738</v>
+        <v>1.43542</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.59457</v>
+        <v>1.4366</v>
       </c>
       <c r="C104" t="n">
-        <v>1.58284</v>
+        <v>1.43562</v>
       </c>
       <c r="D104" t="n">
-        <v>1.48298</v>
+        <v>1.48144</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.60222</v>
+        <v>1.47032</v>
       </c>
       <c r="C105" t="n">
-        <v>1.59749</v>
+        <v>1.48941</v>
       </c>
       <c r="D105" t="n">
-        <v>1.50565</v>
+        <v>1.39872</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.5955</v>
+        <v>1.4675</v>
       </c>
       <c r="C106" t="n">
-        <v>1.57923</v>
+        <v>1.45152</v>
       </c>
       <c r="D106" t="n">
-        <v>1.46905</v>
+        <v>1.39303</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.57828</v>
+        <v>1.47841</v>
       </c>
       <c r="C107" t="n">
-        <v>1.56919</v>
+        <v>1.47371</v>
       </c>
       <c r="D107" t="n">
-        <v>1.45455</v>
+        <v>1.43957</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.58875</v>
+        <v>1.46434</v>
       </c>
       <c r="C108" t="n">
-        <v>1.58326</v>
+        <v>1.45116</v>
       </c>
       <c r="D108" t="n">
-        <v>1.78359</v>
+        <v>1.64725</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.57357</v>
+        <v>1.44182</v>
       </c>
       <c r="C109" t="n">
-        <v>1.57938</v>
+        <v>1.45475</v>
       </c>
       <c r="D109" t="n">
-        <v>1.71385</v>
+        <v>1.63763</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.81815</v>
+        <v>1.69083</v>
       </c>
       <c r="C110" t="n">
-        <v>1.86655</v>
+        <v>1.68667</v>
       </c>
       <c r="D110" t="n">
-        <v>1.75646</v>
+        <v>1.64796</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.85858</v>
+        <v>1.67751</v>
       </c>
       <c r="C111" t="n">
-        <v>1.824</v>
+        <v>1.71622</v>
       </c>
       <c r="D111" t="n">
-        <v>1.75839</v>
+        <v>1.63553</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.85539</v>
+        <v>1.71311</v>
       </c>
       <c r="C112" t="n">
-        <v>1.81904</v>
+        <v>1.68067</v>
       </c>
       <c r="D112" t="n">
-        <v>1.74335</v>
+        <v>1.61515</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.8617</v>
+        <v>1.68794</v>
       </c>
       <c r="C113" t="n">
-        <v>1.82701</v>
+        <v>1.69739</v>
       </c>
       <c r="D113" t="n">
-        <v>1.72585</v>
+        <v>1.60931</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.87322</v>
+        <v>1.69182</v>
       </c>
       <c r="C114" t="n">
-        <v>1.81639</v>
+        <v>1.70806</v>
       </c>
       <c r="D114" t="n">
-        <v>1.81197</v>
+        <v>1.57996</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.89935</v>
+        <v>1.67495</v>
       </c>
       <c r="C115" t="n">
-        <v>1.88579</v>
+        <v>1.66926</v>
       </c>
       <c r="D115" t="n">
-        <v>1.71301</v>
+        <v>1.61858</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.83613</v>
+        <v>1.69132</v>
       </c>
       <c r="C116" t="n">
-        <v>1.8212</v>
+        <v>1.66872</v>
       </c>
       <c r="D116" t="n">
-        <v>1.72316</v>
+        <v>1.62274</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.89456</v>
+        <v>1.68924</v>
       </c>
       <c r="C117" t="n">
-        <v>1.8745</v>
+        <v>1.69436</v>
       </c>
       <c r="D117" t="n">
-        <v>1.83303</v>
+        <v>1.6196</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.84852</v>
+        <v>1.6825</v>
       </c>
       <c r="C118" t="n">
-        <v>1.82854</v>
+        <v>1.6767</v>
       </c>
       <c r="D118" t="n">
-        <v>1.71651</v>
+        <v>1.60874</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.87287</v>
+        <v>1.71456</v>
       </c>
       <c r="C119" t="n">
-        <v>1.83752</v>
+        <v>1.68861</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7</v>
+        <v>1.56613</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.84447</v>
+        <v>1.69153</v>
       </c>
       <c r="C120" t="n">
-        <v>1.85845</v>
+        <v>1.6554</v>
       </c>
       <c r="D120" t="n">
-        <v>1.71953</v>
+        <v>1.57821</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.85505</v>
+        <v>1.68995</v>
       </c>
       <c r="C121" t="n">
-        <v>1.83287</v>
+        <v>1.68725</v>
       </c>
       <c r="D121" t="n">
-        <v>1.74409</v>
+        <v>1.58875</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.89255</v>
+        <v>1.69494</v>
       </c>
       <c r="C122" t="n">
-        <v>1.9256</v>
+        <v>1.65043</v>
       </c>
       <c r="D122" t="n">
-        <v>1.75568</v>
+        <v>1.57791</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.92338</v>
+        <v>1.66942</v>
       </c>
       <c r="C123" t="n">
-        <v>1.85328</v>
+        <v>1.67875</v>
       </c>
       <c r="D123" t="n">
-        <v>2.0373</v>
+        <v>1.85938</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.19877</v>
+        <v>1.93691</v>
       </c>
       <c r="C124" t="n">
-        <v>2.14172</v>
+        <v>1.92633</v>
       </c>
       <c r="D124" t="n">
-        <v>2.02919</v>
+        <v>1.81832</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.11263</v>
+        <v>1.93313</v>
       </c>
       <c r="C125" t="n">
-        <v>2.12008</v>
+        <v>1.90481</v>
       </c>
       <c r="D125" t="n">
-        <v>1.99513</v>
+        <v>1.82893</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.13809</v>
+        <v>1.92688</v>
       </c>
       <c r="C126" t="n">
-        <v>2.09974</v>
+        <v>1.90565</v>
       </c>
       <c r="D126" t="n">
-        <v>1.98413</v>
+        <v>1.83043</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.20648</v>
+        <v>1.95909</v>
       </c>
       <c r="C127" t="n">
-        <v>2.09646</v>
+        <v>1.90868</v>
       </c>
       <c r="D127" t="n">
-        <v>1.9949</v>
+        <v>1.84338</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.15605</v>
+        <v>1.94334</v>
       </c>
       <c r="C128" t="n">
-        <v>2.12459</v>
+        <v>1.92197</v>
       </c>
       <c r="D128" t="n">
-        <v>2.0089</v>
+        <v>1.85695</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.1686</v>
+        <v>1.93476</v>
       </c>
       <c r="C129" t="n">
-        <v>2.1032</v>
+        <v>1.92272</v>
       </c>
       <c r="D129" t="n">
-        <v>1.98065</v>
+        <v>1.84341</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.19078</v>
+        <v>1.97391</v>
       </c>
       <c r="C130" t="n">
-        <v>2.11682</v>
+        <v>1.93191</v>
       </c>
       <c r="D130" t="n">
-        <v>2.04805</v>
+        <v>1.83987</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.15674</v>
+        <v>1.95794</v>
       </c>
       <c r="C131" t="n">
-        <v>2.11495</v>
+        <v>1.90978</v>
       </c>
       <c r="D131" t="n">
-        <v>2.0146</v>
+        <v>1.81589</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.16461</v>
+        <v>1.97535</v>
       </c>
       <c r="C132" t="n">
-        <v>2.10753</v>
+        <v>1.90188</v>
       </c>
       <c r="D132" t="n">
-        <v>2.0611</v>
+        <v>1.83235</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.19286</v>
+        <v>1.95745</v>
       </c>
       <c r="C133" t="n">
-        <v>2.14935</v>
+        <v>1.92343</v>
       </c>
       <c r="D133" t="n">
-        <v>2.01419</v>
+        <v>1.84941</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.2017</v>
+        <v>1.87721</v>
       </c>
       <c r="C134" t="n">
-        <v>2.10648</v>
+        <v>1.822</v>
       </c>
       <c r="D134" t="n">
-        <v>1.99993</v>
+        <v>1.86452</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.17204</v>
+        <v>1.97899</v>
       </c>
       <c r="C135" t="n">
-        <v>2.14335</v>
+        <v>1.92926</v>
       </c>
       <c r="D135" t="n">
-        <v>2.05155</v>
+        <v>1.83222</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.21629</v>
+        <v>1.974</v>
       </c>
       <c r="C136" t="n">
-        <v>2.11522</v>
+        <v>1.9487</v>
       </c>
       <c r="D136" t="n">
-        <v>2.05431</v>
+        <v>1.88221</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.21646</v>
+        <v>1.99071</v>
       </c>
       <c r="C137" t="n">
-        <v>2.12078</v>
+        <v>1.93342</v>
       </c>
       <c r="D137" t="n">
-        <v>2.31964</v>
+        <v>2.10517</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.46718</v>
+        <v>2.24532</v>
       </c>
       <c r="C138" t="n">
-        <v>2.37874</v>
+        <v>2.19062</v>
       </c>
       <c r="D138" t="n">
-        <v>2.30233</v>
+        <v>2.10531</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.37672</v>
+        <v>2.21392</v>
       </c>
       <c r="C139" t="n">
-        <v>2.2273</v>
+        <v>2.18165</v>
       </c>
       <c r="D139" t="n">
-        <v>2.16565</v>
+        <v>2.11299</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.30394</v>
+        <v>2.23627</v>
       </c>
       <c r="C140" t="n">
-        <v>2.29008</v>
+        <v>2.18308</v>
       </c>
       <c r="D140" t="n">
-        <v>2.18579</v>
+        <v>2.1168</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.32113</v>
+        <v>2.2496</v>
       </c>
       <c r="C141" t="n">
-        <v>2.28718</v>
+        <v>2.18879</v>
       </c>
       <c r="D141" t="n">
-        <v>2.20981</v>
+        <v>2.13304</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.35592</v>
+        <v>2.25772</v>
       </c>
       <c r="C142" t="n">
-        <v>2.27646</v>
+        <v>2.19646</v>
       </c>
       <c r="D142" t="n">
-        <v>2.24954</v>
+        <v>2.12711</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.40849</v>
+        <v>2.28122</v>
       </c>
       <c r="C143" t="n">
-        <v>2.31402</v>
+        <v>2.19232</v>
       </c>
       <c r="D143" t="n">
-        <v>2.28431</v>
+        <v>2.12633</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>1.04855</v>
+        <v>1.05638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.959237</v>
+        <v>0.966836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.921668</v>
+        <v>0.954222</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.940565</v>
+        <v>0.95429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.971712</v>
+        <v>0.980803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.918049</v>
+        <v>0.942229</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.898334</v>
+        <v>0.955681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.933723</v>
+        <v>0.928163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.94199</v>
+        <v>0.946796</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.937842</v>
+        <v>0.939934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.941898</v>
+        <v>0.908837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.943871</v>
+        <v>0.906458</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.932859</v>
+        <v>0.893012</v>
       </c>
       <c r="C6" t="n">
-        <v>0.913835</v>
+        <v>0.953224</v>
       </c>
       <c r="D6" t="n">
-        <v>0.91133</v>
+        <v>0.899253</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.938744</v>
+        <v>0.911775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9044140000000001</v>
+        <v>0.938203</v>
       </c>
       <c r="D7" t="n">
-        <v>0.900963</v>
+        <v>0.9216839999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.900728</v>
+        <v>0.931306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.892289</v>
+        <v>0.917756</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8914029999999999</v>
+        <v>0.88043</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.939044</v>
+        <v>0.904556</v>
       </c>
       <c r="C9" t="n">
-        <v>0.886448</v>
+        <v>0.917774</v>
       </c>
       <c r="D9" t="n">
-        <v>1.01418</v>
+        <v>1.00886</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9915620000000001</v>
+        <v>0.9870640000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>1.00257</v>
+        <v>1.00657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.95921</v>
+        <v>0.992262</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.954113</v>
+        <v>0.995895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98256</v>
+        <v>0.999996</v>
       </c>
       <c r="D11" t="n">
-        <v>0.981397</v>
+        <v>0.992036</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.992859</v>
+        <v>0.975949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.980114</v>
+        <v>1.00207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.962068</v>
+        <v>0.943747</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.98003</v>
+        <v>0.937507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.964731</v>
+        <v>0.957905</v>
       </c>
       <c r="D13" t="n">
-        <v>0.960145</v>
+        <v>0.963085</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.956877</v>
+        <v>0.954406</v>
       </c>
       <c r="C14" t="n">
-        <v>0.979548</v>
+        <v>0.962037</v>
       </c>
       <c r="D14" t="n">
-        <v>0.97594</v>
+        <v>0.959775</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.980646</v>
+        <v>0.946565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.946807</v>
+        <v>0.942454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.954583</v>
+        <v>0.962722</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.930202</v>
+        <v>0.970397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.903684</v>
+        <v>0.927531</v>
       </c>
       <c r="D16" t="n">
-        <v>0.933681</v>
+        <v>0.915629</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.903601</v>
+        <v>0.941008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.914161</v>
+        <v>0.939327</v>
       </c>
       <c r="D17" t="n">
-        <v>0.932238</v>
+        <v>0.912546</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9363899999999999</v>
+        <v>0.940732</v>
       </c>
       <c r="C18" t="n">
-        <v>0.897467</v>
+        <v>0.932106</v>
       </c>
       <c r="D18" t="n">
-        <v>0.889689</v>
+        <v>0.897223</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.905589</v>
+        <v>0.925989</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9157380000000001</v>
+        <v>0.905134</v>
       </c>
       <c r="D19" t="n">
-        <v>0.894061</v>
+        <v>0.902156</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.895109</v>
+        <v>0.8986960000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.893645</v>
+        <v>0.901071</v>
       </c>
       <c r="D20" t="n">
-        <v>0.888913</v>
+        <v>0.8789169999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.936667</v>
+        <v>0.883605</v>
       </c>
       <c r="C21" t="n">
-        <v>0.892279</v>
+        <v>0.885593</v>
       </c>
       <c r="D21" t="n">
-        <v>0.896992</v>
+        <v>0.897905</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.893591</v>
+        <v>0.903612</v>
       </c>
       <c r="C22" t="n">
-        <v>0.865202</v>
+        <v>0.896154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.880733</v>
+        <v>0.859638</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.883964</v>
+        <v>0.896041</v>
       </c>
       <c r="C23" t="n">
-        <v>0.871721</v>
+        <v>0.877728</v>
       </c>
       <c r="D23" t="n">
-        <v>1.13004</v>
+        <v>1.09981</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.095</v>
+        <v>1.06373</v>
       </c>
       <c r="C24" t="n">
-        <v>1.07439</v>
+        <v>1.0787</v>
       </c>
       <c r="D24" t="n">
-        <v>1.10662</v>
+        <v>1.10048</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0775</v>
+        <v>1.05122</v>
       </c>
       <c r="C25" t="n">
-        <v>1.08527</v>
+        <v>1.07502</v>
       </c>
       <c r="D25" t="n">
-        <v>1.10874</v>
+        <v>1.09927</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.07562</v>
+        <v>1.04398</v>
       </c>
       <c r="C26" t="n">
-        <v>1.06936</v>
+        <v>1.04739</v>
       </c>
       <c r="D26" t="n">
-        <v>1.08673</v>
+        <v>1.08641</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.03774</v>
+        <v>1.05496</v>
       </c>
       <c r="C27" t="n">
-        <v>1.02445</v>
+        <v>1.03545</v>
       </c>
       <c r="D27" t="n">
-        <v>1.05954</v>
+        <v>1.05559</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.06615</v>
+        <v>1.01732</v>
       </c>
       <c r="C28" t="n">
-        <v>1.04247</v>
+        <v>1.02176</v>
       </c>
       <c r="D28" t="n">
-        <v>1.02993</v>
+        <v>1.07862</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0445</v>
+        <v>1.04773</v>
       </c>
       <c r="C29" t="n">
-        <v>1.03534</v>
+        <v>1.02346</v>
       </c>
       <c r="D29" t="n">
-        <v>1.05117</v>
+        <v>1.02273</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01752</v>
+        <v>1.00639</v>
       </c>
       <c r="C30" t="n">
-        <v>1.01853</v>
+        <v>1.0175</v>
       </c>
       <c r="D30" t="n">
-        <v>1.01257</v>
+        <v>1.03695</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.015</v>
+        <v>1.01026</v>
       </c>
       <c r="C31" t="n">
-        <v>0.974703</v>
+        <v>0.98364</v>
       </c>
       <c r="D31" t="n">
-        <v>1.02506</v>
+        <v>1.02291</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.00451</v>
+        <v>1.01344</v>
       </c>
       <c r="C32" t="n">
-        <v>0.972013</v>
+        <v>0.976252</v>
       </c>
       <c r="D32" t="n">
-        <v>0.982908</v>
+        <v>1.02486</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.989644</v>
+        <v>0.990107</v>
       </c>
       <c r="C33" t="n">
-        <v>0.974206</v>
+        <v>0.981228</v>
       </c>
       <c r="D33" t="n">
-        <v>0.99903</v>
+        <v>1.01335</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.993544</v>
+        <v>0.970733</v>
       </c>
       <c r="C34" t="n">
-        <v>0.981219</v>
+        <v>1.01443</v>
       </c>
       <c r="D34" t="n">
-        <v>0.982812</v>
+        <v>0.9916160000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.975944</v>
+        <v>0.966404</v>
       </c>
       <c r="C35" t="n">
-        <v>0.971359</v>
+        <v>0.939599</v>
       </c>
       <c r="D35" t="n">
-        <v>0.960824</v>
+        <v>0.959486</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.98024</v>
+        <v>0.956728</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9672770000000001</v>
+        <v>0.945782</v>
       </c>
       <c r="D36" t="n">
-        <v>0.958829</v>
+        <v>0.993991</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9666</v>
+        <v>0.956488</v>
       </c>
       <c r="C37" t="n">
-        <v>0.951249</v>
+        <v>0.9728599999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.15322</v>
+        <v>1.19281</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.13955</v>
+        <v>1.14016</v>
       </c>
       <c r="C38" t="n">
-        <v>1.16163</v>
+        <v>1.1434</v>
       </c>
       <c r="D38" t="n">
-        <v>1.15824</v>
+        <v>1.20268</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.13503</v>
+        <v>1.13251</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1316</v>
+        <v>1.12512</v>
       </c>
       <c r="D39" t="n">
-        <v>1.14906</v>
+        <v>1.145</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.12517</v>
+        <v>1.10688</v>
       </c>
       <c r="C40" t="n">
-        <v>1.13771</v>
+        <v>1.09299</v>
       </c>
       <c r="D40" t="n">
-        <v>1.11542</v>
+        <v>1.10977</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.12146</v>
+        <v>1.13122</v>
       </c>
       <c r="C41" t="n">
-        <v>1.10132</v>
+        <v>1.10524</v>
       </c>
       <c r="D41" t="n">
-        <v>1.12414</v>
+        <v>1.09412</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.11231</v>
+        <v>1.09027</v>
       </c>
       <c r="C42" t="n">
-        <v>1.09457</v>
+        <v>1.06111</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0851</v>
+        <v>1.09436</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.08272</v>
+        <v>1.10235</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0801</v>
+        <v>1.06915</v>
       </c>
       <c r="D43" t="n">
-        <v>1.06219</v>
+        <v>1.08677</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.08496</v>
+        <v>1.06839</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07106</v>
+        <v>1.07312</v>
       </c>
       <c r="D44" t="n">
-        <v>1.06061</v>
+        <v>1.06883</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.06937</v>
+        <v>1.05933</v>
       </c>
       <c r="C45" t="n">
-        <v>1.04413</v>
+        <v>1.08962</v>
       </c>
       <c r="D45" t="n">
-        <v>1.04998</v>
+        <v>1.06212</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.06146</v>
+        <v>1.06549</v>
       </c>
       <c r="C46" t="n">
-        <v>1.02848</v>
+        <v>1.03071</v>
       </c>
       <c r="D46" t="n">
-        <v>1.02987</v>
+        <v>1.03262</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.05043</v>
+        <v>1.05162</v>
       </c>
       <c r="C47" t="n">
-        <v>1.03962</v>
+        <v>1.04543</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0441</v>
+        <v>1.05294</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0398</v>
+        <v>1.03664</v>
       </c>
       <c r="C48" t="n">
-        <v>1.05088</v>
+        <v>1.00364</v>
       </c>
       <c r="D48" t="n">
-        <v>1.01719</v>
+        <v>1.03455</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.03072</v>
+        <v>1.02554</v>
       </c>
       <c r="C49" t="n">
-        <v>1.00728</v>
+        <v>1.00099</v>
       </c>
       <c r="D49" t="n">
-        <v>1.01512</v>
+        <v>1.02107</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0234</v>
+        <v>1.02551</v>
       </c>
       <c r="C50" t="n">
-        <v>0.996654</v>
+        <v>1.01646</v>
       </c>
       <c r="D50" t="n">
-        <v>1.00947</v>
+        <v>0.99709</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.03752</v>
+        <v>1.01226</v>
       </c>
       <c r="C51" t="n">
-        <v>1.00044</v>
+        <v>0.986177</v>
       </c>
       <c r="D51" t="n">
-        <v>1.23331</v>
+        <v>1.2034</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.01246</v>
+        <v>1.0088</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01136</v>
+        <v>0.999362</v>
       </c>
       <c r="D52" t="n">
-        <v>1.19653</v>
+        <v>1.18422</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.19765</v>
+        <v>1.21778</v>
       </c>
       <c r="C53" t="n">
-        <v>1.17617</v>
+        <v>1.18548</v>
       </c>
       <c r="D53" t="n">
-        <v>1.17162</v>
+        <v>1.20151</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.19114</v>
+        <v>1.18825</v>
       </c>
       <c r="C54" t="n">
-        <v>1.15485</v>
+        <v>1.17759</v>
       </c>
       <c r="D54" t="n">
-        <v>1.15699</v>
+        <v>1.16675</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.17948</v>
+        <v>1.20038</v>
       </c>
       <c r="C55" t="n">
-        <v>1.1538</v>
+        <v>1.15302</v>
       </c>
       <c r="D55" t="n">
-        <v>1.15884</v>
+        <v>1.13464</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.16794</v>
+        <v>1.16029</v>
       </c>
       <c r="C56" t="n">
-        <v>1.1378</v>
+        <v>1.11734</v>
       </c>
       <c r="D56" t="n">
-        <v>1.14212</v>
+        <v>1.12185</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.12228</v>
+        <v>1.15061</v>
       </c>
       <c r="C57" t="n">
-        <v>1.11447</v>
+        <v>1.13729</v>
       </c>
       <c r="D57" t="n">
-        <v>1.12647</v>
+        <v>1.09682</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.14816</v>
+        <v>1.12427</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12685</v>
+        <v>1.0985</v>
       </c>
       <c r="D58" t="n">
-        <v>1.12369</v>
+        <v>1.11667</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.11885</v>
+        <v>1.10629</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0913</v>
+        <v>1.10332</v>
       </c>
       <c r="D59" t="n">
-        <v>1.09543</v>
+        <v>1.12785</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.10503</v>
+        <v>1.12064</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09364</v>
+        <v>1.10361</v>
       </c>
       <c r="D60" t="n">
-        <v>1.07574</v>
+        <v>1.10719</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.09839</v>
+        <v>1.09233</v>
       </c>
       <c r="C61" t="n">
-        <v>1.07331</v>
+        <v>1.13381</v>
       </c>
       <c r="D61" t="n">
-        <v>1.09118</v>
+        <v>1.07072</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.09869</v>
+        <v>1.09221</v>
       </c>
       <c r="C62" t="n">
-        <v>1.08942</v>
+        <v>1.07059</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0564</v>
+        <v>1.07541</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.08945</v>
+        <v>1.09916</v>
       </c>
       <c r="C63" t="n">
-        <v>1.04696</v>
+        <v>1.05769</v>
       </c>
       <c r="D63" t="n">
-        <v>1.07435</v>
+        <v>1.05823</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.07837</v>
+        <v>1.06823</v>
       </c>
       <c r="C64" t="n">
-        <v>1.03777</v>
+        <v>1.04887</v>
       </c>
       <c r="D64" t="n">
-        <v>1.08187</v>
+        <v>1.05003</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.06913</v>
+        <v>1.07725</v>
       </c>
       <c r="C65" t="n">
-        <v>1.03909</v>
+        <v>1.04901</v>
       </c>
       <c r="D65" t="n">
-        <v>1.05906</v>
+        <v>1.0574</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.06414</v>
+        <v>1.05192</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05532</v>
+        <v>1.06524</v>
       </c>
       <c r="D66" t="n">
-        <v>1.24893</v>
+        <v>1.27023</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.27567</v>
+        <v>1.27411</v>
       </c>
       <c r="C67" t="n">
-        <v>1.26376</v>
+        <v>1.25011</v>
       </c>
       <c r="D67" t="n">
-        <v>1.24368</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.22741</v>
+        <v>1.28474</v>
       </c>
       <c r="C68" t="n">
-        <v>1.24156</v>
+        <v>1.26301</v>
       </c>
       <c r="D68" t="n">
-        <v>1.23708</v>
+        <v>1.26607</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.23385</v>
+        <v>1.23971</v>
       </c>
       <c r="C69" t="n">
-        <v>1.2343</v>
+        <v>1.24491</v>
       </c>
       <c r="D69" t="n">
-        <v>1.21344</v>
+        <v>1.1977</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.24591</v>
+        <v>1.21894</v>
       </c>
       <c r="C70" t="n">
-        <v>1.21112</v>
+        <v>1.20425</v>
       </c>
       <c r="D70" t="n">
-        <v>1.21285</v>
+        <v>1.18365</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.24439</v>
+        <v>1.23018</v>
       </c>
       <c r="C71" t="n">
-        <v>1.23964</v>
+        <v>1.2015</v>
       </c>
       <c r="D71" t="n">
-        <v>1.20022</v>
+        <v>1.19381</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.22896</v>
+        <v>1.21026</v>
       </c>
       <c r="C72" t="n">
-        <v>1.18711</v>
+        <v>1.18814</v>
       </c>
       <c r="D72" t="n">
-        <v>1.19478</v>
+        <v>1.20535</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.20434</v>
+        <v>1.22965</v>
       </c>
       <c r="C73" t="n">
+        <v>1.22763</v>
+      </c>
+      <c r="D73" t="n">
         <v>1.17934</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.18175</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.19924</v>
+        <v>1.17314</v>
       </c>
       <c r="C74" t="n">
-        <v>1.15877</v>
+        <v>1.17259</v>
       </c>
       <c r="D74" t="n">
-        <v>1.17658</v>
+        <v>1.16388</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.18699</v>
+        <v>1.19754</v>
       </c>
       <c r="C75" t="n">
-        <v>1.17789</v>
+        <v>1.172</v>
       </c>
       <c r="D75" t="n">
-        <v>1.16862</v>
+        <v>1.16108</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.16299</v>
+        <v>1.1927</v>
       </c>
       <c r="C76" t="n">
-        <v>1.16594</v>
+        <v>1.15864</v>
       </c>
       <c r="D76" t="n">
-        <v>1.17821</v>
+        <v>1.14623</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.17848</v>
+        <v>1.16538</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18448</v>
+        <v>1.18278</v>
       </c>
       <c r="D77" t="n">
-        <v>1.1603</v>
+        <v>1.15809</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.18733</v>
+        <v>1.15911</v>
       </c>
       <c r="C78" t="n">
-        <v>1.15592</v>
+        <v>1.14979</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16351</v>
+        <v>1.16359</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.16179</v>
+        <v>1.1607</v>
       </c>
       <c r="C79" t="n">
-        <v>1.13877</v>
+        <v>1.1737</v>
       </c>
       <c r="D79" t="n">
-        <v>1.1485</v>
+        <v>1.14407</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.17389</v>
+        <v>1.16239</v>
       </c>
       <c r="C80" t="n">
-        <v>1.16024</v>
+        <v>1.16544</v>
       </c>
       <c r="D80" t="n">
-        <v>1.38886</v>
+        <v>1.36381</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.39014</v>
+        <v>1.38151</v>
       </c>
       <c r="C81" t="n">
-        <v>1.37231</v>
+        <v>1.3962</v>
       </c>
       <c r="D81" t="n">
-        <v>1.39342</v>
+        <v>1.42373</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.37559</v>
+        <v>1.39897</v>
       </c>
       <c r="C82" t="n">
-        <v>1.3446</v>
+        <v>1.3894</v>
       </c>
       <c r="D82" t="n">
-        <v>1.38599</v>
+        <v>1.3914</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.36707</v>
+        <v>1.38191</v>
       </c>
       <c r="C83" t="n">
-        <v>1.38341</v>
+        <v>1.35013</v>
       </c>
       <c r="D83" t="n">
-        <v>1.31903</v>
+        <v>1.34897</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.33989</v>
+        <v>1.36549</v>
       </c>
       <c r="C84" t="n">
-        <v>1.39866</v>
+        <v>1.33363</v>
       </c>
       <c r="D84" t="n">
-        <v>1.40596</v>
+        <v>1.33794</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.38449</v>
+        <v>1.34455</v>
       </c>
       <c r="C85" t="n">
-        <v>1.34229</v>
+        <v>1.34142</v>
       </c>
       <c r="D85" t="n">
-        <v>1.33084</v>
+        <v>1.33318</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.34634</v>
+        <v>1.31372</v>
       </c>
       <c r="C86" t="n">
-        <v>1.33518</v>
+        <v>1.33991</v>
       </c>
       <c r="D86" t="n">
-        <v>1.31647</v>
+        <v>1.29314</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.34969</v>
+        <v>1.34806</v>
       </c>
       <c r="C87" t="n">
-        <v>1.33744</v>
+        <v>1.30615</v>
       </c>
       <c r="D87" t="n">
-        <v>1.33065</v>
+        <v>1.30754</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.33148</v>
+        <v>1.36936</v>
       </c>
       <c r="C88" t="n">
-        <v>1.37792</v>
+        <v>1.31037</v>
       </c>
       <c r="D88" t="n">
-        <v>1.30313</v>
+        <v>1.2787</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.34404</v>
+        <v>1.33481</v>
       </c>
       <c r="C89" t="n">
-        <v>1.29484</v>
+        <v>1.34999</v>
       </c>
       <c r="D89" t="n">
-        <v>1.30529</v>
+        <v>1.30493</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.3223</v>
+        <v>1.32779</v>
       </c>
       <c r="C90" t="n">
-        <v>1.30581</v>
+        <v>1.31362</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2629</v>
+        <v>1.27141</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.3146</v>
+        <v>1.33096</v>
       </c>
       <c r="C91" t="n">
-        <v>1.31009</v>
+        <v>1.31436</v>
       </c>
       <c r="D91" t="n">
-        <v>1.29036</v>
+        <v>1.2748</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.28688</v>
+        <v>1.30971</v>
       </c>
       <c r="C92" t="n">
-        <v>1.25767</v>
+        <v>1.27615</v>
       </c>
       <c r="D92" t="n">
-        <v>1.30382</v>
+        <v>1.27444</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.30858</v>
+        <v>1.34615</v>
       </c>
       <c r="C93" t="n">
-        <v>1.26205</v>
+        <v>1.2645</v>
       </c>
       <c r="D93" t="n">
-        <v>1.24911</v>
+        <v>1.24357</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.31305</v>
+        <v>1.32436</v>
       </c>
       <c r="C94" t="n">
-        <v>1.27378</v>
+        <v>1.2637</v>
       </c>
       <c r="D94" t="n">
-        <v>1.53844</v>
+        <v>1.5452</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.54792</v>
+        <v>1.52374</v>
       </c>
       <c r="C95" t="n">
-        <v>1.51566</v>
+        <v>1.53481</v>
       </c>
       <c r="D95" t="n">
-        <v>1.50687</v>
+        <v>1.51141</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.52348</v>
+        <v>1.50721</v>
       </c>
       <c r="C96" t="n">
-        <v>1.51794</v>
+        <v>1.51239</v>
       </c>
       <c r="D96" t="n">
-        <v>1.49191</v>
+        <v>1.4912</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.5393</v>
+        <v>1.50837</v>
       </c>
       <c r="C97" t="n">
-        <v>1.51062</v>
+        <v>1.50469</v>
       </c>
       <c r="D97" t="n">
-        <v>1.49346</v>
+        <v>1.47148</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.48881</v>
+        <v>1.50062</v>
       </c>
       <c r="C98" t="n">
-        <v>1.51974</v>
+        <v>1.53656</v>
       </c>
       <c r="D98" t="n">
-        <v>1.46898</v>
+        <v>1.46585</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.49904</v>
+        <v>1.50078</v>
       </c>
       <c r="C99" t="n">
-        <v>1.51488</v>
+        <v>1.47919</v>
       </c>
       <c r="D99" t="n">
-        <v>1.46018</v>
+        <v>1.45838</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.49007</v>
+        <v>1.51795</v>
       </c>
       <c r="C100" t="n">
-        <v>1.46894</v>
+        <v>1.50137</v>
       </c>
       <c r="D100" t="n">
-        <v>1.45911</v>
+        <v>1.46872</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.46852</v>
+        <v>1.50537</v>
       </c>
       <c r="C101" t="n">
-        <v>1.47838</v>
+        <v>1.47084</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44338</v>
+        <v>1.44528</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.48591</v>
+        <v>1.50381</v>
       </c>
       <c r="C102" t="n">
-        <v>1.48534</v>
+        <v>1.46514</v>
       </c>
       <c r="D102" t="n">
-        <v>1.44573</v>
+        <v>1.43544</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.48239</v>
+        <v>1.46134</v>
       </c>
       <c r="C103" t="n">
-        <v>1.48499</v>
+        <v>1.46811</v>
       </c>
       <c r="D103" t="n">
-        <v>1.43542</v>
+        <v>1.41914</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.4366</v>
+        <v>1.51994</v>
       </c>
       <c r="C104" t="n">
-        <v>1.43562</v>
+        <v>1.45478</v>
       </c>
       <c r="D104" t="n">
-        <v>1.48144</v>
+        <v>1.42112</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.47032</v>
+        <v>1.47101</v>
       </c>
       <c r="C105" t="n">
-        <v>1.48941</v>
+        <v>1.47015</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39872</v>
+        <v>1.4531</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.4675</v>
+        <v>1.4502</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45152</v>
+        <v>1.41103</v>
       </c>
       <c r="D106" t="n">
-        <v>1.39303</v>
+        <v>1.39848</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.47841</v>
+        <v>1.45409</v>
       </c>
       <c r="C107" t="n">
-        <v>1.47371</v>
+        <v>1.45908</v>
       </c>
       <c r="D107" t="n">
-        <v>1.43957</v>
+        <v>1.41029</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.46434</v>
+        <v>1.45816</v>
       </c>
       <c r="C108" t="n">
-        <v>1.45116</v>
+        <v>1.44093</v>
       </c>
       <c r="D108" t="n">
-        <v>1.64725</v>
+        <v>1.69412</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.44182</v>
+        <v>1.44323</v>
       </c>
       <c r="C109" t="n">
-        <v>1.45475</v>
+        <v>1.47998</v>
       </c>
       <c r="D109" t="n">
-        <v>1.63763</v>
+        <v>1.66755</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.69083</v>
+        <v>1.72748</v>
       </c>
       <c r="C110" t="n">
-        <v>1.68667</v>
+        <v>1.70236</v>
       </c>
       <c r="D110" t="n">
-        <v>1.64796</v>
+        <v>1.61407</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.67751</v>
+        <v>1.68314</v>
       </c>
       <c r="C111" t="n">
-        <v>1.71622</v>
+        <v>1.68759</v>
       </c>
       <c r="D111" t="n">
-        <v>1.63553</v>
+        <v>1.61096</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.71311</v>
+        <v>1.7261</v>
       </c>
       <c r="C112" t="n">
-        <v>1.68067</v>
+        <v>1.6662</v>
       </c>
       <c r="D112" t="n">
-        <v>1.61515</v>
+        <v>1.61857</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.68794</v>
+        <v>1.67652</v>
       </c>
       <c r="C113" t="n">
-        <v>1.69739</v>
+        <v>1.69579</v>
       </c>
       <c r="D113" t="n">
-        <v>1.60931</v>
+        <v>1.63519</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.69182</v>
+        <v>1.66743</v>
       </c>
       <c r="C114" t="n">
-        <v>1.70806</v>
+        <v>1.66958</v>
       </c>
       <c r="D114" t="n">
-        <v>1.57996</v>
+        <v>1.63443</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.67495</v>
+        <v>1.69777</v>
       </c>
       <c r="C115" t="n">
-        <v>1.66926</v>
+        <v>1.68401</v>
       </c>
       <c r="D115" t="n">
-        <v>1.61858</v>
+        <v>1.60616</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.69132</v>
+        <v>1.68358</v>
       </c>
       <c r="C116" t="n">
-        <v>1.66872</v>
+        <v>1.70567</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62274</v>
+        <v>1.59526</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.68924</v>
+        <v>1.66406</v>
       </c>
       <c r="C117" t="n">
-        <v>1.69436</v>
+        <v>1.71131</v>
       </c>
       <c r="D117" t="n">
-        <v>1.6196</v>
+        <v>1.60072</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.6825</v>
+        <v>1.70465</v>
       </c>
       <c r="C118" t="n">
-        <v>1.6767</v>
+        <v>1.71465</v>
       </c>
       <c r="D118" t="n">
-        <v>1.60874</v>
+        <v>1.59286</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.71456</v>
+        <v>1.67137</v>
       </c>
       <c r="C119" t="n">
-        <v>1.68861</v>
+        <v>1.69106</v>
       </c>
       <c r="D119" t="n">
-        <v>1.56613</v>
+        <v>1.59774</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.69153</v>
+        <v>1.69036</v>
       </c>
       <c r="C120" t="n">
-        <v>1.6554</v>
+        <v>1.68642</v>
       </c>
       <c r="D120" t="n">
-        <v>1.57821</v>
+        <v>1.58559</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.68995</v>
+        <v>1.71142</v>
       </c>
       <c r="C121" t="n">
-        <v>1.68725</v>
+        <v>1.67052</v>
       </c>
       <c r="D121" t="n">
-        <v>1.58875</v>
+        <v>1.6002</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.69494</v>
+        <v>1.66726</v>
       </c>
       <c r="C122" t="n">
-        <v>1.65043</v>
+        <v>1.65686</v>
       </c>
       <c r="D122" t="n">
-        <v>1.57791</v>
+        <v>1.59138</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.66942</v>
+        <v>1.70564</v>
       </c>
       <c r="C123" t="n">
-        <v>1.67875</v>
+        <v>1.70056</v>
       </c>
       <c r="D123" t="n">
-        <v>1.85938</v>
+        <v>1.84415</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.93691</v>
+        <v>1.91994</v>
       </c>
       <c r="C124" t="n">
-        <v>1.92633</v>
+        <v>1.95302</v>
       </c>
       <c r="D124" t="n">
-        <v>1.81832</v>
+        <v>1.84701</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.93313</v>
+        <v>1.95293</v>
       </c>
       <c r="C125" t="n">
-        <v>1.90481</v>
+        <v>1.92899</v>
       </c>
       <c r="D125" t="n">
-        <v>1.82893</v>
+        <v>1.81759</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.92688</v>
+        <v>1.92513</v>
       </c>
       <c r="C126" t="n">
-        <v>1.90565</v>
+        <v>1.91589</v>
       </c>
       <c r="D126" t="n">
-        <v>1.83043</v>
+        <v>1.82846</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.95909</v>
+        <v>1.94717</v>
       </c>
       <c r="C127" t="n">
-        <v>1.90868</v>
+        <v>1.92168</v>
       </c>
       <c r="D127" t="n">
-        <v>1.84338</v>
+        <v>1.87751</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.94334</v>
+        <v>1.97269</v>
       </c>
       <c r="C128" t="n">
-        <v>1.92197</v>
+        <v>1.90332</v>
       </c>
       <c r="D128" t="n">
-        <v>1.85695</v>
+        <v>1.84782</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.93476</v>
+        <v>1.94959</v>
       </c>
       <c r="C129" t="n">
-        <v>1.92272</v>
+        <v>1.92974</v>
       </c>
       <c r="D129" t="n">
-        <v>1.84341</v>
+        <v>1.83032</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.97391</v>
+        <v>1.9416</v>
       </c>
       <c r="C130" t="n">
-        <v>1.93191</v>
+        <v>1.92226</v>
       </c>
       <c r="D130" t="n">
-        <v>1.83987</v>
+        <v>1.84036</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.95794</v>
+        <v>1.95522</v>
       </c>
       <c r="C131" t="n">
-        <v>1.90978</v>
+        <v>1.91783</v>
       </c>
       <c r="D131" t="n">
-        <v>1.81589</v>
+        <v>1.84595</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.97535</v>
+        <v>1.95493</v>
       </c>
       <c r="C132" t="n">
-        <v>1.90188</v>
+        <v>1.9637</v>
       </c>
       <c r="D132" t="n">
-        <v>1.83235</v>
+        <v>1.83064</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.95745</v>
+        <v>1.95424</v>
       </c>
       <c r="C133" t="n">
-        <v>1.92343</v>
+        <v>1.9362</v>
       </c>
       <c r="D133" t="n">
-        <v>1.84941</v>
+        <v>1.83497</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.87721</v>
+        <v>1.95407</v>
       </c>
       <c r="C134" t="n">
-        <v>1.822</v>
+        <v>1.91413</v>
       </c>
       <c r="D134" t="n">
-        <v>1.86452</v>
+        <v>1.85246</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.97899</v>
+        <v>1.97507</v>
       </c>
       <c r="C135" t="n">
-        <v>1.92926</v>
+        <v>1.93388</v>
       </c>
       <c r="D135" t="n">
-        <v>1.83222</v>
+        <v>1.83274</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.974</v>
+        <v>1.95938</v>
       </c>
       <c r="C136" t="n">
-        <v>1.9487</v>
+        <v>1.93538</v>
       </c>
       <c r="D136" t="n">
-        <v>1.88221</v>
+        <v>1.86557</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.99071</v>
+        <v>1.9846</v>
       </c>
       <c r="C137" t="n">
-        <v>1.93342</v>
+        <v>1.96346</v>
       </c>
       <c r="D137" t="n">
-        <v>2.10517</v>
+        <v>2.1366</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.24532</v>
+        <v>2.22411</v>
       </c>
       <c r="C138" t="n">
-        <v>2.19062</v>
+        <v>2.1838</v>
       </c>
       <c r="D138" t="n">
-        <v>2.10531</v>
+        <v>2.0889</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21392</v>
+        <v>2.21845</v>
       </c>
       <c r="C139" t="n">
-        <v>2.18165</v>
+        <v>2.20539</v>
       </c>
       <c r="D139" t="n">
-        <v>2.11299</v>
+        <v>2.12195</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.23627</v>
+        <v>2.25402</v>
       </c>
       <c r="C140" t="n">
-        <v>2.18308</v>
+        <v>2.17063</v>
       </c>
       <c r="D140" t="n">
-        <v>2.1168</v>
+        <v>2.12065</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.2496</v>
+        <v>2.26091</v>
       </c>
       <c r="C141" t="n">
-        <v>2.18879</v>
+        <v>2.17631</v>
       </c>
       <c r="D141" t="n">
-        <v>2.13304</v>
+        <v>2.13571</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.25772</v>
+        <v>2.27846</v>
       </c>
       <c r="C142" t="n">
-        <v>2.19646</v>
+        <v>2.20818</v>
       </c>
       <c r="D142" t="n">
-        <v>2.12711</v>
+        <v>2.14384</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.28122</v>
+        <v>2.27182</v>
       </c>
       <c r="C143" t="n">
-        <v>2.19232</v>
+        <v>2.19413</v>
       </c>
       <c r="D143" t="n">
-        <v>2.12633</v>
+        <v>2.12959</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>1.05638</v>
+        <v>0.993939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.966836</v>
+        <v>0.943148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.954222</v>
+        <v>0.912724</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.95429</v>
+        <v>0.8996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.980803</v>
+        <v>0.9499339999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.942229</v>
+        <v>0.907027</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.955681</v>
+        <v>0.892452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.928163</v>
+        <v>0.925258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.946796</v>
+        <v>0.8961479999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.939934</v>
+        <v>0.909351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.908837</v>
+        <v>0.925206</v>
       </c>
       <c r="D5" t="n">
-        <v>0.906458</v>
+        <v>0.8887429999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.893012</v>
+        <v>0.882419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.953224</v>
+        <v>0.916066</v>
       </c>
       <c r="D6" t="n">
-        <v>0.899253</v>
+        <v>0.929668</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.911775</v>
+        <v>0.873932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.938203</v>
+        <v>0.909409</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9216839999999999</v>
+        <v>0.890687</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.931306</v>
+        <v>0.870005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.917756</v>
+        <v>0.940255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.88043</v>
+        <v>0.895778</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.904556</v>
+        <v>0.885564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.917774</v>
+        <v>0.900903</v>
       </c>
       <c r="D9" t="n">
-        <v>1.00886</v>
+        <v>1.02562</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9870640000000001</v>
+        <v>0.986911</v>
       </c>
       <c r="C10" t="n">
-        <v>1.00657</v>
+        <v>1.01358</v>
       </c>
       <c r="D10" t="n">
-        <v>0.992262</v>
+        <v>1.01411</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.995895</v>
+        <v>0.96641</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999996</v>
+        <v>1.00594</v>
       </c>
       <c r="D11" t="n">
-        <v>0.992036</v>
+        <v>0.985173</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.975949</v>
+        <v>0.980396</v>
       </c>
       <c r="C12" t="n">
-        <v>1.00207</v>
+        <v>0.986564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.943747</v>
+        <v>0.980795</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.937507</v>
+        <v>0.946357</v>
       </c>
       <c r="C13" t="n">
-        <v>0.957905</v>
+        <v>0.984146</v>
       </c>
       <c r="D13" t="n">
-        <v>0.963085</v>
+        <v>0.9897319999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.954406</v>
+        <v>0.938757</v>
       </c>
       <c r="C14" t="n">
-        <v>0.962037</v>
+        <v>0.978688</v>
       </c>
       <c r="D14" t="n">
-        <v>0.959775</v>
+        <v>0.9407450000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.946565</v>
+        <v>0.918926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.942454</v>
+        <v>0.955139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.962722</v>
+        <v>0.96174</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.970397</v>
+        <v>0.936746</v>
       </c>
       <c r="C16" t="n">
-        <v>0.927531</v>
+        <v>0.964396</v>
       </c>
       <c r="D16" t="n">
-        <v>0.915629</v>
+        <v>0.933108</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.941008</v>
+        <v>0.922749</v>
       </c>
       <c r="C17" t="n">
-        <v>0.939327</v>
+        <v>0.955742</v>
       </c>
       <c r="D17" t="n">
-        <v>0.912546</v>
+        <v>0.962269</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.940732</v>
+        <v>0.961777</v>
       </c>
       <c r="C18" t="n">
-        <v>0.932106</v>
+        <v>0.9589800000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.897223</v>
+        <v>0.929688</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.925989</v>
+        <v>0.929713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.905134</v>
+        <v>0.949969</v>
       </c>
       <c r="D19" t="n">
-        <v>0.902156</v>
+        <v>0.9160469999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8986960000000001</v>
+        <v>0.900491</v>
       </c>
       <c r="C20" t="n">
-        <v>0.901071</v>
+        <v>0.9526480000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8789169999999999</v>
+        <v>0.923351</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.883605</v>
+        <v>0.89444</v>
       </c>
       <c r="C21" t="n">
-        <v>0.885593</v>
+        <v>0.920666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.897905</v>
+        <v>0.8984760000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.903612</v>
+        <v>0.893396</v>
       </c>
       <c r="C22" t="n">
-        <v>0.896154</v>
+        <v>0.932822</v>
       </c>
       <c r="D22" t="n">
-        <v>0.859638</v>
+        <v>0.904756</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.896041</v>
+        <v>0.909021</v>
       </c>
       <c r="C23" t="n">
-        <v>0.877728</v>
+        <v>0.933609</v>
       </c>
       <c r="D23" t="n">
-        <v>1.09981</v>
+        <v>1.14073</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.06373</v>
+        <v>1.05087</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0787</v>
+        <v>1.11569</v>
       </c>
       <c r="D24" t="n">
-        <v>1.10048</v>
+        <v>1.11296</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.05122</v>
+        <v>1.08031</v>
       </c>
       <c r="C25" t="n">
-        <v>1.07502</v>
+        <v>1.09183</v>
       </c>
       <c r="D25" t="n">
-        <v>1.09927</v>
+        <v>1.116</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.04398</v>
+        <v>1.0462</v>
       </c>
       <c r="C26" t="n">
-        <v>1.04739</v>
+        <v>1.12716</v>
       </c>
       <c r="D26" t="n">
-        <v>1.08641</v>
+        <v>1.07657</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.05496</v>
+        <v>1.04443</v>
       </c>
       <c r="C27" t="n">
-        <v>1.03545</v>
+        <v>1.04422</v>
       </c>
       <c r="D27" t="n">
-        <v>1.05559</v>
+        <v>1.05436</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.01732</v>
+        <v>1.02893</v>
       </c>
       <c r="C28" t="n">
-        <v>1.02176</v>
+        <v>1.06044</v>
       </c>
       <c r="D28" t="n">
-        <v>1.07862</v>
+        <v>1.05506</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.04773</v>
+        <v>1.00048</v>
       </c>
       <c r="C29" t="n">
-        <v>1.02346</v>
+        <v>1.04932</v>
       </c>
       <c r="D29" t="n">
-        <v>1.02273</v>
+        <v>1.06346</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.00639</v>
+        <v>1.00832</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0175</v>
+        <v>1.03187</v>
       </c>
       <c r="D30" t="n">
-        <v>1.03695</v>
+        <v>1.02163</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.01026</v>
+        <v>1.00506</v>
       </c>
       <c r="C31" t="n">
-        <v>0.98364</v>
+        <v>1.02501</v>
       </c>
       <c r="D31" t="n">
-        <v>1.02291</v>
+        <v>1.01819</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.01344</v>
+        <v>0.996402</v>
       </c>
       <c r="C32" t="n">
-        <v>0.976252</v>
+        <v>1.00484</v>
       </c>
       <c r="D32" t="n">
-        <v>1.02486</v>
+        <v>1.02741</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.990107</v>
+        <v>0.97461</v>
       </c>
       <c r="C33" t="n">
-        <v>0.981228</v>
+        <v>1.04356</v>
       </c>
       <c r="D33" t="n">
-        <v>1.01335</v>
+        <v>1.00951</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.970733</v>
+        <v>0.966445</v>
       </c>
       <c r="C34" t="n">
-        <v>1.01443</v>
+        <v>0.996607</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9916160000000001</v>
+        <v>0.9891529999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.966404</v>
+        <v>0.945648</v>
       </c>
       <c r="C35" t="n">
-        <v>0.939599</v>
+        <v>0.982258</v>
       </c>
       <c r="D35" t="n">
-        <v>0.959486</v>
+        <v>1.00224</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.956728</v>
+        <v>0.951299</v>
       </c>
       <c r="C36" t="n">
-        <v>0.945782</v>
+        <v>0.973824</v>
       </c>
       <c r="D36" t="n">
-        <v>0.993991</v>
+        <v>0.9910330000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.956488</v>
+        <v>0.953028</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9728599999999999</v>
+        <v>0.966915</v>
       </c>
       <c r="D37" t="n">
-        <v>1.19281</v>
+        <v>1.1605</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.14016</v>
+        <v>1.15955</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1434</v>
+        <v>1.1601</v>
       </c>
       <c r="D38" t="n">
-        <v>1.20268</v>
+        <v>1.10049</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.13251</v>
+        <v>1.13691</v>
       </c>
       <c r="C39" t="n">
-        <v>1.12512</v>
+        <v>1.17767</v>
       </c>
       <c r="D39" t="n">
-        <v>1.145</v>
+        <v>1.09525</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.10688</v>
+        <v>1.12996</v>
       </c>
       <c r="C40" t="n">
-        <v>1.09299</v>
+        <v>1.15702</v>
       </c>
       <c r="D40" t="n">
-        <v>1.10977</v>
+        <v>1.10122</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.13122</v>
+        <v>1.11643</v>
       </c>
       <c r="C41" t="n">
-        <v>1.10524</v>
+        <v>1.13142</v>
       </c>
       <c r="D41" t="n">
-        <v>1.09412</v>
+        <v>1.08303</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.09027</v>
+        <v>1.11962</v>
       </c>
       <c r="C42" t="n">
-        <v>1.06111</v>
+        <v>1.13807</v>
       </c>
       <c r="D42" t="n">
-        <v>1.09436</v>
+        <v>1.06004</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.10235</v>
+        <v>1.09641</v>
       </c>
       <c r="C43" t="n">
-        <v>1.06915</v>
+        <v>1.13546</v>
       </c>
       <c r="D43" t="n">
-        <v>1.08677</v>
+        <v>1.05298</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.06839</v>
+        <v>1.07531</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07312</v>
+        <v>1.09899</v>
       </c>
       <c r="D44" t="n">
-        <v>1.06883</v>
+        <v>1.03524</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.05933</v>
+        <v>1.0617</v>
       </c>
       <c r="C45" t="n">
-        <v>1.08962</v>
+        <v>1.08538</v>
       </c>
       <c r="D45" t="n">
-        <v>1.06212</v>
+        <v>1.02148</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.06549</v>
+        <v>1.04359</v>
       </c>
       <c r="C46" t="n">
-        <v>1.03071</v>
+        <v>1.07174</v>
       </c>
       <c r="D46" t="n">
-        <v>1.03262</v>
+        <v>1.01055</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.05162</v>
+        <v>1.06334</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04543</v>
+        <v>1.05796</v>
       </c>
       <c r="D47" t="n">
-        <v>1.05294</v>
+        <v>1.0126</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.03664</v>
+        <v>1.0542</v>
       </c>
       <c r="C48" t="n">
-        <v>1.00364</v>
+        <v>1.04648</v>
       </c>
       <c r="D48" t="n">
-        <v>1.03455</v>
+        <v>1.00026</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02554</v>
+        <v>1.03578</v>
       </c>
       <c r="C49" t="n">
-        <v>1.00099</v>
+        <v>1.03567</v>
       </c>
       <c r="D49" t="n">
-        <v>1.02107</v>
+        <v>1.01091</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.02551</v>
+        <v>1.02101</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01646</v>
+        <v>1.02793</v>
       </c>
       <c r="D50" t="n">
-        <v>0.99709</v>
+        <v>1.01463</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.01226</v>
+        <v>1.00957</v>
       </c>
       <c r="C51" t="n">
-        <v>0.986177</v>
+        <v>1.04019</v>
       </c>
       <c r="D51" t="n">
-        <v>1.2034</v>
+        <v>1.21291</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.0088</v>
+        <v>1.04583</v>
       </c>
       <c r="C52" t="n">
-        <v>0.999362</v>
+        <v>1.01449</v>
       </c>
       <c r="D52" t="n">
-        <v>1.18422</v>
+        <v>1.16486</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.21778</v>
+        <v>1.20279</v>
       </c>
       <c r="C53" t="n">
-        <v>1.18548</v>
+        <v>1.22824</v>
       </c>
       <c r="D53" t="n">
-        <v>1.20151</v>
+        <v>1.17917</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.18825</v>
+        <v>1.18942</v>
       </c>
       <c r="C54" t="n">
-        <v>1.17759</v>
+        <v>1.23688</v>
       </c>
       <c r="D54" t="n">
-        <v>1.16675</v>
+        <v>1.15726</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.20038</v>
+        <v>1.17907</v>
       </c>
       <c r="C55" t="n">
-        <v>1.15302</v>
+        <v>1.1648</v>
       </c>
       <c r="D55" t="n">
-        <v>1.13464</v>
+        <v>1.13139</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.16029</v>
+        <v>1.13986</v>
       </c>
       <c r="C56" t="n">
-        <v>1.11734</v>
+        <v>1.16106</v>
       </c>
       <c r="D56" t="n">
-        <v>1.12185</v>
+        <v>1.1018</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.15061</v>
+        <v>1.16624</v>
       </c>
       <c r="C57" t="n">
-        <v>1.13729</v>
+        <v>1.16389</v>
       </c>
       <c r="D57" t="n">
-        <v>1.09682</v>
+        <v>1.1022</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.12427</v>
+        <v>1.13606</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0985</v>
+        <v>1.15061</v>
       </c>
       <c r="D58" t="n">
-        <v>1.11667</v>
+        <v>1.11241</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.10629</v>
+        <v>1.13608</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10332</v>
+        <v>1.12843</v>
       </c>
       <c r="D59" t="n">
-        <v>1.12785</v>
+        <v>1.09255</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.12064</v>
+        <v>1.11673</v>
       </c>
       <c r="C60" t="n">
-        <v>1.10361</v>
+        <v>1.13971</v>
       </c>
       <c r="D60" t="n">
-        <v>1.10719</v>
+        <v>1.07281</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.09233</v>
+        <v>1.08407</v>
       </c>
       <c r="C61" t="n">
-        <v>1.13381</v>
+        <v>1.10631</v>
       </c>
       <c r="D61" t="n">
-        <v>1.07072</v>
+        <v>1.05749</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.09221</v>
+        <v>1.08461</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07059</v>
+        <v>1.09111</v>
       </c>
       <c r="D62" t="n">
-        <v>1.07541</v>
+        <v>1.06332</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.09916</v>
+        <v>1.10276</v>
       </c>
       <c r="C63" t="n">
-        <v>1.05769</v>
+        <v>1.1135</v>
       </c>
       <c r="D63" t="n">
-        <v>1.05823</v>
+        <v>1.05109</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06823</v>
+        <v>1.09808</v>
       </c>
       <c r="C64" t="n">
-        <v>1.04887</v>
+        <v>1.1021</v>
       </c>
       <c r="D64" t="n">
-        <v>1.05003</v>
+        <v>1.04947</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.07725</v>
+        <v>1.08874</v>
       </c>
       <c r="C65" t="n">
-        <v>1.04901</v>
+        <v>1.07392</v>
       </c>
       <c r="D65" t="n">
-        <v>1.0574</v>
+        <v>1.04721</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.05192</v>
+        <v>1.04909</v>
       </c>
       <c r="C66" t="n">
-        <v>1.06524</v>
+        <v>1.08775</v>
       </c>
       <c r="D66" t="n">
-        <v>1.27023</v>
+        <v>1.28479</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.27411</v>
+        <v>1.26437</v>
       </c>
       <c r="C67" t="n">
-        <v>1.25011</v>
+        <v>1.29108</v>
       </c>
       <c r="D67" t="n">
-        <v>1.24875</v>
+        <v>1.29514</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.28474</v>
+        <v>1.23839</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26301</v>
+        <v>1.27781</v>
       </c>
       <c r="D68" t="n">
-        <v>1.26607</v>
+        <v>1.2392</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.23971</v>
+        <v>1.28525</v>
       </c>
       <c r="C69" t="n">
-        <v>1.24491</v>
+        <v>1.28534</v>
       </c>
       <c r="D69" t="n">
-        <v>1.1977</v>
+        <v>1.24796</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.21894</v>
+        <v>1.27751</v>
       </c>
       <c r="C70" t="n">
-        <v>1.20425</v>
+        <v>1.26708</v>
       </c>
       <c r="D70" t="n">
-        <v>1.18365</v>
+        <v>1.20637</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.23018</v>
+        <v>1.22296</v>
       </c>
       <c r="C71" t="n">
-        <v>1.2015</v>
+        <v>1.25327</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19381</v>
+        <v>1.24849</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.21026</v>
+        <v>1.19443</v>
       </c>
       <c r="C72" t="n">
-        <v>1.18814</v>
+        <v>1.23752</v>
       </c>
       <c r="D72" t="n">
-        <v>1.20535</v>
+        <v>1.20764</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.22965</v>
+        <v>1.18205</v>
       </c>
       <c r="C73" t="n">
-        <v>1.22763</v>
+        <v>1.21644</v>
       </c>
       <c r="D73" t="n">
-        <v>1.17934</v>
+        <v>1.19273</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17314</v>
+        <v>1.20619</v>
       </c>
       <c r="C74" t="n">
-        <v>1.17259</v>
+        <v>1.2406</v>
       </c>
       <c r="D74" t="n">
-        <v>1.16388</v>
+        <v>1.17845</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19754</v>
+        <v>1.19559</v>
       </c>
       <c r="C75" t="n">
-        <v>1.172</v>
+        <v>1.22555</v>
       </c>
       <c r="D75" t="n">
-        <v>1.16108</v>
+        <v>1.20205</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.1927</v>
+        <v>1.1864</v>
       </c>
       <c r="C76" t="n">
-        <v>1.15864</v>
+        <v>1.19536</v>
       </c>
       <c r="D76" t="n">
-        <v>1.14623</v>
+        <v>1.17571</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.16538</v>
+        <v>1.15892</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18278</v>
+        <v>1.20866</v>
       </c>
       <c r="D77" t="n">
-        <v>1.15809</v>
+        <v>1.1865</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.15911</v>
+        <v>1.17999</v>
       </c>
       <c r="C78" t="n">
-        <v>1.14979</v>
+        <v>1.18594</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16359</v>
+        <v>1.15984</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.1607</v>
+        <v>1.15967</v>
       </c>
       <c r="C79" t="n">
-        <v>1.1737</v>
+        <v>1.19111</v>
       </c>
       <c r="D79" t="n">
-        <v>1.14407</v>
+        <v>1.15524</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.16239</v>
+        <v>1.1475</v>
       </c>
       <c r="C80" t="n">
-        <v>1.16544</v>
+        <v>1.19321</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36381</v>
+        <v>1.45151</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.38151</v>
+        <v>1.38474</v>
       </c>
       <c r="C81" t="n">
-        <v>1.3962</v>
+        <v>1.40292</v>
       </c>
       <c r="D81" t="n">
-        <v>1.42373</v>
+        <v>1.37112</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.39897</v>
+        <v>1.40975</v>
       </c>
       <c r="C82" t="n">
-        <v>1.3894</v>
+        <v>1.40536</v>
       </c>
       <c r="D82" t="n">
-        <v>1.3914</v>
+        <v>1.37629</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.38191</v>
+        <v>1.34221</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35013</v>
+        <v>1.39913</v>
       </c>
       <c r="D83" t="n">
-        <v>1.34897</v>
+        <v>1.36962</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36549</v>
+        <v>1.38651</v>
       </c>
       <c r="C84" t="n">
-        <v>1.33363</v>
+        <v>1.42093</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33794</v>
+        <v>1.3459</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.34455</v>
+        <v>1.38437</v>
       </c>
       <c r="C85" t="n">
-        <v>1.34142</v>
+        <v>1.40677</v>
       </c>
       <c r="D85" t="n">
-        <v>1.33318</v>
+        <v>1.34813</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.31372</v>
+        <v>1.34915</v>
       </c>
       <c r="C86" t="n">
-        <v>1.33991</v>
+        <v>1.38733</v>
       </c>
       <c r="D86" t="n">
-        <v>1.29314</v>
+        <v>1.33411</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.34806</v>
+        <v>1.32459</v>
       </c>
       <c r="C87" t="n">
-        <v>1.30615</v>
+        <v>1.35645</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30754</v>
+        <v>1.31888</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.36936</v>
+        <v>1.32729</v>
       </c>
       <c r="C88" t="n">
-        <v>1.31037</v>
+        <v>1.36149</v>
       </c>
       <c r="D88" t="n">
-        <v>1.2787</v>
+        <v>1.34698</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.33481</v>
+        <v>1.32149</v>
       </c>
       <c r="C89" t="n">
-        <v>1.34999</v>
+        <v>1.33726</v>
       </c>
       <c r="D89" t="n">
-        <v>1.30493</v>
+        <v>1.31638</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.32779</v>
+        <v>1.35213</v>
       </c>
       <c r="C90" t="n">
-        <v>1.31362</v>
+        <v>1.365</v>
       </c>
       <c r="D90" t="n">
-        <v>1.27141</v>
+        <v>1.30051</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.33096</v>
+        <v>1.34654</v>
       </c>
       <c r="C91" t="n">
-        <v>1.31436</v>
+        <v>1.37448</v>
       </c>
       <c r="D91" t="n">
-        <v>1.2748</v>
+        <v>1.30325</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.30971</v>
+        <v>1.32281</v>
       </c>
       <c r="C92" t="n">
-        <v>1.27615</v>
+        <v>1.32007</v>
       </c>
       <c r="D92" t="n">
-        <v>1.27444</v>
+        <v>1.27921</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.34615</v>
+        <v>1.2917</v>
       </c>
       <c r="C93" t="n">
-        <v>1.2645</v>
+        <v>1.32028</v>
       </c>
       <c r="D93" t="n">
-        <v>1.24357</v>
+        <v>1.27835</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.32436</v>
+        <v>1.3034</v>
       </c>
       <c r="C94" t="n">
-        <v>1.2637</v>
+        <v>1.32902</v>
       </c>
       <c r="D94" t="n">
-        <v>1.5452</v>
+        <v>1.53197</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.52374</v>
+        <v>1.51844</v>
       </c>
       <c r="C95" t="n">
-        <v>1.53481</v>
+        <v>1.58139</v>
       </c>
       <c r="D95" t="n">
-        <v>1.51141</v>
+        <v>1.55027</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.50721</v>
+        <v>1.52862</v>
       </c>
       <c r="C96" t="n">
-        <v>1.51239</v>
+        <v>1.5529</v>
       </c>
       <c r="D96" t="n">
-        <v>1.4912</v>
+        <v>1.50293</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.50837</v>
+        <v>1.50003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.50469</v>
+        <v>1.52792</v>
       </c>
       <c r="D97" t="n">
-        <v>1.47148</v>
+        <v>1.51466</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.50062</v>
+        <v>1.51268</v>
       </c>
       <c r="C98" t="n">
-        <v>1.53656</v>
+        <v>1.55928</v>
       </c>
       <c r="D98" t="n">
-        <v>1.46585</v>
+        <v>1.52069</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.50078</v>
+        <v>1.49187</v>
       </c>
       <c r="C99" t="n">
-        <v>1.47919</v>
+        <v>1.56622</v>
       </c>
       <c r="D99" t="n">
-        <v>1.45838</v>
+        <v>1.48084</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.51795</v>
+        <v>1.4874</v>
       </c>
       <c r="C100" t="n">
-        <v>1.50137</v>
+        <v>1.52633</v>
       </c>
       <c r="D100" t="n">
-        <v>1.46872</v>
+        <v>1.47067</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.50537</v>
+        <v>1.4937</v>
       </c>
       <c r="C101" t="n">
-        <v>1.47084</v>
+        <v>1.53326</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44528</v>
+        <v>1.46997</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.50381</v>
+        <v>1.48559</v>
       </c>
       <c r="C102" t="n">
-        <v>1.46514</v>
+        <v>1.53362</v>
       </c>
       <c r="D102" t="n">
-        <v>1.43544</v>
+        <v>1.44489</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.46134</v>
+        <v>1.49409</v>
       </c>
       <c r="C103" t="n">
-        <v>1.46811</v>
+        <v>1.51516</v>
       </c>
       <c r="D103" t="n">
-        <v>1.41914</v>
+        <v>1.48695</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.51994</v>
+        <v>1.45732</v>
       </c>
       <c r="C104" t="n">
-        <v>1.45478</v>
+        <v>1.50805</v>
       </c>
       <c r="D104" t="n">
-        <v>1.42112</v>
+        <v>1.45891</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.47101</v>
+        <v>1.49598</v>
       </c>
       <c r="C105" t="n">
-        <v>1.47015</v>
+        <v>1.51812</v>
       </c>
       <c r="D105" t="n">
-        <v>1.4531</v>
+        <v>1.44385</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.4502</v>
+        <v>1.46681</v>
       </c>
       <c r="C106" t="n">
-        <v>1.41103</v>
+        <v>1.48574</v>
       </c>
       <c r="D106" t="n">
-        <v>1.39848</v>
+        <v>1.45159</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.45409</v>
+        <v>1.47107</v>
       </c>
       <c r="C107" t="n">
-        <v>1.45908</v>
+        <v>1.48291</v>
       </c>
       <c r="D107" t="n">
-        <v>1.41029</v>
+        <v>1.42645</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.45816</v>
+        <v>1.45477</v>
       </c>
       <c r="C108" t="n">
-        <v>1.44093</v>
+        <v>1.48266</v>
       </c>
       <c r="D108" t="n">
-        <v>1.69412</v>
+        <v>1.67979</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.44323</v>
+        <v>1.47774</v>
       </c>
       <c r="C109" t="n">
-        <v>1.47998</v>
+        <v>1.47518</v>
       </c>
       <c r="D109" t="n">
-        <v>1.66755</v>
+        <v>1.67233</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.72748</v>
+        <v>1.71775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.70236</v>
+        <v>1.72609</v>
       </c>
       <c r="D110" t="n">
-        <v>1.61407</v>
+        <v>1.70852</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.68314</v>
+        <v>1.72152</v>
       </c>
       <c r="C111" t="n">
-        <v>1.68759</v>
+        <v>1.72833</v>
       </c>
       <c r="D111" t="n">
-        <v>1.61096</v>
+        <v>1.64434</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.7261</v>
+        <v>1.68905</v>
       </c>
       <c r="C112" t="n">
-        <v>1.6662</v>
+        <v>1.699</v>
       </c>
       <c r="D112" t="n">
-        <v>1.61857</v>
+        <v>1.64376</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.67652</v>
+        <v>1.6778</v>
       </c>
       <c r="C113" t="n">
-        <v>1.69579</v>
+        <v>1.73539</v>
       </c>
       <c r="D113" t="n">
-        <v>1.63519</v>
+        <v>1.6668</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.66743</v>
+        <v>1.67207</v>
       </c>
       <c r="C114" t="n">
-        <v>1.66958</v>
+        <v>1.70115</v>
       </c>
       <c r="D114" t="n">
-        <v>1.63443</v>
+        <v>1.62816</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.69777</v>
+        <v>1.66391</v>
       </c>
       <c r="C115" t="n">
-        <v>1.68401</v>
+        <v>1.70934</v>
       </c>
       <c r="D115" t="n">
-        <v>1.60616</v>
+        <v>1.64772</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.68358</v>
+        <v>1.67333</v>
       </c>
       <c r="C116" t="n">
-        <v>1.70567</v>
+        <v>1.69392</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59526</v>
+        <v>1.66664</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.66406</v>
+        <v>1.70519</v>
       </c>
       <c r="C117" t="n">
-        <v>1.71131</v>
+        <v>1.70053</v>
       </c>
       <c r="D117" t="n">
-        <v>1.60072</v>
+        <v>1.61296</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.70465</v>
+        <v>1.71936</v>
       </c>
       <c r="C118" t="n">
-        <v>1.71465</v>
+        <v>1.70994</v>
       </c>
       <c r="D118" t="n">
-        <v>1.59286</v>
+        <v>1.61177</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.67137</v>
+        <v>1.66321</v>
       </c>
       <c r="C119" t="n">
-        <v>1.69106</v>
+        <v>1.69089</v>
       </c>
       <c r="D119" t="n">
-        <v>1.59774</v>
+        <v>1.63034</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.69036</v>
+        <v>1.70935</v>
       </c>
       <c r="C120" t="n">
-        <v>1.68642</v>
+        <v>1.73929</v>
       </c>
       <c r="D120" t="n">
-        <v>1.58559</v>
+        <v>1.60381</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.71142</v>
+        <v>1.68894</v>
       </c>
       <c r="C121" t="n">
-        <v>1.67052</v>
+        <v>1.70925</v>
       </c>
       <c r="D121" t="n">
-        <v>1.6002</v>
+        <v>1.62178</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.66726</v>
+        <v>1.70567</v>
       </c>
       <c r="C122" t="n">
-        <v>1.65686</v>
+        <v>1.72331</v>
       </c>
       <c r="D122" t="n">
-        <v>1.59138</v>
+        <v>1.6328</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.70564</v>
+        <v>1.70433</v>
       </c>
       <c r="C123" t="n">
-        <v>1.70056</v>
+        <v>1.73277</v>
       </c>
       <c r="D123" t="n">
-        <v>1.84415</v>
+        <v>1.93203</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.91994</v>
+        <v>1.94567</v>
       </c>
       <c r="C124" t="n">
-        <v>1.95302</v>
+        <v>1.9542</v>
       </c>
       <c r="D124" t="n">
-        <v>1.84701</v>
+        <v>1.86527</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.95293</v>
+        <v>1.90985</v>
       </c>
       <c r="C125" t="n">
-        <v>1.92899</v>
+        <v>1.94538</v>
       </c>
       <c r="D125" t="n">
-        <v>1.81759</v>
+        <v>1.86816</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.92513</v>
+        <v>1.9608</v>
       </c>
       <c r="C126" t="n">
-        <v>1.91589</v>
+        <v>1.95815</v>
       </c>
       <c r="D126" t="n">
-        <v>1.82846</v>
+        <v>1.86558</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.94717</v>
+        <v>1.94807</v>
       </c>
       <c r="C127" t="n">
-        <v>1.92168</v>
+        <v>1.96187</v>
       </c>
       <c r="D127" t="n">
-        <v>1.87751</v>
+        <v>1.87425</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.97269</v>
+        <v>1.97793</v>
       </c>
       <c r="C128" t="n">
-        <v>1.90332</v>
+        <v>1.9802</v>
       </c>
       <c r="D128" t="n">
-        <v>1.84782</v>
+        <v>1.88603</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.94959</v>
+        <v>1.96605</v>
       </c>
       <c r="C129" t="n">
-        <v>1.92974</v>
+        <v>1.9545</v>
       </c>
       <c r="D129" t="n">
-        <v>1.83032</v>
+        <v>1.8522</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.9416</v>
+        <v>1.96699</v>
       </c>
       <c r="C130" t="n">
-        <v>1.92226</v>
+        <v>1.96918</v>
       </c>
       <c r="D130" t="n">
-        <v>1.84036</v>
+        <v>1.86643</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.95522</v>
+        <v>1.96391</v>
       </c>
       <c r="C131" t="n">
-        <v>1.91783</v>
+        <v>1.98276</v>
       </c>
       <c r="D131" t="n">
-        <v>1.84595</v>
+        <v>1.90023</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.95493</v>
+        <v>1.95088</v>
       </c>
       <c r="C132" t="n">
-        <v>1.9637</v>
+        <v>1.96642</v>
       </c>
       <c r="D132" t="n">
-        <v>1.83064</v>
+        <v>1.87418</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.95424</v>
+        <v>1.97797</v>
       </c>
       <c r="C133" t="n">
-        <v>1.9362</v>
+        <v>1.98085</v>
       </c>
       <c r="D133" t="n">
-        <v>1.83497</v>
+        <v>1.86048</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.95407</v>
+        <v>1.99081</v>
       </c>
       <c r="C134" t="n">
-        <v>1.91413</v>
+        <v>1.99224</v>
       </c>
       <c r="D134" t="n">
-        <v>1.85246</v>
+        <v>1.86541</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.97507</v>
+        <v>1.98937</v>
       </c>
       <c r="C135" t="n">
-        <v>1.93388</v>
+        <v>1.97459</v>
       </c>
       <c r="D135" t="n">
-        <v>1.83274</v>
+        <v>1.88544</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.95938</v>
+        <v>1.98732</v>
       </c>
       <c r="C136" t="n">
-        <v>1.93538</v>
+        <v>1.97751</v>
       </c>
       <c r="D136" t="n">
-        <v>1.86557</v>
+        <v>1.90422</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.9846</v>
+        <v>2.00659</v>
       </c>
       <c r="C137" t="n">
-        <v>1.96346</v>
+        <v>1.99194</v>
       </c>
       <c r="D137" t="n">
-        <v>2.1366</v>
+        <v>2.18562</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.22411</v>
+        <v>2.23468</v>
       </c>
       <c r="C138" t="n">
-        <v>2.1838</v>
+        <v>2.2482</v>
       </c>
       <c r="D138" t="n">
-        <v>2.0889</v>
+        <v>2.15991</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21845</v>
+        <v>2.26724</v>
       </c>
       <c r="C139" t="n">
-        <v>2.20539</v>
+        <v>2.21801</v>
       </c>
       <c r="D139" t="n">
-        <v>2.12195</v>
+        <v>2.13979</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.25402</v>
+        <v>2.26193</v>
       </c>
       <c r="C140" t="n">
-        <v>2.17063</v>
+        <v>2.2286</v>
       </c>
       <c r="D140" t="n">
-        <v>2.12065</v>
+        <v>2.16739</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.26091</v>
+        <v>2.25572</v>
       </c>
       <c r="C141" t="n">
-        <v>2.17631</v>
+        <v>2.23945</v>
       </c>
       <c r="D141" t="n">
-        <v>2.13571</v>
+        <v>2.16459</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.27846</v>
+        <v>2.26317</v>
       </c>
       <c r="C142" t="n">
-        <v>2.20818</v>
+        <v>2.24099</v>
       </c>
       <c r="D142" t="n">
-        <v>2.14384</v>
+        <v>2.16738</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.27182</v>
+        <v>2.28624</v>
       </c>
       <c r="C143" t="n">
-        <v>2.19413</v>
+        <v>2.23704</v>
       </c>
       <c r="D143" t="n">
-        <v>2.12959</v>
+        <v>2.19513</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.993939</v>
+        <v>0.914862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.943148</v>
+        <v>0.902269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.912724</v>
+        <v>0.897437</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8996</v>
+        <v>0.903513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9499339999999999</v>
+        <v>0.896234</v>
       </c>
       <c r="D3" t="n">
-        <v>0.907027</v>
+        <v>0.886934</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.892452</v>
+        <v>0.89795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.925258</v>
+        <v>0.909029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8961479999999999</v>
+        <v>0.887717</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.909351</v>
+        <v>0.888581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.925206</v>
+        <v>0.8796389999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8887429999999999</v>
+        <v>0.882864</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.882419</v>
+        <v>0.864555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.916066</v>
+        <v>0.88086</v>
       </c>
       <c r="D6" t="n">
-        <v>0.929668</v>
+        <v>0.855441</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.873932</v>
+        <v>0.8798550000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.909409</v>
+        <v>0.87653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.890687</v>
+        <v>0.877271</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.870005</v>
+        <v>0.883159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.940255</v>
+        <v>0.866959</v>
       </c>
       <c r="D8" t="n">
-        <v>0.895778</v>
+        <v>0.854722</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.885564</v>
+        <v>0.868244</v>
       </c>
       <c r="C9" t="n">
-        <v>0.900903</v>
+        <v>0.873042</v>
       </c>
       <c r="D9" t="n">
-        <v>1.02562</v>
+        <v>0.994229</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.986911</v>
+        <v>0.993604</v>
       </c>
       <c r="C10" t="n">
-        <v>1.01358</v>
+        <v>0.966692</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01411</v>
+        <v>0.969631</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.96641</v>
+        <v>0.956831</v>
       </c>
       <c r="C11" t="n">
-        <v>1.00594</v>
+        <v>0.971834</v>
       </c>
       <c r="D11" t="n">
-        <v>0.985173</v>
+        <v>0.958831</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.980396</v>
+        <v>0.972469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.986564</v>
+        <v>0.9520650000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.980795</v>
+        <v>0.9226490000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.946357</v>
+        <v>0.949205</v>
       </c>
       <c r="C13" t="n">
-        <v>0.984146</v>
+        <v>0.9498220000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9897319999999999</v>
+        <v>0.915478</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.938757</v>
+        <v>0.952494</v>
       </c>
       <c r="C14" t="n">
-        <v>0.978688</v>
+        <v>0.91848</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9407450000000001</v>
+        <v>0.922197</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.918926</v>
+        <v>0.955807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.955139</v>
+        <v>0.927294</v>
       </c>
       <c r="D15" t="n">
-        <v>0.96174</v>
+        <v>0.91015</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.936746</v>
+        <v>0.909591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.964396</v>
+        <v>0.935014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.933108</v>
+        <v>0.905289</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.922749</v>
+        <v>0.919758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.955742</v>
+        <v>0.894077</v>
       </c>
       <c r="D17" t="n">
-        <v>0.962269</v>
+        <v>0.889205</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.961777</v>
+        <v>0.939975</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9589800000000001</v>
+        <v>0.89942</v>
       </c>
       <c r="D18" t="n">
-        <v>0.929688</v>
+        <v>0.890737</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.929713</v>
+        <v>0.902024</v>
       </c>
       <c r="C19" t="n">
-        <v>0.949969</v>
+        <v>0.88969</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9160469999999999</v>
+        <v>0.896265</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.900491</v>
+        <v>0.902691</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9526480000000001</v>
+        <v>0.877771</v>
       </c>
       <c r="D20" t="n">
-        <v>0.923351</v>
+        <v>0.869575</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.89444</v>
+        <v>0.911169</v>
       </c>
       <c r="C21" t="n">
-        <v>0.920666</v>
+        <v>0.882628</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8984760000000001</v>
+        <v>0.878472</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.893396</v>
+        <v>0.886879</v>
       </c>
       <c r="C22" t="n">
-        <v>0.932822</v>
+        <v>0.883463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.904756</v>
+        <v>0.883837</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.909021</v>
+        <v>0.890711</v>
       </c>
       <c r="C23" t="n">
-        <v>0.933609</v>
+        <v>0.858883</v>
       </c>
       <c r="D23" t="n">
-        <v>1.14073</v>
+        <v>1.09441</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.05087</v>
+        <v>1.11868</v>
       </c>
       <c r="C24" t="n">
-        <v>1.11569</v>
+        <v>1.05436</v>
       </c>
       <c r="D24" t="n">
-        <v>1.11296</v>
+        <v>1.08823</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08031</v>
+        <v>1.0507</v>
       </c>
       <c r="C25" t="n">
-        <v>1.09183</v>
+        <v>1.04064</v>
       </c>
       <c r="D25" t="n">
-        <v>1.116</v>
+        <v>1.08377</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0462</v>
+        <v>1.04142</v>
       </c>
       <c r="C26" t="n">
-        <v>1.12716</v>
+        <v>1.02116</v>
       </c>
       <c r="D26" t="n">
-        <v>1.07657</v>
+        <v>1.04784</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.04443</v>
+        <v>1.03601</v>
       </c>
       <c r="C27" t="n">
-        <v>1.04422</v>
+        <v>1.03501</v>
       </c>
       <c r="D27" t="n">
-        <v>1.05436</v>
+        <v>1.0515</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.02893</v>
+        <v>1.02484</v>
       </c>
       <c r="C28" t="n">
-        <v>1.06044</v>
+        <v>0.990116</v>
       </c>
       <c r="D28" t="n">
-        <v>1.05506</v>
+        <v>1.01351</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.00048</v>
+        <v>1.02245</v>
       </c>
       <c r="C29" t="n">
-        <v>1.04932</v>
+        <v>1.00201</v>
       </c>
       <c r="D29" t="n">
-        <v>1.06346</v>
+        <v>1.03215</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.00832</v>
+        <v>1.01588</v>
       </c>
       <c r="C30" t="n">
-        <v>1.03187</v>
+        <v>0.977017</v>
       </c>
       <c r="D30" t="n">
-        <v>1.02163</v>
+        <v>1.00656</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.00506</v>
+        <v>1.00407</v>
       </c>
       <c r="C31" t="n">
-        <v>1.02501</v>
+        <v>0.97634</v>
       </c>
       <c r="D31" t="n">
-        <v>1.01819</v>
+        <v>1.00684</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.996402</v>
+        <v>0.978757</v>
       </c>
       <c r="C32" t="n">
-        <v>1.00484</v>
+        <v>0.971285</v>
       </c>
       <c r="D32" t="n">
-        <v>1.02741</v>
+        <v>1.00203</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.97461</v>
+        <v>0.98371</v>
       </c>
       <c r="C33" t="n">
-        <v>1.04356</v>
+        <v>0.96536</v>
       </c>
       <c r="D33" t="n">
-        <v>1.00951</v>
+        <v>1.0023</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.966445</v>
+        <v>0.9860370000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.996607</v>
+        <v>0.957525</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9891529999999999</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.945648</v>
+        <v>0.955349</v>
       </c>
       <c r="C35" t="n">
-        <v>0.982258</v>
+        <v>0.95372</v>
       </c>
       <c r="D35" t="n">
-        <v>1.00224</v>
+        <v>0.9655280000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.951299</v>
+        <v>0.979057</v>
       </c>
       <c r="C36" t="n">
-        <v>0.973824</v>
+        <v>0.932042</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9910330000000001</v>
+        <v>0.964211</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.953028</v>
+        <v>0.968141</v>
       </c>
       <c r="C37" t="n">
-        <v>0.966915</v>
+        <v>0.963883</v>
       </c>
       <c r="D37" t="n">
-        <v>1.1605</v>
+        <v>1.13382</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.15955</v>
+        <v>1.14436</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1601</v>
+        <v>1.11779</v>
       </c>
       <c r="D38" t="n">
-        <v>1.10049</v>
+        <v>1.07746</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.13691</v>
+        <v>1.12312</v>
       </c>
       <c r="C39" t="n">
-        <v>1.17767</v>
+        <v>1.11187</v>
       </c>
       <c r="D39" t="n">
-        <v>1.09525</v>
+        <v>1.06885</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.12996</v>
+        <v>1.10481</v>
       </c>
       <c r="C40" t="n">
-        <v>1.15702</v>
+        <v>1.09144</v>
       </c>
       <c r="D40" t="n">
-        <v>1.10122</v>
+        <v>1.0457</v>
       </c>
     </row>
     <row r="41">
@@ -3797,10 +3797,10 @@
         <v>1.11643</v>
       </c>
       <c r="C41" t="n">
-        <v>1.13142</v>
+        <v>1.10367</v>
       </c>
       <c r="D41" t="n">
-        <v>1.08303</v>
+        <v>1.02864</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.11962</v>
+        <v>1.0951</v>
       </c>
       <c r="C42" t="n">
-        <v>1.13807</v>
+        <v>1.07988</v>
       </c>
       <c r="D42" t="n">
-        <v>1.06004</v>
+        <v>1.02201</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.09641</v>
+        <v>1.07743</v>
       </c>
       <c r="C43" t="n">
-        <v>1.13546</v>
+        <v>1.09799</v>
       </c>
       <c r="D43" t="n">
-        <v>1.05298</v>
+        <v>1.01299</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.07531</v>
+        <v>1.05649</v>
       </c>
       <c r="C44" t="n">
-        <v>1.09899</v>
+        <v>1.05439</v>
       </c>
       <c r="D44" t="n">
-        <v>1.03524</v>
+        <v>0.988475</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0617</v>
+        <v>1.04656</v>
       </c>
       <c r="C45" t="n">
-        <v>1.08538</v>
+        <v>1.04941</v>
       </c>
       <c r="D45" t="n">
-        <v>1.02148</v>
+        <v>0.985325</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.04359</v>
+        <v>1.06764</v>
       </c>
       <c r="C46" t="n">
-        <v>1.07174</v>
+        <v>1.04007</v>
       </c>
       <c r="D46" t="n">
-        <v>1.01055</v>
+        <v>0.997762</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.06334</v>
+        <v>1.04816</v>
       </c>
       <c r="C47" t="n">
-        <v>1.05796</v>
+        <v>1.00497</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0126</v>
+        <v>0.985279</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0542</v>
+        <v>1.00482</v>
       </c>
       <c r="C48" t="n">
-        <v>1.04648</v>
+        <v>1.00537</v>
       </c>
       <c r="D48" t="n">
-        <v>1.00026</v>
+        <v>0.955663</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.03578</v>
+        <v>1.03455</v>
       </c>
       <c r="C49" t="n">
-        <v>1.03567</v>
+        <v>1.00695</v>
       </c>
       <c r="D49" t="n">
-        <v>1.01091</v>
+        <v>0.968481</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.02101</v>
+        <v>1.02198</v>
       </c>
       <c r="C50" t="n">
-        <v>1.02793</v>
+        <v>0.976948</v>
       </c>
       <c r="D50" t="n">
-        <v>1.01463</v>
+        <v>0.949975</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.00957</v>
+        <v>0.99807</v>
       </c>
       <c r="C51" t="n">
-        <v>1.04019</v>
+        <v>0.981843</v>
       </c>
       <c r="D51" t="n">
-        <v>1.21291</v>
+        <v>1.18076</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.04583</v>
+        <v>0.994027</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01449</v>
+        <v>0.991391</v>
       </c>
       <c r="D52" t="n">
-        <v>1.16486</v>
+        <v>1.15469</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.20279</v>
+        <v>1.20574</v>
       </c>
       <c r="C53" t="n">
-        <v>1.22824</v>
+        <v>1.15752</v>
       </c>
       <c r="D53" t="n">
-        <v>1.17917</v>
+        <v>1.1432</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.18942</v>
+        <v>1.18353</v>
       </c>
       <c r="C54" t="n">
-        <v>1.23688</v>
+        <v>1.17491</v>
       </c>
       <c r="D54" t="n">
-        <v>1.15726</v>
+        <v>1.10682</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.17907</v>
+        <v>1.14782</v>
       </c>
       <c r="C55" t="n">
-        <v>1.1648</v>
+        <v>1.13857</v>
       </c>
       <c r="D55" t="n">
-        <v>1.13139</v>
+        <v>1.12656</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.13986</v>
+        <v>1.14573</v>
       </c>
       <c r="C56" t="n">
-        <v>1.16106</v>
+        <v>1.14348</v>
       </c>
       <c r="D56" t="n">
-        <v>1.1018</v>
+        <v>1.09754</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.16624</v>
+        <v>1.1246</v>
       </c>
       <c r="C57" t="n">
-        <v>1.16389</v>
+        <v>1.11686</v>
       </c>
       <c r="D57" t="n">
-        <v>1.1022</v>
+        <v>1.10212</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.13606</v>
+        <v>1.14912</v>
       </c>
       <c r="C58" t="n">
-        <v>1.15061</v>
+        <v>1.13305</v>
       </c>
       <c r="D58" t="n">
-        <v>1.11241</v>
+        <v>1.07886</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.13608</v>
+        <v>1.10044</v>
       </c>
       <c r="C59" t="n">
-        <v>1.12843</v>
+        <v>1.10403</v>
       </c>
       <c r="D59" t="n">
-        <v>1.09255</v>
+        <v>1.07473</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11673</v>
+        <v>1.11287</v>
       </c>
       <c r="C60" t="n">
-        <v>1.13971</v>
+        <v>1.07539</v>
       </c>
       <c r="D60" t="n">
-        <v>1.07281</v>
+        <v>1.03243</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.08407</v>
+        <v>1.11631</v>
       </c>
       <c r="C61" t="n">
-        <v>1.10631</v>
+        <v>1.08254</v>
       </c>
       <c r="D61" t="n">
-        <v>1.05749</v>
+        <v>1.03715</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.08461</v>
+        <v>1.0858</v>
       </c>
       <c r="C62" t="n">
-        <v>1.09111</v>
+        <v>1.05795</v>
       </c>
       <c r="D62" t="n">
-        <v>1.06332</v>
+        <v>1.04045</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.10276</v>
+        <v>1.06949</v>
       </c>
       <c r="C63" t="n">
-        <v>1.1135</v>
+        <v>1.03305</v>
       </c>
       <c r="D63" t="n">
-        <v>1.05109</v>
+        <v>1.03783</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.09808</v>
+        <v>1.07618</v>
       </c>
       <c r="C64" t="n">
-        <v>1.1021</v>
+        <v>1.0424</v>
       </c>
       <c r="D64" t="n">
-        <v>1.04947</v>
+        <v>1.04732</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.08874</v>
+        <v>1.09883</v>
       </c>
       <c r="C65" t="n">
-        <v>1.07392</v>
+        <v>1.06184</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04721</v>
+        <v>1.02877</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04909</v>
+        <v>1.05609</v>
       </c>
       <c r="C66" t="n">
-        <v>1.08775</v>
+        <v>1.0197</v>
       </c>
       <c r="D66" t="n">
-        <v>1.28479</v>
+        <v>1.2147</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.26437</v>
+        <v>1.26</v>
       </c>
       <c r="C67" t="n">
-        <v>1.29108</v>
+        <v>1.24104</v>
       </c>
       <c r="D67" t="n">
-        <v>1.29514</v>
+        <v>1.2088</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.23839</v>
+        <v>1.29777</v>
       </c>
       <c r="C68" t="n">
-        <v>1.27781</v>
+        <v>1.24338</v>
       </c>
       <c r="D68" t="n">
-        <v>1.2392</v>
+        <v>1.20245</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.28525</v>
+        <v>1.23045</v>
       </c>
       <c r="C69" t="n">
-        <v>1.28534</v>
+        <v>1.23321</v>
       </c>
       <c r="D69" t="n">
-        <v>1.24796</v>
+        <v>1.19335</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.27751</v>
+        <v>1.22644</v>
       </c>
       <c r="C70" t="n">
-        <v>1.26708</v>
+        <v>1.22908</v>
       </c>
       <c r="D70" t="n">
-        <v>1.20637</v>
+        <v>1.21717</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.22296</v>
+        <v>1.24809</v>
       </c>
       <c r="C71" t="n">
-        <v>1.25327</v>
+        <v>1.21524</v>
       </c>
       <c r="D71" t="n">
-        <v>1.24849</v>
+        <v>1.17414</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.19443</v>
+        <v>1.22526</v>
       </c>
       <c r="C72" t="n">
-        <v>1.23752</v>
+        <v>1.1891</v>
       </c>
       <c r="D72" t="n">
-        <v>1.20764</v>
+        <v>1.19405</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.18205</v>
+        <v>1.2253</v>
       </c>
       <c r="C73" t="n">
-        <v>1.21644</v>
+        <v>1.19445</v>
       </c>
       <c r="D73" t="n">
-        <v>1.19273</v>
+        <v>1.14177</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.20619</v>
+        <v>1.19952</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2406</v>
+        <v>1.17057</v>
       </c>
       <c r="D74" t="n">
-        <v>1.17845</v>
+        <v>1.14685</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19559</v>
+        <v>1.19112</v>
       </c>
       <c r="C75" t="n">
-        <v>1.22555</v>
+        <v>1.18588</v>
       </c>
       <c r="D75" t="n">
-        <v>1.20205</v>
+        <v>1.13284</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.1864</v>
+        <v>1.21448</v>
       </c>
       <c r="C76" t="n">
-        <v>1.19536</v>
+        <v>1.17136</v>
       </c>
       <c r="D76" t="n">
-        <v>1.17571</v>
+        <v>1.15943</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.15892</v>
+        <v>1.16583</v>
       </c>
       <c r="C77" t="n">
-        <v>1.20866</v>
+        <v>1.14574</v>
       </c>
       <c r="D77" t="n">
-        <v>1.1865</v>
+        <v>1.15678</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.17999</v>
+        <v>1.1617</v>
       </c>
       <c r="C78" t="n">
-        <v>1.18594</v>
+        <v>1.13456</v>
       </c>
       <c r="D78" t="n">
-        <v>1.15984</v>
+        <v>1.13503</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.15967</v>
+        <v>1.18837</v>
       </c>
       <c r="C79" t="n">
-        <v>1.19111</v>
+        <v>1.16726</v>
       </c>
       <c r="D79" t="n">
-        <v>1.15524</v>
+        <v>1.15818</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.1475</v>
+        <v>1.18201</v>
       </c>
       <c r="C80" t="n">
-        <v>1.19321</v>
+        <v>1.13743</v>
       </c>
       <c r="D80" t="n">
-        <v>1.45151</v>
+        <v>1.37308</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.38474</v>
+        <v>1.4337</v>
       </c>
       <c r="C81" t="n">
-        <v>1.40292</v>
+        <v>1.34068</v>
       </c>
       <c r="D81" t="n">
-        <v>1.37112</v>
+        <v>1.33422</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.40975</v>
+        <v>1.3752</v>
       </c>
       <c r="C82" t="n">
-        <v>1.40536</v>
+        <v>1.37517</v>
       </c>
       <c r="D82" t="n">
-        <v>1.37629</v>
+        <v>1.31294</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.34221</v>
+        <v>1.36126</v>
       </c>
       <c r="C83" t="n">
-        <v>1.39913</v>
+        <v>1.35391</v>
       </c>
       <c r="D83" t="n">
-        <v>1.36962</v>
+        <v>1.30742</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.38651</v>
+        <v>1.34397</v>
       </c>
       <c r="C84" t="n">
-        <v>1.42093</v>
+        <v>1.33986</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3459</v>
+        <v>1.32323</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.38437</v>
+        <v>1.34301</v>
       </c>
       <c r="C85" t="n">
-        <v>1.40677</v>
+        <v>1.33779</v>
       </c>
       <c r="D85" t="n">
-        <v>1.34813</v>
+        <v>1.3081</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.34915</v>
+        <v>1.3429</v>
       </c>
       <c r="C86" t="n">
-        <v>1.38733</v>
+        <v>1.32387</v>
       </c>
       <c r="D86" t="n">
-        <v>1.33411</v>
+        <v>1.29489</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.32459</v>
+        <v>1.3074</v>
       </c>
       <c r="C87" t="n">
-        <v>1.35645</v>
+        <v>1.28667</v>
       </c>
       <c r="D87" t="n">
-        <v>1.31888</v>
+        <v>1.34091</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.32729</v>
+        <v>1.32994</v>
       </c>
       <c r="C88" t="n">
-        <v>1.36149</v>
+        <v>1.32398</v>
       </c>
       <c r="D88" t="n">
-        <v>1.34698</v>
+        <v>1.2621</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.32149</v>
+        <v>1.30974</v>
       </c>
       <c r="C89" t="n">
-        <v>1.33726</v>
+        <v>1.2991</v>
       </c>
       <c r="D89" t="n">
-        <v>1.31638</v>
+        <v>1.2893</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.35213</v>
+        <v>1.30321</v>
       </c>
       <c r="C90" t="n">
-        <v>1.365</v>
+        <v>1.28341</v>
       </c>
       <c r="D90" t="n">
-        <v>1.30051</v>
+        <v>1.24675</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.34654</v>
+        <v>1.30883</v>
       </c>
       <c r="C91" t="n">
-        <v>1.37448</v>
+        <v>1.26435</v>
       </c>
       <c r="D91" t="n">
-        <v>1.30325</v>
+        <v>1.28427</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.32281</v>
+        <v>1.33202</v>
       </c>
       <c r="C92" t="n">
-        <v>1.32007</v>
+        <v>1.28839</v>
       </c>
       <c r="D92" t="n">
-        <v>1.27921</v>
+        <v>1.24975</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.2917</v>
+        <v>1.28521</v>
       </c>
       <c r="C93" t="n">
-        <v>1.32028</v>
+        <v>1.27115</v>
       </c>
       <c r="D93" t="n">
-        <v>1.27835</v>
+        <v>1.25041</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.3034</v>
+        <v>1.29223</v>
       </c>
       <c r="C94" t="n">
-        <v>1.32902</v>
+        <v>1.26976</v>
       </c>
       <c r="D94" t="n">
-        <v>1.53197</v>
+        <v>1.52561</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.51844</v>
+        <v>1.54873</v>
       </c>
       <c r="C95" t="n">
-        <v>1.58139</v>
+        <v>1.4981</v>
       </c>
       <c r="D95" t="n">
-        <v>1.55027</v>
+        <v>1.54046</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.52862</v>
+        <v>1.52004</v>
       </c>
       <c r="C96" t="n">
-        <v>1.5529</v>
+        <v>1.50537</v>
       </c>
       <c r="D96" t="n">
-        <v>1.50293</v>
+        <v>1.49165</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.50003</v>
+        <v>1.51296</v>
       </c>
       <c r="C97" t="n">
-        <v>1.52792</v>
+        <v>1.50276</v>
       </c>
       <c r="D97" t="n">
-        <v>1.51466</v>
+        <v>1.48264</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.51268</v>
+        <v>1.53792</v>
       </c>
       <c r="C98" t="n">
-        <v>1.55928</v>
+        <v>1.50286</v>
       </c>
       <c r="D98" t="n">
-        <v>1.52069</v>
+        <v>1.43252</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.49187</v>
+        <v>1.53708</v>
       </c>
       <c r="C99" t="n">
-        <v>1.56622</v>
+        <v>1.47354</v>
       </c>
       <c r="D99" t="n">
-        <v>1.48084</v>
+        <v>1.44599</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.4874</v>
+        <v>1.51533</v>
       </c>
       <c r="C100" t="n">
-        <v>1.52633</v>
+        <v>1.49515</v>
       </c>
       <c r="D100" t="n">
-        <v>1.47067</v>
+        <v>1.44259</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.4937</v>
+        <v>1.49843</v>
       </c>
       <c r="C101" t="n">
-        <v>1.53326</v>
+        <v>1.45714</v>
       </c>
       <c r="D101" t="n">
-        <v>1.46997</v>
+        <v>1.4607</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.48559</v>
+        <v>1.46846</v>
       </c>
       <c r="C102" t="n">
-        <v>1.53362</v>
+        <v>1.48955</v>
       </c>
       <c r="D102" t="n">
-        <v>1.44489</v>
+        <v>1.43989</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.49409</v>
+        <v>1.49168</v>
       </c>
       <c r="C103" t="n">
-        <v>1.51516</v>
+        <v>1.45885</v>
       </c>
       <c r="D103" t="n">
-        <v>1.48695</v>
+        <v>1.42951</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.45732</v>
+        <v>1.5598</v>
       </c>
       <c r="C104" t="n">
-        <v>1.50805</v>
+        <v>1.44478</v>
       </c>
       <c r="D104" t="n">
-        <v>1.45891</v>
+        <v>1.40927</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.49598</v>
+        <v>1.42401</v>
       </c>
       <c r="C105" t="n">
-        <v>1.51812</v>
+        <v>1.45703</v>
       </c>
       <c r="D105" t="n">
-        <v>1.44385</v>
+        <v>1.39484</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.46681</v>
+        <v>1.44732</v>
       </c>
       <c r="C106" t="n">
-        <v>1.48574</v>
+        <v>1.45483</v>
       </c>
       <c r="D106" t="n">
-        <v>1.45159</v>
+        <v>1.39965</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.47107</v>
+        <v>1.49394</v>
       </c>
       <c r="C107" t="n">
-        <v>1.48291</v>
+        <v>1.46995</v>
       </c>
       <c r="D107" t="n">
-        <v>1.42645</v>
+        <v>1.4158</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.45477</v>
+        <v>1.45724</v>
       </c>
       <c r="C108" t="n">
-        <v>1.48266</v>
+        <v>1.48345</v>
       </c>
       <c r="D108" t="n">
-        <v>1.67979</v>
+        <v>1.69843</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.47774</v>
+        <v>1.48994</v>
       </c>
       <c r="C109" t="n">
-        <v>1.47518</v>
+        <v>1.45456</v>
       </c>
       <c r="D109" t="n">
-        <v>1.67233</v>
+        <v>1.67869</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.71775</v>
+        <v>1.68658</v>
       </c>
       <c r="C110" t="n">
-        <v>1.72609</v>
+        <v>1.70803</v>
       </c>
       <c r="D110" t="n">
-        <v>1.70852</v>
+        <v>1.64623</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.72152</v>
+        <v>1.68373</v>
       </c>
       <c r="C111" t="n">
-        <v>1.72833</v>
+        <v>1.65372</v>
       </c>
       <c r="D111" t="n">
-        <v>1.64434</v>
+        <v>1.60613</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.68905</v>
+        <v>1.72549</v>
       </c>
       <c r="C112" t="n">
-        <v>1.699</v>
+        <v>1.68824</v>
       </c>
       <c r="D112" t="n">
-        <v>1.64376</v>
+        <v>1.61326</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.6778</v>
+        <v>1.66838</v>
       </c>
       <c r="C113" t="n">
-        <v>1.73539</v>
+        <v>1.68998</v>
       </c>
       <c r="D113" t="n">
-        <v>1.6668</v>
+        <v>1.60933</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.67207</v>
+        <v>1.70673</v>
       </c>
       <c r="C114" t="n">
-        <v>1.70115</v>
+        <v>1.65712</v>
       </c>
       <c r="D114" t="n">
-        <v>1.62816</v>
+        <v>1.59803</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.66391</v>
+        <v>1.66748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.70934</v>
+        <v>1.66407</v>
       </c>
       <c r="D115" t="n">
-        <v>1.64772</v>
+        <v>1.59759</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.67333</v>
+        <v>1.68394</v>
       </c>
       <c r="C116" t="n">
-        <v>1.69392</v>
+        <v>1.65687</v>
       </c>
       <c r="D116" t="n">
-        <v>1.66664</v>
+        <v>1.59496</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.70519</v>
+        <v>1.67903</v>
       </c>
       <c r="C117" t="n">
-        <v>1.70053</v>
+        <v>1.67781</v>
       </c>
       <c r="D117" t="n">
-        <v>1.61296</v>
+        <v>1.60325</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.71936</v>
+        <v>1.65929</v>
       </c>
       <c r="C118" t="n">
-        <v>1.70994</v>
+        <v>1.65872</v>
       </c>
       <c r="D118" t="n">
-        <v>1.61177</v>
+        <v>1.56607</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.66321</v>
+        <v>1.68931</v>
       </c>
       <c r="C119" t="n">
-        <v>1.69089</v>
+        <v>1.66641</v>
       </c>
       <c r="D119" t="n">
-        <v>1.63034</v>
+        <v>1.61969</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.70935</v>
+        <v>1.66177</v>
       </c>
       <c r="C120" t="n">
-        <v>1.73929</v>
+        <v>1.68099</v>
       </c>
       <c r="D120" t="n">
-        <v>1.60381</v>
+        <v>1.58207</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.68894</v>
+        <v>1.69359</v>
       </c>
       <c r="C121" t="n">
-        <v>1.70925</v>
+        <v>1.6705</v>
       </c>
       <c r="D121" t="n">
-        <v>1.62178</v>
+        <v>1.57965</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.70567</v>
+        <v>1.67102</v>
       </c>
       <c r="C122" t="n">
-        <v>1.72331</v>
+        <v>1.66207</v>
       </c>
       <c r="D122" t="n">
-        <v>1.6328</v>
+        <v>1.5996</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.70433</v>
+        <v>1.69515</v>
       </c>
       <c r="C123" t="n">
-        <v>1.73277</v>
+        <v>1.65465</v>
       </c>
       <c r="D123" t="n">
-        <v>1.93203</v>
+        <v>1.82169</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.94567</v>
+        <v>1.93418</v>
       </c>
       <c r="C124" t="n">
-        <v>1.9542</v>
+        <v>1.88828</v>
       </c>
       <c r="D124" t="n">
-        <v>1.86527</v>
+        <v>1.84351</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.90985</v>
+        <v>1.91499</v>
       </c>
       <c r="C125" t="n">
-        <v>1.94538</v>
+        <v>1.89357</v>
       </c>
       <c r="D125" t="n">
-        <v>1.86816</v>
+        <v>1.80319</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.9608</v>
+        <v>1.9281</v>
       </c>
       <c r="C126" t="n">
-        <v>1.95815</v>
+        <v>1.89549</v>
       </c>
       <c r="D126" t="n">
-        <v>1.86558</v>
+        <v>1.84628</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.94807</v>
+        <v>1.93068</v>
       </c>
       <c r="C127" t="n">
-        <v>1.96187</v>
+        <v>1.87355</v>
       </c>
       <c r="D127" t="n">
-        <v>1.87425</v>
+        <v>1.8192</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.97793</v>
+        <v>1.91836</v>
       </c>
       <c r="C128" t="n">
-        <v>1.9802</v>
+        <v>1.88866</v>
       </c>
       <c r="D128" t="n">
-        <v>1.88603</v>
+        <v>1.81972</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.96605</v>
+        <v>1.94684</v>
       </c>
       <c r="C129" t="n">
-        <v>1.9545</v>
+        <v>1.8867</v>
       </c>
       <c r="D129" t="n">
-        <v>1.8522</v>
+        <v>1.83998</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.96699</v>
+        <v>1.95276</v>
       </c>
       <c r="C130" t="n">
-        <v>1.96918</v>
+        <v>1.93991</v>
       </c>
       <c r="D130" t="n">
-        <v>1.86643</v>
+        <v>1.83568</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.96391</v>
+        <v>1.94262</v>
       </c>
       <c r="C131" t="n">
-        <v>1.98276</v>
+        <v>1.93794</v>
       </c>
       <c r="D131" t="n">
-        <v>1.90023</v>
+        <v>1.83795</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.95088</v>
+        <v>1.9604</v>
       </c>
       <c r="C132" t="n">
-        <v>1.96642</v>
+        <v>1.89839</v>
       </c>
       <c r="D132" t="n">
-        <v>1.87418</v>
+        <v>1.83522</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.97797</v>
+        <v>1.95348</v>
       </c>
       <c r="C133" t="n">
-        <v>1.98085</v>
+        <v>1.93458</v>
       </c>
       <c r="D133" t="n">
-        <v>1.86048</v>
+        <v>1.83747</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.99081</v>
+        <v>1.93823</v>
       </c>
       <c r="C134" t="n">
-        <v>1.99224</v>
+        <v>1.91367</v>
       </c>
       <c r="D134" t="n">
-        <v>1.86541</v>
+        <v>1.81773</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.98937</v>
+        <v>1.96472</v>
       </c>
       <c r="C135" t="n">
-        <v>1.97459</v>
+        <v>1.91475</v>
       </c>
       <c r="D135" t="n">
-        <v>1.88544</v>
+        <v>1.86231</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.98732</v>
+        <v>1.96433</v>
       </c>
       <c r="C136" t="n">
-        <v>1.97751</v>
+        <v>1.9308</v>
       </c>
       <c r="D136" t="n">
-        <v>1.90422</v>
+        <v>1.87569</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.00659</v>
+        <v>1.98657</v>
       </c>
       <c r="C137" t="n">
-        <v>1.99194</v>
+        <v>1.92717</v>
       </c>
       <c r="D137" t="n">
-        <v>2.18562</v>
+        <v>2.09826</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.23468</v>
+        <v>2.23531</v>
       </c>
       <c r="C138" t="n">
-        <v>2.2482</v>
+        <v>2.17172</v>
       </c>
       <c r="D138" t="n">
-        <v>2.15991</v>
+        <v>2.11941</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.26724</v>
+        <v>2.21042</v>
       </c>
       <c r="C139" t="n">
-        <v>2.21801</v>
+        <v>2.16417</v>
       </c>
       <c r="D139" t="n">
-        <v>2.13979</v>
+        <v>2.12459</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.26193</v>
+        <v>2.24706</v>
       </c>
       <c r="C140" t="n">
-        <v>2.2286</v>
+        <v>2.16484</v>
       </c>
       <c r="D140" t="n">
-        <v>2.16739</v>
+        <v>2.14026</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.25572</v>
+        <v>2.25064</v>
       </c>
       <c r="C141" t="n">
-        <v>2.23945</v>
+        <v>2.15722</v>
       </c>
       <c r="D141" t="n">
-        <v>2.16459</v>
+        <v>2.14826</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.26317</v>
+        <v>2.25816</v>
       </c>
       <c r="C142" t="n">
-        <v>2.24099</v>
+        <v>2.20946</v>
       </c>
       <c r="D142" t="n">
-        <v>2.16738</v>
+        <v>2.12568</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.28624</v>
+        <v>2.27409</v>
       </c>
       <c r="C143" t="n">
-        <v>2.23704</v>
+        <v>2.16581</v>
       </c>
       <c r="D143" t="n">
-        <v>2.19513</v>
+        <v>2.12725</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.914862</v>
+        <v>0.925215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.902269</v>
+        <v>0.970391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.897437</v>
+        <v>0.9145450000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.903513</v>
+        <v>0.893242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.896234</v>
+        <v>0.94219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.886934</v>
+        <v>0.882335</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.89795</v>
+        <v>0.893166</v>
       </c>
       <c r="C4" t="n">
-        <v>0.909029</v>
+        <v>0.922906</v>
       </c>
       <c r="D4" t="n">
-        <v>0.887717</v>
+        <v>0.890561</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.888581</v>
+        <v>0.913456</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8796389999999999</v>
+        <v>0.918965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.882864</v>
+        <v>0.891033</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.864555</v>
+        <v>0.876143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.88086</v>
+        <v>0.907009</v>
       </c>
       <c r="D6" t="n">
-        <v>0.855441</v>
+        <v>0.875844</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8798550000000001</v>
+        <v>0.889776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.87653</v>
+        <v>0.894316</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877271</v>
+        <v>0.8568440000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.883159</v>
+        <v>0.892319</v>
       </c>
       <c r="C8" t="n">
-        <v>0.866959</v>
+        <v>0.907328</v>
       </c>
       <c r="D8" t="n">
-        <v>0.854722</v>
+        <v>0.876048</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.868244</v>
+        <v>0.875183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.873042</v>
+        <v>0.882131</v>
       </c>
       <c r="D9" t="n">
-        <v>0.994229</v>
+        <v>1.00679</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.993604</v>
+        <v>0.962233</v>
       </c>
       <c r="C10" t="n">
-        <v>0.966692</v>
+        <v>1.01675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.969631</v>
+        <v>0.958234</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.956831</v>
+        <v>0.9434979999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.971834</v>
+        <v>0.994144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.958831</v>
+        <v>0.967579</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.972469</v>
+        <v>1.00296</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9520650000000001</v>
+        <v>0.98358</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9226490000000001</v>
+        <v>0.961605</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.949205</v>
+        <v>0.941576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9498220000000001</v>
+        <v>0.9486830000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.915478</v>
+        <v>0.921635</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.952494</v>
+        <v>0.931321</v>
       </c>
       <c r="C14" t="n">
-        <v>0.91848</v>
+        <v>0.973919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.922197</v>
+        <v>0.939343</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.955807</v>
+        <v>0.936943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.927294</v>
+        <v>0.96225</v>
       </c>
       <c r="D15" t="n">
-        <v>0.91015</v>
+        <v>0.914866</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.909591</v>
+        <v>0.935384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.935014</v>
+        <v>0.932971</v>
       </c>
       <c r="D16" t="n">
-        <v>0.905289</v>
+        <v>0.916007</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.919758</v>
+        <v>0.9117189999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.894077</v>
+        <v>0.918778</v>
       </c>
       <c r="D17" t="n">
-        <v>0.889205</v>
+        <v>0.89669</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.939975</v>
+        <v>0.921824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.89942</v>
+        <v>0.910883</v>
       </c>
       <c r="D18" t="n">
-        <v>0.890737</v>
+        <v>0.889015</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.902024</v>
+        <v>0.891682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.88969</v>
+        <v>0.910266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.896265</v>
+        <v>0.877317</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.902691</v>
+        <v>0.892532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.877771</v>
+        <v>0.898725</v>
       </c>
       <c r="D20" t="n">
-        <v>0.869575</v>
+        <v>0.885989</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.911169</v>
+        <v>0.926894</v>
       </c>
       <c r="C21" t="n">
-        <v>0.882628</v>
+        <v>0.918063</v>
       </c>
       <c r="D21" t="n">
-        <v>0.878472</v>
+        <v>0.871208</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.886879</v>
+        <v>0.873935</v>
       </c>
       <c r="C22" t="n">
-        <v>0.883463</v>
+        <v>0.908501</v>
       </c>
       <c r="D22" t="n">
-        <v>0.883837</v>
+        <v>0.869188</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.890711</v>
+        <v>0.874471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.858883</v>
+        <v>0.874927</v>
       </c>
       <c r="D23" t="n">
-        <v>1.09441</v>
+        <v>1.0932</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.11868</v>
+        <v>1.0745</v>
       </c>
       <c r="C24" t="n">
-        <v>1.05436</v>
+        <v>1.10931</v>
       </c>
       <c r="D24" t="n">
-        <v>1.08823</v>
+        <v>1.08351</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0507</v>
+        <v>1.09128</v>
       </c>
       <c r="C25" t="n">
-        <v>1.04064</v>
+        <v>1.08496</v>
       </c>
       <c r="D25" t="n">
-        <v>1.08377</v>
+        <v>1.08852</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.04142</v>
+        <v>1.06137</v>
       </c>
       <c r="C26" t="n">
-        <v>1.02116</v>
+        <v>1.06333</v>
       </c>
       <c r="D26" t="n">
-        <v>1.04784</v>
+        <v>1.05073</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.03601</v>
+        <v>1.0458</v>
       </c>
       <c r="C27" t="n">
-        <v>1.03501</v>
+        <v>1.03854</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0515</v>
+        <v>1.03492</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.02484</v>
+        <v>1.04804</v>
       </c>
       <c r="C28" t="n">
-        <v>0.990116</v>
+        <v>1.01448</v>
       </c>
       <c r="D28" t="n">
-        <v>1.01351</v>
+        <v>1.02557</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.02245</v>
+        <v>1.01207</v>
       </c>
       <c r="C29" t="n">
-        <v>1.00201</v>
+        <v>1.0089</v>
       </c>
       <c r="D29" t="n">
-        <v>1.03215</v>
+        <v>1.02094</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01588</v>
+        <v>1.01814</v>
       </c>
       <c r="C30" t="n">
-        <v>0.977017</v>
+        <v>1.0098</v>
       </c>
       <c r="D30" t="n">
-        <v>1.00656</v>
+        <v>1.01967</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.00407</v>
+        <v>0.989807</v>
       </c>
       <c r="C31" t="n">
-        <v>0.97634</v>
+        <v>1.01772</v>
       </c>
       <c r="D31" t="n">
-        <v>1.00684</v>
+        <v>0.997544</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.978757</v>
+        <v>0.973588</v>
       </c>
       <c r="C32" t="n">
-        <v>0.971285</v>
+        <v>0.975226</v>
       </c>
       <c r="D32" t="n">
-        <v>1.00203</v>
+        <v>1.01272</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.98371</v>
+        <v>1.00316</v>
       </c>
       <c r="C33" t="n">
-        <v>0.96536</v>
+        <v>0.959754</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0023</v>
+        <v>0.983999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9860370000000001</v>
+        <v>0.97698</v>
       </c>
       <c r="C34" t="n">
-        <v>0.957525</v>
+        <v>0.990062</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9994</v>
+        <v>0.977724</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.955349</v>
+        <v>0.977674</v>
       </c>
       <c r="C35" t="n">
-        <v>0.95372</v>
+        <v>0.963236</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9655280000000001</v>
+        <v>0.9617560000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.979057</v>
+        <v>0.956282</v>
       </c>
       <c r="C36" t="n">
-        <v>0.932042</v>
+        <v>0.957755</v>
       </c>
       <c r="D36" t="n">
-        <v>0.964211</v>
+        <v>0.945393</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.968141</v>
+        <v>0.971906</v>
       </c>
       <c r="C37" t="n">
-        <v>0.963883</v>
+        <v>0.960094</v>
       </c>
       <c r="D37" t="n">
-        <v>1.13382</v>
+        <v>1.15087</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.14436</v>
+        <v>1.15256</v>
       </c>
       <c r="C38" t="n">
-        <v>1.11779</v>
+        <v>1.1754</v>
       </c>
       <c r="D38" t="n">
-        <v>1.07746</v>
+        <v>1.07931</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12312</v>
+        <v>1.15818</v>
       </c>
       <c r="C39" t="n">
-        <v>1.11187</v>
+        <v>1.1793</v>
       </c>
       <c r="D39" t="n">
-        <v>1.06885</v>
+        <v>1.06591</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.10481</v>
+        <v>1.12712</v>
       </c>
       <c r="C40" t="n">
-        <v>1.09144</v>
+        <v>1.12296</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0457</v>
+        <v>1.06614</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.11643</v>
+        <v>1.09553</v>
       </c>
       <c r="C41" t="n">
-        <v>1.10367</v>
+        <v>1.11526</v>
       </c>
       <c r="D41" t="n">
-        <v>1.02864</v>
+        <v>1.07129</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0951</v>
+        <v>1.0927</v>
       </c>
       <c r="C42" t="n">
-        <v>1.07988</v>
+        <v>1.10417</v>
       </c>
       <c r="D42" t="n">
-        <v>1.02201</v>
+        <v>1.02234</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.07743</v>
+        <v>1.06065</v>
       </c>
       <c r="C43" t="n">
-        <v>1.09799</v>
+        <v>1.08475</v>
       </c>
       <c r="D43" t="n">
-        <v>1.01299</v>
+        <v>1.02178</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.05649</v>
+        <v>1.09455</v>
       </c>
       <c r="C44" t="n">
-        <v>1.05439</v>
+        <v>1.08286</v>
       </c>
       <c r="D44" t="n">
-        <v>0.988475</v>
+        <v>1.00169</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.04656</v>
+        <v>1.08289</v>
       </c>
       <c r="C45" t="n">
-        <v>1.04941</v>
+        <v>1.05319</v>
       </c>
       <c r="D45" t="n">
-        <v>0.985325</v>
+        <v>1.01637</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.06764</v>
+        <v>1.04393</v>
       </c>
       <c r="C46" t="n">
-        <v>1.04007</v>
+        <v>1.02317</v>
       </c>
       <c r="D46" t="n">
-        <v>0.997762</v>
+        <v>0.993695</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.04816</v>
+        <v>1.07167</v>
       </c>
       <c r="C47" t="n">
-        <v>1.00497</v>
+        <v>1.03013</v>
       </c>
       <c r="D47" t="n">
-        <v>0.985279</v>
+        <v>0.983355</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.00482</v>
+        <v>1.02557</v>
       </c>
       <c r="C48" t="n">
-        <v>1.00537</v>
+        <v>1.01163</v>
       </c>
       <c r="D48" t="n">
-        <v>0.955663</v>
+        <v>0.955902</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.03455</v>
+        <v>1.05001</v>
       </c>
       <c r="C49" t="n">
-        <v>1.00695</v>
+        <v>0.992586</v>
       </c>
       <c r="D49" t="n">
-        <v>0.968481</v>
+        <v>0.966547</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.02198</v>
+        <v>1.00602</v>
       </c>
       <c r="C50" t="n">
-        <v>0.976948</v>
+        <v>1.0226</v>
       </c>
       <c r="D50" t="n">
-        <v>0.949975</v>
+        <v>0.953586</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.99807</v>
+        <v>1.00238</v>
       </c>
       <c r="C51" t="n">
-        <v>0.981843</v>
+        <v>1.0122</v>
       </c>
       <c r="D51" t="n">
-        <v>1.18076</v>
+        <v>1.18016</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.994027</v>
+        <v>1.01385</v>
       </c>
       <c r="C52" t="n">
-        <v>0.991391</v>
+        <v>0.9931179999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>1.15469</v>
+        <v>1.12977</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.20574</v>
+        <v>1.20472</v>
       </c>
       <c r="C53" t="n">
-        <v>1.15752</v>
+        <v>1.1929</v>
       </c>
       <c r="D53" t="n">
-        <v>1.1432</v>
+        <v>1.12666</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.18353</v>
+        <v>1.15311</v>
       </c>
       <c r="C54" t="n">
-        <v>1.17491</v>
+        <v>1.15203</v>
       </c>
       <c r="D54" t="n">
-        <v>1.10682</v>
+        <v>1.08921</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.14782</v>
+        <v>1.18382</v>
       </c>
       <c r="C55" t="n">
-        <v>1.13857</v>
+        <v>1.14903</v>
       </c>
       <c r="D55" t="n">
-        <v>1.12656</v>
+        <v>1.10829</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.14573</v>
+        <v>1.1428</v>
       </c>
       <c r="C56" t="n">
-        <v>1.14348</v>
+        <v>1.14565</v>
       </c>
       <c r="D56" t="n">
-        <v>1.09754</v>
+        <v>1.0944</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.1246</v>
+        <v>1.11744</v>
       </c>
       <c r="C57" t="n">
-        <v>1.11686</v>
+        <v>1.11391</v>
       </c>
       <c r="D57" t="n">
-        <v>1.10212</v>
+        <v>1.08747</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.14912</v>
+        <v>1.11415</v>
       </c>
       <c r="C58" t="n">
-        <v>1.13305</v>
+        <v>1.10469</v>
       </c>
       <c r="D58" t="n">
-        <v>1.07886</v>
+        <v>1.06322</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.10044</v>
+        <v>1.11697</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10403</v>
+        <v>1.1</v>
       </c>
       <c r="D59" t="n">
-        <v>1.07473</v>
+        <v>1.04865</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11287</v>
+        <v>1.11684</v>
       </c>
       <c r="C60" t="n">
-        <v>1.07539</v>
+        <v>1.09498</v>
       </c>
       <c r="D60" t="n">
-        <v>1.03243</v>
+        <v>1.04817</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.11631</v>
+        <v>1.1269</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08254</v>
+        <v>1.08601</v>
       </c>
       <c r="D61" t="n">
-        <v>1.03715</v>
+        <v>1.05173</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0858</v>
+        <v>1.07743</v>
       </c>
       <c r="C62" t="n">
-        <v>1.05795</v>
+        <v>1.05747</v>
       </c>
       <c r="D62" t="n">
-        <v>1.04045</v>
+        <v>1.03511</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.06949</v>
+        <v>1.07905</v>
       </c>
       <c r="C63" t="n">
-        <v>1.03305</v>
+        <v>1.06075</v>
       </c>
       <c r="D63" t="n">
-        <v>1.03783</v>
+        <v>1.03443</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.07618</v>
+        <v>1.10631</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0424</v>
+        <v>1.06715</v>
       </c>
       <c r="D64" t="n">
-        <v>1.04732</v>
+        <v>1.01839</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.09883</v>
+        <v>1.04881</v>
       </c>
       <c r="C65" t="n">
-        <v>1.06184</v>
+        <v>1.04045</v>
       </c>
       <c r="D65" t="n">
-        <v>1.02877</v>
+        <v>1.00977</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.05609</v>
+        <v>1.04353</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0197</v>
+        <v>1.05852</v>
       </c>
       <c r="D66" t="n">
-        <v>1.2147</v>
+        <v>1.22507</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.26</v>
+        <v>1.25233</v>
       </c>
       <c r="C67" t="n">
-        <v>1.24104</v>
+        <v>1.27168</v>
       </c>
       <c r="D67" t="n">
-        <v>1.2088</v>
+        <v>1.22835</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.29777</v>
+        <v>1.27043</v>
       </c>
       <c r="C68" t="n">
-        <v>1.24338</v>
+        <v>1.25744</v>
       </c>
       <c r="D68" t="n">
-        <v>1.20245</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.23045</v>
+        <v>1.2319</v>
       </c>
       <c r="C69" t="n">
-        <v>1.23321</v>
+        <v>1.26165</v>
       </c>
       <c r="D69" t="n">
-        <v>1.19335</v>
+        <v>1.21623</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.22644</v>
+        <v>1.23339</v>
       </c>
       <c r="C70" t="n">
-        <v>1.22908</v>
+        <v>1.2333</v>
       </c>
       <c r="D70" t="n">
-        <v>1.21717</v>
+        <v>1.1982</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.24809</v>
+        <v>1.2212</v>
       </c>
       <c r="C71" t="n">
-        <v>1.21524</v>
+        <v>1.21475</v>
       </c>
       <c r="D71" t="n">
-        <v>1.17414</v>
+        <v>1.16313</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.22526</v>
+        <v>1.20561</v>
       </c>
       <c r="C72" t="n">
-        <v>1.1891</v>
+        <v>1.22072</v>
       </c>
       <c r="D72" t="n">
-        <v>1.19405</v>
+        <v>1.14597</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.2253</v>
+        <v>1.19511</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19445</v>
+        <v>1.20894</v>
       </c>
       <c r="D73" t="n">
-        <v>1.14177</v>
+        <v>1.15084</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.19952</v>
+        <v>1.19003</v>
       </c>
       <c r="C74" t="n">
-        <v>1.17057</v>
+        <v>1.18773</v>
       </c>
       <c r="D74" t="n">
-        <v>1.14685</v>
+        <v>1.1702</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19112</v>
+        <v>1.20418</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18588</v>
+        <v>1.17515</v>
       </c>
       <c r="D75" t="n">
-        <v>1.13284</v>
+        <v>1.13601</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.21448</v>
+        <v>1.18529</v>
       </c>
       <c r="C76" t="n">
-        <v>1.17136</v>
+        <v>1.14924</v>
       </c>
       <c r="D76" t="n">
-        <v>1.15943</v>
+        <v>1.13627</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.16583</v>
+        <v>1.17</v>
       </c>
       <c r="C77" t="n">
-        <v>1.14574</v>
+        <v>1.16302</v>
       </c>
       <c r="D77" t="n">
-        <v>1.15678</v>
+        <v>1.12727</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.1617</v>
+        <v>1.18408</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13456</v>
+        <v>1.15114</v>
       </c>
       <c r="D78" t="n">
-        <v>1.13503</v>
+        <v>1.11693</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.18837</v>
+        <v>1.16145</v>
       </c>
       <c r="C79" t="n">
-        <v>1.16726</v>
+        <v>1.13544</v>
       </c>
       <c r="D79" t="n">
-        <v>1.15818</v>
+        <v>1.08787</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.18201</v>
+        <v>1.15357</v>
       </c>
       <c r="C80" t="n">
-        <v>1.13743</v>
+        <v>1.10964</v>
       </c>
       <c r="D80" t="n">
-        <v>1.37308</v>
+        <v>1.32498</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.4337</v>
+        <v>1.34072</v>
       </c>
       <c r="C81" t="n">
-        <v>1.34068</v>
+        <v>1.35298</v>
       </c>
       <c r="D81" t="n">
-        <v>1.33422</v>
+        <v>1.30337</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.3752</v>
+        <v>1.33998</v>
       </c>
       <c r="C82" t="n">
-        <v>1.37517</v>
+        <v>1.33694</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31294</v>
+        <v>1.35979</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.36126</v>
+        <v>1.33879</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35391</v>
+        <v>1.32378</v>
       </c>
       <c r="D83" t="n">
-        <v>1.30742</v>
+        <v>1.34327</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.34397</v>
+        <v>1.33088</v>
       </c>
       <c r="C84" t="n">
-        <v>1.33986</v>
+        <v>1.33097</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32323</v>
+        <v>1.31727</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.34301</v>
+        <v>1.32422</v>
       </c>
       <c r="C85" t="n">
-        <v>1.33779</v>
+        <v>1.32543</v>
       </c>
       <c r="D85" t="n">
-        <v>1.3081</v>
+        <v>1.26356</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.3429</v>
+        <v>1.30692</v>
       </c>
       <c r="C86" t="n">
-        <v>1.32387</v>
+        <v>1.33745</v>
       </c>
       <c r="D86" t="n">
-        <v>1.29489</v>
+        <v>1.25841</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.3074</v>
+        <v>1.28751</v>
       </c>
       <c r="C87" t="n">
-        <v>1.28667</v>
+        <v>1.34613</v>
       </c>
       <c r="D87" t="n">
-        <v>1.34091</v>
+        <v>1.29628</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.32994</v>
+        <v>1.33174</v>
       </c>
       <c r="C88" t="n">
-        <v>1.32398</v>
+        <v>1.36827</v>
       </c>
       <c r="D88" t="n">
-        <v>1.2621</v>
+        <v>1.26716</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.30974</v>
+        <v>1.30502</v>
       </c>
       <c r="C89" t="n">
-        <v>1.2991</v>
+        <v>1.33009</v>
       </c>
       <c r="D89" t="n">
-        <v>1.2893</v>
+        <v>1.29754</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.30321</v>
+        <v>1.3234</v>
       </c>
       <c r="C90" t="n">
-        <v>1.28341</v>
+        <v>1.32531</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24675</v>
+        <v>1.28373</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.30883</v>
+        <v>1.31329</v>
       </c>
       <c r="C91" t="n">
-        <v>1.26435</v>
+        <v>1.32692</v>
       </c>
       <c r="D91" t="n">
-        <v>1.28427</v>
+        <v>1.26231</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.33202</v>
+        <v>1.27488</v>
       </c>
       <c r="C92" t="n">
-        <v>1.28839</v>
+        <v>1.33046</v>
       </c>
       <c r="D92" t="n">
-        <v>1.24975</v>
+        <v>1.26797</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.28521</v>
+        <v>1.31157</v>
       </c>
       <c r="C93" t="n">
-        <v>1.27115</v>
+        <v>1.3138</v>
       </c>
       <c r="D93" t="n">
-        <v>1.25041</v>
+        <v>1.31518</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.29223</v>
+        <v>1.29811</v>
       </c>
       <c r="C94" t="n">
-        <v>1.26976</v>
+        <v>1.31846</v>
       </c>
       <c r="D94" t="n">
-        <v>1.52561</v>
+        <v>1.48604</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.54873</v>
+        <v>1.5124</v>
       </c>
       <c r="C95" t="n">
-        <v>1.4981</v>
+        <v>1.54828</v>
       </c>
       <c r="D95" t="n">
-        <v>1.54046</v>
+        <v>1.52014</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.52004</v>
+        <v>1.52219</v>
       </c>
       <c r="C96" t="n">
-        <v>1.50537</v>
+        <v>1.52943</v>
       </c>
       <c r="D96" t="n">
-        <v>1.49165</v>
+        <v>1.45337</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.51296</v>
+        <v>1.54554</v>
       </c>
       <c r="C97" t="n">
-        <v>1.50276</v>
+        <v>1.57217</v>
       </c>
       <c r="D97" t="n">
-        <v>1.48264</v>
+        <v>1.48344</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.53792</v>
+        <v>1.4985</v>
       </c>
       <c r="C98" t="n">
-        <v>1.50286</v>
+        <v>1.56149</v>
       </c>
       <c r="D98" t="n">
-        <v>1.43252</v>
+        <v>1.43981</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.53708</v>
+        <v>1.50658</v>
       </c>
       <c r="C99" t="n">
-        <v>1.47354</v>
+        <v>1.5449</v>
       </c>
       <c r="D99" t="n">
-        <v>1.44599</v>
+        <v>1.44239</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.51533</v>
+        <v>1.46595</v>
       </c>
       <c r="C100" t="n">
-        <v>1.49515</v>
+        <v>1.53935</v>
       </c>
       <c r="D100" t="n">
-        <v>1.44259</v>
+        <v>1.46071</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.49843</v>
+        <v>1.47756</v>
       </c>
       <c r="C101" t="n">
-        <v>1.45714</v>
+        <v>1.51849</v>
       </c>
       <c r="D101" t="n">
-        <v>1.4607</v>
+        <v>1.42848</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.46846</v>
+        <v>1.49571</v>
       </c>
       <c r="C102" t="n">
-        <v>1.48955</v>
+        <v>1.51975</v>
       </c>
       <c r="D102" t="n">
-        <v>1.43989</v>
+        <v>1.42011</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.49168</v>
+        <v>1.50377</v>
       </c>
       <c r="C103" t="n">
-        <v>1.45885</v>
+        <v>1.55788</v>
       </c>
       <c r="D103" t="n">
-        <v>1.42951</v>
+        <v>1.41409</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.5598</v>
+        <v>1.46936</v>
       </c>
       <c r="C104" t="n">
-        <v>1.44478</v>
+        <v>1.51723</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40927</v>
+        <v>1.43297</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.42401</v>
+        <v>1.44893</v>
       </c>
       <c r="C105" t="n">
-        <v>1.45703</v>
+        <v>1.48822</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39484</v>
+        <v>1.40721</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.44732</v>
+        <v>1.49243</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45483</v>
+        <v>1.47328</v>
       </c>
       <c r="D106" t="n">
-        <v>1.39965</v>
+        <v>1.42107</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.49394</v>
+        <v>1.43576</v>
       </c>
       <c r="C107" t="n">
-        <v>1.46995</v>
+        <v>1.46885</v>
       </c>
       <c r="D107" t="n">
-        <v>1.4158</v>
+        <v>1.42632</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.45724</v>
+        <v>1.47357</v>
       </c>
       <c r="C108" t="n">
-        <v>1.48345</v>
+        <v>1.46769</v>
       </c>
       <c r="D108" t="n">
-        <v>1.69843</v>
+        <v>1.66325</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.48994</v>
+        <v>1.44972</v>
       </c>
       <c r="C109" t="n">
-        <v>1.45456</v>
+        <v>1.49301</v>
       </c>
       <c r="D109" t="n">
-        <v>1.67869</v>
+        <v>1.64172</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.68658</v>
+        <v>1.71299</v>
       </c>
       <c r="C110" t="n">
-        <v>1.70803</v>
+        <v>1.72768</v>
       </c>
       <c r="D110" t="n">
-        <v>1.64623</v>
+        <v>1.65267</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.68373</v>
+        <v>1.71535</v>
       </c>
       <c r="C111" t="n">
-        <v>1.65372</v>
+        <v>1.71461</v>
       </c>
       <c r="D111" t="n">
-        <v>1.60613</v>
+        <v>1.60412</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.72549</v>
+        <v>1.68801</v>
       </c>
       <c r="C112" t="n">
-        <v>1.68824</v>
+        <v>1.75663</v>
       </c>
       <c r="D112" t="n">
-        <v>1.61326</v>
+        <v>1.59875</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.66838</v>
+        <v>1.67697</v>
       </c>
       <c r="C113" t="n">
-        <v>1.68998</v>
+        <v>1.70151</v>
       </c>
       <c r="D113" t="n">
-        <v>1.60933</v>
+        <v>1.63078</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.70673</v>
+        <v>1.66195</v>
       </c>
       <c r="C114" t="n">
-        <v>1.65712</v>
+        <v>1.73084</v>
       </c>
       <c r="D114" t="n">
-        <v>1.59803</v>
+        <v>1.64284</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.66748</v>
+        <v>1.7148</v>
       </c>
       <c r="C115" t="n">
-        <v>1.66407</v>
+        <v>1.70333</v>
       </c>
       <c r="D115" t="n">
-        <v>1.59759</v>
+        <v>1.58858</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.68394</v>
+        <v>1.68588</v>
       </c>
       <c r="C116" t="n">
-        <v>1.65687</v>
+        <v>1.724</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59496</v>
+        <v>1.60913</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.67903</v>
+        <v>1.68576</v>
       </c>
       <c r="C117" t="n">
-        <v>1.67781</v>
+        <v>1.70921</v>
       </c>
       <c r="D117" t="n">
-        <v>1.60325</v>
+        <v>1.59529</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.65929</v>
+        <v>1.66486</v>
       </c>
       <c r="C118" t="n">
-        <v>1.65872</v>
+        <v>1.68433</v>
       </c>
       <c r="D118" t="n">
-        <v>1.56607</v>
+        <v>1.58207</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.68931</v>
+        <v>1.68095</v>
       </c>
       <c r="C119" t="n">
-        <v>1.66641</v>
+        <v>1.69268</v>
       </c>
       <c r="D119" t="n">
-        <v>1.61969</v>
+        <v>1.61389</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.66177</v>
+        <v>1.69387</v>
       </c>
       <c r="C120" t="n">
-        <v>1.68099</v>
+        <v>1.69596</v>
       </c>
       <c r="D120" t="n">
-        <v>1.58207</v>
+        <v>1.59061</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.69359</v>
+        <v>1.67547</v>
       </c>
       <c r="C121" t="n">
-        <v>1.6705</v>
+        <v>1.68698</v>
       </c>
       <c r="D121" t="n">
-        <v>1.57965</v>
+        <v>1.57507</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.67102</v>
+        <v>1.66228</v>
       </c>
       <c r="C122" t="n">
-        <v>1.66207</v>
+        <v>1.69404</v>
       </c>
       <c r="D122" t="n">
-        <v>1.5996</v>
+        <v>1.56336</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.69515</v>
+        <v>1.66659</v>
       </c>
       <c r="C123" t="n">
-        <v>1.65465</v>
+        <v>1.68359</v>
       </c>
       <c r="D123" t="n">
-        <v>1.82169</v>
+        <v>1.83287</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.93418</v>
+        <v>1.9165</v>
       </c>
       <c r="C124" t="n">
-        <v>1.88828</v>
+        <v>1.94397</v>
       </c>
       <c r="D124" t="n">
-        <v>1.84351</v>
+        <v>1.80397</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.91499</v>
+        <v>1.86843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.89357</v>
+        <v>1.92815</v>
       </c>
       <c r="D125" t="n">
-        <v>1.80319</v>
+        <v>1.82304</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.9281</v>
+        <v>1.91482</v>
       </c>
       <c r="C126" t="n">
-        <v>1.89549</v>
+        <v>1.93855</v>
       </c>
       <c r="D126" t="n">
-        <v>1.84628</v>
+        <v>1.81404</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.93068</v>
+        <v>1.94612</v>
       </c>
       <c r="C127" t="n">
-        <v>1.87355</v>
+        <v>1.93172</v>
       </c>
       <c r="D127" t="n">
-        <v>1.8192</v>
+        <v>1.80493</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.91836</v>
+        <v>1.91888</v>
       </c>
       <c r="C128" t="n">
-        <v>1.88866</v>
+        <v>1.90641</v>
       </c>
       <c r="D128" t="n">
-        <v>1.81972</v>
+        <v>1.80963</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.94684</v>
+        <v>1.96102</v>
       </c>
       <c r="C129" t="n">
-        <v>1.8867</v>
+        <v>1.91766</v>
       </c>
       <c r="D129" t="n">
-        <v>1.83998</v>
+        <v>1.79628</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.95276</v>
+        <v>1.94717</v>
       </c>
       <c r="C130" t="n">
-        <v>1.93991</v>
+        <v>1.90656</v>
       </c>
       <c r="D130" t="n">
-        <v>1.83568</v>
+        <v>1.77925</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.94262</v>
+        <v>1.94498</v>
       </c>
       <c r="C131" t="n">
-        <v>1.93794</v>
+        <v>1.91784</v>
       </c>
       <c r="D131" t="n">
-        <v>1.83795</v>
+        <v>1.77918</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.9604</v>
+        <v>1.95086</v>
       </c>
       <c r="C132" t="n">
-        <v>1.89839</v>
+        <v>1.89366</v>
       </c>
       <c r="D132" t="n">
-        <v>1.83522</v>
+        <v>1.78229</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.95348</v>
+        <v>1.96666</v>
       </c>
       <c r="C133" t="n">
-        <v>1.93458</v>
+        <v>1.87454</v>
       </c>
       <c r="D133" t="n">
-        <v>1.83747</v>
+        <v>1.77193</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.93823</v>
+        <v>1.95225</v>
       </c>
       <c r="C134" t="n">
-        <v>1.91367</v>
+        <v>1.89422</v>
       </c>
       <c r="D134" t="n">
-        <v>1.81773</v>
+        <v>1.78312</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.96472</v>
+        <v>1.97241</v>
       </c>
       <c r="C135" t="n">
-        <v>1.91475</v>
+        <v>1.8835</v>
       </c>
       <c r="D135" t="n">
-        <v>1.86231</v>
+        <v>1.76332</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.96433</v>
+        <v>2.00336</v>
       </c>
       <c r="C136" t="n">
-        <v>1.9308</v>
+        <v>1.88373</v>
       </c>
       <c r="D136" t="n">
-        <v>1.87569</v>
+        <v>1.77928</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.98657</v>
+        <v>1.99898</v>
       </c>
       <c r="C137" t="n">
-        <v>1.92717</v>
+        <v>1.89699</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09826</v>
+        <v>2.00947</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.23531</v>
+        <v>2.22197</v>
       </c>
       <c r="C138" t="n">
-        <v>2.17172</v>
+        <v>2.13311</v>
       </c>
       <c r="D138" t="n">
-        <v>2.11941</v>
+        <v>2.03043</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21042</v>
+        <v>2.21493</v>
       </c>
       <c r="C139" t="n">
-        <v>2.16417</v>
+        <v>2.14368</v>
       </c>
       <c r="D139" t="n">
-        <v>2.12459</v>
+        <v>2.01365</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.24706</v>
+        <v>2.2287</v>
       </c>
       <c r="C140" t="n">
-        <v>2.16484</v>
+        <v>2.12266</v>
       </c>
       <c r="D140" t="n">
-        <v>2.14026</v>
+        <v>2.0091</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.25064</v>
+        <v>2.27467</v>
       </c>
       <c r="C141" t="n">
-        <v>2.15722</v>
+        <v>2.12692</v>
       </c>
       <c r="D141" t="n">
-        <v>2.14826</v>
+        <v>2.01231</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.25816</v>
+        <v>2.25053</v>
       </c>
       <c r="C142" t="n">
-        <v>2.20946</v>
+        <v>2.12214</v>
       </c>
       <c r="D142" t="n">
-        <v>2.12568</v>
+        <v>1.98674</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.27409</v>
+        <v>2.25038</v>
       </c>
       <c r="C143" t="n">
-        <v>2.16581</v>
+        <v>2.1056</v>
       </c>
       <c r="D143" t="n">
-        <v>2.12725</v>
+        <v>1.98917</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.925215</v>
+        <v>0.9263940000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.970391</v>
+        <v>0.937646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9145450000000001</v>
+        <v>0.902671</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.893242</v>
+        <v>0.893884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.94219</v>
+        <v>0.906436</v>
       </c>
       <c r="D3" t="n">
-        <v>0.882335</v>
+        <v>0.903439</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.893166</v>
+        <v>0.8774960000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.922906</v>
+        <v>0.892593</v>
       </c>
       <c r="D4" t="n">
-        <v>0.890561</v>
+        <v>0.879147</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.913456</v>
+        <v>0.9215179999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.918965</v>
+        <v>0.916261</v>
       </c>
       <c r="D5" t="n">
-        <v>0.891033</v>
+        <v>0.912898</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.876143</v>
+        <v>0.886211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.907009</v>
+        <v>0.942105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.875844</v>
+        <v>0.910233</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.889776</v>
+        <v>0.902339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.894316</v>
+        <v>0.899934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8568440000000001</v>
+        <v>0.883852</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.892319</v>
+        <v>0.86071</v>
       </c>
       <c r="C8" t="n">
-        <v>0.907328</v>
+        <v>0.885615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.876048</v>
+        <v>0.897271</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.875183</v>
+        <v>0.864217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.882131</v>
+        <v>0.90285</v>
       </c>
       <c r="D9" t="n">
-        <v>1.00679</v>
+        <v>0.99431</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.962233</v>
+        <v>1.003</v>
       </c>
       <c r="C10" t="n">
-        <v>1.01675</v>
+        <v>1.01208</v>
       </c>
       <c r="D10" t="n">
-        <v>0.958234</v>
+        <v>0.962457</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9434979999999999</v>
+        <v>0.976424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.994144</v>
+        <v>0.988621</v>
       </c>
       <c r="D11" t="n">
-        <v>0.967579</v>
+        <v>0.960185</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>1.00296</v>
+        <v>0.954217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.98358</v>
+        <v>0.967078</v>
       </c>
       <c r="D12" t="n">
-        <v>0.961605</v>
+        <v>0.980318</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.941576</v>
+        <v>0.94565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9486830000000001</v>
+        <v>0.976421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.921635</v>
+        <v>0.928024</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.931321</v>
+        <v>0.935712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.973919</v>
+        <v>0.956549</v>
       </c>
       <c r="D14" t="n">
-        <v>0.939343</v>
+        <v>0.925772</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.936943</v>
+        <v>0.931349</v>
       </c>
       <c r="C15" t="n">
-        <v>0.96225</v>
+        <v>0.968</v>
       </c>
       <c r="D15" t="n">
-        <v>0.914866</v>
+        <v>0.92015</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.935384</v>
+        <v>0.908085</v>
       </c>
       <c r="C16" t="n">
-        <v>0.932971</v>
+        <v>0.944064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.916007</v>
+        <v>0.910599</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9117189999999999</v>
+        <v>0.926681</v>
       </c>
       <c r="C17" t="n">
-        <v>0.918778</v>
+        <v>0.921673</v>
       </c>
       <c r="D17" t="n">
-        <v>0.89669</v>
+        <v>0.922183</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.921824</v>
+        <v>0.897501</v>
       </c>
       <c r="C18" t="n">
-        <v>0.910883</v>
+        <v>0.904245</v>
       </c>
       <c r="D18" t="n">
-        <v>0.889015</v>
+        <v>0.8945</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.891682</v>
+        <v>0.890246</v>
       </c>
       <c r="C19" t="n">
-        <v>0.910266</v>
+        <v>0.909836</v>
       </c>
       <c r="D19" t="n">
-        <v>0.877317</v>
+        <v>0.881267</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.892532</v>
+        <v>0.910201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.898725</v>
+        <v>0.899493</v>
       </c>
       <c r="D20" t="n">
-        <v>0.885989</v>
+        <v>0.905381</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.926894</v>
+        <v>0.890504</v>
       </c>
       <c r="C21" t="n">
-        <v>0.918063</v>
+        <v>0.96444</v>
       </c>
       <c r="D21" t="n">
-        <v>0.871208</v>
+        <v>0.895738</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.873935</v>
+        <v>0.873065</v>
       </c>
       <c r="C22" t="n">
-        <v>0.908501</v>
+        <v>0.90268</v>
       </c>
       <c r="D22" t="n">
-        <v>0.869188</v>
+        <v>0.888477</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.874471</v>
+        <v>0.899943</v>
       </c>
       <c r="C23" t="n">
-        <v>0.874927</v>
+        <v>0.942497</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0932</v>
+        <v>1.10077</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0745</v>
+        <v>1.0883</v>
       </c>
       <c r="C24" t="n">
-        <v>1.10931</v>
+        <v>1.08804</v>
       </c>
       <c r="D24" t="n">
-        <v>1.08351</v>
+        <v>1.10011</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.09128</v>
+        <v>1.08357</v>
       </c>
       <c r="C25" t="n">
-        <v>1.08496</v>
+        <v>1.08881</v>
       </c>
       <c r="D25" t="n">
-        <v>1.08852</v>
+        <v>1.07943</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.06137</v>
+        <v>1.0514</v>
       </c>
       <c r="C26" t="n">
-        <v>1.06333</v>
+        <v>1.05748</v>
       </c>
       <c r="D26" t="n">
-        <v>1.05073</v>
+        <v>1.05996</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.0458</v>
+        <v>1.01995</v>
       </c>
       <c r="C27" t="n">
-        <v>1.03854</v>
+        <v>1.07717</v>
       </c>
       <c r="D27" t="n">
-        <v>1.03492</v>
+        <v>1.07449</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.04804</v>
+        <v>1.03002</v>
       </c>
       <c r="C28" t="n">
-        <v>1.01448</v>
+        <v>1.07036</v>
       </c>
       <c r="D28" t="n">
-        <v>1.02557</v>
+        <v>1.03079</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.01207</v>
+        <v>1.0017</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0089</v>
+        <v>1.00754</v>
       </c>
       <c r="D29" t="n">
-        <v>1.02094</v>
+        <v>1.02238</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01814</v>
+        <v>1.01236</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0098</v>
+        <v>1.00884</v>
       </c>
       <c r="D30" t="n">
-        <v>1.01967</v>
+        <v>1.01524</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.989807</v>
+        <v>0.988405</v>
       </c>
       <c r="C31" t="n">
-        <v>1.01772</v>
+        <v>1.0047</v>
       </c>
       <c r="D31" t="n">
-        <v>0.997544</v>
+        <v>0.995785</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.973588</v>
+        <v>0.986327</v>
       </c>
       <c r="C32" t="n">
-        <v>0.975226</v>
+        <v>1.02073</v>
       </c>
       <c r="D32" t="n">
-        <v>1.01272</v>
+        <v>0.976356</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.00316</v>
+        <v>0.96996</v>
       </c>
       <c r="C33" t="n">
-        <v>0.959754</v>
+        <v>0.984029</v>
       </c>
       <c r="D33" t="n">
-        <v>0.983999</v>
+        <v>0.9611769999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.97698</v>
+        <v>0.956357</v>
       </c>
       <c r="C34" t="n">
-        <v>0.990062</v>
+        <v>0.969073</v>
       </c>
       <c r="D34" t="n">
-        <v>0.977724</v>
+        <v>0.967962</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.977674</v>
+        <v>0.9839599999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.963236</v>
+        <v>0.96872</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9617560000000001</v>
+        <v>0.962085</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.956282</v>
+        <v>0.965685</v>
       </c>
       <c r="C36" t="n">
-        <v>0.957755</v>
+        <v>0.94982</v>
       </c>
       <c r="D36" t="n">
-        <v>0.945393</v>
+        <v>0.946124</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.971906</v>
+        <v>0.970061</v>
       </c>
       <c r="C37" t="n">
-        <v>0.960094</v>
+        <v>0.9615050000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.15087</v>
+        <v>1.14612</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.15256</v>
+        <v>1.12946</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1754</v>
+        <v>1.14534</v>
       </c>
       <c r="D38" t="n">
-        <v>1.07931</v>
+        <v>1.13717</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.15818</v>
+        <v>1.15426</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1793</v>
+        <v>1.15415</v>
       </c>
       <c r="D39" t="n">
-        <v>1.06591</v>
+        <v>1.10144</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.12712</v>
+        <v>1.14521</v>
       </c>
       <c r="C40" t="n">
-        <v>1.12296</v>
+        <v>1.139</v>
       </c>
       <c r="D40" t="n">
-        <v>1.06614</v>
+        <v>1.03082</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.09553</v>
+        <v>1.09507</v>
       </c>
       <c r="C41" t="n">
-        <v>1.11526</v>
+        <v>1.12234</v>
       </c>
       <c r="D41" t="n">
-        <v>1.07129</v>
+        <v>1.03019</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0927</v>
+        <v>1.09325</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10417</v>
+        <v>1.09857</v>
       </c>
       <c r="D42" t="n">
-        <v>1.02234</v>
+        <v>1.03651</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.06065</v>
+        <v>1.08043</v>
       </c>
       <c r="C43" t="n">
-        <v>1.08475</v>
+        <v>1.0731</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02178</v>
+        <v>1.04126</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.09455</v>
+        <v>1.13336</v>
       </c>
       <c r="C44" t="n">
-        <v>1.08286</v>
+        <v>1.08946</v>
       </c>
       <c r="D44" t="n">
-        <v>1.00169</v>
+        <v>1.01056</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.08289</v>
+        <v>1.0615</v>
       </c>
       <c r="C45" t="n">
-        <v>1.05319</v>
+        <v>1.05234</v>
       </c>
       <c r="D45" t="n">
-        <v>1.01637</v>
+        <v>0.966935</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.04393</v>
+        <v>1.02217</v>
       </c>
       <c r="C46" t="n">
-        <v>1.02317</v>
+        <v>1.02876</v>
       </c>
       <c r="D46" t="n">
-        <v>0.993695</v>
+        <v>0.988079</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.07167</v>
+        <v>1.03526</v>
       </c>
       <c r="C47" t="n">
-        <v>1.03013</v>
+        <v>1.02817</v>
       </c>
       <c r="D47" t="n">
-        <v>0.983355</v>
+        <v>0.9825430000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.02557</v>
+        <v>1.0225</v>
       </c>
       <c r="C48" t="n">
-        <v>1.01163</v>
+        <v>1.03543</v>
       </c>
       <c r="D48" t="n">
-        <v>0.955902</v>
+        <v>0.968883</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.05001</v>
+        <v>1.02707</v>
       </c>
       <c r="C49" t="n">
-        <v>0.992586</v>
+        <v>1.01495</v>
       </c>
       <c r="D49" t="n">
-        <v>0.966547</v>
+        <v>0.946431</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.00602</v>
+        <v>1.05966</v>
       </c>
       <c r="C50" t="n">
-        <v>1.0226</v>
+        <v>1.00308</v>
       </c>
       <c r="D50" t="n">
-        <v>0.953586</v>
+        <v>0.9669450000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.00238</v>
+        <v>0.996086</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0122</v>
+        <v>0.997017</v>
       </c>
       <c r="D51" t="n">
-        <v>1.18016</v>
+        <v>1.15935</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.01385</v>
+        <v>1.00174</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9931179999999999</v>
+        <v>1.01248</v>
       </c>
       <c r="D52" t="n">
-        <v>1.12977</v>
+        <v>1.12958</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.20472</v>
+        <v>1.20282</v>
       </c>
       <c r="C53" t="n">
-        <v>1.1929</v>
+        <v>1.18783</v>
       </c>
       <c r="D53" t="n">
-        <v>1.12666</v>
+        <v>1.13218</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.15311</v>
+        <v>1.15956</v>
       </c>
       <c r="C54" t="n">
-        <v>1.15203</v>
+        <v>1.20754</v>
       </c>
       <c r="D54" t="n">
-        <v>1.08921</v>
+        <v>1.10158</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.18382</v>
+        <v>1.17931</v>
       </c>
       <c r="C55" t="n">
-        <v>1.14903</v>
+        <v>1.17372</v>
       </c>
       <c r="D55" t="n">
-        <v>1.10829</v>
+        <v>1.11372</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.1428</v>
+        <v>1.15437</v>
       </c>
       <c r="C56" t="n">
-        <v>1.14565</v>
+        <v>1.17599</v>
       </c>
       <c r="D56" t="n">
-        <v>1.0944</v>
+        <v>1.08963</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.11744</v>
+        <v>1.11975</v>
       </c>
       <c r="C57" t="n">
-        <v>1.11391</v>
+        <v>1.11889</v>
       </c>
       <c r="D57" t="n">
-        <v>1.08747</v>
+        <v>1.06853</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.11415</v>
+        <v>1.1215</v>
       </c>
       <c r="C58" t="n">
-        <v>1.10469</v>
+        <v>1.11371</v>
       </c>
       <c r="D58" t="n">
-        <v>1.06322</v>
+        <v>1.09078</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.11697</v>
+        <v>1.15018</v>
       </c>
       <c r="C59" t="n">
-        <v>1.1</v>
+        <v>1.11406</v>
       </c>
       <c r="D59" t="n">
-        <v>1.04865</v>
+        <v>1.0454</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11684</v>
+        <v>1.10837</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09498</v>
+        <v>1.1006</v>
       </c>
       <c r="D60" t="n">
-        <v>1.04817</v>
+        <v>1.06109</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.1269</v>
+        <v>1.13049</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08601</v>
+        <v>1.09735</v>
       </c>
       <c r="D61" t="n">
-        <v>1.05173</v>
+        <v>1.0565</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.07743</v>
+        <v>1.09185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.05747</v>
+        <v>1.07849</v>
       </c>
       <c r="D62" t="n">
-        <v>1.03511</v>
+        <v>1.03058</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.07905</v>
+        <v>1.09703</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06075</v>
+        <v>1.08873</v>
       </c>
       <c r="D63" t="n">
-        <v>1.03443</v>
+        <v>1.02956</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.10631</v>
+        <v>1.11193</v>
       </c>
       <c r="C64" t="n">
-        <v>1.06715</v>
+        <v>1.08607</v>
       </c>
       <c r="D64" t="n">
-        <v>1.01839</v>
+        <v>1.04069</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.04881</v>
+        <v>1.04858</v>
       </c>
       <c r="C65" t="n">
-        <v>1.04045</v>
+        <v>1.06554</v>
       </c>
       <c r="D65" t="n">
-        <v>1.00977</v>
+        <v>1.01488</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04353</v>
+        <v>1.06807</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05852</v>
+        <v>1.07841</v>
       </c>
       <c r="D66" t="n">
-        <v>1.22507</v>
+        <v>1.23192</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.25233</v>
+        <v>1.26363</v>
       </c>
       <c r="C67" t="n">
-        <v>1.27168</v>
+        <v>1.28056</v>
       </c>
       <c r="D67" t="n">
-        <v>1.22835</v>
+        <v>1.21422</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.27043</v>
+        <v>1.24502</v>
       </c>
       <c r="C68" t="n">
-        <v>1.25744</v>
+        <v>1.24972</v>
       </c>
       <c r="D68" t="n">
-        <v>1.239</v>
+        <v>1.21677</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.2319</v>
+        <v>1.25409</v>
       </c>
       <c r="C69" t="n">
-        <v>1.26165</v>
+        <v>1.25899</v>
       </c>
       <c r="D69" t="n">
-        <v>1.21623</v>
+        <v>1.19404</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.23339</v>
+        <v>1.24171</v>
       </c>
       <c r="C70" t="n">
-        <v>1.2333</v>
+        <v>1.26802</v>
       </c>
       <c r="D70" t="n">
-        <v>1.1982</v>
+        <v>1.19688</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.2212</v>
+        <v>1.21535</v>
       </c>
       <c r="C71" t="n">
-        <v>1.21475</v>
+        <v>1.23012</v>
       </c>
       <c r="D71" t="n">
-        <v>1.16313</v>
+        <v>1.19375</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.20561</v>
+        <v>1.22288</v>
       </c>
       <c r="C72" t="n">
-        <v>1.22072</v>
+        <v>1.22663</v>
       </c>
       <c r="D72" t="n">
-        <v>1.14597</v>
+        <v>1.15267</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.19511</v>
+        <v>1.21762</v>
       </c>
       <c r="C73" t="n">
-        <v>1.20894</v>
+        <v>1.20845</v>
       </c>
       <c r="D73" t="n">
-        <v>1.15084</v>
+        <v>1.16061</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.19003</v>
+        <v>1.1919</v>
       </c>
       <c r="C74" t="n">
-        <v>1.18773</v>
+        <v>1.23711</v>
       </c>
       <c r="D74" t="n">
-        <v>1.1702</v>
+        <v>1.17052</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.20418</v>
+        <v>1.17127</v>
       </c>
       <c r="C75" t="n">
-        <v>1.17515</v>
+        <v>1.19915</v>
       </c>
       <c r="D75" t="n">
-        <v>1.13601</v>
+        <v>1.1425</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.18529</v>
+        <v>1.18172</v>
       </c>
       <c r="C76" t="n">
-        <v>1.14924</v>
+        <v>1.22065</v>
       </c>
       <c r="D76" t="n">
-        <v>1.13627</v>
+        <v>1.12904</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.17</v>
+        <v>1.17402</v>
       </c>
       <c r="C77" t="n">
-        <v>1.16302</v>
+        <v>1.17993</v>
       </c>
       <c r="D77" t="n">
-        <v>1.12727</v>
+        <v>1.13726</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.18408</v>
+        <v>1.1897</v>
       </c>
       <c r="C78" t="n">
-        <v>1.15114</v>
+        <v>1.19406</v>
       </c>
       <c r="D78" t="n">
-        <v>1.11693</v>
+        <v>1.1201</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.16145</v>
+        <v>1.16306</v>
       </c>
       <c r="C79" t="n">
-        <v>1.13544</v>
+        <v>1.16136</v>
       </c>
       <c r="D79" t="n">
-        <v>1.08787</v>
+        <v>1.14052</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15357</v>
+        <v>1.15344</v>
       </c>
       <c r="C80" t="n">
-        <v>1.10964</v>
+        <v>1.18958</v>
       </c>
       <c r="D80" t="n">
-        <v>1.32498</v>
+        <v>1.38417</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.34072</v>
+        <v>1.38275</v>
       </c>
       <c r="C81" t="n">
-        <v>1.35298</v>
+        <v>1.41648</v>
       </c>
       <c r="D81" t="n">
-        <v>1.30337</v>
+        <v>1.38154</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.33998</v>
+        <v>1.37253</v>
       </c>
       <c r="C82" t="n">
-        <v>1.33694</v>
+        <v>1.41322</v>
       </c>
       <c r="D82" t="n">
-        <v>1.35979</v>
+        <v>1.33567</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.33879</v>
+        <v>1.3538</v>
       </c>
       <c r="C83" t="n">
-        <v>1.32378</v>
+        <v>1.39607</v>
       </c>
       <c r="D83" t="n">
-        <v>1.34327</v>
+        <v>1.34719</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.33088</v>
+        <v>1.32797</v>
       </c>
       <c r="C84" t="n">
-        <v>1.33097</v>
+        <v>1.36727</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31727</v>
+        <v>1.33615</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.32422</v>
+        <v>1.3213</v>
       </c>
       <c r="C85" t="n">
-        <v>1.32543</v>
+        <v>1.35269</v>
       </c>
       <c r="D85" t="n">
-        <v>1.26356</v>
+        <v>1.32752</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.30692</v>
+        <v>1.34839</v>
       </c>
       <c r="C86" t="n">
-        <v>1.33745</v>
+        <v>1.34219</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25841</v>
+        <v>1.30406</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.28751</v>
+        <v>1.32508</v>
       </c>
       <c r="C87" t="n">
-        <v>1.34613</v>
+        <v>1.34726</v>
       </c>
       <c r="D87" t="n">
-        <v>1.29628</v>
+        <v>1.28641</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.33174</v>
+        <v>1.32864</v>
       </c>
       <c r="C88" t="n">
-        <v>1.36827</v>
+        <v>1.33276</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26716</v>
+        <v>1.29109</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.30502</v>
+        <v>1.35328</v>
       </c>
       <c r="C89" t="n">
-        <v>1.33009</v>
+        <v>1.32989</v>
       </c>
       <c r="D89" t="n">
-        <v>1.29754</v>
+        <v>1.28765</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.3234</v>
+        <v>1.32571</v>
       </c>
       <c r="C90" t="n">
-        <v>1.32531</v>
+        <v>1.32486</v>
       </c>
       <c r="D90" t="n">
-        <v>1.28373</v>
+        <v>1.26723</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.31329</v>
+        <v>1.32229</v>
       </c>
       <c r="C91" t="n">
-        <v>1.32692</v>
+        <v>1.30468</v>
       </c>
       <c r="D91" t="n">
-        <v>1.26231</v>
+        <v>1.2527</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.27488</v>
+        <v>1.29097</v>
       </c>
       <c r="C92" t="n">
-        <v>1.33046</v>
+        <v>1.29761</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26797</v>
+        <v>1.26206</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.31157</v>
+        <v>1.30569</v>
       </c>
       <c r="C93" t="n">
-        <v>1.3138</v>
+        <v>1.28614</v>
       </c>
       <c r="D93" t="n">
-        <v>1.31518</v>
+        <v>1.25654</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.29811</v>
+        <v>1.33682</v>
       </c>
       <c r="C94" t="n">
-        <v>1.31846</v>
+        <v>1.28347</v>
       </c>
       <c r="D94" t="n">
-        <v>1.48604</v>
+        <v>1.49226</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.5124</v>
+        <v>1.52878</v>
       </c>
       <c r="C95" t="n">
-        <v>1.54828</v>
+        <v>1.54657</v>
       </c>
       <c r="D95" t="n">
-        <v>1.52014</v>
+        <v>1.51149</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.52219</v>
+        <v>1.50555</v>
       </c>
       <c r="C96" t="n">
-        <v>1.52943</v>
+        <v>1.55732</v>
       </c>
       <c r="D96" t="n">
-        <v>1.45337</v>
+        <v>1.49352</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.54554</v>
+        <v>1.52155</v>
       </c>
       <c r="C97" t="n">
-        <v>1.57217</v>
+        <v>1.52831</v>
       </c>
       <c r="D97" t="n">
-        <v>1.48344</v>
+        <v>1.44971</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.4985</v>
+        <v>1.50645</v>
       </c>
       <c r="C98" t="n">
-        <v>1.56149</v>
+        <v>1.52924</v>
       </c>
       <c r="D98" t="n">
-        <v>1.43981</v>
+        <v>1.45667</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.50658</v>
+        <v>1.49187</v>
       </c>
       <c r="C99" t="n">
-        <v>1.5449</v>
+        <v>1.52227</v>
       </c>
       <c r="D99" t="n">
-        <v>1.44239</v>
+        <v>1.43174</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.46595</v>
+        <v>1.47354</v>
       </c>
       <c r="C100" t="n">
-        <v>1.53935</v>
+        <v>1.49212</v>
       </c>
       <c r="D100" t="n">
-        <v>1.46071</v>
+        <v>1.45472</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.47756</v>
+        <v>1.48752</v>
       </c>
       <c r="C101" t="n">
-        <v>1.51849</v>
+        <v>1.51136</v>
       </c>
       <c r="D101" t="n">
-        <v>1.42848</v>
+        <v>1.41896</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.49571</v>
+        <v>1.46398</v>
       </c>
       <c r="C102" t="n">
-        <v>1.51975</v>
+        <v>1.45963</v>
       </c>
       <c r="D102" t="n">
-        <v>1.42011</v>
+        <v>1.44702</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.50377</v>
+        <v>1.45788</v>
       </c>
       <c r="C103" t="n">
-        <v>1.55788</v>
+        <v>1.48838</v>
       </c>
       <c r="D103" t="n">
-        <v>1.41409</v>
+        <v>1.44135</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.46936</v>
+        <v>1.48648</v>
       </c>
       <c r="C104" t="n">
-        <v>1.51723</v>
+        <v>1.46693</v>
       </c>
       <c r="D104" t="n">
-        <v>1.43297</v>
+        <v>1.41582</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.44893</v>
+        <v>1.48745</v>
       </c>
       <c r="C105" t="n">
-        <v>1.48822</v>
+        <v>1.53302</v>
       </c>
       <c r="D105" t="n">
-        <v>1.40721</v>
+        <v>1.39106</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.49243</v>
+        <v>1.47579</v>
       </c>
       <c r="C106" t="n">
-        <v>1.47328</v>
+        <v>1.48439</v>
       </c>
       <c r="D106" t="n">
-        <v>1.42107</v>
+        <v>1.38735</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.43576</v>
+        <v>1.43169</v>
       </c>
       <c r="C107" t="n">
-        <v>1.46885</v>
+        <v>1.4739</v>
       </c>
       <c r="D107" t="n">
-        <v>1.42632</v>
+        <v>1.37967</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.47357</v>
+        <v>1.42992</v>
       </c>
       <c r="C108" t="n">
-        <v>1.46769</v>
+        <v>1.45308</v>
       </c>
       <c r="D108" t="n">
-        <v>1.66325</v>
+        <v>1.61871</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.44972</v>
+        <v>1.46543</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49301</v>
+        <v>1.49842</v>
       </c>
       <c r="D109" t="n">
-        <v>1.64172</v>
+        <v>1.70507</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.71299</v>
+        <v>1.6915</v>
       </c>
       <c r="C110" t="n">
-        <v>1.72768</v>
+        <v>1.69729</v>
       </c>
       <c r="D110" t="n">
-        <v>1.65267</v>
+        <v>1.62767</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.71535</v>
+        <v>1.70913</v>
       </c>
       <c r="C111" t="n">
-        <v>1.71461</v>
+        <v>1.71731</v>
       </c>
       <c r="D111" t="n">
-        <v>1.60412</v>
+        <v>1.61244</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.68801</v>
+        <v>1.67831</v>
       </c>
       <c r="C112" t="n">
-        <v>1.75663</v>
+        <v>1.68764</v>
       </c>
       <c r="D112" t="n">
-        <v>1.59875</v>
+        <v>1.60599</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.67697</v>
+        <v>1.7089</v>
       </c>
       <c r="C113" t="n">
-        <v>1.70151</v>
+        <v>1.70434</v>
       </c>
       <c r="D113" t="n">
-        <v>1.63078</v>
+        <v>1.62093</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.66195</v>
+        <v>1.68282</v>
       </c>
       <c r="C114" t="n">
-        <v>1.73084</v>
+        <v>1.70534</v>
       </c>
       <c r="D114" t="n">
-        <v>1.64284</v>
+        <v>1.5941</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.7148</v>
+        <v>1.67008</v>
       </c>
       <c r="C115" t="n">
-        <v>1.70333</v>
+        <v>1.69328</v>
       </c>
       <c r="D115" t="n">
-        <v>1.58858</v>
+        <v>1.59401</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.68588</v>
+        <v>1.68499</v>
       </c>
       <c r="C116" t="n">
-        <v>1.724</v>
+        <v>1.67458</v>
       </c>
       <c r="D116" t="n">
-        <v>1.60913</v>
+        <v>1.62369</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.68576</v>
+        <v>1.67054</v>
       </c>
       <c r="C117" t="n">
-        <v>1.70921</v>
+        <v>1.68924</v>
       </c>
       <c r="D117" t="n">
-        <v>1.59529</v>
+        <v>1.56974</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.66486</v>
+        <v>1.71636</v>
       </c>
       <c r="C118" t="n">
-        <v>1.68433</v>
+        <v>1.66687</v>
       </c>
       <c r="D118" t="n">
-        <v>1.58207</v>
+        <v>1.57984</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.68095</v>
+        <v>1.67966</v>
       </c>
       <c r="C119" t="n">
-        <v>1.69268</v>
+        <v>1.66317</v>
       </c>
       <c r="D119" t="n">
-        <v>1.61389</v>
+        <v>1.58154</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.69387</v>
+        <v>1.72036</v>
       </c>
       <c r="C120" t="n">
-        <v>1.69596</v>
+        <v>1.72211</v>
       </c>
       <c r="D120" t="n">
-        <v>1.59061</v>
+        <v>1.60739</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.67547</v>
+        <v>1.69213</v>
       </c>
       <c r="C121" t="n">
-        <v>1.68698</v>
+        <v>1.69188</v>
       </c>
       <c r="D121" t="n">
-        <v>1.57507</v>
+        <v>1.5702</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.66228</v>
+        <v>1.70655</v>
       </c>
       <c r="C122" t="n">
-        <v>1.69404</v>
+        <v>1.6891</v>
       </c>
       <c r="D122" t="n">
-        <v>1.56336</v>
+        <v>1.57712</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.66659</v>
+        <v>1.70596</v>
       </c>
       <c r="C123" t="n">
-        <v>1.68359</v>
+        <v>1.68026</v>
       </c>
       <c r="D123" t="n">
-        <v>1.83287</v>
+        <v>1.83773</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.9165</v>
+        <v>1.89154</v>
       </c>
       <c r="C124" t="n">
-        <v>1.94397</v>
+        <v>1.95497</v>
       </c>
       <c r="D124" t="n">
-        <v>1.80397</v>
+        <v>1.8369</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.86843</v>
+        <v>1.91572</v>
       </c>
       <c r="C125" t="n">
-        <v>1.92815</v>
+        <v>1.9203</v>
       </c>
       <c r="D125" t="n">
-        <v>1.82304</v>
+        <v>1.82239</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.91482</v>
+        <v>1.92377</v>
       </c>
       <c r="C126" t="n">
-        <v>1.93855</v>
+        <v>1.97071</v>
       </c>
       <c r="D126" t="n">
-        <v>1.81404</v>
+        <v>1.84584</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.94612</v>
+        <v>1.93811</v>
       </c>
       <c r="C127" t="n">
-        <v>1.93172</v>
+        <v>1.92901</v>
       </c>
       <c r="D127" t="n">
-        <v>1.80493</v>
+        <v>1.83263</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.91888</v>
+        <v>1.94845</v>
       </c>
       <c r="C128" t="n">
-        <v>1.90641</v>
+        <v>1.94969</v>
       </c>
       <c r="D128" t="n">
-        <v>1.80963</v>
+        <v>1.84686</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.96102</v>
+        <v>1.92658</v>
       </c>
       <c r="C129" t="n">
-        <v>1.91766</v>
+        <v>1.9252</v>
       </c>
       <c r="D129" t="n">
-        <v>1.79628</v>
+        <v>1.84789</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.94717</v>
+        <v>1.94136</v>
       </c>
       <c r="C130" t="n">
-        <v>1.90656</v>
+        <v>1.91505</v>
       </c>
       <c r="D130" t="n">
-        <v>1.77925</v>
+        <v>1.83315</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.94498</v>
+        <v>1.95332</v>
       </c>
       <c r="C131" t="n">
-        <v>1.91784</v>
+        <v>1.91914</v>
       </c>
       <c r="D131" t="n">
-        <v>1.77918</v>
+        <v>1.81929</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.95086</v>
+        <v>1.97146</v>
       </c>
       <c r="C132" t="n">
-        <v>1.89366</v>
+        <v>1.92922</v>
       </c>
       <c r="D132" t="n">
-        <v>1.78229</v>
+        <v>1.86228</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.96666</v>
+        <v>1.96679</v>
       </c>
       <c r="C133" t="n">
-        <v>1.87454</v>
+        <v>1.92081</v>
       </c>
       <c r="D133" t="n">
-        <v>1.77193</v>
+        <v>1.81902</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.95225</v>
+        <v>1.96352</v>
       </c>
       <c r="C134" t="n">
-        <v>1.89422</v>
+        <v>1.92905</v>
       </c>
       <c r="D134" t="n">
-        <v>1.78312</v>
+        <v>1.82535</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.97241</v>
+        <v>1.99442</v>
       </c>
       <c r="C135" t="n">
-        <v>1.8835</v>
+        <v>1.92924</v>
       </c>
       <c r="D135" t="n">
-        <v>1.76332</v>
+        <v>1.85061</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.00336</v>
+        <v>1.97967</v>
       </c>
       <c r="C136" t="n">
-        <v>1.88373</v>
+        <v>1.95714</v>
       </c>
       <c r="D136" t="n">
-        <v>1.77928</v>
+        <v>1.84843</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.99898</v>
+        <v>1.97198</v>
       </c>
       <c r="C137" t="n">
-        <v>1.89699</v>
+        <v>1.94437</v>
       </c>
       <c r="D137" t="n">
-        <v>2.00947</v>
+        <v>2.10527</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.22197</v>
+        <v>2.22469</v>
       </c>
       <c r="C138" t="n">
-        <v>2.13311</v>
+        <v>2.19779</v>
       </c>
       <c r="D138" t="n">
-        <v>2.03043</v>
+        <v>2.12152</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21493</v>
+        <v>2.24085</v>
       </c>
       <c r="C139" t="n">
-        <v>2.14368</v>
+        <v>2.22515</v>
       </c>
       <c r="D139" t="n">
-        <v>2.01365</v>
+        <v>2.11436</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.2287</v>
+        <v>2.24511</v>
       </c>
       <c r="C140" t="n">
-        <v>2.12266</v>
+        <v>2.22686</v>
       </c>
       <c r="D140" t="n">
-        <v>2.0091</v>
+        <v>2.11755</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.27467</v>
+        <v>2.27718</v>
       </c>
       <c r="C141" t="n">
-        <v>2.12692</v>
+        <v>2.20863</v>
       </c>
       <c r="D141" t="n">
-        <v>2.01231</v>
+        <v>2.13395</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.25053</v>
+        <v>2.26321</v>
       </c>
       <c r="C142" t="n">
-        <v>2.12214</v>
+        <v>2.20073</v>
       </c>
       <c r="D142" t="n">
-        <v>1.98674</v>
+        <v>2.13645</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.25038</v>
+        <v>2.28101</v>
       </c>
       <c r="C143" t="n">
-        <v>2.1056</v>
+        <v>2.21612</v>
       </c>
       <c r="D143" t="n">
-        <v>1.98917</v>
+        <v>2.1527</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9263940000000001</v>
+        <v>0.909771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.937646</v>
+        <v>0.91614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.902671</v>
+        <v>0.896208</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.893884</v>
+        <v>0.903848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.906436</v>
+        <v>0.932298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.903439</v>
+        <v>0.880787</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8774960000000001</v>
+        <v>0.8913489999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.892593</v>
+        <v>0.89816</v>
       </c>
       <c r="D4" t="n">
-        <v>0.879147</v>
+        <v>0.871038</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9215179999999999</v>
+        <v>0.902426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.916261</v>
+        <v>0.948531</v>
       </c>
       <c r="D5" t="n">
-        <v>0.912898</v>
+        <v>0.880854</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.886211</v>
+        <v>0.8718050000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.942105</v>
+        <v>0.890826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.910233</v>
+        <v>0.864146</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.902339</v>
+        <v>0.881643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.899934</v>
+        <v>0.885923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.883852</v>
+        <v>0.879562</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.86071</v>
+        <v>0.8884919999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.885615</v>
+        <v>0.913945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.897271</v>
+        <v>0.866851</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.864217</v>
+        <v>0.87525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.90285</v>
+        <v>0.911057</v>
       </c>
       <c r="D9" t="n">
-        <v>0.99431</v>
+        <v>0.968617</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.003</v>
+        <v>0.9775509999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>1.01208</v>
+        <v>1.0146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.962457</v>
+        <v>0.972757</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.976424</v>
+        <v>0.974552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.988621</v>
+        <v>0.973593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.960185</v>
+        <v>0.948007</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.954217</v>
+        <v>0.958962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.967078</v>
+        <v>0.986493</v>
       </c>
       <c r="D12" t="n">
-        <v>0.980318</v>
+        <v>0.94737</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.94565</v>
+        <v>0.989628</v>
       </c>
       <c r="C13" t="n">
-        <v>0.976421</v>
+        <v>0.979901</v>
       </c>
       <c r="D13" t="n">
-        <v>0.928024</v>
+        <v>0.95192</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.935712</v>
+        <v>0.9300040000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.956549</v>
+        <v>0.950638</v>
       </c>
       <c r="D14" t="n">
-        <v>0.925772</v>
+        <v>0.927596</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.931349</v>
+        <v>0.929243</v>
       </c>
       <c r="C15" t="n">
-        <v>0.968</v>
+        <v>0.946406</v>
       </c>
       <c r="D15" t="n">
-        <v>0.92015</v>
+        <v>0.92858</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.908085</v>
+        <v>0.927905</v>
       </c>
       <c r="C16" t="n">
-        <v>0.944064</v>
+        <v>0.927563</v>
       </c>
       <c r="D16" t="n">
-        <v>0.910599</v>
+        <v>0.9276759999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.926681</v>
+        <v>0.923589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.921673</v>
+        <v>0.939659</v>
       </c>
       <c r="D17" t="n">
-        <v>0.922183</v>
+        <v>0.887795</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.897501</v>
+        <v>0.906287</v>
       </c>
       <c r="C18" t="n">
-        <v>0.904245</v>
+        <v>0.934886</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8945</v>
+        <v>0.8822759999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.890246</v>
+        <v>0.888382</v>
       </c>
       <c r="C19" t="n">
-        <v>0.909836</v>
+        <v>0.92583</v>
       </c>
       <c r="D19" t="n">
-        <v>0.881267</v>
+        <v>0.900257</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.910201</v>
+        <v>0.89339</v>
       </c>
       <c r="C20" t="n">
-        <v>0.899493</v>
+        <v>0.914771</v>
       </c>
       <c r="D20" t="n">
-        <v>0.905381</v>
+        <v>0.886347</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.890504</v>
+        <v>0.901602</v>
       </c>
       <c r="C21" t="n">
-        <v>0.96444</v>
+        <v>0.914581</v>
       </c>
       <c r="D21" t="n">
-        <v>0.895738</v>
+        <v>0.886451</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.873065</v>
+        <v>0.898649</v>
       </c>
       <c r="C22" t="n">
-        <v>0.90268</v>
+        <v>0.89991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.888477</v>
+        <v>0.877955</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.899943</v>
+        <v>0.91086</v>
       </c>
       <c r="C23" t="n">
-        <v>0.942497</v>
+        <v>0.899523</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10077</v>
+        <v>1.12096</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0883</v>
+        <v>1.08381</v>
       </c>
       <c r="C24" t="n">
-        <v>1.08804</v>
+        <v>1.13381</v>
       </c>
       <c r="D24" t="n">
-        <v>1.10011</v>
+        <v>1.08469</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08357</v>
+        <v>1.05439</v>
       </c>
       <c r="C25" t="n">
-        <v>1.08881</v>
+        <v>1.09686</v>
       </c>
       <c r="D25" t="n">
-        <v>1.07943</v>
+        <v>1.06665</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0514</v>
+        <v>1.05051</v>
       </c>
       <c r="C26" t="n">
-        <v>1.05748</v>
+        <v>1.05897</v>
       </c>
       <c r="D26" t="n">
-        <v>1.05996</v>
+        <v>1.05505</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.01995</v>
+        <v>1.03523</v>
       </c>
       <c r="C27" t="n">
-        <v>1.07717</v>
+        <v>1.0358</v>
       </c>
       <c r="D27" t="n">
-        <v>1.07449</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.03002</v>
+        <v>1.00229</v>
       </c>
       <c r="C28" t="n">
-        <v>1.07036</v>
+        <v>1.01514</v>
       </c>
       <c r="D28" t="n">
-        <v>1.03079</v>
+        <v>1.0206</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0017</v>
+        <v>1.00832</v>
       </c>
       <c r="C29" t="n">
-        <v>1.00754</v>
+        <v>1.03072</v>
       </c>
       <c r="D29" t="n">
-        <v>1.02238</v>
+        <v>1.00758</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01236</v>
+        <v>1.0173</v>
       </c>
       <c r="C30" t="n">
-        <v>1.00884</v>
+        <v>1.02793</v>
       </c>
       <c r="D30" t="n">
-        <v>1.01524</v>
+        <v>1.01743</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.988405</v>
+        <v>1.01962</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0047</v>
+        <v>1.01772</v>
       </c>
       <c r="D31" t="n">
-        <v>0.995785</v>
+        <v>0.9920949999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.986327</v>
+        <v>0.989109</v>
       </c>
       <c r="C32" t="n">
-        <v>1.02073</v>
+        <v>0.975266</v>
       </c>
       <c r="D32" t="n">
-        <v>0.976356</v>
+        <v>0.983693</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.96996</v>
+        <v>0.971658</v>
       </c>
       <c r="C33" t="n">
-        <v>0.984029</v>
+        <v>0.965991</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9611769999999999</v>
+        <v>0.991658</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.956357</v>
+        <v>0.9975309999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.969073</v>
+        <v>0.977491</v>
       </c>
       <c r="D34" t="n">
-        <v>0.967962</v>
+        <v>0.952823</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9839599999999999</v>
+        <v>0.976258</v>
       </c>
       <c r="C35" t="n">
-        <v>0.96872</v>
+        <v>0.954985</v>
       </c>
       <c r="D35" t="n">
-        <v>0.962085</v>
+        <v>0.9484860000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.965685</v>
+        <v>0.96216</v>
       </c>
       <c r="C36" t="n">
-        <v>0.94982</v>
+        <v>0.947603</v>
       </c>
       <c r="D36" t="n">
-        <v>0.946124</v>
+        <v>0.969541</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.970061</v>
+        <v>0.9599299999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9615050000000001</v>
+        <v>0.96909</v>
       </c>
       <c r="D37" t="n">
-        <v>1.14612</v>
+        <v>1.14338</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.12946</v>
+        <v>1.19788</v>
       </c>
       <c r="C38" t="n">
-        <v>1.14534</v>
+        <v>1.18345</v>
       </c>
       <c r="D38" t="n">
-        <v>1.13717</v>
+        <v>1.14662</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.15426</v>
+        <v>1.11399</v>
       </c>
       <c r="C39" t="n">
-        <v>1.15415</v>
+        <v>1.13633</v>
       </c>
       <c r="D39" t="n">
-        <v>1.10144</v>
+        <v>1.05871</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.14521</v>
+        <v>1.12619</v>
       </c>
       <c r="C40" t="n">
-        <v>1.139</v>
+        <v>1.16381</v>
       </c>
       <c r="D40" t="n">
-        <v>1.03082</v>
+        <v>1.06608</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.09507</v>
+        <v>1.11992</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12234</v>
+        <v>1.13299</v>
       </c>
       <c r="D41" t="n">
-        <v>1.03019</v>
+        <v>1.03259</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.09325</v>
+        <v>1.08826</v>
       </c>
       <c r="C42" t="n">
-        <v>1.09857</v>
+        <v>1.07824</v>
       </c>
       <c r="D42" t="n">
-        <v>1.03651</v>
+        <v>1.03036</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.08043</v>
+        <v>1.08232</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0731</v>
+        <v>1.08555</v>
       </c>
       <c r="D43" t="n">
-        <v>1.04126</v>
+        <v>1.02635</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.13336</v>
+        <v>1.07076</v>
       </c>
       <c r="C44" t="n">
-        <v>1.08946</v>
+        <v>1.07356</v>
       </c>
       <c r="D44" t="n">
-        <v>1.01056</v>
+        <v>1.01302</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0615</v>
+        <v>1.05177</v>
       </c>
       <c r="C45" t="n">
-        <v>1.05234</v>
+        <v>1.06945</v>
       </c>
       <c r="D45" t="n">
-        <v>0.966935</v>
+        <v>0.995121</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.02217</v>
+        <v>1.06884</v>
       </c>
       <c r="C46" t="n">
-        <v>1.02876</v>
+        <v>1.04824</v>
       </c>
       <c r="D46" t="n">
-        <v>0.988079</v>
+        <v>0.98241</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03526</v>
+        <v>1.02629</v>
       </c>
       <c r="C47" t="n">
-        <v>1.02817</v>
+        <v>1.0462</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9825430000000001</v>
+        <v>1.02728</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0225</v>
+        <v>1.03688</v>
       </c>
       <c r="C48" t="n">
-        <v>1.03543</v>
+        <v>1.04154</v>
       </c>
       <c r="D48" t="n">
-        <v>0.968883</v>
+        <v>0.992635</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02707</v>
+        <v>1.04223</v>
       </c>
       <c r="C49" t="n">
-        <v>1.01495</v>
+        <v>1.01513</v>
       </c>
       <c r="D49" t="n">
-        <v>0.946431</v>
+        <v>0.969592</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.05966</v>
+        <v>1.00324</v>
       </c>
       <c r="C50" t="n">
-        <v>1.00308</v>
+        <v>1.00827</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9669450000000001</v>
+        <v>0.971378</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.996086</v>
+        <v>0.984328</v>
       </c>
       <c r="C51" t="n">
-        <v>0.997017</v>
+        <v>0.991909</v>
       </c>
       <c r="D51" t="n">
-        <v>1.15935</v>
+        <v>1.15491</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.00174</v>
+        <v>1.03918</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01248</v>
+        <v>1.00127</v>
       </c>
       <c r="D52" t="n">
-        <v>1.12958</v>
+        <v>1.1544</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.20282</v>
+        <v>1.2675</v>
       </c>
       <c r="C53" t="n">
-        <v>1.18783</v>
+        <v>1.19082</v>
       </c>
       <c r="D53" t="n">
-        <v>1.13218</v>
+        <v>1.14684</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.15956</v>
+        <v>1.17889</v>
       </c>
       <c r="C54" t="n">
-        <v>1.20754</v>
+        <v>1.17547</v>
       </c>
       <c r="D54" t="n">
-        <v>1.10158</v>
+        <v>1.12047</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.17931</v>
+        <v>1.15454</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17372</v>
+        <v>1.17389</v>
       </c>
       <c r="D55" t="n">
-        <v>1.11372</v>
+        <v>1.10308</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.15437</v>
+        <v>1.14075</v>
       </c>
       <c r="C56" t="n">
-        <v>1.17599</v>
+        <v>1.13623</v>
       </c>
       <c r="D56" t="n">
-        <v>1.08963</v>
+        <v>1.10638</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.11975</v>
+        <v>1.14345</v>
       </c>
       <c r="C57" t="n">
-        <v>1.11889</v>
+        <v>1.14617</v>
       </c>
       <c r="D57" t="n">
-        <v>1.06853</v>
+        <v>1.10452</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.1215</v>
+        <v>1.13098</v>
       </c>
       <c r="C58" t="n">
-        <v>1.11371</v>
+        <v>1.14506</v>
       </c>
       <c r="D58" t="n">
-        <v>1.09078</v>
+        <v>1.09239</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.15018</v>
+        <v>1.08908</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11406</v>
+        <v>1.11311</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0454</v>
+        <v>1.0884</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.10837</v>
+        <v>1.10636</v>
       </c>
       <c r="C60" t="n">
-        <v>1.1006</v>
+        <v>1.11416</v>
       </c>
       <c r="D60" t="n">
-        <v>1.06109</v>
+        <v>1.04358</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.13049</v>
+        <v>1.10128</v>
       </c>
       <c r="C61" t="n">
-        <v>1.09735</v>
+        <v>1.11398</v>
       </c>
       <c r="D61" t="n">
-        <v>1.0565</v>
+        <v>1.10094</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.09185</v>
+        <v>1.11985</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07849</v>
+        <v>1.08981</v>
       </c>
       <c r="D62" t="n">
-        <v>1.03058</v>
+        <v>1.03902</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.09703</v>
+        <v>1.06818</v>
       </c>
       <c r="C63" t="n">
-        <v>1.08873</v>
+        <v>1.06635</v>
       </c>
       <c r="D63" t="n">
-        <v>1.02956</v>
+        <v>1.03933</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.11193</v>
+        <v>1.06973</v>
       </c>
       <c r="C64" t="n">
-        <v>1.08607</v>
+        <v>1.08608</v>
       </c>
       <c r="D64" t="n">
-        <v>1.04069</v>
+        <v>1.03736</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.04858</v>
+        <v>1.0479</v>
       </c>
       <c r="C65" t="n">
-        <v>1.06554</v>
+        <v>1.05663</v>
       </c>
       <c r="D65" t="n">
-        <v>1.01488</v>
+        <v>1.00688</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.06807</v>
+        <v>1.07383</v>
       </c>
       <c r="C66" t="n">
-        <v>1.07841</v>
+        <v>1.04194</v>
       </c>
       <c r="D66" t="n">
-        <v>1.23192</v>
+        <v>1.23776</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.26363</v>
+        <v>1.25522</v>
       </c>
       <c r="C67" t="n">
-        <v>1.28056</v>
+        <v>1.27735</v>
       </c>
       <c r="D67" t="n">
-        <v>1.21422</v>
+        <v>1.23522</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.24502</v>
+        <v>1.25782</v>
       </c>
       <c r="C68" t="n">
-        <v>1.24972</v>
+        <v>1.30207</v>
       </c>
       <c r="D68" t="n">
-        <v>1.21677</v>
+        <v>1.23476</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.25409</v>
+        <v>1.22933</v>
       </c>
       <c r="C69" t="n">
-        <v>1.25899</v>
+        <v>1.29785</v>
       </c>
       <c r="D69" t="n">
-        <v>1.19404</v>
+        <v>1.18632</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.24171</v>
+        <v>1.23999</v>
       </c>
       <c r="C70" t="n">
-        <v>1.26802</v>
+        <v>1.24963</v>
       </c>
       <c r="D70" t="n">
-        <v>1.19688</v>
+        <v>1.19619</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.21535</v>
+        <v>1.22214</v>
       </c>
       <c r="C71" t="n">
-        <v>1.23012</v>
+        <v>1.25426</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19375</v>
+        <v>1.19024</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.22288</v>
+        <v>1.19916</v>
       </c>
       <c r="C72" t="n">
-        <v>1.22663</v>
+        <v>1.20631</v>
       </c>
       <c r="D72" t="n">
-        <v>1.15267</v>
+        <v>1.19671</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.21762</v>
+        <v>1.19483</v>
       </c>
       <c r="C73" t="n">
-        <v>1.20845</v>
+        <v>1.18647</v>
       </c>
       <c r="D73" t="n">
-        <v>1.16061</v>
+        <v>1.14667</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.1919</v>
+        <v>1.20812</v>
       </c>
       <c r="C74" t="n">
-        <v>1.23711</v>
+        <v>1.21671</v>
       </c>
       <c r="D74" t="n">
-        <v>1.17052</v>
+        <v>1.16001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17127</v>
+        <v>1.16987</v>
       </c>
       <c r="C75" t="n">
-        <v>1.19915</v>
+        <v>1.18035</v>
       </c>
       <c r="D75" t="n">
-        <v>1.1425</v>
+        <v>1.15168</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.18172</v>
+        <v>1.17454</v>
       </c>
       <c r="C76" t="n">
-        <v>1.22065</v>
+        <v>1.17399</v>
       </c>
       <c r="D76" t="n">
-        <v>1.12904</v>
+        <v>1.13541</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.17402</v>
+        <v>1.16574</v>
       </c>
       <c r="C77" t="n">
-        <v>1.17993</v>
+        <v>1.17689</v>
       </c>
       <c r="D77" t="n">
-        <v>1.13726</v>
+        <v>1.13254</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.1897</v>
+        <v>1.17725</v>
       </c>
       <c r="C78" t="n">
-        <v>1.19406</v>
+        <v>1.16513</v>
       </c>
       <c r="D78" t="n">
-        <v>1.1201</v>
+        <v>1.12352</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.16306</v>
+        <v>1.16464</v>
       </c>
       <c r="C79" t="n">
-        <v>1.16136</v>
+        <v>1.20182</v>
       </c>
       <c r="D79" t="n">
-        <v>1.14052</v>
+        <v>1.13111</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15344</v>
+        <v>1.15914</v>
       </c>
       <c r="C80" t="n">
-        <v>1.18958</v>
+        <v>1.17225</v>
       </c>
       <c r="D80" t="n">
-        <v>1.38417</v>
+        <v>1.35155</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.38275</v>
+        <v>1.36324</v>
       </c>
       <c r="C81" t="n">
-        <v>1.41648</v>
+        <v>1.4472</v>
       </c>
       <c r="D81" t="n">
-        <v>1.38154</v>
+        <v>1.35264</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.37253</v>
+        <v>1.39324</v>
       </c>
       <c r="C82" t="n">
-        <v>1.41322</v>
+        <v>1.38086</v>
       </c>
       <c r="D82" t="n">
-        <v>1.33567</v>
+        <v>1.34516</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.3538</v>
+        <v>1.37437</v>
       </c>
       <c r="C83" t="n">
-        <v>1.39607</v>
+        <v>1.41777</v>
       </c>
       <c r="D83" t="n">
-        <v>1.34719</v>
+        <v>1.34188</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.32797</v>
+        <v>1.33908</v>
       </c>
       <c r="C84" t="n">
-        <v>1.36727</v>
+        <v>1.35617</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33615</v>
+        <v>1.34111</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.3213</v>
+        <v>1.34137</v>
       </c>
       <c r="C85" t="n">
-        <v>1.35269</v>
+        <v>1.38071</v>
       </c>
       <c r="D85" t="n">
-        <v>1.32752</v>
+        <v>1.31798</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.34839</v>
+        <v>1.35551</v>
       </c>
       <c r="C86" t="n">
-        <v>1.34219</v>
+        <v>1.37177</v>
       </c>
       <c r="D86" t="n">
-        <v>1.30406</v>
+        <v>1.30843</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.32508</v>
+        <v>1.32328</v>
       </c>
       <c r="C87" t="n">
-        <v>1.34726</v>
+        <v>1.31878</v>
       </c>
       <c r="D87" t="n">
-        <v>1.28641</v>
+        <v>1.28203</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.32864</v>
+        <v>1.30698</v>
       </c>
       <c r="C88" t="n">
-        <v>1.33276</v>
+        <v>1.31008</v>
       </c>
       <c r="D88" t="n">
-        <v>1.29109</v>
+        <v>1.28529</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.35328</v>
+        <v>1.33532</v>
       </c>
       <c r="C89" t="n">
-        <v>1.32989</v>
+        <v>1.30137</v>
       </c>
       <c r="D89" t="n">
-        <v>1.28765</v>
+        <v>1.26261</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.32571</v>
+        <v>1.31201</v>
       </c>
       <c r="C90" t="n">
-        <v>1.32486</v>
+        <v>1.29013</v>
       </c>
       <c r="D90" t="n">
-        <v>1.26723</v>
+        <v>1.24269</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.32229</v>
+        <v>1.33178</v>
       </c>
       <c r="C91" t="n">
-        <v>1.30468</v>
+        <v>1.30615</v>
       </c>
       <c r="D91" t="n">
-        <v>1.2527</v>
+        <v>1.28839</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.29097</v>
+        <v>1.29224</v>
       </c>
       <c r="C92" t="n">
-        <v>1.29761</v>
+        <v>1.29839</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26206</v>
+        <v>1.25766</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.30569</v>
+        <v>1.30926</v>
       </c>
       <c r="C93" t="n">
-        <v>1.28614</v>
+        <v>1.26707</v>
       </c>
       <c r="D93" t="n">
-        <v>1.25654</v>
+        <v>1.24906</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.33682</v>
+        <v>1.28426</v>
       </c>
       <c r="C94" t="n">
-        <v>1.28347</v>
+        <v>1.28975</v>
       </c>
       <c r="D94" t="n">
-        <v>1.49226</v>
+        <v>1.48687</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.52878</v>
+        <v>1.5076</v>
       </c>
       <c r="C95" t="n">
-        <v>1.54657</v>
+        <v>1.51058</v>
       </c>
       <c r="D95" t="n">
-        <v>1.51149</v>
+        <v>1.48313</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.50555</v>
+        <v>1.51748</v>
       </c>
       <c r="C96" t="n">
-        <v>1.55732</v>
+        <v>1.53672</v>
       </c>
       <c r="D96" t="n">
-        <v>1.49352</v>
+        <v>1.47295</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.52155</v>
+        <v>1.4956</v>
       </c>
       <c r="C97" t="n">
-        <v>1.52831</v>
+        <v>1.5376</v>
       </c>
       <c r="D97" t="n">
-        <v>1.44971</v>
+        <v>1.44301</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.50645</v>
+        <v>1.51816</v>
       </c>
       <c r="C98" t="n">
-        <v>1.52924</v>
+        <v>1.52942</v>
       </c>
       <c r="D98" t="n">
-        <v>1.45667</v>
+        <v>1.47443</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.49187</v>
+        <v>1.49698</v>
       </c>
       <c r="C99" t="n">
-        <v>1.52227</v>
+        <v>1.52939</v>
       </c>
       <c r="D99" t="n">
-        <v>1.43174</v>
+        <v>1.45003</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.47354</v>
+        <v>1.52202</v>
       </c>
       <c r="C100" t="n">
-        <v>1.49212</v>
+        <v>1.48964</v>
       </c>
       <c r="D100" t="n">
-        <v>1.45472</v>
+        <v>1.45416</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.48752</v>
+        <v>1.47886</v>
       </c>
       <c r="C101" t="n">
-        <v>1.51136</v>
+        <v>1.47909</v>
       </c>
       <c r="D101" t="n">
-        <v>1.41896</v>
+        <v>1.45366</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.46398</v>
+        <v>1.47961</v>
       </c>
       <c r="C102" t="n">
-        <v>1.45963</v>
+        <v>1.46632</v>
       </c>
       <c r="D102" t="n">
-        <v>1.44702</v>
+        <v>1.43185</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.45788</v>
+        <v>1.50311</v>
       </c>
       <c r="C103" t="n">
-        <v>1.48838</v>
+        <v>1.51778</v>
       </c>
       <c r="D103" t="n">
-        <v>1.44135</v>
+        <v>1.42687</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48648</v>
+        <v>1.45735</v>
       </c>
       <c r="C104" t="n">
-        <v>1.46693</v>
+        <v>1.4506</v>
       </c>
       <c r="D104" t="n">
-        <v>1.41582</v>
+        <v>1.43994</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.48745</v>
+        <v>1.45485</v>
       </c>
       <c r="C105" t="n">
-        <v>1.53302</v>
+        <v>1.45987</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39106</v>
+        <v>1.39618</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.47579</v>
+        <v>1.47635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.48439</v>
+        <v>1.45449</v>
       </c>
       <c r="D106" t="n">
-        <v>1.38735</v>
+        <v>1.38717</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.43169</v>
+        <v>1.44396</v>
       </c>
       <c r="C107" t="n">
-        <v>1.4739</v>
+        <v>1.46592</v>
       </c>
       <c r="D107" t="n">
-        <v>1.37967</v>
+        <v>1.40955</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.42992</v>
+        <v>1.44154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.45308</v>
+        <v>1.46394</v>
       </c>
       <c r="D108" t="n">
-        <v>1.61871</v>
+        <v>1.68343</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.46543</v>
+        <v>1.46016</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49842</v>
+        <v>1.44914</v>
       </c>
       <c r="D109" t="n">
-        <v>1.70507</v>
+        <v>1.65386</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.6915</v>
+        <v>1.65515</v>
       </c>
       <c r="C110" t="n">
-        <v>1.69729</v>
+        <v>1.70098</v>
       </c>
       <c r="D110" t="n">
-        <v>1.62767</v>
+        <v>1.6313</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.70913</v>
+        <v>1.67393</v>
       </c>
       <c r="C111" t="n">
-        <v>1.71731</v>
+        <v>1.6972</v>
       </c>
       <c r="D111" t="n">
-        <v>1.61244</v>
+        <v>1.61304</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.67831</v>
+        <v>1.71912</v>
       </c>
       <c r="C112" t="n">
-        <v>1.68764</v>
+        <v>1.72726</v>
       </c>
       <c r="D112" t="n">
-        <v>1.60599</v>
+        <v>1.61249</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.7089</v>
+        <v>1.68716</v>
       </c>
       <c r="C113" t="n">
-        <v>1.70434</v>
+        <v>1.68937</v>
       </c>
       <c r="D113" t="n">
-        <v>1.62093</v>
+        <v>1.58405</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.68282</v>
+        <v>1.69132</v>
       </c>
       <c r="C114" t="n">
-        <v>1.70534</v>
+        <v>1.6975</v>
       </c>
       <c r="D114" t="n">
-        <v>1.5941</v>
+        <v>1.60678</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.67008</v>
+        <v>1.68181</v>
       </c>
       <c r="C115" t="n">
-        <v>1.69328</v>
+        <v>1.69774</v>
       </c>
       <c r="D115" t="n">
-        <v>1.59401</v>
+        <v>1.6123</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.68499</v>
+        <v>1.6772</v>
       </c>
       <c r="C116" t="n">
-        <v>1.67458</v>
+        <v>1.67705</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62369</v>
+        <v>1.59963</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.67054</v>
+        <v>1.66424</v>
       </c>
       <c r="C117" t="n">
-        <v>1.68924</v>
+        <v>1.66513</v>
       </c>
       <c r="D117" t="n">
-        <v>1.56974</v>
+        <v>1.57924</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.71636</v>
+        <v>1.6789</v>
       </c>
       <c r="C118" t="n">
-        <v>1.66687</v>
+        <v>1.69608</v>
       </c>
       <c r="D118" t="n">
-        <v>1.57984</v>
+        <v>1.58811</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.67966</v>
+        <v>1.67427</v>
       </c>
       <c r="C119" t="n">
-        <v>1.66317</v>
+        <v>1.6934</v>
       </c>
       <c r="D119" t="n">
-        <v>1.58154</v>
+        <v>1.57831</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.72036</v>
+        <v>1.67672</v>
       </c>
       <c r="C120" t="n">
-        <v>1.72211</v>
+        <v>1.67672</v>
       </c>
       <c r="D120" t="n">
-        <v>1.60739</v>
+        <v>1.59674</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.69213</v>
+        <v>1.67189</v>
       </c>
       <c r="C121" t="n">
-        <v>1.69188</v>
+        <v>1.68436</v>
       </c>
       <c r="D121" t="n">
-        <v>1.5702</v>
+        <v>1.56369</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.70655</v>
+        <v>1.72368</v>
       </c>
       <c r="C122" t="n">
-        <v>1.6891</v>
+        <v>1.69203</v>
       </c>
       <c r="D122" t="n">
-        <v>1.57712</v>
+        <v>1.56963</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.70596</v>
+        <v>1.69995</v>
       </c>
       <c r="C123" t="n">
-        <v>1.68026</v>
+        <v>1.68335</v>
       </c>
       <c r="D123" t="n">
-        <v>1.83773</v>
+        <v>1.86152</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.89154</v>
+        <v>1.91887</v>
       </c>
       <c r="C124" t="n">
-        <v>1.95497</v>
+        <v>1.92923</v>
       </c>
       <c r="D124" t="n">
-        <v>1.8369</v>
+        <v>1.82392</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.91572</v>
+        <v>1.89977</v>
       </c>
       <c r="C125" t="n">
-        <v>1.9203</v>
+        <v>1.93698</v>
       </c>
       <c r="D125" t="n">
-        <v>1.82239</v>
+        <v>1.81029</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.92377</v>
+        <v>1.90808</v>
       </c>
       <c r="C126" t="n">
-        <v>1.97071</v>
+        <v>1.91337</v>
       </c>
       <c r="D126" t="n">
-        <v>1.84584</v>
+        <v>1.83239</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.93811</v>
+        <v>1.93997</v>
       </c>
       <c r="C127" t="n">
-        <v>1.92901</v>
+        <v>1.92128</v>
       </c>
       <c r="D127" t="n">
-        <v>1.83263</v>
+        <v>1.84277</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.94845</v>
+        <v>1.93301</v>
       </c>
       <c r="C128" t="n">
-        <v>1.94969</v>
+        <v>1.93087</v>
       </c>
       <c r="D128" t="n">
-        <v>1.84686</v>
+        <v>1.82436</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.92658</v>
+        <v>1.92964</v>
       </c>
       <c r="C129" t="n">
-        <v>1.9252</v>
+        <v>1.92884</v>
       </c>
       <c r="D129" t="n">
-        <v>1.84789</v>
+        <v>1.80865</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.94136</v>
+        <v>1.93348</v>
       </c>
       <c r="C130" t="n">
-        <v>1.91505</v>
+        <v>1.90711</v>
       </c>
       <c r="D130" t="n">
-        <v>1.83315</v>
+        <v>1.8135</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.95332</v>
+        <v>1.98431</v>
       </c>
       <c r="C131" t="n">
-        <v>1.91914</v>
+        <v>1.95535</v>
       </c>
       <c r="D131" t="n">
-        <v>1.81929</v>
+        <v>1.8204</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.97146</v>
+        <v>1.9756</v>
       </c>
       <c r="C132" t="n">
-        <v>1.92922</v>
+        <v>1.93914</v>
       </c>
       <c r="D132" t="n">
-        <v>1.86228</v>
+        <v>1.84443</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.96679</v>
+        <v>1.95648</v>
       </c>
       <c r="C133" t="n">
-        <v>1.92081</v>
+        <v>1.90794</v>
       </c>
       <c r="D133" t="n">
-        <v>1.81902</v>
+        <v>1.83658</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.96352</v>
+        <v>1.96593</v>
       </c>
       <c r="C134" t="n">
-        <v>1.92905</v>
+        <v>1.94298</v>
       </c>
       <c r="D134" t="n">
-        <v>1.82535</v>
+        <v>1.85678</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.99442</v>
+        <v>1.97304</v>
       </c>
       <c r="C135" t="n">
-        <v>1.92924</v>
+        <v>1.95041</v>
       </c>
       <c r="D135" t="n">
-        <v>1.85061</v>
+        <v>1.85265</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.97967</v>
+        <v>1.99228</v>
       </c>
       <c r="C136" t="n">
-        <v>1.95714</v>
+        <v>1.95046</v>
       </c>
       <c r="D136" t="n">
-        <v>1.84843</v>
+        <v>1.87805</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.97198</v>
+        <v>1.98815</v>
       </c>
       <c r="C137" t="n">
-        <v>1.94437</v>
+        <v>1.94271</v>
       </c>
       <c r="D137" t="n">
-        <v>2.10527</v>
+        <v>2.11267</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.22469</v>
+        <v>2.2345</v>
       </c>
       <c r="C138" t="n">
-        <v>2.19779</v>
+        <v>2.17421</v>
       </c>
       <c r="D138" t="n">
-        <v>2.12152</v>
+        <v>2.11739</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.24085</v>
+        <v>2.25839</v>
       </c>
       <c r="C139" t="n">
-        <v>2.22515</v>
+        <v>2.20103</v>
       </c>
       <c r="D139" t="n">
-        <v>2.11436</v>
+        <v>2.10658</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.24511</v>
+        <v>2.26585</v>
       </c>
       <c r="C140" t="n">
-        <v>2.22686</v>
+        <v>2.21018</v>
       </c>
       <c r="D140" t="n">
-        <v>2.11755</v>
+        <v>2.12768</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.27718</v>
+        <v>2.24662</v>
       </c>
       <c r="C141" t="n">
-        <v>2.20863</v>
+        <v>2.19965</v>
       </c>
       <c r="D141" t="n">
-        <v>2.13395</v>
+        <v>2.10623</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.26321</v>
+        <v>2.25485</v>
       </c>
       <c r="C142" t="n">
-        <v>2.20073</v>
+        <v>2.19064</v>
       </c>
       <c r="D142" t="n">
-        <v>2.13645</v>
+        <v>2.11581</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.28101</v>
+        <v>2.27751</v>
       </c>
       <c r="C143" t="n">
-        <v>2.21612</v>
+        <v>2.20752</v>
       </c>
       <c r="D143" t="n">
-        <v>2.1527</v>
+        <v>2.13416</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.909771</v>
+        <v>0.484686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.91614</v>
+        <v>0.516664</v>
       </c>
       <c r="D2" t="n">
-        <v>0.896208</v>
+        <v>0.477414</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.903848</v>
+        <v>0.469648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.932298</v>
+        <v>0.501658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.880787</v>
+        <v>0.488017</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8913489999999999</v>
+        <v>0.455431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.89816</v>
+        <v>0.469142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.871038</v>
+        <v>0.466807</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.902426</v>
+        <v>0.456819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.948531</v>
+        <v>0.470672</v>
       </c>
       <c r="D5" t="n">
-        <v>0.880854</v>
+        <v>0.457923</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8718050000000001</v>
+        <v>0.467147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.890826</v>
+        <v>0.471853</v>
       </c>
       <c r="D6" t="n">
-        <v>0.864146</v>
+        <v>0.44802</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.881643</v>
+        <v>0.454899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.885923</v>
+        <v>0.46636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.879562</v>
+        <v>0.441789</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8884919999999999</v>
+        <v>0.4617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.913945</v>
+        <v>0.456727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.866851</v>
+        <v>0.444448</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.87525</v>
+        <v>0.452049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.911057</v>
+        <v>0.47483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.968617</v>
+        <v>0.5618069999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9775509999999999</v>
+        <v>0.531598</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0146</v>
+        <v>0.573225</v>
       </c>
       <c r="D10" t="n">
-        <v>0.972757</v>
+        <v>0.541916</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.974552</v>
+        <v>0.535303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.973593</v>
+        <v>0.5669149999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.948007</v>
+        <v>0.536689</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.958962</v>
+        <v>0.550075</v>
       </c>
       <c r="C12" t="n">
-        <v>0.986493</v>
+        <v>0.547605</v>
       </c>
       <c r="D12" t="n">
-        <v>0.94737</v>
+        <v>0.5296920000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.989628</v>
+        <v>0.509443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.979901</v>
+        <v>0.543834</v>
       </c>
       <c r="D13" t="n">
-        <v>0.95192</v>
+        <v>0.522505</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9300040000000001</v>
+        <v>0.531467</v>
       </c>
       <c r="C14" t="n">
-        <v>0.950638</v>
+        <v>0.535274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.927596</v>
+        <v>0.5171289999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.929243</v>
+        <v>0.503332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.946406</v>
+        <v>0.5473170000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.92858</v>
+        <v>0.493151</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.927905</v>
+        <v>0.4964</v>
       </c>
       <c r="C16" t="n">
-        <v>0.927563</v>
+        <v>0.518126</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9276759999999999</v>
+        <v>0.485033</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.923589</v>
+        <v>0.475446</v>
       </c>
       <c r="C17" t="n">
-        <v>0.939659</v>
+        <v>0.502235</v>
       </c>
       <c r="D17" t="n">
-        <v>0.887795</v>
+        <v>0.48568</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.906287</v>
+        <v>0.473235</v>
       </c>
       <c r="C18" t="n">
-        <v>0.934886</v>
+        <v>0.488186</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8822759999999999</v>
+        <v>0.46774</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.888382</v>
+        <v>0.483825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.92583</v>
+        <v>0.485496</v>
       </c>
       <c r="D19" t="n">
-        <v>0.900257</v>
+        <v>0.4665</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.89339</v>
+        <v>0.459487</v>
       </c>
       <c r="C20" t="n">
-        <v>0.914771</v>
+        <v>0.476125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.886347</v>
+        <v>0.457236</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.901602</v>
+        <v>0.468079</v>
       </c>
       <c r="C21" t="n">
-        <v>0.914581</v>
+        <v>0.466543</v>
       </c>
       <c r="D21" t="n">
-        <v>0.886451</v>
+        <v>0.45253</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.898649</v>
+        <v>0.454355</v>
       </c>
       <c r="C22" t="n">
-        <v>0.89991</v>
+        <v>0.472746</v>
       </c>
       <c r="D22" t="n">
-        <v>0.877955</v>
+        <v>0.458514</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.91086</v>
+        <v>0.457194</v>
       </c>
       <c r="C23" t="n">
-        <v>0.899523</v>
+        <v>0.471266</v>
       </c>
       <c r="D23" t="n">
-        <v>1.12096</v>
+        <v>0.677199</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.08381</v>
+        <v>0.6410130000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>1.13381</v>
+        <v>0.656887</v>
       </c>
       <c r="D24" t="n">
-        <v>1.08469</v>
+        <v>0.665745</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.05439</v>
+        <v>0.626297</v>
       </c>
       <c r="C25" t="n">
-        <v>1.09686</v>
+        <v>0.655196</v>
       </c>
       <c r="D25" t="n">
-        <v>1.06665</v>
+        <v>0.659205</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.05051</v>
+        <v>0.621772</v>
       </c>
       <c r="C26" t="n">
-        <v>1.05897</v>
+        <v>0.621681</v>
       </c>
       <c r="D26" t="n">
-        <v>1.05505</v>
+        <v>0.62756</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.03523</v>
+        <v>0.593045</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0358</v>
+        <v>0.612472</v>
       </c>
       <c r="D27" t="n">
-        <v>1.03216</v>
+        <v>0.614923</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.00229</v>
+        <v>0.579437</v>
       </c>
       <c r="C28" t="n">
-        <v>1.01514</v>
+        <v>0.600891</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0206</v>
+        <v>0.610517</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.00832</v>
+        <v>0.572736</v>
       </c>
       <c r="C29" t="n">
-        <v>1.03072</v>
+        <v>0.593186</v>
       </c>
       <c r="D29" t="n">
-        <v>1.00758</v>
+        <v>0.585174</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0173</v>
+        <v>0.56311</v>
       </c>
       <c r="C30" t="n">
-        <v>1.02793</v>
+        <v>0.57308</v>
       </c>
       <c r="D30" t="n">
-        <v>1.01743</v>
+        <v>0.569374</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.01962</v>
+        <v>0.545993</v>
       </c>
       <c r="C31" t="n">
-        <v>1.01772</v>
+        <v>0.5708029999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9920949999999999</v>
+        <v>0.5689959999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.989109</v>
+        <v>0.5390470000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.975266</v>
+        <v>0.56997</v>
       </c>
       <c r="D32" t="n">
-        <v>0.983693</v>
+        <v>0.549565</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.971658</v>
+        <v>0.534286</v>
       </c>
       <c r="C33" t="n">
-        <v>0.965991</v>
+        <v>0.546377</v>
       </c>
       <c r="D33" t="n">
-        <v>0.991658</v>
+        <v>0.540504</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9975309999999999</v>
+        <v>0.536363</v>
       </c>
       <c r="C34" t="n">
-        <v>0.977491</v>
+        <v>0.537547</v>
       </c>
       <c r="D34" t="n">
-        <v>0.952823</v>
+        <v>0.536086</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.976258</v>
+        <v>0.513402</v>
       </c>
       <c r="C35" t="n">
-        <v>0.954985</v>
+        <v>0.5257270000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9484860000000001</v>
+        <v>0.52713</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.96216</v>
+        <v>0.508355</v>
       </c>
       <c r="C36" t="n">
-        <v>0.947603</v>
+        <v>0.527258</v>
       </c>
       <c r="D36" t="n">
-        <v>0.969541</v>
+        <v>0.528988</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9599299999999999</v>
+        <v>0.509171</v>
       </c>
       <c r="C37" t="n">
-        <v>0.96909</v>
+        <v>0.5152409999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.14338</v>
+        <v>0.707952</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.19788</v>
+        <v>0.702454</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18345</v>
+        <v>0.72544</v>
       </c>
       <c r="D38" t="n">
-        <v>1.14662</v>
+        <v>0.7030380000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.11399</v>
+        <v>0.6865830000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>1.13633</v>
+        <v>0.708323</v>
       </c>
       <c r="D39" t="n">
-        <v>1.05871</v>
+        <v>0.670567</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.12619</v>
+        <v>0.667264</v>
       </c>
       <c r="C40" t="n">
-        <v>1.16381</v>
+        <v>0.6957</v>
       </c>
       <c r="D40" t="n">
-        <v>1.06608</v>
+        <v>0.607796</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.11992</v>
+        <v>0.651126</v>
       </c>
       <c r="C41" t="n">
-        <v>1.13299</v>
+        <v>0.670851</v>
       </c>
       <c r="D41" t="n">
-        <v>1.03259</v>
+        <v>0.585745</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.08826</v>
+        <v>0.641999</v>
       </c>
       <c r="C42" t="n">
-        <v>1.07824</v>
+        <v>0.663863</v>
       </c>
       <c r="D42" t="n">
-        <v>1.03036</v>
+        <v>0.587711</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.08232</v>
+        <v>0.625516</v>
       </c>
       <c r="C43" t="n">
-        <v>1.08555</v>
+        <v>0.633887</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02635</v>
+        <v>0.566629</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.07076</v>
+        <v>0.622192</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07356</v>
+        <v>0.634721</v>
       </c>
       <c r="D44" t="n">
-        <v>1.01302</v>
+        <v>0.565185</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.05177</v>
+        <v>0.597423</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06945</v>
+        <v>0.632251</v>
       </c>
       <c r="D45" t="n">
-        <v>0.995121</v>
+        <v>0.555798</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.06884</v>
+        <v>0.592201</v>
       </c>
       <c r="C46" t="n">
-        <v>1.04824</v>
+        <v>0.613398</v>
       </c>
       <c r="D46" t="n">
-        <v>0.98241</v>
+        <v>0.535722</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.02629</v>
+        <v>0.567502</v>
       </c>
       <c r="C47" t="n">
-        <v>1.0462</v>
+        <v>0.589357</v>
       </c>
       <c r="D47" t="n">
-        <v>1.02728</v>
+        <v>0.532285</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.03688</v>
+        <v>0.573076</v>
       </c>
       <c r="C48" t="n">
-        <v>1.04154</v>
+        <v>0.598865</v>
       </c>
       <c r="D48" t="n">
-        <v>0.992635</v>
+        <v>0.532583</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.04223</v>
+        <v>0.562157</v>
       </c>
       <c r="C49" t="n">
-        <v>1.01513</v>
+        <v>0.567403</v>
       </c>
       <c r="D49" t="n">
-        <v>0.969592</v>
+        <v>0.530495</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.00324</v>
+        <v>0.555002</v>
       </c>
       <c r="C50" t="n">
-        <v>1.00827</v>
+        <v>0.561244</v>
       </c>
       <c r="D50" t="n">
-        <v>0.971378</v>
+        <v>0.520916</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.984328</v>
+        <v>0.546535</v>
       </c>
       <c r="C51" t="n">
-        <v>0.991909</v>
+        <v>0.561249</v>
       </c>
       <c r="D51" t="n">
-        <v>1.15491</v>
+        <v>0.725115</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.03918</v>
+        <v>0.547532</v>
       </c>
       <c r="C52" t="n">
-        <v>1.00127</v>
+        <v>0.545558</v>
       </c>
       <c r="D52" t="n">
-        <v>1.1544</v>
+        <v>0.713767</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.2675</v>
+        <v>0.737376</v>
       </c>
       <c r="C53" t="n">
-        <v>1.19082</v>
+        <v>0.732867</v>
       </c>
       <c r="D53" t="n">
-        <v>1.14684</v>
+        <v>0.690528</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.17889</v>
+        <v>0.718662</v>
       </c>
       <c r="C54" t="n">
-        <v>1.17547</v>
+        <v>0.746962</v>
       </c>
       <c r="D54" t="n">
-        <v>1.12047</v>
+        <v>0.6846449999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.15454</v>
+        <v>0.6944669999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17389</v>
+        <v>0.718673</v>
       </c>
       <c r="D55" t="n">
-        <v>1.10308</v>
+        <v>0.667669</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.14075</v>
+        <v>0.677488</v>
       </c>
       <c r="C56" t="n">
-        <v>1.13623</v>
+        <v>0.697491</v>
       </c>
       <c r="D56" t="n">
-        <v>1.10638</v>
+        <v>0.645488</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.14345</v>
+        <v>0.673786</v>
       </c>
       <c r="C57" t="n">
-        <v>1.14617</v>
+        <v>0.682332</v>
       </c>
       <c r="D57" t="n">
-        <v>1.10452</v>
+        <v>0.6282450000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.13098</v>
+        <v>0.645698</v>
       </c>
       <c r="C58" t="n">
-        <v>1.14506</v>
+        <v>0.6674020000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>1.09239</v>
+        <v>0.635194</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.08908</v>
+        <v>0.65147</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11311</v>
+        <v>0.665299</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0884</v>
+        <v>0.611798</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.10636</v>
+        <v>0.641038</v>
       </c>
       <c r="C60" t="n">
-        <v>1.11416</v>
+        <v>0.639537</v>
       </c>
       <c r="D60" t="n">
-        <v>1.04358</v>
+        <v>0.600097</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.10128</v>
+        <v>0.627435</v>
       </c>
       <c r="C61" t="n">
-        <v>1.11398</v>
+        <v>0.649623</v>
       </c>
       <c r="D61" t="n">
-        <v>1.10094</v>
+        <v>0.584319</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.11985</v>
+        <v>0.60715</v>
       </c>
       <c r="C62" t="n">
-        <v>1.08981</v>
+        <v>0.626696</v>
       </c>
       <c r="D62" t="n">
-        <v>1.03902</v>
+        <v>0.580772</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.06818</v>
+        <v>0.601706</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06635</v>
+        <v>0.619265</v>
       </c>
       <c r="D63" t="n">
-        <v>1.03933</v>
+        <v>0.574892</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06973</v>
+        <v>0.600634</v>
       </c>
       <c r="C64" t="n">
-        <v>1.08608</v>
+        <v>0.595321</v>
       </c>
       <c r="D64" t="n">
-        <v>1.03736</v>
+        <v>0.571932</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.0479</v>
+        <v>0.592633</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05663</v>
+        <v>0.592997</v>
       </c>
       <c r="D65" t="n">
-        <v>1.00688</v>
+        <v>0.566033</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.07383</v>
+        <v>0.57411</v>
       </c>
       <c r="C66" t="n">
-        <v>1.04194</v>
+        <v>0.591515</v>
       </c>
       <c r="D66" t="n">
-        <v>1.23776</v>
+        <v>0.78069</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.25522</v>
+        <v>0.77819</v>
       </c>
       <c r="C67" t="n">
-        <v>1.27735</v>
+        <v>0.824362</v>
       </c>
       <c r="D67" t="n">
-        <v>1.23522</v>
+        <v>0.751871</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.25782</v>
+        <v>0.770863</v>
       </c>
       <c r="C68" t="n">
-        <v>1.30207</v>
+        <v>0.796849</v>
       </c>
       <c r="D68" t="n">
-        <v>1.23476</v>
+        <v>0.755561</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.22933</v>
+        <v>0.755012</v>
       </c>
       <c r="C69" t="n">
-        <v>1.29785</v>
+        <v>0.782732</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18632</v>
+        <v>0.730652</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.23999</v>
+        <v>0.750681</v>
       </c>
       <c r="C70" t="n">
-        <v>1.24963</v>
+        <v>0.769713</v>
       </c>
       <c r="D70" t="n">
-        <v>1.19619</v>
+        <v>0.740525</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.22214</v>
+        <v>0.757261</v>
       </c>
       <c r="C71" t="n">
-        <v>1.25426</v>
+        <v>0.771355</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19024</v>
+        <v>0.72161</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.19916</v>
+        <v>0.732548</v>
       </c>
       <c r="C72" t="n">
-        <v>1.20631</v>
+        <v>0.750733</v>
       </c>
       <c r="D72" t="n">
-        <v>1.19671</v>
+        <v>0.72065</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.19483</v>
+        <v>0.7039609999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>1.18647</v>
+        <v>0.7367320000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>1.14667</v>
+        <v>0.697892</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.20812</v>
+        <v>0.689856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.21671</v>
+        <v>0.7235510000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>1.16001</v>
+        <v>0.685524</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.16987</v>
+        <v>0.677099</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18035</v>
+        <v>0.721676</v>
       </c>
       <c r="D75" t="n">
-        <v>1.15168</v>
+        <v>0.671659</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.17454</v>
+        <v>0.694936</v>
       </c>
       <c r="C76" t="n">
-        <v>1.17399</v>
+        <v>0.698337</v>
       </c>
       <c r="D76" t="n">
-        <v>1.13541</v>
+        <v>0.6774559999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.16574</v>
+        <v>0.661334</v>
       </c>
       <c r="C77" t="n">
-        <v>1.17689</v>
+        <v>0.688987</v>
       </c>
       <c r="D77" t="n">
-        <v>1.13254</v>
+        <v>0.672199</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.17725</v>
+        <v>0.665351</v>
       </c>
       <c r="C78" t="n">
-        <v>1.16513</v>
+        <v>0.681692</v>
       </c>
       <c r="D78" t="n">
-        <v>1.12352</v>
+        <v>0.6750080000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.16464</v>
+        <v>0.679018</v>
       </c>
       <c r="C79" t="n">
-        <v>1.20182</v>
+        <v>0.674526</v>
       </c>
       <c r="D79" t="n">
-        <v>1.13111</v>
+        <v>0.663488</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15914</v>
+        <v>0.673779</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17225</v>
+        <v>0.695475</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35155</v>
+        <v>0.879432</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.36324</v>
+        <v>0.854243</v>
       </c>
       <c r="C81" t="n">
-        <v>1.4472</v>
+        <v>0.926444</v>
       </c>
       <c r="D81" t="n">
-        <v>1.35264</v>
+        <v>0.864496</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.39324</v>
+        <v>0.869347</v>
       </c>
       <c r="C82" t="n">
-        <v>1.38086</v>
+        <v>0.909578</v>
       </c>
       <c r="D82" t="n">
-        <v>1.34516</v>
+        <v>0.872969</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.37437</v>
+        <v>0.856347</v>
       </c>
       <c r="C83" t="n">
-        <v>1.41777</v>
+        <v>0.895241</v>
       </c>
       <c r="D83" t="n">
-        <v>1.34188</v>
+        <v>0.8559639999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.33908</v>
+        <v>0.864997</v>
       </c>
       <c r="C84" t="n">
-        <v>1.35617</v>
+        <v>0.923513</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34111</v>
+        <v>0.850455</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.34137</v>
+        <v>0.841188</v>
       </c>
       <c r="C85" t="n">
-        <v>1.38071</v>
+        <v>0.8671759999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>1.31798</v>
+        <v>0.851806</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.35551</v>
+        <v>0.813791</v>
       </c>
       <c r="C86" t="n">
-        <v>1.37177</v>
+        <v>0.86028</v>
       </c>
       <c r="D86" t="n">
-        <v>1.30843</v>
+        <v>0.819555</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.32328</v>
+        <v>0.805082</v>
       </c>
       <c r="C87" t="n">
-        <v>1.31878</v>
+        <v>0.832188</v>
       </c>
       <c r="D87" t="n">
-        <v>1.28203</v>
+        <v>0.815469</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.30698</v>
+        <v>0.787345</v>
       </c>
       <c r="C88" t="n">
-        <v>1.31008</v>
+        <v>0.853554</v>
       </c>
       <c r="D88" t="n">
-        <v>1.28529</v>
+        <v>0.802787</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.33532</v>
+        <v>0.786632</v>
       </c>
       <c r="C89" t="n">
-        <v>1.30137</v>
+        <v>0.8155250000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26261</v>
+        <v>0.778473</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.31201</v>
+        <v>0.7771</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29013</v>
+        <v>0.836172</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24269</v>
+        <v>0.768706</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.33178</v>
+        <v>0.774466</v>
       </c>
       <c r="C91" t="n">
-        <v>1.30615</v>
+        <v>0.822419</v>
       </c>
       <c r="D91" t="n">
-        <v>1.28839</v>
+        <v>0.783519</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.29224</v>
+        <v>0.757744</v>
       </c>
       <c r="C92" t="n">
-        <v>1.29839</v>
+        <v>0.80418</v>
       </c>
       <c r="D92" t="n">
-        <v>1.25766</v>
+        <v>0.765132</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.30926</v>
+        <v>0.764337</v>
       </c>
       <c r="C93" t="n">
-        <v>1.26707</v>
+        <v>0.812154</v>
       </c>
       <c r="D93" t="n">
-        <v>1.24906</v>
+        <v>0.783636</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.28426</v>
+        <v>0.758541</v>
       </c>
       <c r="C94" t="n">
-        <v>1.28975</v>
+        <v>0.783509</v>
       </c>
       <c r="D94" t="n">
-        <v>1.48687</v>
+        <v>0.9987780000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.5076</v>
+        <v>0.9696360000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>1.51058</v>
+        <v>1.03006</v>
       </c>
       <c r="D95" t="n">
-        <v>1.48313</v>
+        <v>0.991594</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.51748</v>
+        <v>0.954879</v>
       </c>
       <c r="C96" t="n">
-        <v>1.53672</v>
+        <v>1.045</v>
       </c>
       <c r="D96" t="n">
-        <v>1.47295</v>
+        <v>0.9927859999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.4956</v>
+        <v>0.969988</v>
       </c>
       <c r="C97" t="n">
-        <v>1.5376</v>
+        <v>1.02192</v>
       </c>
       <c r="D97" t="n">
-        <v>1.44301</v>
+        <v>0.9683619999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.51816</v>
+        <v>0.957404</v>
       </c>
       <c r="C98" t="n">
-        <v>1.52942</v>
+        <v>1.01268</v>
       </c>
       <c r="D98" t="n">
-        <v>1.47443</v>
+        <v>0.961614</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.49698</v>
+        <v>0.934549</v>
       </c>
       <c r="C99" t="n">
-        <v>1.52939</v>
+        <v>0.981594</v>
       </c>
       <c r="D99" t="n">
-        <v>1.45003</v>
+        <v>0.947693</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.52202</v>
+        <v>0.918924</v>
       </c>
       <c r="C100" t="n">
-        <v>1.48964</v>
+        <v>0.9887010000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>1.45416</v>
+        <v>0.962583</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.47886</v>
+        <v>0.937223</v>
       </c>
       <c r="C101" t="n">
-        <v>1.47909</v>
+        <v>0.997763</v>
       </c>
       <c r="D101" t="n">
-        <v>1.45366</v>
+        <v>0.922279</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.47961</v>
+        <v>0.945102</v>
       </c>
       <c r="C102" t="n">
-        <v>1.46632</v>
+        <v>0.993116</v>
       </c>
       <c r="D102" t="n">
-        <v>1.43185</v>
+        <v>0.908265</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.50311</v>
+        <v>0.91754</v>
       </c>
       <c r="C103" t="n">
-        <v>1.51778</v>
+        <v>0.96976</v>
       </c>
       <c r="D103" t="n">
-        <v>1.42687</v>
+        <v>0.926732</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.45735</v>
+        <v>0.904037</v>
       </c>
       <c r="C104" t="n">
-        <v>1.4506</v>
+        <v>0.943901</v>
       </c>
       <c r="D104" t="n">
-        <v>1.43994</v>
+        <v>0.915645</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.45485</v>
+        <v>0.909567</v>
       </c>
       <c r="C105" t="n">
-        <v>1.45987</v>
+        <v>0.9608179999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39618</v>
+        <v>0.899891</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.47635</v>
+        <v>0.913292</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45449</v>
+        <v>0.97612</v>
       </c>
       <c r="D106" t="n">
-        <v>1.38717</v>
+        <v>0.917857</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.44396</v>
+        <v>0.906204</v>
       </c>
       <c r="C107" t="n">
-        <v>1.46592</v>
+        <v>0.951183</v>
       </c>
       <c r="D107" t="n">
-        <v>1.40955</v>
+        <v>0.893328</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.44154</v>
+        <v>0.897659</v>
       </c>
       <c r="C108" t="n">
-        <v>1.46394</v>
+        <v>0.9472660000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>1.68343</v>
+        <v>1.18609</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.46016</v>
+        <v>0.872793</v>
       </c>
       <c r="C109" t="n">
-        <v>1.44914</v>
+        <v>0.9273</v>
       </c>
       <c r="D109" t="n">
-        <v>1.65386</v>
+        <v>1.13479</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.65515</v>
+        <v>1.09302</v>
       </c>
       <c r="C110" t="n">
-        <v>1.70098</v>
+        <v>1.18046</v>
       </c>
       <c r="D110" t="n">
-        <v>1.6313</v>
+        <v>1.10432</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.67393</v>
+        <v>1.09639</v>
       </c>
       <c r="C111" t="n">
-        <v>1.6972</v>
+        <v>1.16974</v>
       </c>
       <c r="D111" t="n">
-        <v>1.61304</v>
+        <v>1.0939</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.71912</v>
+        <v>1.09154</v>
       </c>
       <c r="C112" t="n">
-        <v>1.72726</v>
+        <v>1.1769</v>
       </c>
       <c r="D112" t="n">
-        <v>1.61249</v>
+        <v>1.10658</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.68716</v>
+        <v>1.08807</v>
       </c>
       <c r="C113" t="n">
-        <v>1.68937</v>
+        <v>1.14728</v>
       </c>
       <c r="D113" t="n">
-        <v>1.58405</v>
+        <v>1.09072</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.69132</v>
+        <v>1.08596</v>
       </c>
       <c r="C114" t="n">
-        <v>1.6975</v>
+        <v>1.18182</v>
       </c>
       <c r="D114" t="n">
-        <v>1.60678</v>
+        <v>1.08938</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.68181</v>
+        <v>1.08954</v>
       </c>
       <c r="C115" t="n">
-        <v>1.69774</v>
+        <v>1.1675</v>
       </c>
       <c r="D115" t="n">
-        <v>1.6123</v>
+        <v>1.07055</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.6772</v>
+        <v>1.07237</v>
       </c>
       <c r="C116" t="n">
-        <v>1.67705</v>
+        <v>1.15664</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59963</v>
+        <v>1.06119</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.66424</v>
+        <v>1.07739</v>
       </c>
       <c r="C117" t="n">
-        <v>1.66513</v>
+        <v>1.14328</v>
       </c>
       <c r="D117" t="n">
-        <v>1.57924</v>
+        <v>1.06759</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.6789</v>
+        <v>1.0791</v>
       </c>
       <c r="C118" t="n">
-        <v>1.69608</v>
+        <v>1.12623</v>
       </c>
       <c r="D118" t="n">
-        <v>1.58811</v>
+        <v>1.06585</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.67427</v>
+        <v>1.0692</v>
       </c>
       <c r="C119" t="n">
-        <v>1.6934</v>
+        <v>1.12852</v>
       </c>
       <c r="D119" t="n">
-        <v>1.57831</v>
+        <v>1.03251</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.67672</v>
+        <v>1.08816</v>
       </c>
       <c r="C120" t="n">
-        <v>1.67672</v>
+        <v>1.14033</v>
       </c>
       <c r="D120" t="n">
-        <v>1.59674</v>
+        <v>1.04101</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.67189</v>
+        <v>1.10159</v>
       </c>
       <c r="C121" t="n">
-        <v>1.68436</v>
+        <v>1.12522</v>
       </c>
       <c r="D121" t="n">
-        <v>1.56369</v>
+        <v>1.06432</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.72368</v>
+        <v>1.08471</v>
       </c>
       <c r="C122" t="n">
-        <v>1.69203</v>
+        <v>1.13447</v>
       </c>
       <c r="D122" t="n">
-        <v>1.56963</v>
+        <v>1.06021</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.69995</v>
+        <v>1.08289</v>
       </c>
       <c r="C123" t="n">
-        <v>1.68335</v>
+        <v>1.1516</v>
       </c>
       <c r="D123" t="n">
-        <v>1.86152</v>
+        <v>1.29417</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.91887</v>
+        <v>1.33332</v>
       </c>
       <c r="C124" t="n">
-        <v>1.92923</v>
+        <v>1.40465</v>
       </c>
       <c r="D124" t="n">
-        <v>1.82392</v>
+        <v>1.2964</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.89977</v>
+        <v>1.31306</v>
       </c>
       <c r="C125" t="n">
-        <v>1.93698</v>
+        <v>1.38865</v>
       </c>
       <c r="D125" t="n">
-        <v>1.81029</v>
+        <v>1.29648</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.90808</v>
+        <v>1.31857</v>
       </c>
       <c r="C126" t="n">
-        <v>1.91337</v>
+        <v>1.3904</v>
       </c>
       <c r="D126" t="n">
-        <v>1.83239</v>
+        <v>1.28044</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.93997</v>
+        <v>1.3045</v>
       </c>
       <c r="C127" t="n">
-        <v>1.92128</v>
+        <v>1.40518</v>
       </c>
       <c r="D127" t="n">
-        <v>1.84277</v>
+        <v>1.29207</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.93301</v>
+        <v>1.32401</v>
       </c>
       <c r="C128" t="n">
-        <v>1.93087</v>
+        <v>1.38812</v>
       </c>
       <c r="D128" t="n">
-        <v>1.82436</v>
+        <v>1.28944</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.92964</v>
+        <v>1.31251</v>
       </c>
       <c r="C129" t="n">
-        <v>1.92884</v>
+        <v>1.38832</v>
       </c>
       <c r="D129" t="n">
-        <v>1.80865</v>
+        <v>1.3001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.93348</v>
+        <v>1.31268</v>
       </c>
       <c r="C130" t="n">
-        <v>1.90711</v>
+        <v>1.36293</v>
       </c>
       <c r="D130" t="n">
-        <v>1.8135</v>
+        <v>1.31604</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.98431</v>
+        <v>1.31799</v>
       </c>
       <c r="C131" t="n">
-        <v>1.95535</v>
+        <v>1.37249</v>
       </c>
       <c r="D131" t="n">
-        <v>1.8204</v>
+        <v>1.29681</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.9756</v>
+        <v>1.31715</v>
       </c>
       <c r="C132" t="n">
-        <v>1.93914</v>
+        <v>1.38297</v>
       </c>
       <c r="D132" t="n">
-        <v>1.84443</v>
+        <v>1.29099</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.95648</v>
+        <v>1.31821</v>
       </c>
       <c r="C133" t="n">
-        <v>1.90794</v>
+        <v>1.36523</v>
       </c>
       <c r="D133" t="n">
-        <v>1.83658</v>
+        <v>1.27526</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.96593</v>
+        <v>1.31242</v>
       </c>
       <c r="C134" t="n">
-        <v>1.94298</v>
+        <v>1.37923</v>
       </c>
       <c r="D134" t="n">
-        <v>1.85678</v>
+        <v>1.30097</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.97304</v>
+        <v>1.3224</v>
       </c>
       <c r="C135" t="n">
-        <v>1.95041</v>
+        <v>1.37599</v>
       </c>
       <c r="D135" t="n">
-        <v>1.85265</v>
+        <v>1.30782</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.99228</v>
+        <v>1.34728</v>
       </c>
       <c r="C136" t="n">
-        <v>1.95046</v>
+        <v>1.3756</v>
       </c>
       <c r="D136" t="n">
-        <v>1.87805</v>
+        <v>1.32231</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.98815</v>
+        <v>1.34984</v>
       </c>
       <c r="C137" t="n">
-        <v>1.94271</v>
+        <v>1.39779</v>
       </c>
       <c r="D137" t="n">
-        <v>2.11267</v>
+        <v>1.55838</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.2345</v>
+        <v>1.54569</v>
       </c>
       <c r="C138" t="n">
-        <v>2.17421</v>
+        <v>1.62784</v>
       </c>
       <c r="D138" t="n">
-        <v>2.11739</v>
+        <v>1.56439</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.25839</v>
+        <v>1.56938</v>
       </c>
       <c r="C139" t="n">
-        <v>2.20103</v>
+        <v>1.65084</v>
       </c>
       <c r="D139" t="n">
-        <v>2.10658</v>
+        <v>1.57322</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.26585</v>
+        <v>1.59492</v>
       </c>
       <c r="C140" t="n">
-        <v>2.21018</v>
+        <v>1.64159</v>
       </c>
       <c r="D140" t="n">
-        <v>2.12768</v>
+        <v>1.56577</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.24662</v>
+        <v>1.56901</v>
       </c>
       <c r="C141" t="n">
-        <v>2.19965</v>
+        <v>1.64928</v>
       </c>
       <c r="D141" t="n">
-        <v>2.10623</v>
+        <v>1.56953</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.25485</v>
+        <v>1.58894</v>
       </c>
       <c r="C142" t="n">
-        <v>2.19064</v>
+        <v>1.65429</v>
       </c>
       <c r="D142" t="n">
-        <v>2.11581</v>
+        <v>1.57996</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.27751</v>
+        <v>1.58611</v>
       </c>
       <c r="C143" t="n">
-        <v>2.20752</v>
+        <v>1.64407</v>
       </c>
       <c r="D143" t="n">
-        <v>2.13416</v>
+        <v>1.56779</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.484686</v>
+        <v>0.477978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.516664</v>
+        <v>0.466047</v>
       </c>
       <c r="D2" t="n">
-        <v>0.477414</v>
+        <v>0.485291</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.469648</v>
+        <v>0.466631</v>
       </c>
       <c r="C3" t="n">
-        <v>0.501658</v>
+        <v>0.485594</v>
       </c>
       <c r="D3" t="n">
-        <v>0.488017</v>
+        <v>0.467627</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.455431</v>
+        <v>0.469371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.469142</v>
+        <v>0.465549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.466807</v>
+        <v>0.46757</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.456819</v>
+        <v>0.47242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.470672</v>
+        <v>0.462749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.457923</v>
+        <v>0.462768</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.467147</v>
+        <v>0.457443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.471853</v>
+        <v>0.445815</v>
       </c>
       <c r="D6" t="n">
-        <v>0.44802</v>
+        <v>0.447247</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.454899</v>
+        <v>0.461796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.46636</v>
+        <v>0.448201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.441789</v>
+        <v>0.457345</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4617</v>
+        <v>0.465072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.456727</v>
+        <v>0.442678</v>
       </c>
       <c r="D8" t="n">
-        <v>0.444448</v>
+        <v>0.448213</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.452049</v>
+        <v>0.445135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.47483</v>
+        <v>0.458125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5618069999999999</v>
+        <v>0.5657140000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.531598</v>
+        <v>0.570388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.573225</v>
+        <v>0.553574</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541916</v>
+        <v>0.5687179999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535303</v>
+        <v>0.531208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5669149999999999</v>
+        <v>0.544434</v>
       </c>
       <c r="D11" t="n">
-        <v>0.536689</v>
+        <v>0.530156</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.550075</v>
+        <v>0.525948</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547605</v>
+        <v>0.518588</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5296920000000001</v>
+        <v>0.521685</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.509443</v>
+        <v>0.524351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.543834</v>
+        <v>0.5068780000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.522505</v>
+        <v>0.521201</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.531467</v>
+        <v>0.497836</v>
       </c>
       <c r="C14" t="n">
-        <v>0.535274</v>
+        <v>0.509182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5171289999999999</v>
+        <v>0.508448</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.503332</v>
+        <v>0.495294</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5473170000000001</v>
+        <v>0.487791</v>
       </c>
       <c r="D15" t="n">
-        <v>0.493151</v>
+        <v>0.495784</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4964</v>
+        <v>0.498978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518126</v>
+        <v>0.485919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.485033</v>
+        <v>0.488406</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.475446</v>
+        <v>0.486694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.502235</v>
+        <v>0.473744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.48568</v>
+        <v>0.480422</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.473235</v>
+        <v>0.478835</v>
       </c>
       <c r="C18" t="n">
-        <v>0.488186</v>
+        <v>0.46478</v>
       </c>
       <c r="D18" t="n">
-        <v>0.46774</v>
+        <v>0.479591</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.483825</v>
+        <v>0.495275</v>
       </c>
       <c r="C19" t="n">
-        <v>0.485496</v>
+        <v>0.462346</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4665</v>
+        <v>0.459643</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.459487</v>
+        <v>0.458087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.476125</v>
+        <v>0.463294</v>
       </c>
       <c r="D20" t="n">
-        <v>0.457236</v>
+        <v>0.470957</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.468079</v>
+        <v>0.459481</v>
       </c>
       <c r="C21" t="n">
-        <v>0.466543</v>
+        <v>0.459299</v>
       </c>
       <c r="D21" t="n">
-        <v>0.45253</v>
+        <v>0.451509</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.454355</v>
+        <v>0.459015</v>
       </c>
       <c r="C22" t="n">
-        <v>0.472746</v>
+        <v>0.454824</v>
       </c>
       <c r="D22" t="n">
-        <v>0.458514</v>
+        <v>0.476532</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.457194</v>
+        <v>0.458243</v>
       </c>
       <c r="C23" t="n">
-        <v>0.471266</v>
+        <v>0.446744</v>
       </c>
       <c r="D23" t="n">
-        <v>0.677199</v>
+        <v>0.6990150000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6410130000000001</v>
+        <v>0.631772</v>
       </c>
       <c r="C24" t="n">
-        <v>0.656887</v>
+        <v>0.638463</v>
       </c>
       <c r="D24" t="n">
-        <v>0.665745</v>
+        <v>0.68025</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.626297</v>
+        <v>0.618603</v>
       </c>
       <c r="C25" t="n">
-        <v>0.655196</v>
+        <v>0.6229209999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.659205</v>
+        <v>0.645195</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621772</v>
+        <v>0.610874</v>
       </c>
       <c r="C26" t="n">
-        <v>0.621681</v>
+        <v>0.608999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.62756</v>
+        <v>0.6315770000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.593045</v>
+        <v>0.608266</v>
       </c>
       <c r="C27" t="n">
-        <v>0.612472</v>
+        <v>0.601776</v>
       </c>
       <c r="D27" t="n">
-        <v>0.614923</v>
+        <v>0.612318</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.579437</v>
+        <v>0.592596</v>
       </c>
       <c r="C28" t="n">
-        <v>0.600891</v>
+        <v>0.58102</v>
       </c>
       <c r="D28" t="n">
-        <v>0.610517</v>
+        <v>0.598177</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.572736</v>
+        <v>0.582741</v>
       </c>
       <c r="C29" t="n">
-        <v>0.593186</v>
+        <v>0.572376</v>
       </c>
       <c r="D29" t="n">
-        <v>0.585174</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.56311</v>
+        <v>0.574091</v>
       </c>
       <c r="C30" t="n">
-        <v>0.57308</v>
+        <v>0.560342</v>
       </c>
       <c r="D30" t="n">
-        <v>0.569374</v>
+        <v>0.588313</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.545993</v>
+        <v>0.563347</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5708029999999999</v>
+        <v>0.556571</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5689959999999999</v>
+        <v>0.56798</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5390470000000001</v>
+        <v>0.534892</v>
       </c>
       <c r="C32" t="n">
-        <v>0.56997</v>
+        <v>0.532738</v>
       </c>
       <c r="D32" t="n">
-        <v>0.549565</v>
+        <v>0.553549</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.534286</v>
+        <v>0.52766</v>
       </c>
       <c r="C33" t="n">
-        <v>0.546377</v>
+        <v>0.5226690000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.540504</v>
+        <v>0.5413249999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.536363</v>
+        <v>0.534984</v>
       </c>
       <c r="C34" t="n">
-        <v>0.537547</v>
+        <v>0.512634</v>
       </c>
       <c r="D34" t="n">
-        <v>0.536086</v>
+        <v>0.540673</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.513402</v>
+        <v>0.521109</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5257270000000001</v>
+        <v>0.509688</v>
       </c>
       <c r="D35" t="n">
-        <v>0.52713</v>
+        <v>0.525014</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.508355</v>
+        <v>0.505673</v>
       </c>
       <c r="C36" t="n">
-        <v>0.527258</v>
+        <v>0.517061</v>
       </c>
       <c r="D36" t="n">
-        <v>0.528988</v>
+        <v>0.536676</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.509171</v>
+        <v>0.49832</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5152409999999999</v>
+        <v>0.494184</v>
       </c>
       <c r="D37" t="n">
-        <v>0.707952</v>
+        <v>0.7223889999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.702454</v>
+        <v>0.706267</v>
       </c>
       <c r="C38" t="n">
-        <v>0.72544</v>
+        <v>0.6974669999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7030380000000001</v>
+        <v>0.705274</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6865830000000001</v>
+        <v>0.675153</v>
       </c>
       <c r="C39" t="n">
-        <v>0.708323</v>
+        <v>0.677858</v>
       </c>
       <c r="D39" t="n">
-        <v>0.670567</v>
+        <v>0.63229</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.667264</v>
+        <v>0.669196</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6957</v>
+        <v>0.657396</v>
       </c>
       <c r="D40" t="n">
-        <v>0.607796</v>
+        <v>0.618177</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.651126</v>
+        <v>0.661646</v>
       </c>
       <c r="C41" t="n">
-        <v>0.670851</v>
+        <v>0.657646</v>
       </c>
       <c r="D41" t="n">
-        <v>0.585745</v>
+        <v>0.608943</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.641999</v>
+        <v>0.6392099999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.663863</v>
+        <v>0.62974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.587711</v>
+        <v>0.589402</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.625516</v>
+        <v>0.635934</v>
       </c>
       <c r="C43" t="n">
-        <v>0.633887</v>
+        <v>0.631061</v>
       </c>
       <c r="D43" t="n">
-        <v>0.566629</v>
+        <v>0.573527</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.622192</v>
+        <v>0.614129</v>
       </c>
       <c r="C44" t="n">
-        <v>0.634721</v>
+        <v>0.59972</v>
       </c>
       <c r="D44" t="n">
-        <v>0.565185</v>
+        <v>0.553391</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.597423</v>
+        <v>0.60061</v>
       </c>
       <c r="C45" t="n">
-        <v>0.632251</v>
+        <v>0.581728</v>
       </c>
       <c r="D45" t="n">
-        <v>0.555798</v>
+        <v>0.546279</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592201</v>
+        <v>0.575515</v>
       </c>
       <c r="C46" t="n">
-        <v>0.613398</v>
+        <v>0.5736059999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.535722</v>
+        <v>0.546225</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.567502</v>
+        <v>0.582937</v>
       </c>
       <c r="C47" t="n">
-        <v>0.589357</v>
+        <v>0.560179</v>
       </c>
       <c r="D47" t="n">
-        <v>0.532285</v>
+        <v>0.533331</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.573076</v>
+        <v>0.584801</v>
       </c>
       <c r="C48" t="n">
-        <v>0.598865</v>
+        <v>0.557826</v>
       </c>
       <c r="D48" t="n">
-        <v>0.532583</v>
+        <v>0.525992</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.562157</v>
+        <v>0.561644</v>
       </c>
       <c r="C49" t="n">
-        <v>0.567403</v>
+        <v>0.556512</v>
       </c>
       <c r="D49" t="n">
-        <v>0.530495</v>
+        <v>0.5366379999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.555002</v>
+        <v>0.548679</v>
       </c>
       <c r="C50" t="n">
-        <v>0.561244</v>
+        <v>0.540104</v>
       </c>
       <c r="D50" t="n">
-        <v>0.520916</v>
+        <v>0.524352</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.546535</v>
+        <v>0.552118</v>
       </c>
       <c r="C51" t="n">
-        <v>0.561249</v>
+        <v>0.531437</v>
       </c>
       <c r="D51" t="n">
-        <v>0.725115</v>
+        <v>0.7165859999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.547532</v>
+        <v>0.547527</v>
       </c>
       <c r="C52" t="n">
-        <v>0.545558</v>
+        <v>0.522777</v>
       </c>
       <c r="D52" t="n">
-        <v>0.713767</v>
+        <v>0.6940499999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.737376</v>
+        <v>0.721992</v>
       </c>
       <c r="C53" t="n">
-        <v>0.732867</v>
+        <v>0.728322</v>
       </c>
       <c r="D53" t="n">
-        <v>0.690528</v>
+        <v>0.6936600000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.718662</v>
+        <v>0.726418</v>
       </c>
       <c r="C54" t="n">
-        <v>0.746962</v>
+        <v>0.6978760000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6846449999999999</v>
+        <v>0.685063</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6944669999999999</v>
+        <v>0.689565</v>
       </c>
       <c r="C55" t="n">
-        <v>0.718673</v>
+        <v>0.679261</v>
       </c>
       <c r="D55" t="n">
-        <v>0.667669</v>
+        <v>0.661571</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.677488</v>
+        <v>0.675504</v>
       </c>
       <c r="C56" t="n">
-        <v>0.697491</v>
+        <v>0.671194</v>
       </c>
       <c r="D56" t="n">
-        <v>0.645488</v>
+        <v>0.645774</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.673786</v>
+        <v>0.656112</v>
       </c>
       <c r="C57" t="n">
-        <v>0.682332</v>
+        <v>0.672218</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6282450000000001</v>
+        <v>0.647505</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.645698</v>
+        <v>0.68462</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6674020000000001</v>
+        <v>0.654156</v>
       </c>
       <c r="D58" t="n">
-        <v>0.635194</v>
+        <v>0.624318</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.65147</v>
+        <v>0.64378</v>
       </c>
       <c r="C59" t="n">
-        <v>0.665299</v>
+        <v>0.62968</v>
       </c>
       <c r="D59" t="n">
-        <v>0.611798</v>
+        <v>0.613655</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.641038</v>
+        <v>0.634417</v>
       </c>
       <c r="C60" t="n">
-        <v>0.639537</v>
+        <v>0.61041</v>
       </c>
       <c r="D60" t="n">
-        <v>0.600097</v>
+        <v>0.595383</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.627435</v>
+        <v>0.623354</v>
       </c>
       <c r="C61" t="n">
-        <v>0.649623</v>
+        <v>0.606579</v>
       </c>
       <c r="D61" t="n">
-        <v>0.584319</v>
+        <v>0.577164</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.60715</v>
+        <v>0.610411</v>
       </c>
       <c r="C62" t="n">
-        <v>0.626696</v>
+        <v>0.590338</v>
       </c>
       <c r="D62" t="n">
-        <v>0.580772</v>
+        <v>0.569563</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.601706</v>
+        <v>0.588865</v>
       </c>
       <c r="C63" t="n">
-        <v>0.619265</v>
+        <v>0.5847599999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.574892</v>
+        <v>0.584335</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.600634</v>
+        <v>0.588022</v>
       </c>
       <c r="C64" t="n">
-        <v>0.595321</v>
+        <v>0.588558</v>
       </c>
       <c r="D64" t="n">
-        <v>0.571932</v>
+        <v>0.570725</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.592633</v>
+        <v>0.588241</v>
       </c>
       <c r="C65" t="n">
-        <v>0.592997</v>
+        <v>0.576051</v>
       </c>
       <c r="D65" t="n">
-        <v>0.566033</v>
+        <v>0.568516</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.57411</v>
+        <v>0.588548</v>
       </c>
       <c r="C66" t="n">
-        <v>0.591515</v>
+        <v>0.574985</v>
       </c>
       <c r="D66" t="n">
-        <v>0.78069</v>
+        <v>0.773693</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.77819</v>
+        <v>0.779701</v>
       </c>
       <c r="C67" t="n">
-        <v>0.824362</v>
+        <v>0.776515</v>
       </c>
       <c r="D67" t="n">
-        <v>0.751871</v>
+        <v>0.77053</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.770863</v>
+        <v>0.779264</v>
       </c>
       <c r="C68" t="n">
-        <v>0.796849</v>
+        <v>0.766415</v>
       </c>
       <c r="D68" t="n">
-        <v>0.755561</v>
+        <v>0.73262</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.755012</v>
+        <v>0.7511370000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.782732</v>
+        <v>0.759914</v>
       </c>
       <c r="D69" t="n">
-        <v>0.730652</v>
+        <v>0.744076</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.750681</v>
+        <v>0.757574</v>
       </c>
       <c r="C70" t="n">
-        <v>0.769713</v>
+        <v>0.739114</v>
       </c>
       <c r="D70" t="n">
-        <v>0.740525</v>
+        <v>0.721885</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.757261</v>
+        <v>0.726554</v>
       </c>
       <c r="C71" t="n">
-        <v>0.771355</v>
+        <v>0.7318</v>
       </c>
       <c r="D71" t="n">
-        <v>0.72161</v>
+        <v>0.713816</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.732548</v>
+        <v>0.714369</v>
       </c>
       <c r="C72" t="n">
-        <v>0.750733</v>
+        <v>0.7159720000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.72065</v>
+        <v>0.723539</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7039609999999999</v>
+        <v>0.698245</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7367320000000001</v>
+        <v>0.697919</v>
       </c>
       <c r="D73" t="n">
-        <v>0.697892</v>
+        <v>0.702558</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.689856</v>
+        <v>0.70628</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7235510000000001</v>
+        <v>0.6897219999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.685524</v>
+        <v>0.705727</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.677099</v>
+        <v>0.695904</v>
       </c>
       <c r="C75" t="n">
-        <v>0.721676</v>
+        <v>0.712769</v>
       </c>
       <c r="D75" t="n">
-        <v>0.671659</v>
+        <v>0.68736</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.694936</v>
+        <v>0.67897</v>
       </c>
       <c r="C76" t="n">
-        <v>0.698337</v>
+        <v>0.678948</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6774559999999999</v>
+        <v>0.679072</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.661334</v>
+        <v>0.679275</v>
       </c>
       <c r="C77" t="n">
-        <v>0.688987</v>
+        <v>0.672472</v>
       </c>
       <c r="D77" t="n">
-        <v>0.672199</v>
+        <v>0.6521479999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.665351</v>
+        <v>0.683213</v>
       </c>
       <c r="C78" t="n">
-        <v>0.681692</v>
+        <v>0.657838</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6750080000000001</v>
+        <v>0.668542</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.679018</v>
+        <v>0.660384</v>
       </c>
       <c r="C79" t="n">
-        <v>0.674526</v>
+        <v>0.658069</v>
       </c>
       <c r="D79" t="n">
-        <v>0.663488</v>
+        <v>0.651106</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.673779</v>
+        <v>0.645745</v>
       </c>
       <c r="C80" t="n">
-        <v>0.695475</v>
+        <v>0.644319</v>
       </c>
       <c r="D80" t="n">
-        <v>0.879432</v>
+        <v>0.891802</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.854243</v>
+        <v>0.879356</v>
       </c>
       <c r="C81" t="n">
-        <v>0.926444</v>
+        <v>0.879729</v>
       </c>
       <c r="D81" t="n">
-        <v>0.864496</v>
+        <v>0.8652609999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.869347</v>
+        <v>0.853403</v>
       </c>
       <c r="C82" t="n">
-        <v>0.909578</v>
+        <v>0.877777</v>
       </c>
       <c r="D82" t="n">
-        <v>0.872969</v>
+        <v>0.861522</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.856347</v>
+        <v>0.84236</v>
       </c>
       <c r="C83" t="n">
-        <v>0.895241</v>
+        <v>0.847787</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8559639999999999</v>
+        <v>0.889958</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.864997</v>
+        <v>0.832938</v>
       </c>
       <c r="C84" t="n">
-        <v>0.923513</v>
+        <v>0.8450839999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.850455</v>
+        <v>0.839305</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.841188</v>
+        <v>0.833633</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8671759999999999</v>
+        <v>0.83427</v>
       </c>
       <c r="D85" t="n">
-        <v>0.851806</v>
+        <v>0.819899</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.813791</v>
+        <v>0.82001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.86028</v>
+        <v>0.841962</v>
       </c>
       <c r="D86" t="n">
-        <v>0.819555</v>
+        <v>0.813468</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.805082</v>
+        <v>0.825393</v>
       </c>
       <c r="C87" t="n">
-        <v>0.832188</v>
+        <v>0.820069</v>
       </c>
       <c r="D87" t="n">
-        <v>0.815469</v>
+        <v>0.801462</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.787345</v>
+        <v>0.8027030000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.853554</v>
+        <v>0.789251</v>
       </c>
       <c r="D88" t="n">
-        <v>0.802787</v>
+        <v>0.783291</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.786632</v>
+        <v>0.781664</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8155250000000001</v>
+        <v>0.799532</v>
       </c>
       <c r="D89" t="n">
-        <v>0.778473</v>
+        <v>0.803081</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7771</v>
+        <v>0.7785840000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.836172</v>
+        <v>0.781501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.768706</v>
+        <v>0.773021</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.774466</v>
+        <v>0.770437</v>
       </c>
       <c r="C91" t="n">
-        <v>0.822419</v>
+        <v>0.778484</v>
       </c>
       <c r="D91" t="n">
-        <v>0.783519</v>
+        <v>0.778718</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.757744</v>
+        <v>0.76045</v>
       </c>
       <c r="C92" t="n">
-        <v>0.80418</v>
+        <v>0.7765339999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.765132</v>
+        <v>0.786344</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.764337</v>
+        <v>0.75144</v>
       </c>
       <c r="C93" t="n">
-        <v>0.812154</v>
+        <v>0.766386</v>
       </c>
       <c r="D93" t="n">
-        <v>0.783636</v>
+        <v>0.759282</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.758541</v>
+        <v>0.747309</v>
       </c>
       <c r="C94" t="n">
-        <v>0.783509</v>
+        <v>0.750235</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9987780000000001</v>
+        <v>1.01622</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9696360000000001</v>
+        <v>0.9794389999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.03006</v>
+        <v>0.999302</v>
       </c>
       <c r="D95" t="n">
-        <v>0.991594</v>
+        <v>1.00209</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.954879</v>
+        <v>0.9538</v>
       </c>
       <c r="C96" t="n">
-        <v>1.045</v>
+        <v>0.998424</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9927859999999999</v>
+        <v>0.995374</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.969988</v>
+        <v>0.967791</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02192</v>
+        <v>1.01082</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9683619999999999</v>
+        <v>0.998235</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.957404</v>
+        <v>0.973936</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01268</v>
+        <v>0.978352</v>
       </c>
       <c r="D98" t="n">
-        <v>0.961614</v>
+        <v>0.982849</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.934549</v>
+        <v>0.9373050000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.981594</v>
+        <v>0.968181</v>
       </c>
       <c r="D99" t="n">
-        <v>0.947693</v>
+        <v>0.969954</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.918924</v>
+        <v>0.924145</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9887010000000001</v>
+        <v>0.958454</v>
       </c>
       <c r="D100" t="n">
-        <v>0.962583</v>
+        <v>0.9460190000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.937223</v>
+        <v>0.923871</v>
       </c>
       <c r="C101" t="n">
-        <v>0.997763</v>
+        <v>0.953084</v>
       </c>
       <c r="D101" t="n">
-        <v>0.922279</v>
+        <v>0.95379</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.945102</v>
+        <v>0.926974</v>
       </c>
       <c r="C102" t="n">
-        <v>0.993116</v>
+        <v>0.936737</v>
       </c>
       <c r="D102" t="n">
-        <v>0.908265</v>
+        <v>0.913376</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.91754</v>
+        <v>0.894659</v>
       </c>
       <c r="C103" t="n">
-        <v>0.96976</v>
+        <v>0.930359</v>
       </c>
       <c r="D103" t="n">
-        <v>0.926732</v>
+        <v>0.911338</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.904037</v>
+        <v>0.895505</v>
       </c>
       <c r="C104" t="n">
-        <v>0.943901</v>
+        <v>0.915239</v>
       </c>
       <c r="D104" t="n">
-        <v>0.915645</v>
+        <v>0.904235</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.909567</v>
+        <v>0.917478</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9608179999999999</v>
+        <v>0.924955</v>
       </c>
       <c r="D105" t="n">
-        <v>0.899891</v>
+        <v>0.914054</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.913292</v>
+        <v>0.890651</v>
       </c>
       <c r="C106" t="n">
-        <v>0.97612</v>
+        <v>0.9038389999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.917857</v>
+        <v>0.907315</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.906204</v>
+        <v>0.876508</v>
       </c>
       <c r="C107" t="n">
-        <v>0.951183</v>
+        <v>0.892215</v>
       </c>
       <c r="D107" t="n">
-        <v>0.893328</v>
+        <v>0.894564</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.897659</v>
+        <v>0.880359</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9472660000000001</v>
+        <v>0.892568</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18609</v>
+        <v>1.17331</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.872793</v>
+        <v>0.889275</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9273</v>
+        <v>0.90382</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13479</v>
+        <v>1.12443</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.09302</v>
+        <v>1.13245</v>
       </c>
       <c r="C110" t="n">
-        <v>1.18046</v>
+        <v>1.11534</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10432</v>
+        <v>1.1017</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.09639</v>
+        <v>1.09685</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16974</v>
+        <v>1.11757</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0939</v>
+        <v>1.13758</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.09154</v>
+        <v>1.10101</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1769</v>
+        <v>1.12473</v>
       </c>
       <c r="D112" t="n">
-        <v>1.10658</v>
+        <v>1.14959</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.08807</v>
+        <v>1.13162</v>
       </c>
       <c r="C113" t="n">
-        <v>1.14728</v>
+        <v>1.1101</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09072</v>
+        <v>1.10315</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.08596</v>
+        <v>1.0929</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18182</v>
+        <v>1.13435</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08938</v>
+        <v>1.09815</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.08954</v>
+        <v>1.06921</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1675</v>
+        <v>1.09359</v>
       </c>
       <c r="D115" t="n">
-        <v>1.07055</v>
+        <v>1.10336</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.07237</v>
+        <v>1.08662</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15664</v>
+        <v>1.11236</v>
       </c>
       <c r="D116" t="n">
-        <v>1.06119</v>
+        <v>1.09196</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.07739</v>
+        <v>1.07193</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14328</v>
+        <v>1.1232</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06759</v>
+        <v>1.08117</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0791</v>
+        <v>1.09129</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12623</v>
+        <v>1.11996</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06585</v>
+        <v>1.08808</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0692</v>
+        <v>1.09912</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12852</v>
+        <v>1.10333</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03251</v>
+        <v>1.05216</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08816</v>
+        <v>1.07449</v>
       </c>
       <c r="C120" t="n">
-        <v>1.14033</v>
+        <v>1.09593</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04101</v>
+        <v>1.04604</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10159</v>
+        <v>1.05552</v>
       </c>
       <c r="C121" t="n">
-        <v>1.12522</v>
+        <v>1.09629</v>
       </c>
       <c r="D121" t="n">
-        <v>1.06432</v>
+        <v>1.05924</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.08471</v>
+        <v>1.09285</v>
       </c>
       <c r="C122" t="n">
-        <v>1.13447</v>
+        <v>1.06811</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06021</v>
+        <v>1.05714</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08289</v>
+        <v>1.08414</v>
       </c>
       <c r="C123" t="n">
-        <v>1.1516</v>
+        <v>1.07762</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29417</v>
+        <v>1.34579</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33332</v>
+        <v>1.30408</v>
       </c>
       <c r="C124" t="n">
-        <v>1.40465</v>
+        <v>1.3227</v>
       </c>
       <c r="D124" t="n">
-        <v>1.2964</v>
+        <v>1.31632</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31306</v>
+        <v>1.30166</v>
       </c>
       <c r="C125" t="n">
-        <v>1.38865</v>
+        <v>1.34267</v>
       </c>
       <c r="D125" t="n">
-        <v>1.29648</v>
+        <v>1.34784</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31857</v>
+        <v>1.32673</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3904</v>
+        <v>1.35816</v>
       </c>
       <c r="D126" t="n">
-        <v>1.28044</v>
+        <v>1.3235</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3045</v>
+        <v>1.32707</v>
       </c>
       <c r="C127" t="n">
-        <v>1.40518</v>
+        <v>1.34089</v>
       </c>
       <c r="D127" t="n">
-        <v>1.29207</v>
+        <v>1.30011</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32401</v>
+        <v>1.32394</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38812</v>
+        <v>1.34251</v>
       </c>
       <c r="D128" t="n">
-        <v>1.28944</v>
+        <v>1.31689</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31251</v>
+        <v>1.30414</v>
       </c>
       <c r="C129" t="n">
-        <v>1.38832</v>
+        <v>1.31458</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3001</v>
+        <v>1.30934</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31268</v>
+        <v>1.31342</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36293</v>
+        <v>1.33028</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31604</v>
+        <v>1.30099</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.31799</v>
+        <v>1.32396</v>
       </c>
       <c r="C131" t="n">
-        <v>1.37249</v>
+        <v>1.32624</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29681</v>
+        <v>1.29615</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.31715</v>
+        <v>1.33101</v>
       </c>
       <c r="C132" t="n">
-        <v>1.38297</v>
+        <v>1.32262</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29099</v>
+        <v>1.31375</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.31821</v>
+        <v>1.33669</v>
       </c>
       <c r="C133" t="n">
-        <v>1.36523</v>
+        <v>1.32142</v>
       </c>
       <c r="D133" t="n">
-        <v>1.27526</v>
+        <v>1.2951</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31242</v>
+        <v>1.3163</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37923</v>
+        <v>1.3228</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30097</v>
+        <v>1.28606</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.3224</v>
+        <v>1.34461</v>
       </c>
       <c r="C135" t="n">
-        <v>1.37599</v>
+        <v>1.33943</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30782</v>
+        <v>1.29249</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34728</v>
+        <v>1.32293</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3756</v>
+        <v>1.338</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32231</v>
+        <v>1.30752</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.34984</v>
+        <v>1.35423</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39779</v>
+        <v>1.3437</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55838</v>
+        <v>1.57217</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54569</v>
+        <v>1.57087</v>
       </c>
       <c r="C138" t="n">
-        <v>1.62784</v>
+        <v>1.59146</v>
       </c>
       <c r="D138" t="n">
-        <v>1.56439</v>
+        <v>1.58045</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.56938</v>
+        <v>1.58417</v>
       </c>
       <c r="C139" t="n">
-        <v>1.65084</v>
+        <v>1.59372</v>
       </c>
       <c r="D139" t="n">
-        <v>1.57322</v>
+        <v>1.59236</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.59492</v>
+        <v>1.5817</v>
       </c>
       <c r="C140" t="n">
-        <v>1.64159</v>
+        <v>1.57772</v>
       </c>
       <c r="D140" t="n">
-        <v>1.56577</v>
+        <v>1.57735</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.56901</v>
+        <v>1.57612</v>
       </c>
       <c r="C141" t="n">
-        <v>1.64928</v>
+        <v>1.59222</v>
       </c>
       <c r="D141" t="n">
-        <v>1.56953</v>
+        <v>1.57712</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.58894</v>
+        <v>1.5763</v>
       </c>
       <c r="C142" t="n">
-        <v>1.65429</v>
+        <v>1.56661</v>
       </c>
       <c r="D142" t="n">
-        <v>1.57996</v>
+        <v>1.57109</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.58611</v>
+        <v>1.57448</v>
       </c>
       <c r="C143" t="n">
-        <v>1.64407</v>
+        <v>1.55556</v>
       </c>
       <c r="D143" t="n">
-        <v>1.56779</v>
+        <v>1.58263</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.477978</v>
+        <v>0.342772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.466047</v>
+        <v>0.327268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.485291</v>
+        <v>0.312908</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.466631</v>
+        <v>0.345459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.485594</v>
+        <v>0.322705</v>
       </c>
       <c r="D3" t="n">
-        <v>0.467627</v>
+        <v>0.327354</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.469371</v>
+        <v>0.334796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.465549</v>
+        <v>0.31948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.46757</v>
+        <v>0.304555</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.47242</v>
+        <v>0.328802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.462749</v>
+        <v>0.30875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.462768</v>
+        <v>0.291203</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.457443</v>
+        <v>0.332454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.445815</v>
+        <v>0.308782</v>
       </c>
       <c r="D6" t="n">
-        <v>0.447247</v>
+        <v>0.289856</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.461796</v>
+        <v>0.317747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.448201</v>
+        <v>0.300334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.457345</v>
+        <v>0.285497</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.465072</v>
+        <v>0.315731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.442678</v>
+        <v>0.298557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.448213</v>
+        <v>0.286272</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.445135</v>
+        <v>0.314795</v>
       </c>
       <c r="C9" t="n">
-        <v>0.458125</v>
+        <v>0.304657</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5657140000000001</v>
+        <v>0.376361</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.570388</v>
+        <v>0.409275</v>
       </c>
       <c r="C10" t="n">
-        <v>0.553574</v>
+        <v>0.382012</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5687179999999999</v>
+        <v>0.373024</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.531208</v>
+        <v>0.410702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.544434</v>
+        <v>0.370541</v>
       </c>
       <c r="D11" t="n">
-        <v>0.530156</v>
+        <v>0.353243</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525948</v>
+        <v>0.39028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.518588</v>
+        <v>0.364232</v>
       </c>
       <c r="D12" t="n">
-        <v>0.521685</v>
+        <v>0.353891</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.524351</v>
+        <v>0.381269</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5068780000000001</v>
+        <v>0.362381</v>
       </c>
       <c r="D13" t="n">
-        <v>0.521201</v>
+        <v>0.343145</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.497836</v>
+        <v>0.368283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.509182</v>
+        <v>0.349987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.508448</v>
+        <v>0.347529</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.495294</v>
+        <v>0.368426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.487791</v>
+        <v>0.346804</v>
       </c>
       <c r="D15" t="n">
-        <v>0.495784</v>
+        <v>0.339131</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.498978</v>
+        <v>0.358415</v>
       </c>
       <c r="C16" t="n">
-        <v>0.485919</v>
+        <v>0.331093</v>
       </c>
       <c r="D16" t="n">
-        <v>0.488406</v>
+        <v>0.327263</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.486694</v>
+        <v>0.348844</v>
       </c>
       <c r="C17" t="n">
-        <v>0.473744</v>
+        <v>0.321145</v>
       </c>
       <c r="D17" t="n">
-        <v>0.480422</v>
+        <v>0.312223</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.478835</v>
+        <v>0.344454</v>
       </c>
       <c r="C18" t="n">
-        <v>0.46478</v>
+        <v>0.317711</v>
       </c>
       <c r="D18" t="n">
-        <v>0.479591</v>
+        <v>0.311261</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.495275</v>
+        <v>0.350078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.462346</v>
+        <v>0.314305</v>
       </c>
       <c r="D19" t="n">
-        <v>0.459643</v>
+        <v>0.314802</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.458087</v>
+        <v>0.329276</v>
       </c>
       <c r="C20" t="n">
-        <v>0.463294</v>
+        <v>0.32073</v>
       </c>
       <c r="D20" t="n">
-        <v>0.470957</v>
+        <v>0.306991</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.459481</v>
+        <v>0.321838</v>
       </c>
       <c r="C21" t="n">
-        <v>0.459299</v>
+        <v>0.305993</v>
       </c>
       <c r="D21" t="n">
-        <v>0.451509</v>
+        <v>0.292176</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.459015</v>
+        <v>0.318231</v>
       </c>
       <c r="C22" t="n">
-        <v>0.454824</v>
+        <v>0.304523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.476532</v>
+        <v>0.299028</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.458243</v>
+        <v>0.318882</v>
       </c>
       <c r="C23" t="n">
-        <v>0.446744</v>
+        <v>0.302431</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6990150000000001</v>
+        <v>0.501082</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.631772</v>
+        <v>0.503427</v>
       </c>
       <c r="C24" t="n">
-        <v>0.638463</v>
+        <v>0.483833</v>
       </c>
       <c r="D24" t="n">
-        <v>0.68025</v>
+        <v>0.495085</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.618603</v>
+        <v>0.490454</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6229209999999999</v>
+        <v>0.463537</v>
       </c>
       <c r="D25" t="n">
-        <v>0.645195</v>
+        <v>0.474497</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.610874</v>
+        <v>0.470905</v>
       </c>
       <c r="C26" t="n">
-        <v>0.608999</v>
+        <v>0.45232</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6315770000000001</v>
+        <v>0.460374</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.608266</v>
+        <v>0.453504</v>
       </c>
       <c r="C27" t="n">
-        <v>0.601776</v>
+        <v>0.438068</v>
       </c>
       <c r="D27" t="n">
-        <v>0.612318</v>
+        <v>0.454263</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.592596</v>
+        <v>0.448343</v>
       </c>
       <c r="C28" t="n">
-        <v>0.58102</v>
+        <v>0.424317</v>
       </c>
       <c r="D28" t="n">
-        <v>0.598177</v>
+        <v>0.424303</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.582741</v>
+        <v>0.426967</v>
       </c>
       <c r="C29" t="n">
-        <v>0.572376</v>
+        <v>0.407674</v>
       </c>
       <c r="D29" t="n">
-        <v>0.588</v>
+        <v>0.415219</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.574091</v>
+        <v>0.428352</v>
       </c>
       <c r="C30" t="n">
-        <v>0.560342</v>
+        <v>0.409347</v>
       </c>
       <c r="D30" t="n">
-        <v>0.588313</v>
+        <v>0.413046</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.563347</v>
+        <v>0.414205</v>
       </c>
       <c r="C31" t="n">
-        <v>0.556571</v>
+        <v>0.390196</v>
       </c>
       <c r="D31" t="n">
-        <v>0.56798</v>
+        <v>0.396153</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.534892</v>
+        <v>0.400902</v>
       </c>
       <c r="C32" t="n">
-        <v>0.532738</v>
+        <v>0.385484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.553549</v>
+        <v>0.389011</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.52766</v>
+        <v>0.400408</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5226690000000001</v>
+        <v>0.385494</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5413249999999999</v>
+        <v>0.385551</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534984</v>
+        <v>0.383423</v>
       </c>
       <c r="C34" t="n">
-        <v>0.512634</v>
+        <v>0.364106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.540673</v>
+        <v>0.382006</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.521109</v>
+        <v>0.380876</v>
       </c>
       <c r="C35" t="n">
-        <v>0.509688</v>
+        <v>0.359498</v>
       </c>
       <c r="D35" t="n">
-        <v>0.525014</v>
+        <v>0.367443</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.505673</v>
+        <v>0.378028</v>
       </c>
       <c r="C36" t="n">
-        <v>0.517061</v>
+        <v>0.360521</v>
       </c>
       <c r="D36" t="n">
-        <v>0.536676</v>
+        <v>0.361186</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.49832</v>
+        <v>0.361796</v>
       </c>
       <c r="C37" t="n">
-        <v>0.494184</v>
+        <v>0.357699</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7223889999999999</v>
+        <v>0.540362</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.706267</v>
+        <v>0.562329</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6974669999999999</v>
+        <v>0.530793</v>
       </c>
       <c r="D38" t="n">
-        <v>0.705274</v>
+        <v>0.521085</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.675153</v>
+        <v>0.532729</v>
       </c>
       <c r="C39" t="n">
-        <v>0.677858</v>
+        <v>0.512953</v>
       </c>
       <c r="D39" t="n">
-        <v>0.63229</v>
+        <v>0.522883</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.669196</v>
+        <v>0.520198</v>
       </c>
       <c r="C40" t="n">
-        <v>0.657396</v>
+        <v>0.509076</v>
       </c>
       <c r="D40" t="n">
-        <v>0.618177</v>
+        <v>0.500094</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.661646</v>
+        <v>0.509507</v>
       </c>
       <c r="C41" t="n">
-        <v>0.657646</v>
+        <v>0.491988</v>
       </c>
       <c r="D41" t="n">
-        <v>0.608943</v>
+        <v>0.485377</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6392099999999999</v>
+        <v>0.497748</v>
       </c>
       <c r="C42" t="n">
-        <v>0.62974</v>
+        <v>0.48616</v>
       </c>
       <c r="D42" t="n">
-        <v>0.589402</v>
+        <v>0.468986</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.635934</v>
+        <v>0.492328</v>
       </c>
       <c r="C43" t="n">
-        <v>0.631061</v>
+        <v>0.460194</v>
       </c>
       <c r="D43" t="n">
-        <v>0.573527</v>
+        <v>0.457028</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.614129</v>
+        <v>0.472095</v>
       </c>
       <c r="C44" t="n">
-        <v>0.59972</v>
+        <v>0.448812</v>
       </c>
       <c r="D44" t="n">
-        <v>0.553391</v>
+        <v>0.44584</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.60061</v>
+        <v>0.465475</v>
       </c>
       <c r="C45" t="n">
-        <v>0.581728</v>
+        <v>0.438521</v>
       </c>
       <c r="D45" t="n">
-        <v>0.546279</v>
+        <v>0.436422</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.575515</v>
+        <v>0.445845</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5736059999999999</v>
+        <v>0.428076</v>
       </c>
       <c r="D46" t="n">
-        <v>0.546225</v>
+        <v>0.421272</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.582937</v>
+        <v>0.438799</v>
       </c>
       <c r="C47" t="n">
-        <v>0.560179</v>
+        <v>0.436415</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533331</v>
+        <v>0.40935</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.584801</v>
+        <v>0.42448</v>
       </c>
       <c r="C48" t="n">
-        <v>0.557826</v>
+        <v>0.416709</v>
       </c>
       <c r="D48" t="n">
-        <v>0.525992</v>
+        <v>0.401713</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.561644</v>
+        <v>0.424264</v>
       </c>
       <c r="C49" t="n">
-        <v>0.556512</v>
+        <v>0.405036</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5366379999999999</v>
+        <v>0.409014</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.548679</v>
+        <v>0.42318</v>
       </c>
       <c r="C50" t="n">
-        <v>0.540104</v>
+        <v>0.394687</v>
       </c>
       <c r="D50" t="n">
-        <v>0.524352</v>
+        <v>0.393938</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.552118</v>
+        <v>0.406509</v>
       </c>
       <c r="C51" t="n">
-        <v>0.531437</v>
+        <v>0.396409</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7165859999999999</v>
+        <v>0.584282</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.547527</v>
+        <v>0.412603</v>
       </c>
       <c r="C52" t="n">
-        <v>0.522777</v>
+        <v>0.395785</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6940499999999999</v>
+        <v>0.556776</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.721992</v>
+        <v>0.583399</v>
       </c>
       <c r="C53" t="n">
-        <v>0.728322</v>
+        <v>0.55017</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6936600000000001</v>
+        <v>0.537295</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.726418</v>
+        <v>0.565316</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6978760000000001</v>
+        <v>0.5497300000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.685063</v>
+        <v>0.5294450000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.689565</v>
+        <v>0.55702</v>
       </c>
       <c r="C55" t="n">
-        <v>0.679261</v>
+        <v>0.519019</v>
       </c>
       <c r="D55" t="n">
-        <v>0.661571</v>
+        <v>0.51415</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.675504</v>
+        <v>0.526193</v>
       </c>
       <c r="C56" t="n">
-        <v>0.671194</v>
+        <v>0.517707</v>
       </c>
       <c r="D56" t="n">
-        <v>0.645774</v>
+        <v>0.503472</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.656112</v>
+        <v>0.521158</v>
       </c>
       <c r="C57" t="n">
-        <v>0.672218</v>
+        <v>0.505069</v>
       </c>
       <c r="D57" t="n">
-        <v>0.647505</v>
+        <v>0.49776</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.68462</v>
+        <v>0.511591</v>
       </c>
       <c r="C58" t="n">
-        <v>0.654156</v>
+        <v>0.490499</v>
       </c>
       <c r="D58" t="n">
-        <v>0.624318</v>
+        <v>0.474567</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64378</v>
+        <v>0.496757</v>
       </c>
       <c r="C59" t="n">
-        <v>0.62968</v>
+        <v>0.477125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.613655</v>
+        <v>0.484955</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.634417</v>
+        <v>0.492041</v>
       </c>
       <c r="C60" t="n">
-        <v>0.61041</v>
+        <v>0.460407</v>
       </c>
       <c r="D60" t="n">
-        <v>0.595383</v>
+        <v>0.449454</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.623354</v>
+        <v>0.478017</v>
       </c>
       <c r="C61" t="n">
-        <v>0.606579</v>
+        <v>0.451775</v>
       </c>
       <c r="D61" t="n">
-        <v>0.577164</v>
+        <v>0.445332</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.610411</v>
+        <v>0.454989</v>
       </c>
       <c r="C62" t="n">
-        <v>0.590338</v>
+        <v>0.439237</v>
       </c>
       <c r="D62" t="n">
-        <v>0.569563</v>
+        <v>0.428398</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.588865</v>
+        <v>0.452835</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5847599999999999</v>
+        <v>0.435288</v>
       </c>
       <c r="D63" t="n">
-        <v>0.584335</v>
+        <v>0.426546</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588022</v>
+        <v>0.442714</v>
       </c>
       <c r="C64" t="n">
-        <v>0.588558</v>
+        <v>0.427985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.570725</v>
+        <v>0.430482</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.588241</v>
+        <v>0.439798</v>
       </c>
       <c r="C65" t="n">
-        <v>0.576051</v>
+        <v>0.423631</v>
       </c>
       <c r="D65" t="n">
-        <v>0.568516</v>
+        <v>0.422826</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.588548</v>
+        <v>0.43635</v>
       </c>
       <c r="C66" t="n">
-        <v>0.574985</v>
+        <v>0.427193</v>
       </c>
       <c r="D66" t="n">
-        <v>0.773693</v>
+        <v>0.611524</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.779701</v>
+        <v>0.6460050000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.776515</v>
+        <v>0.610666</v>
       </c>
       <c r="D67" t="n">
-        <v>0.77053</v>
+        <v>0.596093</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.779264</v>
+        <v>0.62549</v>
       </c>
       <c r="C68" t="n">
-        <v>0.766415</v>
+        <v>0.607062</v>
       </c>
       <c r="D68" t="n">
-        <v>0.73262</v>
+        <v>0.587551</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7511370000000001</v>
+        <v>0.6068789999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.759914</v>
+        <v>0.588529</v>
       </c>
       <c r="D69" t="n">
-        <v>0.744076</v>
+        <v>0.578309</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.757574</v>
+        <v>0.579689</v>
       </c>
       <c r="C70" t="n">
-        <v>0.739114</v>
+        <v>0.5628</v>
       </c>
       <c r="D70" t="n">
-        <v>0.721885</v>
+        <v>0.550277</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.726554</v>
+        <v>0.587947</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7318</v>
+        <v>0.558052</v>
       </c>
       <c r="D71" t="n">
-        <v>0.713816</v>
+        <v>0.542855</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.714369</v>
+        <v>0.574617</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7159720000000001</v>
+        <v>0.556822</v>
       </c>
       <c r="D72" t="n">
-        <v>0.723539</v>
+        <v>0.54122</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.698245</v>
+        <v>0.563153</v>
       </c>
       <c r="C73" t="n">
-        <v>0.697919</v>
+        <v>0.544041</v>
       </c>
       <c r="D73" t="n">
-        <v>0.702558</v>
+        <v>0.532507</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.70628</v>
+        <v>0.550807</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6897219999999999</v>
+        <v>0.532867</v>
       </c>
       <c r="D74" t="n">
-        <v>0.705727</v>
+        <v>0.522386</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.695904</v>
+        <v>0.552844</v>
       </c>
       <c r="C75" t="n">
-        <v>0.712769</v>
+        <v>0.530942</v>
       </c>
       <c r="D75" t="n">
-        <v>0.68736</v>
+        <v>0.503399</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.67897</v>
+        <v>0.539346</v>
       </c>
       <c r="C76" t="n">
-        <v>0.678948</v>
+        <v>0.525317</v>
       </c>
       <c r="D76" t="n">
-        <v>0.679072</v>
+        <v>0.501095</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.679275</v>
+        <v>0.518902</v>
       </c>
       <c r="C77" t="n">
-        <v>0.672472</v>
+        <v>0.507838</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6521479999999999</v>
+        <v>0.48802</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.683213</v>
+        <v>0.521123</v>
       </c>
       <c r="C78" t="n">
-        <v>0.657838</v>
+        <v>0.504979</v>
       </c>
       <c r="D78" t="n">
-        <v>0.668542</v>
+        <v>0.48737</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.660384</v>
+        <v>0.504545</v>
       </c>
       <c r="C79" t="n">
-        <v>0.658069</v>
+        <v>0.489012</v>
       </c>
       <c r="D79" t="n">
-        <v>0.651106</v>
+        <v>0.484549</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.645745</v>
+        <v>0.505825</v>
       </c>
       <c r="C80" t="n">
-        <v>0.644319</v>
+        <v>0.500228</v>
       </c>
       <c r="D80" t="n">
-        <v>0.891802</v>
+        <v>0.701373</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.879356</v>
+        <v>0.705907</v>
       </c>
       <c r="C81" t="n">
-        <v>0.879729</v>
+        <v>0.689704</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8652609999999999</v>
+        <v>0.683114</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.853403</v>
+        <v>0.703215</v>
       </c>
       <c r="C82" t="n">
-        <v>0.877777</v>
+        <v>0.688665</v>
       </c>
       <c r="D82" t="n">
-        <v>0.861522</v>
+        <v>0.672434</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.84236</v>
+        <v>0.691677</v>
       </c>
       <c r="C83" t="n">
-        <v>0.847787</v>
+        <v>0.67615</v>
       </c>
       <c r="D83" t="n">
-        <v>0.889958</v>
+        <v>0.650873</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.832938</v>
+        <v>0.688815</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8450839999999999</v>
+        <v>0.655759</v>
       </c>
       <c r="D84" t="n">
-        <v>0.839305</v>
+        <v>0.642092</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.833633</v>
+        <v>0.672401</v>
       </c>
       <c r="C85" t="n">
-        <v>0.83427</v>
+        <v>0.647888</v>
       </c>
       <c r="D85" t="n">
-        <v>0.819899</v>
+        <v>0.62425</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.82001</v>
+        <v>0.662895</v>
       </c>
       <c r="C86" t="n">
-        <v>0.841962</v>
+        <v>0.644392</v>
       </c>
       <c r="D86" t="n">
-        <v>0.813468</v>
+        <v>0.624196</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.825393</v>
+        <v>0.653859</v>
       </c>
       <c r="C87" t="n">
-        <v>0.820069</v>
+        <v>0.626782</v>
       </c>
       <c r="D87" t="n">
-        <v>0.801462</v>
+        <v>0.611769</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8027030000000001</v>
+        <v>0.627857</v>
       </c>
       <c r="C88" t="n">
-        <v>0.789251</v>
+        <v>0.621913</v>
       </c>
       <c r="D88" t="n">
-        <v>0.783291</v>
+        <v>0.600513</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.781664</v>
+        <v>0.61774</v>
       </c>
       <c r="C89" t="n">
-        <v>0.799532</v>
+        <v>0.607356</v>
       </c>
       <c r="D89" t="n">
-        <v>0.803081</v>
+        <v>0.584484</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7785840000000001</v>
+        <v>0.617142</v>
       </c>
       <c r="C90" t="n">
-        <v>0.781501</v>
+        <v>0.612195</v>
       </c>
       <c r="D90" t="n">
-        <v>0.773021</v>
+        <v>0.587033</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.770437</v>
+        <v>0.6250289999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.778484</v>
+        <v>0.606217</v>
       </c>
       <c r="D91" t="n">
-        <v>0.778718</v>
+        <v>0.585271</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.76045</v>
+        <v>0.595159</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7765339999999999</v>
+        <v>0.593731</v>
       </c>
       <c r="D92" t="n">
-        <v>0.786344</v>
+        <v>0.570898</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.75144</v>
+        <v>0.597281</v>
       </c>
       <c r="C93" t="n">
-        <v>0.766386</v>
+        <v>0.583218</v>
       </c>
       <c r="D93" t="n">
-        <v>0.759282</v>
+        <v>0.568354</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.747309</v>
+        <v>0.599939</v>
       </c>
       <c r="C94" t="n">
-        <v>0.750235</v>
+        <v>0.590241</v>
       </c>
       <c r="D94" t="n">
-        <v>1.01622</v>
+        <v>0.8130309999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9794389999999999</v>
+        <v>0.8059770000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.999302</v>
+        <v>0.783424</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00209</v>
+        <v>0.780049</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9538</v>
+        <v>0.816932</v>
       </c>
       <c r="C96" t="n">
-        <v>0.998424</v>
+        <v>0.79072</v>
       </c>
       <c r="D96" t="n">
-        <v>0.995374</v>
+        <v>0.7712020000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.967791</v>
+        <v>0.821758</v>
       </c>
       <c r="C97" t="n">
-        <v>1.01082</v>
+        <v>0.787869</v>
       </c>
       <c r="D97" t="n">
-        <v>0.998235</v>
+        <v>0.7576929999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.973936</v>
+        <v>0.792664</v>
       </c>
       <c r="C98" t="n">
-        <v>0.978352</v>
+        <v>0.783685</v>
       </c>
       <c r="D98" t="n">
-        <v>0.982849</v>
+        <v>0.760116</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9373050000000001</v>
+        <v>0.775194</v>
       </c>
       <c r="C99" t="n">
-        <v>0.968181</v>
+        <v>0.78044</v>
       </c>
       <c r="D99" t="n">
-        <v>0.969954</v>
+        <v>0.753311</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.924145</v>
+        <v>0.789039</v>
       </c>
       <c r="C100" t="n">
-        <v>0.958454</v>
+        <v>0.749716</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9460190000000001</v>
+        <v>0.7403419999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.923871</v>
+        <v>0.7521949999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.953084</v>
+        <v>0.741262</v>
       </c>
       <c r="D101" t="n">
-        <v>0.95379</v>
+        <v>0.717199</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.926974</v>
+        <v>0.741213</v>
       </c>
       <c r="C102" t="n">
-        <v>0.936737</v>
+        <v>0.748883</v>
       </c>
       <c r="D102" t="n">
-        <v>0.913376</v>
+        <v>0.699908</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.894659</v>
+        <v>0.747821</v>
       </c>
       <c r="C103" t="n">
-        <v>0.930359</v>
+        <v>0.737619</v>
       </c>
       <c r="D103" t="n">
-        <v>0.911338</v>
+        <v>0.6978569999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.895505</v>
+        <v>0.739778</v>
       </c>
       <c r="C104" t="n">
-        <v>0.915239</v>
+        <v>0.725571</v>
       </c>
       <c r="D104" t="n">
-        <v>0.904235</v>
+        <v>0.6998259999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.917478</v>
+        <v>0.740088</v>
       </c>
       <c r="C105" t="n">
-        <v>0.924955</v>
+        <v>0.73051</v>
       </c>
       <c r="D105" t="n">
-        <v>0.914054</v>
+        <v>0.707388</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.890651</v>
+        <v>0.753247</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9038389999999999</v>
+        <v>0.731324</v>
       </c>
       <c r="D106" t="n">
-        <v>0.907315</v>
+        <v>0.6958259999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.876508</v>
+        <v>0.735976</v>
       </c>
       <c r="C107" t="n">
-        <v>0.892215</v>
+        <v>0.725371</v>
       </c>
       <c r="D107" t="n">
-        <v>0.894564</v>
+        <v>0.695056</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.880359</v>
+        <v>0.741719</v>
       </c>
       <c r="C108" t="n">
-        <v>0.892568</v>
+        <v>0.720521</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17331</v>
+        <v>0.917552</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.889275</v>
+        <v>0.721088</v>
       </c>
       <c r="C109" t="n">
-        <v>0.90382</v>
+        <v>0.727285</v>
       </c>
       <c r="D109" t="n">
-        <v>1.12443</v>
+        <v>0.90801</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.13245</v>
+        <v>0.939285</v>
       </c>
       <c r="C110" t="n">
-        <v>1.11534</v>
+        <v>0.928473</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1017</v>
+        <v>0.884744</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.09685</v>
+        <v>0.9479109999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>1.11757</v>
+        <v>0.934793</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13758</v>
+        <v>0.896061</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.10101</v>
+        <v>0.950375</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12473</v>
+        <v>0.932466</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14959</v>
+        <v>0.889266</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13162</v>
+        <v>0.914246</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1101</v>
+        <v>0.955189</v>
       </c>
       <c r="D113" t="n">
-        <v>1.10315</v>
+        <v>0.868319</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.0929</v>
+        <v>0.962877</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13435</v>
+        <v>0.940649</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09815</v>
+        <v>0.86014</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.06921</v>
+        <v>0.917125</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09359</v>
+        <v>0.924565</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10336</v>
+        <v>0.855839</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.08662</v>
+        <v>0.935107</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11236</v>
+        <v>0.91515</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09196</v>
+        <v>0.864177</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.07193</v>
+        <v>0.944416</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1232</v>
+        <v>0.938692</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08117</v>
+        <v>0.84687</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09129</v>
+        <v>0.925854</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11996</v>
+        <v>0.915129</v>
       </c>
       <c r="D118" t="n">
-        <v>1.08808</v>
+        <v>0.851218</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09912</v>
+        <v>0.910035</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10333</v>
+        <v>0.904389</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05216</v>
+        <v>0.847346</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.07449</v>
+        <v>0.928576</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09593</v>
+        <v>0.917341</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04604</v>
+        <v>0.842912</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.05552</v>
+        <v>0.923243</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09629</v>
+        <v>0.902232</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05924</v>
+        <v>0.854577</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09285</v>
+        <v>0.916071</v>
       </c>
       <c r="C122" t="n">
-        <v>1.06811</v>
+        <v>0.909376</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05714</v>
+        <v>0.834148</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08414</v>
+        <v>0.919748</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07762</v>
+        <v>0.9027770000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34579</v>
+        <v>1.07735</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.30408</v>
+        <v>1.14303</v>
       </c>
       <c r="C124" t="n">
-        <v>1.3227</v>
+        <v>1.1454</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31632</v>
+        <v>1.07779</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.30166</v>
+        <v>1.13498</v>
       </c>
       <c r="C125" t="n">
-        <v>1.34267</v>
+        <v>1.13338</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34784</v>
+        <v>1.06312</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32673</v>
+        <v>1.14989</v>
       </c>
       <c r="C126" t="n">
-        <v>1.35816</v>
+        <v>1.11273</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3235</v>
+        <v>1.08156</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32707</v>
+        <v>1.13833</v>
       </c>
       <c r="C127" t="n">
-        <v>1.34089</v>
+        <v>1.10767</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30011</v>
+        <v>1.06933</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32394</v>
+        <v>1.14918</v>
       </c>
       <c r="C128" t="n">
-        <v>1.34251</v>
+        <v>1.12168</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31689</v>
+        <v>1.05791</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30414</v>
+        <v>1.15029</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31458</v>
+        <v>1.1078</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30934</v>
+        <v>1.05344</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31342</v>
+        <v>1.15993</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33028</v>
+        <v>1.13705</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30099</v>
+        <v>1.05668</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32396</v>
+        <v>1.14066</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32624</v>
+        <v>1.114</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29615</v>
+        <v>1.06831</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33101</v>
+        <v>1.1577</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32262</v>
+        <v>1.1289</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31375</v>
+        <v>1.06398</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33669</v>
+        <v>1.16394</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32142</v>
+        <v>1.12169</v>
       </c>
       <c r="D133" t="n">
-        <v>1.2951</v>
+        <v>1.05668</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.3163</v>
+        <v>1.17244</v>
       </c>
       <c r="C134" t="n">
-        <v>1.3228</v>
+        <v>1.12665</v>
       </c>
       <c r="D134" t="n">
-        <v>1.28606</v>
+        <v>1.06492</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34461</v>
+        <v>1.15168</v>
       </c>
       <c r="C135" t="n">
-        <v>1.33943</v>
+        <v>1.1229</v>
       </c>
       <c r="D135" t="n">
-        <v>1.29249</v>
+        <v>1.07295</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32293</v>
+        <v>1.16451</v>
       </c>
       <c r="C136" t="n">
-        <v>1.338</v>
+        <v>1.13792</v>
       </c>
       <c r="D136" t="n">
-        <v>1.30752</v>
+        <v>1.07762</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35423</v>
+        <v>1.16721</v>
       </c>
       <c r="C137" t="n">
-        <v>1.3437</v>
+        <v>1.1572</v>
       </c>
       <c r="D137" t="n">
-        <v>1.57217</v>
+        <v>1.30706</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.57087</v>
+        <v>1.40819</v>
       </c>
       <c r="C138" t="n">
-        <v>1.59146</v>
+        <v>1.34964</v>
       </c>
       <c r="D138" t="n">
-        <v>1.58045</v>
+        <v>1.29644</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58417</v>
+        <v>1.41727</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59372</v>
+        <v>1.36218</v>
       </c>
       <c r="D139" t="n">
-        <v>1.59236</v>
+        <v>1.30593</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5817</v>
+        <v>1.41564</v>
       </c>
       <c r="C140" t="n">
-        <v>1.57772</v>
+        <v>1.37289</v>
       </c>
       <c r="D140" t="n">
-        <v>1.57735</v>
+        <v>1.31306</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.57612</v>
+        <v>1.41179</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59222</v>
+        <v>1.36243</v>
       </c>
       <c r="D141" t="n">
-        <v>1.57712</v>
+        <v>1.30817</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5763</v>
+        <v>1.41309</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56661</v>
+        <v>1.39053</v>
       </c>
       <c r="D142" t="n">
-        <v>1.57109</v>
+        <v>1.30602</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.57448</v>
+        <v>1.41988</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55556</v>
+        <v>1.36965</v>
       </c>
       <c r="D143" t="n">
-        <v>1.58263</v>
+        <v>1.32002</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.342772</v>
+        <v>0.591596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.327268</v>
+        <v>0.545393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312908</v>
+        <v>0.359303</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.345459</v>
+        <v>0.364379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.322705</v>
+        <v>0.377563</v>
       </c>
       <c r="D3" t="n">
-        <v>0.327354</v>
+        <v>0.346432</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.334796</v>
+        <v>0.352457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.31948</v>
+        <v>0.3659</v>
       </c>
       <c r="D4" t="n">
-        <v>0.304555</v>
+        <v>0.338809</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.328802</v>
+        <v>0.33849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.30875</v>
+        <v>0.35345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.291203</v>
+        <v>0.3259</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.332454</v>
+        <v>0.324457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.308782</v>
+        <v>0.343371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.289856</v>
+        <v>0.329192</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.317747</v>
+        <v>0.321836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.300334</v>
+        <v>0.353388</v>
       </c>
       <c r="D7" t="n">
-        <v>0.285497</v>
+        <v>0.325624</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.315731</v>
+        <v>0.311072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.298557</v>
+        <v>0.345849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.286272</v>
+        <v>0.323994</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.314795</v>
+        <v>0.321992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304657</v>
+        <v>0.338465</v>
       </c>
       <c r="D9" t="n">
-        <v>0.376361</v>
+        <v>0.448072</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.409275</v>
+        <v>0.5773</v>
       </c>
       <c r="C10" t="n">
-        <v>0.382012</v>
+        <v>0.611006</v>
       </c>
       <c r="D10" t="n">
-        <v>0.373024</v>
+        <v>0.431335</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.410702</v>
+        <v>0.5474250000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.370541</v>
+        <v>0.603463</v>
       </c>
       <c r="D11" t="n">
-        <v>0.353243</v>
+        <v>0.415461</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.39028</v>
+        <v>0.540036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.364232</v>
+        <v>0.583914</v>
       </c>
       <c r="D12" t="n">
-        <v>0.353891</v>
+        <v>0.419591</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.381269</v>
+        <v>0.52715</v>
       </c>
       <c r="C13" t="n">
-        <v>0.362381</v>
+        <v>0.556148</v>
       </c>
       <c r="D13" t="n">
-        <v>0.343145</v>
+        <v>0.393688</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.368283</v>
+        <v>0.500185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.349987</v>
+        <v>0.541961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.347529</v>
+        <v>0.3936</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.368426</v>
+        <v>0.482034</v>
       </c>
       <c r="C15" t="n">
-        <v>0.346804</v>
+        <v>0.521348</v>
       </c>
       <c r="D15" t="n">
-        <v>0.339131</v>
+        <v>0.387451</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.358415</v>
+        <v>0.471398</v>
       </c>
       <c r="C16" t="n">
-        <v>0.331093</v>
+        <v>0.508826</v>
       </c>
       <c r="D16" t="n">
-        <v>0.327263</v>
+        <v>0.375347</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.348844</v>
+        <v>0.470785</v>
       </c>
       <c r="C17" t="n">
-        <v>0.321145</v>
+        <v>0.490089</v>
       </c>
       <c r="D17" t="n">
-        <v>0.312223</v>
+        <v>0.361459</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.344454</v>
+        <v>0.449592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.317711</v>
+        <v>0.48147</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311261</v>
+        <v>0.363121</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.350078</v>
+        <v>0.44504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.314305</v>
+        <v>0.473934</v>
       </c>
       <c r="D19" t="n">
-        <v>0.314802</v>
+        <v>0.351874</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.329276</v>
+        <v>0.440566</v>
       </c>
       <c r="C20" t="n">
-        <v>0.32073</v>
+        <v>0.456867</v>
       </c>
       <c r="D20" t="n">
-        <v>0.306991</v>
+        <v>0.344181</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.321838</v>
+        <v>0.429362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.305993</v>
+        <v>0.446415</v>
       </c>
       <c r="D21" t="n">
-        <v>0.292176</v>
+        <v>0.355613</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.318231</v>
+        <v>0.4181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.304523</v>
+        <v>0.434064</v>
       </c>
       <c r="D22" t="n">
-        <v>0.299028</v>
+        <v>0.345974</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.318882</v>
+        <v>0.411933</v>
       </c>
       <c r="C23" t="n">
-        <v>0.302431</v>
+        <v>0.428081</v>
       </c>
       <c r="D23" t="n">
-        <v>0.501082</v>
+        <v>0.607577</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.503427</v>
+        <v>0.669961</v>
       </c>
       <c r="C24" t="n">
-        <v>0.483833</v>
+        <v>0.717158</v>
       </c>
       <c r="D24" t="n">
-        <v>0.495085</v>
+        <v>0.59427</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.490454</v>
+        <v>0.660034</v>
       </c>
       <c r="C25" t="n">
-        <v>0.463537</v>
+        <v>0.702801</v>
       </c>
       <c r="D25" t="n">
-        <v>0.474497</v>
+        <v>0.57308</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.470905</v>
+        <v>0.637281</v>
       </c>
       <c r="C26" t="n">
-        <v>0.45232</v>
+        <v>0.675627</v>
       </c>
       <c r="D26" t="n">
-        <v>0.460374</v>
+        <v>0.564195</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.453504</v>
+        <v>0.609795</v>
       </c>
       <c r="C27" t="n">
-        <v>0.438068</v>
+        <v>0.656852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.454263</v>
+        <v>0.541648</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.448343</v>
+        <v>0.589386</v>
       </c>
       <c r="C28" t="n">
-        <v>0.424317</v>
+        <v>0.631973</v>
       </c>
       <c r="D28" t="n">
-        <v>0.424303</v>
+        <v>0.523708</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.426967</v>
+        <v>0.5799299999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.407674</v>
+        <v>0.623703</v>
       </c>
       <c r="D29" t="n">
-        <v>0.415219</v>
+        <v>0.513227</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.428352</v>
+        <v>0.559442</v>
       </c>
       <c r="C30" t="n">
-        <v>0.409347</v>
+        <v>0.604702</v>
       </c>
       <c r="D30" t="n">
-        <v>0.413046</v>
+        <v>0.492534</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.414205</v>
+        <v>0.546409</v>
       </c>
       <c r="C31" t="n">
-        <v>0.390196</v>
+        <v>0.571138</v>
       </c>
       <c r="D31" t="n">
-        <v>0.396153</v>
+        <v>0.473418</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.400902</v>
+        <v>0.517367</v>
       </c>
       <c r="C32" t="n">
-        <v>0.385484</v>
+        <v>0.5571660000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.389011</v>
+        <v>0.461598</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.400408</v>
+        <v>0.520303</v>
       </c>
       <c r="C33" t="n">
-        <v>0.385494</v>
+        <v>0.558132</v>
       </c>
       <c r="D33" t="n">
-        <v>0.385551</v>
+        <v>0.455705</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.383423</v>
+        <v>0.498459</v>
       </c>
       <c r="C34" t="n">
-        <v>0.364106</v>
+        <v>0.527811</v>
       </c>
       <c r="D34" t="n">
-        <v>0.382006</v>
+        <v>0.440996</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.380876</v>
+        <v>0.486634</v>
       </c>
       <c r="C35" t="n">
-        <v>0.359498</v>
+        <v>0.516467</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367443</v>
+        <v>0.433463</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.378028</v>
+        <v>0.47121</v>
       </c>
       <c r="C36" t="n">
-        <v>0.360521</v>
+        <v>0.498763</v>
       </c>
       <c r="D36" t="n">
-        <v>0.361186</v>
+        <v>0.432874</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.361796</v>
+        <v>0.472665</v>
       </c>
       <c r="C37" t="n">
-        <v>0.357699</v>
+        <v>0.500528</v>
       </c>
       <c r="D37" t="n">
-        <v>0.540362</v>
+        <v>0.730173</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.562329</v>
+        <v>0.7143119999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.530793</v>
+        <v>0.780829</v>
       </c>
       <c r="D38" t="n">
-        <v>0.521085</v>
+        <v>0.686301</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.532729</v>
+        <v>0.721418</v>
       </c>
       <c r="C39" t="n">
-        <v>0.512953</v>
+        <v>0.758307</v>
       </c>
       <c r="D39" t="n">
-        <v>0.522883</v>
+        <v>0.677953</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.520198</v>
+        <v>0.676691</v>
       </c>
       <c r="C40" t="n">
-        <v>0.509076</v>
+        <v>0.749032</v>
       </c>
       <c r="D40" t="n">
-        <v>0.500094</v>
+        <v>0.648374</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.509507</v>
+        <v>0.674449</v>
       </c>
       <c r="C41" t="n">
-        <v>0.491988</v>
+        <v>0.716533</v>
       </c>
       <c r="D41" t="n">
-        <v>0.485377</v>
+        <v>0.651602</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.497748</v>
+        <v>0.653942</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48616</v>
+        <v>0.7023239999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.468986</v>
+        <v>0.62736</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.492328</v>
+        <v>0.63171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.460194</v>
+        <v>0.662714</v>
       </c>
       <c r="D43" t="n">
-        <v>0.457028</v>
+        <v>0.604293</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.472095</v>
+        <v>0.611027</v>
       </c>
       <c r="C44" t="n">
-        <v>0.448812</v>
+        <v>0.671775</v>
       </c>
       <c r="D44" t="n">
-        <v>0.44584</v>
+        <v>0.583753</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.465475</v>
+        <v>0.59319</v>
       </c>
       <c r="C45" t="n">
-        <v>0.438521</v>
+        <v>0.6210909999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.436422</v>
+        <v>0.568802</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.445845</v>
+        <v>0.586078</v>
       </c>
       <c r="C46" t="n">
-        <v>0.428076</v>
+        <v>0.601436</v>
       </c>
       <c r="D46" t="n">
-        <v>0.421272</v>
+        <v>0.552786</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.438799</v>
+        <v>0.5613899999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.436415</v>
+        <v>0.601067</v>
       </c>
       <c r="D47" t="n">
-        <v>0.40935</v>
+        <v>0.548548</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.42448</v>
+        <v>0.54548</v>
       </c>
       <c r="C48" t="n">
-        <v>0.416709</v>
+        <v>0.568576</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401713</v>
+        <v>0.515133</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.424264</v>
+        <v>0.5301169999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.405036</v>
+        <v>0.567859</v>
       </c>
       <c r="D49" t="n">
-        <v>0.409014</v>
+        <v>0.499275</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.42318</v>
+        <v>0.538606</v>
       </c>
       <c r="C50" t="n">
-        <v>0.394687</v>
+        <v>0.547253</v>
       </c>
       <c r="D50" t="n">
-        <v>0.393938</v>
+        <v>0.503032</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.406509</v>
+        <v>0.518127</v>
       </c>
       <c r="C51" t="n">
-        <v>0.396409</v>
+        <v>0.554132</v>
       </c>
       <c r="D51" t="n">
-        <v>0.584282</v>
+        <v>0.811931</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.412603</v>
+        <v>0.499371</v>
       </c>
       <c r="C52" t="n">
-        <v>0.395785</v>
+        <v>0.534331</v>
       </c>
       <c r="D52" t="n">
-        <v>0.556776</v>
+        <v>0.76525</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.583399</v>
+        <v>0.779118</v>
       </c>
       <c r="C53" t="n">
-        <v>0.55017</v>
+        <v>0.807103</v>
       </c>
       <c r="D53" t="n">
-        <v>0.537295</v>
+        <v>0.763617</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.565316</v>
+        <v>0.743076</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5497300000000001</v>
+        <v>0.817824</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5294450000000001</v>
+        <v>0.726056</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.55702</v>
+        <v>0.742</v>
       </c>
       <c r="C55" t="n">
-        <v>0.519019</v>
+        <v>0.791476</v>
       </c>
       <c r="D55" t="n">
-        <v>0.51415</v>
+        <v>0.732484</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.526193</v>
+        <v>0.735872</v>
       </c>
       <c r="C56" t="n">
-        <v>0.517707</v>
+        <v>0.7649319999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.503472</v>
+        <v>0.684825</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.521158</v>
+        <v>0.7062</v>
       </c>
       <c r="C57" t="n">
-        <v>0.505069</v>
+        <v>0.723595</v>
       </c>
       <c r="D57" t="n">
-        <v>0.49776</v>
+        <v>0.687074</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.511591</v>
+        <v>0.672488</v>
       </c>
       <c r="C58" t="n">
-        <v>0.490499</v>
+        <v>0.722611</v>
       </c>
       <c r="D58" t="n">
-        <v>0.474567</v>
+        <v>0.6666840000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.496757</v>
+        <v>0.660243</v>
       </c>
       <c r="C59" t="n">
-        <v>0.477125</v>
+        <v>0.6911890000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.484955</v>
+        <v>0.654471</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.492041</v>
+        <v>0.662573</v>
       </c>
       <c r="C60" t="n">
-        <v>0.460407</v>
+        <v>0.671786</v>
       </c>
       <c r="D60" t="n">
-        <v>0.449454</v>
+        <v>0.6351290000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.478017</v>
+        <v>0.636267</v>
       </c>
       <c r="C61" t="n">
-        <v>0.451775</v>
+        <v>0.66269</v>
       </c>
       <c r="D61" t="n">
-        <v>0.445332</v>
+        <v>0.617393</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.454989</v>
+        <v>0.619005</v>
       </c>
       <c r="C62" t="n">
-        <v>0.439237</v>
+        <v>0.662106</v>
       </c>
       <c r="D62" t="n">
-        <v>0.428398</v>
+        <v>0.609249</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.452835</v>
+        <v>0.610016</v>
       </c>
       <c r="C63" t="n">
-        <v>0.435288</v>
+        <v>0.631639</v>
       </c>
       <c r="D63" t="n">
-        <v>0.426546</v>
+        <v>0.588235</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.442714</v>
+        <v>0.5851690000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.427985</v>
+        <v>0.619093</v>
       </c>
       <c r="D64" t="n">
-        <v>0.430482</v>
+        <v>0.584883</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.439798</v>
+        <v>0.606901</v>
       </c>
       <c r="C65" t="n">
-        <v>0.423631</v>
+        <v>0.615663</v>
       </c>
       <c r="D65" t="n">
-        <v>0.422826</v>
+        <v>0.569571</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.43635</v>
+        <v>0.568837</v>
       </c>
       <c r="C66" t="n">
-        <v>0.427193</v>
+        <v>0.621227</v>
       </c>
       <c r="D66" t="n">
-        <v>0.611524</v>
+        <v>0.901774</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6460050000000001</v>
+        <v>0.871732</v>
       </c>
       <c r="C67" t="n">
-        <v>0.610666</v>
+        <v>0.918</v>
       </c>
       <c r="D67" t="n">
-        <v>0.596093</v>
+        <v>0.851456</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.62549</v>
+        <v>0.853353</v>
       </c>
       <c r="C68" t="n">
-        <v>0.607062</v>
+        <v>0.908278</v>
       </c>
       <c r="D68" t="n">
-        <v>0.587551</v>
+        <v>0.844911</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6068789999999999</v>
+        <v>0.844355</v>
       </c>
       <c r="C69" t="n">
-        <v>0.588529</v>
+        <v>0.929551</v>
       </c>
       <c r="D69" t="n">
-        <v>0.578309</v>
+        <v>0.829114</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.579689</v>
+        <v>0.814838</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5628</v>
+        <v>0.86098</v>
       </c>
       <c r="D70" t="n">
-        <v>0.550277</v>
+        <v>0.793739</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.587947</v>
+        <v>0.784492</v>
       </c>
       <c r="C71" t="n">
-        <v>0.558052</v>
+        <v>0.833721</v>
       </c>
       <c r="D71" t="n">
-        <v>0.542855</v>
+        <v>0.788503</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.574617</v>
+        <v>0.787592</v>
       </c>
       <c r="C72" t="n">
-        <v>0.556822</v>
+        <v>0.823973</v>
       </c>
       <c r="D72" t="n">
-        <v>0.54122</v>
+        <v>0.75618</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.563153</v>
+        <v>0.768281</v>
       </c>
       <c r="C73" t="n">
-        <v>0.544041</v>
+        <v>0.79254</v>
       </c>
       <c r="D73" t="n">
-        <v>0.532507</v>
+        <v>0.730901</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.550807</v>
+        <v>0.730559</v>
       </c>
       <c r="C74" t="n">
-        <v>0.532867</v>
+        <v>0.774448</v>
       </c>
       <c r="D74" t="n">
-        <v>0.522386</v>
+        <v>0.720583</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.552844</v>
+        <v>0.7150260000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.530942</v>
+        <v>0.76529</v>
       </c>
       <c r="D75" t="n">
-        <v>0.503399</v>
+        <v>0.6945249999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.539346</v>
+        <v>0.710736</v>
       </c>
       <c r="C76" t="n">
-        <v>0.525317</v>
+        <v>0.7429750000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.501095</v>
+        <v>0.695862</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.518902</v>
+        <v>0.708317</v>
       </c>
       <c r="C77" t="n">
-        <v>0.507838</v>
+        <v>0.719133</v>
       </c>
       <c r="D77" t="n">
-        <v>0.48802</v>
+        <v>0.695219</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.521123</v>
+        <v>0.689238</v>
       </c>
       <c r="C78" t="n">
-        <v>0.504979</v>
+        <v>0.697867</v>
       </c>
       <c r="D78" t="n">
-        <v>0.48737</v>
+        <v>0.676538</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.504545</v>
+        <v>0.686836</v>
       </c>
       <c r="C79" t="n">
-        <v>0.489012</v>
+        <v>0.691841</v>
       </c>
       <c r="D79" t="n">
-        <v>0.484549</v>
+        <v>0.65813</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.505825</v>
+        <v>0.662743</v>
       </c>
       <c r="C80" t="n">
-        <v>0.500228</v>
+        <v>0.6746259999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.701373</v>
+        <v>1.01631</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.705907</v>
+        <v>0.984044</v>
       </c>
       <c r="C81" t="n">
-        <v>0.689704</v>
+        <v>1.02059</v>
       </c>
       <c r="D81" t="n">
-        <v>0.683114</v>
+        <v>1.00309</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.703215</v>
+        <v>0.973063</v>
       </c>
       <c r="C82" t="n">
-        <v>0.688665</v>
+        <v>1.03292</v>
       </c>
       <c r="D82" t="n">
-        <v>0.672434</v>
+        <v>0.951758</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.691677</v>
+        <v>0.964724</v>
       </c>
       <c r="C83" t="n">
-        <v>0.67615</v>
+        <v>0.99979</v>
       </c>
       <c r="D83" t="n">
-        <v>0.650873</v>
+        <v>0.936223</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.688815</v>
+        <v>0.915084</v>
       </c>
       <c r="C84" t="n">
-        <v>0.655759</v>
+        <v>0.969418</v>
       </c>
       <c r="D84" t="n">
-        <v>0.642092</v>
+        <v>0.906764</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.672401</v>
+        <v>0.9142709999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.647888</v>
+        <v>0.959946</v>
       </c>
       <c r="D85" t="n">
-        <v>0.62425</v>
+        <v>0.8945920000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.662895</v>
+        <v>0.879545</v>
       </c>
       <c r="C86" t="n">
-        <v>0.644392</v>
+        <v>0.9257649999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.624196</v>
+        <v>0.858869</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.653859</v>
+        <v>0.864554</v>
       </c>
       <c r="C87" t="n">
-        <v>0.626782</v>
+        <v>0.9070319999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.611769</v>
+        <v>0.837267</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.627857</v>
+        <v>0.836434</v>
       </c>
       <c r="C88" t="n">
-        <v>0.621913</v>
+        <v>0.892424</v>
       </c>
       <c r="D88" t="n">
-        <v>0.600513</v>
+        <v>0.81669</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.61774</v>
+        <v>0.819176</v>
       </c>
       <c r="C89" t="n">
-        <v>0.607356</v>
+        <v>0.859077</v>
       </c>
       <c r="D89" t="n">
-        <v>0.584484</v>
+        <v>0.816408</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.617142</v>
+        <v>0.812658</v>
       </c>
       <c r="C90" t="n">
-        <v>0.612195</v>
+        <v>0.857322</v>
       </c>
       <c r="D90" t="n">
-        <v>0.587033</v>
+        <v>0.796517</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6250289999999999</v>
+        <v>0.814827</v>
       </c>
       <c r="C91" t="n">
-        <v>0.606217</v>
+        <v>0.8313199999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.585271</v>
+        <v>0.7927920000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.595159</v>
+        <v>0.790826</v>
       </c>
       <c r="C92" t="n">
-        <v>0.593731</v>
+        <v>0.839166</v>
       </c>
       <c r="D92" t="n">
-        <v>0.570898</v>
+        <v>0.774813</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.597281</v>
+        <v>0.772421</v>
       </c>
       <c r="C93" t="n">
-        <v>0.583218</v>
+        <v>0.798295</v>
       </c>
       <c r="D93" t="n">
-        <v>0.568354</v>
+        <v>0.76923</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.599939</v>
+        <v>0.79021</v>
       </c>
       <c r="C94" t="n">
-        <v>0.590241</v>
+        <v>0.7874139999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8130309999999999</v>
+        <v>1.12147</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8059770000000001</v>
+        <v>1.08471</v>
       </c>
       <c r="C95" t="n">
-        <v>0.783424</v>
+        <v>1.12085</v>
       </c>
       <c r="D95" t="n">
-        <v>0.780049</v>
+        <v>1.06124</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.816932</v>
+        <v>1.0541</v>
       </c>
       <c r="C96" t="n">
-        <v>0.79072</v>
+        <v>1.11672</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7712020000000001</v>
+        <v>1.04484</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.821758</v>
+        <v>1.04049</v>
       </c>
       <c r="C97" t="n">
-        <v>0.787869</v>
+        <v>1.09677</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7576929999999999</v>
+        <v>1.04846</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.792664</v>
+        <v>1.01267</v>
       </c>
       <c r="C98" t="n">
-        <v>0.783685</v>
+        <v>1.0798</v>
       </c>
       <c r="D98" t="n">
-        <v>0.760116</v>
+        <v>1.00176</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.775194</v>
+        <v>1.01996</v>
       </c>
       <c r="C99" t="n">
-        <v>0.78044</v>
+        <v>1.06572</v>
       </c>
       <c r="D99" t="n">
-        <v>0.753311</v>
+        <v>0.979289</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.789039</v>
+        <v>1.00206</v>
       </c>
       <c r="C100" t="n">
-        <v>0.749716</v>
+        <v>1.05796</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7403419999999999</v>
+        <v>0.964794</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7521949999999999</v>
+        <v>1.01181</v>
       </c>
       <c r="C101" t="n">
-        <v>0.741262</v>
+        <v>1.03832</v>
       </c>
       <c r="D101" t="n">
-        <v>0.717199</v>
+        <v>0.938778</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.741213</v>
+        <v>0.971441</v>
       </c>
       <c r="C102" t="n">
-        <v>0.748883</v>
+        <v>0.998105</v>
       </c>
       <c r="D102" t="n">
-        <v>0.699908</v>
+        <v>0.939944</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.747821</v>
+        <v>0.951587</v>
       </c>
       <c r="C103" t="n">
-        <v>0.737619</v>
+        <v>0.986849</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6978569999999999</v>
+        <v>0.9184870000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.739778</v>
+        <v>0.976957</v>
       </c>
       <c r="C104" t="n">
-        <v>0.725571</v>
+        <v>0.9696709999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6998259999999999</v>
+        <v>0.922861</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.740088</v>
+        <v>0.932588</v>
       </c>
       <c r="C105" t="n">
-        <v>0.73051</v>
+        <v>0.967272</v>
       </c>
       <c r="D105" t="n">
-        <v>0.707388</v>
+        <v>0.905884</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.753247</v>
+        <v>0.935822</v>
       </c>
       <c r="C106" t="n">
-        <v>0.731324</v>
+        <v>0.960143</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6958259999999999</v>
+        <v>0.865384</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.735976</v>
+        <v>0.928667</v>
       </c>
       <c r="C107" t="n">
-        <v>0.725371</v>
+        <v>0.928378</v>
       </c>
       <c r="D107" t="n">
-        <v>0.695056</v>
+        <v>0.887117</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.741719</v>
+        <v>0.886285</v>
       </c>
       <c r="C108" t="n">
-        <v>0.720521</v>
+        <v>0.933071</v>
       </c>
       <c r="D108" t="n">
-        <v>0.917552</v>
+        <v>1.24131</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.721088</v>
+        <v>0.920801</v>
       </c>
       <c r="C109" t="n">
-        <v>0.727285</v>
+        <v>0.934617</v>
       </c>
       <c r="D109" t="n">
-        <v>0.90801</v>
+        <v>1.19406</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.939285</v>
+        <v>1.21483</v>
       </c>
       <c r="C110" t="n">
-        <v>0.928473</v>
+        <v>1.26911</v>
       </c>
       <c r="D110" t="n">
-        <v>0.884744</v>
+        <v>1.17393</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9479109999999999</v>
+        <v>1.19195</v>
       </c>
       <c r="C111" t="n">
-        <v>0.934793</v>
+        <v>1.26224</v>
       </c>
       <c r="D111" t="n">
-        <v>0.896061</v>
+        <v>1.19133</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.950375</v>
+        <v>1.17012</v>
       </c>
       <c r="C112" t="n">
-        <v>0.932466</v>
+        <v>1.22481</v>
       </c>
       <c r="D112" t="n">
-        <v>0.889266</v>
+        <v>1.14503</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.914246</v>
+        <v>1.16624</v>
       </c>
       <c r="C113" t="n">
-        <v>0.955189</v>
+        <v>1.26152</v>
       </c>
       <c r="D113" t="n">
-        <v>0.868319</v>
+        <v>1.14582</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.962877</v>
+        <v>1.18487</v>
       </c>
       <c r="C114" t="n">
-        <v>0.940649</v>
+        <v>1.21513</v>
       </c>
       <c r="D114" t="n">
-        <v>0.86014</v>
+        <v>1.13387</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.917125</v>
+        <v>1.17737</v>
       </c>
       <c r="C115" t="n">
-        <v>0.924565</v>
+        <v>1.20144</v>
       </c>
       <c r="D115" t="n">
-        <v>0.855839</v>
+        <v>1.10539</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.935107</v>
+        <v>1.14266</v>
       </c>
       <c r="C116" t="n">
-        <v>0.91515</v>
+        <v>1.19238</v>
       </c>
       <c r="D116" t="n">
-        <v>0.864177</v>
+        <v>1.1109</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.944416</v>
+        <v>1.14676</v>
       </c>
       <c r="C117" t="n">
-        <v>0.938692</v>
+        <v>1.1635</v>
       </c>
       <c r="D117" t="n">
-        <v>0.84687</v>
+        <v>1.0747</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.925854</v>
+        <v>1.1275</v>
       </c>
       <c r="C118" t="n">
-        <v>0.915129</v>
+        <v>1.15201</v>
       </c>
       <c r="D118" t="n">
-        <v>0.851218</v>
+        <v>1.08954</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.910035</v>
+        <v>1.15407</v>
       </c>
       <c r="C119" t="n">
-        <v>0.904389</v>
+        <v>1.14918</v>
       </c>
       <c r="D119" t="n">
-        <v>0.847346</v>
+        <v>1.09709</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.928576</v>
+        <v>1.11705</v>
       </c>
       <c r="C120" t="n">
-        <v>0.917341</v>
+        <v>1.14721</v>
       </c>
       <c r="D120" t="n">
-        <v>0.842912</v>
+        <v>1.03979</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.923243</v>
+        <v>1.10891</v>
       </c>
       <c r="C121" t="n">
-        <v>0.902232</v>
+        <v>1.16295</v>
       </c>
       <c r="D121" t="n">
-        <v>0.854577</v>
+        <v>1.03382</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.916071</v>
+        <v>1.10931</v>
       </c>
       <c r="C122" t="n">
-        <v>0.909376</v>
+        <v>1.14874</v>
       </c>
       <c r="D122" t="n">
-        <v>0.834148</v>
+        <v>1.05882</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.919748</v>
+        <v>1.11303</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9027770000000001</v>
+        <v>1.10487</v>
       </c>
       <c r="D123" t="n">
-        <v>1.07735</v>
+        <v>1.44878</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.14303</v>
+        <v>1.44377</v>
       </c>
       <c r="C124" t="n">
-        <v>1.1454</v>
+        <v>1.50173</v>
       </c>
       <c r="D124" t="n">
-        <v>1.07779</v>
+        <v>1.37815</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.13498</v>
+        <v>1.44171</v>
       </c>
       <c r="C125" t="n">
-        <v>1.13338</v>
+        <v>1.48932</v>
       </c>
       <c r="D125" t="n">
-        <v>1.06312</v>
+        <v>1.36899</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14989</v>
+        <v>1.40719</v>
       </c>
       <c r="C126" t="n">
-        <v>1.11273</v>
+        <v>1.45568</v>
       </c>
       <c r="D126" t="n">
-        <v>1.08156</v>
+        <v>1.35274</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13833</v>
+        <v>1.42868</v>
       </c>
       <c r="C127" t="n">
-        <v>1.10767</v>
+        <v>1.45289</v>
       </c>
       <c r="D127" t="n">
-        <v>1.06933</v>
+        <v>1.35929</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.14918</v>
+        <v>1.41642</v>
       </c>
       <c r="C128" t="n">
-        <v>1.12168</v>
+        <v>1.43886</v>
       </c>
       <c r="D128" t="n">
-        <v>1.05791</v>
+        <v>1.38319</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.15029</v>
+        <v>1.41599</v>
       </c>
       <c r="C129" t="n">
-        <v>1.1078</v>
+        <v>1.4231</v>
       </c>
       <c r="D129" t="n">
-        <v>1.05344</v>
+        <v>1.36254</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.15993</v>
+        <v>1.41726</v>
       </c>
       <c r="C130" t="n">
-        <v>1.13705</v>
+        <v>1.44187</v>
       </c>
       <c r="D130" t="n">
-        <v>1.05668</v>
+        <v>1.34288</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.14066</v>
+        <v>1.40234</v>
       </c>
       <c r="C131" t="n">
-        <v>1.114</v>
+        <v>1.40579</v>
       </c>
       <c r="D131" t="n">
-        <v>1.06831</v>
+        <v>1.34326</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.1577</v>
+        <v>1.40047</v>
       </c>
       <c r="C132" t="n">
-        <v>1.1289</v>
+        <v>1.41141</v>
       </c>
       <c r="D132" t="n">
-        <v>1.06398</v>
+        <v>1.32061</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.16394</v>
+        <v>1.38575</v>
       </c>
       <c r="C133" t="n">
-        <v>1.12169</v>
+        <v>1.38686</v>
       </c>
       <c r="D133" t="n">
-        <v>1.05668</v>
+        <v>1.33062</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.17244</v>
+        <v>1.40553</v>
       </c>
       <c r="C134" t="n">
-        <v>1.12665</v>
+        <v>1.39866</v>
       </c>
       <c r="D134" t="n">
-        <v>1.06492</v>
+        <v>1.32009</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.15168</v>
+        <v>1.43104</v>
       </c>
       <c r="C135" t="n">
-        <v>1.1229</v>
+        <v>1.38152</v>
       </c>
       <c r="D135" t="n">
-        <v>1.07295</v>
+        <v>1.32646</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.16451</v>
+        <v>1.39977</v>
       </c>
       <c r="C136" t="n">
-        <v>1.13792</v>
+        <v>1.39954</v>
       </c>
       <c r="D136" t="n">
-        <v>1.07762</v>
+        <v>1.34271</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.16721</v>
+        <v>1.39601</v>
       </c>
       <c r="C137" t="n">
-        <v>1.1572</v>
+        <v>1.4047</v>
       </c>
       <c r="D137" t="n">
-        <v>1.30706</v>
+        <v>1.68775</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.40819</v>
+        <v>1.77094</v>
       </c>
       <c r="C138" t="n">
-        <v>1.34964</v>
+        <v>1.75054</v>
       </c>
       <c r="D138" t="n">
-        <v>1.29644</v>
+        <v>1.65953</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.41727</v>
+        <v>1.74618</v>
       </c>
       <c r="C139" t="n">
-        <v>1.36218</v>
+        <v>1.73814</v>
       </c>
       <c r="D139" t="n">
-        <v>1.30593</v>
+        <v>1.61546</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.41564</v>
+        <v>1.63206</v>
       </c>
       <c r="C140" t="n">
-        <v>1.37289</v>
+        <v>1.71726</v>
       </c>
       <c r="D140" t="n">
-        <v>1.31306</v>
+        <v>1.66103</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.41179</v>
+        <v>1.73841</v>
       </c>
       <c r="C141" t="n">
-        <v>1.36243</v>
+        <v>1.70227</v>
       </c>
       <c r="D141" t="n">
-        <v>1.30817</v>
+        <v>1.64522</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.41309</v>
+        <v>1.7211</v>
       </c>
       <c r="C142" t="n">
-        <v>1.39053</v>
+        <v>1.69841</v>
       </c>
       <c r="D142" t="n">
-        <v>1.30602</v>
+        <v>1.63733</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.41988</v>
+        <v>1.70545</v>
       </c>
       <c r="C143" t="n">
-        <v>1.36965</v>
+        <v>1.69295</v>
       </c>
       <c r="D143" t="n">
-        <v>1.32002</v>
+        <v>1.62266</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.176173</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.170454</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.16664</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.162842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.15949</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.157601</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.157526</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.158158</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.224312</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.216303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.20828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.199434</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.192234</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.186342</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.179839</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.174481</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.169736</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.164781</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.1601</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.160533</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.161606</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.244449</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.234816</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.226429</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.209945</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.203289</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.196451</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.190226</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.187762</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.183073</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.179351</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.174169</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.174738</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.249169</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.239482</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.230602</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.218626</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.210872</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.203724</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.196883</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.191412</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.18555</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.181005</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.177226</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.174961</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.173021</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.173452</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.17753</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.24268</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.233963</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.2252</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.217991</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.209943</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.203009</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.196908</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.191258</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.18607</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.182011</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.178467</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.177595</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.177299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.180167</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.244646</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.235989</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.228156</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.220387</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.212482</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.205975</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.200613</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.194739</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.189617</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.184908</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.181292</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.178826</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.179163</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.181138</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.257644</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.249569</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.241893</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.234751</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.226978</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.219799</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.213375</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.207166</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.201474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.19677</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.192537</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.189582</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.188357</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.18918</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.26912</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.263515</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.258001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.251707</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.244324</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.237919</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.232212</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.227439</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.221821</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.217357</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.213424</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.210226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.207964</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.207921</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.209559</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.283981</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.277131</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.270794</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.264867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.259794</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.253954</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.24921</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.244865</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.240339</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.236998</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.233953</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.231224</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.230513</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.231737</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.319243</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.313506</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.302012</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.296555</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.291959</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.287332</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.283552</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.279594</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.276526</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.273541</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.271458</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.271185</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.271892</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.37228</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.367218</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.360389</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.354692</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.350179</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.345269</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.185496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.17914</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.170524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.169499</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.149657</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.161619</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.160816</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.161312</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.237105</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.225645</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.217736</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.210439</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.202388</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.195072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.188701</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.182715</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.178189</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.173444</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.169013</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.16628</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.16432</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.164868</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.244335</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.234904</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.227016</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.218274</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.211272</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.204111</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.196912</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.190547</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.187527</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.182838</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.180848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.17426</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.172159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.171778</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.256269</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.246739</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.23547</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.225397</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.217593</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.209907</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.202922</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.196554</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.190564</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.185285</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.180769</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.177066</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.174203</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.173722</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.175298</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.251635</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.242034</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.233004</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.225257</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.217553</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.209839</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.202907</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.197025</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.1914</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.186386</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.182207</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.179104</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.178898</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.260092</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.251907</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.241291</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.232729</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.224656</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.216811</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.20989</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.203254</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.19737</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.192268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.187689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.184139</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.182458</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.182405</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.263051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.254497</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.245979</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.237991</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.229829</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.222655</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.215492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.208861</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.202819</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.197551</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.19288</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.189225</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.186981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.18652</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.279398</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.272839</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.265664</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.25832</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.251327</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.243832</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.237699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.231533</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.225275</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.221074</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.215871</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.212823</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.211155</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.210494</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.212712</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.296635</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.289079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.281344</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.274607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.268304</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.26231</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.256897</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.251768</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.247624</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.243795</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.240537</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.237909</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.237154</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.238699</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.324651</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.318184</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.312519</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.307125</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.302006</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.29769</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.293184</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.28978</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.286402</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.283895</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.281675</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.280269</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.280711</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.282617</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.382259</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.37477</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.368197</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.362373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.35649</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.35135</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.177535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.17311</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.162867</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.164279</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.160258</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.149896</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.158577</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.234336</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.224925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.216883</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.20972</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.201848</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.194494</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.187921</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.182167</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.177316</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.171691</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.168023</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.165471</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.163669</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.163704</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.242678</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.235687</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.22455</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.218977</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.21035</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.203212</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.195416</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.188549</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.18509</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.182046</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.179224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.177848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.173541</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.169102</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.254042</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.259149</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.236306</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.222767</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.216405</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.208142</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.201677</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.195548</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.189056</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.182624</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.178156</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.174608</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.171633</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.170934</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.255758</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.247302</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.23943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.22978</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.220805</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.213086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.206423</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.199202</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.193161</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.188345</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.183701</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.179105</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.175983</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.175207</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.176868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.255168</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.245687</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.235894</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.228449</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.220252</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.212395</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.205789</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.198979</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.193168</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.187939</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.183439</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.179541</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.179061</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.179082</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.259911</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.251563</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.242857</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.234493</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.226465</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.218893</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.20522</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.199014</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.193511</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.189531</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.185885</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.18375</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.183845</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.278244</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.271679</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.265508</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.256713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.249207</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.24149</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.235856</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.228715</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.223444</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.218043</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.213537</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.210039</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.208195</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.208204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.304461</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.297571</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.287177</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.279271</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.273178</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.266397</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.260727</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.255738</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.250645</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.245993</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.241963</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.238673</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.236356</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.235818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.237864</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.32462</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.319055</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.314235</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.309144</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.304711</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.300168</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.296269</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.292886</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.289318</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.287032</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.285057</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.283504</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.284257</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.286675</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.386674</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.379899</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.37323</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.367346</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.361801</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.356534</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.351406</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.591596</v>
+        <v>0.5903080000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.545393</v>
+        <v>0.55019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.359303</v>
+        <v>0.358747</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.364379</v>
+        <v>0.351738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.377563</v>
+        <v>0.370073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.346432</v>
+        <v>0.349331</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.352457</v>
+        <v>0.341206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3659</v>
+        <v>0.358258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.338809</v>
+        <v>0.347351</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.33849</v>
+        <v>0.340624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.35345</v>
+        <v>0.345239</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3259</v>
+        <v>0.340245</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.324457</v>
+        <v>0.329603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.343371</v>
+        <v>0.337561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.329192</v>
+        <v>0.333526</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.321836</v>
+        <v>0.324396</v>
       </c>
       <c r="C7" t="n">
-        <v>0.353388</v>
+        <v>0.350074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.325624</v>
+        <v>0.324328</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.311072</v>
+        <v>0.32062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.345849</v>
+        <v>0.355542</v>
       </c>
       <c r="D8" t="n">
-        <v>0.323994</v>
+        <v>0.328753</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.321992</v>
+        <v>0.326754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.338465</v>
+        <v>0.340913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.448072</v>
+        <v>0.463852</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5773</v>
+        <v>0.566879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.611006</v>
+        <v>0.61892</v>
       </c>
       <c r="D10" t="n">
-        <v>0.431335</v>
+        <v>0.440633</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5474250000000001</v>
+        <v>0.580758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.603463</v>
+        <v>0.593004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.415461</v>
+        <v>0.433332</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.540036</v>
+        <v>0.532031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.583914</v>
+        <v>0.579614</v>
       </c>
       <c r="D12" t="n">
-        <v>0.419591</v>
+        <v>0.426179</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.52715</v>
+        <v>0.5236420000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.556148</v>
+        <v>0.563783</v>
       </c>
       <c r="D13" t="n">
-        <v>0.393688</v>
+        <v>0.400994</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.500185</v>
+        <v>0.507244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.541961</v>
+        <v>0.554111</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3936</v>
+        <v>0.400486</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482034</v>
+        <v>0.501403</v>
       </c>
       <c r="C15" t="n">
-        <v>0.521348</v>
+        <v>0.534843</v>
       </c>
       <c r="D15" t="n">
-        <v>0.387451</v>
+        <v>0.381736</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.471398</v>
+        <v>0.475613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.508826</v>
+        <v>0.513736</v>
       </c>
       <c r="D16" t="n">
-        <v>0.375347</v>
+        <v>0.371787</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470785</v>
+        <v>0.462077</v>
       </c>
       <c r="C17" t="n">
-        <v>0.490089</v>
+        <v>0.496716</v>
       </c>
       <c r="D17" t="n">
-        <v>0.361459</v>
+        <v>0.379502</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.449592</v>
+        <v>0.462757</v>
       </c>
       <c r="C18" t="n">
-        <v>0.48147</v>
+        <v>0.481122</v>
       </c>
       <c r="D18" t="n">
-        <v>0.363121</v>
+        <v>0.366195</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.44504</v>
+        <v>0.44631</v>
       </c>
       <c r="C19" t="n">
-        <v>0.473934</v>
+        <v>0.47307</v>
       </c>
       <c r="D19" t="n">
-        <v>0.351874</v>
+        <v>0.354991</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.440566</v>
+        <v>0.429416</v>
       </c>
       <c r="C20" t="n">
-        <v>0.456867</v>
+        <v>0.45672</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344181</v>
+        <v>0.342767</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429362</v>
+        <v>0.418419</v>
       </c>
       <c r="C21" t="n">
-        <v>0.446415</v>
+        <v>0.446596</v>
       </c>
       <c r="D21" t="n">
-        <v>0.355613</v>
+        <v>0.346301</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4181</v>
+        <v>0.421242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.434064</v>
+        <v>0.439536</v>
       </c>
       <c r="D22" t="n">
-        <v>0.345974</v>
+        <v>0.342426</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.411933</v>
+        <v>0.413153</v>
       </c>
       <c r="C23" t="n">
-        <v>0.428081</v>
+        <v>0.432634</v>
       </c>
       <c r="D23" t="n">
-        <v>0.607577</v>
+        <v>0.632533</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.669961</v>
+        <v>0.679084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.717158</v>
+        <v>0.71961</v>
       </c>
       <c r="D24" t="n">
-        <v>0.59427</v>
+        <v>0.599567</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.660034</v>
+        <v>0.652478</v>
       </c>
       <c r="C25" t="n">
-        <v>0.702801</v>
+        <v>0.715008</v>
       </c>
       <c r="D25" t="n">
-        <v>0.57308</v>
+        <v>0.584207</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.637281</v>
+        <v>0.653529</v>
       </c>
       <c r="C26" t="n">
-        <v>0.675627</v>
+        <v>0.680509</v>
       </c>
       <c r="D26" t="n">
-        <v>0.564195</v>
+        <v>0.5588109999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.609795</v>
+        <v>0.608301</v>
       </c>
       <c r="C27" t="n">
-        <v>0.656852</v>
+        <v>0.6478969999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.541648</v>
+        <v>0.550333</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.589386</v>
+        <v>0.6064349999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.631973</v>
+        <v>0.628508</v>
       </c>
       <c r="D28" t="n">
-        <v>0.523708</v>
+        <v>0.532327</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5799299999999999</v>
+        <v>0.5840109999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.623703</v>
+        <v>0.620588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.513227</v>
+        <v>0.510892</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.559442</v>
+        <v>0.562662</v>
       </c>
       <c r="C30" t="n">
-        <v>0.604702</v>
+        <v>0.596795</v>
       </c>
       <c r="D30" t="n">
-        <v>0.492534</v>
+        <v>0.502192</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.546409</v>
+        <v>0.552216</v>
       </c>
       <c r="C31" t="n">
-        <v>0.571138</v>
+        <v>0.579488</v>
       </c>
       <c r="D31" t="n">
-        <v>0.473418</v>
+        <v>0.472659</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.517367</v>
+        <v>0.520628</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5571660000000001</v>
+        <v>0.566465</v>
       </c>
       <c r="D32" t="n">
-        <v>0.461598</v>
+        <v>0.473122</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.520303</v>
+        <v>0.516438</v>
       </c>
       <c r="C33" t="n">
-        <v>0.558132</v>
+        <v>0.545395</v>
       </c>
       <c r="D33" t="n">
-        <v>0.455705</v>
+        <v>0.457853</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.498459</v>
+        <v>0.493192</v>
       </c>
       <c r="C34" t="n">
-        <v>0.527811</v>
+        <v>0.515799</v>
       </c>
       <c r="D34" t="n">
-        <v>0.440996</v>
+        <v>0.443871</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.486634</v>
+        <v>0.493028</v>
       </c>
       <c r="C35" t="n">
-        <v>0.516467</v>
+        <v>0.505822</v>
       </c>
       <c r="D35" t="n">
-        <v>0.433463</v>
+        <v>0.45035</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.47121</v>
+        <v>0.479929</v>
       </c>
       <c r="C36" t="n">
-        <v>0.498763</v>
+        <v>0.506657</v>
       </c>
       <c r="D36" t="n">
-        <v>0.432874</v>
+        <v>0.438829</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.472665</v>
+        <v>0.465343</v>
       </c>
       <c r="C37" t="n">
-        <v>0.500528</v>
+        <v>0.497244</v>
       </c>
       <c r="D37" t="n">
-        <v>0.730173</v>
+        <v>0.733116</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7143119999999999</v>
+        <v>0.734783</v>
       </c>
       <c r="C38" t="n">
-        <v>0.780829</v>
+        <v>0.784491</v>
       </c>
       <c r="D38" t="n">
-        <v>0.686301</v>
+        <v>0.689304</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.721418</v>
+        <v>0.713994</v>
       </c>
       <c r="C39" t="n">
-        <v>0.758307</v>
+        <v>0.773174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.677953</v>
+        <v>0.6753209999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.676691</v>
+        <v>0.691838</v>
       </c>
       <c r="C40" t="n">
-        <v>0.749032</v>
+        <v>0.7467819999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.648374</v>
+        <v>0.6649080000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.674449</v>
+        <v>0.683484</v>
       </c>
       <c r="C41" t="n">
-        <v>0.716533</v>
+        <v>0.7031500000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.651602</v>
+        <v>0.650408</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653942</v>
+        <v>0.670211</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7023239999999999</v>
+        <v>0.700919</v>
       </c>
       <c r="D42" t="n">
-        <v>0.62736</v>
+        <v>0.617144</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.63171</v>
+        <v>0.63098</v>
       </c>
       <c r="C43" t="n">
-        <v>0.662714</v>
+        <v>0.680943</v>
       </c>
       <c r="D43" t="n">
-        <v>0.604293</v>
+        <v>0.593798</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.611027</v>
+        <v>0.611488</v>
       </c>
       <c r="C44" t="n">
-        <v>0.671775</v>
+        <v>0.648007</v>
       </c>
       <c r="D44" t="n">
-        <v>0.583753</v>
+        <v>0.594903</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.59319</v>
+        <v>0.603403</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6210909999999999</v>
+        <v>0.656215</v>
       </c>
       <c r="D45" t="n">
-        <v>0.568802</v>
+        <v>0.566558</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.586078</v>
+        <v>0.574929</v>
       </c>
       <c r="C46" t="n">
-        <v>0.601436</v>
+        <v>0.630884</v>
       </c>
       <c r="D46" t="n">
-        <v>0.552786</v>
+        <v>0.5413559999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5613899999999999</v>
+        <v>0.575286</v>
       </c>
       <c r="C47" t="n">
-        <v>0.601067</v>
+        <v>0.590989</v>
       </c>
       <c r="D47" t="n">
-        <v>0.548548</v>
+        <v>0.525857</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.54548</v>
+        <v>0.56428</v>
       </c>
       <c r="C48" t="n">
-        <v>0.568576</v>
+        <v>0.578322</v>
       </c>
       <c r="D48" t="n">
-        <v>0.515133</v>
+        <v>0.518374</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5301169999999999</v>
+        <v>0.539687</v>
       </c>
       <c r="C49" t="n">
-        <v>0.567859</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.499275</v>
+        <v>0.5153990000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.538606</v>
+        <v>0.526262</v>
       </c>
       <c r="C50" t="n">
-        <v>0.547253</v>
+        <v>0.5547029999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.503032</v>
+        <v>0.500564</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.518127</v>
+        <v>0.506548</v>
       </c>
       <c r="C51" t="n">
-        <v>0.554132</v>
+        <v>0.531633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.811931</v>
+        <v>0.7982860000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.499371</v>
+        <v>0.512054</v>
       </c>
       <c r="C52" t="n">
-        <v>0.534331</v>
+        <v>0.5212</v>
       </c>
       <c r="D52" t="n">
-        <v>0.76525</v>
+        <v>0.7752289999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.779118</v>
+        <v>0.77628</v>
       </c>
       <c r="C53" t="n">
-        <v>0.807103</v>
+        <v>0.814067</v>
       </c>
       <c r="D53" t="n">
-        <v>0.763617</v>
+        <v>0.749005</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.743076</v>
+        <v>0.748231</v>
       </c>
       <c r="C54" t="n">
-        <v>0.817824</v>
+        <v>0.809542</v>
       </c>
       <c r="D54" t="n">
-        <v>0.726056</v>
+        <v>0.74912</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.742</v>
+        <v>0.7368170000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.791476</v>
+        <v>0.775518</v>
       </c>
       <c r="D55" t="n">
-        <v>0.732484</v>
+        <v>0.716737</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.735872</v>
+        <v>0.722243</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7649319999999999</v>
+        <v>0.776918</v>
       </c>
       <c r="D56" t="n">
-        <v>0.684825</v>
+        <v>0.704021</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7062</v>
+        <v>0.69908</v>
       </c>
       <c r="C57" t="n">
-        <v>0.723595</v>
+        <v>0.737144</v>
       </c>
       <c r="D57" t="n">
-        <v>0.687074</v>
+        <v>0.684041</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.672488</v>
+        <v>0.680873</v>
       </c>
       <c r="C58" t="n">
-        <v>0.722611</v>
+        <v>0.709771</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6666840000000001</v>
+        <v>0.661731</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.660243</v>
+        <v>0.663201</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6911890000000001</v>
+        <v>0.716052</v>
       </c>
       <c r="D59" t="n">
-        <v>0.654471</v>
+        <v>0.648776</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.662573</v>
+        <v>0.668953</v>
       </c>
       <c r="C60" t="n">
-        <v>0.671786</v>
+        <v>0.693846</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6351290000000001</v>
+        <v>0.6299630000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.636267</v>
+        <v>0.635108</v>
       </c>
       <c r="C61" t="n">
-        <v>0.66269</v>
+        <v>0.659449</v>
       </c>
       <c r="D61" t="n">
-        <v>0.617393</v>
+        <v>0.6108479999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.619005</v>
+        <v>0.6368279999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.662106</v>
+        <v>0.658019</v>
       </c>
       <c r="D62" t="n">
-        <v>0.609249</v>
+        <v>0.614944</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.610016</v>
+        <v>0.618908</v>
       </c>
       <c r="C63" t="n">
-        <v>0.631639</v>
+        <v>0.630516</v>
       </c>
       <c r="D63" t="n">
-        <v>0.588235</v>
+        <v>0.596804</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5851690000000001</v>
+        <v>0.6055430000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.619093</v>
+        <v>0.622816</v>
       </c>
       <c r="D64" t="n">
-        <v>0.584883</v>
+        <v>0.589131</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.606901</v>
+        <v>0.585422</v>
       </c>
       <c r="C65" t="n">
-        <v>0.615663</v>
+        <v>0.625262</v>
       </c>
       <c r="D65" t="n">
-        <v>0.569571</v>
+        <v>0.577803</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.568837</v>
+        <v>0.5871960000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.621227</v>
+        <v>0.598684</v>
       </c>
       <c r="D66" t="n">
-        <v>0.901774</v>
+        <v>0.889402</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.871732</v>
+        <v>0.859105</v>
       </c>
       <c r="C67" t="n">
-        <v>0.918</v>
+        <v>0.930652</v>
       </c>
       <c r="D67" t="n">
-        <v>0.851456</v>
+        <v>0.85658</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.853353</v>
+        <v>0.863069</v>
       </c>
       <c r="C68" t="n">
-        <v>0.908278</v>
+        <v>0.895916</v>
       </c>
       <c r="D68" t="n">
-        <v>0.844911</v>
+        <v>0.830116</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.844355</v>
+        <v>0.814608</v>
       </c>
       <c r="C69" t="n">
-        <v>0.929551</v>
+        <v>0.8771139999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.829114</v>
+        <v>0.817069</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.814838</v>
+        <v>0.799689</v>
       </c>
       <c r="C70" t="n">
-        <v>0.86098</v>
+        <v>0.848313</v>
       </c>
       <c r="D70" t="n">
-        <v>0.793739</v>
+        <v>0.801461</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.784492</v>
+        <v>0.790001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.833721</v>
+        <v>0.8308720000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.788503</v>
+        <v>0.782207</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.787592</v>
+        <v>0.774748</v>
       </c>
       <c r="C72" t="n">
-        <v>0.823973</v>
+        <v>0.835044</v>
       </c>
       <c r="D72" t="n">
-        <v>0.75618</v>
+        <v>0.769824</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.768281</v>
+        <v>0.76268</v>
       </c>
       <c r="C73" t="n">
-        <v>0.79254</v>
+        <v>0.793552</v>
       </c>
       <c r="D73" t="n">
-        <v>0.730901</v>
+        <v>0.7317360000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.730559</v>
+        <v>0.738371</v>
       </c>
       <c r="C74" t="n">
-        <v>0.774448</v>
+        <v>0.77579</v>
       </c>
       <c r="D74" t="n">
-        <v>0.720583</v>
+        <v>0.712275</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7150260000000001</v>
+        <v>0.7295430000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.76529</v>
+        <v>0.7423110000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6945249999999999</v>
+        <v>0.703457</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.710736</v>
+        <v>0.705743</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7429750000000001</v>
+        <v>0.736019</v>
       </c>
       <c r="D76" t="n">
-        <v>0.695862</v>
+        <v>0.713469</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.708317</v>
+        <v>0.706252</v>
       </c>
       <c r="C77" t="n">
-        <v>0.719133</v>
+        <v>0.7241379999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.695219</v>
+        <v>0.670835</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.689238</v>
+        <v>0.678849</v>
       </c>
       <c r="C78" t="n">
-        <v>0.697867</v>
+        <v>0.70799</v>
       </c>
       <c r="D78" t="n">
-        <v>0.676538</v>
+        <v>0.673574</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.686836</v>
+        <v>0.697233</v>
       </c>
       <c r="C79" t="n">
-        <v>0.691841</v>
+        <v>0.697453</v>
       </c>
       <c r="D79" t="n">
-        <v>0.65813</v>
+        <v>0.664928</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.662743</v>
+        <v>0.676214</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6746259999999999</v>
+        <v>0.6944090000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>1.01631</v>
+        <v>1.01741</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.984044</v>
+        <v>0.973867</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02059</v>
+        <v>1.06468</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00309</v>
+        <v>0.976854</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.973063</v>
+        <v>0.9965850000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>1.03292</v>
+        <v>1.02163</v>
       </c>
       <c r="D82" t="n">
-        <v>0.951758</v>
+        <v>0.947502</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.964724</v>
+        <v>0.933266</v>
       </c>
       <c r="C83" t="n">
-        <v>0.99979</v>
+        <v>0.988895</v>
       </c>
       <c r="D83" t="n">
-        <v>0.936223</v>
+        <v>0.944578</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.915084</v>
+        <v>0.940066</v>
       </c>
       <c r="C84" t="n">
-        <v>0.969418</v>
+        <v>0.997514</v>
       </c>
       <c r="D84" t="n">
-        <v>0.906764</v>
+        <v>0.907117</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9142709999999999</v>
+        <v>0.918335</v>
       </c>
       <c r="C85" t="n">
-        <v>0.959946</v>
+        <v>0.942657</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8945920000000001</v>
+        <v>0.922463</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.879545</v>
+        <v>0.905533</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9257649999999999</v>
+        <v>0.929643</v>
       </c>
       <c r="D86" t="n">
-        <v>0.858869</v>
+        <v>0.886294</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.864554</v>
+        <v>0.886521</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9070319999999999</v>
+        <v>0.965746</v>
       </c>
       <c r="D87" t="n">
-        <v>0.837267</v>
+        <v>0.850341</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.836434</v>
+        <v>0.86143</v>
       </c>
       <c r="C88" t="n">
-        <v>0.892424</v>
+        <v>0.893927</v>
       </c>
       <c r="D88" t="n">
-        <v>0.81669</v>
+        <v>0.848264</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.819176</v>
+        <v>0.841652</v>
       </c>
       <c r="C89" t="n">
-        <v>0.859077</v>
+        <v>0.853824</v>
       </c>
       <c r="D89" t="n">
-        <v>0.816408</v>
+        <v>0.824515</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.812658</v>
+        <v>0.812878</v>
       </c>
       <c r="C90" t="n">
-        <v>0.857322</v>
+        <v>0.861178</v>
       </c>
       <c r="D90" t="n">
-        <v>0.796517</v>
+        <v>0.785875</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.814827</v>
+        <v>0.803296</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8313199999999999</v>
+        <v>0.821721</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7927920000000001</v>
+        <v>0.7716460000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.790826</v>
+        <v>0.802268</v>
       </c>
       <c r="C92" t="n">
-        <v>0.839166</v>
+        <v>0.824824</v>
       </c>
       <c r="D92" t="n">
-        <v>0.774813</v>
+        <v>0.770688</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.772421</v>
+        <v>0.783735</v>
       </c>
       <c r="C93" t="n">
-        <v>0.798295</v>
+        <v>0.795569</v>
       </c>
       <c r="D93" t="n">
-        <v>0.76923</v>
+        <v>0.752931</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.79021</v>
+        <v>0.782227</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7874139999999999</v>
+        <v>0.809302</v>
       </c>
       <c r="D94" t="n">
-        <v>1.12147</v>
+        <v>1.11862</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08471</v>
+        <v>1.08833</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12085</v>
+        <v>1.15626</v>
       </c>
       <c r="D95" t="n">
-        <v>1.06124</v>
+        <v>1.10608</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0541</v>
+        <v>1.08062</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11672</v>
+        <v>1.1364</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04484</v>
+        <v>1.05866</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04049</v>
+        <v>1.0582</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09677</v>
+        <v>1.1306</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04846</v>
+        <v>1.03727</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01267</v>
+        <v>1.03985</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0798</v>
+        <v>1.06893</v>
       </c>
       <c r="D98" t="n">
-        <v>1.00176</v>
+        <v>1.00843</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01996</v>
+        <v>1.04182</v>
       </c>
       <c r="C99" t="n">
-        <v>1.06572</v>
+        <v>1.04569</v>
       </c>
       <c r="D99" t="n">
-        <v>0.979289</v>
+        <v>1.00686</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00206</v>
+        <v>0.999295</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05796</v>
+        <v>1.05301</v>
       </c>
       <c r="D100" t="n">
-        <v>0.964794</v>
+        <v>0.968009</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01181</v>
+        <v>0.980722</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03832</v>
+        <v>1.04559</v>
       </c>
       <c r="D101" t="n">
-        <v>0.938778</v>
+        <v>0.944352</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.971441</v>
+        <v>0.974622</v>
       </c>
       <c r="C102" t="n">
-        <v>0.998105</v>
+        <v>1.00912</v>
       </c>
       <c r="D102" t="n">
-        <v>0.939944</v>
+        <v>0.9241239999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.951587</v>
+        <v>0.9700260000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.986849</v>
+        <v>0.983716</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9184870000000001</v>
+        <v>0.9257919999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.976957</v>
+        <v>0.950118</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9696709999999999</v>
+        <v>0.997157</v>
       </c>
       <c r="D104" t="n">
-        <v>0.922861</v>
+        <v>0.91181</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.932588</v>
+        <v>0.921034</v>
       </c>
       <c r="C105" t="n">
-        <v>0.967272</v>
+        <v>0.989105</v>
       </c>
       <c r="D105" t="n">
-        <v>0.905884</v>
+        <v>0.894056</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.935822</v>
+        <v>0.951985</v>
       </c>
       <c r="C106" t="n">
-        <v>0.960143</v>
+        <v>0.943147</v>
       </c>
       <c r="D106" t="n">
-        <v>0.865384</v>
+        <v>0.8811369999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.928667</v>
+        <v>0.928866</v>
       </c>
       <c r="C107" t="n">
-        <v>0.928378</v>
+        <v>0.949567</v>
       </c>
       <c r="D107" t="n">
-        <v>0.887117</v>
+        <v>0.871679</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.886285</v>
+        <v>0.920871</v>
       </c>
       <c r="C108" t="n">
-        <v>0.933071</v>
+        <v>0.936812</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24131</v>
+        <v>1.24528</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.920801</v>
+        <v>0.895032</v>
       </c>
       <c r="C109" t="n">
-        <v>0.934617</v>
+        <v>0.908988</v>
       </c>
       <c r="D109" t="n">
-        <v>1.19406</v>
+        <v>1.21803</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21483</v>
+        <v>1.21063</v>
       </c>
       <c r="C110" t="n">
-        <v>1.26911</v>
+        <v>1.27613</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17393</v>
+        <v>1.19198</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.19195</v>
+        <v>1.20593</v>
       </c>
       <c r="C111" t="n">
-        <v>1.26224</v>
+        <v>1.30496</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19133</v>
+        <v>1.16653</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17012</v>
+        <v>1.18105</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22481</v>
+        <v>1.23782</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14503</v>
+        <v>1.1346</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16624</v>
+        <v>1.19373</v>
       </c>
       <c r="C113" t="n">
-        <v>1.26152</v>
+        <v>1.22503</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14582</v>
+        <v>1.12911</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.18487</v>
+        <v>1.17143</v>
       </c>
       <c r="C114" t="n">
-        <v>1.21513</v>
+        <v>1.19914</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13387</v>
+        <v>1.14269</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17737</v>
+        <v>1.17408</v>
       </c>
       <c r="C115" t="n">
-        <v>1.20144</v>
+        <v>1.2179</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10539</v>
+        <v>1.11396</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14266</v>
+        <v>1.1492</v>
       </c>
       <c r="C116" t="n">
-        <v>1.19238</v>
+        <v>1.18501</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1109</v>
+        <v>1.08556</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14676</v>
+        <v>1.14953</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1635</v>
+        <v>1.17966</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0747</v>
+        <v>1.07482</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1275</v>
+        <v>1.13181</v>
       </c>
       <c r="C118" t="n">
-        <v>1.15201</v>
+        <v>1.14871</v>
       </c>
       <c r="D118" t="n">
-        <v>1.08954</v>
+        <v>1.08137</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.15407</v>
+        <v>1.12808</v>
       </c>
       <c r="C119" t="n">
-        <v>1.14918</v>
+        <v>1.15528</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09709</v>
+        <v>1.05161</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11705</v>
+        <v>1.12165</v>
       </c>
       <c r="C120" t="n">
-        <v>1.14721</v>
+        <v>1.13191</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03979</v>
+        <v>1.05337</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10891</v>
+        <v>1.15025</v>
       </c>
       <c r="C121" t="n">
-        <v>1.16295</v>
+        <v>1.14273</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03382</v>
+        <v>1.03243</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10931</v>
+        <v>1.12879</v>
       </c>
       <c r="C122" t="n">
-        <v>1.14874</v>
+        <v>1.13444</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05882</v>
+        <v>1.03636</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11303</v>
+        <v>1.1286</v>
       </c>
       <c r="C123" t="n">
-        <v>1.10487</v>
+        <v>1.11582</v>
       </c>
       <c r="D123" t="n">
-        <v>1.44878</v>
+        <v>1.39294</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.44377</v>
+        <v>1.44001</v>
       </c>
       <c r="C124" t="n">
-        <v>1.50173</v>
+        <v>1.52245</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37815</v>
+        <v>1.38608</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44171</v>
+        <v>1.43541</v>
       </c>
       <c r="C125" t="n">
-        <v>1.48932</v>
+        <v>1.44672</v>
       </c>
       <c r="D125" t="n">
-        <v>1.36899</v>
+        <v>1.36275</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.40719</v>
+        <v>1.4218</v>
       </c>
       <c r="C126" t="n">
-        <v>1.45568</v>
+        <v>1.47234</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35274</v>
+        <v>1.37262</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.42868</v>
+        <v>1.42433</v>
       </c>
       <c r="C127" t="n">
-        <v>1.45289</v>
+        <v>1.44333</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35929</v>
+        <v>1.3811</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.41642</v>
+        <v>1.40383</v>
       </c>
       <c r="C128" t="n">
-        <v>1.43886</v>
+        <v>1.42882</v>
       </c>
       <c r="D128" t="n">
-        <v>1.38319</v>
+        <v>1.34004</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41599</v>
+        <v>1.43904</v>
       </c>
       <c r="C129" t="n">
-        <v>1.4231</v>
+        <v>1.43417</v>
       </c>
       <c r="D129" t="n">
-        <v>1.36254</v>
+        <v>1.35653</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.41726</v>
+        <v>1.40654</v>
       </c>
       <c r="C130" t="n">
-        <v>1.44187</v>
+        <v>1.42939</v>
       </c>
       <c r="D130" t="n">
-        <v>1.34288</v>
+        <v>1.33679</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40234</v>
+        <v>1.43886</v>
       </c>
       <c r="C131" t="n">
-        <v>1.40579</v>
+        <v>1.41149</v>
       </c>
       <c r="D131" t="n">
-        <v>1.34326</v>
+        <v>1.33421</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40047</v>
+        <v>1.39541</v>
       </c>
       <c r="C132" t="n">
-        <v>1.41141</v>
+        <v>1.4276</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32061</v>
+        <v>1.3337</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.38575</v>
+        <v>1.42157</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38686</v>
+        <v>1.41055</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33062</v>
+        <v>1.30556</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40553</v>
+        <v>1.41244</v>
       </c>
       <c r="C134" t="n">
-        <v>1.39866</v>
+        <v>1.3945</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32009</v>
+        <v>1.32216</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.43104</v>
+        <v>1.39125</v>
       </c>
       <c r="C135" t="n">
-        <v>1.38152</v>
+        <v>1.4213</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32646</v>
+        <v>1.34674</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39977</v>
+        <v>1.39677</v>
       </c>
       <c r="C136" t="n">
-        <v>1.39954</v>
+        <v>1.3978</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34271</v>
+        <v>1.33294</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.39601</v>
+        <v>1.41563</v>
       </c>
       <c r="C137" t="n">
-        <v>1.4047</v>
+        <v>1.39967</v>
       </c>
       <c r="D137" t="n">
-        <v>1.68775</v>
+        <v>1.7021</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.77094</v>
+        <v>1.75739</v>
       </c>
       <c r="C138" t="n">
-        <v>1.75054</v>
+        <v>1.76501</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65953</v>
+        <v>1.67076</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74618</v>
+        <v>1.75177</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73814</v>
+        <v>1.75014</v>
       </c>
       <c r="D139" t="n">
-        <v>1.61546</v>
+        <v>1.68705</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.63206</v>
+        <v>1.72807</v>
       </c>
       <c r="C140" t="n">
-        <v>1.71726</v>
+        <v>1.71635</v>
       </c>
       <c r="D140" t="n">
-        <v>1.66103</v>
+        <v>1.66266</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.73841</v>
+        <v>1.73211</v>
       </c>
       <c r="C141" t="n">
-        <v>1.70227</v>
+        <v>1.72712</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64522</v>
+        <v>1.65476</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.7211</v>
+        <v>1.72689</v>
       </c>
       <c r="C142" t="n">
-        <v>1.69841</v>
+        <v>1.6976</v>
       </c>
       <c r="D142" t="n">
-        <v>1.63733</v>
+        <v>1.6443</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70545</v>
+        <v>1.72717</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69295</v>
+        <v>1.68716</v>
       </c>
       <c r="D143" t="n">
-        <v>1.62266</v>
+        <v>1.63008</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5903080000000001</v>
+        <v>0.5807099999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.55019</v>
+        <v>0.555522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.358747</v>
+        <v>0.351912</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.351738</v>
+        <v>0.3532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.370073</v>
+        <v>0.369621</v>
       </c>
       <c r="D3" t="n">
-        <v>0.349331</v>
+        <v>0.354159</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.341206</v>
+        <v>0.337953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.358258</v>
+        <v>0.363343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.347351</v>
+        <v>0.343612</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.340624</v>
+        <v>0.337533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.345239</v>
+        <v>0.368576</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340245</v>
+        <v>0.340007</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.329603</v>
+        <v>0.327427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.337561</v>
+        <v>0.344833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333526</v>
+        <v>0.33117</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.324396</v>
+        <v>0.322299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.350074</v>
+        <v>0.341019</v>
       </c>
       <c r="D7" t="n">
-        <v>0.324328</v>
+        <v>0.324963</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32062</v>
+        <v>0.317041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.355542</v>
+        <v>0.335389</v>
       </c>
       <c r="D8" t="n">
-        <v>0.328753</v>
+        <v>0.326222</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.326754</v>
+        <v>0.323604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.340913</v>
+        <v>0.330442</v>
       </c>
       <c r="D9" t="n">
-        <v>0.463852</v>
+        <v>0.441939</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.566879</v>
+        <v>0.589552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.61892</v>
+        <v>0.60637</v>
       </c>
       <c r="D10" t="n">
-        <v>0.440633</v>
+        <v>0.436131</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.580758</v>
+        <v>0.55436</v>
       </c>
       <c r="C11" t="n">
-        <v>0.593004</v>
+        <v>0.595631</v>
       </c>
       <c r="D11" t="n">
-        <v>0.433332</v>
+        <v>0.430374</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.532031</v>
+        <v>0.523774</v>
       </c>
       <c r="C12" t="n">
-        <v>0.579614</v>
+        <v>0.5765749999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.426179</v>
+        <v>0.410447</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5236420000000001</v>
+        <v>0.513139</v>
       </c>
       <c r="C13" t="n">
-        <v>0.563783</v>
+        <v>0.551872</v>
       </c>
       <c r="D13" t="n">
-        <v>0.400994</v>
+        <v>0.401826</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.507244</v>
+        <v>0.504109</v>
       </c>
       <c r="C14" t="n">
-        <v>0.554111</v>
+        <v>0.536234</v>
       </c>
       <c r="D14" t="n">
-        <v>0.400486</v>
+        <v>0.402843</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.501403</v>
+        <v>0.483516</v>
       </c>
       <c r="C15" t="n">
-        <v>0.534843</v>
+        <v>0.529438</v>
       </c>
       <c r="D15" t="n">
-        <v>0.381736</v>
+        <v>0.398788</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475613</v>
+        <v>0.476144</v>
       </c>
       <c r="C16" t="n">
-        <v>0.513736</v>
+        <v>0.505958</v>
       </c>
       <c r="D16" t="n">
-        <v>0.371787</v>
+        <v>0.367881</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.462077</v>
+        <v>0.464532</v>
       </c>
       <c r="C17" t="n">
-        <v>0.496716</v>
+        <v>0.492505</v>
       </c>
       <c r="D17" t="n">
-        <v>0.379502</v>
+        <v>0.370609</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462757</v>
+        <v>0.454584</v>
       </c>
       <c r="C18" t="n">
-        <v>0.481122</v>
+        <v>0.478008</v>
       </c>
       <c r="D18" t="n">
-        <v>0.366195</v>
+        <v>0.363424</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.44631</v>
+        <v>0.445121</v>
       </c>
       <c r="C19" t="n">
-        <v>0.47307</v>
+        <v>0.473851</v>
       </c>
       <c r="D19" t="n">
-        <v>0.354991</v>
+        <v>0.356379</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.429416</v>
+        <v>0.436412</v>
       </c>
       <c r="C20" t="n">
-        <v>0.45672</v>
+        <v>0.460124</v>
       </c>
       <c r="D20" t="n">
-        <v>0.342767</v>
+        <v>0.341561</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418419</v>
+        <v>0.41896</v>
       </c>
       <c r="C21" t="n">
-        <v>0.446596</v>
+        <v>0.454778</v>
       </c>
       <c r="D21" t="n">
-        <v>0.346301</v>
+        <v>0.339253</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.421242</v>
+        <v>0.41816</v>
       </c>
       <c r="C22" t="n">
-        <v>0.439536</v>
+        <v>0.438221</v>
       </c>
       <c r="D22" t="n">
-        <v>0.342426</v>
+        <v>0.342055</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.413153</v>
+        <v>0.413335</v>
       </c>
       <c r="C23" t="n">
-        <v>0.432634</v>
+        <v>0.426172</v>
       </c>
       <c r="D23" t="n">
-        <v>0.632533</v>
+        <v>0.606237</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.679084</v>
+        <v>0.667412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.71961</v>
+        <v>0.734354</v>
       </c>
       <c r="D24" t="n">
-        <v>0.599567</v>
+        <v>0.586798</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.652478</v>
+        <v>0.63757</v>
       </c>
       <c r="C25" t="n">
-        <v>0.715008</v>
+        <v>0.699193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.584207</v>
+        <v>0.582849</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.653529</v>
+        <v>0.635201</v>
       </c>
       <c r="C26" t="n">
-        <v>0.680509</v>
+        <v>0.679028</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5588109999999999</v>
+        <v>0.546993</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.608301</v>
+        <v>0.6191489999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6478969999999999</v>
+        <v>0.6455880000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.550333</v>
+        <v>0.544018</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6064349999999999</v>
+        <v>0.601805</v>
       </c>
       <c r="C28" t="n">
-        <v>0.628508</v>
+        <v>0.625382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.532327</v>
+        <v>0.518415</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5840109999999999</v>
+        <v>0.576182</v>
       </c>
       <c r="C29" t="n">
-        <v>0.620588</v>
+        <v>0.606871</v>
       </c>
       <c r="D29" t="n">
-        <v>0.510892</v>
+        <v>0.508606</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.562662</v>
+        <v>0.579373</v>
       </c>
       <c r="C30" t="n">
-        <v>0.596795</v>
+        <v>0.591537</v>
       </c>
       <c r="D30" t="n">
-        <v>0.502192</v>
+        <v>0.492033</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.552216</v>
+        <v>0.55119</v>
       </c>
       <c r="C31" t="n">
-        <v>0.579488</v>
+        <v>0.580467</v>
       </c>
       <c r="D31" t="n">
-        <v>0.472659</v>
+        <v>0.475359</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.520628</v>
+        <v>0.533554</v>
       </c>
       <c r="C32" t="n">
-        <v>0.566465</v>
+        <v>0.551243</v>
       </c>
       <c r="D32" t="n">
-        <v>0.473122</v>
+        <v>0.465762</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.516438</v>
+        <v>0.505342</v>
       </c>
       <c r="C33" t="n">
-        <v>0.545395</v>
+        <v>0.535305</v>
       </c>
       <c r="D33" t="n">
-        <v>0.457853</v>
+        <v>0.447555</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.493192</v>
+        <v>0.498489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.515799</v>
+        <v>0.529467</v>
       </c>
       <c r="D34" t="n">
-        <v>0.443871</v>
+        <v>0.446145</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.493028</v>
+        <v>0.501628</v>
       </c>
       <c r="C35" t="n">
-        <v>0.505822</v>
+        <v>0.514133</v>
       </c>
       <c r="D35" t="n">
-        <v>0.45035</v>
+        <v>0.435433</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.479929</v>
+        <v>0.472872</v>
       </c>
       <c r="C36" t="n">
-        <v>0.506657</v>
+        <v>0.516496</v>
       </c>
       <c r="D36" t="n">
-        <v>0.438829</v>
+        <v>0.426383</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.465343</v>
+        <v>0.467288</v>
       </c>
       <c r="C37" t="n">
-        <v>0.497244</v>
+        <v>0.491381</v>
       </c>
       <c r="D37" t="n">
-        <v>0.733116</v>
+        <v>0.716712</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.734783</v>
+        <v>0.744572</v>
       </c>
       <c r="C38" t="n">
-        <v>0.784491</v>
+        <v>0.785899</v>
       </c>
       <c r="D38" t="n">
-        <v>0.689304</v>
+        <v>0.685493</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.713994</v>
+        <v>0.704923</v>
       </c>
       <c r="C39" t="n">
-        <v>0.773174</v>
+        <v>0.7511949999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6753209999999999</v>
+        <v>0.666907</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.691838</v>
+        <v>0.681444</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7467819999999999</v>
+        <v>0.727513</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6649080000000001</v>
+        <v>0.649764</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.683484</v>
+        <v>0.667045</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7031500000000001</v>
+        <v>0.727674</v>
       </c>
       <c r="D41" t="n">
-        <v>0.650408</v>
+        <v>0.631892</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.670211</v>
+        <v>0.664292</v>
       </c>
       <c r="C42" t="n">
-        <v>0.700919</v>
+        <v>0.681122</v>
       </c>
       <c r="D42" t="n">
-        <v>0.617144</v>
+        <v>0.606454</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.63098</v>
+        <v>0.633846</v>
       </c>
       <c r="C43" t="n">
-        <v>0.680943</v>
+        <v>0.675433</v>
       </c>
       <c r="D43" t="n">
-        <v>0.593798</v>
+        <v>0.6044310000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.611488</v>
+        <v>0.608973</v>
       </c>
       <c r="C44" t="n">
-        <v>0.648007</v>
+        <v>0.644438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.594903</v>
+        <v>0.570989</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.603403</v>
+        <v>0.5979680000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.656215</v>
+        <v>0.631767</v>
       </c>
       <c r="D45" t="n">
-        <v>0.566558</v>
+        <v>0.56294</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.574929</v>
+        <v>0.584923</v>
       </c>
       <c r="C46" t="n">
-        <v>0.630884</v>
+        <v>0.607954</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5413559999999999</v>
+        <v>0.558446</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.575286</v>
+        <v>0.561608</v>
       </c>
       <c r="C47" t="n">
-        <v>0.590989</v>
+        <v>0.591148</v>
       </c>
       <c r="D47" t="n">
-        <v>0.525857</v>
+        <v>0.529035</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.56428</v>
+        <v>0.544404</v>
       </c>
       <c r="C48" t="n">
-        <v>0.578322</v>
+        <v>0.575311</v>
       </c>
       <c r="D48" t="n">
-        <v>0.518374</v>
+        <v>0.525744</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.539687</v>
+        <v>0.532049</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.562097</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5153990000000001</v>
+        <v>0.514358</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.526262</v>
+        <v>0.514945</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5547029999999999</v>
+        <v>0.552476</v>
       </c>
       <c r="D50" t="n">
-        <v>0.500564</v>
+        <v>0.500658</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.506548</v>
+        <v>0.5073</v>
       </c>
       <c r="C51" t="n">
-        <v>0.531633</v>
+        <v>0.535467</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7982860000000001</v>
+        <v>0.783864</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.512054</v>
+        <v>0.5090170000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5212</v>
+        <v>0.5322519999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7752289999999999</v>
+        <v>0.77918</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.77628</v>
+        <v>0.763692</v>
       </c>
       <c r="C53" t="n">
-        <v>0.814067</v>
+        <v>0.813731</v>
       </c>
       <c r="D53" t="n">
-        <v>0.749005</v>
+        <v>0.749376</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.748231</v>
+        <v>0.740273</v>
       </c>
       <c r="C54" t="n">
-        <v>0.809542</v>
+        <v>0.7970429999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.74912</v>
+        <v>0.740772</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7368170000000001</v>
+        <v>0.723963</v>
       </c>
       <c r="C55" t="n">
-        <v>0.775518</v>
+        <v>0.776081</v>
       </c>
       <c r="D55" t="n">
-        <v>0.716737</v>
+        <v>0.715249</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.722243</v>
+        <v>0.705484</v>
       </c>
       <c r="C56" t="n">
-        <v>0.776918</v>
+        <v>0.755293</v>
       </c>
       <c r="D56" t="n">
-        <v>0.704021</v>
+        <v>0.689435</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.69908</v>
+        <v>0.68252</v>
       </c>
       <c r="C57" t="n">
-        <v>0.737144</v>
+        <v>0.736969</v>
       </c>
       <c r="D57" t="n">
-        <v>0.684041</v>
+        <v>0.668943</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.680873</v>
+        <v>0.687322</v>
       </c>
       <c r="C58" t="n">
-        <v>0.709771</v>
+        <v>0.705088</v>
       </c>
       <c r="D58" t="n">
-        <v>0.661731</v>
+        <v>0.65088</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.663201</v>
+        <v>0.667797</v>
       </c>
       <c r="C59" t="n">
-        <v>0.716052</v>
+        <v>0.695663</v>
       </c>
       <c r="D59" t="n">
-        <v>0.648776</v>
+        <v>0.632672</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.668953</v>
+        <v>0.64319</v>
       </c>
       <c r="C60" t="n">
-        <v>0.693846</v>
+        <v>0.672225</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6299630000000001</v>
+        <v>0.6225579999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.635108</v>
+        <v>0.632587</v>
       </c>
       <c r="C61" t="n">
-        <v>0.659449</v>
+        <v>0.655203</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6108479999999999</v>
+        <v>0.614094</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6368279999999999</v>
+        <v>0.621821</v>
       </c>
       <c r="C62" t="n">
-        <v>0.658019</v>
+        <v>0.650349</v>
       </c>
       <c r="D62" t="n">
-        <v>0.614944</v>
+        <v>0.596087</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.618908</v>
+        <v>0.606352</v>
       </c>
       <c r="C63" t="n">
-        <v>0.630516</v>
+        <v>0.629942</v>
       </c>
       <c r="D63" t="n">
-        <v>0.596804</v>
+        <v>0.584266</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6055430000000001</v>
+        <v>0.589727</v>
       </c>
       <c r="C64" t="n">
-        <v>0.622816</v>
+        <v>0.624542</v>
       </c>
       <c r="D64" t="n">
-        <v>0.589131</v>
+        <v>0.579718</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.585422</v>
+        <v>0.579407</v>
       </c>
       <c r="C65" t="n">
-        <v>0.625262</v>
+        <v>0.60615</v>
       </c>
       <c r="D65" t="n">
-        <v>0.577803</v>
+        <v>0.5698800000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5871960000000001</v>
+        <v>0.572089</v>
       </c>
       <c r="C66" t="n">
-        <v>0.598684</v>
+        <v>0.590374</v>
       </c>
       <c r="D66" t="n">
-        <v>0.889402</v>
+        <v>0.877007</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.859105</v>
+        <v>0.860972</v>
       </c>
       <c r="C67" t="n">
-        <v>0.930652</v>
+        <v>0.92187</v>
       </c>
       <c r="D67" t="n">
-        <v>0.85658</v>
+        <v>0.8488329999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.863069</v>
+        <v>0.846909</v>
       </c>
       <c r="C68" t="n">
-        <v>0.895916</v>
+        <v>0.886749</v>
       </c>
       <c r="D68" t="n">
-        <v>0.830116</v>
+        <v>0.820672</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.814608</v>
+        <v>0.834854</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8771139999999999</v>
+        <v>0.877812</v>
       </c>
       <c r="D69" t="n">
-        <v>0.817069</v>
+        <v>0.791003</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.799689</v>
+        <v>0.795292</v>
       </c>
       <c r="C70" t="n">
-        <v>0.848313</v>
+        <v>0.829045</v>
       </c>
       <c r="D70" t="n">
-        <v>0.801461</v>
+        <v>0.795239</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.790001</v>
+        <v>0.782464</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8308720000000001</v>
+        <v>0.824499</v>
       </c>
       <c r="D71" t="n">
-        <v>0.782207</v>
+        <v>0.772471</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.774748</v>
+        <v>0.770521</v>
       </c>
       <c r="C72" t="n">
-        <v>0.835044</v>
+        <v>0.811319</v>
       </c>
       <c r="D72" t="n">
-        <v>0.769824</v>
+        <v>0.77885</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.76268</v>
+        <v>0.784353</v>
       </c>
       <c r="C73" t="n">
-        <v>0.793552</v>
+        <v>0.782776</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7317360000000001</v>
+        <v>0.726147</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.738371</v>
+        <v>0.735869</v>
       </c>
       <c r="C74" t="n">
-        <v>0.77579</v>
+        <v>0.7668199999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.712275</v>
+        <v>0.721859</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7295430000000001</v>
+        <v>0.734035</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7423110000000001</v>
+        <v>0.7522489999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703457</v>
+        <v>0.710279</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.705743</v>
+        <v>0.704145</v>
       </c>
       <c r="C76" t="n">
-        <v>0.736019</v>
+        <v>0.739392</v>
       </c>
       <c r="D76" t="n">
-        <v>0.713469</v>
+        <v>0.694816</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.706252</v>
+        <v>0.68615</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7241379999999999</v>
+        <v>0.715614</v>
       </c>
       <c r="D77" t="n">
-        <v>0.670835</v>
+        <v>0.673901</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.678849</v>
+        <v>0.687925</v>
       </c>
       <c r="C78" t="n">
-        <v>0.70799</v>
+        <v>0.704375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.673574</v>
+        <v>0.66884</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.697233</v>
+        <v>0.671817</v>
       </c>
       <c r="C79" t="n">
-        <v>0.697453</v>
+        <v>0.689679</v>
       </c>
       <c r="D79" t="n">
-        <v>0.664928</v>
+        <v>0.656767</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.676214</v>
+        <v>0.665906</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6944090000000001</v>
+        <v>0.679492</v>
       </c>
       <c r="D80" t="n">
-        <v>1.01741</v>
+        <v>1.00422</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.973867</v>
+        <v>0.956763</v>
       </c>
       <c r="C81" t="n">
-        <v>1.06468</v>
+        <v>1.0368</v>
       </c>
       <c r="D81" t="n">
-        <v>0.976854</v>
+        <v>0.970177</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9965850000000001</v>
+        <v>0.95372</v>
       </c>
       <c r="C82" t="n">
-        <v>1.02163</v>
+        <v>1.01866</v>
       </c>
       <c r="D82" t="n">
-        <v>0.947502</v>
+        <v>0.9790720000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.933266</v>
+        <v>0.942987</v>
       </c>
       <c r="C83" t="n">
-        <v>0.988895</v>
+        <v>1.01237</v>
       </c>
       <c r="D83" t="n">
-        <v>0.944578</v>
+        <v>0.945586</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.940066</v>
+        <v>0.907959</v>
       </c>
       <c r="C84" t="n">
-        <v>0.997514</v>
+        <v>0.966436</v>
       </c>
       <c r="D84" t="n">
-        <v>0.907117</v>
+        <v>0.906114</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.918335</v>
+        <v>0.892894</v>
       </c>
       <c r="C85" t="n">
-        <v>0.942657</v>
+        <v>0.939851</v>
       </c>
       <c r="D85" t="n">
-        <v>0.922463</v>
+        <v>0.8734229999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.905533</v>
+        <v>0.873499</v>
       </c>
       <c r="C86" t="n">
-        <v>0.929643</v>
+        <v>0.907072</v>
       </c>
       <c r="D86" t="n">
-        <v>0.886294</v>
+        <v>0.872077</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.886521</v>
+        <v>0.9075299999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.965746</v>
+        <v>0.903935</v>
       </c>
       <c r="D87" t="n">
-        <v>0.850341</v>
+        <v>0.854109</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.86143</v>
+        <v>0.854762</v>
       </c>
       <c r="C88" t="n">
-        <v>0.893927</v>
+        <v>0.892584</v>
       </c>
       <c r="D88" t="n">
-        <v>0.848264</v>
+        <v>0.840239</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.841652</v>
+        <v>0.8471880000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.853824</v>
+        <v>0.860013</v>
       </c>
       <c r="D89" t="n">
-        <v>0.824515</v>
+        <v>0.81102</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.812878</v>
+        <v>0.823376</v>
       </c>
       <c r="C90" t="n">
-        <v>0.861178</v>
+        <v>0.860938</v>
       </c>
       <c r="D90" t="n">
-        <v>0.785875</v>
+        <v>0.821896</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.803296</v>
+        <v>0.8245130000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.821721</v>
+        <v>0.851221</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7716460000000001</v>
+        <v>0.769786</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.802268</v>
+        <v>0.795451</v>
       </c>
       <c r="C92" t="n">
-        <v>0.824824</v>
+        <v>0.8216599999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.770688</v>
+        <v>0.764755</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.783735</v>
+        <v>0.779813</v>
       </c>
       <c r="C93" t="n">
-        <v>0.795569</v>
+        <v>0.800565</v>
       </c>
       <c r="D93" t="n">
-        <v>0.752931</v>
+        <v>0.758153</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.782227</v>
+        <v>0.763827</v>
       </c>
       <c r="C94" t="n">
-        <v>0.809302</v>
+        <v>0.792407</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11862</v>
+        <v>1.10709</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08833</v>
+        <v>1.09465</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15626</v>
+        <v>1.14664</v>
       </c>
       <c r="D95" t="n">
-        <v>1.10608</v>
+        <v>1.09021</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08062</v>
+        <v>1.08151</v>
       </c>
       <c r="C96" t="n">
-        <v>1.1364</v>
+        <v>1.12418</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05866</v>
+        <v>1.0607</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.0582</v>
+        <v>1.07078</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1306</v>
+        <v>1.10739</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03727</v>
+        <v>1.04133</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03985</v>
+        <v>1.02718</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06893</v>
+        <v>1.08302</v>
       </c>
       <c r="D98" t="n">
-        <v>1.00843</v>
+        <v>0.997455</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.04182</v>
+        <v>1.02965</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04569</v>
+        <v>1.06332</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00686</v>
+        <v>0.973595</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.999295</v>
+        <v>1.01778</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05301</v>
+        <v>1.05883</v>
       </c>
       <c r="D100" t="n">
-        <v>0.968009</v>
+        <v>0.965778</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.980722</v>
+        <v>0.964122</v>
       </c>
       <c r="C101" t="n">
-        <v>1.04559</v>
+        <v>1.01291</v>
       </c>
       <c r="D101" t="n">
-        <v>0.944352</v>
+        <v>0.977339</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.974622</v>
+        <v>0.958882</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00912</v>
+        <v>1.02772</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9241239999999999</v>
+        <v>0.953735</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9700260000000001</v>
+        <v>0.979631</v>
       </c>
       <c r="C103" t="n">
-        <v>0.983716</v>
+        <v>1.00407</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9257919999999999</v>
+        <v>0.933601</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.950118</v>
+        <v>0.964767</v>
       </c>
       <c r="C104" t="n">
-        <v>0.997157</v>
+        <v>0.969665</v>
       </c>
       <c r="D104" t="n">
-        <v>0.91181</v>
+        <v>0.917855</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.921034</v>
+        <v>0.950308</v>
       </c>
       <c r="C105" t="n">
-        <v>0.989105</v>
+        <v>0.9693349999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.894056</v>
+        <v>0.900056</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.951985</v>
+        <v>0.964235</v>
       </c>
       <c r="C106" t="n">
-        <v>0.943147</v>
+        <v>0.944679</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8811369999999999</v>
+        <v>0.866221</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.928866</v>
+        <v>0.917638</v>
       </c>
       <c r="C107" t="n">
-        <v>0.949567</v>
+        <v>0.919414</v>
       </c>
       <c r="D107" t="n">
-        <v>0.871679</v>
+        <v>0.872135</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.920871</v>
+        <v>0.903141</v>
       </c>
       <c r="C108" t="n">
-        <v>0.936812</v>
+        <v>0.936792</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24528</v>
+        <v>1.22229</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.895032</v>
+        <v>0.88936</v>
       </c>
       <c r="C109" t="n">
-        <v>0.908988</v>
+        <v>0.923251</v>
       </c>
       <c r="D109" t="n">
-        <v>1.21803</v>
+        <v>1.18929</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21063</v>
+        <v>1.21508</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27613</v>
+        <v>1.25834</v>
       </c>
       <c r="D110" t="n">
-        <v>1.19198</v>
+        <v>1.18815</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.20593</v>
+        <v>1.19864</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30496</v>
+        <v>1.24669</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16653</v>
+        <v>1.16883</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.18105</v>
+        <v>1.18831</v>
       </c>
       <c r="C112" t="n">
-        <v>1.23782</v>
+        <v>1.24051</v>
       </c>
       <c r="D112" t="n">
-        <v>1.1346</v>
+        <v>1.15453</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.19373</v>
+        <v>1.22014</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22503</v>
+        <v>1.23454</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12911</v>
+        <v>1.14715</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17143</v>
+        <v>1.1673</v>
       </c>
       <c r="C114" t="n">
-        <v>1.19914</v>
+        <v>1.22033</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14269</v>
+        <v>1.13889</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17408</v>
+        <v>1.17564</v>
       </c>
       <c r="C115" t="n">
-        <v>1.2179</v>
+        <v>1.20572</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11396</v>
+        <v>1.14647</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1492</v>
+        <v>1.16914</v>
       </c>
       <c r="C116" t="n">
-        <v>1.18501</v>
+        <v>1.1806</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08556</v>
+        <v>1.10223</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14953</v>
+        <v>1.1892</v>
       </c>
       <c r="C117" t="n">
-        <v>1.17966</v>
+        <v>1.1561</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07482</v>
+        <v>1.07928</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13181</v>
+        <v>1.14994</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14871</v>
+        <v>1.15533</v>
       </c>
       <c r="D118" t="n">
-        <v>1.08137</v>
+        <v>1.05445</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12808</v>
+        <v>1.13566</v>
       </c>
       <c r="C119" t="n">
-        <v>1.15528</v>
+        <v>1.13909</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05161</v>
+        <v>1.04818</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12165</v>
+        <v>1.12696</v>
       </c>
       <c r="C120" t="n">
-        <v>1.13191</v>
+        <v>1.13222</v>
       </c>
       <c r="D120" t="n">
-        <v>1.05337</v>
+        <v>1.03522</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15025</v>
+        <v>1.10444</v>
       </c>
       <c r="C121" t="n">
-        <v>1.14273</v>
+        <v>1.13548</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03243</v>
+        <v>1.05118</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12879</v>
+        <v>1.11583</v>
       </c>
       <c r="C122" t="n">
-        <v>1.13444</v>
+        <v>1.11</v>
       </c>
       <c r="D122" t="n">
-        <v>1.03636</v>
+        <v>1.02726</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.1286</v>
+        <v>1.09784</v>
       </c>
       <c r="C123" t="n">
-        <v>1.11582</v>
+        <v>1.11091</v>
       </c>
       <c r="D123" t="n">
-        <v>1.39294</v>
+        <v>1.37179</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.44001</v>
+        <v>1.41331</v>
       </c>
       <c r="C124" t="n">
-        <v>1.52245</v>
+        <v>1.50526</v>
       </c>
       <c r="D124" t="n">
-        <v>1.38608</v>
+        <v>1.39418</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.43541</v>
+        <v>1.4217</v>
       </c>
       <c r="C125" t="n">
-        <v>1.44672</v>
+        <v>1.48313</v>
       </c>
       <c r="D125" t="n">
-        <v>1.36275</v>
+        <v>1.35848</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.4218</v>
+        <v>1.42366</v>
       </c>
       <c r="C126" t="n">
-        <v>1.47234</v>
+        <v>1.4537</v>
       </c>
       <c r="D126" t="n">
-        <v>1.37262</v>
+        <v>1.35998</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.42433</v>
+        <v>1.39261</v>
       </c>
       <c r="C127" t="n">
-        <v>1.44333</v>
+        <v>1.42261</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3811</v>
+        <v>1.3504</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40383</v>
+        <v>1.40496</v>
       </c>
       <c r="C128" t="n">
-        <v>1.42882</v>
+        <v>1.44881</v>
       </c>
       <c r="D128" t="n">
-        <v>1.34004</v>
+        <v>1.35087</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.43904</v>
+        <v>1.42377</v>
       </c>
       <c r="C129" t="n">
-        <v>1.43417</v>
+        <v>1.41916</v>
       </c>
       <c r="D129" t="n">
-        <v>1.35653</v>
+        <v>1.33164</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40654</v>
+        <v>1.38534</v>
       </c>
       <c r="C130" t="n">
-        <v>1.42939</v>
+        <v>1.40876</v>
       </c>
       <c r="D130" t="n">
-        <v>1.33679</v>
+        <v>1.3163</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.43886</v>
+        <v>1.44881</v>
       </c>
       <c r="C131" t="n">
-        <v>1.41149</v>
+        <v>1.41768</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33421</v>
+        <v>1.32803</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39541</v>
+        <v>1.40981</v>
       </c>
       <c r="C132" t="n">
-        <v>1.4276</v>
+        <v>1.3931</v>
       </c>
       <c r="D132" t="n">
-        <v>1.3337</v>
+        <v>1.3256</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42157</v>
+        <v>1.4072</v>
       </c>
       <c r="C133" t="n">
-        <v>1.41055</v>
+        <v>1.39261</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30556</v>
+        <v>1.31574</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41244</v>
+        <v>1.38338</v>
       </c>
       <c r="C134" t="n">
-        <v>1.3945</v>
+        <v>1.37963</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32216</v>
+        <v>1.32667</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39125</v>
+        <v>1.38695</v>
       </c>
       <c r="C135" t="n">
-        <v>1.4213</v>
+        <v>1.38854</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34674</v>
+        <v>1.32011</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39677</v>
+        <v>1.40099</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3978</v>
+        <v>1.37561</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33294</v>
+        <v>1.31614</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41563</v>
+        <v>1.40878</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39967</v>
+        <v>1.38249</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7021</v>
+        <v>1.70095</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.75739</v>
+        <v>1.77446</v>
       </c>
       <c r="C138" t="n">
-        <v>1.76501</v>
+        <v>1.75888</v>
       </c>
       <c r="D138" t="n">
-        <v>1.67076</v>
+        <v>1.6945</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.75177</v>
+        <v>1.73145</v>
       </c>
       <c r="C139" t="n">
-        <v>1.75014</v>
+        <v>1.73661</v>
       </c>
       <c r="D139" t="n">
-        <v>1.68705</v>
+        <v>1.65828</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.72807</v>
+        <v>1.72684</v>
       </c>
       <c r="C140" t="n">
-        <v>1.71635</v>
+        <v>1.72624</v>
       </c>
       <c r="D140" t="n">
-        <v>1.66266</v>
+        <v>1.63165</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.73211</v>
+        <v>1.71069</v>
       </c>
       <c r="C141" t="n">
-        <v>1.72712</v>
+        <v>1.71303</v>
       </c>
       <c r="D141" t="n">
-        <v>1.65476</v>
+        <v>1.63898</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72689</v>
+        <v>1.71719</v>
       </c>
       <c r="C142" t="n">
-        <v>1.6976</v>
+        <v>1.69266</v>
       </c>
       <c r="D142" t="n">
-        <v>1.6443</v>
+        <v>1.6496</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72717</v>
+        <v>1.69614</v>
       </c>
       <c r="C143" t="n">
-        <v>1.68716</v>
+        <v>1.69288</v>
       </c>
       <c r="D143" t="n">
-        <v>1.63008</v>
+        <v>1.62052</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5807099999999999</v>
+        <v>0.593557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.555522</v>
+        <v>0.5186770000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.351912</v>
+        <v>0.349408</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3532</v>
+        <v>0.352278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.369621</v>
+        <v>0.361987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.354159</v>
+        <v>0.340681</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.337953</v>
+        <v>0.347484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.363343</v>
+        <v>0.349095</v>
       </c>
       <c r="D4" t="n">
-        <v>0.343612</v>
+        <v>0.332135</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.337533</v>
+        <v>0.331027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.368576</v>
+        <v>0.329293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340007</v>
+        <v>0.329353</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.327427</v>
+        <v>0.330403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.344833</v>
+        <v>0.324988</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33117</v>
+        <v>0.327773</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.322299</v>
+        <v>0.323592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.341019</v>
+        <v>0.324883</v>
       </c>
       <c r="D7" t="n">
-        <v>0.324963</v>
+        <v>0.321155</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.317041</v>
+        <v>0.320644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.335389</v>
+        <v>0.324955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.326222</v>
+        <v>0.32661</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.323604</v>
+        <v>0.327371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.330442</v>
+        <v>0.315158</v>
       </c>
       <c r="D9" t="n">
-        <v>0.441939</v>
+        <v>0.457356</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.589552</v>
+        <v>0.563991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.60637</v>
+        <v>0.597572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.436131</v>
+        <v>0.420019</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.55436</v>
+        <v>0.554932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.595631</v>
+        <v>0.5763819999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.430374</v>
+        <v>0.418564</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.523774</v>
+        <v>0.5425410000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5765749999999999</v>
+        <v>0.560666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.410447</v>
+        <v>0.403277</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.513139</v>
+        <v>0.513969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.551872</v>
+        <v>0.542364</v>
       </c>
       <c r="D13" t="n">
-        <v>0.401826</v>
+        <v>0.4037</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.504109</v>
+        <v>0.511906</v>
       </c>
       <c r="C14" t="n">
-        <v>0.536234</v>
+        <v>0.52444</v>
       </c>
       <c r="D14" t="n">
-        <v>0.402843</v>
+        <v>0.384382</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.483516</v>
+        <v>0.499172</v>
       </c>
       <c r="C15" t="n">
-        <v>0.529438</v>
+        <v>0.500699</v>
       </c>
       <c r="D15" t="n">
-        <v>0.398788</v>
+        <v>0.375323</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.476144</v>
+        <v>0.478747</v>
       </c>
       <c r="C16" t="n">
-        <v>0.505958</v>
+        <v>0.490424</v>
       </c>
       <c r="D16" t="n">
-        <v>0.367881</v>
+        <v>0.360754</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.464532</v>
+        <v>0.472764</v>
       </c>
       <c r="C17" t="n">
-        <v>0.492505</v>
+        <v>0.483247</v>
       </c>
       <c r="D17" t="n">
-        <v>0.370609</v>
+        <v>0.381077</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.454584</v>
+        <v>0.451257</v>
       </c>
       <c r="C18" t="n">
-        <v>0.478008</v>
+        <v>0.459735</v>
       </c>
       <c r="D18" t="n">
-        <v>0.363424</v>
+        <v>0.353828</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.445121</v>
+        <v>0.44027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.473851</v>
+        <v>0.454273</v>
       </c>
       <c r="D19" t="n">
-        <v>0.356379</v>
+        <v>0.347943</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.436412</v>
+        <v>0.436291</v>
       </c>
       <c r="C20" t="n">
-        <v>0.460124</v>
+        <v>0.436483</v>
       </c>
       <c r="D20" t="n">
-        <v>0.341561</v>
+        <v>0.347905</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.41896</v>
+        <v>0.428642</v>
       </c>
       <c r="C21" t="n">
-        <v>0.454778</v>
+        <v>0.428532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.339253</v>
+        <v>0.339021</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.41816</v>
+        <v>0.409447</v>
       </c>
       <c r="C22" t="n">
-        <v>0.438221</v>
+        <v>0.416793</v>
       </c>
       <c r="D22" t="n">
-        <v>0.342055</v>
+        <v>0.340782</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.413335</v>
+        <v>0.40962</v>
       </c>
       <c r="C23" t="n">
-        <v>0.426172</v>
+        <v>0.416726</v>
       </c>
       <c r="D23" t="n">
-        <v>0.606237</v>
+        <v>0.614337</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.667412</v>
+        <v>0.677688</v>
       </c>
       <c r="C24" t="n">
-        <v>0.734354</v>
+        <v>0.698022</v>
       </c>
       <c r="D24" t="n">
-        <v>0.586798</v>
+        <v>0.5847830000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.63757</v>
+        <v>0.640563</v>
       </c>
       <c r="C25" t="n">
-        <v>0.699193</v>
+        <v>0.6710469999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.582849</v>
+        <v>0.567984</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.635201</v>
+        <v>0.621547</v>
       </c>
       <c r="C26" t="n">
-        <v>0.679028</v>
+        <v>0.645021</v>
       </c>
       <c r="D26" t="n">
-        <v>0.546993</v>
+        <v>0.555155</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6191489999999999</v>
+        <v>0.611602</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6455880000000001</v>
+        <v>0.631552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.544018</v>
+        <v>0.5253060000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.601805</v>
+        <v>0.586829</v>
       </c>
       <c r="C28" t="n">
-        <v>0.625382</v>
+        <v>0.613192</v>
       </c>
       <c r="D28" t="n">
-        <v>0.518415</v>
+        <v>0.5229009999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.576182</v>
+        <v>0.5775670000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.606871</v>
+        <v>0.596336</v>
       </c>
       <c r="D29" t="n">
-        <v>0.508606</v>
+        <v>0.491907</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.579373</v>
+        <v>0.55189</v>
       </c>
       <c r="C30" t="n">
-        <v>0.591537</v>
+        <v>0.571774</v>
       </c>
       <c r="D30" t="n">
-        <v>0.492033</v>
+        <v>0.484704</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.55119</v>
+        <v>0.545415</v>
       </c>
       <c r="C31" t="n">
-        <v>0.580467</v>
+        <v>0.562992</v>
       </c>
       <c r="D31" t="n">
-        <v>0.475359</v>
+        <v>0.474597</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.533554</v>
+        <v>0.51777</v>
       </c>
       <c r="C32" t="n">
-        <v>0.551243</v>
+        <v>0.545574</v>
       </c>
       <c r="D32" t="n">
-        <v>0.465762</v>
+        <v>0.462699</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.505342</v>
+        <v>0.523408</v>
       </c>
       <c r="C33" t="n">
-        <v>0.535305</v>
+        <v>0.522765</v>
       </c>
       <c r="D33" t="n">
-        <v>0.447555</v>
+        <v>0.463133</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.498489</v>
+        <v>0.509954</v>
       </c>
       <c r="C34" t="n">
-        <v>0.529467</v>
+        <v>0.511956</v>
       </c>
       <c r="D34" t="n">
-        <v>0.446145</v>
+        <v>0.443821</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.501628</v>
+        <v>0.494355</v>
       </c>
       <c r="C35" t="n">
-        <v>0.514133</v>
+        <v>0.493482</v>
       </c>
       <c r="D35" t="n">
-        <v>0.435433</v>
+        <v>0.427737</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.472872</v>
+        <v>0.477378</v>
       </c>
       <c r="C36" t="n">
-        <v>0.516496</v>
+        <v>0.475293</v>
       </c>
       <c r="D36" t="n">
-        <v>0.426383</v>
+        <v>0.429746</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.467288</v>
+        <v>0.463142</v>
       </c>
       <c r="C37" t="n">
-        <v>0.491381</v>
+        <v>0.469722</v>
       </c>
       <c r="D37" t="n">
-        <v>0.716712</v>
+        <v>0.687118</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.744572</v>
+        <v>0.74269</v>
       </c>
       <c r="C38" t="n">
-        <v>0.785899</v>
+        <v>0.760821</v>
       </c>
       <c r="D38" t="n">
-        <v>0.685493</v>
+        <v>0.68412</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.704923</v>
+        <v>0.701186</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7511949999999999</v>
+        <v>0.740543</v>
       </c>
       <c r="D39" t="n">
-        <v>0.666907</v>
+        <v>0.670975</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.681444</v>
+        <v>0.697557</v>
       </c>
       <c r="C40" t="n">
-        <v>0.727513</v>
+        <v>0.708436</v>
       </c>
       <c r="D40" t="n">
-        <v>0.649764</v>
+        <v>0.631787</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.667045</v>
+        <v>0.667601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.727674</v>
+        <v>0.721133</v>
       </c>
       <c r="D41" t="n">
-        <v>0.631892</v>
+        <v>0.6500089999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.664292</v>
+        <v>0.6610009999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.681122</v>
+        <v>0.663014</v>
       </c>
       <c r="D42" t="n">
-        <v>0.606454</v>
+        <v>0.596061</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.633846</v>
+        <v>0.618748</v>
       </c>
       <c r="C43" t="n">
-        <v>0.675433</v>
+        <v>0.647362</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6044310000000001</v>
+        <v>0.600374</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.608973</v>
+        <v>0.607649</v>
       </c>
       <c r="C44" t="n">
-        <v>0.644438</v>
+        <v>0.626982</v>
       </c>
       <c r="D44" t="n">
-        <v>0.570989</v>
+        <v>0.573327</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5979680000000001</v>
+        <v>0.615408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.631767</v>
+        <v>0.598235</v>
       </c>
       <c r="D45" t="n">
-        <v>0.56294</v>
+        <v>0.545804</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.584923</v>
+        <v>0.568474</v>
       </c>
       <c r="C46" t="n">
-        <v>0.607954</v>
+        <v>0.586529</v>
       </c>
       <c r="D46" t="n">
-        <v>0.558446</v>
+        <v>0.53591</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.561608</v>
+        <v>0.583277</v>
       </c>
       <c r="C47" t="n">
-        <v>0.591148</v>
+        <v>0.577076</v>
       </c>
       <c r="D47" t="n">
-        <v>0.529035</v>
+        <v>0.514139</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.544404</v>
+        <v>0.56709</v>
       </c>
       <c r="C48" t="n">
-        <v>0.575311</v>
+        <v>0.564612</v>
       </c>
       <c r="D48" t="n">
-        <v>0.525744</v>
+        <v>0.518276</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.532049</v>
+        <v>0.542907</v>
       </c>
       <c r="C49" t="n">
-        <v>0.562097</v>
+        <v>0.547289</v>
       </c>
       <c r="D49" t="n">
-        <v>0.514358</v>
+        <v>0.504444</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.514945</v>
+        <v>0.522981</v>
       </c>
       <c r="C50" t="n">
-        <v>0.552476</v>
+        <v>0.52749</v>
       </c>
       <c r="D50" t="n">
-        <v>0.500658</v>
+        <v>0.493233</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5073</v>
+        <v>0.506908</v>
       </c>
       <c r="C51" t="n">
-        <v>0.535467</v>
+        <v>0.512926</v>
       </c>
       <c r="D51" t="n">
-        <v>0.783864</v>
+        <v>0.798026</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5090170000000001</v>
+        <v>0.495837</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5322519999999999</v>
+        <v>0.50314</v>
       </c>
       <c r="D52" t="n">
-        <v>0.77918</v>
+        <v>0.752136</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.763692</v>
+        <v>0.756956</v>
       </c>
       <c r="C53" t="n">
-        <v>0.813731</v>
+        <v>0.7953440000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.749376</v>
+        <v>0.755005</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.740273</v>
+        <v>0.753396</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7970429999999999</v>
+        <v>0.7554959999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.740772</v>
+        <v>0.732451</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.723963</v>
+        <v>0.747395</v>
       </c>
       <c r="C55" t="n">
-        <v>0.776081</v>
+        <v>0.734508</v>
       </c>
       <c r="D55" t="n">
-        <v>0.715249</v>
+        <v>0.707126</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.705484</v>
+        <v>0.712888</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755293</v>
+        <v>0.712947</v>
       </c>
       <c r="D56" t="n">
-        <v>0.689435</v>
+        <v>0.692779</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.68252</v>
+        <v>0.695818</v>
       </c>
       <c r="C57" t="n">
-        <v>0.736969</v>
+        <v>0.700611</v>
       </c>
       <c r="D57" t="n">
-        <v>0.668943</v>
+        <v>0.664999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.687322</v>
+        <v>0.66755</v>
       </c>
       <c r="C58" t="n">
-        <v>0.705088</v>
+        <v>0.696897</v>
       </c>
       <c r="D58" t="n">
-        <v>0.65088</v>
+        <v>0.67132</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.667797</v>
+        <v>0.659347</v>
       </c>
       <c r="C59" t="n">
-        <v>0.695663</v>
+        <v>0.671448</v>
       </c>
       <c r="D59" t="n">
-        <v>0.632672</v>
+        <v>0.634669</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.64319</v>
+        <v>0.6359359999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.672225</v>
+        <v>0.648587</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6225579999999999</v>
+        <v>0.619825</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.632587</v>
+        <v>0.647425</v>
       </c>
       <c r="C61" t="n">
-        <v>0.655203</v>
+        <v>0.631529</v>
       </c>
       <c r="D61" t="n">
-        <v>0.614094</v>
+        <v>0.603473</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.621821</v>
+        <v>0.634293</v>
       </c>
       <c r="C62" t="n">
-        <v>0.650349</v>
+        <v>0.6131</v>
       </c>
       <c r="D62" t="n">
-        <v>0.596087</v>
+        <v>0.597123</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.606352</v>
+        <v>0.609258</v>
       </c>
       <c r="C63" t="n">
-        <v>0.629942</v>
+        <v>0.603485</v>
       </c>
       <c r="D63" t="n">
-        <v>0.584266</v>
+        <v>0.572787</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.589727</v>
+        <v>0.587081</v>
       </c>
       <c r="C64" t="n">
-        <v>0.624542</v>
+        <v>0.6108479999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.579718</v>
+        <v>0.57667</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.579407</v>
+        <v>0.590183</v>
       </c>
       <c r="C65" t="n">
-        <v>0.60615</v>
+        <v>0.587381</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5698800000000001</v>
+        <v>0.56397</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.572089</v>
+        <v>0.576143</v>
       </c>
       <c r="C66" t="n">
-        <v>0.590374</v>
+        <v>0.584151</v>
       </c>
       <c r="D66" t="n">
-        <v>0.877007</v>
+        <v>0.880986</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.860972</v>
+        <v>0.882015</v>
       </c>
       <c r="C67" t="n">
-        <v>0.92187</v>
+        <v>0.8775269999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8488329999999999</v>
+        <v>0.84223</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.846909</v>
+        <v>0.864879</v>
       </c>
       <c r="C68" t="n">
-        <v>0.886749</v>
+        <v>0.8756350000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.820672</v>
+        <v>0.828296</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.834854</v>
+        <v>0.825408</v>
       </c>
       <c r="C69" t="n">
-        <v>0.877812</v>
+        <v>0.846311</v>
       </c>
       <c r="D69" t="n">
-        <v>0.791003</v>
+        <v>0.817975</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.795292</v>
+        <v>0.808343</v>
       </c>
       <c r="C70" t="n">
-        <v>0.829045</v>
+        <v>0.830862</v>
       </c>
       <c r="D70" t="n">
-        <v>0.795239</v>
+        <v>0.776631</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.782464</v>
+        <v>0.780361</v>
       </c>
       <c r="C71" t="n">
-        <v>0.824499</v>
+        <v>0.812326</v>
       </c>
       <c r="D71" t="n">
-        <v>0.772471</v>
+        <v>0.795226</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.770521</v>
+        <v>0.785083</v>
       </c>
       <c r="C72" t="n">
-        <v>0.811319</v>
+        <v>0.784698</v>
       </c>
       <c r="D72" t="n">
-        <v>0.77885</v>
+        <v>0.748265</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.784353</v>
+        <v>0.7524459999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.782776</v>
+        <v>0.78283</v>
       </c>
       <c r="D73" t="n">
-        <v>0.726147</v>
+        <v>0.729808</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.735869</v>
+        <v>0.75571</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7668199999999999</v>
+        <v>0.755807</v>
       </c>
       <c r="D74" t="n">
-        <v>0.721859</v>
+        <v>0.715349</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.734035</v>
+        <v>0.722153</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7522489999999999</v>
+        <v>0.742088</v>
       </c>
       <c r="D75" t="n">
-        <v>0.710279</v>
+        <v>0.7092309999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.704145</v>
+        <v>0.697454</v>
       </c>
       <c r="C76" t="n">
-        <v>0.739392</v>
+        <v>0.721562</v>
       </c>
       <c r="D76" t="n">
-        <v>0.694816</v>
+        <v>0.671207</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.68615</v>
+        <v>0.68687</v>
       </c>
       <c r="C77" t="n">
-        <v>0.715614</v>
+        <v>0.697612</v>
       </c>
       <c r="D77" t="n">
-        <v>0.673901</v>
+        <v>0.680345</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.687925</v>
+        <v>0.684551</v>
       </c>
       <c r="C78" t="n">
-        <v>0.704375</v>
+        <v>0.681572</v>
       </c>
       <c r="D78" t="n">
-        <v>0.66884</v>
+        <v>0.650298</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.671817</v>
+        <v>0.674243</v>
       </c>
       <c r="C79" t="n">
-        <v>0.689679</v>
+        <v>0.689555</v>
       </c>
       <c r="D79" t="n">
-        <v>0.656767</v>
+        <v>0.669863</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.665906</v>
+        <v>0.664373</v>
       </c>
       <c r="C80" t="n">
-        <v>0.679492</v>
+        <v>0.666471</v>
       </c>
       <c r="D80" t="n">
-        <v>1.00422</v>
+        <v>0.99674</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.956763</v>
+        <v>0.97801</v>
       </c>
       <c r="C81" t="n">
-        <v>1.0368</v>
+        <v>0.983507</v>
       </c>
       <c r="D81" t="n">
-        <v>0.970177</v>
+        <v>0.964823</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.95372</v>
+        <v>0.959539</v>
       </c>
       <c r="C82" t="n">
-        <v>1.01866</v>
+        <v>0.99844</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9790720000000001</v>
+        <v>0.9484050000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.942987</v>
+        <v>0.977171</v>
       </c>
       <c r="C83" t="n">
-        <v>1.01237</v>
+        <v>0.973415</v>
       </c>
       <c r="D83" t="n">
-        <v>0.945586</v>
+        <v>0.923966</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.907959</v>
+        <v>0.9221780000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.966436</v>
+        <v>0.945398</v>
       </c>
       <c r="D84" t="n">
-        <v>0.906114</v>
+        <v>0.906232</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.892894</v>
+        <v>0.906103</v>
       </c>
       <c r="C85" t="n">
-        <v>0.939851</v>
+        <v>0.919674</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8734229999999999</v>
+        <v>0.870615</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.873499</v>
+        <v>0.886946</v>
       </c>
       <c r="C86" t="n">
-        <v>0.907072</v>
+        <v>0.888205</v>
       </c>
       <c r="D86" t="n">
-        <v>0.872077</v>
+        <v>0.842357</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9075299999999999</v>
+        <v>0.856233</v>
       </c>
       <c r="C87" t="n">
-        <v>0.903935</v>
+        <v>0.881691</v>
       </c>
       <c r="D87" t="n">
-        <v>0.854109</v>
+        <v>0.835359</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.854762</v>
+        <v>0.861297</v>
       </c>
       <c r="C88" t="n">
-        <v>0.892584</v>
+        <v>0.845199</v>
       </c>
       <c r="D88" t="n">
-        <v>0.840239</v>
+        <v>0.847321</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8471880000000001</v>
+        <v>0.839143</v>
       </c>
       <c r="C89" t="n">
-        <v>0.860013</v>
+        <v>0.839063</v>
       </c>
       <c r="D89" t="n">
-        <v>0.81102</v>
+        <v>0.80331</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.823376</v>
+        <v>0.831788</v>
       </c>
       <c r="C90" t="n">
-        <v>0.860938</v>
+        <v>0.8175750000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.821896</v>
+        <v>0.793045</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8245130000000001</v>
+        <v>0.788707</v>
       </c>
       <c r="C91" t="n">
-        <v>0.851221</v>
+        <v>0.8032629999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.769786</v>
+        <v>0.781126</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.795451</v>
+        <v>0.802302</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8216599999999999</v>
+        <v>0.797087</v>
       </c>
       <c r="D92" t="n">
-        <v>0.764755</v>
+        <v>0.756226</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.779813</v>
+        <v>0.786726</v>
       </c>
       <c r="C93" t="n">
-        <v>0.800565</v>
+        <v>0.785222</v>
       </c>
       <c r="D93" t="n">
-        <v>0.758153</v>
+        <v>0.744373</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.763827</v>
+        <v>0.783594</v>
       </c>
       <c r="C94" t="n">
-        <v>0.792407</v>
+        <v>0.759224</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10709</v>
+        <v>1.08477</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09465</v>
+        <v>1.10202</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14664</v>
+        <v>1.11736</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09021</v>
+        <v>1.09153</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08151</v>
+        <v>1.08237</v>
       </c>
       <c r="C96" t="n">
-        <v>1.12418</v>
+        <v>1.10501</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0607</v>
+        <v>1.05186</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07078</v>
+        <v>1.06537</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10739</v>
+        <v>1.09398</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04133</v>
+        <v>1.03526</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02718</v>
+        <v>1.07036</v>
       </c>
       <c r="C98" t="n">
-        <v>1.08302</v>
+        <v>1.06966</v>
       </c>
       <c r="D98" t="n">
-        <v>0.997455</v>
+        <v>1.00316</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02965</v>
+        <v>1.0173</v>
       </c>
       <c r="C99" t="n">
-        <v>1.06332</v>
+        <v>1.05951</v>
       </c>
       <c r="D99" t="n">
-        <v>0.973595</v>
+        <v>0.960292</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01778</v>
+        <v>1.02121</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05883</v>
+        <v>1.01715</v>
       </c>
       <c r="D100" t="n">
-        <v>0.965778</v>
+        <v>0.977948</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.964122</v>
+        <v>1.00746</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01291</v>
+        <v>0.999793</v>
       </c>
       <c r="D101" t="n">
-        <v>0.977339</v>
+        <v>0.948891</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.958882</v>
+        <v>0.970023</v>
       </c>
       <c r="C102" t="n">
-        <v>1.02772</v>
+        <v>0.986625</v>
       </c>
       <c r="D102" t="n">
-        <v>0.953735</v>
+        <v>0.916629</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.979631</v>
+        <v>0.958801</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00407</v>
+        <v>0.984308</v>
       </c>
       <c r="D103" t="n">
-        <v>0.933601</v>
+        <v>0.922192</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.964767</v>
+        <v>0.943317</v>
       </c>
       <c r="C104" t="n">
-        <v>0.969665</v>
+        <v>0.942235</v>
       </c>
       <c r="D104" t="n">
-        <v>0.917855</v>
+        <v>0.908471</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.950308</v>
+        <v>0.9420460000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9693349999999999</v>
+        <v>0.949591</v>
       </c>
       <c r="D105" t="n">
-        <v>0.900056</v>
+        <v>0.905339</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.964235</v>
+        <v>0.948883</v>
       </c>
       <c r="C106" t="n">
-        <v>0.944679</v>
+        <v>0.9344479999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.866221</v>
+        <v>0.856317</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.917638</v>
+        <v>0.907995</v>
       </c>
       <c r="C107" t="n">
-        <v>0.919414</v>
+        <v>0.9261779999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.872135</v>
+        <v>0.855753</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.903141</v>
+        <v>0.925368</v>
       </c>
       <c r="C108" t="n">
-        <v>0.936792</v>
+        <v>0.9080279999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22229</v>
+        <v>1.18505</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.88936</v>
+        <v>0.9149389999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.923251</v>
+        <v>0.913953</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18929</v>
+        <v>1.18384</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21508</v>
+        <v>1.21013</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25834</v>
+        <v>1.2454</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18815</v>
+        <v>1.15697</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.19864</v>
+        <v>1.20386</v>
       </c>
       <c r="C111" t="n">
-        <v>1.24669</v>
+        <v>1.21495</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16883</v>
+        <v>1.14809</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.18831</v>
+        <v>1.17645</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24051</v>
+        <v>1.21464</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15453</v>
+        <v>1.15252</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.22014</v>
+        <v>1.18084</v>
       </c>
       <c r="C113" t="n">
-        <v>1.23454</v>
+        <v>1.17944</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14715</v>
+        <v>1.12739</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1673</v>
+        <v>1.1711</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22033</v>
+        <v>1.18314</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13889</v>
+        <v>1.10831</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17564</v>
+        <v>1.14819</v>
       </c>
       <c r="C115" t="n">
-        <v>1.20572</v>
+        <v>1.19004</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14647</v>
+        <v>1.09602</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16914</v>
+        <v>1.14842</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1806</v>
+        <v>1.15139</v>
       </c>
       <c r="D116" t="n">
-        <v>1.10223</v>
+        <v>1.07005</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1892</v>
+        <v>1.1338</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1561</v>
+        <v>1.12849</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07928</v>
+        <v>1.09614</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14994</v>
+        <v>1.14137</v>
       </c>
       <c r="C118" t="n">
-        <v>1.15533</v>
+        <v>1.10759</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05445</v>
+        <v>1.03801</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13566</v>
+        <v>1.11941</v>
       </c>
       <c r="C119" t="n">
-        <v>1.13909</v>
+        <v>1.11919</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04818</v>
+        <v>1.06332</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12696</v>
+        <v>1.12027</v>
       </c>
       <c r="C120" t="n">
-        <v>1.13222</v>
+        <v>1.1247</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03522</v>
+        <v>1.04223</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10444</v>
+        <v>1.10761</v>
       </c>
       <c r="C121" t="n">
-        <v>1.13548</v>
+        <v>1.12227</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05118</v>
+        <v>1.03234</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.11583</v>
+        <v>1.12233</v>
       </c>
       <c r="C122" t="n">
-        <v>1.11</v>
+        <v>1.09261</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02726</v>
+        <v>1.04023</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09784</v>
+        <v>1.1204</v>
       </c>
       <c r="C123" t="n">
-        <v>1.11091</v>
+        <v>1.11061</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37179</v>
+        <v>1.37451</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.41331</v>
+        <v>1.4564</v>
       </c>
       <c r="C124" t="n">
-        <v>1.50526</v>
+        <v>1.44749</v>
       </c>
       <c r="D124" t="n">
-        <v>1.39418</v>
+        <v>1.39504</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.4217</v>
+        <v>1.42051</v>
       </c>
       <c r="C125" t="n">
-        <v>1.48313</v>
+        <v>1.43558</v>
       </c>
       <c r="D125" t="n">
-        <v>1.35848</v>
+        <v>1.36787</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42366</v>
+        <v>1.43444</v>
       </c>
       <c r="C126" t="n">
-        <v>1.4537</v>
+        <v>1.4224</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35998</v>
+        <v>1.35065</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39261</v>
+        <v>1.42205</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42261</v>
+        <v>1.42383</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3504</v>
+        <v>1.35476</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40496</v>
+        <v>1.38446</v>
       </c>
       <c r="C128" t="n">
-        <v>1.44881</v>
+        <v>1.3958</v>
       </c>
       <c r="D128" t="n">
-        <v>1.35087</v>
+        <v>1.33958</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.42377</v>
+        <v>1.41017</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41916</v>
+        <v>1.40213</v>
       </c>
       <c r="D129" t="n">
-        <v>1.33164</v>
+        <v>1.32546</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38534</v>
+        <v>1.41556</v>
       </c>
       <c r="C130" t="n">
-        <v>1.40876</v>
+        <v>1.40096</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3163</v>
+        <v>1.31183</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.44881</v>
+        <v>1.39892</v>
       </c>
       <c r="C131" t="n">
-        <v>1.41768</v>
+        <v>1.35431</v>
       </c>
       <c r="D131" t="n">
-        <v>1.32803</v>
+        <v>1.33438</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40981</v>
+        <v>1.40777</v>
       </c>
       <c r="C132" t="n">
-        <v>1.3931</v>
+        <v>1.37913</v>
       </c>
       <c r="D132" t="n">
-        <v>1.3256</v>
+        <v>1.29638</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.4072</v>
+        <v>1.42367</v>
       </c>
       <c r="C133" t="n">
-        <v>1.39261</v>
+        <v>1.37992</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31574</v>
+        <v>1.29411</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.38338</v>
+        <v>1.41347</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37963</v>
+        <v>1.36742</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32667</v>
+        <v>1.30847</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.38695</v>
+        <v>1.40523</v>
       </c>
       <c r="C135" t="n">
-        <v>1.38854</v>
+        <v>1.37166</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32011</v>
+        <v>1.28872</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.40099</v>
+        <v>1.399</v>
       </c>
       <c r="C136" t="n">
-        <v>1.37561</v>
+        <v>1.37145</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31614</v>
+        <v>1.31444</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40878</v>
+        <v>1.41657</v>
       </c>
       <c r="C137" t="n">
-        <v>1.38249</v>
+        <v>1.37062</v>
       </c>
       <c r="D137" t="n">
-        <v>1.70095</v>
+        <v>1.6745</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.77446</v>
+        <v>1.73262</v>
       </c>
       <c r="C138" t="n">
-        <v>1.75888</v>
+        <v>1.71344</v>
       </c>
       <c r="D138" t="n">
-        <v>1.6945</v>
+        <v>1.65397</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.73145</v>
+        <v>1.72814</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73661</v>
+        <v>1.71391</v>
       </c>
       <c r="D139" t="n">
-        <v>1.65828</v>
+        <v>1.66834</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.72684</v>
+        <v>1.73786</v>
       </c>
       <c r="C140" t="n">
-        <v>1.72624</v>
+        <v>1.70241</v>
       </c>
       <c r="D140" t="n">
-        <v>1.63165</v>
+        <v>1.63175</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.71069</v>
+        <v>1.75294</v>
       </c>
       <c r="C141" t="n">
-        <v>1.71303</v>
+        <v>1.68518</v>
       </c>
       <c r="D141" t="n">
-        <v>1.63898</v>
+        <v>1.62262</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71719</v>
+        <v>1.71348</v>
       </c>
       <c r="C142" t="n">
-        <v>1.69266</v>
+        <v>1.66779</v>
       </c>
       <c r="D142" t="n">
-        <v>1.6496</v>
+        <v>1.62967</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.69614</v>
+        <v>1.71827</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69288</v>
+        <v>1.65836</v>
       </c>
       <c r="D143" t="n">
-        <v>1.62052</v>
+        <v>1.60829</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.593557</v>
+        <v>0.349233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5186770000000001</v>
+        <v>0.345468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.349408</v>
+        <v>0.346407</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.352278</v>
+        <v>0.343454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.361987</v>
+        <v>0.345269</v>
       </c>
       <c r="D3" t="n">
-        <v>0.340681</v>
+        <v>0.3413</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.347484</v>
+        <v>0.336353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.349095</v>
+        <v>0.354258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.332135</v>
+        <v>0.333829</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.331027</v>
+        <v>0.321266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.329293</v>
+        <v>0.323906</v>
       </c>
       <c r="D5" t="n">
-        <v>0.329353</v>
+        <v>0.323573</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.330403</v>
+        <v>0.323046</v>
       </c>
       <c r="C6" t="n">
-        <v>0.324988</v>
+        <v>0.326237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.327773</v>
+        <v>0.316759</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.323592</v>
+        <v>0.31431</v>
       </c>
       <c r="C7" t="n">
-        <v>0.324883</v>
+        <v>0.324192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.321155</v>
+        <v>0.319683</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.320644</v>
+        <v>0.315192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.324955</v>
+        <v>0.316334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32661</v>
+        <v>0.324005</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.327371</v>
+        <v>0.323769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.315158</v>
+        <v>0.31807</v>
       </c>
       <c r="D9" t="n">
-        <v>0.457356</v>
+        <v>0.653783</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.563991</v>
+        <v>0.55231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.597572</v>
+        <v>0.58017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420019</v>
+        <v>0.640884</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.554932</v>
+        <v>0.556042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5763819999999999</v>
+        <v>0.560128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.418564</v>
+        <v>0.612415</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5425410000000001</v>
+        <v>0.529384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.560666</v>
+        <v>0.547131</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403277</v>
+        <v>0.601261</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.513969</v>
+        <v>0.5302750000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.542364</v>
+        <v>0.527709</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4037</v>
+        <v>0.579522</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.511906</v>
+        <v>0.510473</v>
       </c>
       <c r="C14" t="n">
-        <v>0.52444</v>
+        <v>0.521821</v>
       </c>
       <c r="D14" t="n">
-        <v>0.384382</v>
+        <v>0.55193</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.499172</v>
+        <v>0.491251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.500699</v>
+        <v>0.501244</v>
       </c>
       <c r="D15" t="n">
-        <v>0.375323</v>
+        <v>0.549677</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.478747</v>
+        <v>0.47964</v>
       </c>
       <c r="C16" t="n">
-        <v>0.490424</v>
+        <v>0.482199</v>
       </c>
       <c r="D16" t="n">
-        <v>0.360754</v>
+        <v>0.533679</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.472764</v>
+        <v>0.452501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.483247</v>
+        <v>0.473118</v>
       </c>
       <c r="D17" t="n">
-        <v>0.381077</v>
+        <v>0.505864</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.451257</v>
+        <v>0.442765</v>
       </c>
       <c r="C18" t="n">
-        <v>0.459735</v>
+        <v>0.461736</v>
       </c>
       <c r="D18" t="n">
-        <v>0.353828</v>
+        <v>0.496642</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.44027</v>
+        <v>0.437231</v>
       </c>
       <c r="C19" t="n">
-        <v>0.454273</v>
+        <v>0.43652</v>
       </c>
       <c r="D19" t="n">
-        <v>0.347943</v>
+        <v>0.486696</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.436291</v>
+        <v>0.41934</v>
       </c>
       <c r="C20" t="n">
-        <v>0.436483</v>
+        <v>0.437173</v>
       </c>
       <c r="D20" t="n">
-        <v>0.347905</v>
+        <v>0.472644</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.428642</v>
+        <v>0.423182</v>
       </c>
       <c r="C21" t="n">
-        <v>0.428532</v>
+        <v>0.419226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.339021</v>
+        <v>0.459806</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.409447</v>
+        <v>0.404422</v>
       </c>
       <c r="C22" t="n">
-        <v>0.416793</v>
+        <v>0.419279</v>
       </c>
       <c r="D22" t="n">
-        <v>0.340782</v>
+        <v>0.454965</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40962</v>
+        <v>0.404306</v>
       </c>
       <c r="C23" t="n">
-        <v>0.416726</v>
+        <v>0.411614</v>
       </c>
       <c r="D23" t="n">
-        <v>0.614337</v>
+        <v>0.722974</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.677688</v>
+        <v>0.667142</v>
       </c>
       <c r="C24" t="n">
-        <v>0.698022</v>
+        <v>0.698852</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5847830000000001</v>
+        <v>0.695545</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.640563</v>
+        <v>0.643809</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6710469999999999</v>
+        <v>0.657612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.567984</v>
+        <v>0.696143</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621547</v>
+        <v>0.6225889999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.645021</v>
+        <v>0.64658</v>
       </c>
       <c r="D26" t="n">
-        <v>0.555155</v>
+        <v>0.658714</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.611602</v>
+        <v>0.611317</v>
       </c>
       <c r="C27" t="n">
-        <v>0.631552</v>
+        <v>0.643838</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5253060000000001</v>
+        <v>0.64066</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.586829</v>
+        <v>0.587062</v>
       </c>
       <c r="C28" t="n">
-        <v>0.613192</v>
+        <v>0.603559</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5229009999999999</v>
+        <v>0.613784</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5775670000000001</v>
+        <v>0.5676639999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.596336</v>
+        <v>0.583821</v>
       </c>
       <c r="D29" t="n">
-        <v>0.491907</v>
+        <v>0.591345</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.55189</v>
+        <v>0.582469</v>
       </c>
       <c r="C30" t="n">
-        <v>0.571774</v>
+        <v>0.559098</v>
       </c>
       <c r="D30" t="n">
-        <v>0.484704</v>
+        <v>0.585501</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.545415</v>
+        <v>0.533409</v>
       </c>
       <c r="C31" t="n">
-        <v>0.562992</v>
+        <v>0.543554</v>
       </c>
       <c r="D31" t="n">
-        <v>0.474597</v>
+        <v>0.567224</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.51777</v>
+        <v>0.527438</v>
       </c>
       <c r="C32" t="n">
-        <v>0.545574</v>
+        <v>0.539639</v>
       </c>
       <c r="D32" t="n">
-        <v>0.462699</v>
+        <v>0.5443249999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.523408</v>
+        <v>0.509161</v>
       </c>
       <c r="C33" t="n">
-        <v>0.522765</v>
+        <v>0.529814</v>
       </c>
       <c r="D33" t="n">
-        <v>0.463133</v>
+        <v>0.532915</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.509954</v>
+        <v>0.5007819999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.511956</v>
+        <v>0.49968</v>
       </c>
       <c r="D34" t="n">
-        <v>0.443821</v>
+        <v>0.51564</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.494355</v>
+        <v>0.487804</v>
       </c>
       <c r="C35" t="n">
-        <v>0.493482</v>
+        <v>0.505099</v>
       </c>
       <c r="D35" t="n">
-        <v>0.427737</v>
+        <v>0.507473</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.477378</v>
+        <v>0.475432</v>
       </c>
       <c r="C36" t="n">
-        <v>0.475293</v>
+        <v>0.480771</v>
       </c>
       <c r="D36" t="n">
-        <v>0.429746</v>
+        <v>0.500941</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.463142</v>
+        <v>0.465701</v>
       </c>
       <c r="C37" t="n">
-        <v>0.469722</v>
+        <v>0.476507</v>
       </c>
       <c r="D37" t="n">
-        <v>0.687118</v>
+        <v>0.709166</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.74269</v>
+        <v>0.745756</v>
       </c>
       <c r="C38" t="n">
-        <v>0.760821</v>
+        <v>0.754825</v>
       </c>
       <c r="D38" t="n">
-        <v>0.68412</v>
+        <v>0.690904</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.701186</v>
+        <v>0.719216</v>
       </c>
       <c r="C39" t="n">
-        <v>0.740543</v>
+        <v>0.723178</v>
       </c>
       <c r="D39" t="n">
-        <v>0.670975</v>
+        <v>0.659076</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.697557</v>
+        <v>0.702237</v>
       </c>
       <c r="C40" t="n">
-        <v>0.708436</v>
+        <v>0.697235</v>
       </c>
       <c r="D40" t="n">
-        <v>0.631787</v>
+        <v>0.6351560000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.667601</v>
+        <v>0.658987</v>
       </c>
       <c r="C41" t="n">
-        <v>0.721133</v>
+        <v>0.687925</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6500089999999999</v>
+        <v>0.626093</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6610009999999999</v>
+        <v>0.645072</v>
       </c>
       <c r="C42" t="n">
-        <v>0.663014</v>
+        <v>0.664703</v>
       </c>
       <c r="D42" t="n">
-        <v>0.596061</v>
+        <v>0.594186</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.618748</v>
+        <v>0.624593</v>
       </c>
       <c r="C43" t="n">
-        <v>0.647362</v>
+        <v>0.638886</v>
       </c>
       <c r="D43" t="n">
-        <v>0.600374</v>
+        <v>0.5740459999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.607649</v>
+        <v>0.6113960000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.626982</v>
+        <v>0.6290519999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.573327</v>
+        <v>0.582388</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.615408</v>
+        <v>0.585349</v>
       </c>
       <c r="C45" t="n">
-        <v>0.598235</v>
+        <v>0.591848</v>
       </c>
       <c r="D45" t="n">
-        <v>0.545804</v>
+        <v>0.560099</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.568474</v>
+        <v>0.579923</v>
       </c>
       <c r="C46" t="n">
-        <v>0.586529</v>
+        <v>0.599751</v>
       </c>
       <c r="D46" t="n">
-        <v>0.53591</v>
+        <v>0.543067</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.583277</v>
+        <v>0.571384</v>
       </c>
       <c r="C47" t="n">
-        <v>0.577076</v>
+        <v>0.562997</v>
       </c>
       <c r="D47" t="n">
-        <v>0.514139</v>
+        <v>0.52677</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.56709</v>
+        <v>0.54548</v>
       </c>
       <c r="C48" t="n">
-        <v>0.564612</v>
+        <v>0.549762</v>
       </c>
       <c r="D48" t="n">
-        <v>0.518276</v>
+        <v>0.513498</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.542907</v>
+        <v>0.5375</v>
       </c>
       <c r="C49" t="n">
-        <v>0.547289</v>
+        <v>0.551943</v>
       </c>
       <c r="D49" t="n">
-        <v>0.504444</v>
+        <v>0.498472</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.522981</v>
+        <v>0.524222</v>
       </c>
       <c r="C50" t="n">
-        <v>0.52749</v>
+        <v>0.53212</v>
       </c>
       <c r="D50" t="n">
-        <v>0.493233</v>
+        <v>0.493969</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.506908</v>
+        <v>0.515054</v>
       </c>
       <c r="C51" t="n">
-        <v>0.512926</v>
+        <v>0.520069</v>
       </c>
       <c r="D51" t="n">
-        <v>0.798026</v>
+        <v>0.773385</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.495837</v>
+        <v>0.503578</v>
       </c>
       <c r="C52" t="n">
-        <v>0.50314</v>
+        <v>0.51222</v>
       </c>
       <c r="D52" t="n">
-        <v>0.752136</v>
+        <v>0.749073</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.756956</v>
+        <v>0.761786</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7953440000000001</v>
+        <v>0.791481</v>
       </c>
       <c r="D53" t="n">
-        <v>0.755005</v>
+        <v>0.7489479999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.753396</v>
+        <v>0.742363</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7554959999999999</v>
+        <v>0.759652</v>
       </c>
       <c r="D54" t="n">
-        <v>0.732451</v>
+        <v>0.720322</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.747395</v>
+        <v>0.729217</v>
       </c>
       <c r="C55" t="n">
-        <v>0.734508</v>
+        <v>0.743543</v>
       </c>
       <c r="D55" t="n">
-        <v>0.707126</v>
+        <v>0.713541</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.712888</v>
+        <v>0.707151</v>
       </c>
       <c r="C56" t="n">
-        <v>0.712947</v>
+        <v>0.715493</v>
       </c>
       <c r="D56" t="n">
-        <v>0.692779</v>
+        <v>0.689509</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.695818</v>
+        <v>0.696613</v>
       </c>
       <c r="C57" t="n">
-        <v>0.700611</v>
+        <v>0.697658</v>
       </c>
       <c r="D57" t="n">
-        <v>0.664999</v>
+        <v>0.685716</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.66755</v>
+        <v>0.684548</v>
       </c>
       <c r="C58" t="n">
-        <v>0.696897</v>
+        <v>0.690019</v>
       </c>
       <c r="D58" t="n">
-        <v>0.67132</v>
+        <v>0.654101</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.659347</v>
+        <v>0.675057</v>
       </c>
       <c r="C59" t="n">
-        <v>0.671448</v>
+        <v>0.665733</v>
       </c>
       <c r="D59" t="n">
-        <v>0.634669</v>
+        <v>0.63476</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6359359999999999</v>
+        <v>0.661373</v>
       </c>
       <c r="C60" t="n">
-        <v>0.648587</v>
+        <v>0.646929</v>
       </c>
       <c r="D60" t="n">
-        <v>0.619825</v>
+        <v>0.631096</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.647425</v>
+        <v>0.626684</v>
       </c>
       <c r="C61" t="n">
-        <v>0.631529</v>
+        <v>0.630613</v>
       </c>
       <c r="D61" t="n">
-        <v>0.603473</v>
+        <v>0.618984</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.634293</v>
+        <v>0.618212</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6131</v>
+        <v>0.630462</v>
       </c>
       <c r="D62" t="n">
-        <v>0.597123</v>
+        <v>0.594517</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.609258</v>
+        <v>0.598498</v>
       </c>
       <c r="C63" t="n">
-        <v>0.603485</v>
+        <v>0.603205</v>
       </c>
       <c r="D63" t="n">
-        <v>0.572787</v>
+        <v>0.600561</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.587081</v>
+        <v>0.587307</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6108479999999999</v>
+        <v>0.601893</v>
       </c>
       <c r="D64" t="n">
-        <v>0.57667</v>
+        <v>0.578702</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.590183</v>
+        <v>0.5945820000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.587381</v>
+        <v>0.58217</v>
       </c>
       <c r="D65" t="n">
-        <v>0.56397</v>
+        <v>0.578384</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.576143</v>
+        <v>0.576686</v>
       </c>
       <c r="C66" t="n">
-        <v>0.584151</v>
+        <v>0.5812580000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.880986</v>
+        <v>0.85846</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.882015</v>
+        <v>0.854756</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8775269999999999</v>
+        <v>0.8832449999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.84223</v>
+        <v>0.848675</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.864879</v>
+        <v>0.846591</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8756350000000001</v>
+        <v>0.847804</v>
       </c>
       <c r="D68" t="n">
-        <v>0.828296</v>
+        <v>0.821617</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.825408</v>
+        <v>0.820645</v>
       </c>
       <c r="C69" t="n">
-        <v>0.846311</v>
+        <v>0.845164</v>
       </c>
       <c r="D69" t="n">
-        <v>0.817975</v>
+        <v>0.813453</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.808343</v>
+        <v>0.802027</v>
       </c>
       <c r="C70" t="n">
-        <v>0.830862</v>
+        <v>0.825199</v>
       </c>
       <c r="D70" t="n">
-        <v>0.776631</v>
+        <v>0.795245</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.780361</v>
+        <v>0.784035</v>
       </c>
       <c r="C71" t="n">
-        <v>0.812326</v>
+        <v>0.791886</v>
       </c>
       <c r="D71" t="n">
-        <v>0.795226</v>
+        <v>0.7717619999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.785083</v>
+        <v>0.772811</v>
       </c>
       <c r="C72" t="n">
-        <v>0.784698</v>
+        <v>0.7818929999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.748265</v>
+        <v>0.752907</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7524459999999999</v>
+        <v>0.746723</v>
       </c>
       <c r="C73" t="n">
-        <v>0.78283</v>
+        <v>0.75905</v>
       </c>
       <c r="D73" t="n">
-        <v>0.729808</v>
+        <v>0.729258</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.75571</v>
+        <v>0.74344</v>
       </c>
       <c r="C74" t="n">
-        <v>0.755807</v>
+        <v>0.727084</v>
       </c>
       <c r="D74" t="n">
-        <v>0.715349</v>
+        <v>0.721194</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.722153</v>
+        <v>0.730783</v>
       </c>
       <c r="C75" t="n">
-        <v>0.742088</v>
+        <v>0.727627</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7092309999999999</v>
+        <v>0.707937</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.697454</v>
+        <v>0.70963</v>
       </c>
       <c r="C76" t="n">
-        <v>0.721562</v>
+        <v>0.701696</v>
       </c>
       <c r="D76" t="n">
-        <v>0.671207</v>
+        <v>0.695421</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.68687</v>
+        <v>0.69513</v>
       </c>
       <c r="C77" t="n">
-        <v>0.697612</v>
+        <v>0.696811</v>
       </c>
       <c r="D77" t="n">
-        <v>0.680345</v>
+        <v>0.6781199999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.684551</v>
+        <v>0.685709</v>
       </c>
       <c r="C78" t="n">
-        <v>0.681572</v>
+        <v>0.680863</v>
       </c>
       <c r="D78" t="n">
-        <v>0.650298</v>
+        <v>0.681454</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.674243</v>
+        <v>0.656841</v>
       </c>
       <c r="C79" t="n">
-        <v>0.689555</v>
+        <v>0.676915</v>
       </c>
       <c r="D79" t="n">
-        <v>0.669863</v>
+        <v>0.662737</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.664373</v>
+        <v>0.675712</v>
       </c>
       <c r="C80" t="n">
-        <v>0.666471</v>
+        <v>0.676002</v>
       </c>
       <c r="D80" t="n">
-        <v>0.99674</v>
+        <v>1.03207</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.97801</v>
+        <v>0.969588</v>
       </c>
       <c r="C81" t="n">
-        <v>0.983507</v>
+        <v>0.987685</v>
       </c>
       <c r="D81" t="n">
-        <v>0.964823</v>
+        <v>0.9728</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.959539</v>
+        <v>0.947848</v>
       </c>
       <c r="C82" t="n">
-        <v>0.99844</v>
+        <v>0.95851</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9484050000000001</v>
+        <v>0.9586710000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.977171</v>
+        <v>0.943707</v>
       </c>
       <c r="C83" t="n">
-        <v>0.973415</v>
+        <v>0.958936</v>
       </c>
       <c r="D83" t="n">
-        <v>0.923966</v>
+        <v>0.928218</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9221780000000001</v>
+        <v>0.9102440000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.945398</v>
+        <v>0.9396910000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.906232</v>
+        <v>0.9165</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.906103</v>
+        <v>0.896139</v>
       </c>
       <c r="C85" t="n">
-        <v>0.919674</v>
+        <v>0.9170970000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.870615</v>
+        <v>0.906043</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.886946</v>
+        <v>0.878175</v>
       </c>
       <c r="C86" t="n">
-        <v>0.888205</v>
+        <v>0.901538</v>
       </c>
       <c r="D86" t="n">
-        <v>0.842357</v>
+        <v>0.875177</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.856233</v>
+        <v>0.854463</v>
       </c>
       <c r="C87" t="n">
-        <v>0.881691</v>
+        <v>0.857504</v>
       </c>
       <c r="D87" t="n">
-        <v>0.835359</v>
+        <v>0.8585660000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.861297</v>
+        <v>0.835619</v>
       </c>
       <c r="C88" t="n">
-        <v>0.845199</v>
+        <v>0.86178</v>
       </c>
       <c r="D88" t="n">
-        <v>0.847321</v>
+        <v>0.846195</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.839143</v>
+        <v>0.825727</v>
       </c>
       <c r="C89" t="n">
-        <v>0.839063</v>
+        <v>0.845485</v>
       </c>
       <c r="D89" t="n">
-        <v>0.80331</v>
+        <v>0.845375</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.831788</v>
+        <v>0.8181</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8175750000000001</v>
+        <v>0.8266520000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.793045</v>
+        <v>0.816307</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.788707</v>
+        <v>0.809252</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8032629999999999</v>
+        <v>0.794</v>
       </c>
       <c r="D91" t="n">
-        <v>0.781126</v>
+        <v>0.792891</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.802302</v>
+        <v>0.785232</v>
       </c>
       <c r="C92" t="n">
-        <v>0.797087</v>
+        <v>0.787842</v>
       </c>
       <c r="D92" t="n">
-        <v>0.756226</v>
+        <v>0.8032820000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.786726</v>
+        <v>0.788301</v>
       </c>
       <c r="C93" t="n">
-        <v>0.785222</v>
+        <v>0.768998</v>
       </c>
       <c r="D93" t="n">
-        <v>0.744373</v>
+        <v>0.779207</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.783594</v>
+        <v>0.766579</v>
       </c>
       <c r="C94" t="n">
-        <v>0.759224</v>
+        <v>0.763622</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08477</v>
+        <v>1.16519</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10202</v>
+        <v>1.06797</v>
       </c>
       <c r="C95" t="n">
-        <v>1.11736</v>
+        <v>1.09595</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09153</v>
+        <v>1.08867</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08237</v>
+        <v>1.07757</v>
       </c>
       <c r="C96" t="n">
-        <v>1.10501</v>
+        <v>1.10044</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05186</v>
+        <v>1.07326</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06537</v>
+        <v>1.07688</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09398</v>
+        <v>1.06285</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03526</v>
+        <v>1.04217</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07036</v>
+        <v>1.01641</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06966</v>
+        <v>1.05433</v>
       </c>
       <c r="D98" t="n">
-        <v>1.00316</v>
+        <v>1.02418</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0173</v>
+        <v>1.00391</v>
       </c>
       <c r="C99" t="n">
-        <v>1.05951</v>
+        <v>1.00968</v>
       </c>
       <c r="D99" t="n">
-        <v>0.960292</v>
+        <v>1.01044</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02121</v>
+        <v>1.02004</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01715</v>
+        <v>1.01817</v>
       </c>
       <c r="D100" t="n">
-        <v>0.977948</v>
+        <v>0.9890640000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.00746</v>
+        <v>0.973097</v>
       </c>
       <c r="C101" t="n">
-        <v>0.999793</v>
+        <v>0.970575</v>
       </c>
       <c r="D101" t="n">
-        <v>0.948891</v>
+        <v>0.973336</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.970023</v>
+        <v>0.959297</v>
       </c>
       <c r="C102" t="n">
-        <v>0.986625</v>
+        <v>0.982593</v>
       </c>
       <c r="D102" t="n">
-        <v>0.916629</v>
+        <v>0.955713</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.958801</v>
+        <v>0.969828</v>
       </c>
       <c r="C103" t="n">
-        <v>0.984308</v>
+        <v>0.948215</v>
       </c>
       <c r="D103" t="n">
-        <v>0.922192</v>
+        <v>0.934929</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.943317</v>
+        <v>0.944926</v>
       </c>
       <c r="C104" t="n">
-        <v>0.942235</v>
+        <v>0.946824</v>
       </c>
       <c r="D104" t="n">
-        <v>0.908471</v>
+        <v>0.920021</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9420460000000001</v>
+        <v>0.938266</v>
       </c>
       <c r="C105" t="n">
-        <v>0.949591</v>
+        <v>0.92908</v>
       </c>
       <c r="D105" t="n">
-        <v>0.905339</v>
+        <v>0.910296</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.948883</v>
+        <v>0.921687</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9344479999999999</v>
+        <v>0.91357</v>
       </c>
       <c r="D106" t="n">
-        <v>0.856317</v>
+        <v>0.914453</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.907995</v>
+        <v>0.900964</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9261779999999999</v>
+        <v>0.904488</v>
       </c>
       <c r="D107" t="n">
-        <v>0.855753</v>
+        <v>0.899801</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.925368</v>
+        <v>0.913225</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9080279999999999</v>
+        <v>0.916405</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18505</v>
+        <v>1.23344</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9149389999999999</v>
+        <v>0.895139</v>
       </c>
       <c r="C109" t="n">
-        <v>0.913953</v>
+        <v>0.902716</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18384</v>
+        <v>1.24405</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21013</v>
+        <v>1.22378</v>
       </c>
       <c r="C110" t="n">
-        <v>1.2454</v>
+        <v>1.23106</v>
       </c>
       <c r="D110" t="n">
-        <v>1.15697</v>
+        <v>1.23178</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.20386</v>
+        <v>1.18874</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21495</v>
+        <v>1.20963</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14809</v>
+        <v>1.18876</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17645</v>
+        <v>1.20151</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21464</v>
+        <v>1.17681</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15252</v>
+        <v>1.14766</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18084</v>
+        <v>1.1587</v>
       </c>
       <c r="C113" t="n">
-        <v>1.17944</v>
+        <v>1.17643</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12739</v>
+        <v>1.12579</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1711</v>
+        <v>1.16568</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18314</v>
+        <v>1.16732</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10831</v>
+        <v>1.14862</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14819</v>
+        <v>1.14958</v>
       </c>
       <c r="C115" t="n">
-        <v>1.19004</v>
+        <v>1.14292</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09602</v>
+        <v>1.09716</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14842</v>
+        <v>1.14358</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15139</v>
+        <v>1.13626</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07005</v>
+        <v>1.13828</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1338</v>
+        <v>1.16881</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12849</v>
+        <v>1.17049</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09614</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14137</v>
+        <v>1.14177</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10759</v>
+        <v>1.12234</v>
       </c>
       <c r="D118" t="n">
-        <v>1.03801</v>
+        <v>1.09455</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11941</v>
+        <v>1.13361</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11919</v>
+        <v>1.12336</v>
       </c>
       <c r="D119" t="n">
-        <v>1.06332</v>
+        <v>1.08055</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12027</v>
+        <v>1.16635</v>
       </c>
       <c r="C120" t="n">
-        <v>1.1247</v>
+        <v>1.12852</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04223</v>
+        <v>1.07155</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10761</v>
+        <v>1.11456</v>
       </c>
       <c r="C121" t="n">
-        <v>1.12227</v>
+        <v>1.09361</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03234</v>
+        <v>1.05956</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12233</v>
+        <v>1.12614</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09261</v>
+        <v>1.1146</v>
       </c>
       <c r="D122" t="n">
-        <v>1.04023</v>
+        <v>1.06098</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.1204</v>
+        <v>1.09729</v>
       </c>
       <c r="C123" t="n">
-        <v>1.11061</v>
+        <v>1.10524</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37451</v>
+        <v>1.39086</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4564</v>
+        <v>1.40009</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44749</v>
+        <v>1.42851</v>
       </c>
       <c r="D124" t="n">
-        <v>1.39504</v>
+        <v>1.38577</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42051</v>
+        <v>1.40703</v>
       </c>
       <c r="C125" t="n">
-        <v>1.43558</v>
+        <v>1.43192</v>
       </c>
       <c r="D125" t="n">
-        <v>1.36787</v>
+        <v>1.37326</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.43444</v>
+        <v>1.4089</v>
       </c>
       <c r="C126" t="n">
-        <v>1.4224</v>
+        <v>1.42413</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35065</v>
+        <v>1.36682</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.42205</v>
+        <v>1.40681</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42383</v>
+        <v>1.39956</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35476</v>
+        <v>1.38963</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38446</v>
+        <v>1.42006</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3958</v>
+        <v>1.38762</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33958</v>
+        <v>1.36871</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41017</v>
+        <v>1.41212</v>
       </c>
       <c r="C129" t="n">
-        <v>1.40213</v>
+        <v>1.38557</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32546</v>
+        <v>1.35059</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.41556</v>
+        <v>1.39986</v>
       </c>
       <c r="C130" t="n">
-        <v>1.40096</v>
+        <v>1.3901</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31183</v>
+        <v>1.36076</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39892</v>
+        <v>1.40314</v>
       </c>
       <c r="C131" t="n">
-        <v>1.35431</v>
+        <v>1.3772</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33438</v>
+        <v>1.33078</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40777</v>
+        <v>1.40441</v>
       </c>
       <c r="C132" t="n">
-        <v>1.37913</v>
+        <v>1.36921</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29638</v>
+        <v>1.32464</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42367</v>
+        <v>1.40635</v>
       </c>
       <c r="C133" t="n">
-        <v>1.37992</v>
+        <v>1.36059</v>
       </c>
       <c r="D133" t="n">
-        <v>1.29411</v>
+        <v>1.3233</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41347</v>
+        <v>1.40531</v>
       </c>
       <c r="C134" t="n">
-        <v>1.36742</v>
+        <v>1.35882</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30847</v>
+        <v>1.31323</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40523</v>
+        <v>1.39391</v>
       </c>
       <c r="C135" t="n">
-        <v>1.37166</v>
+        <v>1.34941</v>
       </c>
       <c r="D135" t="n">
-        <v>1.28872</v>
+        <v>1.33411</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.399</v>
+        <v>1.39637</v>
       </c>
       <c r="C136" t="n">
-        <v>1.37145</v>
+        <v>1.35539</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31444</v>
+        <v>1.33605</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41657</v>
+        <v>1.42299</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37062</v>
+        <v>1.36747</v>
       </c>
       <c r="D137" t="n">
-        <v>1.6745</v>
+        <v>1.7113</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73262</v>
+        <v>1.73832</v>
       </c>
       <c r="C138" t="n">
-        <v>1.71344</v>
+        <v>1.70829</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65397</v>
+        <v>1.69544</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.72814</v>
+        <v>1.72338</v>
       </c>
       <c r="C139" t="n">
-        <v>1.71391</v>
+        <v>1.71064</v>
       </c>
       <c r="D139" t="n">
-        <v>1.66834</v>
+        <v>1.64876</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.73786</v>
+        <v>1.7249</v>
       </c>
       <c r="C140" t="n">
-        <v>1.70241</v>
+        <v>1.68762</v>
       </c>
       <c r="D140" t="n">
-        <v>1.63175</v>
+        <v>1.65384</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.75294</v>
+        <v>1.7245</v>
       </c>
       <c r="C141" t="n">
-        <v>1.68518</v>
+        <v>1.66249</v>
       </c>
       <c r="D141" t="n">
-        <v>1.62262</v>
+        <v>1.64576</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71348</v>
+        <v>1.70861</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66779</v>
+        <v>1.66139</v>
       </c>
       <c r="D142" t="n">
-        <v>1.62967</v>
+        <v>1.63476</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.71827</v>
+        <v>1.70183</v>
       </c>
       <c r="C143" t="n">
-        <v>1.65836</v>
+        <v>1.66049</v>
       </c>
       <c r="D143" t="n">
-        <v>1.60829</v>
+        <v>1.643</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.349233</v>
+        <v>0.618053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.345468</v>
+        <v>0.538504</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346407</v>
+        <v>0.353943</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343454</v>
+        <v>0.350649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.345269</v>
+        <v>0.351034</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3413</v>
+        <v>0.369095</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.336353</v>
+        <v>0.346583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.354258</v>
+        <v>0.357933</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333829</v>
+        <v>0.347202</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.321266</v>
+        <v>0.344877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.323906</v>
+        <v>0.345771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.323573</v>
+        <v>0.345439</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.323046</v>
+        <v>0.345314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.326237</v>
+        <v>0.341622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.316759</v>
+        <v>0.341765</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.31431</v>
+        <v>0.352505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.324192</v>
+        <v>0.334769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.319683</v>
+        <v>0.328955</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.315192</v>
+        <v>0.329114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.316334</v>
+        <v>0.344139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.324005</v>
+        <v>0.332452</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.323769</v>
+        <v>0.331374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.31807</v>
+        <v>0.339572</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653783</v>
+        <v>0.689462</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.55231</v>
+        <v>0.577228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.58017</v>
+        <v>0.591469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.640884</v>
+        <v>0.655577</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556042</v>
+        <v>0.5685750000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.560128</v>
+        <v>0.596263</v>
       </c>
       <c r="D11" t="n">
-        <v>0.612415</v>
+        <v>0.650788</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.529384</v>
+        <v>0.556457</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547131</v>
+        <v>0.5695480000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.601261</v>
+        <v>0.625116</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5302750000000001</v>
+        <v>0.5479039999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.527709</v>
+        <v>0.554242</v>
       </c>
       <c r="D13" t="n">
-        <v>0.579522</v>
+        <v>0.605317</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.510473</v>
+        <v>0.5168199999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.521821</v>
+        <v>0.52359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.55193</v>
+        <v>0.5712930000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.491251</v>
+        <v>0.504395</v>
       </c>
       <c r="C15" t="n">
-        <v>0.501244</v>
+        <v>0.508258</v>
       </c>
       <c r="D15" t="n">
-        <v>0.549677</v>
+        <v>0.557067</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47964</v>
+        <v>0.498592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.482199</v>
+        <v>0.492925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.533679</v>
+        <v>0.546677</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.452501</v>
+        <v>0.47404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.473118</v>
+        <v>0.471901</v>
       </c>
       <c r="D17" t="n">
-        <v>0.505864</v>
+        <v>0.522621</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.442765</v>
+        <v>0.474959</v>
       </c>
       <c r="C18" t="n">
-        <v>0.461736</v>
+        <v>0.473223</v>
       </c>
       <c r="D18" t="n">
-        <v>0.496642</v>
+        <v>0.509012</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.437231</v>
+        <v>0.452677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.43652</v>
+        <v>0.462855</v>
       </c>
       <c r="D19" t="n">
-        <v>0.486696</v>
+        <v>0.488497</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.41934</v>
+        <v>0.446576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437173</v>
+        <v>0.436749</v>
       </c>
       <c r="D20" t="n">
-        <v>0.472644</v>
+        <v>0.475888</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.423182</v>
+        <v>0.426974</v>
       </c>
       <c r="C21" t="n">
-        <v>0.419226</v>
+        <v>0.433408</v>
       </c>
       <c r="D21" t="n">
-        <v>0.459806</v>
+        <v>0.468714</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404422</v>
+        <v>0.416555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.419279</v>
+        <v>0.418826</v>
       </c>
       <c r="D22" t="n">
-        <v>0.454965</v>
+        <v>0.456611</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.404306</v>
+        <v>0.413324</v>
       </c>
       <c r="C23" t="n">
-        <v>0.411614</v>
+        <v>0.412179</v>
       </c>
       <c r="D23" t="n">
-        <v>0.722974</v>
+        <v>0.606668</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.667142</v>
+        <v>0.660942</v>
       </c>
       <c r="C24" t="n">
-        <v>0.698852</v>
+        <v>0.678478</v>
       </c>
       <c r="D24" t="n">
-        <v>0.695545</v>
+        <v>0.591458</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.643809</v>
+        <v>0.647613</v>
       </c>
       <c r="C25" t="n">
-        <v>0.657612</v>
+        <v>0.68409</v>
       </c>
       <c r="D25" t="n">
-        <v>0.696143</v>
+        <v>0.567739</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6225889999999999</v>
+        <v>0.642509</v>
       </c>
       <c r="C26" t="n">
-        <v>0.64658</v>
+        <v>0.655424</v>
       </c>
       <c r="D26" t="n">
-        <v>0.658714</v>
+        <v>0.547154</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.611317</v>
+        <v>0.628679</v>
       </c>
       <c r="C27" t="n">
-        <v>0.643838</v>
+        <v>0.637445</v>
       </c>
       <c r="D27" t="n">
-        <v>0.64066</v>
+        <v>0.537432</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.587062</v>
+        <v>0.597404</v>
       </c>
       <c r="C28" t="n">
-        <v>0.603559</v>
+        <v>0.610127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.613784</v>
+        <v>0.527695</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5676639999999999</v>
+        <v>0.587996</v>
       </c>
       <c r="C29" t="n">
-        <v>0.583821</v>
+        <v>0.5797060000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.591345</v>
+        <v>0.505687</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.582469</v>
+        <v>0.558024</v>
       </c>
       <c r="C30" t="n">
-        <v>0.559098</v>
+        <v>0.571439</v>
       </c>
       <c r="D30" t="n">
-        <v>0.585501</v>
+        <v>0.496935</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.533409</v>
+        <v>0.54106</v>
       </c>
       <c r="C31" t="n">
-        <v>0.543554</v>
+        <v>0.558534</v>
       </c>
       <c r="D31" t="n">
-        <v>0.567224</v>
+        <v>0.468143</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.527438</v>
+        <v>0.544544</v>
       </c>
       <c r="C32" t="n">
-        <v>0.539639</v>
+        <v>0.54471</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5443249999999999</v>
+        <v>0.45744</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.509161</v>
+        <v>0.512777</v>
       </c>
       <c r="C33" t="n">
-        <v>0.529814</v>
+        <v>0.518082</v>
       </c>
       <c r="D33" t="n">
-        <v>0.532915</v>
+        <v>0.451118</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5007819999999999</v>
+        <v>0.498271</v>
       </c>
       <c r="C34" t="n">
-        <v>0.49968</v>
+        <v>0.509082</v>
       </c>
       <c r="D34" t="n">
-        <v>0.51564</v>
+        <v>0.446605</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.487804</v>
+        <v>0.489712</v>
       </c>
       <c r="C35" t="n">
-        <v>0.505099</v>
+        <v>0.499659</v>
       </c>
       <c r="D35" t="n">
-        <v>0.507473</v>
+        <v>0.444089</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.475432</v>
+        <v>0.492965</v>
       </c>
       <c r="C36" t="n">
-        <v>0.480771</v>
+        <v>0.487907</v>
       </c>
       <c r="D36" t="n">
-        <v>0.500941</v>
+        <v>0.441217</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.465701</v>
+        <v>0.4764</v>
       </c>
       <c r="C37" t="n">
-        <v>0.476507</v>
+        <v>0.481855</v>
       </c>
       <c r="D37" t="n">
-        <v>0.709166</v>
+        <v>0.72055</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.745756</v>
+        <v>0.730938</v>
       </c>
       <c r="C38" t="n">
-        <v>0.754825</v>
+        <v>0.752041</v>
       </c>
       <c r="D38" t="n">
-        <v>0.690904</v>
+        <v>0.712568</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.719216</v>
+        <v>0.736669</v>
       </c>
       <c r="C39" t="n">
-        <v>0.723178</v>
+        <v>0.7450909999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.659076</v>
+        <v>0.661707</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.702237</v>
+        <v>0.690356</v>
       </c>
       <c r="C40" t="n">
-        <v>0.697235</v>
+        <v>0.737555</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6351560000000001</v>
+        <v>0.64196</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.658987</v>
+        <v>0.666133</v>
       </c>
       <c r="C41" t="n">
-        <v>0.687925</v>
+        <v>0.675803</v>
       </c>
       <c r="D41" t="n">
-        <v>0.626093</v>
+        <v>0.623545</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.645072</v>
+        <v>0.658813</v>
       </c>
       <c r="C42" t="n">
-        <v>0.664703</v>
+        <v>0.663096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.594186</v>
+        <v>0.6108749999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.624593</v>
+        <v>0.627445</v>
       </c>
       <c r="C43" t="n">
-        <v>0.638886</v>
+        <v>0.641395</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5740459999999999</v>
+        <v>0.602229</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6113960000000001</v>
+        <v>0.609639</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6290519999999999</v>
+        <v>0.622096</v>
       </c>
       <c r="D44" t="n">
-        <v>0.582388</v>
+        <v>0.580164</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.585349</v>
+        <v>0.587526</v>
       </c>
       <c r="C45" t="n">
-        <v>0.591848</v>
+        <v>0.601346</v>
       </c>
       <c r="D45" t="n">
-        <v>0.560099</v>
+        <v>0.553924</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.579923</v>
+        <v>0.590124</v>
       </c>
       <c r="C46" t="n">
-        <v>0.599751</v>
+        <v>0.5888600000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.543067</v>
+        <v>0.542052</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.571384</v>
+        <v>0.574105</v>
       </c>
       <c r="C47" t="n">
-        <v>0.562997</v>
+        <v>0.570573</v>
       </c>
       <c r="D47" t="n">
-        <v>0.52677</v>
+        <v>0.531678</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.54548</v>
+        <v>0.562322</v>
       </c>
       <c r="C48" t="n">
-        <v>0.549762</v>
+        <v>0.555102</v>
       </c>
       <c r="D48" t="n">
-        <v>0.513498</v>
+        <v>0.524864</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5375</v>
+        <v>0.540587</v>
       </c>
       <c r="C49" t="n">
-        <v>0.551943</v>
+        <v>0.539525</v>
       </c>
       <c r="D49" t="n">
-        <v>0.498472</v>
+        <v>0.50622</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.524222</v>
+        <v>0.527944</v>
       </c>
       <c r="C50" t="n">
-        <v>0.53212</v>
+        <v>0.517817</v>
       </c>
       <c r="D50" t="n">
-        <v>0.493969</v>
+        <v>0.493137</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.515054</v>
+        <v>0.509359</v>
       </c>
       <c r="C51" t="n">
-        <v>0.520069</v>
+        <v>0.523605</v>
       </c>
       <c r="D51" t="n">
-        <v>0.773385</v>
+        <v>0.815325</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.503578</v>
+        <v>0.5218429999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.51222</v>
+        <v>0.523371</v>
       </c>
       <c r="D52" t="n">
-        <v>0.749073</v>
+        <v>0.7783600000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.761786</v>
+        <v>0.779369</v>
       </c>
       <c r="C53" t="n">
-        <v>0.791481</v>
+        <v>0.772589</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7489479999999999</v>
+        <v>0.74793</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.742363</v>
+        <v>0.741962</v>
       </c>
       <c r="C54" t="n">
-        <v>0.759652</v>
+        <v>0.763943</v>
       </c>
       <c r="D54" t="n">
-        <v>0.720322</v>
+        <v>0.749066</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.729217</v>
+        <v>0.739123</v>
       </c>
       <c r="C55" t="n">
-        <v>0.743543</v>
+        <v>0.7501409999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.713541</v>
+        <v>0.715377</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.707151</v>
+        <v>0.716662</v>
       </c>
       <c r="C56" t="n">
-        <v>0.715493</v>
+        <v>0.729291</v>
       </c>
       <c r="D56" t="n">
-        <v>0.689509</v>
+        <v>0.694198</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.696613</v>
+        <v>0.699698</v>
       </c>
       <c r="C57" t="n">
-        <v>0.697658</v>
+        <v>0.715727</v>
       </c>
       <c r="D57" t="n">
-        <v>0.685716</v>
+        <v>0.675719</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.684548</v>
+        <v>0.68997</v>
       </c>
       <c r="C58" t="n">
-        <v>0.690019</v>
+        <v>0.684195</v>
       </c>
       <c r="D58" t="n">
-        <v>0.654101</v>
+        <v>0.650942</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.675057</v>
+        <v>0.660036</v>
       </c>
       <c r="C59" t="n">
-        <v>0.665733</v>
+        <v>0.669991</v>
       </c>
       <c r="D59" t="n">
-        <v>0.63476</v>
+        <v>0.646961</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.661373</v>
+        <v>0.650416</v>
       </c>
       <c r="C60" t="n">
-        <v>0.646929</v>
+        <v>0.656244</v>
       </c>
       <c r="D60" t="n">
-        <v>0.631096</v>
+        <v>0.629979</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.626684</v>
+        <v>0.634524</v>
       </c>
       <c r="C61" t="n">
-        <v>0.630613</v>
+        <v>0.648912</v>
       </c>
       <c r="D61" t="n">
-        <v>0.618984</v>
+        <v>0.625912</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.618212</v>
+        <v>0.616216</v>
       </c>
       <c r="C62" t="n">
-        <v>0.630462</v>
+        <v>0.620448</v>
       </c>
       <c r="D62" t="n">
-        <v>0.594517</v>
+        <v>0.597963</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.598498</v>
+        <v>0.606777</v>
       </c>
       <c r="C63" t="n">
-        <v>0.603205</v>
+        <v>0.617989</v>
       </c>
       <c r="D63" t="n">
-        <v>0.600561</v>
+        <v>0.5978830000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.587307</v>
+        <v>0.611829</v>
       </c>
       <c r="C64" t="n">
-        <v>0.601893</v>
+        <v>0.600543</v>
       </c>
       <c r="D64" t="n">
-        <v>0.578702</v>
+        <v>0.587244</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5945820000000001</v>
+        <v>0.578446</v>
       </c>
       <c r="C65" t="n">
-        <v>0.58217</v>
+        <v>0.588853</v>
       </c>
       <c r="D65" t="n">
-        <v>0.578384</v>
+        <v>0.574663</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.576686</v>
+        <v>0.579323</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5812580000000001</v>
+        <v>0.588846</v>
       </c>
       <c r="D66" t="n">
-        <v>0.85846</v>
+        <v>0.893826</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.854756</v>
+        <v>0.873298</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8832449999999999</v>
+        <v>0.904905</v>
       </c>
       <c r="D67" t="n">
-        <v>0.848675</v>
+        <v>0.875877</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.846591</v>
+        <v>0.85034</v>
       </c>
       <c r="C68" t="n">
-        <v>0.847804</v>
+        <v>0.872134</v>
       </c>
       <c r="D68" t="n">
-        <v>0.821617</v>
+        <v>0.860239</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.820645</v>
+        <v>0.8411960000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.845164</v>
+        <v>0.869282</v>
       </c>
       <c r="D69" t="n">
-        <v>0.813453</v>
+        <v>0.823329</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.802027</v>
+        <v>0.808577</v>
       </c>
       <c r="C70" t="n">
-        <v>0.825199</v>
+        <v>0.824582</v>
       </c>
       <c r="D70" t="n">
-        <v>0.795245</v>
+        <v>0.80808</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.784035</v>
+        <v>0.792811</v>
       </c>
       <c r="C71" t="n">
-        <v>0.791886</v>
+        <v>0.798025</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7717619999999999</v>
+        <v>0.781101</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.772811</v>
+        <v>0.765899</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7818929999999999</v>
+        <v>0.783798</v>
       </c>
       <c r="D72" t="n">
-        <v>0.752907</v>
+        <v>0.770108</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.746723</v>
+        <v>0.766119</v>
       </c>
       <c r="C73" t="n">
-        <v>0.75905</v>
+        <v>0.7758080000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.729258</v>
+        <v>0.75274</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.74344</v>
+        <v>0.738416</v>
       </c>
       <c r="C74" t="n">
-        <v>0.727084</v>
+        <v>0.747695</v>
       </c>
       <c r="D74" t="n">
-        <v>0.721194</v>
+        <v>0.738641</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.730783</v>
+        <v>0.715745</v>
       </c>
       <c r="C75" t="n">
-        <v>0.727627</v>
+        <v>0.731747</v>
       </c>
       <c r="D75" t="n">
-        <v>0.707937</v>
+        <v>0.716714</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.70963</v>
+        <v>0.70246</v>
       </c>
       <c r="C76" t="n">
-        <v>0.701696</v>
+        <v>0.707555</v>
       </c>
       <c r="D76" t="n">
-        <v>0.695421</v>
+        <v>0.70219</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.69513</v>
+        <v>0.714596</v>
       </c>
       <c r="C77" t="n">
-        <v>0.696811</v>
+        <v>0.721348</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6781199999999999</v>
+        <v>0.705194</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.685709</v>
+        <v>0.69328</v>
       </c>
       <c r="C78" t="n">
-        <v>0.680863</v>
+        <v>0.698979</v>
       </c>
       <c r="D78" t="n">
-        <v>0.681454</v>
+        <v>0.699591</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.656841</v>
+        <v>0.681122</v>
       </c>
       <c r="C79" t="n">
-        <v>0.676915</v>
+        <v>0.667941</v>
       </c>
       <c r="D79" t="n">
-        <v>0.662737</v>
+        <v>0.677907</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.675712</v>
+        <v>0.664402</v>
       </c>
       <c r="C80" t="n">
-        <v>0.676002</v>
+        <v>0.673535</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03207</v>
+        <v>1.01937</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.969588</v>
+        <v>0.984856</v>
       </c>
       <c r="C81" t="n">
-        <v>0.987685</v>
+        <v>0.991833</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9728</v>
+        <v>1.00287</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.947848</v>
+        <v>0.95957</v>
       </c>
       <c r="C82" t="n">
-        <v>0.95851</v>
+        <v>0.95995</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9586710000000001</v>
+        <v>0.953573</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.943707</v>
+        <v>0.929991</v>
       </c>
       <c r="C83" t="n">
-        <v>0.958936</v>
+        <v>0.962404</v>
       </c>
       <c r="D83" t="n">
-        <v>0.928218</v>
+        <v>0.936183</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9102440000000001</v>
+        <v>0.925434</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9396910000000001</v>
+        <v>0.932701</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9165</v>
+        <v>0.928383</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.896139</v>
+        <v>0.89645</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9170970000000001</v>
+        <v>0.899899</v>
       </c>
       <c r="D85" t="n">
-        <v>0.906043</v>
+        <v>0.901683</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.878175</v>
+        <v>0.878204</v>
       </c>
       <c r="C86" t="n">
-        <v>0.901538</v>
+        <v>0.900705</v>
       </c>
       <c r="D86" t="n">
-        <v>0.875177</v>
+        <v>0.888436</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.854463</v>
+        <v>0.879078</v>
       </c>
       <c r="C87" t="n">
-        <v>0.857504</v>
+        <v>0.887867</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8585660000000001</v>
+        <v>0.867121</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.835619</v>
+        <v>0.849756</v>
       </c>
       <c r="C88" t="n">
-        <v>0.86178</v>
+        <v>0.844672</v>
       </c>
       <c r="D88" t="n">
-        <v>0.846195</v>
+        <v>0.843868</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.825727</v>
+        <v>0.842455</v>
       </c>
       <c r="C89" t="n">
-        <v>0.845485</v>
+        <v>0.850625</v>
       </c>
       <c r="D89" t="n">
-        <v>0.845375</v>
+        <v>0.82452</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8181</v>
+        <v>0.827226</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8266520000000001</v>
+        <v>0.811747</v>
       </c>
       <c r="D90" t="n">
-        <v>0.816307</v>
+        <v>0.80585</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.809252</v>
+        <v>0.8134130000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.794</v>
+        <v>0.791187</v>
       </c>
       <c r="D91" t="n">
-        <v>0.792891</v>
+        <v>0.798127</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.785232</v>
+        <v>0.775999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.787842</v>
+        <v>0.7877420000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8032820000000001</v>
+        <v>0.7982</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.788301</v>
+        <v>0.77991</v>
       </c>
       <c r="C93" t="n">
-        <v>0.768998</v>
+        <v>0.789139</v>
       </c>
       <c r="D93" t="n">
-        <v>0.779207</v>
+        <v>0.77379</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.766579</v>
+        <v>0.779713</v>
       </c>
       <c r="C94" t="n">
-        <v>0.763622</v>
+        <v>0.7659859999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.16519</v>
+        <v>1.11804</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.06797</v>
+        <v>1.09011</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09595</v>
+        <v>1.12117</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08867</v>
+        <v>1.08642</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07757</v>
+        <v>1.07685</v>
       </c>
       <c r="C96" t="n">
-        <v>1.10044</v>
+        <v>1.09202</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07326</v>
+        <v>1.05229</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07688</v>
+        <v>1.05618</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06285</v>
+        <v>1.06074</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04217</v>
+        <v>1.05159</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01641</v>
+        <v>1.0513</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05433</v>
+        <v>1.04722</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02418</v>
+        <v>1.02115</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00391</v>
+        <v>1.03095</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00968</v>
+        <v>1.01601</v>
       </c>
       <c r="D99" t="n">
-        <v>1.01044</v>
+        <v>1.01864</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02004</v>
+        <v>1.00238</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01817</v>
+        <v>1.01999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9890640000000001</v>
+        <v>0.986507</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.973097</v>
+        <v>0.976822</v>
       </c>
       <c r="C101" t="n">
-        <v>0.970575</v>
+        <v>0.9928940000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.973336</v>
+        <v>0.968926</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.959297</v>
+        <v>0.975474</v>
       </c>
       <c r="C102" t="n">
-        <v>0.982593</v>
+        <v>0.969211</v>
       </c>
       <c r="D102" t="n">
-        <v>0.955713</v>
+        <v>0.961249</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.969828</v>
+        <v>0.949585</v>
       </c>
       <c r="C103" t="n">
-        <v>0.948215</v>
+        <v>0.950048</v>
       </c>
       <c r="D103" t="n">
-        <v>0.934929</v>
+        <v>0.94776</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.944926</v>
+        <v>0.957186</v>
       </c>
       <c r="C104" t="n">
-        <v>0.946824</v>
+        <v>0.954454</v>
       </c>
       <c r="D104" t="n">
-        <v>0.920021</v>
+        <v>0.922627</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.938266</v>
+        <v>0.910095</v>
       </c>
       <c r="C105" t="n">
-        <v>0.92908</v>
+        <v>0.934156</v>
       </c>
       <c r="D105" t="n">
-        <v>0.910296</v>
+        <v>0.905924</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.921687</v>
+        <v>0.922994</v>
       </c>
       <c r="C106" t="n">
-        <v>0.91357</v>
+        <v>0.92561</v>
       </c>
       <c r="D106" t="n">
-        <v>0.914453</v>
+        <v>0.895166</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.900964</v>
+        <v>0.920293</v>
       </c>
       <c r="C107" t="n">
-        <v>0.904488</v>
+        <v>0.920359</v>
       </c>
       <c r="D107" t="n">
-        <v>0.899801</v>
+        <v>0.88745</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.913225</v>
+        <v>0.919961</v>
       </c>
       <c r="C108" t="n">
-        <v>0.916405</v>
+        <v>0.884962</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23344</v>
+        <v>1.25076</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.895139</v>
+        <v>0.8964259999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.902716</v>
+        <v>0.911494</v>
       </c>
       <c r="D109" t="n">
-        <v>1.24405</v>
+        <v>1.22664</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22378</v>
+        <v>1.21266</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23106</v>
+        <v>1.21668</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23178</v>
+        <v>1.20205</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18874</v>
+        <v>1.22436</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20963</v>
+        <v>1.20579</v>
       </c>
       <c r="D111" t="n">
-        <v>1.18876</v>
+        <v>1.19248</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.20151</v>
+        <v>1.18588</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17681</v>
+        <v>1.20214</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14766</v>
+        <v>1.16199</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.1587</v>
+        <v>1.18667</v>
       </c>
       <c r="C113" t="n">
-        <v>1.17643</v>
+        <v>1.18931</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12579</v>
+        <v>1.13638</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.16568</v>
+        <v>1.18638</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16732</v>
+        <v>1.17423</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14862</v>
+        <v>1.14154</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14958</v>
+        <v>1.18025</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14292</v>
+        <v>1.146</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09716</v>
+        <v>1.11714</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14358</v>
+        <v>1.12994</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13626</v>
+        <v>1.15229</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13828</v>
+        <v>1.1074</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16881</v>
+        <v>1.13796</v>
       </c>
       <c r="C117" t="n">
-        <v>1.17049</v>
+        <v>1.13726</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09</v>
+        <v>1.1004</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14177</v>
+        <v>1.11436</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12234</v>
+        <v>1.12704</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09455</v>
+        <v>1.07985</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13361</v>
+        <v>1.12721</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12336</v>
+        <v>1.09345</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08055</v>
+        <v>1.07021</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.16635</v>
+        <v>1.13089</v>
       </c>
       <c r="C120" t="n">
-        <v>1.12852</v>
+        <v>1.12559</v>
       </c>
       <c r="D120" t="n">
-        <v>1.07155</v>
+        <v>1.09594</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11456</v>
+        <v>1.13468</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09361</v>
+        <v>1.08569</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05956</v>
+        <v>1.08147</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12614</v>
+        <v>1.11401</v>
       </c>
       <c r="C122" t="n">
-        <v>1.1146</v>
+        <v>1.08937</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06098</v>
+        <v>1.08178</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09729</v>
+        <v>1.14343</v>
       </c>
       <c r="C123" t="n">
-        <v>1.10524</v>
+        <v>1.07558</v>
       </c>
       <c r="D123" t="n">
-        <v>1.39086</v>
+        <v>1.42907</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.40009</v>
+        <v>1.42941</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42851</v>
+        <v>1.44222</v>
       </c>
       <c r="D124" t="n">
-        <v>1.38577</v>
+        <v>1.37974</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.40703</v>
+        <v>1.41853</v>
       </c>
       <c r="C125" t="n">
-        <v>1.43192</v>
+        <v>1.43318</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37326</v>
+        <v>1.39799</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.4089</v>
+        <v>1.43569</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42413</v>
+        <v>1.41258</v>
       </c>
       <c r="D126" t="n">
-        <v>1.36682</v>
+        <v>1.35871</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40681</v>
+        <v>1.41979</v>
       </c>
       <c r="C127" t="n">
-        <v>1.39956</v>
+        <v>1.4084</v>
       </c>
       <c r="D127" t="n">
-        <v>1.38963</v>
+        <v>1.36751</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42006</v>
+        <v>1.40591</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38762</v>
+        <v>1.3864</v>
       </c>
       <c r="D128" t="n">
-        <v>1.36871</v>
+        <v>1.35401</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41212</v>
+        <v>1.39438</v>
       </c>
       <c r="C129" t="n">
-        <v>1.38557</v>
+        <v>1.38807</v>
       </c>
       <c r="D129" t="n">
-        <v>1.35059</v>
+        <v>1.36045</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39986</v>
+        <v>1.41609</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3901</v>
+        <v>1.37129</v>
       </c>
       <c r="D130" t="n">
-        <v>1.36076</v>
+        <v>1.3732</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40314</v>
+        <v>1.42236</v>
       </c>
       <c r="C131" t="n">
-        <v>1.3772</v>
+        <v>1.36783</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33078</v>
+        <v>1.33361</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40441</v>
+        <v>1.40914</v>
       </c>
       <c r="C132" t="n">
-        <v>1.36921</v>
+        <v>1.34939</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32464</v>
+        <v>1.34701</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40635</v>
+        <v>1.40115</v>
       </c>
       <c r="C133" t="n">
-        <v>1.36059</v>
+        <v>1.35625</v>
       </c>
       <c r="D133" t="n">
-        <v>1.3233</v>
+        <v>1.33096</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40531</v>
+        <v>1.39529</v>
       </c>
       <c r="C134" t="n">
-        <v>1.35882</v>
+        <v>1.36329</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31323</v>
+        <v>1.31842</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39391</v>
+        <v>1.41854</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34941</v>
+        <v>1.37008</v>
       </c>
       <c r="D135" t="n">
-        <v>1.33411</v>
+        <v>1.32476</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39637</v>
+        <v>1.42061</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35539</v>
+        <v>1.36194</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33605</v>
+        <v>1.3411</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42299</v>
+        <v>1.40539</v>
       </c>
       <c r="C137" t="n">
-        <v>1.36747</v>
+        <v>1.37259</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7113</v>
+        <v>1.7093</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73832</v>
+        <v>1.7425</v>
       </c>
       <c r="C138" t="n">
-        <v>1.70829</v>
+        <v>1.7009</v>
       </c>
       <c r="D138" t="n">
-        <v>1.69544</v>
+        <v>1.69356</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.72338</v>
+        <v>1.74512</v>
       </c>
       <c r="C139" t="n">
-        <v>1.71064</v>
+        <v>1.685</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64876</v>
+        <v>1.67409</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.7249</v>
+        <v>1.71228</v>
       </c>
       <c r="C140" t="n">
-        <v>1.68762</v>
+        <v>1.67717</v>
       </c>
       <c r="D140" t="n">
-        <v>1.65384</v>
+        <v>1.6499</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.7245</v>
+        <v>1.72576</v>
       </c>
       <c r="C141" t="n">
-        <v>1.66249</v>
+        <v>1.68301</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64576</v>
+        <v>1.66915</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.70861</v>
+        <v>1.71455</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66139</v>
+        <v>1.66188</v>
       </c>
       <c r="D142" t="n">
-        <v>1.63476</v>
+        <v>1.65655</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70183</v>
+        <v>1.69291</v>
       </c>
       <c r="C143" t="n">
-        <v>1.66049</v>
+        <v>1.63756</v>
       </c>
       <c r="D143" t="n">
-        <v>1.643</v>
+        <v>1.63714</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.618053</v>
+        <v>0.591798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.538504</v>
+        <v>0.516647</v>
       </c>
       <c r="D2" t="n">
-        <v>0.353943</v>
+        <v>0.34947</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.350649</v>
+        <v>0.341526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.351034</v>
+        <v>0.341528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.369095</v>
+        <v>0.344398</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.346583</v>
+        <v>0.336847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.357933</v>
+        <v>0.338749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.347202</v>
+        <v>0.332798</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.344877</v>
+        <v>0.334868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.345771</v>
+        <v>0.340707</v>
       </c>
       <c r="D5" t="n">
-        <v>0.345439</v>
+        <v>0.336465</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.345314</v>
+        <v>0.327095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.341622</v>
+        <v>0.3368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.341765</v>
+        <v>0.331581</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.352505</v>
+        <v>0.317714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.334769</v>
+        <v>0.323491</v>
       </c>
       <c r="D7" t="n">
-        <v>0.328955</v>
+        <v>0.316436</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.329114</v>
+        <v>0.318399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.344139</v>
+        <v>0.330004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.332452</v>
+        <v>0.318383</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.331374</v>
+        <v>0.310107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.339572</v>
+        <v>0.31884</v>
       </c>
       <c r="D9" t="n">
-        <v>0.689462</v>
+        <v>0.656931</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.577228</v>
+        <v>0.581837</v>
       </c>
       <c r="C10" t="n">
-        <v>0.591469</v>
+        <v>0.585287</v>
       </c>
       <c r="D10" t="n">
-        <v>0.655577</v>
+        <v>0.634887</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5685750000000001</v>
+        <v>0.560355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.596263</v>
+        <v>0.563939</v>
       </c>
       <c r="D11" t="n">
-        <v>0.650788</v>
+        <v>0.60565</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.556457</v>
+        <v>0.530047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5695480000000001</v>
+        <v>0.539919</v>
       </c>
       <c r="D12" t="n">
-        <v>0.625116</v>
+        <v>0.604141</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5479039999999999</v>
+        <v>0.512172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.554242</v>
+        <v>0.520251</v>
       </c>
       <c r="D13" t="n">
-        <v>0.605317</v>
+        <v>0.5746</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5168199999999999</v>
+        <v>0.500741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.52359</v>
+        <v>0.513815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5712930000000001</v>
+        <v>0.548005</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.504395</v>
+        <v>0.485</v>
       </c>
       <c r="C15" t="n">
-        <v>0.508258</v>
+        <v>0.498223</v>
       </c>
       <c r="D15" t="n">
-        <v>0.557067</v>
+        <v>0.543126</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.498592</v>
+        <v>0.469088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.492925</v>
+        <v>0.488072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.546677</v>
+        <v>0.525956</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.47404</v>
+        <v>0.471923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.471901</v>
+        <v>0.473596</v>
       </c>
       <c r="D17" t="n">
-        <v>0.522621</v>
+        <v>0.510348</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.474959</v>
+        <v>0.444743</v>
       </c>
       <c r="C18" t="n">
-        <v>0.473223</v>
+        <v>0.460283</v>
       </c>
       <c r="D18" t="n">
-        <v>0.509012</v>
+        <v>0.498194</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.452677</v>
+        <v>0.441563</v>
       </c>
       <c r="C19" t="n">
-        <v>0.462855</v>
+        <v>0.4482</v>
       </c>
       <c r="D19" t="n">
-        <v>0.488497</v>
+        <v>0.492397</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.446576</v>
+        <v>0.438677</v>
       </c>
       <c r="C20" t="n">
-        <v>0.436749</v>
+        <v>0.436298</v>
       </c>
       <c r="D20" t="n">
-        <v>0.475888</v>
+        <v>0.476987</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.426974</v>
+        <v>0.431713</v>
       </c>
       <c r="C21" t="n">
-        <v>0.433408</v>
+        <v>0.427455</v>
       </c>
       <c r="D21" t="n">
-        <v>0.468714</v>
+        <v>0.473756</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.416555</v>
+        <v>0.414894</v>
       </c>
       <c r="C22" t="n">
-        <v>0.418826</v>
+        <v>0.428069</v>
       </c>
       <c r="D22" t="n">
-        <v>0.456611</v>
+        <v>0.460088</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.413324</v>
+        <v>0.411623</v>
       </c>
       <c r="C23" t="n">
-        <v>0.412179</v>
+        <v>0.412049</v>
       </c>
       <c r="D23" t="n">
-        <v>0.606668</v>
+        <v>0.605898</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.660942</v>
+        <v>0.669383</v>
       </c>
       <c r="C24" t="n">
-        <v>0.678478</v>
+        <v>0.6834440000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.591458</v>
+        <v>0.5783740000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.647613</v>
+        <v>0.668698</v>
       </c>
       <c r="C25" t="n">
-        <v>0.68409</v>
+        <v>0.660901</v>
       </c>
       <c r="D25" t="n">
-        <v>0.567739</v>
+        <v>0.558307</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.642509</v>
+        <v>0.634277</v>
       </c>
       <c r="C26" t="n">
-        <v>0.655424</v>
+        <v>0.65043</v>
       </c>
       <c r="D26" t="n">
-        <v>0.547154</v>
+        <v>0.54855</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.628679</v>
+        <v>0.60748</v>
       </c>
       <c r="C27" t="n">
-        <v>0.637445</v>
+        <v>0.628676</v>
       </c>
       <c r="D27" t="n">
-        <v>0.537432</v>
+        <v>0.525671</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.597404</v>
+        <v>0.606287</v>
       </c>
       <c r="C28" t="n">
-        <v>0.610127</v>
+        <v>0.617058</v>
       </c>
       <c r="D28" t="n">
-        <v>0.527695</v>
+        <v>0.51258</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.587996</v>
+        <v>0.572468</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5797060000000001</v>
+        <v>0.595658</v>
       </c>
       <c r="D29" t="n">
-        <v>0.505687</v>
+        <v>0.50845</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.558024</v>
+        <v>0.559947</v>
       </c>
       <c r="C30" t="n">
-        <v>0.571439</v>
+        <v>0.575846</v>
       </c>
       <c r="D30" t="n">
-        <v>0.496935</v>
+        <v>0.488171</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.54106</v>
+        <v>0.555473</v>
       </c>
       <c r="C31" t="n">
-        <v>0.558534</v>
+        <v>0.56129</v>
       </c>
       <c r="D31" t="n">
-        <v>0.468143</v>
+        <v>0.474333</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.544544</v>
+        <v>0.532072</v>
       </c>
       <c r="C32" t="n">
-        <v>0.54471</v>
+        <v>0.541119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.45744</v>
+        <v>0.465245</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.512777</v>
+        <v>0.520564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.518082</v>
+        <v>0.523676</v>
       </c>
       <c r="D33" t="n">
-        <v>0.451118</v>
+        <v>0.450135</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.498271</v>
+        <v>0.503943</v>
       </c>
       <c r="C34" t="n">
-        <v>0.509082</v>
+        <v>0.500749</v>
       </c>
       <c r="D34" t="n">
-        <v>0.446605</v>
+        <v>0.443716</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.489712</v>
+        <v>0.497758</v>
       </c>
       <c r="C35" t="n">
-        <v>0.499659</v>
+        <v>0.492487</v>
       </c>
       <c r="D35" t="n">
-        <v>0.444089</v>
+        <v>0.435756</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.492965</v>
+        <v>0.483738</v>
       </c>
       <c r="C36" t="n">
-        <v>0.487907</v>
+        <v>0.482754</v>
       </c>
       <c r="D36" t="n">
-        <v>0.441217</v>
+        <v>0.422948</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4764</v>
+        <v>0.473144</v>
       </c>
       <c r="C37" t="n">
-        <v>0.481855</v>
+        <v>0.472439</v>
       </c>
       <c r="D37" t="n">
-        <v>0.72055</v>
+        <v>0.707811</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.730938</v>
+        <v>0.720946</v>
       </c>
       <c r="C38" t="n">
-        <v>0.752041</v>
+        <v>0.745074</v>
       </c>
       <c r="D38" t="n">
-        <v>0.712568</v>
+        <v>0.688913</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.736669</v>
+        <v>0.724886</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7450909999999999</v>
+        <v>0.736657</v>
       </c>
       <c r="D39" t="n">
-        <v>0.661707</v>
+        <v>0.661294</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.690356</v>
+        <v>0.681666</v>
       </c>
       <c r="C40" t="n">
-        <v>0.737555</v>
+        <v>0.70279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.64196</v>
+        <v>0.654443</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.666133</v>
+        <v>0.672808</v>
       </c>
       <c r="C41" t="n">
-        <v>0.675803</v>
+        <v>0.683967</v>
       </c>
       <c r="D41" t="n">
-        <v>0.623545</v>
+        <v>0.629706</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.658813</v>
+        <v>0.658047</v>
       </c>
       <c r="C42" t="n">
-        <v>0.663096</v>
+        <v>0.674427</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6108749999999999</v>
+        <v>0.602609</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.627445</v>
+        <v>0.625323</v>
       </c>
       <c r="C43" t="n">
-        <v>0.641395</v>
+        <v>0.635111</v>
       </c>
       <c r="D43" t="n">
-        <v>0.602229</v>
+        <v>0.601855</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.609639</v>
+        <v>0.601966</v>
       </c>
       <c r="C44" t="n">
-        <v>0.622096</v>
+        <v>0.62271</v>
       </c>
       <c r="D44" t="n">
-        <v>0.580164</v>
+        <v>0.569859</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.587526</v>
+        <v>0.591799</v>
       </c>
       <c r="C45" t="n">
-        <v>0.601346</v>
+        <v>0.598262</v>
       </c>
       <c r="D45" t="n">
-        <v>0.553924</v>
+        <v>0.553517</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.590124</v>
+        <v>0.5896980000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5888600000000001</v>
+        <v>0.576562</v>
       </c>
       <c r="D46" t="n">
-        <v>0.542052</v>
+        <v>0.53229</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.574105</v>
+        <v>0.563619</v>
       </c>
       <c r="C47" t="n">
-        <v>0.570573</v>
+        <v>0.5881729999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531678</v>
+        <v>0.53391</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.562322</v>
+        <v>0.574514</v>
       </c>
       <c r="C48" t="n">
-        <v>0.555102</v>
+        <v>0.576954</v>
       </c>
       <c r="D48" t="n">
-        <v>0.524864</v>
+        <v>0.516742</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.540587</v>
+        <v>0.527809</v>
       </c>
       <c r="C49" t="n">
-        <v>0.539525</v>
+        <v>0.53624</v>
       </c>
       <c r="D49" t="n">
-        <v>0.50622</v>
+        <v>0.499372</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.527944</v>
+        <v>0.528107</v>
       </c>
       <c r="C50" t="n">
-        <v>0.517817</v>
+        <v>0.520763</v>
       </c>
       <c r="D50" t="n">
-        <v>0.493137</v>
+        <v>0.495815</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509359</v>
+        <v>0.509595</v>
       </c>
       <c r="C51" t="n">
-        <v>0.523605</v>
+        <v>0.51922</v>
       </c>
       <c r="D51" t="n">
-        <v>0.815325</v>
+        <v>0.780321</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5218429999999999</v>
+        <v>0.503541</v>
       </c>
       <c r="C52" t="n">
-        <v>0.523371</v>
+        <v>0.51447</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7783600000000001</v>
+        <v>0.763232</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.779369</v>
+        <v>0.752621</v>
       </c>
       <c r="C53" t="n">
-        <v>0.772589</v>
+        <v>0.7826109999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.74793</v>
+        <v>0.7410409999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.741962</v>
+        <v>0.755901</v>
       </c>
       <c r="C54" t="n">
-        <v>0.763943</v>
+        <v>0.758057</v>
       </c>
       <c r="D54" t="n">
-        <v>0.749066</v>
+        <v>0.724612</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.739123</v>
+        <v>0.721</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7501409999999999</v>
+        <v>0.740669</v>
       </c>
       <c r="D55" t="n">
-        <v>0.715377</v>
+        <v>0.703138</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.716662</v>
+        <v>0.707463</v>
       </c>
       <c r="C56" t="n">
-        <v>0.729291</v>
+        <v>0.737825</v>
       </c>
       <c r="D56" t="n">
-        <v>0.694198</v>
+        <v>0.693909</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.699698</v>
+        <v>0.696074</v>
       </c>
       <c r="C57" t="n">
-        <v>0.715727</v>
+        <v>0.70067</v>
       </c>
       <c r="D57" t="n">
-        <v>0.675719</v>
+        <v>0.671037</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.68997</v>
+        <v>0.689156</v>
       </c>
       <c r="C58" t="n">
-        <v>0.684195</v>
+        <v>0.676297</v>
       </c>
       <c r="D58" t="n">
-        <v>0.650942</v>
+        <v>0.647688</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.660036</v>
+        <v>0.66366</v>
       </c>
       <c r="C59" t="n">
-        <v>0.669991</v>
+        <v>0.669142</v>
       </c>
       <c r="D59" t="n">
-        <v>0.646961</v>
+        <v>0.647316</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.650416</v>
+        <v>0.654736</v>
       </c>
       <c r="C60" t="n">
-        <v>0.656244</v>
+        <v>0.649983</v>
       </c>
       <c r="D60" t="n">
-        <v>0.629979</v>
+        <v>0.621194</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.634524</v>
+        <v>0.635493</v>
       </c>
       <c r="C61" t="n">
-        <v>0.648912</v>
+        <v>0.639844</v>
       </c>
       <c r="D61" t="n">
-        <v>0.625912</v>
+        <v>0.61498</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.616216</v>
+        <v>0.633874</v>
       </c>
       <c r="C62" t="n">
-        <v>0.620448</v>
+        <v>0.635024</v>
       </c>
       <c r="D62" t="n">
-        <v>0.597963</v>
+        <v>0.597142</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.606777</v>
+        <v>0.604328</v>
       </c>
       <c r="C63" t="n">
-        <v>0.617989</v>
+        <v>0.604418</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5978830000000001</v>
+        <v>0.599102</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.611829</v>
+        <v>0.589401</v>
       </c>
       <c r="C64" t="n">
-        <v>0.600543</v>
+        <v>0.595168</v>
       </c>
       <c r="D64" t="n">
-        <v>0.587244</v>
+        <v>0.573655</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.578446</v>
+        <v>0.580483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.588853</v>
+        <v>0.591805</v>
       </c>
       <c r="D65" t="n">
-        <v>0.574663</v>
+        <v>0.583044</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.579323</v>
+        <v>0.580798</v>
       </c>
       <c r="C66" t="n">
-        <v>0.588846</v>
+        <v>0.593435</v>
       </c>
       <c r="D66" t="n">
-        <v>0.893826</v>
+        <v>0.897695</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.873298</v>
+        <v>0.86447</v>
       </c>
       <c r="C67" t="n">
-        <v>0.904905</v>
+        <v>0.89145</v>
       </c>
       <c r="D67" t="n">
-        <v>0.875877</v>
+        <v>0.856837</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.85034</v>
+        <v>0.837097</v>
       </c>
       <c r="C68" t="n">
-        <v>0.872134</v>
+        <v>0.864136</v>
       </c>
       <c r="D68" t="n">
-        <v>0.860239</v>
+        <v>0.833244</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8411960000000001</v>
+        <v>0.82743</v>
       </c>
       <c r="C69" t="n">
-        <v>0.869282</v>
+        <v>0.841266</v>
       </c>
       <c r="D69" t="n">
-        <v>0.823329</v>
+        <v>0.816931</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.808577</v>
+        <v>0.806297</v>
       </c>
       <c r="C70" t="n">
-        <v>0.824582</v>
+        <v>0.820006</v>
       </c>
       <c r="D70" t="n">
-        <v>0.80808</v>
+        <v>0.813778</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.792811</v>
+        <v>0.785818</v>
       </c>
       <c r="C71" t="n">
-        <v>0.798025</v>
+        <v>0.794002</v>
       </c>
       <c r="D71" t="n">
-        <v>0.781101</v>
+        <v>0.774345</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.765899</v>
+        <v>0.775995</v>
       </c>
       <c r="C72" t="n">
-        <v>0.783798</v>
+        <v>0.77447</v>
       </c>
       <c r="D72" t="n">
-        <v>0.770108</v>
+        <v>0.757706</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.766119</v>
+        <v>0.760931</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7758080000000001</v>
+        <v>0.762634</v>
       </c>
       <c r="D73" t="n">
-        <v>0.75274</v>
+        <v>0.735694</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.738416</v>
+        <v>0.745441</v>
       </c>
       <c r="C74" t="n">
-        <v>0.747695</v>
+        <v>0.735061</v>
       </c>
       <c r="D74" t="n">
-        <v>0.738641</v>
+        <v>0.740677</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.715745</v>
+        <v>0.715303</v>
       </c>
       <c r="C75" t="n">
-        <v>0.731747</v>
+        <v>0.716015</v>
       </c>
       <c r="D75" t="n">
-        <v>0.716714</v>
+        <v>0.703857</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.70246</v>
+        <v>0.7279</v>
       </c>
       <c r="C76" t="n">
-        <v>0.707555</v>
+        <v>0.714191</v>
       </c>
       <c r="D76" t="n">
-        <v>0.70219</v>
+        <v>0.699528</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.714596</v>
+        <v>0.697691</v>
       </c>
       <c r="C77" t="n">
-        <v>0.721348</v>
+        <v>0.6801970000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.705194</v>
+        <v>0.6750699999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.69328</v>
+        <v>0.700596</v>
       </c>
       <c r="C78" t="n">
-        <v>0.698979</v>
+        <v>0.685842</v>
       </c>
       <c r="D78" t="n">
-        <v>0.699591</v>
+        <v>0.673682</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.681122</v>
+        <v>0.677535</v>
       </c>
       <c r="C79" t="n">
-        <v>0.667941</v>
+        <v>0.660498</v>
       </c>
       <c r="D79" t="n">
-        <v>0.677907</v>
+        <v>0.674663</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.664402</v>
+        <v>0.662525</v>
       </c>
       <c r="C80" t="n">
-        <v>0.673535</v>
+        <v>0.657249</v>
       </c>
       <c r="D80" t="n">
-        <v>1.01937</v>
+        <v>1.03603</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.984856</v>
+        <v>0.9748</v>
       </c>
       <c r="C81" t="n">
-        <v>0.991833</v>
+        <v>1.01948</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00287</v>
+        <v>0.985646</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.95957</v>
+        <v>1.00104</v>
       </c>
       <c r="C82" t="n">
-        <v>0.95995</v>
+        <v>0.964042</v>
       </c>
       <c r="D82" t="n">
-        <v>0.953573</v>
+        <v>0.977143</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.929991</v>
+        <v>0.939904</v>
       </c>
       <c r="C83" t="n">
-        <v>0.962404</v>
+        <v>0.953744</v>
       </c>
       <c r="D83" t="n">
-        <v>0.936183</v>
+        <v>0.962898</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.925434</v>
+        <v>0.9252939999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.932701</v>
+        <v>0.934345</v>
       </c>
       <c r="D84" t="n">
-        <v>0.928383</v>
+        <v>0.9199929999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.89645</v>
+        <v>0.908954</v>
       </c>
       <c r="C85" t="n">
-        <v>0.899899</v>
+        <v>0.914498</v>
       </c>
       <c r="D85" t="n">
-        <v>0.901683</v>
+        <v>0.9295600000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.878204</v>
+        <v>0.8806310000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.900705</v>
+        <v>0.88708</v>
       </c>
       <c r="D86" t="n">
-        <v>0.888436</v>
+        <v>0.885206</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.879078</v>
+        <v>0.878558</v>
       </c>
       <c r="C87" t="n">
-        <v>0.887867</v>
+        <v>0.870576</v>
       </c>
       <c r="D87" t="n">
-        <v>0.867121</v>
+        <v>0.872745</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.849756</v>
+        <v>0.866458</v>
       </c>
       <c r="C88" t="n">
-        <v>0.844672</v>
+        <v>0.844226</v>
       </c>
       <c r="D88" t="n">
-        <v>0.843868</v>
+        <v>0.850919</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.842455</v>
+        <v>0.8408600000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.850625</v>
+        <v>0.844324</v>
       </c>
       <c r="D89" t="n">
-        <v>0.82452</v>
+        <v>0.828624</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.827226</v>
+        <v>0.826319</v>
       </c>
       <c r="C90" t="n">
-        <v>0.811747</v>
+        <v>0.818003</v>
       </c>
       <c r="D90" t="n">
-        <v>0.80585</v>
+        <v>0.816367</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8134130000000001</v>
+        <v>0.813943</v>
       </c>
       <c r="C91" t="n">
-        <v>0.791187</v>
+        <v>0.810233</v>
       </c>
       <c r="D91" t="n">
-        <v>0.798127</v>
+        <v>0.812506</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.775999</v>
+        <v>0.796636</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7877420000000001</v>
+        <v>0.785641</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7982</v>
+        <v>0.777388</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.77991</v>
+        <v>0.777079</v>
       </c>
       <c r="C93" t="n">
-        <v>0.789139</v>
+        <v>0.785365</v>
       </c>
       <c r="D93" t="n">
-        <v>0.77379</v>
+        <v>0.782146</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.779713</v>
+        <v>0.770335</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7659859999999999</v>
+        <v>0.790584</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11804</v>
+        <v>1.11513</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09011</v>
+        <v>1.07568</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12117</v>
+        <v>1.09345</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08642</v>
+        <v>1.09566</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07685</v>
+        <v>1.06735</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09202</v>
+        <v>1.07838</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05229</v>
+        <v>1.05505</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05618</v>
+        <v>1.04738</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06074</v>
+        <v>1.0585</v>
       </c>
       <c r="D97" t="n">
-        <v>1.05159</v>
+        <v>1.04369</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0513</v>
+        <v>1.03638</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04722</v>
+        <v>1.02727</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02115</v>
+        <v>1.02632</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03095</v>
+        <v>0.995705</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01601</v>
+        <v>1.00869</v>
       </c>
       <c r="D99" t="n">
-        <v>1.01864</v>
+        <v>1.02038</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00238</v>
+        <v>1.01434</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01999</v>
+        <v>1.00399</v>
       </c>
       <c r="D100" t="n">
-        <v>0.986507</v>
+        <v>0.98946</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.976822</v>
+        <v>0.990289</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9928940000000001</v>
+        <v>0.979352</v>
       </c>
       <c r="D101" t="n">
-        <v>0.968926</v>
+        <v>0.953404</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.975474</v>
+        <v>0.956439</v>
       </c>
       <c r="C102" t="n">
-        <v>0.969211</v>
+        <v>0.968847</v>
       </c>
       <c r="D102" t="n">
-        <v>0.961249</v>
+        <v>0.973841</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.949585</v>
+        <v>0.956516</v>
       </c>
       <c r="C103" t="n">
-        <v>0.950048</v>
+        <v>0.95423</v>
       </c>
       <c r="D103" t="n">
-        <v>0.94776</v>
+        <v>0.926272</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.957186</v>
+        <v>0.960001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.954454</v>
+        <v>0.944306</v>
       </c>
       <c r="D104" t="n">
-        <v>0.922627</v>
+        <v>0.916367</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.910095</v>
+        <v>0.937719</v>
       </c>
       <c r="C105" t="n">
-        <v>0.934156</v>
+        <v>0.931633</v>
       </c>
       <c r="D105" t="n">
-        <v>0.905924</v>
+        <v>0.927231</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.922994</v>
+        <v>0.915284</v>
       </c>
       <c r="C106" t="n">
-        <v>0.92561</v>
+        <v>0.915511</v>
       </c>
       <c r="D106" t="n">
-        <v>0.895166</v>
+        <v>0.923662</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.920293</v>
+        <v>0.9144370000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.920359</v>
+        <v>0.905462</v>
       </c>
       <c r="D107" t="n">
-        <v>0.88745</v>
+        <v>0.896887</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.919961</v>
+        <v>0.910901</v>
       </c>
       <c r="C108" t="n">
-        <v>0.884962</v>
+        <v>0.89316</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25076</v>
+        <v>1.23587</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8964259999999999</v>
+        <v>0.930633</v>
       </c>
       <c r="C109" t="n">
-        <v>0.911494</v>
+        <v>1.18188</v>
       </c>
       <c r="D109" t="n">
-        <v>1.22664</v>
+        <v>1.60342</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21266</v>
+        <v>1.30279</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21668</v>
+        <v>1.30036</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20205</v>
+        <v>1.27329</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22436</v>
+        <v>1.3221</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20579</v>
+        <v>1.21108</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19248</v>
+        <v>1.19435</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.18588</v>
+        <v>1.19142</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20214</v>
+        <v>1.20925</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16199</v>
+        <v>1.1588</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18667</v>
+        <v>1.16844</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18931</v>
+        <v>1.19454</v>
       </c>
       <c r="D113" t="n">
-        <v>1.13638</v>
+        <v>1.17672</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.18638</v>
+        <v>1.15984</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17423</v>
+        <v>1.15671</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14154</v>
+        <v>1.13885</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.18025</v>
+        <v>1.15203</v>
       </c>
       <c r="C115" t="n">
-        <v>1.146</v>
+        <v>1.14611</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11714</v>
+        <v>1.11548</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12994</v>
+        <v>1.17411</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15229</v>
+        <v>1.14985</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1074</v>
+        <v>1.11544</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13796</v>
+        <v>1.152</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13726</v>
+        <v>1.12383</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1004</v>
+        <v>1.10798</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11436</v>
+        <v>1.13833</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12704</v>
+        <v>1.11328</v>
       </c>
       <c r="D118" t="n">
-        <v>1.07985</v>
+        <v>1.08643</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12721</v>
+        <v>1.1214</v>
       </c>
       <c r="C119" t="n">
-        <v>1.09345</v>
+        <v>1.12146</v>
       </c>
       <c r="D119" t="n">
-        <v>1.07021</v>
+        <v>1.08737</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.13089</v>
+        <v>1.12208</v>
       </c>
       <c r="C120" t="n">
-        <v>1.12559</v>
+        <v>1.09409</v>
       </c>
       <c r="D120" t="n">
-        <v>1.09594</v>
+        <v>1.07556</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.13468</v>
+        <v>1.10879</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08569</v>
+        <v>1.10049</v>
       </c>
       <c r="D121" t="n">
-        <v>1.08147</v>
+        <v>1.07521</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.11401</v>
+        <v>1.12972</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08937</v>
+        <v>1.09421</v>
       </c>
       <c r="D122" t="n">
-        <v>1.08178</v>
+        <v>1.08593</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.14343</v>
+        <v>1.09108</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07558</v>
+        <v>1.08384</v>
       </c>
       <c r="D123" t="n">
-        <v>1.42907</v>
+        <v>1.41042</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.42941</v>
+        <v>1.43434</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44222</v>
+        <v>1.42973</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37974</v>
+        <v>1.37871</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.41853</v>
+        <v>1.41808</v>
       </c>
       <c r="C125" t="n">
-        <v>1.43318</v>
+        <v>1.40964</v>
       </c>
       <c r="D125" t="n">
-        <v>1.39799</v>
+        <v>1.38948</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.43569</v>
+        <v>1.44562</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41258</v>
+        <v>1.41235</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35871</v>
+        <v>1.36848</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.41979</v>
+        <v>1.4226</v>
       </c>
       <c r="C127" t="n">
-        <v>1.4084</v>
+        <v>1.3833</v>
       </c>
       <c r="D127" t="n">
-        <v>1.36751</v>
+        <v>1.34757</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40591</v>
+        <v>1.41637</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3864</v>
+        <v>1.38841</v>
       </c>
       <c r="D128" t="n">
-        <v>1.35401</v>
+        <v>1.32878</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.39438</v>
+        <v>1.42279</v>
       </c>
       <c r="C129" t="n">
-        <v>1.38807</v>
+        <v>1.39169</v>
       </c>
       <c r="D129" t="n">
-        <v>1.36045</v>
+        <v>1.37017</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.41609</v>
+        <v>1.41971</v>
       </c>
       <c r="C130" t="n">
-        <v>1.37129</v>
+        <v>1.38598</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3732</v>
+        <v>1.35453</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.42236</v>
+        <v>1.41553</v>
       </c>
       <c r="C131" t="n">
-        <v>1.36783</v>
+        <v>1.3626</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33361</v>
+        <v>1.34108</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40914</v>
+        <v>1.40798</v>
       </c>
       <c r="C132" t="n">
-        <v>1.34939</v>
+        <v>1.36071</v>
       </c>
       <c r="D132" t="n">
-        <v>1.34701</v>
+        <v>1.34645</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40115</v>
+        <v>1.39902</v>
       </c>
       <c r="C133" t="n">
-        <v>1.35625</v>
+        <v>1.36934</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33096</v>
+        <v>1.34183</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39529</v>
+        <v>1.4211</v>
       </c>
       <c r="C134" t="n">
-        <v>1.36329</v>
+        <v>1.36054</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31842</v>
+        <v>1.33308</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.41854</v>
+        <v>1.4051</v>
       </c>
       <c r="C135" t="n">
-        <v>1.37008</v>
+        <v>1.35147</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32476</v>
+        <v>1.34174</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42061</v>
+        <v>1.40635</v>
       </c>
       <c r="C136" t="n">
-        <v>1.36194</v>
+        <v>1.35508</v>
       </c>
       <c r="D136" t="n">
-        <v>1.3411</v>
+        <v>1.34747</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40539</v>
+        <v>1.41688</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37259</v>
+        <v>1.35768</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7093</v>
+        <v>1.67883</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.7425</v>
+        <v>1.75575</v>
       </c>
       <c r="C138" t="n">
-        <v>1.7009</v>
+        <v>1.70227</v>
       </c>
       <c r="D138" t="n">
-        <v>1.69356</v>
+        <v>1.66725</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74512</v>
+        <v>1.74969</v>
       </c>
       <c r="C139" t="n">
-        <v>1.685</v>
+        <v>1.70765</v>
       </c>
       <c r="D139" t="n">
-        <v>1.67409</v>
+        <v>1.67263</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71228</v>
+        <v>1.72888</v>
       </c>
       <c r="C140" t="n">
-        <v>1.67717</v>
+        <v>1.67282</v>
       </c>
       <c r="D140" t="n">
-        <v>1.6499</v>
+        <v>1.6645</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.72576</v>
+        <v>1.70543</v>
       </c>
       <c r="C141" t="n">
-        <v>1.68301</v>
+        <v>1.67987</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66915</v>
+        <v>1.64341</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71455</v>
+        <v>1.72054</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66188</v>
+        <v>1.66042</v>
       </c>
       <c r="D142" t="n">
-        <v>1.65655</v>
+        <v>1.62484</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.69291</v>
+        <v>1.70772</v>
       </c>
       <c r="C143" t="n">
-        <v>1.63756</v>
+        <v>1.64769</v>
       </c>
       <c r="D143" t="n">
-        <v>1.63714</v>
+        <v>1.63432</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.591798</v>
+        <v>0.63493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.516647</v>
+        <v>0.527987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34947</v>
+        <v>0.368127</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.341526</v>
+        <v>0.369445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.341528</v>
+        <v>0.344956</v>
       </c>
       <c r="D3" t="n">
-        <v>0.344398</v>
+        <v>0.354651</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.336847</v>
+        <v>0.346917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.338749</v>
+        <v>0.342987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.332798</v>
+        <v>0.347952</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.334868</v>
+        <v>0.340492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.340707</v>
+        <v>0.326407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.336465</v>
+        <v>0.336145</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.327095</v>
+        <v>0.340192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3368</v>
+        <v>0.324976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.331581</v>
+        <v>0.332684</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.317714</v>
+        <v>0.324883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.323491</v>
+        <v>0.316595</v>
       </c>
       <c r="D7" t="n">
-        <v>0.316436</v>
+        <v>0.325587</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.318399</v>
+        <v>0.325756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.330004</v>
+        <v>0.309744</v>
       </c>
       <c r="D8" t="n">
-        <v>0.318383</v>
+        <v>0.335928</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.310107</v>
+        <v>0.32915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.31884</v>
+        <v>0.319836</v>
       </c>
       <c r="D9" t="n">
-        <v>0.656931</v>
+        <v>0.681276</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.581837</v>
+        <v>0.600849</v>
       </c>
       <c r="C10" t="n">
-        <v>0.585287</v>
+        <v>0.579264</v>
       </c>
       <c r="D10" t="n">
-        <v>0.634887</v>
+        <v>0.663849</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.560355</v>
+        <v>0.577403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.563939</v>
+        <v>0.563725</v>
       </c>
       <c r="D11" t="n">
-        <v>0.60565</v>
+        <v>0.637528</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.530047</v>
+        <v>0.565159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.539919</v>
+        <v>0.54864</v>
       </c>
       <c r="D12" t="n">
-        <v>0.604141</v>
+        <v>0.609558</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.512172</v>
+        <v>0.527798</v>
       </c>
       <c r="C13" t="n">
-        <v>0.520251</v>
+        <v>0.52282</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5746</v>
+        <v>0.590531</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.500741</v>
+        <v>0.513211</v>
       </c>
       <c r="C14" t="n">
-        <v>0.513815</v>
+        <v>0.510445</v>
       </c>
       <c r="D14" t="n">
-        <v>0.548005</v>
+        <v>0.574059</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.485</v>
+        <v>0.505278</v>
       </c>
       <c r="C15" t="n">
-        <v>0.498223</v>
+        <v>0.486388</v>
       </c>
       <c r="D15" t="n">
-        <v>0.543126</v>
+        <v>0.552641</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.469088</v>
+        <v>0.479402</v>
       </c>
       <c r="C16" t="n">
-        <v>0.488072</v>
+        <v>0.469014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.525956</v>
+        <v>0.535512</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471923</v>
+        <v>0.474897</v>
       </c>
       <c r="C17" t="n">
-        <v>0.473596</v>
+        <v>0.45253</v>
       </c>
       <c r="D17" t="n">
-        <v>0.510348</v>
+        <v>0.5334989999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.444743</v>
+        <v>0.455543</v>
       </c>
       <c r="C18" t="n">
-        <v>0.460283</v>
+        <v>0.45351</v>
       </c>
       <c r="D18" t="n">
-        <v>0.498194</v>
+        <v>0.498008</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.441563</v>
+        <v>0.437416</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4482</v>
+        <v>0.437023</v>
       </c>
       <c r="D19" t="n">
-        <v>0.492397</v>
+        <v>0.50134</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438677</v>
+        <v>0.434893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.436298</v>
+        <v>0.423602</v>
       </c>
       <c r="D20" t="n">
-        <v>0.476987</v>
+        <v>0.472613</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.431713</v>
+        <v>0.42094</v>
       </c>
       <c r="C21" t="n">
-        <v>0.427455</v>
+        <v>0.409407</v>
       </c>
       <c r="D21" t="n">
-        <v>0.473756</v>
+        <v>0.468756</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.414894</v>
+        <v>0.417176</v>
       </c>
       <c r="C22" t="n">
-        <v>0.428069</v>
+        <v>0.400957</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460088</v>
+        <v>0.451593</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.411623</v>
+        <v>0.413076</v>
       </c>
       <c r="C23" t="n">
-        <v>0.412049</v>
+        <v>0.395982</v>
       </c>
       <c r="D23" t="n">
-        <v>0.605898</v>
+        <v>0.609298</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.669383</v>
+        <v>0.687986</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6834440000000001</v>
+        <v>0.658451</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5783740000000001</v>
+        <v>0.581825</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.668698</v>
+        <v>0.634887</v>
       </c>
       <c r="C25" t="n">
-        <v>0.660901</v>
+        <v>0.656705</v>
       </c>
       <c r="D25" t="n">
-        <v>0.558307</v>
+        <v>0.565252</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.634277</v>
+        <v>0.635451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.65043</v>
+        <v>0.631409</v>
       </c>
       <c r="D26" t="n">
-        <v>0.54855</v>
+        <v>0.562707</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.60748</v>
+        <v>0.62335</v>
       </c>
       <c r="C27" t="n">
-        <v>0.628676</v>
+        <v>0.607311</v>
       </c>
       <c r="D27" t="n">
-        <v>0.525671</v>
+        <v>0.526125</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.606287</v>
+        <v>0.599337</v>
       </c>
       <c r="C28" t="n">
-        <v>0.617058</v>
+        <v>0.592052</v>
       </c>
       <c r="D28" t="n">
-        <v>0.51258</v>
+        <v>0.519543</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.572468</v>
+        <v>0.571379</v>
       </c>
       <c r="C29" t="n">
-        <v>0.595658</v>
+        <v>0.569042</v>
       </c>
       <c r="D29" t="n">
-        <v>0.50845</v>
+        <v>0.503846</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.559947</v>
+        <v>0.5591699999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.575846</v>
+        <v>0.550248</v>
       </c>
       <c r="D30" t="n">
-        <v>0.488171</v>
+        <v>0.494762</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.555473</v>
+        <v>0.542334</v>
       </c>
       <c r="C31" t="n">
-        <v>0.56129</v>
+        <v>0.53992</v>
       </c>
       <c r="D31" t="n">
-        <v>0.474333</v>
+        <v>0.469767</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.532072</v>
+        <v>0.5361629999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.541119</v>
+        <v>0.524468</v>
       </c>
       <c r="D32" t="n">
-        <v>0.465245</v>
+        <v>0.461313</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.520564</v>
+        <v>0.503417</v>
       </c>
       <c r="C33" t="n">
-        <v>0.523676</v>
+        <v>0.49374</v>
       </c>
       <c r="D33" t="n">
-        <v>0.450135</v>
+        <v>0.444159</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.503943</v>
+        <v>0.5040519999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.500749</v>
+        <v>0.490093</v>
       </c>
       <c r="D34" t="n">
-        <v>0.443716</v>
+        <v>0.440487</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.497758</v>
+        <v>0.490898</v>
       </c>
       <c r="C35" t="n">
-        <v>0.492487</v>
+        <v>0.482526</v>
       </c>
       <c r="D35" t="n">
-        <v>0.435756</v>
+        <v>0.436562</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.483738</v>
+        <v>0.480331</v>
       </c>
       <c r="C36" t="n">
-        <v>0.482754</v>
+        <v>0.474809</v>
       </c>
       <c r="D36" t="n">
-        <v>0.422948</v>
+        <v>0.423319</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.473144</v>
+        <v>0.471421</v>
       </c>
       <c r="C37" t="n">
-        <v>0.472439</v>
+        <v>0.46536</v>
       </c>
       <c r="D37" t="n">
-        <v>0.707811</v>
+        <v>0.717502</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.720946</v>
+        <v>0.7206</v>
       </c>
       <c r="C38" t="n">
-        <v>0.745074</v>
+        <v>0.742713</v>
       </c>
       <c r="D38" t="n">
-        <v>0.688913</v>
+        <v>0.6758459999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.724886</v>
+        <v>0.719052</v>
       </c>
       <c r="C39" t="n">
-        <v>0.736657</v>
+        <v>0.700994</v>
       </c>
       <c r="D39" t="n">
-        <v>0.661294</v>
+        <v>0.663353</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.681666</v>
+        <v>0.676434</v>
       </c>
       <c r="C40" t="n">
-        <v>0.70279</v>
+        <v>0.698952</v>
       </c>
       <c r="D40" t="n">
-        <v>0.654443</v>
+        <v>0.65272</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.672808</v>
+        <v>0.669829</v>
       </c>
       <c r="C41" t="n">
-        <v>0.683967</v>
+        <v>0.671634</v>
       </c>
       <c r="D41" t="n">
-        <v>0.629706</v>
+        <v>0.626135</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.658047</v>
+        <v>0.674331</v>
       </c>
       <c r="C42" t="n">
-        <v>0.674427</v>
+        <v>0.647001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.602609</v>
+        <v>0.600373</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.625323</v>
+        <v>0.638232</v>
       </c>
       <c r="C43" t="n">
-        <v>0.635111</v>
+        <v>0.634282</v>
       </c>
       <c r="D43" t="n">
-        <v>0.601855</v>
+        <v>0.581875</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.601966</v>
+        <v>0.604039</v>
       </c>
       <c r="C44" t="n">
-        <v>0.62271</v>
+        <v>0.601594</v>
       </c>
       <c r="D44" t="n">
-        <v>0.569859</v>
+        <v>0.574272</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.591799</v>
+        <v>0.587772</v>
       </c>
       <c r="C45" t="n">
-        <v>0.598262</v>
+        <v>0.591177</v>
       </c>
       <c r="D45" t="n">
-        <v>0.553517</v>
+        <v>0.557531</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5896980000000001</v>
+        <v>0.573954</v>
       </c>
       <c r="C46" t="n">
-        <v>0.576562</v>
+        <v>0.5672700000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.53229</v>
+        <v>0.5375490000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.563619</v>
+        <v>0.562239</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5881729999999999</v>
+        <v>0.563395</v>
       </c>
       <c r="D47" t="n">
-        <v>0.53391</v>
+        <v>0.531978</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.574514</v>
+        <v>0.5450120000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.576954</v>
+        <v>0.549891</v>
       </c>
       <c r="D48" t="n">
-        <v>0.516742</v>
+        <v>0.506072</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.527809</v>
+        <v>0.536872</v>
       </c>
       <c r="C49" t="n">
-        <v>0.53624</v>
+        <v>0.522649</v>
       </c>
       <c r="D49" t="n">
-        <v>0.499372</v>
+        <v>0.495733</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.528107</v>
+        <v>0.539151</v>
       </c>
       <c r="C50" t="n">
-        <v>0.520763</v>
+        <v>0.515558</v>
       </c>
       <c r="D50" t="n">
-        <v>0.495815</v>
+        <v>0.488149</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509595</v>
+        <v>0.507094</v>
       </c>
       <c r="C51" t="n">
-        <v>0.51922</v>
+        <v>0.4936</v>
       </c>
       <c r="D51" t="n">
-        <v>0.780321</v>
+        <v>0.78637</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.503541</v>
+        <v>0.5034110000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.51447</v>
+        <v>0.489212</v>
       </c>
       <c r="D52" t="n">
-        <v>0.763232</v>
+        <v>0.7738080000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.752621</v>
+        <v>0.777213</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7826109999999999</v>
+        <v>0.789969</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7410409999999999</v>
+        <v>0.74759</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.755901</v>
+        <v>0.736378</v>
       </c>
       <c r="C54" t="n">
-        <v>0.758057</v>
+        <v>0.726542</v>
       </c>
       <c r="D54" t="n">
-        <v>0.724612</v>
+        <v>0.695002</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.721</v>
+        <v>0.7009919999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.740669</v>
+        <v>0.731248</v>
       </c>
       <c r="D55" t="n">
-        <v>0.703138</v>
+        <v>0.691397</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.707463</v>
+        <v>0.683731</v>
       </c>
       <c r="C56" t="n">
-        <v>0.737825</v>
+        <v>0.690476</v>
       </c>
       <c r="D56" t="n">
-        <v>0.693909</v>
+        <v>0.664307</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.696074</v>
+        <v>0.685258</v>
       </c>
       <c r="C57" t="n">
-        <v>0.70067</v>
+        <v>0.662013</v>
       </c>
       <c r="D57" t="n">
-        <v>0.671037</v>
+        <v>0.6408430000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.689156</v>
+        <v>0.647806</v>
       </c>
       <c r="C58" t="n">
-        <v>0.676297</v>
+        <v>0.6472830000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.647688</v>
+        <v>0.623359</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.66366</v>
+        <v>0.633896</v>
       </c>
       <c r="C59" t="n">
-        <v>0.669142</v>
+        <v>0.648999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.647316</v>
+        <v>0.627611</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.654736</v>
+        <v>0.628682</v>
       </c>
       <c r="C60" t="n">
-        <v>0.649983</v>
+        <v>0.640306</v>
       </c>
       <c r="D60" t="n">
-        <v>0.621194</v>
+        <v>0.615475</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.635493</v>
+        <v>0.622186</v>
       </c>
       <c r="C61" t="n">
-        <v>0.639844</v>
+        <v>0.619744</v>
       </c>
       <c r="D61" t="n">
-        <v>0.61498</v>
+        <v>0.6037670000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.633874</v>
+        <v>0.621727</v>
       </c>
       <c r="C62" t="n">
-        <v>0.635024</v>
+        <v>0.625517</v>
       </c>
       <c r="D62" t="n">
-        <v>0.597142</v>
+        <v>0.591257</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.604328</v>
+        <v>0.6017749999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.604418</v>
+        <v>0.5867329999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.599102</v>
+        <v>0.587762</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.589401</v>
+        <v>0.5833429999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.595168</v>
+        <v>0.5764550000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.573655</v>
+        <v>0.582877</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.580483</v>
+        <v>0.5704129999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.591805</v>
+        <v>0.57821</v>
       </c>
       <c r="D65" t="n">
-        <v>0.583044</v>
+        <v>0.55894</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.580798</v>
+        <v>0.574159</v>
       </c>
       <c r="C66" t="n">
-        <v>0.593435</v>
+        <v>0.570013</v>
       </c>
       <c r="D66" t="n">
-        <v>0.897695</v>
+        <v>0.898768</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.86447</v>
+        <v>0.863341</v>
       </c>
       <c r="C67" t="n">
-        <v>0.89145</v>
+        <v>0.88485</v>
       </c>
       <c r="D67" t="n">
-        <v>0.856837</v>
+        <v>0.8424</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.837097</v>
+        <v>0.84265</v>
       </c>
       <c r="C68" t="n">
-        <v>0.864136</v>
+        <v>0.855235</v>
       </c>
       <c r="D68" t="n">
-        <v>0.833244</v>
+        <v>0.849149</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.82743</v>
+        <v>0.825557</v>
       </c>
       <c r="C69" t="n">
-        <v>0.841266</v>
+        <v>0.82806</v>
       </c>
       <c r="D69" t="n">
-        <v>0.816931</v>
+        <v>0.789996</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.806297</v>
+        <v>0.801497</v>
       </c>
       <c r="C70" t="n">
-        <v>0.820006</v>
+        <v>0.796926</v>
       </c>
       <c r="D70" t="n">
-        <v>0.813778</v>
+        <v>0.773209</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.785818</v>
+        <v>0.797774</v>
       </c>
       <c r="C71" t="n">
-        <v>0.794002</v>
+        <v>0.785926</v>
       </c>
       <c r="D71" t="n">
-        <v>0.774345</v>
+        <v>0.775783</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.775995</v>
+        <v>0.792812</v>
       </c>
       <c r="C72" t="n">
-        <v>0.77447</v>
+        <v>0.772804</v>
       </c>
       <c r="D72" t="n">
-        <v>0.757706</v>
+        <v>0.753748</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.760931</v>
+        <v>0.757368</v>
       </c>
       <c r="C73" t="n">
-        <v>0.762634</v>
+        <v>0.735062</v>
       </c>
       <c r="D73" t="n">
-        <v>0.735694</v>
+        <v>0.727763</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.745441</v>
+        <v>0.743084</v>
       </c>
       <c r="C74" t="n">
-        <v>0.735061</v>
+        <v>0.731037</v>
       </c>
       <c r="D74" t="n">
-        <v>0.740677</v>
+        <v>0.717916</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.715303</v>
+        <v>0.726804</v>
       </c>
       <c r="C75" t="n">
-        <v>0.716015</v>
+        <v>0.724577</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703857</v>
+        <v>0.69556</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7279</v>
+        <v>0.709855</v>
       </c>
       <c r="C76" t="n">
-        <v>0.714191</v>
+        <v>0.691932</v>
       </c>
       <c r="D76" t="n">
-        <v>0.699528</v>
+        <v>0.675396</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.697691</v>
+        <v>0.697024</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6801970000000001</v>
+        <v>0.686551</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6750699999999999</v>
+        <v>0.671813</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.700596</v>
+        <v>0.677125</v>
       </c>
       <c r="C78" t="n">
-        <v>0.685842</v>
+        <v>0.66088</v>
       </c>
       <c r="D78" t="n">
-        <v>0.673682</v>
+        <v>0.661197</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.677535</v>
+        <v>0.68045</v>
       </c>
       <c r="C79" t="n">
-        <v>0.660498</v>
+        <v>0.65551</v>
       </c>
       <c r="D79" t="n">
-        <v>0.674663</v>
+        <v>0.643586</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.662525</v>
+        <v>0.659931</v>
       </c>
       <c r="C80" t="n">
-        <v>0.657249</v>
+        <v>0.64963</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03603</v>
+        <v>0.977782</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9748</v>
+        <v>0.972971</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01948</v>
+        <v>0.979062</v>
       </c>
       <c r="D81" t="n">
-        <v>0.985646</v>
+        <v>0.971238</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.00104</v>
+        <v>0.9570380000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.964042</v>
+        <v>0.975318</v>
       </c>
       <c r="D82" t="n">
-        <v>0.977143</v>
+        <v>0.9344170000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.939904</v>
+        <v>0.929018</v>
       </c>
       <c r="C83" t="n">
-        <v>0.953744</v>
+        <v>0.941775</v>
       </c>
       <c r="D83" t="n">
-        <v>0.962898</v>
+        <v>0.9084179999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9252939999999999</v>
+        <v>0.918758</v>
       </c>
       <c r="C84" t="n">
-        <v>0.934345</v>
+        <v>0.908907</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9199929999999999</v>
+        <v>0.883729</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908954</v>
+        <v>0.897676</v>
       </c>
       <c r="C85" t="n">
-        <v>0.914498</v>
+        <v>0.900837</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9295600000000001</v>
+        <v>0.871843</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8806310000000001</v>
+        <v>0.881188</v>
       </c>
       <c r="C86" t="n">
-        <v>0.88708</v>
+        <v>0.854424</v>
       </c>
       <c r="D86" t="n">
-        <v>0.885206</v>
+        <v>0.8479139999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.878558</v>
+        <v>0.866827</v>
       </c>
       <c r="C87" t="n">
-        <v>0.870576</v>
+        <v>0.858203</v>
       </c>
       <c r="D87" t="n">
-        <v>0.872745</v>
+        <v>0.83729</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.866458</v>
+        <v>0.842182</v>
       </c>
       <c r="C88" t="n">
-        <v>0.844226</v>
+        <v>0.841574</v>
       </c>
       <c r="D88" t="n">
-        <v>0.850919</v>
+        <v>0.828507</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8408600000000001</v>
+        <v>0.843052</v>
       </c>
       <c r="C89" t="n">
-        <v>0.844324</v>
+        <v>0.825522</v>
       </c>
       <c r="D89" t="n">
-        <v>0.828624</v>
+        <v>0.801594</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.826319</v>
+        <v>0.821299</v>
       </c>
       <c r="C90" t="n">
-        <v>0.818003</v>
+        <v>0.796926</v>
       </c>
       <c r="D90" t="n">
-        <v>0.816367</v>
+        <v>0.790958</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.813943</v>
+        <v>0.792631</v>
       </c>
       <c r="C91" t="n">
-        <v>0.810233</v>
+        <v>0.788563</v>
       </c>
       <c r="D91" t="n">
-        <v>0.812506</v>
+        <v>0.7756110000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.796636</v>
+        <v>0.782267</v>
       </c>
       <c r="C92" t="n">
-        <v>0.785641</v>
+        <v>0.781994</v>
       </c>
       <c r="D92" t="n">
-        <v>0.777388</v>
+        <v>0.749695</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.777079</v>
+        <v>0.772822</v>
       </c>
       <c r="C93" t="n">
-        <v>0.785365</v>
+        <v>0.7632370000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.782146</v>
+        <v>0.765346</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.770335</v>
+        <v>0.77862</v>
       </c>
       <c r="C94" t="n">
-        <v>0.790584</v>
+        <v>0.762622</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11513</v>
+        <v>1.0942</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07568</v>
+        <v>1.09042</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09345</v>
+        <v>1.07038</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09566</v>
+        <v>1.05258</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06735</v>
+        <v>1.06522</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07838</v>
+        <v>1.07926</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05505</v>
+        <v>1.04252</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04738</v>
+        <v>1.05251</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0585</v>
+        <v>1.06253</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04369</v>
+        <v>1.03518</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03638</v>
+        <v>1.03581</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02727</v>
+        <v>1.0374</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02632</v>
+        <v>0.991525</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.995705</v>
+        <v>1.0007</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00869</v>
+        <v>1.00274</v>
       </c>
       <c r="D99" t="n">
-        <v>1.02038</v>
+        <v>0.957669</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01434</v>
+        <v>1.00105</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00399</v>
+        <v>0.986867</v>
       </c>
       <c r="D100" t="n">
-        <v>0.98946</v>
+        <v>0.9302859999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.990289</v>
+        <v>0.972047</v>
       </c>
       <c r="C101" t="n">
-        <v>0.979352</v>
+        <v>0.980226</v>
       </c>
       <c r="D101" t="n">
-        <v>0.953404</v>
+        <v>0.956313</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.956439</v>
+        <v>0.981159</v>
       </c>
       <c r="C102" t="n">
-        <v>0.968847</v>
+        <v>0.967523</v>
       </c>
       <c r="D102" t="n">
-        <v>0.973841</v>
+        <v>0.942692</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.956516</v>
+        <v>0.9356950000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.95423</v>
+        <v>0.95087</v>
       </c>
       <c r="D103" t="n">
-        <v>0.926272</v>
+        <v>0.904731</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.960001</v>
+        <v>0.936709</v>
       </c>
       <c r="C104" t="n">
-        <v>0.944306</v>
+        <v>0.964194</v>
       </c>
       <c r="D104" t="n">
-        <v>0.916367</v>
+        <v>0.892035</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.937719</v>
+        <v>0.915175</v>
       </c>
       <c r="C105" t="n">
-        <v>0.931633</v>
+        <v>0.912203</v>
       </c>
       <c r="D105" t="n">
-        <v>0.927231</v>
+        <v>0.876664</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.915284</v>
+        <v>0.924909</v>
       </c>
       <c r="C106" t="n">
-        <v>0.915511</v>
+        <v>0.908218</v>
       </c>
       <c r="D106" t="n">
-        <v>0.923662</v>
+        <v>0.867076</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9144370000000001</v>
+        <v>0.914585</v>
       </c>
       <c r="C107" t="n">
-        <v>0.905462</v>
+        <v>0.91354</v>
       </c>
       <c r="D107" t="n">
-        <v>0.896887</v>
+        <v>0.859749</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.910901</v>
+        <v>0.892386</v>
       </c>
       <c r="C108" t="n">
-        <v>0.89316</v>
+        <v>0.895279</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23587</v>
+        <v>1.22436</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.930633</v>
+        <v>0.904829</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18188</v>
+        <v>0.893435</v>
       </c>
       <c r="D109" t="n">
-        <v>1.60342</v>
+        <v>1.17624</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.30279</v>
+        <v>1.18925</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30036</v>
+        <v>1.19874</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27329</v>
+        <v>1.16242</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.3221</v>
+        <v>1.18281</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21108</v>
+        <v>1.20486</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19435</v>
+        <v>1.13662</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.19142</v>
+        <v>1.17774</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20925</v>
+        <v>1.14736</v>
       </c>
       <c r="D112" t="n">
-        <v>1.1588</v>
+        <v>1.1098</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16844</v>
+        <v>1.15983</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19454</v>
+        <v>1.14839</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17672</v>
+        <v>1.11053</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15984</v>
+        <v>1.17137</v>
       </c>
       <c r="C114" t="n">
-        <v>1.15671</v>
+        <v>1.12865</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13885</v>
+        <v>1.08492</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15203</v>
+        <v>1.16895</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14611</v>
+        <v>1.14552</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11548</v>
+        <v>1.08578</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17411</v>
+        <v>1.13976</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14985</v>
+        <v>1.13784</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11544</v>
+        <v>1.08754</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.152</v>
+        <v>1.12974</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12383</v>
+        <v>1.1166</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10798</v>
+        <v>1.05232</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13833</v>
+        <v>1.13534</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11328</v>
+        <v>1.11488</v>
       </c>
       <c r="D118" t="n">
-        <v>1.08643</v>
+        <v>1.04247</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1214</v>
+        <v>1.14769</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12146</v>
+        <v>1.11472</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08737</v>
+        <v>1.03501</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12208</v>
+        <v>1.10877</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09409</v>
+        <v>1.09738</v>
       </c>
       <c r="D120" t="n">
-        <v>1.07556</v>
+        <v>1.03145</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10879</v>
+        <v>1.09859</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10049</v>
+        <v>1.09363</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07521</v>
+        <v>1.03695</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12972</v>
+        <v>1.12375</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09421</v>
+        <v>1.07613</v>
       </c>
       <c r="D122" t="n">
-        <v>1.08593</v>
+        <v>1.02915</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09108</v>
+        <v>1.10177</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08384</v>
+        <v>1.09839</v>
       </c>
       <c r="D123" t="n">
-        <v>1.41042</v>
+        <v>1.37416</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.43434</v>
+        <v>1.41865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42973</v>
+        <v>1.39922</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37871</v>
+        <v>1.33804</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.41808</v>
+        <v>1.42956</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40964</v>
+        <v>1.41495</v>
       </c>
       <c r="D125" t="n">
-        <v>1.38948</v>
+        <v>1.32591</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.44562</v>
+        <v>1.43405</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41235</v>
+        <v>1.40766</v>
       </c>
       <c r="D126" t="n">
-        <v>1.36848</v>
+        <v>1.35373</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.4226</v>
+        <v>1.4343</v>
       </c>
       <c r="C127" t="n">
-        <v>1.3833</v>
+        <v>1.37196</v>
       </c>
       <c r="D127" t="n">
-        <v>1.34757</v>
+        <v>1.34858</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.41637</v>
+        <v>1.4345</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38841</v>
+        <v>1.41619</v>
       </c>
       <c r="D128" t="n">
-        <v>1.32878</v>
+        <v>1.34985</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.42279</v>
+        <v>1.43227</v>
       </c>
       <c r="C129" t="n">
-        <v>1.39169</v>
+        <v>1.39497</v>
       </c>
       <c r="D129" t="n">
-        <v>1.37017</v>
+        <v>1.33488</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.41971</v>
+        <v>1.42623</v>
       </c>
       <c r="C130" t="n">
-        <v>1.38598</v>
+        <v>1.37097</v>
       </c>
       <c r="D130" t="n">
-        <v>1.35453</v>
+        <v>1.33049</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.41553</v>
+        <v>1.40535</v>
       </c>
       <c r="C131" t="n">
-        <v>1.3626</v>
+        <v>1.36771</v>
       </c>
       <c r="D131" t="n">
-        <v>1.34108</v>
+        <v>1.30727</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40798</v>
+        <v>1.37773</v>
       </c>
       <c r="C132" t="n">
-        <v>1.36071</v>
+        <v>1.35336</v>
       </c>
       <c r="D132" t="n">
-        <v>1.34645</v>
+        <v>1.31122</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39902</v>
+        <v>1.40247</v>
       </c>
       <c r="C133" t="n">
-        <v>1.36934</v>
+        <v>1.34914</v>
       </c>
       <c r="D133" t="n">
-        <v>1.34183</v>
+        <v>1.3022</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.4211</v>
+        <v>1.40371</v>
       </c>
       <c r="C134" t="n">
-        <v>1.36054</v>
+        <v>1.35664</v>
       </c>
       <c r="D134" t="n">
-        <v>1.33308</v>
+        <v>1.30261</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.4051</v>
+        <v>1.40302</v>
       </c>
       <c r="C135" t="n">
-        <v>1.35147</v>
+        <v>1.34194</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34174</v>
+        <v>1.31353</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.40635</v>
+        <v>1.39882</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35508</v>
+        <v>1.34329</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34747</v>
+        <v>1.3338</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41688</v>
+        <v>1.40629</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35768</v>
+        <v>1.37239</v>
       </c>
       <c r="D137" t="n">
-        <v>1.67883</v>
+        <v>1.68167</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.75575</v>
+        <v>1.73217</v>
       </c>
       <c r="C138" t="n">
-        <v>1.70227</v>
+        <v>1.7026</v>
       </c>
       <c r="D138" t="n">
-        <v>1.66725</v>
+        <v>1.61294</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74969</v>
+        <v>1.74706</v>
       </c>
       <c r="C139" t="n">
-        <v>1.70765</v>
+        <v>1.68923</v>
       </c>
       <c r="D139" t="n">
-        <v>1.67263</v>
+        <v>1.64192</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.72888</v>
+        <v>1.7192</v>
       </c>
       <c r="C140" t="n">
-        <v>1.67282</v>
+        <v>1.68101</v>
       </c>
       <c r="D140" t="n">
-        <v>1.6645</v>
+        <v>1.61265</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.70543</v>
+        <v>1.72299</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67987</v>
+        <v>1.66633</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64341</v>
+        <v>1.61576</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72054</v>
+        <v>1.72898</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66042</v>
+        <v>1.65999</v>
       </c>
       <c r="D142" t="n">
-        <v>1.62484</v>
+        <v>1.60603</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70772</v>
+        <v>1.70524</v>
       </c>
       <c r="C143" t="n">
-        <v>1.64769</v>
+        <v>1.65216</v>
       </c>
       <c r="D143" t="n">
-        <v>1.63432</v>
+        <v>1.60107</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.63493</v>
+        <v>0.662761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.527987</v>
+        <v>0.563781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.368127</v>
+        <v>0.368568</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.369445</v>
+        <v>0.348313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.344956</v>
+        <v>0.335446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.354651</v>
+        <v>0.348304</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.346917</v>
+        <v>0.353444</v>
       </c>
       <c r="C4" t="n">
-        <v>0.342987</v>
+        <v>0.332602</v>
       </c>
       <c r="D4" t="n">
-        <v>0.347952</v>
+        <v>0.350996</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.340492</v>
+        <v>0.34161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.326407</v>
+        <v>0.318159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.336145</v>
+        <v>0.337029</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.340192</v>
+        <v>0.347086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.324976</v>
+        <v>0.319327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.332684</v>
+        <v>0.332422</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.324883</v>
+        <v>0.329869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.316595</v>
+        <v>0.313348</v>
       </c>
       <c r="D7" t="n">
-        <v>0.325587</v>
+        <v>0.324908</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.325756</v>
+        <v>0.316731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.309744</v>
+        <v>0.307</v>
       </c>
       <c r="D8" t="n">
-        <v>0.335928</v>
+        <v>0.329182</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.32915</v>
+        <v>0.328693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.319836</v>
+        <v>0.315974</v>
       </c>
       <c r="D9" t="n">
-        <v>0.681276</v>
+        <v>0.685952</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.600849</v>
+        <v>0.592319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.579264</v>
+        <v>0.5909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.663849</v>
+        <v>0.674878</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.577403</v>
+        <v>0.5884470000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.563725</v>
+        <v>0.55449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.637528</v>
+        <v>0.64184</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.565159</v>
+        <v>0.537303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.54864</v>
+        <v>0.5437959999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.609558</v>
+        <v>0.604603</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.527798</v>
+        <v>0.538506</v>
       </c>
       <c r="C13" t="n">
-        <v>0.52282</v>
+        <v>0.521158</v>
       </c>
       <c r="D13" t="n">
-        <v>0.590531</v>
+        <v>0.58482</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.513211</v>
+        <v>0.511686</v>
       </c>
       <c r="C14" t="n">
-        <v>0.510445</v>
+        <v>0.510347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.574059</v>
+        <v>0.578948</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.505278</v>
+        <v>0.499447</v>
       </c>
       <c r="C15" t="n">
-        <v>0.486388</v>
+        <v>0.494379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.552641</v>
+        <v>0.565923</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479402</v>
+        <v>0.49208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.469014</v>
+        <v>0.473983</v>
       </c>
       <c r="D16" t="n">
-        <v>0.535512</v>
+        <v>0.537013</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.474897</v>
+        <v>0.471368</v>
       </c>
       <c r="C17" t="n">
-        <v>0.45253</v>
+        <v>0.45414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5334989999999999</v>
+        <v>0.512402</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.455543</v>
+        <v>0.456275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.45351</v>
+        <v>0.438811</v>
       </c>
       <c r="D18" t="n">
-        <v>0.498008</v>
+        <v>0.511941</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.437416</v>
+        <v>0.440266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.437023</v>
+        <v>0.433357</v>
       </c>
       <c r="D19" t="n">
-        <v>0.50134</v>
+        <v>0.486314</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.434893</v>
+        <v>0.433222</v>
       </c>
       <c r="C20" t="n">
-        <v>0.423602</v>
+        <v>0.433831</v>
       </c>
       <c r="D20" t="n">
-        <v>0.472613</v>
+        <v>0.483108</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42094</v>
+        <v>0.425687</v>
       </c>
       <c r="C21" t="n">
-        <v>0.409407</v>
+        <v>0.410008</v>
       </c>
       <c r="D21" t="n">
-        <v>0.468756</v>
+        <v>0.465736</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.417176</v>
+        <v>0.42083</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400957</v>
+        <v>0.40914</v>
       </c>
       <c r="D22" t="n">
-        <v>0.451593</v>
+        <v>0.459237</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.413076</v>
+        <v>0.408258</v>
       </c>
       <c r="C23" t="n">
-        <v>0.395982</v>
+        <v>0.390362</v>
       </c>
       <c r="D23" t="n">
-        <v>0.609298</v>
+        <v>0.605472</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.687986</v>
+        <v>0.666425</v>
       </c>
       <c r="C24" t="n">
-        <v>0.658451</v>
+        <v>0.66552</v>
       </c>
       <c r="D24" t="n">
-        <v>0.581825</v>
+        <v>0.577686</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.634887</v>
+        <v>0.674258</v>
       </c>
       <c r="C25" t="n">
-        <v>0.656705</v>
+        <v>0.663949</v>
       </c>
       <c r="D25" t="n">
-        <v>0.565252</v>
+        <v>0.563419</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.635451</v>
+        <v>0.640836</v>
       </c>
       <c r="C26" t="n">
-        <v>0.631409</v>
+        <v>0.631792</v>
       </c>
       <c r="D26" t="n">
-        <v>0.562707</v>
+        <v>0.544847</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.62335</v>
+        <v>0.624287</v>
       </c>
       <c r="C27" t="n">
-        <v>0.607311</v>
+        <v>0.6149790000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.526125</v>
+        <v>0.53072</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.599337</v>
+        <v>0.607718</v>
       </c>
       <c r="C28" t="n">
-        <v>0.592052</v>
+        <v>0.583298</v>
       </c>
       <c r="D28" t="n">
-        <v>0.519543</v>
+        <v>0.520947</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.571379</v>
+        <v>0.582169</v>
       </c>
       <c r="C29" t="n">
-        <v>0.569042</v>
+        <v>0.5738760000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.503846</v>
+        <v>0.499345</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5591699999999999</v>
+        <v>0.574241</v>
       </c>
       <c r="C30" t="n">
-        <v>0.550248</v>
+        <v>0.546825</v>
       </c>
       <c r="D30" t="n">
-        <v>0.494762</v>
+        <v>0.484871</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.542334</v>
+        <v>0.5476529999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.53992</v>
+        <v>0.552447</v>
       </c>
       <c r="D31" t="n">
-        <v>0.469767</v>
+        <v>0.474187</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5361629999999999</v>
+        <v>0.523138</v>
       </c>
       <c r="C32" t="n">
-        <v>0.524468</v>
+        <v>0.524274</v>
       </c>
       <c r="D32" t="n">
-        <v>0.461313</v>
+        <v>0.468908</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.503417</v>
+        <v>0.5084419999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.49374</v>
+        <v>0.503332</v>
       </c>
       <c r="D33" t="n">
-        <v>0.444159</v>
+        <v>0.448134</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5040519999999999</v>
+        <v>0.498386</v>
       </c>
       <c r="C34" t="n">
-        <v>0.490093</v>
+        <v>0.493343</v>
       </c>
       <c r="D34" t="n">
-        <v>0.440487</v>
+        <v>0.441058</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.490898</v>
+        <v>0.49602</v>
       </c>
       <c r="C35" t="n">
-        <v>0.482526</v>
+        <v>0.491683</v>
       </c>
       <c r="D35" t="n">
-        <v>0.436562</v>
+        <v>0.436262</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.480331</v>
+        <v>0.478545</v>
       </c>
       <c r="C36" t="n">
-        <v>0.474809</v>
+        <v>0.475658</v>
       </c>
       <c r="D36" t="n">
-        <v>0.423319</v>
+        <v>0.42902</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.471421</v>
+        <v>0.460012</v>
       </c>
       <c r="C37" t="n">
-        <v>0.46536</v>
+        <v>0.463301</v>
       </c>
       <c r="D37" t="n">
-        <v>0.717502</v>
+        <v>0.701063</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7206</v>
+        <v>0.7261069999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.742713</v>
+        <v>0.732515</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6758459999999999</v>
+        <v>0.68168</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.719052</v>
+        <v>0.70267</v>
       </c>
       <c r="C39" t="n">
-        <v>0.700994</v>
+        <v>0.699995</v>
       </c>
       <c r="D39" t="n">
-        <v>0.663353</v>
+        <v>0.662959</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.676434</v>
+        <v>0.684794</v>
       </c>
       <c r="C40" t="n">
-        <v>0.698952</v>
+        <v>0.6988529999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.65272</v>
+        <v>0.635478</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.669829</v>
+        <v>0.652558</v>
       </c>
       <c r="C41" t="n">
-        <v>0.671634</v>
+        <v>0.673629</v>
       </c>
       <c r="D41" t="n">
-        <v>0.626135</v>
+        <v>0.6336580000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.674331</v>
+        <v>0.6453950000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.647001</v>
+        <v>0.644241</v>
       </c>
       <c r="D42" t="n">
-        <v>0.600373</v>
+        <v>0.601808</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.638232</v>
+        <v>0.638389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.634282</v>
+        <v>0.620869</v>
       </c>
       <c r="D43" t="n">
-        <v>0.581875</v>
+        <v>0.590019</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.604039</v>
+        <v>0.620134</v>
       </c>
       <c r="C44" t="n">
-        <v>0.601594</v>
+        <v>0.621286</v>
       </c>
       <c r="D44" t="n">
-        <v>0.574272</v>
+        <v>0.582624</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.587772</v>
+        <v>0.582334</v>
       </c>
       <c r="C45" t="n">
-        <v>0.591177</v>
+        <v>0.595885</v>
       </c>
       <c r="D45" t="n">
-        <v>0.557531</v>
+        <v>0.54262</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573954</v>
+        <v>0.57599</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5672700000000001</v>
+        <v>0.567748</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5375490000000001</v>
+        <v>0.53103</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.562239</v>
+        <v>0.5679</v>
       </c>
       <c r="C47" t="n">
-        <v>0.563395</v>
+        <v>0.56868</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531978</v>
+        <v>0.531287</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5450120000000001</v>
+        <v>0.551641</v>
       </c>
       <c r="C48" t="n">
-        <v>0.549891</v>
+        <v>0.551048</v>
       </c>
       <c r="D48" t="n">
-        <v>0.506072</v>
+        <v>0.513443</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.536872</v>
+        <v>0.551283</v>
       </c>
       <c r="C49" t="n">
-        <v>0.522649</v>
+        <v>0.519973</v>
       </c>
       <c r="D49" t="n">
-        <v>0.495733</v>
+        <v>0.500146</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.539151</v>
+        <v>0.5238930000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.515558</v>
+        <v>0.510119</v>
       </c>
       <c r="D50" t="n">
-        <v>0.488149</v>
+        <v>0.494089</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.507094</v>
+        <v>0.529659</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4936</v>
+        <v>0.511096</v>
       </c>
       <c r="D51" t="n">
-        <v>0.78637</v>
+        <v>0.792327</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5034110000000001</v>
+        <v>0.506618</v>
       </c>
       <c r="C52" t="n">
-        <v>0.489212</v>
+        <v>0.49997</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7738080000000001</v>
+        <v>0.759243</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.777213</v>
+        <v>0.761728</v>
       </c>
       <c r="C53" t="n">
-        <v>0.789969</v>
+        <v>0.756655</v>
       </c>
       <c r="D53" t="n">
-        <v>0.74759</v>
+        <v>0.734469</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.736378</v>
+        <v>0.763137</v>
       </c>
       <c r="C54" t="n">
-        <v>0.726542</v>
+        <v>0.757738</v>
       </c>
       <c r="D54" t="n">
-        <v>0.695002</v>
+        <v>0.710076</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7009919999999999</v>
+        <v>0.733984</v>
       </c>
       <c r="C55" t="n">
-        <v>0.731248</v>
+        <v>0.716743</v>
       </c>
       <c r="D55" t="n">
-        <v>0.691397</v>
+        <v>0.700424</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.683731</v>
+        <v>0.705665</v>
       </c>
       <c r="C56" t="n">
-        <v>0.690476</v>
+        <v>0.694442</v>
       </c>
       <c r="D56" t="n">
-        <v>0.664307</v>
+        <v>0.676298</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.685258</v>
+        <v>0.693161</v>
       </c>
       <c r="C57" t="n">
-        <v>0.662013</v>
+        <v>0.687356</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6408430000000001</v>
+        <v>0.663733</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.647806</v>
+        <v>0.688928</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6472830000000001</v>
+        <v>0.683111</v>
       </c>
       <c r="D58" t="n">
-        <v>0.623359</v>
+        <v>0.663498</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.633896</v>
+        <v>0.6775330000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.648999</v>
+        <v>0.65149</v>
       </c>
       <c r="D59" t="n">
-        <v>0.627611</v>
+        <v>0.642953</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.628682</v>
+        <v>0.643706</v>
       </c>
       <c r="C60" t="n">
-        <v>0.640306</v>
+        <v>0.6582249999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.615475</v>
+        <v>0.637696</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622186</v>
+        <v>0.644463</v>
       </c>
       <c r="C61" t="n">
-        <v>0.619744</v>
+        <v>0.62519</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6037670000000001</v>
+        <v>0.612641</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.621727</v>
+        <v>0.6373</v>
       </c>
       <c r="C62" t="n">
-        <v>0.625517</v>
+        <v>0.609491</v>
       </c>
       <c r="D62" t="n">
-        <v>0.591257</v>
+        <v>0.606957</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6017749999999999</v>
+        <v>0.61819</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5867329999999999</v>
+        <v>0.597224</v>
       </c>
       <c r="D63" t="n">
-        <v>0.587762</v>
+        <v>0.585002</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5833429999999999</v>
+        <v>0.583193</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5764550000000001</v>
+        <v>0.5827909999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.582877</v>
+        <v>0.570522</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5704129999999999</v>
+        <v>0.571151</v>
       </c>
       <c r="C65" t="n">
-        <v>0.57821</v>
+        <v>0.5665519999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.55894</v>
+        <v>0.563792</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.574159</v>
+        <v>0.575167</v>
       </c>
       <c r="C66" t="n">
-        <v>0.570013</v>
+        <v>0.586566</v>
       </c>
       <c r="D66" t="n">
-        <v>0.898768</v>
+        <v>0.872413</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.863341</v>
+        <v>0.874999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.88485</v>
+        <v>0.8675119999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8424</v>
+        <v>0.859243</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.84265</v>
+        <v>0.833159</v>
       </c>
       <c r="C68" t="n">
-        <v>0.855235</v>
+        <v>0.836645</v>
       </c>
       <c r="D68" t="n">
-        <v>0.849149</v>
+        <v>0.829543</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.825557</v>
+        <v>0.844567</v>
       </c>
       <c r="C69" t="n">
-        <v>0.82806</v>
+        <v>0.8320070000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.789996</v>
+        <v>0.808105</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.801497</v>
+        <v>0.798507</v>
       </c>
       <c r="C70" t="n">
-        <v>0.796926</v>
+        <v>0.803527</v>
       </c>
       <c r="D70" t="n">
-        <v>0.773209</v>
+        <v>0.7950199999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.797774</v>
+        <v>0.775301</v>
       </c>
       <c r="C71" t="n">
-        <v>0.785926</v>
+        <v>0.791004</v>
       </c>
       <c r="D71" t="n">
-        <v>0.775783</v>
+        <v>0.768434</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.792812</v>
+        <v>0.766429</v>
       </c>
       <c r="C72" t="n">
-        <v>0.772804</v>
+        <v>0.757385</v>
       </c>
       <c r="D72" t="n">
-        <v>0.753748</v>
+        <v>0.758547</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.757368</v>
+        <v>0.735748</v>
       </c>
       <c r="C73" t="n">
-        <v>0.735062</v>
+        <v>0.740052</v>
       </c>
       <c r="D73" t="n">
-        <v>0.727763</v>
+        <v>0.725006</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.743084</v>
+        <v>0.7396160000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.731037</v>
+        <v>0.720011</v>
       </c>
       <c r="D74" t="n">
-        <v>0.717916</v>
+        <v>0.704174</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.726804</v>
+        <v>0.714028</v>
       </c>
       <c r="C75" t="n">
-        <v>0.724577</v>
+        <v>0.718545</v>
       </c>
       <c r="D75" t="n">
-        <v>0.69556</v>
+        <v>0.685126</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.709855</v>
+        <v>0.702006</v>
       </c>
       <c r="C76" t="n">
-        <v>0.691932</v>
+        <v>0.696617</v>
       </c>
       <c r="D76" t="n">
-        <v>0.675396</v>
+        <v>0.677766</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.697024</v>
+        <v>0.687326</v>
       </c>
       <c r="C77" t="n">
-        <v>0.686551</v>
+        <v>0.688717</v>
       </c>
       <c r="D77" t="n">
-        <v>0.671813</v>
+        <v>0.680242</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.677125</v>
+        <v>0.690431</v>
       </c>
       <c r="C78" t="n">
-        <v>0.66088</v>
+        <v>0.66569</v>
       </c>
       <c r="D78" t="n">
-        <v>0.661197</v>
+        <v>0.680985</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.68045</v>
+        <v>0.686299</v>
       </c>
       <c r="C79" t="n">
-        <v>0.65551</v>
+        <v>0.6568929999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.643586</v>
+        <v>0.654417</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.659931</v>
+        <v>0.648863</v>
       </c>
       <c r="C80" t="n">
-        <v>0.64963</v>
+        <v>0.650605</v>
       </c>
       <c r="D80" t="n">
-        <v>0.977782</v>
+        <v>0.98586</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.972971</v>
+        <v>0.964239</v>
       </c>
       <c r="C81" t="n">
-        <v>0.979062</v>
+        <v>0.970951</v>
       </c>
       <c r="D81" t="n">
-        <v>0.971238</v>
+        <v>0.953669</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9570380000000001</v>
+        <v>0.943462</v>
       </c>
       <c r="C82" t="n">
-        <v>0.975318</v>
+        <v>0.969217</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9344170000000001</v>
+        <v>0.921096</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.929018</v>
+        <v>0.931741</v>
       </c>
       <c r="C83" t="n">
-        <v>0.941775</v>
+        <v>0.927917</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9084179999999999</v>
+        <v>0.901828</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.918758</v>
+        <v>0.904964</v>
       </c>
       <c r="C84" t="n">
-        <v>0.908907</v>
+        <v>0.928182</v>
       </c>
       <c r="D84" t="n">
-        <v>0.883729</v>
+        <v>0.885307</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.897676</v>
+        <v>0.911876</v>
       </c>
       <c r="C85" t="n">
-        <v>0.900837</v>
+        <v>0.9107460000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.871843</v>
+        <v>0.87008</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.881188</v>
+        <v>0.871801</v>
       </c>
       <c r="C86" t="n">
-        <v>0.854424</v>
+        <v>0.873845</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8479139999999999</v>
+        <v>0.847588</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.866827</v>
+        <v>0.8650139999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.858203</v>
+        <v>0.854367</v>
       </c>
       <c r="D87" t="n">
-        <v>0.83729</v>
+        <v>0.843382</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.842182</v>
+        <v>0.851326</v>
       </c>
       <c r="C88" t="n">
-        <v>0.841574</v>
+        <v>0.825524</v>
       </c>
       <c r="D88" t="n">
-        <v>0.828507</v>
+        <v>0.811765</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.843052</v>
+        <v>0.843279</v>
       </c>
       <c r="C89" t="n">
-        <v>0.825522</v>
+        <v>0.824671</v>
       </c>
       <c r="D89" t="n">
-        <v>0.801594</v>
+        <v>0.796639</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.821299</v>
+        <v>0.799603</v>
       </c>
       <c r="C90" t="n">
-        <v>0.796926</v>
+        <v>0.806086</v>
       </c>
       <c r="D90" t="n">
-        <v>0.790958</v>
+        <v>0.785755</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.792631</v>
+        <v>0.80715</v>
       </c>
       <c r="C91" t="n">
-        <v>0.788563</v>
+        <v>0.796836</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7756110000000001</v>
+        <v>0.763249</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.782267</v>
+        <v>0.790747</v>
       </c>
       <c r="C92" t="n">
-        <v>0.781994</v>
+        <v>0.776303</v>
       </c>
       <c r="D92" t="n">
-        <v>0.749695</v>
+        <v>0.759328</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.772822</v>
+        <v>0.771099</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7632370000000001</v>
+        <v>0.785438</v>
       </c>
       <c r="D93" t="n">
-        <v>0.765346</v>
+        <v>0.757001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.77862</v>
+        <v>0.769983</v>
       </c>
       <c r="C94" t="n">
-        <v>0.762622</v>
+        <v>0.758702</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0942</v>
+        <v>1.09683</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09042</v>
+        <v>1.07979</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07038</v>
+        <v>1.12072</v>
       </c>
       <c r="D95" t="n">
-        <v>1.05258</v>
+        <v>1.06675</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06522</v>
+        <v>1.06578</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07926</v>
+        <v>1.08442</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04252</v>
+        <v>1.04108</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05251</v>
+        <v>1.05698</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06253</v>
+        <v>1.05927</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03518</v>
+        <v>1.00764</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03581</v>
+        <v>1.03911</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0374</v>
+        <v>1.03602</v>
       </c>
       <c r="D98" t="n">
-        <v>0.991525</v>
+        <v>0.993516</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0007</v>
+        <v>1.03292</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00274</v>
+        <v>1.01794</v>
       </c>
       <c r="D99" t="n">
-        <v>0.957669</v>
+        <v>0.999456</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00105</v>
+        <v>1.01372</v>
       </c>
       <c r="C100" t="n">
-        <v>0.986867</v>
+        <v>1.01655</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9302859999999999</v>
+        <v>0.967827</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.972047</v>
+        <v>0.990123</v>
       </c>
       <c r="C101" t="n">
-        <v>0.980226</v>
+        <v>1.00819</v>
       </c>
       <c r="D101" t="n">
-        <v>0.956313</v>
+        <v>0.961153</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.981159</v>
+        <v>0.982579</v>
       </c>
       <c r="C102" t="n">
-        <v>0.967523</v>
+        <v>0.95568</v>
       </c>
       <c r="D102" t="n">
-        <v>0.942692</v>
+        <v>0.928091</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9356950000000001</v>
+        <v>0.946738</v>
       </c>
       <c r="C103" t="n">
-        <v>0.95087</v>
+        <v>0.9428029999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.904731</v>
+        <v>0.909012</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.936709</v>
+        <v>0.940896</v>
       </c>
       <c r="C104" t="n">
-        <v>0.964194</v>
+        <v>0.950852</v>
       </c>
       <c r="D104" t="n">
-        <v>0.892035</v>
+        <v>0.885663</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.915175</v>
+        <v>0.950963</v>
       </c>
       <c r="C105" t="n">
-        <v>0.912203</v>
+        <v>0.918415</v>
       </c>
       <c r="D105" t="n">
-        <v>0.876664</v>
+        <v>0.88549</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.924909</v>
+        <v>0.914696</v>
       </c>
       <c r="C106" t="n">
-        <v>0.908218</v>
+        <v>0.907589</v>
       </c>
       <c r="D106" t="n">
-        <v>0.867076</v>
+        <v>0.868939</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.914585</v>
+        <v>0.922191</v>
       </c>
       <c r="C107" t="n">
-        <v>0.91354</v>
+        <v>0.89873</v>
       </c>
       <c r="D107" t="n">
-        <v>0.859749</v>
+        <v>0.883121</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.892386</v>
+        <v>0.908844</v>
       </c>
       <c r="C108" t="n">
-        <v>0.895279</v>
+        <v>0.905023</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22436</v>
+        <v>1.19168</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.904829</v>
+        <v>0.90274</v>
       </c>
       <c r="C109" t="n">
-        <v>0.893435</v>
+        <v>0.88772</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17624</v>
+        <v>1.18281</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18925</v>
+        <v>1.2135</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19874</v>
+        <v>1.22012</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16242</v>
+        <v>1.14613</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18281</v>
+        <v>1.1848</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20486</v>
+        <v>1.20597</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13662</v>
+        <v>1.16321</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17774</v>
+        <v>1.18035</v>
       </c>
       <c r="C112" t="n">
-        <v>1.14736</v>
+        <v>1.17706</v>
       </c>
       <c r="D112" t="n">
-        <v>1.1098</v>
+        <v>1.14325</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15983</v>
+        <v>1.17789</v>
       </c>
       <c r="C113" t="n">
-        <v>1.14839</v>
+        <v>1.21161</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11053</v>
+        <v>1.11836</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17137</v>
+        <v>1.15412</v>
       </c>
       <c r="C114" t="n">
-        <v>1.12865</v>
+        <v>1.17179</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08492</v>
+        <v>1.09831</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16895</v>
+        <v>1.17931</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14552</v>
+        <v>1.14207</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08578</v>
+        <v>1.07366</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13976</v>
+        <v>1.14619</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13784</v>
+        <v>1.162</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08754</v>
+        <v>1.0914</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12974</v>
+        <v>1.15516</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1166</v>
+        <v>1.12085</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05232</v>
+        <v>1.04765</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13534</v>
+        <v>1.16181</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11488</v>
+        <v>1.14107</v>
       </c>
       <c r="D118" t="n">
-        <v>1.04247</v>
+        <v>1.06913</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14769</v>
+        <v>1.13312</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11472</v>
+        <v>1.11523</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03501</v>
+        <v>1.03804</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10877</v>
+        <v>1.12871</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09738</v>
+        <v>1.11183</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03145</v>
+        <v>1.05305</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09859</v>
+        <v>1.09797</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09363</v>
+        <v>1.08742</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03695</v>
+        <v>1.01226</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12375</v>
+        <v>1.12239</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07613</v>
+        <v>1.08029</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02915</v>
+        <v>1.0281</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10177</v>
+        <v>1.12287</v>
       </c>
       <c r="C123" t="n">
-        <v>1.09839</v>
+        <v>1.09692</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37416</v>
+        <v>1.36421</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.41865</v>
+        <v>1.41871</v>
       </c>
       <c r="C124" t="n">
-        <v>1.39922</v>
+        <v>1.42432</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33804</v>
+        <v>1.39146</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42956</v>
+        <v>1.414</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41495</v>
+        <v>1.40385</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32591</v>
+        <v>1.36781</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.43405</v>
+        <v>1.44368</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40766</v>
+        <v>1.44802</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35373</v>
+        <v>1.32962</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.4343</v>
+        <v>1.41711</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37196</v>
+        <v>1.38821</v>
       </c>
       <c r="D127" t="n">
-        <v>1.34858</v>
+        <v>1.33834</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.4345</v>
+        <v>1.41863</v>
       </c>
       <c r="C128" t="n">
-        <v>1.41619</v>
+        <v>1.38672</v>
       </c>
       <c r="D128" t="n">
-        <v>1.34985</v>
+        <v>1.33417</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.43227</v>
+        <v>1.41537</v>
       </c>
       <c r="C129" t="n">
-        <v>1.39497</v>
+        <v>1.40076</v>
       </c>
       <c r="D129" t="n">
-        <v>1.33488</v>
+        <v>1.33468</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.42623</v>
+        <v>1.40167</v>
       </c>
       <c r="C130" t="n">
-        <v>1.37097</v>
+        <v>1.37861</v>
       </c>
       <c r="D130" t="n">
-        <v>1.33049</v>
+        <v>1.35836</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40535</v>
+        <v>1.39404</v>
       </c>
       <c r="C131" t="n">
-        <v>1.36771</v>
+        <v>1.38321</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30727</v>
+        <v>1.31671</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.37773</v>
+        <v>1.41984</v>
       </c>
       <c r="C132" t="n">
-        <v>1.35336</v>
+        <v>1.35935</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31122</v>
+        <v>1.29939</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40247</v>
+        <v>1.40415</v>
       </c>
       <c r="C133" t="n">
-        <v>1.34914</v>
+        <v>1.34832</v>
       </c>
       <c r="D133" t="n">
-        <v>1.3022</v>
+        <v>1.32012</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40371</v>
+        <v>1.39369</v>
       </c>
       <c r="C134" t="n">
-        <v>1.35664</v>
+        <v>1.35651</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30261</v>
+        <v>1.29045</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40302</v>
+        <v>1.38768</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34194</v>
+        <v>1.34953</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31353</v>
+        <v>1.30906</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39882</v>
+        <v>1.39918</v>
       </c>
       <c r="C136" t="n">
-        <v>1.34329</v>
+        <v>1.36649</v>
       </c>
       <c r="D136" t="n">
-        <v>1.3338</v>
+        <v>1.29977</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40629</v>
+        <v>1.42215</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37239</v>
+        <v>1.35863</v>
       </c>
       <c r="D137" t="n">
-        <v>1.68167</v>
+        <v>1.6579</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73217</v>
+        <v>1.73274</v>
       </c>
       <c r="C138" t="n">
-        <v>1.7026</v>
+        <v>1.70127</v>
       </c>
       <c r="D138" t="n">
-        <v>1.61294</v>
+        <v>1.64204</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74706</v>
+        <v>1.72326</v>
       </c>
       <c r="C139" t="n">
-        <v>1.68923</v>
+        <v>1.68558</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64192</v>
+        <v>1.63967</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.7192</v>
+        <v>1.71766</v>
       </c>
       <c r="C140" t="n">
-        <v>1.68101</v>
+        <v>1.6742</v>
       </c>
       <c r="D140" t="n">
-        <v>1.61265</v>
+        <v>1.62655</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.72299</v>
+        <v>1.7357</v>
       </c>
       <c r="C141" t="n">
-        <v>1.66633</v>
+        <v>1.66217</v>
       </c>
       <c r="D141" t="n">
-        <v>1.61576</v>
+        <v>1.60566</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72898</v>
+        <v>1.71009</v>
       </c>
       <c r="C142" t="n">
-        <v>1.65999</v>
+        <v>1.64573</v>
       </c>
       <c r="D142" t="n">
-        <v>1.60603</v>
+        <v>1.61792</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70524</v>
+        <v>1.69284</v>
       </c>
       <c r="C143" t="n">
-        <v>1.65216</v>
+        <v>1.64463</v>
       </c>
       <c r="D143" t="n">
-        <v>1.60107</v>
+        <v>1.59538</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.662761</v>
+        <v>0.628817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.563781</v>
+        <v>0.502372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.368568</v>
+        <v>0.325933</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.348313</v>
+        <v>0.362439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.335446</v>
+        <v>0.302557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.348304</v>
+        <v>0.310368</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.353444</v>
+        <v>0.350122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.332602</v>
+        <v>0.305551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.350996</v>
+        <v>0.312702</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.34161</v>
+        <v>0.349969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.318159</v>
+        <v>0.298803</v>
       </c>
       <c r="D5" t="n">
-        <v>0.337029</v>
+        <v>0.305861</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.347086</v>
+        <v>0.342444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.319327</v>
+        <v>0.292476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.332422</v>
+        <v>0.303082</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.329869</v>
+        <v>0.342044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313348</v>
+        <v>0.286074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.324908</v>
+        <v>0.291466</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.316731</v>
+        <v>0.348007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.307</v>
+        <v>0.279941</v>
       </c>
       <c r="D8" t="n">
-        <v>0.329182</v>
+        <v>0.302186</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.328693</v>
+        <v>0.339249</v>
       </c>
       <c r="C9" t="n">
-        <v>0.315974</v>
+        <v>0.28397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.685952</v>
+        <v>0.655752</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.592319</v>
+        <v>0.584183</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5909</v>
+        <v>0.5414639999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.674878</v>
+        <v>0.629595</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5884470000000001</v>
+        <v>0.556083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.55449</v>
+        <v>0.52588</v>
       </c>
       <c r="D11" t="n">
-        <v>0.64184</v>
+        <v>0.6053269999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.537303</v>
+        <v>0.5675789999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5437959999999999</v>
+        <v>0.520323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.604603</v>
+        <v>0.572693</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.538506</v>
+        <v>0.539142</v>
       </c>
       <c r="C13" t="n">
-        <v>0.521158</v>
+        <v>0.484083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.58482</v>
+        <v>0.552446</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.511686</v>
+        <v>0.50254</v>
       </c>
       <c r="C14" t="n">
-        <v>0.510347</v>
+        <v>0.477025</v>
       </c>
       <c r="D14" t="n">
-        <v>0.578948</v>
+        <v>0.525149</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.499447</v>
+        <v>0.482797</v>
       </c>
       <c r="C15" t="n">
-        <v>0.494379</v>
+        <v>0.458751</v>
       </c>
       <c r="D15" t="n">
-        <v>0.565923</v>
+        <v>0.508694</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.49208</v>
+        <v>0.483799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.473983</v>
+        <v>0.437818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.537013</v>
+        <v>0.489559</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471368</v>
+        <v>0.472165</v>
       </c>
       <c r="C17" t="n">
-        <v>0.45414</v>
+        <v>0.427507</v>
       </c>
       <c r="D17" t="n">
-        <v>0.512402</v>
+        <v>0.471332</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456275</v>
+        <v>0.460289</v>
       </c>
       <c r="C18" t="n">
-        <v>0.438811</v>
+        <v>0.419689</v>
       </c>
       <c r="D18" t="n">
-        <v>0.511941</v>
+        <v>0.476643</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440266</v>
+        <v>0.439587</v>
       </c>
       <c r="C19" t="n">
-        <v>0.433357</v>
+        <v>0.403724</v>
       </c>
       <c r="D19" t="n">
-        <v>0.486314</v>
+        <v>0.444239</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.433222</v>
+        <v>0.428238</v>
       </c>
       <c r="C20" t="n">
-        <v>0.433831</v>
+        <v>0.397948</v>
       </c>
       <c r="D20" t="n">
-        <v>0.483108</v>
+        <v>0.440835</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.425687</v>
+        <v>0.415254</v>
       </c>
       <c r="C21" t="n">
-        <v>0.410008</v>
+        <v>0.390946</v>
       </c>
       <c r="D21" t="n">
-        <v>0.465736</v>
+        <v>0.430171</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.42083</v>
+        <v>0.419999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.40914</v>
+        <v>0.374935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.459237</v>
+        <v>0.41844</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.408258</v>
+        <v>0.407462</v>
       </c>
       <c r="C23" t="n">
-        <v>0.390362</v>
+        <v>0.364646</v>
       </c>
       <c r="D23" t="n">
-        <v>0.605472</v>
+        <v>0.567534</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.666425</v>
+        <v>0.668547</v>
       </c>
       <c r="C24" t="n">
-        <v>0.66552</v>
+        <v>0.650672</v>
       </c>
       <c r="D24" t="n">
-        <v>0.577686</v>
+        <v>0.539277</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.674258</v>
+        <v>0.655264</v>
       </c>
       <c r="C25" t="n">
-        <v>0.663949</v>
+        <v>0.62171</v>
       </c>
       <c r="D25" t="n">
-        <v>0.563419</v>
+        <v>0.520962</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.640836</v>
+        <v>0.635798</v>
       </c>
       <c r="C26" t="n">
-        <v>0.631792</v>
+        <v>0.599994</v>
       </c>
       <c r="D26" t="n">
-        <v>0.544847</v>
+        <v>0.513697</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.624287</v>
+        <v>0.605649</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6149790000000001</v>
+        <v>0.580341</v>
       </c>
       <c r="D27" t="n">
-        <v>0.53072</v>
+        <v>0.492431</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.607718</v>
+        <v>0.587448</v>
       </c>
       <c r="C28" t="n">
-        <v>0.583298</v>
+        <v>0.56098</v>
       </c>
       <c r="D28" t="n">
-        <v>0.520947</v>
+        <v>0.488271</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.582169</v>
+        <v>0.5767370000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5738760000000001</v>
+        <v>0.550377</v>
       </c>
       <c r="D29" t="n">
-        <v>0.499345</v>
+        <v>0.462004</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.574241</v>
+        <v>0.5574210000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.546825</v>
+        <v>0.510736</v>
       </c>
       <c r="D30" t="n">
-        <v>0.484871</v>
+        <v>0.450118</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5476529999999999</v>
+        <v>0.552496</v>
       </c>
       <c r="C31" t="n">
-        <v>0.552447</v>
+        <v>0.50571</v>
       </c>
       <c r="D31" t="n">
-        <v>0.474187</v>
+        <v>0.439585</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.523138</v>
+        <v>0.535992</v>
       </c>
       <c r="C32" t="n">
-        <v>0.524274</v>
+        <v>0.485478</v>
       </c>
       <c r="D32" t="n">
-        <v>0.468908</v>
+        <v>0.42896</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5084419999999999</v>
+        <v>0.520958</v>
       </c>
       <c r="C33" t="n">
-        <v>0.503332</v>
+        <v>0.476297</v>
       </c>
       <c r="D33" t="n">
-        <v>0.448134</v>
+        <v>0.423609</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.498386</v>
+        <v>0.497436</v>
       </c>
       <c r="C34" t="n">
-        <v>0.493343</v>
+        <v>0.457275</v>
       </c>
       <c r="D34" t="n">
-        <v>0.441058</v>
+        <v>0.399209</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.49602</v>
+        <v>0.496163</v>
       </c>
       <c r="C35" t="n">
-        <v>0.491683</v>
+        <v>0.443889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.436262</v>
+        <v>0.389634</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.478545</v>
+        <v>0.490649</v>
       </c>
       <c r="C36" t="n">
-        <v>0.475658</v>
+        <v>0.428054</v>
       </c>
       <c r="D36" t="n">
-        <v>0.42902</v>
+        <v>0.391793</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.460012</v>
+        <v>0.46883</v>
       </c>
       <c r="C37" t="n">
-        <v>0.463301</v>
+        <v>0.421184</v>
       </c>
       <c r="D37" t="n">
-        <v>0.701063</v>
+        <v>0.693358</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7261069999999999</v>
+        <v>0.7516</v>
       </c>
       <c r="C38" t="n">
-        <v>0.732515</v>
+        <v>0.698495</v>
       </c>
       <c r="D38" t="n">
-        <v>0.68168</v>
+        <v>0.660984</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.70267</v>
+        <v>0.717441</v>
       </c>
       <c r="C39" t="n">
-        <v>0.699995</v>
+        <v>0.664597</v>
       </c>
       <c r="D39" t="n">
-        <v>0.662959</v>
+        <v>0.647867</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.684794</v>
+        <v>0.6853399999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6988529999999999</v>
+        <v>0.651511</v>
       </c>
       <c r="D40" t="n">
-        <v>0.635478</v>
+        <v>0.599379</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.652558</v>
+        <v>0.679891</v>
       </c>
       <c r="C41" t="n">
-        <v>0.673629</v>
+        <v>0.634653</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6336580000000001</v>
+        <v>0.604358</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6453950000000001</v>
+        <v>0.624273</v>
       </c>
       <c r="C42" t="n">
-        <v>0.644241</v>
+        <v>0.603315</v>
       </c>
       <c r="D42" t="n">
-        <v>0.601808</v>
+        <v>0.54748</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.638389</v>
+        <v>0.609824</v>
       </c>
       <c r="C43" t="n">
-        <v>0.620869</v>
+        <v>0.572275</v>
       </c>
       <c r="D43" t="n">
-        <v>0.590019</v>
+        <v>0.5388039999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.620134</v>
+        <v>0.604665</v>
       </c>
       <c r="C44" t="n">
-        <v>0.621286</v>
+        <v>0.5524250000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.582624</v>
+        <v>0.514436</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.582334</v>
+        <v>0.591468</v>
       </c>
       <c r="C45" t="n">
-        <v>0.595885</v>
+        <v>0.550609</v>
       </c>
       <c r="D45" t="n">
-        <v>0.54262</v>
+        <v>0.531008</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.57599</v>
+        <v>0.5671119999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.567748</v>
+        <v>0.543039</v>
       </c>
       <c r="D46" t="n">
-        <v>0.53103</v>
+        <v>0.4942</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5679</v>
+        <v>0.56765</v>
       </c>
       <c r="C47" t="n">
-        <v>0.56868</v>
+        <v>0.539571</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531287</v>
+        <v>0.483982</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.551641</v>
+        <v>0.552045</v>
       </c>
       <c r="C48" t="n">
-        <v>0.551048</v>
+        <v>0.510533</v>
       </c>
       <c r="D48" t="n">
-        <v>0.513443</v>
+        <v>0.476608</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.551283</v>
+        <v>0.531937</v>
       </c>
       <c r="C49" t="n">
-        <v>0.519973</v>
+        <v>0.493374</v>
       </c>
       <c r="D49" t="n">
-        <v>0.500146</v>
+        <v>0.476606</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5238930000000001</v>
+        <v>0.521949</v>
       </c>
       <c r="C50" t="n">
-        <v>0.510119</v>
+        <v>0.483207</v>
       </c>
       <c r="D50" t="n">
-        <v>0.494089</v>
+        <v>0.460372</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.529659</v>
+        <v>0.5173720000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.511096</v>
+        <v>0.464001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.792327</v>
+        <v>0.774278</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.506618</v>
+        <v>0.503843</v>
       </c>
       <c r="C52" t="n">
-        <v>0.49997</v>
+        <v>0.462892</v>
       </c>
       <c r="D52" t="n">
-        <v>0.759243</v>
+        <v>0.725978</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.761728</v>
+        <v>0.785337</v>
       </c>
       <c r="C53" t="n">
-        <v>0.756655</v>
+        <v>0.730268</v>
       </c>
       <c r="D53" t="n">
-        <v>0.734469</v>
+        <v>0.691239</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.763137</v>
+        <v>0.742976</v>
       </c>
       <c r="C54" t="n">
-        <v>0.757738</v>
+        <v>0.725511</v>
       </c>
       <c r="D54" t="n">
-        <v>0.710076</v>
+        <v>0.680091</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.733984</v>
+        <v>0.736089</v>
       </c>
       <c r="C55" t="n">
-        <v>0.716743</v>
+        <v>0.705578</v>
       </c>
       <c r="D55" t="n">
-        <v>0.700424</v>
+        <v>0.653771</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.705665</v>
+        <v>0.712419</v>
       </c>
       <c r="C56" t="n">
-        <v>0.694442</v>
+        <v>0.670713</v>
       </c>
       <c r="D56" t="n">
-        <v>0.676298</v>
+        <v>0.666353</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.693161</v>
+        <v>0.713877</v>
       </c>
       <c r="C57" t="n">
-        <v>0.687356</v>
+        <v>0.655066</v>
       </c>
       <c r="D57" t="n">
-        <v>0.663733</v>
+        <v>0.636335</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.688928</v>
+        <v>0.686566</v>
       </c>
       <c r="C58" t="n">
-        <v>0.683111</v>
+        <v>0.632468</v>
       </c>
       <c r="D58" t="n">
-        <v>0.663498</v>
+        <v>0.605179</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6775330000000001</v>
+        <v>0.657844</v>
       </c>
       <c r="C59" t="n">
-        <v>0.65149</v>
+        <v>0.618618</v>
       </c>
       <c r="D59" t="n">
-        <v>0.642953</v>
+        <v>0.586546</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.643706</v>
+        <v>0.64155</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6582249999999999</v>
+        <v>0.603774</v>
       </c>
       <c r="D60" t="n">
-        <v>0.637696</v>
+        <v>0.579468</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.644463</v>
+        <v>0.62939</v>
       </c>
       <c r="C61" t="n">
-        <v>0.62519</v>
+        <v>0.583082</v>
       </c>
       <c r="D61" t="n">
-        <v>0.612641</v>
+        <v>0.572708</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6373</v>
+        <v>0.609907</v>
       </c>
       <c r="C62" t="n">
-        <v>0.609491</v>
+        <v>0.586139</v>
       </c>
       <c r="D62" t="n">
-        <v>0.606957</v>
+        <v>0.556741</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.61819</v>
+        <v>0.592974</v>
       </c>
       <c r="C63" t="n">
-        <v>0.597224</v>
+        <v>0.559014</v>
       </c>
       <c r="D63" t="n">
-        <v>0.585002</v>
+        <v>0.560778</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.583193</v>
+        <v>0.59765</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5827909999999999</v>
+        <v>0.546606</v>
       </c>
       <c r="D64" t="n">
-        <v>0.570522</v>
+        <v>0.519903</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.571151</v>
+        <v>0.5709920000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5665519999999999</v>
+        <v>0.540439</v>
       </c>
       <c r="D65" t="n">
-        <v>0.563792</v>
+        <v>0.526297</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.575167</v>
+        <v>0.578211</v>
       </c>
       <c r="C66" t="n">
-        <v>0.586566</v>
+        <v>0.535562</v>
       </c>
       <c r="D66" t="n">
-        <v>0.872413</v>
+        <v>0.8497710000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.874999</v>
+        <v>0.887402</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8675119999999999</v>
+        <v>0.83877</v>
       </c>
       <c r="D67" t="n">
-        <v>0.859243</v>
+        <v>0.806407</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.833159</v>
+        <v>0.855067</v>
       </c>
       <c r="C68" t="n">
-        <v>0.836645</v>
+        <v>0.810002</v>
       </c>
       <c r="D68" t="n">
-        <v>0.829543</v>
+        <v>0.799084</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.844567</v>
+        <v>0.84504</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8320070000000001</v>
+        <v>0.786426</v>
       </c>
       <c r="D69" t="n">
-        <v>0.808105</v>
+        <v>0.758294</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.798507</v>
+        <v>0.820016</v>
       </c>
       <c r="C70" t="n">
-        <v>0.803527</v>
+        <v>0.773941</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7950199999999999</v>
+        <v>0.738568</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.775301</v>
+        <v>0.770448</v>
       </c>
       <c r="C71" t="n">
-        <v>0.791004</v>
+        <v>0.737784</v>
       </c>
       <c r="D71" t="n">
-        <v>0.768434</v>
+        <v>0.716635</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.766429</v>
+        <v>0.752989</v>
       </c>
       <c r="C72" t="n">
-        <v>0.757385</v>
+        <v>0.708745</v>
       </c>
       <c r="D72" t="n">
-        <v>0.758547</v>
+        <v>0.6829809999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.735748</v>
+        <v>0.727826</v>
       </c>
       <c r="C73" t="n">
-        <v>0.740052</v>
+        <v>0.688541</v>
       </c>
       <c r="D73" t="n">
-        <v>0.725006</v>
+        <v>0.663258</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7396160000000001</v>
+        <v>0.718538</v>
       </c>
       <c r="C74" t="n">
-        <v>0.720011</v>
+        <v>0.670714</v>
       </c>
       <c r="D74" t="n">
-        <v>0.704174</v>
+        <v>0.646618</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.714028</v>
+        <v>0.696619</v>
       </c>
       <c r="C75" t="n">
-        <v>0.718545</v>
+        <v>0.672554</v>
       </c>
       <c r="D75" t="n">
-        <v>0.685126</v>
+        <v>0.637158</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.702006</v>
+        <v>0.6785060000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696617</v>
+        <v>0.643447</v>
       </c>
       <c r="D76" t="n">
-        <v>0.677766</v>
+        <v>0.62463</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.687326</v>
+        <v>0.680302</v>
       </c>
       <c r="C77" t="n">
-        <v>0.688717</v>
+        <v>0.628275</v>
       </c>
       <c r="D77" t="n">
-        <v>0.680242</v>
+        <v>0.612225</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.690431</v>
+        <v>0.6834519999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.66569</v>
+        <v>0.626046</v>
       </c>
       <c r="D78" t="n">
-        <v>0.680985</v>
+        <v>0.61093</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.686299</v>
+        <v>0.6744059999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6568929999999999</v>
+        <v>0.616489</v>
       </c>
       <c r="D79" t="n">
-        <v>0.654417</v>
+        <v>0.623636</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.648863</v>
+        <v>0.653737</v>
       </c>
       <c r="C80" t="n">
-        <v>0.650605</v>
+        <v>0.610975</v>
       </c>
       <c r="D80" t="n">
-        <v>0.98586</v>
+        <v>0.939896</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.964239</v>
+        <v>0.944924</v>
       </c>
       <c r="C81" t="n">
-        <v>0.970951</v>
+        <v>0.9349730000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.953669</v>
+        <v>0.916589</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.943462</v>
+        <v>0.945206</v>
       </c>
       <c r="C82" t="n">
-        <v>0.969217</v>
+        <v>0.930155</v>
       </c>
       <c r="D82" t="n">
-        <v>0.921096</v>
+        <v>0.881035</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.931741</v>
+        <v>0.950394</v>
       </c>
       <c r="C83" t="n">
-        <v>0.927917</v>
+        <v>0.9032210000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.901828</v>
+        <v>0.850796</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.904964</v>
+        <v>0.910875</v>
       </c>
       <c r="C84" t="n">
-        <v>0.928182</v>
+        <v>0.869712</v>
       </c>
       <c r="D84" t="n">
-        <v>0.885307</v>
+        <v>0.861208</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.911876</v>
+        <v>0.894481</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9107460000000001</v>
+        <v>0.856395</v>
       </c>
       <c r="D85" t="n">
-        <v>0.87008</v>
+        <v>0.819835</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.871801</v>
+        <v>0.875861</v>
       </c>
       <c r="C86" t="n">
-        <v>0.873845</v>
+        <v>0.848611</v>
       </c>
       <c r="D86" t="n">
-        <v>0.847588</v>
+        <v>0.81936</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8650139999999999</v>
+        <v>0.8488830000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.854367</v>
+        <v>0.810345</v>
       </c>
       <c r="D87" t="n">
-        <v>0.843382</v>
+        <v>0.8061</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.851326</v>
+        <v>0.855518</v>
       </c>
       <c r="C88" t="n">
-        <v>0.825524</v>
+        <v>0.822228</v>
       </c>
       <c r="D88" t="n">
-        <v>0.811765</v>
+        <v>0.766404</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.843279</v>
+        <v>0.833591</v>
       </c>
       <c r="C89" t="n">
-        <v>0.824671</v>
+        <v>0.777094</v>
       </c>
       <c r="D89" t="n">
-        <v>0.796639</v>
+        <v>0.752285</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.799603</v>
+        <v>0.810939</v>
       </c>
       <c r="C90" t="n">
-        <v>0.806086</v>
+        <v>0.77372</v>
       </c>
       <c r="D90" t="n">
-        <v>0.785755</v>
+        <v>0.751942</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.80715</v>
+        <v>0.787102</v>
       </c>
       <c r="C91" t="n">
-        <v>0.796836</v>
+        <v>0.751959</v>
       </c>
       <c r="D91" t="n">
-        <v>0.763249</v>
+        <v>0.740141</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.790747</v>
+        <v>0.781293</v>
       </c>
       <c r="C92" t="n">
-        <v>0.776303</v>
+        <v>0.754862</v>
       </c>
       <c r="D92" t="n">
-        <v>0.759328</v>
+        <v>0.712469</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.771099</v>
+        <v>0.770604</v>
       </c>
       <c r="C93" t="n">
-        <v>0.785438</v>
+        <v>0.726867</v>
       </c>
       <c r="D93" t="n">
-        <v>0.757001</v>
+        <v>0.715482</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.769983</v>
+        <v>0.77551</v>
       </c>
       <c r="C94" t="n">
-        <v>0.758702</v>
+        <v>0.730497</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09683</v>
+        <v>1.04649</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07979</v>
+        <v>1.10265</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12072</v>
+        <v>1.05386</v>
       </c>
       <c r="D95" t="n">
-        <v>1.06675</v>
+        <v>1.03175</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06578</v>
+        <v>1.06011</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08442</v>
+        <v>1.05329</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04108</v>
+        <v>0.994549</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05698</v>
+        <v>1.06248</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05927</v>
+        <v>1.00538</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00764</v>
+        <v>0.984677</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03911</v>
+        <v>1.03053</v>
       </c>
       <c r="C98" t="n">
-        <v>1.03602</v>
+        <v>1.01877</v>
       </c>
       <c r="D98" t="n">
-        <v>0.993516</v>
+        <v>0.982466</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03292</v>
+        <v>0.9965580000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01794</v>
+        <v>0.9851220000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.999456</v>
+        <v>0.953117</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01372</v>
+        <v>1.01344</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01655</v>
+        <v>0.967342</v>
       </c>
       <c r="D100" t="n">
-        <v>0.967827</v>
+        <v>0.946619</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.990123</v>
+        <v>0.975155</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00819</v>
+        <v>0.960357</v>
       </c>
       <c r="D101" t="n">
-        <v>0.961153</v>
+        <v>0.918625</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.982579</v>
+        <v>0.9867010000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.95568</v>
+        <v>0.950032</v>
       </c>
       <c r="D102" t="n">
-        <v>0.928091</v>
+        <v>0.921589</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.946738</v>
+        <v>0.965197</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9428029999999999</v>
+        <v>0.939343</v>
       </c>
       <c r="D103" t="n">
-        <v>0.909012</v>
+        <v>0.889556</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.940896</v>
+        <v>0.951929</v>
       </c>
       <c r="C104" t="n">
-        <v>0.950852</v>
+        <v>0.921894</v>
       </c>
       <c r="D104" t="n">
-        <v>0.885663</v>
+        <v>0.872363</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.950963</v>
+        <v>0.931957</v>
       </c>
       <c r="C105" t="n">
-        <v>0.918415</v>
+        <v>0.907491</v>
       </c>
       <c r="D105" t="n">
-        <v>0.88549</v>
+        <v>0.866324</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.914696</v>
+        <v>0.915451</v>
       </c>
       <c r="C106" t="n">
-        <v>0.907589</v>
+        <v>0.893611</v>
       </c>
       <c r="D106" t="n">
-        <v>0.868939</v>
+        <v>0.84514</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.922191</v>
+        <v>0.90845</v>
       </c>
       <c r="C107" t="n">
-        <v>0.89873</v>
+        <v>0.87043</v>
       </c>
       <c r="D107" t="n">
-        <v>0.883121</v>
+        <v>0.8170539999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.908844</v>
+        <v>0.905768</v>
       </c>
       <c r="C108" t="n">
-        <v>0.905023</v>
+        <v>0.871403</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19168</v>
+        <v>1.17224</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.90274</v>
+        <v>0.906192</v>
       </c>
       <c r="C109" t="n">
-        <v>0.88772</v>
+        <v>0.867599</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18281</v>
+        <v>1.1491</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2135</v>
+        <v>1.19312</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22012</v>
+        <v>1.19108</v>
       </c>
       <c r="D110" t="n">
-        <v>1.14613</v>
+        <v>1.14498</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1848</v>
+        <v>1.22285</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20597</v>
+        <v>1.17848</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16321</v>
+        <v>1.14048</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.18035</v>
+        <v>1.19389</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17706</v>
+        <v>1.18292</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14325</v>
+        <v>1.11341</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17789</v>
+        <v>1.17523</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21161</v>
+        <v>1.16484</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11836</v>
+        <v>1.10056</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15412</v>
+        <v>1.15366</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17179</v>
+        <v>1.14633</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09831</v>
+        <v>1.1227</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17931</v>
+        <v>1.15774</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14207</v>
+        <v>1.1415</v>
       </c>
       <c r="D115" t="n">
-        <v>1.07366</v>
+        <v>1.08358</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14619</v>
+        <v>1.16035</v>
       </c>
       <c r="C116" t="n">
-        <v>1.162</v>
+        <v>1.15158</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0914</v>
+        <v>1.0831</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15516</v>
+        <v>1.14026</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12085</v>
+        <v>1.11719</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04765</v>
+        <v>1.08893</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.16181</v>
+        <v>1.13899</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14107</v>
+        <v>1.12944</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06913</v>
+        <v>1.05286</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13312</v>
+        <v>1.11528</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11523</v>
+        <v>1.10437</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03804</v>
+        <v>1.03278</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12871</v>
+        <v>1.11638</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11183</v>
+        <v>1.11063</v>
       </c>
       <c r="D120" t="n">
-        <v>1.05305</v>
+        <v>1.04705</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09797</v>
+        <v>1.09846</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08742</v>
+        <v>1.11755</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01226</v>
+        <v>1.04923</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12239</v>
+        <v>1.11335</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08029</v>
+        <v>1.07994</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0281</v>
+        <v>1.03152</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.12287</v>
+        <v>1.12984</v>
       </c>
       <c r="C123" t="n">
-        <v>1.09692</v>
+        <v>1.10353</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36421</v>
+        <v>1.41301</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.41871</v>
+        <v>1.43338</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42432</v>
+        <v>1.42279</v>
       </c>
       <c r="D124" t="n">
-        <v>1.39146</v>
+        <v>1.38975</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.414</v>
+        <v>1.40966</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40385</v>
+        <v>1.41867</v>
       </c>
       <c r="D125" t="n">
-        <v>1.36781</v>
+        <v>1.37485</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.44368</v>
+        <v>1.42289</v>
       </c>
       <c r="C126" t="n">
-        <v>1.44802</v>
+        <v>1.42396</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32962</v>
+        <v>1.37476</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.41711</v>
+        <v>1.43201</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38821</v>
+        <v>1.4168</v>
       </c>
       <c r="D127" t="n">
-        <v>1.33834</v>
+        <v>1.3858</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.41863</v>
+        <v>1.42385</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38672</v>
+        <v>1.4065</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33417</v>
+        <v>1.3793</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41537</v>
+        <v>1.40391</v>
       </c>
       <c r="C129" t="n">
-        <v>1.40076</v>
+        <v>1.41865</v>
       </c>
       <c r="D129" t="n">
-        <v>1.33468</v>
+        <v>1.37259</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40167</v>
+        <v>1.39847</v>
       </c>
       <c r="C130" t="n">
-        <v>1.37861</v>
+        <v>1.41219</v>
       </c>
       <c r="D130" t="n">
-        <v>1.35836</v>
+        <v>1.37004</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39404</v>
+        <v>1.42361</v>
       </c>
       <c r="C131" t="n">
-        <v>1.38321</v>
+        <v>1.41241</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31671</v>
+        <v>1.38814</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.41984</v>
+        <v>1.42453</v>
       </c>
       <c r="C132" t="n">
-        <v>1.35935</v>
+        <v>1.39194</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29939</v>
+        <v>1.35514</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40415</v>
+        <v>1.41354</v>
       </c>
       <c r="C133" t="n">
-        <v>1.34832</v>
+        <v>1.38566</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32012</v>
+        <v>1.36242</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39369</v>
+        <v>1.38598</v>
       </c>
       <c r="C134" t="n">
-        <v>1.35651</v>
+        <v>1.38226</v>
       </c>
       <c r="D134" t="n">
-        <v>1.29045</v>
+        <v>1.36203</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.38768</v>
+        <v>1.38994</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34953</v>
+        <v>1.41368</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30906</v>
+        <v>1.35056</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39918</v>
+        <v>1.39586</v>
       </c>
       <c r="C136" t="n">
-        <v>1.36649</v>
+        <v>1.3972</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29977</v>
+        <v>1.37742</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42215</v>
+        <v>1.41849</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35863</v>
+        <v>1.39465</v>
       </c>
       <c r="D137" t="n">
-        <v>1.6579</v>
+        <v>1.72876</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73274</v>
+        <v>1.72533</v>
       </c>
       <c r="C138" t="n">
-        <v>1.70127</v>
+        <v>1.73194</v>
       </c>
       <c r="D138" t="n">
-        <v>1.64204</v>
+        <v>1.69527</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.72326</v>
+        <v>1.71806</v>
       </c>
       <c r="C139" t="n">
-        <v>1.68558</v>
+        <v>1.73096</v>
       </c>
       <c r="D139" t="n">
-        <v>1.63967</v>
+        <v>1.70858</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71766</v>
+        <v>1.71273</v>
       </c>
       <c r="C140" t="n">
-        <v>1.6742</v>
+        <v>1.73335</v>
       </c>
       <c r="D140" t="n">
-        <v>1.62655</v>
+        <v>1.70793</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.7357</v>
+        <v>1.70378</v>
       </c>
       <c r="C141" t="n">
-        <v>1.66217</v>
+        <v>1.71285</v>
       </c>
       <c r="D141" t="n">
-        <v>1.60566</v>
+        <v>1.70831</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71009</v>
+        <v>1.695</v>
       </c>
       <c r="C142" t="n">
-        <v>1.64573</v>
+        <v>1.72069</v>
       </c>
       <c r="D142" t="n">
-        <v>1.61792</v>
+        <v>1.70713</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.69284</v>
+        <v>1.70987</v>
       </c>
       <c r="C143" t="n">
-        <v>1.64463</v>
+        <v>1.72601</v>
       </c>
       <c r="D143" t="n">
-        <v>1.59538</v>
+        <v>1.7054</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.628817</v>
+        <v>0.657975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.502372</v>
+        <v>1.14048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.325933</v>
+        <v>0.350718</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.362439</v>
+        <v>0.362554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302557</v>
+        <v>0.8264629999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.310368</v>
+        <v>0.343705</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.350122</v>
+        <v>0.352314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.305551</v>
+        <v>0.803867</v>
       </c>
       <c r="D4" t="n">
-        <v>0.312702</v>
+        <v>0.334318</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.349969</v>
+        <v>0.353933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.298803</v>
+        <v>0.805084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.305861</v>
+        <v>0.331364</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.342444</v>
+        <v>0.337788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.292476</v>
+        <v>1.0723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.303082</v>
+        <v>0.324954</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.342044</v>
+        <v>0.33644</v>
       </c>
       <c r="C7" t="n">
-        <v>0.286074</v>
+        <v>0.783714</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291466</v>
+        <v>0.321325</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.348007</v>
+        <v>0.334854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279941</v>
+        <v>1.02774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.302186</v>
+        <v>0.315686</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.339249</v>
+        <v>0.326585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.28397</v>
+        <v>0.993464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.655752</v>
+        <v>0.446582</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.584183</v>
+        <v>0.600877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5414639999999999</v>
+        <v>0.9687170000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.629595</v>
+        <v>0.428969</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556083</v>
+        <v>0.591129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.52588</v>
+        <v>0.941086</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6053269999999999</v>
+        <v>0.427147</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5675789999999999</v>
+        <v>0.543459</v>
       </c>
       <c r="C12" t="n">
-        <v>0.520323</v>
+        <v>0.8873799999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.572693</v>
+        <v>0.393829</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.539142</v>
+        <v>0.5340819999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.484083</v>
+        <v>0.875852</v>
       </c>
       <c r="D13" t="n">
-        <v>0.552446</v>
+        <v>0.391025</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.50254</v>
+        <v>0.519186</v>
       </c>
       <c r="C14" t="n">
-        <v>0.477025</v>
+        <v>0.859131</v>
       </c>
       <c r="D14" t="n">
-        <v>0.525149</v>
+        <v>0.371238</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482797</v>
+        <v>0.511738</v>
       </c>
       <c r="C15" t="n">
-        <v>0.458751</v>
+        <v>0.991803</v>
       </c>
       <c r="D15" t="n">
-        <v>0.508694</v>
+        <v>0.367542</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.483799</v>
+        <v>0.480941</v>
       </c>
       <c r="C16" t="n">
-        <v>0.437818</v>
+        <v>0.967382</v>
       </c>
       <c r="D16" t="n">
-        <v>0.489559</v>
+        <v>0.355013</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.472165</v>
+        <v>0.470165</v>
       </c>
       <c r="C17" t="n">
-        <v>0.427507</v>
+        <v>0.941879</v>
       </c>
       <c r="D17" t="n">
-        <v>0.471332</v>
+        <v>0.337481</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460289</v>
+        <v>0.459776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.419689</v>
+        <v>0.935177</v>
       </c>
       <c r="D18" t="n">
-        <v>0.476643</v>
+        <v>0.332139</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439587</v>
+        <v>0.453969</v>
       </c>
       <c r="C19" t="n">
-        <v>0.403724</v>
+        <v>0.931149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.444239</v>
+        <v>0.334569</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428238</v>
+        <v>0.435063</v>
       </c>
       <c r="C20" t="n">
-        <v>0.397948</v>
+        <v>0.893939</v>
       </c>
       <c r="D20" t="n">
-        <v>0.440835</v>
+        <v>0.322768</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415254</v>
+        <v>0.429704</v>
       </c>
       <c r="C21" t="n">
-        <v>0.390946</v>
+        <v>0.904832</v>
       </c>
       <c r="D21" t="n">
-        <v>0.430171</v>
+        <v>0.309626</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.419999</v>
+        <v>0.422884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.374935</v>
+        <v>1.20799</v>
       </c>
       <c r="D22" t="n">
-        <v>0.41844</v>
+        <v>0.308479</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407462</v>
+        <v>0.415014</v>
       </c>
       <c r="C23" t="n">
-        <v>0.364646</v>
+        <v>1.27358</v>
       </c>
       <c r="D23" t="n">
-        <v>0.567534</v>
+        <v>0.587265</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.668547</v>
+        <v>0.67888</v>
       </c>
       <c r="C24" t="n">
-        <v>0.650672</v>
+        <v>1.24474</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539277</v>
+        <v>0.577694</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.655264</v>
+        <v>0.679733</v>
       </c>
       <c r="C25" t="n">
-        <v>0.62171</v>
+        <v>1.22864</v>
       </c>
       <c r="D25" t="n">
-        <v>0.520962</v>
+        <v>0.5616640000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.635798</v>
+        <v>0.636965</v>
       </c>
       <c r="C26" t="n">
-        <v>0.599994</v>
+        <v>1.21972</v>
       </c>
       <c r="D26" t="n">
-        <v>0.513697</v>
+        <v>0.54359</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.605649</v>
+        <v>0.619798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.580341</v>
+        <v>1.16702</v>
       </c>
       <c r="D27" t="n">
-        <v>0.492431</v>
+        <v>0.51608</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.587448</v>
+        <v>0.613205</v>
       </c>
       <c r="C28" t="n">
-        <v>0.56098</v>
+        <v>1.13922</v>
       </c>
       <c r="D28" t="n">
-        <v>0.488271</v>
+        <v>0.502927</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5767370000000001</v>
+        <v>0.584167</v>
       </c>
       <c r="C29" t="n">
-        <v>0.550377</v>
+        <v>1.11267</v>
       </c>
       <c r="D29" t="n">
-        <v>0.462004</v>
+        <v>0.495651</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5574210000000001</v>
+        <v>0.567989</v>
       </c>
       <c r="C30" t="n">
-        <v>0.510736</v>
+        <v>1.08302</v>
       </c>
       <c r="D30" t="n">
-        <v>0.450118</v>
+        <v>0.477532</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.552496</v>
+        <v>0.567846</v>
       </c>
       <c r="C31" t="n">
-        <v>0.50571</v>
+        <v>1.03831</v>
       </c>
       <c r="D31" t="n">
-        <v>0.439585</v>
+        <v>0.457872</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.535992</v>
+        <v>0.538265</v>
       </c>
       <c r="C32" t="n">
-        <v>0.485478</v>
+        <v>1.12629</v>
       </c>
       <c r="D32" t="n">
-        <v>0.42896</v>
+        <v>0.446606</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.520958</v>
+        <v>0.52654</v>
       </c>
       <c r="C33" t="n">
-        <v>0.476297</v>
+        <v>1.11714</v>
       </c>
       <c r="D33" t="n">
-        <v>0.423609</v>
+        <v>0.436683</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.497436</v>
+        <v>0.511702</v>
       </c>
       <c r="C34" t="n">
-        <v>0.457275</v>
+        <v>1.0629</v>
       </c>
       <c r="D34" t="n">
-        <v>0.399209</v>
+        <v>0.419591</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.496163</v>
+        <v>0.489437</v>
       </c>
       <c r="C35" t="n">
-        <v>0.443889</v>
+        <v>1.06688</v>
       </c>
       <c r="D35" t="n">
-        <v>0.389634</v>
+        <v>0.417709</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.490649</v>
+        <v>0.479144</v>
       </c>
       <c r="C36" t="n">
-        <v>0.428054</v>
+        <v>1.09167</v>
       </c>
       <c r="D36" t="n">
-        <v>0.391793</v>
+        <v>0.416148</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.46883</v>
+        <v>0.485111</v>
       </c>
       <c r="C37" t="n">
-        <v>0.421184</v>
+        <v>1.40682</v>
       </c>
       <c r="D37" t="n">
-        <v>0.693358</v>
+        <v>0.712846</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7516</v>
+        <v>0.753216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.698495</v>
+        <v>1.35396</v>
       </c>
       <c r="D38" t="n">
-        <v>0.660984</v>
+        <v>0.688191</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.717441</v>
+        <v>0.719742</v>
       </c>
       <c r="C39" t="n">
-        <v>0.664597</v>
+        <v>1.28225</v>
       </c>
       <c r="D39" t="n">
-        <v>0.647867</v>
+        <v>0.6641629999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6853399999999999</v>
+        <v>0.713641</v>
       </c>
       <c r="C40" t="n">
-        <v>0.651511</v>
+        <v>1.36596</v>
       </c>
       <c r="D40" t="n">
-        <v>0.599379</v>
+        <v>0.62369</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.679891</v>
+        <v>0.68414</v>
       </c>
       <c r="C41" t="n">
-        <v>0.634653</v>
+        <v>1.32228</v>
       </c>
       <c r="D41" t="n">
-        <v>0.604358</v>
+        <v>0.6030720000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.624273</v>
+        <v>0.669981</v>
       </c>
       <c r="C42" t="n">
-        <v>0.603315</v>
+        <v>1.28483</v>
       </c>
       <c r="D42" t="n">
-        <v>0.54748</v>
+        <v>0.5971919999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.609824</v>
+        <v>0.646319</v>
       </c>
       <c r="C43" t="n">
-        <v>0.572275</v>
+        <v>1.24818</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5388039999999999</v>
+        <v>0.571749</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.604665</v>
+        <v>0.618055</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5524250000000001</v>
+        <v>1.18727</v>
       </c>
       <c r="D44" t="n">
-        <v>0.514436</v>
+        <v>0.558948</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.591468</v>
+        <v>0.594327</v>
       </c>
       <c r="C45" t="n">
-        <v>0.550609</v>
+        <v>1.18644</v>
       </c>
       <c r="D45" t="n">
-        <v>0.531008</v>
+        <v>0.539852</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5671119999999999</v>
+        <v>0.585314</v>
       </c>
       <c r="C46" t="n">
-        <v>0.543039</v>
+        <v>1.15795</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4942</v>
+        <v>0.527338</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.56765</v>
+        <v>0.574249</v>
       </c>
       <c r="C47" t="n">
-        <v>0.539571</v>
+        <v>1.14516</v>
       </c>
       <c r="D47" t="n">
-        <v>0.483982</v>
+        <v>0.515673</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.552045</v>
+        <v>0.558418</v>
       </c>
       <c r="C48" t="n">
-        <v>0.510533</v>
+        <v>1.19284</v>
       </c>
       <c r="D48" t="n">
-        <v>0.476608</v>
+        <v>0.485862</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.531937</v>
+        <v>0.543708</v>
       </c>
       <c r="C49" t="n">
-        <v>0.493374</v>
+        <v>1.17873</v>
       </c>
       <c r="D49" t="n">
-        <v>0.476606</v>
+        <v>0.487543</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.521949</v>
+        <v>0.525509</v>
       </c>
       <c r="C50" t="n">
-        <v>0.483207</v>
+        <v>1.17065</v>
       </c>
       <c r="D50" t="n">
-        <v>0.460372</v>
+        <v>0.470833</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5173720000000001</v>
+        <v>0.508392</v>
       </c>
       <c r="C51" t="n">
-        <v>0.464001</v>
+        <v>1.45092</v>
       </c>
       <c r="D51" t="n">
-        <v>0.774278</v>
+        <v>0.789048</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.503843</v>
+        <v>0.509612</v>
       </c>
       <c r="C52" t="n">
-        <v>0.462892</v>
+        <v>1.43089</v>
       </c>
       <c r="D52" t="n">
-        <v>0.725978</v>
+        <v>0.772403</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.785337</v>
+        <v>0.768519</v>
       </c>
       <c r="C53" t="n">
-        <v>0.730268</v>
+        <v>1.43509</v>
       </c>
       <c r="D53" t="n">
-        <v>0.691239</v>
+        <v>0.730025</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.742976</v>
+        <v>0.767184</v>
       </c>
       <c r="C54" t="n">
-        <v>0.725511</v>
+        <v>1.4174</v>
       </c>
       <c r="D54" t="n">
-        <v>0.680091</v>
+        <v>0.70935</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.736089</v>
+        <v>0.734073</v>
       </c>
       <c r="C55" t="n">
-        <v>0.705578</v>
+        <v>1.38305</v>
       </c>
       <c r="D55" t="n">
-        <v>0.653771</v>
+        <v>0.700222</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.712419</v>
+        <v>0.731742</v>
       </c>
       <c r="C56" t="n">
-        <v>0.670713</v>
+        <v>1.2988</v>
       </c>
       <c r="D56" t="n">
-        <v>0.666353</v>
+        <v>0.677558</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.713877</v>
+        <v>0.723702</v>
       </c>
       <c r="C57" t="n">
-        <v>0.655066</v>
+        <v>1.39816</v>
       </c>
       <c r="D57" t="n">
-        <v>0.636335</v>
+        <v>0.646608</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.686566</v>
+        <v>0.703088</v>
       </c>
       <c r="C58" t="n">
-        <v>0.632468</v>
+        <v>1.3877</v>
       </c>
       <c r="D58" t="n">
-        <v>0.605179</v>
+        <v>0.6387350000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.657844</v>
+        <v>0.667814</v>
       </c>
       <c r="C59" t="n">
-        <v>0.618618</v>
+        <v>1.32469</v>
       </c>
       <c r="D59" t="n">
-        <v>0.586546</v>
+        <v>0.629659</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.64155</v>
+        <v>0.6549430000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.603774</v>
+        <v>1.30855</v>
       </c>
       <c r="D60" t="n">
-        <v>0.579468</v>
+        <v>0.61717</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.62939</v>
+        <v>0.657527</v>
       </c>
       <c r="C61" t="n">
-        <v>0.583082</v>
+        <v>1.24565</v>
       </c>
       <c r="D61" t="n">
-        <v>0.572708</v>
+        <v>0.597862</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609907</v>
+        <v>0.620913</v>
       </c>
       <c r="C62" t="n">
-        <v>0.586139</v>
+        <v>1.20119</v>
       </c>
       <c r="D62" t="n">
-        <v>0.556741</v>
+        <v>0.579077</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.592974</v>
+        <v>0.608949</v>
       </c>
       <c r="C63" t="n">
-        <v>0.559014</v>
+        <v>1.22709</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560778</v>
+        <v>0.563562</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.59765</v>
+        <v>0.597087</v>
       </c>
       <c r="C64" t="n">
-        <v>0.546606</v>
+        <v>1.17037</v>
       </c>
       <c r="D64" t="n">
-        <v>0.519903</v>
+        <v>0.565021</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5709920000000001</v>
+        <v>0.591221</v>
       </c>
       <c r="C65" t="n">
-        <v>0.540439</v>
+        <v>1.79158</v>
       </c>
       <c r="D65" t="n">
-        <v>0.526297</v>
+        <v>0.556457</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.578211</v>
+        <v>0.583838</v>
       </c>
       <c r="C66" t="n">
-        <v>0.535562</v>
+        <v>1.76932</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8497710000000001</v>
+        <v>0.857476</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.887402</v>
+        <v>0.902915</v>
       </c>
       <c r="C67" t="n">
-        <v>0.83877</v>
+        <v>1.63843</v>
       </c>
       <c r="D67" t="n">
-        <v>0.806407</v>
+        <v>0.845279</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.855067</v>
+        <v>0.858502</v>
       </c>
       <c r="C68" t="n">
-        <v>0.810002</v>
+        <v>1.5809</v>
       </c>
       <c r="D68" t="n">
-        <v>0.799084</v>
+        <v>0.842091</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.84504</v>
+        <v>0.837449</v>
       </c>
       <c r="C69" t="n">
-        <v>0.786426</v>
+        <v>1.55432</v>
       </c>
       <c r="D69" t="n">
-        <v>0.758294</v>
+        <v>0.775899</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.820016</v>
+        <v>0.800511</v>
       </c>
       <c r="C70" t="n">
-        <v>0.773941</v>
+        <v>1.49476</v>
       </c>
       <c r="D70" t="n">
-        <v>0.738568</v>
+        <v>0.763671</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.770448</v>
+        <v>0.7796729999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.737784</v>
+        <v>1.45006</v>
       </c>
       <c r="D71" t="n">
-        <v>0.716635</v>
+        <v>0.763647</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.752989</v>
+        <v>0.767768</v>
       </c>
       <c r="C72" t="n">
-        <v>0.708745</v>
+        <v>1.4413</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6829809999999999</v>
+        <v>0.770795</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.727826</v>
+        <v>0.760588</v>
       </c>
       <c r="C73" t="n">
-        <v>0.688541</v>
+        <v>1.53548</v>
       </c>
       <c r="D73" t="n">
-        <v>0.663258</v>
+        <v>0.71048</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.718538</v>
+        <v>0.741932</v>
       </c>
       <c r="C74" t="n">
-        <v>0.670714</v>
+        <v>1.56433</v>
       </c>
       <c r="D74" t="n">
-        <v>0.646618</v>
+        <v>0.689968</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.696619</v>
+        <v>0.736789</v>
       </c>
       <c r="C75" t="n">
-        <v>0.672554</v>
+        <v>1.49494</v>
       </c>
       <c r="D75" t="n">
-        <v>0.637158</v>
+        <v>0.682921</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6785060000000001</v>
+        <v>0.720373</v>
       </c>
       <c r="C76" t="n">
-        <v>0.643447</v>
+        <v>1.47467</v>
       </c>
       <c r="D76" t="n">
-        <v>0.62463</v>
+        <v>0.668954</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.680302</v>
+        <v>0.696528</v>
       </c>
       <c r="C77" t="n">
-        <v>0.628275</v>
+        <v>1.43097</v>
       </c>
       <c r="D77" t="n">
-        <v>0.612225</v>
+        <v>0.6641089999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6834519999999999</v>
+        <v>0.695636</v>
       </c>
       <c r="C78" t="n">
-        <v>0.626046</v>
+        <v>1.40495</v>
       </c>
       <c r="D78" t="n">
-        <v>0.61093</v>
+        <v>0.627631</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6744059999999999</v>
+        <v>0.672916</v>
       </c>
       <c r="C79" t="n">
-        <v>0.616489</v>
+        <v>2.05032</v>
       </c>
       <c r="D79" t="n">
-        <v>0.623636</v>
+        <v>0.629763</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653737</v>
+        <v>0.658125</v>
       </c>
       <c r="C80" t="n">
-        <v>0.610975</v>
+        <v>1.97954</v>
       </c>
       <c r="D80" t="n">
-        <v>0.939896</v>
+        <v>0.990605</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.944924</v>
+        <v>1.01312</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9349730000000001</v>
+        <v>1.95057</v>
       </c>
       <c r="D81" t="n">
-        <v>0.916589</v>
+        <v>0.972463</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.945206</v>
+        <v>0.95709</v>
       </c>
       <c r="C82" t="n">
-        <v>0.930155</v>
+        <v>1.95729</v>
       </c>
       <c r="D82" t="n">
-        <v>0.881035</v>
+        <v>0.919167</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.950394</v>
+        <v>0.959649</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9032210000000001</v>
+        <v>1.96598</v>
       </c>
       <c r="D83" t="n">
-        <v>0.850796</v>
+        <v>0.910685</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.910875</v>
+        <v>0.917574</v>
       </c>
       <c r="C84" t="n">
-        <v>0.869712</v>
+        <v>1.9306</v>
       </c>
       <c r="D84" t="n">
-        <v>0.861208</v>
+        <v>0.87951</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.894481</v>
+        <v>0.889892</v>
       </c>
       <c r="C85" t="n">
-        <v>0.856395</v>
+        <v>1.9185</v>
       </c>
       <c r="D85" t="n">
-        <v>0.819835</v>
+        <v>0.861417</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.875861</v>
+        <v>0.9087229999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.848611</v>
+        <v>1.89506</v>
       </c>
       <c r="D86" t="n">
-        <v>0.81936</v>
+        <v>0.833132</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8488830000000001</v>
+        <v>0.858854</v>
       </c>
       <c r="C87" t="n">
-        <v>0.810345</v>
+        <v>1.82299</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8061</v>
+        <v>0.822431</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.855518</v>
+        <v>0.844139</v>
       </c>
       <c r="C88" t="n">
-        <v>0.822228</v>
+        <v>1.79673</v>
       </c>
       <c r="D88" t="n">
-        <v>0.766404</v>
+        <v>0.82812</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.833591</v>
+        <v>0.8549290000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.777094</v>
+        <v>1.8236</v>
       </c>
       <c r="D89" t="n">
-        <v>0.752285</v>
+        <v>0.794457</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.810939</v>
+        <v>0.826681</v>
       </c>
       <c r="C90" t="n">
-        <v>0.77372</v>
+        <v>1.86956</v>
       </c>
       <c r="D90" t="n">
-        <v>0.751942</v>
+        <v>0.767338</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.787102</v>
+        <v>0.8070619999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.751959</v>
+        <v>1.83605</v>
       </c>
       <c r="D91" t="n">
-        <v>0.740141</v>
+        <v>0.77959</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781293</v>
+        <v>0.8143089999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.754862</v>
+        <v>1.85614</v>
       </c>
       <c r="D92" t="n">
-        <v>0.712469</v>
+        <v>0.755977</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.770604</v>
+        <v>0.77793</v>
       </c>
       <c r="C93" t="n">
-        <v>0.726867</v>
+        <v>1.76457</v>
       </c>
       <c r="D93" t="n">
-        <v>0.715482</v>
+        <v>0.729031</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.77551</v>
+        <v>0.7691</v>
       </c>
       <c r="C94" t="n">
-        <v>0.730497</v>
+        <v>2.46587</v>
       </c>
       <c r="D94" t="n">
-        <v>1.04649</v>
+        <v>1.0816</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10265</v>
+        <v>1.09891</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05386</v>
+        <v>2.37646</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03175</v>
+        <v>1.04663</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06011</v>
+        <v>1.05752</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05329</v>
+        <v>2.37491</v>
       </c>
       <c r="D96" t="n">
-        <v>0.994549</v>
+        <v>1.07721</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06248</v>
+        <v>1.06801</v>
       </c>
       <c r="C97" t="n">
-        <v>1.00538</v>
+        <v>2.34501</v>
       </c>
       <c r="D97" t="n">
-        <v>0.984677</v>
+        <v>1.04932</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03053</v>
+        <v>1.04748</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01877</v>
+        <v>2.38354</v>
       </c>
       <c r="D98" t="n">
-        <v>0.982466</v>
+        <v>1.01423</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9965580000000001</v>
+        <v>1.02305</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9851220000000001</v>
+        <v>2.29522</v>
       </c>
       <c r="D99" t="n">
-        <v>0.953117</v>
+        <v>0.96225</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01344</v>
+        <v>1.03569</v>
       </c>
       <c r="C100" t="n">
-        <v>0.967342</v>
+        <v>2.30801</v>
       </c>
       <c r="D100" t="n">
-        <v>0.946619</v>
+        <v>0.9489570000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.975155</v>
+        <v>0.9756089999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.960357</v>
+        <v>2.21376</v>
       </c>
       <c r="D101" t="n">
-        <v>0.918625</v>
+        <v>0.9372509999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9867010000000001</v>
+        <v>0.984185</v>
       </c>
       <c r="C102" t="n">
-        <v>0.950032</v>
+        <v>2.17882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.921589</v>
+        <v>0.921671</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.965197</v>
+        <v>0.956166</v>
       </c>
       <c r="C103" t="n">
-        <v>0.939343</v>
+        <v>2.14461</v>
       </c>
       <c r="D103" t="n">
-        <v>0.889556</v>
+        <v>0.9122749999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.951929</v>
+        <v>0.959832</v>
       </c>
       <c r="C104" t="n">
-        <v>0.921894</v>
+        <v>2.15168</v>
       </c>
       <c r="D104" t="n">
-        <v>0.872363</v>
+        <v>0.902428</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.931957</v>
+        <v>0.938773</v>
       </c>
       <c r="C105" t="n">
-        <v>0.907491</v>
+        <v>2.12885</v>
       </c>
       <c r="D105" t="n">
-        <v>0.866324</v>
+        <v>0.886903</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.915451</v>
+        <v>0.935922</v>
       </c>
       <c r="C106" t="n">
-        <v>0.893611</v>
+        <v>2.07523</v>
       </c>
       <c r="D106" t="n">
-        <v>0.84514</v>
+        <v>0.86646</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.90845</v>
+        <v>0.919551</v>
       </c>
       <c r="C107" t="n">
-        <v>0.87043</v>
+        <v>2.09441</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8170539999999999</v>
+        <v>0.879182</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.905768</v>
+        <v>0.906361</v>
       </c>
       <c r="C108" t="n">
-        <v>0.871403</v>
+        <v>2.85433</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17224</v>
+        <v>1.20047</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.906192</v>
+        <v>0.890158</v>
       </c>
       <c r="C109" t="n">
-        <v>0.867599</v>
+        <v>2.78255</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1491</v>
+        <v>1.21987</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19312</v>
+        <v>1.22959</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19108</v>
+        <v>2.72188</v>
       </c>
       <c r="D110" t="n">
-        <v>1.14498</v>
+        <v>1.18959</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22285</v>
+        <v>1.19768</v>
       </c>
       <c r="C111" t="n">
-        <v>1.17848</v>
+        <v>2.68166</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14048</v>
+        <v>1.15559</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.19389</v>
+        <v>1.18599</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18292</v>
+        <v>2.62113</v>
       </c>
       <c r="D112" t="n">
-        <v>1.11341</v>
+        <v>1.15598</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17523</v>
+        <v>1.18083</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16484</v>
+        <v>2.57495</v>
       </c>
       <c r="D113" t="n">
-        <v>1.10056</v>
+        <v>1.12869</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15366</v>
+        <v>1.17516</v>
       </c>
       <c r="C114" t="n">
-        <v>1.14633</v>
+        <v>2.56754</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1227</v>
+        <v>1.11824</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15774</v>
+        <v>1.15417</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1415</v>
+        <v>2.60311</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08358</v>
+        <v>1.10947</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16035</v>
+        <v>1.14867</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15158</v>
+        <v>2.53262</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0831</v>
+        <v>1.12459</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14026</v>
+        <v>1.15525</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11719</v>
+        <v>2.51302</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08893</v>
+        <v>1.12726</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13899</v>
+        <v>1.12763</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12944</v>
+        <v>2.45023</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05286</v>
+        <v>1.09281</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11528</v>
+        <v>1.1096</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10437</v>
+        <v>2.40096</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03278</v>
+        <v>1.08867</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11638</v>
+        <v>1.16571</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11063</v>
+        <v>2.36178</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04705</v>
+        <v>1.0743</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09846</v>
+        <v>1.11195</v>
       </c>
       <c r="C121" t="n">
-        <v>1.11755</v>
+        <v>2.33868</v>
       </c>
       <c r="D121" t="n">
-        <v>1.04923</v>
+        <v>1.07207</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.11335</v>
+        <v>1.14424</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07994</v>
+        <v>3.11306</v>
       </c>
       <c r="D122" t="n">
-        <v>1.03152</v>
+        <v>1.0582</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.12984</v>
+        <v>1.12021</v>
       </c>
       <c r="C123" t="n">
-        <v>1.10353</v>
+        <v>3.22769</v>
       </c>
       <c r="D123" t="n">
-        <v>1.41301</v>
+        <v>1.41876</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.43338</v>
+        <v>1.4252</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42279</v>
+        <v>3.09711</v>
       </c>
       <c r="D124" t="n">
-        <v>1.38975</v>
+        <v>1.44731</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.40966</v>
+        <v>1.44829</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41867</v>
+        <v>3.05712</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37485</v>
+        <v>1.41671</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42289</v>
+        <v>1.41507</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42396</v>
+        <v>2.97615</v>
       </c>
       <c r="D126" t="n">
-        <v>1.37476</v>
+        <v>1.42608</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.43201</v>
+        <v>1.40816</v>
       </c>
       <c r="C127" t="n">
-        <v>1.4168</v>
+        <v>2.87113</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3858</v>
+        <v>1.39543</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42385</v>
+        <v>1.42982</v>
       </c>
       <c r="C128" t="n">
-        <v>1.4065</v>
+        <v>2.84504</v>
       </c>
       <c r="D128" t="n">
-        <v>1.3793</v>
+        <v>1.40228</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.40391</v>
+        <v>1.41879</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41865</v>
+        <v>2.79477</v>
       </c>
       <c r="D129" t="n">
-        <v>1.37259</v>
+        <v>1.40158</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39847</v>
+        <v>1.39786</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41219</v>
+        <v>2.71057</v>
       </c>
       <c r="D130" t="n">
-        <v>1.37004</v>
+        <v>1.40872</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.42361</v>
+        <v>1.41126</v>
       </c>
       <c r="C131" t="n">
-        <v>1.41241</v>
+        <v>2.66533</v>
       </c>
       <c r="D131" t="n">
-        <v>1.38814</v>
+        <v>1.39779</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42453</v>
+        <v>1.42594</v>
       </c>
       <c r="C132" t="n">
-        <v>1.39194</v>
+        <v>2.75756</v>
       </c>
       <c r="D132" t="n">
-        <v>1.35514</v>
+        <v>1.3867</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.41354</v>
+        <v>1.41694</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38566</v>
+        <v>2.68501</v>
       </c>
       <c r="D133" t="n">
-        <v>1.36242</v>
+        <v>1.39685</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.38598</v>
+        <v>1.40189</v>
       </c>
       <c r="C134" t="n">
-        <v>1.38226</v>
+        <v>2.64148</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36203</v>
+        <v>1.40478</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.38994</v>
+        <v>1.39855</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41368</v>
+        <v>2.62322</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35056</v>
+        <v>1.40053</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39586</v>
+        <v>1.42257</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3972</v>
+        <v>3.51347</v>
       </c>
       <c r="D136" t="n">
-        <v>1.37742</v>
+        <v>1.38083</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41849</v>
+        <v>1.4198</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39465</v>
+        <v>3.42336</v>
       </c>
       <c r="D137" t="n">
-        <v>1.72876</v>
+        <v>1.76888</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.72533</v>
+        <v>1.72797</v>
       </c>
       <c r="C138" t="n">
-        <v>1.73194</v>
+        <v>3.34318</v>
       </c>
       <c r="D138" t="n">
-        <v>1.69527</v>
+        <v>1.78314</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.71806</v>
+        <v>1.74325</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73096</v>
+        <v>3.27929</v>
       </c>
       <c r="D139" t="n">
-        <v>1.70858</v>
+        <v>1.75848</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71273</v>
+        <v>1.73008</v>
       </c>
       <c r="C140" t="n">
-        <v>1.73335</v>
+        <v>3.30836</v>
       </c>
       <c r="D140" t="n">
-        <v>1.70793</v>
+        <v>1.74867</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.70378</v>
+        <v>1.7403</v>
       </c>
       <c r="C141" t="n">
-        <v>1.71285</v>
+        <v>3.22028</v>
       </c>
       <c r="D141" t="n">
-        <v>1.70831</v>
+        <v>1.74144</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.695</v>
+        <v>1.73153</v>
       </c>
       <c r="C142" t="n">
-        <v>1.72069</v>
+        <v>3.15702</v>
       </c>
       <c r="D142" t="n">
-        <v>1.70713</v>
+        <v>1.73254</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70987</v>
+        <v>1.70787</v>
       </c>
       <c r="C143" t="n">
-        <v>1.72601</v>
+        <v>3.09018</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7054</v>
+        <v>1.75118</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.158876</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.161214</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.155941</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.151916</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.150106</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.148802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.149237</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.140723</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.210905</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.198261</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.204428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.196456</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.177931</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.170107</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.163874</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.159725</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.157348</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.151874</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.152381</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.154995</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157347</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.237559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.220873</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.214475</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.206091</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.197067</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.192214</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.184954</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.184717</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.176078</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.170965</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.169165</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.168637</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.167198</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.163541</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.241383</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.233404</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.225761</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217497</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.207765</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.200795</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.19468</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.189512</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.183938</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.179517</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.17516</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.172927</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.171961</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.17438</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.178211</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.245341</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.23579</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.227579</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.219406</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.211736</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205172</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.196218</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.190791</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.18588</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.181958</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.178817</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177214</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177436</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.17996</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.245532</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236902</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228132</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.219607</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.213187</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.206148</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.200273</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.195172</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.189341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.185412</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181546</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.180116</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.179348</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.182272</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.259263</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.251205</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.2435</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.235615</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.228388</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.221376</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.214945</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.208247</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.202942</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.197737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.193751</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.190759</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.189849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.190332</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.278685</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.272544</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.265182</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.258313</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.251306</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.244968</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.238935</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.23311</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.227571</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.223329</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.218763</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.215284</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.213046</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.212911</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.214607</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.288817</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.28218</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.275825</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.269577</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.263923</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.258708</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.253064</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.248715</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.24411</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.240326</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.237178</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.234517</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.236811</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.234526</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.318667</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.312584</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306993</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.301362</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.296711</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.29159</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.287093</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.283405</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.280238</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275407</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.272868</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270697</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.270941</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.277476</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.379316</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.373187</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.366806</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.362246</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.356714</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.352186</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.242276</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.245317</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.238347</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.248739</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.239565</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.253177</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.303239</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.293143</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.289925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.280454</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.280751</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.276354</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.277223</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.275769</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.267259</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.271819</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.267378</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.26539</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.275272</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.277668</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.335169</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.328025</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.317668</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.310287</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.303702</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.315946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.318479</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.309369</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.300635</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.306206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.303272</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.301406</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.300323</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.302527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.303998</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.355212</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.348006</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.341682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.330945</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.33383</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.3284</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.322896</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.319092</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.315296</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.311465</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.310595</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.311461</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.312306</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.315883</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.376165</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.366457</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.356919</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.348636</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.34225</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.349186</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.342571</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.338049</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.330812</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.328029</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.325825</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.325188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.326234</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.328388</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.394765</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.383521</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.373421</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.363382</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.355342</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.359583</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.353516</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.347095</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.343045</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.33957</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.335342</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.335714</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.335851</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.337831</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.417771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.409385</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.398219</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.388863</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.379638</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.380784</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.374844</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.367629</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.363659</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.35982</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.357441</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.354621</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.35597</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.35806</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.361104</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.460271</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.448516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.438966</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.429595</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.431839</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.425911</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.419946</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.415513</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.412338</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.411588</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.411164</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.414228</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.419344</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.42665</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.549334</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.536852</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.524792</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.514422</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.515606</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.507982</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.500902</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.494814</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.491499</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.491159</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.501803</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.513307</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.528149</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.676284</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.6586689999999999</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.643774</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.629144</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.61551</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.6149019999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.603787</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.595767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.582529</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.582479</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.583156</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.592506</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.60753</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.626672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.798616</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.778193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.757042</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.73654</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.720079</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.718014</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.70311</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.691505</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.146893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131691</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.137036</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.131842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.125616</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.121087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.121584</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.194024</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.184754</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.180606</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.174134</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.171019</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.162719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.155949</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.152252</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.149936</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.140064</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.137412</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.136896</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.131549</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138279</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.226752</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217993</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.211366</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.201647</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.195417</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.187558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.176767</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.17144</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162653</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.158209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.156432</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.152501</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149703</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148753</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.227069</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.217668</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.209495</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.201759</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.194217</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.18695</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.180087</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.173936</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.168134</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.163137</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.158203</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.154742</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.152434</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.152332</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.239051</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.229893</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.220943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204206</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.196844</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182825</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.174747</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.168998</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.164893</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.160717</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158017</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.156965</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158007</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235105</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.226133</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.217421</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209352</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201509</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.194248</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.187578</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.18116</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.175182</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.170499</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.166167</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.163124</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.161408</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.162135</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.239824</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.231207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.223021</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.214563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.207392</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.199601</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.192903</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.18693</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.18099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.175736</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.171048</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.167716</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.16583</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.165434</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.268553</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.260033</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.252128</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.243344</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.235396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.227774</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.220711</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.214081</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.20743</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.201386</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.1967</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.192345</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.189046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.18825</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27939</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.272222</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.264317</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.255839</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.248083</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.241457</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.234387</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.227987</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.22155</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.216636</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.212065</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.207207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.204174</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.20283</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.203562</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.289005</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.281919</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.27536</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.269401</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.264112</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.25879</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.254136</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.252103</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.247631</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.243658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.240053</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.237326</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.236049</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.234281</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.33018</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.324289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.318664</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.312845</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.30874</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.303599</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.299485</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.628817</v>
+        <v>0.615931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.502372</v>
+        <v>0.4696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.325933</v>
+        <v>0.315145</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.362439</v>
+        <v>0.373531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302557</v>
+        <v>0.311858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.310368</v>
+        <v>0.312881</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.350122</v>
+        <v>0.356104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.305551</v>
+        <v>0.310994</v>
       </c>
       <c r="D4" t="n">
-        <v>0.312702</v>
+        <v>0.289285</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.349969</v>
+        <v>0.338977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.298803</v>
+        <v>0.300535</v>
       </c>
       <c r="D5" t="n">
-        <v>0.305861</v>
+        <v>0.294436</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.342444</v>
+        <v>0.343029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.292476</v>
+        <v>0.285597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.303082</v>
+        <v>0.296919</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.342044</v>
+        <v>0.342586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.286074</v>
+        <v>0.286206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291466</v>
+        <v>0.283992</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.348007</v>
+        <v>0.328984</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279941</v>
+        <v>0.282224</v>
       </c>
       <c r="D8" t="n">
-        <v>0.302186</v>
+        <v>0.282629</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.339249</v>
+        <v>0.338487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.28397</v>
+        <v>0.269214</v>
       </c>
       <c r="D9" t="n">
-        <v>0.655752</v>
+        <v>0.6446809999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.584183</v>
+        <v>0.597036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5414639999999999</v>
+        <v>0.55635</v>
       </c>
       <c r="D10" t="n">
-        <v>0.629595</v>
+        <v>0.618818</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556083</v>
+        <v>0.560752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.52588</v>
+        <v>0.527767</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6053269999999999</v>
+        <v>0.574178</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5675789999999999</v>
+        <v>0.537076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.520323</v>
+        <v>0.505116</v>
       </c>
       <c r="D12" t="n">
-        <v>0.572693</v>
+        <v>0.563299</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.539142</v>
+        <v>0.5345259999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.484083</v>
+        <v>0.489896</v>
       </c>
       <c r="D13" t="n">
-        <v>0.552446</v>
+        <v>0.564778</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.50254</v>
+        <v>0.52785</v>
       </c>
       <c r="C14" t="n">
-        <v>0.477025</v>
+        <v>0.481399</v>
       </c>
       <c r="D14" t="n">
-        <v>0.525149</v>
+        <v>0.5339390000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482797</v>
+        <v>0.491963</v>
       </c>
       <c r="C15" t="n">
-        <v>0.458751</v>
+        <v>0.470053</v>
       </c>
       <c r="D15" t="n">
-        <v>0.508694</v>
+        <v>0.503146</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.483799</v>
+        <v>0.475938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.437818</v>
+        <v>0.437133</v>
       </c>
       <c r="D16" t="n">
-        <v>0.489559</v>
+        <v>0.495707</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.472165</v>
+        <v>0.476111</v>
       </c>
       <c r="C17" t="n">
-        <v>0.427507</v>
+        <v>0.431866</v>
       </c>
       <c r="D17" t="n">
-        <v>0.471332</v>
+        <v>0.474761</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460289</v>
+        <v>0.462194</v>
       </c>
       <c r="C18" t="n">
-        <v>0.419689</v>
+        <v>0.411504</v>
       </c>
       <c r="D18" t="n">
-        <v>0.476643</v>
+        <v>0.450123</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439587</v>
+        <v>0.460017</v>
       </c>
       <c r="C19" t="n">
-        <v>0.403724</v>
+        <v>0.40378</v>
       </c>
       <c r="D19" t="n">
-        <v>0.444239</v>
+        <v>0.424557</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428238</v>
+        <v>0.419294</v>
       </c>
       <c r="C20" t="n">
-        <v>0.397948</v>
+        <v>0.373934</v>
       </c>
       <c r="D20" t="n">
-        <v>0.440835</v>
+        <v>0.413434</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415254</v>
+        <v>0.409599</v>
       </c>
       <c r="C21" t="n">
-        <v>0.390946</v>
+        <v>0.364571</v>
       </c>
       <c r="D21" t="n">
-        <v>0.430171</v>
+        <v>0.402186</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.419999</v>
+        <v>0.40339</v>
       </c>
       <c r="C22" t="n">
-        <v>0.374935</v>
+        <v>0.371155</v>
       </c>
       <c r="D22" t="n">
-        <v>0.41844</v>
+        <v>0.397937</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407462</v>
+        <v>0.398043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.364646</v>
+        <v>0.351257</v>
       </c>
       <c r="D23" t="n">
-        <v>0.567534</v>
+        <v>0.543426</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.668547</v>
+        <v>0.657344</v>
       </c>
       <c r="C24" t="n">
-        <v>0.650672</v>
+        <v>0.618897</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539277</v>
+        <v>0.55226</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.655264</v>
+        <v>0.642144</v>
       </c>
       <c r="C25" t="n">
-        <v>0.62171</v>
+        <v>0.602063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.520962</v>
+        <v>0.5080249999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.635798</v>
+        <v>0.620217</v>
       </c>
       <c r="C26" t="n">
-        <v>0.599994</v>
+        <v>0.599483</v>
       </c>
       <c r="D26" t="n">
-        <v>0.513697</v>
+        <v>0.499063</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.605649</v>
+        <v>0.627261</v>
       </c>
       <c r="C27" t="n">
-        <v>0.580341</v>
+        <v>0.556389</v>
       </c>
       <c r="D27" t="n">
-        <v>0.492431</v>
+        <v>0.475468</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.587448</v>
+        <v>0.61068</v>
       </c>
       <c r="C28" t="n">
-        <v>0.56098</v>
+        <v>0.574958</v>
       </c>
       <c r="D28" t="n">
-        <v>0.488271</v>
+        <v>0.460631</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5767370000000001</v>
+        <v>0.573312</v>
       </c>
       <c r="C29" t="n">
-        <v>0.550377</v>
+        <v>0.520186</v>
       </c>
       <c r="D29" t="n">
-        <v>0.462004</v>
+        <v>0.446333</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5574210000000001</v>
+        <v>0.542156</v>
       </c>
       <c r="C30" t="n">
-        <v>0.510736</v>
+        <v>0.504105</v>
       </c>
       <c r="D30" t="n">
-        <v>0.450118</v>
+        <v>0.426599</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.552496</v>
+        <v>0.541663</v>
       </c>
       <c r="C31" t="n">
-        <v>0.50571</v>
+        <v>0.488371</v>
       </c>
       <c r="D31" t="n">
-        <v>0.439585</v>
+        <v>0.414254</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.535992</v>
+        <v>0.530504</v>
       </c>
       <c r="C32" t="n">
-        <v>0.485478</v>
+        <v>0.472419</v>
       </c>
       <c r="D32" t="n">
-        <v>0.42896</v>
+        <v>0.409229</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.520958</v>
+        <v>0.514699</v>
       </c>
       <c r="C33" t="n">
-        <v>0.476297</v>
+        <v>0.457967</v>
       </c>
       <c r="D33" t="n">
-        <v>0.423609</v>
+        <v>0.396237</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.497436</v>
+        <v>0.490323</v>
       </c>
       <c r="C34" t="n">
-        <v>0.457275</v>
+        <v>0.442437</v>
       </c>
       <c r="D34" t="n">
-        <v>0.399209</v>
+        <v>0.384069</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.496163</v>
+        <v>0.473983</v>
       </c>
       <c r="C35" t="n">
-        <v>0.443889</v>
+        <v>0.442977</v>
       </c>
       <c r="D35" t="n">
-        <v>0.389634</v>
+        <v>0.378319</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.490649</v>
+        <v>0.467553</v>
       </c>
       <c r="C36" t="n">
-        <v>0.428054</v>
+        <v>0.432516</v>
       </c>
       <c r="D36" t="n">
-        <v>0.391793</v>
+        <v>0.393348</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.46883</v>
+        <v>0.456037</v>
       </c>
       <c r="C37" t="n">
-        <v>0.421184</v>
+        <v>0.433678</v>
       </c>
       <c r="D37" t="n">
-        <v>0.693358</v>
+        <v>0.653077</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7516</v>
+        <v>0.744581</v>
       </c>
       <c r="C38" t="n">
-        <v>0.698495</v>
+        <v>0.70673</v>
       </c>
       <c r="D38" t="n">
-        <v>0.660984</v>
+        <v>0.64306</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.717441</v>
+        <v>0.709975</v>
       </c>
       <c r="C39" t="n">
-        <v>0.664597</v>
+        <v>0.681643</v>
       </c>
       <c r="D39" t="n">
-        <v>0.647867</v>
+        <v>0.6125080000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6853399999999999</v>
+        <v>0.695257</v>
       </c>
       <c r="C40" t="n">
-        <v>0.651511</v>
+        <v>0.648406</v>
       </c>
       <c r="D40" t="n">
-        <v>0.599379</v>
+        <v>0.590195</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.679891</v>
+        <v>0.679111</v>
       </c>
       <c r="C41" t="n">
-        <v>0.634653</v>
+        <v>0.63049</v>
       </c>
       <c r="D41" t="n">
-        <v>0.604358</v>
+        <v>0.590121</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.624273</v>
+        <v>0.678751</v>
       </c>
       <c r="C42" t="n">
-        <v>0.603315</v>
+        <v>0.608897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.54748</v>
+        <v>0.569654</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.609824</v>
+        <v>0.631041</v>
       </c>
       <c r="C43" t="n">
-        <v>0.572275</v>
+        <v>0.603498</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5388039999999999</v>
+        <v>0.549196</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.604665</v>
+        <v>0.629345</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5524250000000001</v>
+        <v>0.57547</v>
       </c>
       <c r="D44" t="n">
-        <v>0.514436</v>
+        <v>0.527708</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.591468</v>
+        <v>0.594633</v>
       </c>
       <c r="C45" t="n">
-        <v>0.550609</v>
+        <v>0.5558</v>
       </c>
       <c r="D45" t="n">
-        <v>0.531008</v>
+        <v>0.514864</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5671119999999999</v>
+        <v>0.573728</v>
       </c>
       <c r="C46" t="n">
-        <v>0.543039</v>
+        <v>0.557928</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4942</v>
+        <v>0.494765</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.56765</v>
+        <v>0.563701</v>
       </c>
       <c r="C47" t="n">
-        <v>0.539571</v>
+        <v>0.528268</v>
       </c>
       <c r="D47" t="n">
-        <v>0.483982</v>
+        <v>0.483814</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.552045</v>
+        <v>0.539703</v>
       </c>
       <c r="C48" t="n">
-        <v>0.510533</v>
+        <v>0.509961</v>
       </c>
       <c r="D48" t="n">
-        <v>0.476608</v>
+        <v>0.471025</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.531937</v>
+        <v>0.54305</v>
       </c>
       <c r="C49" t="n">
-        <v>0.493374</v>
+        <v>0.486769</v>
       </c>
       <c r="D49" t="n">
-        <v>0.476606</v>
+        <v>0.474025</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.521949</v>
+        <v>0.535102</v>
       </c>
       <c r="C50" t="n">
-        <v>0.483207</v>
+        <v>0.488132</v>
       </c>
       <c r="D50" t="n">
-        <v>0.460372</v>
+        <v>0.450851</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5173720000000001</v>
+        <v>0.525122</v>
       </c>
       <c r="C51" t="n">
-        <v>0.464001</v>
+        <v>0.474559</v>
       </c>
       <c r="D51" t="n">
-        <v>0.774278</v>
+        <v>0.728527</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.503843</v>
+        <v>0.503105</v>
       </c>
       <c r="C52" t="n">
-        <v>0.462892</v>
+        <v>0.461187</v>
       </c>
       <c r="D52" t="n">
-        <v>0.725978</v>
+        <v>0.718947</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.785337</v>
+        <v>0.768733</v>
       </c>
       <c r="C53" t="n">
-        <v>0.730268</v>
+        <v>0.722537</v>
       </c>
       <c r="D53" t="n">
-        <v>0.691239</v>
+        <v>0.685378</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.742976</v>
+        <v>0.748664</v>
       </c>
       <c r="C54" t="n">
-        <v>0.725511</v>
+        <v>0.7185510000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.680091</v>
+        <v>0.677424</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.736089</v>
+        <v>0.725147</v>
       </c>
       <c r="C55" t="n">
-        <v>0.705578</v>
+        <v>0.690487</v>
       </c>
       <c r="D55" t="n">
-        <v>0.653771</v>
+        <v>0.650363</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.712419</v>
+        <v>0.708296</v>
       </c>
       <c r="C56" t="n">
-        <v>0.670713</v>
+        <v>0.686848</v>
       </c>
       <c r="D56" t="n">
-        <v>0.666353</v>
+        <v>0.641886</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.713877</v>
+        <v>0.690752</v>
       </c>
       <c r="C57" t="n">
-        <v>0.655066</v>
+        <v>0.644929</v>
       </c>
       <c r="D57" t="n">
-        <v>0.636335</v>
+        <v>0.608302</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.686566</v>
+        <v>0.673266</v>
       </c>
       <c r="C58" t="n">
-        <v>0.632468</v>
+        <v>0.617749</v>
       </c>
       <c r="D58" t="n">
-        <v>0.605179</v>
+        <v>0.617413</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.657844</v>
+        <v>0.6649080000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.618618</v>
+        <v>0.610602</v>
       </c>
       <c r="D59" t="n">
-        <v>0.586546</v>
+        <v>0.574567</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.64155</v>
+        <v>0.6292759999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.603774</v>
+        <v>0.585784</v>
       </c>
       <c r="D60" t="n">
-        <v>0.579468</v>
+        <v>0.559999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.62939</v>
+        <v>0.616698</v>
       </c>
       <c r="C61" t="n">
-        <v>0.583082</v>
+        <v>0.580019</v>
       </c>
       <c r="D61" t="n">
-        <v>0.572708</v>
+        <v>0.547442</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609907</v>
+        <v>0.613456</v>
       </c>
       <c r="C62" t="n">
-        <v>0.586139</v>
+        <v>0.588475</v>
       </c>
       <c r="D62" t="n">
-        <v>0.556741</v>
+        <v>0.550266</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.592974</v>
+        <v>0.619621</v>
       </c>
       <c r="C63" t="n">
-        <v>0.559014</v>
+        <v>0.555237</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560778</v>
+        <v>0.555214</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.59765</v>
+        <v>0.606584</v>
       </c>
       <c r="C64" t="n">
-        <v>0.546606</v>
+        <v>0.543914</v>
       </c>
       <c r="D64" t="n">
-        <v>0.519903</v>
+        <v>0.520817</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5709920000000001</v>
+        <v>0.588623</v>
       </c>
       <c r="C65" t="n">
-        <v>0.540439</v>
+        <v>0.525286</v>
       </c>
       <c r="D65" t="n">
-        <v>0.526297</v>
+        <v>0.523301</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.578211</v>
+        <v>0.573774</v>
       </c>
       <c r="C66" t="n">
-        <v>0.535562</v>
+        <v>0.526363</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8497710000000001</v>
+        <v>0.825464</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.887402</v>
+        <v>0.880786</v>
       </c>
       <c r="C67" t="n">
-        <v>0.83877</v>
+        <v>0.857837</v>
       </c>
       <c r="D67" t="n">
-        <v>0.806407</v>
+        <v>0.811051</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.855067</v>
+        <v>0.832375</v>
       </c>
       <c r="C68" t="n">
-        <v>0.810002</v>
+        <v>0.808627</v>
       </c>
       <c r="D68" t="n">
-        <v>0.799084</v>
+        <v>0.7778119999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.84504</v>
+        <v>0.8220769999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.786426</v>
+        <v>0.780335</v>
       </c>
       <c r="D69" t="n">
-        <v>0.758294</v>
+        <v>0.748184</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.820016</v>
+        <v>0.818258</v>
       </c>
       <c r="C70" t="n">
-        <v>0.773941</v>
+        <v>0.766796</v>
       </c>
       <c r="D70" t="n">
-        <v>0.738568</v>
+        <v>0.723763</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.770448</v>
+        <v>0.804204</v>
       </c>
       <c r="C71" t="n">
-        <v>0.737784</v>
+        <v>0.739906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.716635</v>
+        <v>0.708719</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.752989</v>
+        <v>0.766402</v>
       </c>
       <c r="C72" t="n">
-        <v>0.708745</v>
+        <v>0.70308</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6829809999999999</v>
+        <v>0.696268</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.727826</v>
+        <v>0.753241</v>
       </c>
       <c r="C73" t="n">
-        <v>0.688541</v>
+        <v>0.702186</v>
       </c>
       <c r="D73" t="n">
-        <v>0.663258</v>
+        <v>0.663496</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.718538</v>
+        <v>0.729438</v>
       </c>
       <c r="C74" t="n">
-        <v>0.670714</v>
+        <v>0.681553</v>
       </c>
       <c r="D74" t="n">
-        <v>0.646618</v>
+        <v>0.662721</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.696619</v>
+        <v>0.716527</v>
       </c>
       <c r="C75" t="n">
-        <v>0.672554</v>
+        <v>0.669494</v>
       </c>
       <c r="D75" t="n">
-        <v>0.637158</v>
+        <v>0.660121</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6785060000000001</v>
+        <v>0.720696</v>
       </c>
       <c r="C76" t="n">
-        <v>0.643447</v>
+        <v>0.662179</v>
       </c>
       <c r="D76" t="n">
-        <v>0.62463</v>
+        <v>0.643329</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.680302</v>
+        <v>0.6968220000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.628275</v>
+        <v>0.648618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.612225</v>
+        <v>0.604928</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6834519999999999</v>
+        <v>0.688263</v>
       </c>
       <c r="C78" t="n">
-        <v>0.626046</v>
+        <v>0.625502</v>
       </c>
       <c r="D78" t="n">
-        <v>0.61093</v>
+        <v>0.6017</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6744059999999999</v>
+        <v>0.677208</v>
       </c>
       <c r="C79" t="n">
-        <v>0.616489</v>
+        <v>0.61779</v>
       </c>
       <c r="D79" t="n">
-        <v>0.623636</v>
+        <v>0.594876</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653737</v>
+        <v>0.653294</v>
       </c>
       <c r="C80" t="n">
-        <v>0.610975</v>
+        <v>0.6148169999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.939896</v>
+        <v>0.927487</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.944924</v>
+        <v>0.972071</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9349730000000001</v>
+        <v>0.956999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.916589</v>
+        <v>0.938908</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.945206</v>
+        <v>0.98112</v>
       </c>
       <c r="C82" t="n">
-        <v>0.930155</v>
+        <v>0.939233</v>
       </c>
       <c r="D82" t="n">
-        <v>0.881035</v>
+        <v>0.901033</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.950394</v>
+        <v>0.943289</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9032210000000001</v>
+        <v>0.896062</v>
       </c>
       <c r="D83" t="n">
-        <v>0.850796</v>
+        <v>0.89568</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.910875</v>
+        <v>0.930276</v>
       </c>
       <c r="C84" t="n">
-        <v>0.869712</v>
+        <v>0.8895729999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.861208</v>
+        <v>0.847979</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.894481</v>
+        <v>0.896547</v>
       </c>
       <c r="C85" t="n">
-        <v>0.856395</v>
+        <v>0.899658</v>
       </c>
       <c r="D85" t="n">
-        <v>0.819835</v>
+        <v>0.83352</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.875861</v>
+        <v>0.870688</v>
       </c>
       <c r="C86" t="n">
-        <v>0.848611</v>
+        <v>0.852949</v>
       </c>
       <c r="D86" t="n">
-        <v>0.81936</v>
+        <v>0.8198</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8488830000000001</v>
+        <v>0.862025</v>
       </c>
       <c r="C87" t="n">
-        <v>0.810345</v>
+        <v>0.845742</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8061</v>
+        <v>0.801521</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.855518</v>
+        <v>0.850075</v>
       </c>
       <c r="C88" t="n">
-        <v>0.822228</v>
+        <v>0.809187</v>
       </c>
       <c r="D88" t="n">
-        <v>0.766404</v>
+        <v>0.777567</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.833591</v>
+        <v>0.831565</v>
       </c>
       <c r="C89" t="n">
-        <v>0.777094</v>
+        <v>0.791539</v>
       </c>
       <c r="D89" t="n">
-        <v>0.752285</v>
+        <v>0.787182</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.810939</v>
+        <v>0.81677</v>
       </c>
       <c r="C90" t="n">
-        <v>0.77372</v>
+        <v>0.771603</v>
       </c>
       <c r="D90" t="n">
-        <v>0.751942</v>
+        <v>0.7517509999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.787102</v>
+        <v>0.790052</v>
       </c>
       <c r="C91" t="n">
-        <v>0.751959</v>
+        <v>0.76813</v>
       </c>
       <c r="D91" t="n">
-        <v>0.740141</v>
+        <v>0.739341</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781293</v>
+        <v>0.793268</v>
       </c>
       <c r="C92" t="n">
-        <v>0.754862</v>
+        <v>0.7488320000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.712469</v>
+        <v>0.736034</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.770604</v>
+        <v>0.763422</v>
       </c>
       <c r="C93" t="n">
-        <v>0.726867</v>
+        <v>0.718345</v>
       </c>
       <c r="D93" t="n">
-        <v>0.715482</v>
+        <v>0.711419</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.77551</v>
+        <v>0.762243</v>
       </c>
       <c r="C94" t="n">
-        <v>0.730497</v>
+        <v>0.720368</v>
       </c>
       <c r="D94" t="n">
-        <v>1.04649</v>
+        <v>1.03503</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10265</v>
+        <v>1.07004</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05386</v>
+        <v>1.03839</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03175</v>
+        <v>1.0182</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06011</v>
+        <v>1.05909</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05329</v>
+        <v>1.0369</v>
       </c>
       <c r="D96" t="n">
-        <v>0.994549</v>
+        <v>0.991522</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06248</v>
+        <v>1.05758</v>
       </c>
       <c r="C97" t="n">
-        <v>1.00538</v>
+        <v>1.00658</v>
       </c>
       <c r="D97" t="n">
-        <v>0.984677</v>
+        <v>0.973767</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03053</v>
+        <v>1.02591</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01877</v>
+        <v>1.00741</v>
       </c>
       <c r="D98" t="n">
-        <v>0.982466</v>
+        <v>0.957997</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9965580000000001</v>
+        <v>1.00745</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9851220000000001</v>
+        <v>0.998272</v>
       </c>
       <c r="D99" t="n">
-        <v>0.953117</v>
+        <v>0.940019</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01344</v>
+        <v>0.978784</v>
       </c>
       <c r="C100" t="n">
-        <v>0.967342</v>
+        <v>0.979548</v>
       </c>
       <c r="D100" t="n">
-        <v>0.946619</v>
+        <v>0.9259269999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.975155</v>
+        <v>0.991845</v>
       </c>
       <c r="C101" t="n">
-        <v>0.960357</v>
+        <v>0.9504089999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.918625</v>
+        <v>0.899508</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9867010000000001</v>
+        <v>0.973669</v>
       </c>
       <c r="C102" t="n">
-        <v>0.950032</v>
+        <v>0.9260429999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.921589</v>
+        <v>0.877512</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.965197</v>
+        <v>0.945145</v>
       </c>
       <c r="C103" t="n">
-        <v>0.939343</v>
+        <v>0.92776</v>
       </c>
       <c r="D103" t="n">
-        <v>0.889556</v>
+        <v>0.867387</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.951929</v>
+        <v>0.935989</v>
       </c>
       <c r="C104" t="n">
-        <v>0.921894</v>
+        <v>0.896444</v>
       </c>
       <c r="D104" t="n">
-        <v>0.872363</v>
+        <v>0.865591</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.931957</v>
+        <v>0.919326</v>
       </c>
       <c r="C105" t="n">
-        <v>0.907491</v>
+        <v>0.901692</v>
       </c>
       <c r="D105" t="n">
-        <v>0.866324</v>
+        <v>0.850846</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.915451</v>
+        <v>0.923775</v>
       </c>
       <c r="C106" t="n">
-        <v>0.893611</v>
+        <v>0.901461</v>
       </c>
       <c r="D106" t="n">
-        <v>0.84514</v>
+        <v>0.8444120000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.90845</v>
+        <v>0.899596</v>
       </c>
       <c r="C107" t="n">
-        <v>0.87043</v>
+        <v>0.873296</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8170539999999999</v>
+        <v>0.829371</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.905768</v>
+        <v>0.899221</v>
       </c>
       <c r="C108" t="n">
-        <v>0.871403</v>
+        <v>0.871445</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17224</v>
+        <v>1.15973</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.906192</v>
+        <v>0.908151</v>
       </c>
       <c r="C109" t="n">
-        <v>0.867599</v>
+        <v>0.866541</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1491</v>
+        <v>1.157</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19312</v>
+        <v>1.21874</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19108</v>
+        <v>1.17579</v>
       </c>
       <c r="D110" t="n">
-        <v>1.14498</v>
+        <v>1.12914</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22285</v>
+        <v>1.19649</v>
       </c>
       <c r="C111" t="n">
-        <v>1.17848</v>
+        <v>1.18941</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14048</v>
+        <v>1.13073</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.19389</v>
+        <v>1.16811</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18292</v>
+        <v>1.17321</v>
       </c>
       <c r="D112" t="n">
-        <v>1.11341</v>
+        <v>1.10737</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17523</v>
+        <v>1.17039</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16484</v>
+        <v>1.17861</v>
       </c>
       <c r="D113" t="n">
-        <v>1.10056</v>
+        <v>1.09673</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15366</v>
+        <v>1.15897</v>
       </c>
       <c r="C114" t="n">
-        <v>1.14633</v>
+        <v>1.15892</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1227</v>
+        <v>1.11264</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15774</v>
+        <v>1.16213</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1415</v>
+        <v>1.14432</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08358</v>
+        <v>1.08258</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16035</v>
+        <v>1.16238</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15158</v>
+        <v>1.13409</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0831</v>
+        <v>1.08073</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14026</v>
+        <v>1.15614</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11719</v>
+        <v>1.11566</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08893</v>
+        <v>1.08244</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13899</v>
+        <v>1.1364</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12944</v>
+        <v>1.10655</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05286</v>
+        <v>1.05169</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11528</v>
+        <v>1.13031</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10437</v>
+        <v>1.10702</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03278</v>
+        <v>1.05361</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11638</v>
+        <v>1.10741</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11063</v>
+        <v>1.10478</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04705</v>
+        <v>1.04786</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09846</v>
+        <v>1.11288</v>
       </c>
       <c r="C121" t="n">
-        <v>1.11755</v>
+        <v>1.0856</v>
       </c>
       <c r="D121" t="n">
-        <v>1.04923</v>
+        <v>1.05167</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.11335</v>
+        <v>1.08629</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07994</v>
+        <v>1.07169</v>
       </c>
       <c r="D122" t="n">
-        <v>1.03152</v>
+        <v>1.03117</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.12984</v>
+        <v>1.11527</v>
       </c>
       <c r="C123" t="n">
-        <v>1.10353</v>
+        <v>1.0859</v>
       </c>
       <c r="D123" t="n">
-        <v>1.41301</v>
+        <v>1.37528</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.43338</v>
+        <v>1.41793</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42279</v>
+        <v>1.42676</v>
       </c>
       <c r="D124" t="n">
-        <v>1.38975</v>
+        <v>1.39929</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.40966</v>
+        <v>1.42102</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41867</v>
+        <v>1.43608</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37485</v>
+        <v>1.37265</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42289</v>
+        <v>1.38727</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42396</v>
+        <v>1.35319</v>
       </c>
       <c r="D126" t="n">
-        <v>1.37476</v>
+        <v>1.32526</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.43201</v>
+        <v>1.36363</v>
       </c>
       <c r="C127" t="n">
-        <v>1.4168</v>
+        <v>1.42221</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3858</v>
+        <v>1.37119</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42385</v>
+        <v>1.4199</v>
       </c>
       <c r="C128" t="n">
-        <v>1.4065</v>
+        <v>1.42469</v>
       </c>
       <c r="D128" t="n">
-        <v>1.3793</v>
+        <v>1.35623</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.40391</v>
+        <v>1.41418</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41865</v>
+        <v>1.40463</v>
       </c>
       <c r="D129" t="n">
-        <v>1.37259</v>
+        <v>1.36969</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39847</v>
+        <v>1.42002</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41219</v>
+        <v>1.4123</v>
       </c>
       <c r="D130" t="n">
-        <v>1.37004</v>
+        <v>1.37815</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.42361</v>
+        <v>1.41144</v>
       </c>
       <c r="C131" t="n">
-        <v>1.41241</v>
+        <v>1.40056</v>
       </c>
       <c r="D131" t="n">
-        <v>1.38814</v>
+        <v>1.33373</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42453</v>
+        <v>1.42145</v>
       </c>
       <c r="C132" t="n">
-        <v>1.39194</v>
+        <v>1.38836</v>
       </c>
       <c r="D132" t="n">
-        <v>1.35514</v>
+        <v>1.3394</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.41354</v>
+        <v>1.3659</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38566</v>
+        <v>1.38391</v>
       </c>
       <c r="D133" t="n">
-        <v>1.36242</v>
+        <v>1.34746</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.38598</v>
+        <v>1.3941</v>
       </c>
       <c r="C134" t="n">
-        <v>1.38226</v>
+        <v>1.38455</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36203</v>
+        <v>1.3219</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.38994</v>
+        <v>1.34855</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41368</v>
+        <v>1.32256</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35056</v>
+        <v>1.30436</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39586</v>
+        <v>1.35062</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3972</v>
+        <v>1.3287</v>
       </c>
       <c r="D136" t="n">
-        <v>1.37742</v>
+        <v>1.32406</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41849</v>
+        <v>1.38592</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39465</v>
+        <v>1.35453</v>
       </c>
       <c r="D137" t="n">
-        <v>1.72876</v>
+        <v>1.68505</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.72533</v>
+        <v>1.66976</v>
       </c>
       <c r="C138" t="n">
-        <v>1.73194</v>
+        <v>1.6792</v>
       </c>
       <c r="D138" t="n">
-        <v>1.69527</v>
+        <v>1.70063</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.71806</v>
+        <v>1.71347</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73096</v>
+        <v>1.71238</v>
       </c>
       <c r="D139" t="n">
-        <v>1.70858</v>
+        <v>1.64508</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71273</v>
+        <v>1.68899</v>
       </c>
       <c r="C140" t="n">
-        <v>1.73335</v>
+        <v>1.63342</v>
       </c>
       <c r="D140" t="n">
-        <v>1.70793</v>
+        <v>1.64998</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.70378</v>
+        <v>1.64085</v>
       </c>
       <c r="C141" t="n">
-        <v>1.71285</v>
+        <v>1.7058</v>
       </c>
       <c r="D141" t="n">
-        <v>1.70831</v>
+        <v>1.64326</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.695</v>
+        <v>1.65577</v>
       </c>
       <c r="C142" t="n">
-        <v>1.72069</v>
+        <v>1.67481</v>
       </c>
       <c r="D142" t="n">
-        <v>1.70713</v>
+        <v>1.61703</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70987</v>
+        <v>1.68912</v>
       </c>
       <c r="C143" t="n">
-        <v>1.72601</v>
+        <v>1.65009</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7054</v>
+        <v>1.67497</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.615931</v>
+        <v>0.6270250000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4696</v>
+        <v>0.499359</v>
       </c>
       <c r="D2" t="n">
-        <v>0.315145</v>
+        <v>0.321129</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.373531</v>
+        <v>0.36332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311858</v>
+        <v>0.309527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.312881</v>
+        <v>0.30475</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.356104</v>
+        <v>0.359633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.310994</v>
+        <v>0.297123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.289285</v>
+        <v>0.306988</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.338977</v>
+        <v>0.346452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.300535</v>
+        <v>0.294518</v>
       </c>
       <c r="D5" t="n">
-        <v>0.294436</v>
+        <v>0.289514</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.343029</v>
+        <v>0.336755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.285597</v>
+        <v>0.286153</v>
       </c>
       <c r="D6" t="n">
-        <v>0.296919</v>
+        <v>0.286665</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.342586</v>
+        <v>0.329491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.286206</v>
+        <v>0.278027</v>
       </c>
       <c r="D7" t="n">
-        <v>0.283992</v>
+        <v>0.280518</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.328984</v>
+        <v>0.337288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.282224</v>
+        <v>0.274191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.282629</v>
+        <v>0.279316</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.338487</v>
+        <v>0.321469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.269214</v>
+        <v>0.273795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6446809999999999</v>
+        <v>0.6196700000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.597036</v>
+        <v>0.577356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.55635</v>
+        <v>0.542306</v>
       </c>
       <c r="D10" t="n">
-        <v>0.618818</v>
+        <v>0.611054</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.560752</v>
+        <v>0.5679</v>
       </c>
       <c r="C11" t="n">
-        <v>0.527767</v>
+        <v>0.531299</v>
       </c>
       <c r="D11" t="n">
-        <v>0.574178</v>
+        <v>0.580811</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.537076</v>
+        <v>0.553439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.505116</v>
+        <v>0.514287</v>
       </c>
       <c r="D12" t="n">
-        <v>0.563299</v>
+        <v>0.563833</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5345259999999999</v>
+        <v>0.530541</v>
       </c>
       <c r="C13" t="n">
-        <v>0.489896</v>
+        <v>0.479955</v>
       </c>
       <c r="D13" t="n">
-        <v>0.564778</v>
+        <v>0.54161</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52785</v>
+        <v>0.502613</v>
       </c>
       <c r="C14" t="n">
-        <v>0.481399</v>
+        <v>0.478477</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5339390000000001</v>
+        <v>0.516466</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.491963</v>
+        <v>0.495122</v>
       </c>
       <c r="C15" t="n">
-        <v>0.470053</v>
+        <v>0.455142</v>
       </c>
       <c r="D15" t="n">
-        <v>0.503146</v>
+        <v>0.497747</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475938</v>
+        <v>0.481955</v>
       </c>
       <c r="C16" t="n">
-        <v>0.437133</v>
+        <v>0.435884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.495707</v>
+        <v>0.489005</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.476111</v>
+        <v>0.468274</v>
       </c>
       <c r="C17" t="n">
-        <v>0.431866</v>
+        <v>0.438551</v>
       </c>
       <c r="D17" t="n">
-        <v>0.474761</v>
+        <v>0.47207</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462194</v>
+        <v>0.465877</v>
       </c>
       <c r="C18" t="n">
-        <v>0.411504</v>
+        <v>0.4129</v>
       </c>
       <c r="D18" t="n">
-        <v>0.450123</v>
+        <v>0.459186</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.460017</v>
+        <v>0.446014</v>
       </c>
       <c r="C19" t="n">
-        <v>0.40378</v>
+        <v>0.408972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.424557</v>
+        <v>0.442523</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.419294</v>
+        <v>0.431933</v>
       </c>
       <c r="C20" t="n">
-        <v>0.373934</v>
+        <v>0.399755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.413434</v>
+        <v>0.438725</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.409599</v>
+        <v>0.428376</v>
       </c>
       <c r="C21" t="n">
-        <v>0.364571</v>
+        <v>0.376137</v>
       </c>
       <c r="D21" t="n">
-        <v>0.402186</v>
+        <v>0.416754</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40339</v>
+        <v>0.424495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.371155</v>
+        <v>0.372935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.397937</v>
+        <v>0.417585</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.398043</v>
+        <v>0.419939</v>
       </c>
       <c r="C23" t="n">
-        <v>0.351257</v>
+        <v>0.36549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.543426</v>
+        <v>0.56741</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.657344</v>
+        <v>0.670893</v>
       </c>
       <c r="C24" t="n">
-        <v>0.618897</v>
+        <v>0.64197</v>
       </c>
       <c r="D24" t="n">
-        <v>0.55226</v>
+        <v>0.543633</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.642144</v>
+        <v>0.654971</v>
       </c>
       <c r="C25" t="n">
-        <v>0.602063</v>
+        <v>0.631795</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5080249999999999</v>
+        <v>0.528996</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.620217</v>
+        <v>0.647356</v>
       </c>
       <c r="C26" t="n">
-        <v>0.599483</v>
+        <v>0.61278</v>
       </c>
       <c r="D26" t="n">
-        <v>0.499063</v>
+        <v>0.505863</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.627261</v>
+        <v>0.616877</v>
       </c>
       <c r="C27" t="n">
-        <v>0.556389</v>
+        <v>0.574925</v>
       </c>
       <c r="D27" t="n">
-        <v>0.475468</v>
+        <v>0.49459</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.61068</v>
+        <v>0.601058</v>
       </c>
       <c r="C28" t="n">
-        <v>0.574958</v>
+        <v>0.571011</v>
       </c>
       <c r="D28" t="n">
-        <v>0.460631</v>
+        <v>0.4734</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.573312</v>
+        <v>0.589701</v>
       </c>
       <c r="C29" t="n">
-        <v>0.520186</v>
+        <v>0.54183</v>
       </c>
       <c r="D29" t="n">
-        <v>0.446333</v>
+        <v>0.455977</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.542156</v>
+        <v>0.573508</v>
       </c>
       <c r="C30" t="n">
-        <v>0.504105</v>
+        <v>0.531942</v>
       </c>
       <c r="D30" t="n">
-        <v>0.426599</v>
+        <v>0.447911</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.541663</v>
+        <v>0.54638</v>
       </c>
       <c r="C31" t="n">
-        <v>0.488371</v>
+        <v>0.512754</v>
       </c>
       <c r="D31" t="n">
-        <v>0.414254</v>
+        <v>0.441823</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.530504</v>
+        <v>0.533048</v>
       </c>
       <c r="C32" t="n">
-        <v>0.472419</v>
+        <v>0.49228</v>
       </c>
       <c r="D32" t="n">
-        <v>0.409229</v>
+        <v>0.421851</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.514699</v>
+        <v>0.522911</v>
       </c>
       <c r="C33" t="n">
-        <v>0.457967</v>
+        <v>0.474318</v>
       </c>
       <c r="D33" t="n">
-        <v>0.396237</v>
+        <v>0.416787</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.490323</v>
+        <v>0.501555</v>
       </c>
       <c r="C34" t="n">
-        <v>0.442437</v>
+        <v>0.47033</v>
       </c>
       <c r="D34" t="n">
-        <v>0.384069</v>
+        <v>0.401131</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.473983</v>
+        <v>0.498059</v>
       </c>
       <c r="C35" t="n">
-        <v>0.442977</v>
+        <v>0.453336</v>
       </c>
       <c r="D35" t="n">
-        <v>0.378319</v>
+        <v>0.392761</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.467553</v>
+        <v>0.49561</v>
       </c>
       <c r="C36" t="n">
-        <v>0.432516</v>
+        <v>0.440183</v>
       </c>
       <c r="D36" t="n">
-        <v>0.393348</v>
+        <v>0.386611</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.456037</v>
+        <v>0.466717</v>
       </c>
       <c r="C37" t="n">
-        <v>0.433678</v>
+        <v>0.426613</v>
       </c>
       <c r="D37" t="n">
-        <v>0.653077</v>
+        <v>0.673941</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.744581</v>
+        <v>0.751793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.70673</v>
+        <v>0.6904670000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.64306</v>
+        <v>0.6428779999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.709975</v>
+        <v>0.739984</v>
       </c>
       <c r="C39" t="n">
-        <v>0.681643</v>
+        <v>0.701597</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6125080000000001</v>
+        <v>0.611892</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.695257</v>
+        <v>0.702061</v>
       </c>
       <c r="C40" t="n">
-        <v>0.648406</v>
+        <v>0.660231</v>
       </c>
       <c r="D40" t="n">
-        <v>0.590195</v>
+        <v>0.591995</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.679111</v>
+        <v>0.675571</v>
       </c>
       <c r="C41" t="n">
-        <v>0.63049</v>
+        <v>0.638375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.590121</v>
+        <v>0.5773470000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.678751</v>
+        <v>0.686976</v>
       </c>
       <c r="C42" t="n">
-        <v>0.608897</v>
+        <v>0.62102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.569654</v>
+        <v>0.580643</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.631041</v>
+        <v>0.642981</v>
       </c>
       <c r="C43" t="n">
-        <v>0.603498</v>
+        <v>0.6099869999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.549196</v>
+        <v>0.5466220000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.629345</v>
+        <v>0.630116</v>
       </c>
       <c r="C44" t="n">
-        <v>0.57547</v>
+        <v>0.590904</v>
       </c>
       <c r="D44" t="n">
-        <v>0.527708</v>
+        <v>0.519634</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.594633</v>
+        <v>0.6031570000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5558</v>
+        <v>0.569998</v>
       </c>
       <c r="D45" t="n">
-        <v>0.514864</v>
+        <v>0.516549</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573728</v>
+        <v>0.589402</v>
       </c>
       <c r="C46" t="n">
-        <v>0.557928</v>
+        <v>0.545893</v>
       </c>
       <c r="D46" t="n">
-        <v>0.494765</v>
+        <v>0.499087</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.563701</v>
+        <v>0.581549</v>
       </c>
       <c r="C47" t="n">
-        <v>0.528268</v>
+        <v>0.5308580000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.483814</v>
+        <v>0.48403</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.539703</v>
+        <v>0.5492939999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.509961</v>
+        <v>0.502772</v>
       </c>
       <c r="D48" t="n">
-        <v>0.471025</v>
+        <v>0.48038</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.54305</v>
+        <v>0.550824</v>
       </c>
       <c r="C49" t="n">
-        <v>0.486769</v>
+        <v>0.49757</v>
       </c>
       <c r="D49" t="n">
-        <v>0.474025</v>
+        <v>0.464443</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.535102</v>
+        <v>0.545562</v>
       </c>
       <c r="C50" t="n">
-        <v>0.488132</v>
+        <v>0.500873</v>
       </c>
       <c r="D50" t="n">
-        <v>0.450851</v>
+        <v>0.463219</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.525122</v>
+        <v>0.525729</v>
       </c>
       <c r="C51" t="n">
-        <v>0.474559</v>
+        <v>0.475103</v>
       </c>
       <c r="D51" t="n">
-        <v>0.728527</v>
+        <v>0.736731</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.503105</v>
+        <v>0.512991</v>
       </c>
       <c r="C52" t="n">
-        <v>0.461187</v>
+        <v>0.466212</v>
       </c>
       <c r="D52" t="n">
-        <v>0.718947</v>
+        <v>0.721799</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.768733</v>
+        <v>0.764043</v>
       </c>
       <c r="C53" t="n">
-        <v>0.722537</v>
+        <v>0.732838</v>
       </c>
       <c r="D53" t="n">
-        <v>0.685378</v>
+        <v>0.717002</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.748664</v>
+        <v>0.770642</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7185510000000001</v>
+        <v>0.73711</v>
       </c>
       <c r="D54" t="n">
-        <v>0.677424</v>
+        <v>0.678776</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.725147</v>
+        <v>0.7475619999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.690487</v>
+        <v>0.681806</v>
       </c>
       <c r="D55" t="n">
-        <v>0.650363</v>
+        <v>0.668373</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.708296</v>
+        <v>0.725085</v>
       </c>
       <c r="C56" t="n">
-        <v>0.686848</v>
+        <v>0.683885</v>
       </c>
       <c r="D56" t="n">
-        <v>0.641886</v>
+        <v>0.6361329999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.690752</v>
+        <v>0.707222</v>
       </c>
       <c r="C57" t="n">
-        <v>0.644929</v>
+        <v>0.654541</v>
       </c>
       <c r="D57" t="n">
-        <v>0.608302</v>
+        <v>0.622817</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.673266</v>
+        <v>0.683152</v>
       </c>
       <c r="C58" t="n">
-        <v>0.617749</v>
+        <v>0.631775</v>
       </c>
       <c r="D58" t="n">
-        <v>0.617413</v>
+        <v>0.61026</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6649080000000001</v>
+        <v>0.676359</v>
       </c>
       <c r="C59" t="n">
-        <v>0.610602</v>
+        <v>0.61631</v>
       </c>
       <c r="D59" t="n">
-        <v>0.574567</v>
+        <v>0.592226</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6292759999999999</v>
+        <v>0.6553020000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.585784</v>
+        <v>0.599426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.559999</v>
+        <v>0.57909</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.616698</v>
+        <v>0.65967</v>
       </c>
       <c r="C61" t="n">
-        <v>0.580019</v>
+        <v>0.5828759999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.547442</v>
+        <v>0.552794</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.613456</v>
+        <v>0.640111</v>
       </c>
       <c r="C62" t="n">
-        <v>0.588475</v>
+        <v>0.581422</v>
       </c>
       <c r="D62" t="n">
-        <v>0.550266</v>
+        <v>0.551998</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.619621</v>
+        <v>0.610653</v>
       </c>
       <c r="C63" t="n">
-        <v>0.555237</v>
+        <v>0.562829</v>
       </c>
       <c r="D63" t="n">
-        <v>0.555214</v>
+        <v>0.531725</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.606584</v>
+        <v>0.607644</v>
       </c>
       <c r="C64" t="n">
-        <v>0.543914</v>
+        <v>0.5500119999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.520817</v>
+        <v>0.52049</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.588623</v>
+        <v>0.613473</v>
       </c>
       <c r="C65" t="n">
-        <v>0.525286</v>
+        <v>0.530945</v>
       </c>
       <c r="D65" t="n">
-        <v>0.523301</v>
+        <v>0.529423</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.573774</v>
+        <v>0.594293</v>
       </c>
       <c r="C66" t="n">
-        <v>0.526363</v>
+        <v>0.529468</v>
       </c>
       <c r="D66" t="n">
-        <v>0.825464</v>
+        <v>0.842659</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.880786</v>
+        <v>0.893031</v>
       </c>
       <c r="C67" t="n">
-        <v>0.857837</v>
+        <v>0.839066</v>
       </c>
       <c r="D67" t="n">
-        <v>0.811051</v>
+        <v>0.8157990000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.832375</v>
+        <v>0.876498</v>
       </c>
       <c r="C68" t="n">
-        <v>0.808627</v>
+        <v>0.808638</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7778119999999999</v>
+        <v>0.7984599999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8220769999999999</v>
+        <v>0.827474</v>
       </c>
       <c r="C69" t="n">
-        <v>0.780335</v>
+        <v>0.796698</v>
       </c>
       <c r="D69" t="n">
-        <v>0.748184</v>
+        <v>0.785246</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.818258</v>
+        <v>0.822749</v>
       </c>
       <c r="C70" t="n">
-        <v>0.766796</v>
+        <v>0.772482</v>
       </c>
       <c r="D70" t="n">
-        <v>0.723763</v>
+        <v>0.73409</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.804204</v>
+        <v>0.795795</v>
       </c>
       <c r="C71" t="n">
-        <v>0.739906</v>
+        <v>0.757715</v>
       </c>
       <c r="D71" t="n">
-        <v>0.708719</v>
+        <v>0.720707</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.766402</v>
+        <v>0.76267</v>
       </c>
       <c r="C72" t="n">
-        <v>0.70308</v>
+        <v>0.740783</v>
       </c>
       <c r="D72" t="n">
-        <v>0.696268</v>
+        <v>0.691755</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.753241</v>
+        <v>0.749088</v>
       </c>
       <c r="C73" t="n">
-        <v>0.702186</v>
+        <v>0.708299</v>
       </c>
       <c r="D73" t="n">
-        <v>0.663496</v>
+        <v>0.699886</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.729438</v>
+        <v>0.735704</v>
       </c>
       <c r="C74" t="n">
-        <v>0.681553</v>
+        <v>0.694588</v>
       </c>
       <c r="D74" t="n">
-        <v>0.662721</v>
+        <v>0.670991</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.716527</v>
+        <v>0.715614</v>
       </c>
       <c r="C75" t="n">
-        <v>0.669494</v>
+        <v>0.682262</v>
       </c>
       <c r="D75" t="n">
-        <v>0.660121</v>
+        <v>0.659233</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.720696</v>
+        <v>0.732799</v>
       </c>
       <c r="C76" t="n">
-        <v>0.662179</v>
+        <v>0.671051</v>
       </c>
       <c r="D76" t="n">
-        <v>0.643329</v>
+        <v>0.655523</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6968220000000001</v>
+        <v>0.696102</v>
       </c>
       <c r="C77" t="n">
-        <v>0.648618</v>
+        <v>0.643142</v>
       </c>
       <c r="D77" t="n">
-        <v>0.604928</v>
+        <v>0.626352</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.688263</v>
+        <v>0.682697</v>
       </c>
       <c r="C78" t="n">
-        <v>0.625502</v>
+        <v>0.632542</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6017</v>
+        <v>0.615239</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.677208</v>
+        <v>0.673284</v>
       </c>
       <c r="C79" t="n">
-        <v>0.61779</v>
+        <v>0.6253880000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.594876</v>
+        <v>0.6129869999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653294</v>
+        <v>0.656261</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6148169999999999</v>
+        <v>0.618136</v>
       </c>
       <c r="D80" t="n">
-        <v>0.927487</v>
+        <v>0.925907</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.972071</v>
+        <v>0.9692730000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.956999</v>
+        <v>0.957461</v>
       </c>
       <c r="D81" t="n">
-        <v>0.938908</v>
+        <v>0.928569</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.98112</v>
+        <v>0.970619</v>
       </c>
       <c r="C82" t="n">
-        <v>0.939233</v>
+        <v>0.919009</v>
       </c>
       <c r="D82" t="n">
-        <v>0.901033</v>
+        <v>0.879271</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.943289</v>
+        <v>0.943964</v>
       </c>
       <c r="C83" t="n">
-        <v>0.896062</v>
+        <v>0.901263</v>
       </c>
       <c r="D83" t="n">
-        <v>0.89568</v>
+        <v>0.862271</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.930276</v>
+        <v>0.910954</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8895729999999999</v>
+        <v>0.888695</v>
       </c>
       <c r="D84" t="n">
-        <v>0.847979</v>
+        <v>0.85671</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.896547</v>
+        <v>0.911641</v>
       </c>
       <c r="C85" t="n">
-        <v>0.899658</v>
+        <v>0.895706</v>
       </c>
       <c r="D85" t="n">
-        <v>0.83352</v>
+        <v>0.838055</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.870688</v>
+        <v>0.897296</v>
       </c>
       <c r="C86" t="n">
-        <v>0.852949</v>
+        <v>0.848685</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8198</v>
+        <v>0.8175480000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.862025</v>
+        <v>0.863601</v>
       </c>
       <c r="C87" t="n">
-        <v>0.845742</v>
+        <v>0.823096</v>
       </c>
       <c r="D87" t="n">
-        <v>0.801521</v>
+        <v>0.79715</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.850075</v>
+        <v>0.8417</v>
       </c>
       <c r="C88" t="n">
-        <v>0.809187</v>
+        <v>0.810748</v>
       </c>
       <c r="D88" t="n">
-        <v>0.777567</v>
+        <v>0.784456</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.831565</v>
+        <v>0.8280419999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.791539</v>
+        <v>0.78703</v>
       </c>
       <c r="D89" t="n">
-        <v>0.787182</v>
+        <v>0.768301</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.81677</v>
+        <v>0.808445</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771603</v>
+        <v>0.7812519999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7517509999999999</v>
+        <v>0.736443</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.790052</v>
+        <v>0.802678</v>
       </c>
       <c r="C91" t="n">
-        <v>0.76813</v>
+        <v>0.755379</v>
       </c>
       <c r="D91" t="n">
-        <v>0.739341</v>
+        <v>0.723492</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.793268</v>
+        <v>0.793968</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7488320000000001</v>
+        <v>0.754674</v>
       </c>
       <c r="D92" t="n">
-        <v>0.736034</v>
+        <v>0.736162</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.763422</v>
+        <v>0.788254</v>
       </c>
       <c r="C93" t="n">
-        <v>0.718345</v>
+        <v>0.738617</v>
       </c>
       <c r="D93" t="n">
-        <v>0.711419</v>
+        <v>0.709886</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.762243</v>
+        <v>0.796639</v>
       </c>
       <c r="C94" t="n">
-        <v>0.720368</v>
+        <v>0.722415</v>
       </c>
       <c r="D94" t="n">
-        <v>1.03503</v>
+        <v>1.03919</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07004</v>
+        <v>1.09751</v>
       </c>
       <c r="C95" t="n">
-        <v>1.03839</v>
+        <v>1.0441</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0182</v>
+        <v>1.02507</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.05909</v>
+        <v>1.08204</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0369</v>
+        <v>1.03358</v>
       </c>
       <c r="D96" t="n">
-        <v>0.991522</v>
+        <v>1.00593</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05758</v>
+        <v>1.04697</v>
       </c>
       <c r="C97" t="n">
-        <v>1.00658</v>
+        <v>1.02366</v>
       </c>
       <c r="D97" t="n">
-        <v>0.973767</v>
+        <v>0.983248</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02591</v>
+        <v>1.04268</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00741</v>
+        <v>1.00868</v>
       </c>
       <c r="D98" t="n">
-        <v>0.957997</v>
+        <v>0.965271</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00745</v>
+        <v>1.01796</v>
       </c>
       <c r="C99" t="n">
-        <v>0.998272</v>
+        <v>1.00366</v>
       </c>
       <c r="D99" t="n">
-        <v>0.940019</v>
+        <v>0.946889</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.978784</v>
+        <v>1.01398</v>
       </c>
       <c r="C100" t="n">
-        <v>0.979548</v>
+        <v>0.979788</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9259269999999999</v>
+        <v>0.941351</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.991845</v>
+        <v>1.01353</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9504089999999999</v>
+        <v>0.9625</v>
       </c>
       <c r="D101" t="n">
-        <v>0.899508</v>
+        <v>0.93221</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.973669</v>
+        <v>0.965487</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9260429999999999</v>
+        <v>0.937306</v>
       </c>
       <c r="D102" t="n">
-        <v>0.877512</v>
+        <v>0.910853</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.945145</v>
+        <v>0.94443</v>
       </c>
       <c r="C103" t="n">
-        <v>0.92776</v>
+        <v>0.912129</v>
       </c>
       <c r="D103" t="n">
-        <v>0.867387</v>
+        <v>0.861085</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.935989</v>
+        <v>0.948037</v>
       </c>
       <c r="C104" t="n">
-        <v>0.896444</v>
+        <v>0.917065</v>
       </c>
       <c r="D104" t="n">
-        <v>0.865591</v>
+        <v>0.877622</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.919326</v>
+        <v>0.94171</v>
       </c>
       <c r="C105" t="n">
-        <v>0.901692</v>
+        <v>0.904438</v>
       </c>
       <c r="D105" t="n">
-        <v>0.850846</v>
+        <v>0.857009</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.923775</v>
+        <v>0.914777</v>
       </c>
       <c r="C106" t="n">
-        <v>0.901461</v>
+        <v>0.914941</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8444120000000001</v>
+        <v>0.8507479999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.899596</v>
+        <v>0.91932</v>
       </c>
       <c r="C107" t="n">
-        <v>0.873296</v>
+        <v>0.882003</v>
       </c>
       <c r="D107" t="n">
-        <v>0.829371</v>
+        <v>0.8459719999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.899221</v>
+        <v>0.914722</v>
       </c>
       <c r="C108" t="n">
-        <v>0.871445</v>
+        <v>0.902114</v>
       </c>
       <c r="D108" t="n">
-        <v>1.15973</v>
+        <v>1.18588</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.908151</v>
+        <v>0.915307</v>
       </c>
       <c r="C109" t="n">
-        <v>0.866541</v>
+        <v>0.868385</v>
       </c>
       <c r="D109" t="n">
-        <v>1.157</v>
+        <v>1.1742</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21874</v>
+        <v>1.2148</v>
       </c>
       <c r="C110" t="n">
-        <v>1.17579</v>
+        <v>1.1948</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12914</v>
+        <v>1.16093</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.19649</v>
+        <v>1.19253</v>
       </c>
       <c r="C111" t="n">
-        <v>1.18941</v>
+        <v>1.19093</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13073</v>
+        <v>1.13023</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16811</v>
+        <v>1.20089</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17321</v>
+        <v>1.18414</v>
       </c>
       <c r="D112" t="n">
-        <v>1.10737</v>
+        <v>1.1283</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17039</v>
+        <v>1.18605</v>
       </c>
       <c r="C113" t="n">
-        <v>1.17861</v>
+        <v>1.168</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09673</v>
+        <v>1.09879</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15897</v>
+        <v>1.21282</v>
       </c>
       <c r="C114" t="n">
-        <v>1.15892</v>
+        <v>1.17527</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11264</v>
+        <v>1.12879</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16213</v>
+        <v>1.16338</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14432</v>
+        <v>1.17884</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08258</v>
+        <v>1.09161</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16238</v>
+        <v>1.15558</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13409</v>
+        <v>1.11984</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08073</v>
+        <v>1.08488</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15614</v>
+        <v>1.14215</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11566</v>
+        <v>1.13364</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08244</v>
+        <v>1.05846</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1364</v>
+        <v>1.13002</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10655</v>
+        <v>1.12584</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05169</v>
+        <v>1.06144</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13031</v>
+        <v>1.15278</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10702</v>
+        <v>1.12506</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05361</v>
+        <v>1.04927</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10741</v>
+        <v>1.16177</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10478</v>
+        <v>1.09892</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04786</v>
+        <v>1.03676</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11288</v>
+        <v>1.11159</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0856</v>
+        <v>1.10952</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05167</v>
+        <v>1.05349</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.08629</v>
+        <v>1.13287</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07169</v>
+        <v>1.10194</v>
       </c>
       <c r="D122" t="n">
-        <v>1.03117</v>
+        <v>1.04481</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11527</v>
+        <v>1.11297</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0859</v>
+        <v>1.08366</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37528</v>
+        <v>1.40677</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.41793</v>
+        <v>1.41701</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42676</v>
+        <v>1.43506</v>
       </c>
       <c r="D124" t="n">
-        <v>1.39929</v>
+        <v>1.39721</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42102</v>
+        <v>1.42806</v>
       </c>
       <c r="C125" t="n">
-        <v>1.43608</v>
+        <v>1.42201</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37265</v>
+        <v>1.36599</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38727</v>
+        <v>1.41164</v>
       </c>
       <c r="C126" t="n">
-        <v>1.35319</v>
+        <v>1.41432</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32526</v>
+        <v>1.38381</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.36363</v>
+        <v>1.42098</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42221</v>
+        <v>1.4171</v>
       </c>
       <c r="D127" t="n">
-        <v>1.37119</v>
+        <v>1.37953</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.4199</v>
+        <v>1.42319</v>
       </c>
       <c r="C128" t="n">
-        <v>1.42469</v>
+        <v>1.42165</v>
       </c>
       <c r="D128" t="n">
-        <v>1.35623</v>
+        <v>1.40295</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41418</v>
+        <v>1.42617</v>
       </c>
       <c r="C129" t="n">
-        <v>1.40463</v>
+        <v>1.41112</v>
       </c>
       <c r="D129" t="n">
-        <v>1.36969</v>
+        <v>1.35707</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.42002</v>
+        <v>1.42193</v>
       </c>
       <c r="C130" t="n">
-        <v>1.4123</v>
+        <v>1.39783</v>
       </c>
       <c r="D130" t="n">
-        <v>1.37815</v>
+        <v>1.39241</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.41144</v>
+        <v>1.39667</v>
       </c>
       <c r="C131" t="n">
-        <v>1.40056</v>
+        <v>1.39257</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33373</v>
+        <v>1.38899</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42145</v>
+        <v>1.41553</v>
       </c>
       <c r="C132" t="n">
-        <v>1.38836</v>
+        <v>1.40624</v>
       </c>
       <c r="D132" t="n">
-        <v>1.3394</v>
+        <v>1.37051</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.3659</v>
+        <v>1.42971</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38391</v>
+        <v>1.40509</v>
       </c>
       <c r="D133" t="n">
-        <v>1.34746</v>
+        <v>1.37568</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.3941</v>
+        <v>1.41604</v>
       </c>
       <c r="C134" t="n">
-        <v>1.38455</v>
+        <v>1.39367</v>
       </c>
       <c r="D134" t="n">
-        <v>1.3219</v>
+        <v>1.36198</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34855</v>
+        <v>1.42891</v>
       </c>
       <c r="C135" t="n">
-        <v>1.32256</v>
+        <v>1.40677</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30436</v>
+        <v>1.3735</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.35062</v>
+        <v>1.39994</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3287</v>
+        <v>1.40628</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32406</v>
+        <v>1.37782</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.38592</v>
+        <v>1.41861</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35453</v>
+        <v>1.40533</v>
       </c>
       <c r="D137" t="n">
-        <v>1.68505</v>
+        <v>1.73104</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.66976</v>
+        <v>1.73415</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6792</v>
+        <v>1.76267</v>
       </c>
       <c r="D138" t="n">
-        <v>1.70063</v>
+        <v>1.72259</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.71347</v>
+        <v>1.74719</v>
       </c>
       <c r="C139" t="n">
-        <v>1.71238</v>
+        <v>1.75337</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64508</v>
+        <v>1.69996</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.68899</v>
+        <v>1.71474</v>
       </c>
       <c r="C140" t="n">
-        <v>1.63342</v>
+        <v>1.74261</v>
       </c>
       <c r="D140" t="n">
-        <v>1.64998</v>
+        <v>1.70091</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.64085</v>
+        <v>1.71325</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7058</v>
+        <v>1.73029</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64326</v>
+        <v>1.72144</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.65577</v>
+        <v>1.72815</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67481</v>
+        <v>1.72374</v>
       </c>
       <c r="D142" t="n">
-        <v>1.61703</v>
+        <v>1.71334</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.68912</v>
+        <v>1.70989</v>
       </c>
       <c r="C143" t="n">
-        <v>1.65009</v>
+        <v>1.73654</v>
       </c>
       <c r="D143" t="n">
-        <v>1.67497</v>
+        <v>1.72114</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6270250000000001</v>
+        <v>0.608312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.499359</v>
+        <v>0.448112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.321129</v>
+        <v>0.308109</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.36332</v>
+        <v>0.365852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.309527</v>
+        <v>0.300674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.30475</v>
+        <v>0.301932</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.359633</v>
+        <v>0.350804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.297123</v>
+        <v>0.299297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.306988</v>
+        <v>0.311758</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.346452</v>
+        <v>0.353292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.294518</v>
+        <v>0.297179</v>
       </c>
       <c r="D5" t="n">
-        <v>0.289514</v>
+        <v>0.299612</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.336755</v>
+        <v>0.34678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.286153</v>
+        <v>0.294736</v>
       </c>
       <c r="D6" t="n">
-        <v>0.286665</v>
+        <v>0.290181</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.329491</v>
+        <v>0.337079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.278027</v>
+        <v>0.28343</v>
       </c>
       <c r="D7" t="n">
-        <v>0.280518</v>
+        <v>0.292693</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.337288</v>
+        <v>0.345563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.274191</v>
+        <v>0.28455</v>
       </c>
       <c r="D8" t="n">
-        <v>0.279316</v>
+        <v>0.286768</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.321469</v>
+        <v>0.349628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.273795</v>
+        <v>0.278951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6196700000000001</v>
+        <v>0.647724</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.577356</v>
+        <v>0.608451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.542306</v>
+        <v>0.555495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.611054</v>
+        <v>0.6076240000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5679</v>
+        <v>0.582127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.531299</v>
+        <v>0.531726</v>
       </c>
       <c r="D11" t="n">
-        <v>0.580811</v>
+        <v>0.605359</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.553439</v>
+        <v>0.555054</v>
       </c>
       <c r="C12" t="n">
-        <v>0.514287</v>
+        <v>0.528821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.563833</v>
+        <v>0.59127</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.530541</v>
+        <v>0.550785</v>
       </c>
       <c r="C13" t="n">
-        <v>0.479955</v>
+        <v>0.512347</v>
       </c>
       <c r="D13" t="n">
-        <v>0.54161</v>
+        <v>0.552274</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.502613</v>
+        <v>0.5344100000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.478477</v>
+        <v>0.471491</v>
       </c>
       <c r="D14" t="n">
-        <v>0.516466</v>
+        <v>0.530838</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.495122</v>
+        <v>0.513993</v>
       </c>
       <c r="C15" t="n">
-        <v>0.455142</v>
+        <v>0.469691</v>
       </c>
       <c r="D15" t="n">
-        <v>0.497747</v>
+        <v>0.512858</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.481955</v>
+        <v>0.492717</v>
       </c>
       <c r="C16" t="n">
-        <v>0.435884</v>
+        <v>0.432373</v>
       </c>
       <c r="D16" t="n">
-        <v>0.489005</v>
+        <v>0.485676</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.468274</v>
+        <v>0.475318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.438551</v>
+        <v>0.421692</v>
       </c>
       <c r="D17" t="n">
-        <v>0.47207</v>
+        <v>0.461099</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.465877</v>
+        <v>0.460138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4129</v>
+        <v>0.408364</v>
       </c>
       <c r="D18" t="n">
-        <v>0.459186</v>
+        <v>0.466697</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.446014</v>
+        <v>0.451323</v>
       </c>
       <c r="C19" t="n">
-        <v>0.408972</v>
+        <v>0.406406</v>
       </c>
       <c r="D19" t="n">
-        <v>0.442523</v>
+        <v>0.451047</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.431933</v>
+        <v>0.428576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.399755</v>
+        <v>0.395335</v>
       </c>
       <c r="D20" t="n">
-        <v>0.438725</v>
+        <v>0.431047</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.428376</v>
+        <v>0.43064</v>
       </c>
       <c r="C21" t="n">
-        <v>0.376137</v>
+        <v>0.379379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.416754</v>
+        <v>0.422387</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.424495</v>
+        <v>0.410205</v>
       </c>
       <c r="C22" t="n">
-        <v>0.372935</v>
+        <v>0.374663</v>
       </c>
       <c r="D22" t="n">
-        <v>0.417585</v>
+        <v>0.418123</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.419939</v>
+        <v>0.417272</v>
       </c>
       <c r="C23" t="n">
-        <v>0.36549</v>
+        <v>0.366978</v>
       </c>
       <c r="D23" t="n">
-        <v>0.56741</v>
+        <v>0.558335</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.670893</v>
+        <v>0.687122</v>
       </c>
       <c r="C24" t="n">
-        <v>0.64197</v>
+        <v>0.626865</v>
       </c>
       <c r="D24" t="n">
-        <v>0.543633</v>
+        <v>0.540835</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.654971</v>
+        <v>0.650357</v>
       </c>
       <c r="C25" t="n">
-        <v>0.631795</v>
+        <v>0.606241</v>
       </c>
       <c r="D25" t="n">
-        <v>0.528996</v>
+        <v>0.522136</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.647356</v>
+        <v>0.636094</v>
       </c>
       <c r="C26" t="n">
-        <v>0.61278</v>
+        <v>0.590942</v>
       </c>
       <c r="D26" t="n">
-        <v>0.505863</v>
+        <v>0.5074920000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.616877</v>
+        <v>0.635016</v>
       </c>
       <c r="C27" t="n">
-        <v>0.574925</v>
+        <v>0.57479</v>
       </c>
       <c r="D27" t="n">
-        <v>0.49459</v>
+        <v>0.489724</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.601058</v>
+        <v>0.600954</v>
       </c>
       <c r="C28" t="n">
-        <v>0.571011</v>
+        <v>0.568921</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4734</v>
+        <v>0.470393</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.589701</v>
+        <v>0.5821229999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.54183</v>
+        <v>0.544481</v>
       </c>
       <c r="D29" t="n">
-        <v>0.455977</v>
+        <v>0.465109</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.573508</v>
+        <v>0.558374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.531942</v>
+        <v>0.523755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.447911</v>
+        <v>0.452074</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.54638</v>
+        <v>0.544768</v>
       </c>
       <c r="C31" t="n">
-        <v>0.512754</v>
+        <v>0.521379</v>
       </c>
       <c r="D31" t="n">
-        <v>0.441823</v>
+        <v>0.437106</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.533048</v>
+        <v>0.540954</v>
       </c>
       <c r="C32" t="n">
-        <v>0.49228</v>
+        <v>0.5058510000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.421851</v>
+        <v>0.420539</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.522911</v>
+        <v>0.528263</v>
       </c>
       <c r="C33" t="n">
-        <v>0.474318</v>
+        <v>0.4797</v>
       </c>
       <c r="D33" t="n">
-        <v>0.416787</v>
+        <v>0.409284</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.501555</v>
+        <v>0.500053</v>
       </c>
       <c r="C34" t="n">
-        <v>0.47033</v>
+        <v>0.453618</v>
       </c>
       <c r="D34" t="n">
-        <v>0.401131</v>
+        <v>0.394127</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.498059</v>
+        <v>0.493734</v>
       </c>
       <c r="C35" t="n">
-        <v>0.453336</v>
+        <v>0.446256</v>
       </c>
       <c r="D35" t="n">
-        <v>0.392761</v>
+        <v>0.392455</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.49561</v>
+        <v>0.490932</v>
       </c>
       <c r="C36" t="n">
-        <v>0.440183</v>
+        <v>0.43261</v>
       </c>
       <c r="D36" t="n">
-        <v>0.386611</v>
+        <v>0.382482</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.466717</v>
+        <v>0.473459</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426613</v>
+        <v>0.436226</v>
       </c>
       <c r="D37" t="n">
-        <v>0.673941</v>
+        <v>0.661149</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.751793</v>
+        <v>0.737113</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6904670000000001</v>
+        <v>0.691667</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6428779999999999</v>
+        <v>0.646258</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.739984</v>
+        <v>0.729558</v>
       </c>
       <c r="C39" t="n">
-        <v>0.701597</v>
+        <v>0.681805</v>
       </c>
       <c r="D39" t="n">
-        <v>0.611892</v>
+        <v>0.62913</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.702061</v>
+        <v>0.683905</v>
       </c>
       <c r="C40" t="n">
-        <v>0.660231</v>
+        <v>0.653048</v>
       </c>
       <c r="D40" t="n">
-        <v>0.591995</v>
+        <v>0.597601</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.675571</v>
+        <v>0.672885</v>
       </c>
       <c r="C41" t="n">
-        <v>0.638375</v>
+        <v>0.627313</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5773470000000001</v>
+        <v>0.587765</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.686976</v>
+        <v>0.650406</v>
       </c>
       <c r="C42" t="n">
-        <v>0.62102</v>
+        <v>0.60926</v>
       </c>
       <c r="D42" t="n">
-        <v>0.580643</v>
+        <v>0.564895</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.642981</v>
+        <v>0.630587</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6099869999999999</v>
+        <v>0.593487</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5466220000000001</v>
+        <v>0.54245</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.630116</v>
+        <v>0.624332</v>
       </c>
       <c r="C44" t="n">
-        <v>0.590904</v>
+        <v>0.56086</v>
       </c>
       <c r="D44" t="n">
-        <v>0.519634</v>
+        <v>0.530116</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6031570000000001</v>
+        <v>0.592652</v>
       </c>
       <c r="C45" t="n">
-        <v>0.569998</v>
+        <v>0.56588</v>
       </c>
       <c r="D45" t="n">
-        <v>0.516549</v>
+        <v>0.515351</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.589402</v>
+        <v>0.57863</v>
       </c>
       <c r="C46" t="n">
-        <v>0.545893</v>
+        <v>0.531382</v>
       </c>
       <c r="D46" t="n">
-        <v>0.499087</v>
+        <v>0.5013030000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.581549</v>
+        <v>0.569426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5308580000000001</v>
+        <v>0.518736</v>
       </c>
       <c r="D47" t="n">
-        <v>0.48403</v>
+        <v>0.482357</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5492939999999999</v>
+        <v>0.558824</v>
       </c>
       <c r="C48" t="n">
-        <v>0.502772</v>
+        <v>0.5116039999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.48038</v>
+        <v>0.475899</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.550824</v>
+        <v>0.537693</v>
       </c>
       <c r="C49" t="n">
-        <v>0.49757</v>
+        <v>0.491468</v>
       </c>
       <c r="D49" t="n">
-        <v>0.464443</v>
+        <v>0.461873</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.545562</v>
+        <v>0.524255</v>
       </c>
       <c r="C50" t="n">
-        <v>0.500873</v>
+        <v>0.473413</v>
       </c>
       <c r="D50" t="n">
-        <v>0.463219</v>
+        <v>0.452306</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.525729</v>
+        <v>0.506873</v>
       </c>
       <c r="C51" t="n">
-        <v>0.475103</v>
+        <v>0.467546</v>
       </c>
       <c r="D51" t="n">
-        <v>0.736731</v>
+        <v>0.7340719999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.512991</v>
+        <v>0.51266</v>
       </c>
       <c r="C52" t="n">
-        <v>0.466212</v>
+        <v>0.466894</v>
       </c>
       <c r="D52" t="n">
-        <v>0.721799</v>
+        <v>0.726931</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.764043</v>
+        <v>0.796353</v>
       </c>
       <c r="C53" t="n">
-        <v>0.732838</v>
+        <v>0.736775</v>
       </c>
       <c r="D53" t="n">
-        <v>0.717002</v>
+        <v>0.706421</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.770642</v>
+        <v>0.751449</v>
       </c>
       <c r="C54" t="n">
-        <v>0.73711</v>
+        <v>0.7208560000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.678776</v>
+        <v>0.692098</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7475619999999999</v>
+        <v>0.7404230000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.681806</v>
+        <v>0.701437</v>
       </c>
       <c r="D55" t="n">
-        <v>0.668373</v>
+        <v>0.660829</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.725085</v>
+        <v>0.721769</v>
       </c>
       <c r="C56" t="n">
-        <v>0.683885</v>
+        <v>0.662423</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6361329999999999</v>
+        <v>0.647394</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.707222</v>
+        <v>0.681663</v>
       </c>
       <c r="C57" t="n">
-        <v>0.654541</v>
+        <v>0.6537809999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.622817</v>
+        <v>0.629278</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.683152</v>
+        <v>0.677789</v>
       </c>
       <c r="C58" t="n">
-        <v>0.631775</v>
+        <v>0.639273</v>
       </c>
       <c r="D58" t="n">
-        <v>0.61026</v>
+        <v>0.605537</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.676359</v>
+        <v>0.680827</v>
       </c>
       <c r="C59" t="n">
-        <v>0.61631</v>
+        <v>0.617449</v>
       </c>
       <c r="D59" t="n">
-        <v>0.592226</v>
+        <v>0.598186</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6553020000000001</v>
+        <v>0.641551</v>
       </c>
       <c r="C60" t="n">
-        <v>0.599426</v>
+        <v>0.599252</v>
       </c>
       <c r="D60" t="n">
-        <v>0.57909</v>
+        <v>0.584444</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.65967</v>
+        <v>0.632726</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5828759999999999</v>
+        <v>0.592433</v>
       </c>
       <c r="D61" t="n">
-        <v>0.552794</v>
+        <v>0.56351</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.640111</v>
+        <v>0.614718</v>
       </c>
       <c r="C62" t="n">
-        <v>0.581422</v>
+        <v>0.575794</v>
       </c>
       <c r="D62" t="n">
-        <v>0.551998</v>
+        <v>0.5569229999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.610653</v>
+        <v>0.60462</v>
       </c>
       <c r="C63" t="n">
-        <v>0.562829</v>
+        <v>0.55558</v>
       </c>
       <c r="D63" t="n">
-        <v>0.531725</v>
+        <v>0.533481</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.607644</v>
+        <v>0.613805</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5500119999999999</v>
+        <v>0.547959</v>
       </c>
       <c r="D64" t="n">
-        <v>0.52049</v>
+        <v>0.533195</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.613473</v>
+        <v>0.594494</v>
       </c>
       <c r="C65" t="n">
-        <v>0.530945</v>
+        <v>0.531092</v>
       </c>
       <c r="D65" t="n">
-        <v>0.529423</v>
+        <v>0.524714</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.594293</v>
+        <v>0.594021</v>
       </c>
       <c r="C66" t="n">
-        <v>0.529468</v>
+        <v>0.542954</v>
       </c>
       <c r="D66" t="n">
-        <v>0.842659</v>
+        <v>0.841557</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.893031</v>
+        <v>0.884002</v>
       </c>
       <c r="C67" t="n">
-        <v>0.839066</v>
+        <v>0.833849</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8157990000000001</v>
+        <v>0.80506</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.876498</v>
+        <v>0.87719</v>
       </c>
       <c r="C68" t="n">
-        <v>0.808638</v>
+        <v>0.824078</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7984599999999999</v>
+        <v>0.784115</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.827474</v>
+        <v>0.837914</v>
       </c>
       <c r="C69" t="n">
-        <v>0.796698</v>
+        <v>0.782068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.785246</v>
+        <v>0.743109</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.822749</v>
+        <v>0.821891</v>
       </c>
       <c r="C70" t="n">
-        <v>0.772482</v>
+        <v>0.757179</v>
       </c>
       <c r="D70" t="n">
-        <v>0.73409</v>
+        <v>0.748512</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.795795</v>
+        <v>0.801105</v>
       </c>
       <c r="C71" t="n">
-        <v>0.757715</v>
+        <v>0.753678</v>
       </c>
       <c r="D71" t="n">
-        <v>0.720707</v>
+        <v>0.707661</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.76267</v>
+        <v>0.77158</v>
       </c>
       <c r="C72" t="n">
-        <v>0.740783</v>
+        <v>0.722576</v>
       </c>
       <c r="D72" t="n">
-        <v>0.691755</v>
+        <v>0.700931</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.749088</v>
+        <v>0.748215</v>
       </c>
       <c r="C73" t="n">
-        <v>0.708299</v>
+        <v>0.701685</v>
       </c>
       <c r="D73" t="n">
-        <v>0.699886</v>
+        <v>0.686612</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.735704</v>
+        <v>0.744678</v>
       </c>
       <c r="C74" t="n">
-        <v>0.694588</v>
+        <v>0.681404</v>
       </c>
       <c r="D74" t="n">
-        <v>0.670991</v>
+        <v>0.659245</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.715614</v>
+        <v>0.736636</v>
       </c>
       <c r="C75" t="n">
-        <v>0.682262</v>
+        <v>0.675914</v>
       </c>
       <c r="D75" t="n">
-        <v>0.659233</v>
+        <v>0.65477</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.732799</v>
+        <v>0.72736</v>
       </c>
       <c r="C76" t="n">
-        <v>0.671051</v>
+        <v>0.666771</v>
       </c>
       <c r="D76" t="n">
-        <v>0.655523</v>
+        <v>0.643768</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.696102</v>
+        <v>0.701326</v>
       </c>
       <c r="C77" t="n">
-        <v>0.643142</v>
+        <v>0.647388</v>
       </c>
       <c r="D77" t="n">
-        <v>0.626352</v>
+        <v>0.624271</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.682697</v>
+        <v>0.679605</v>
       </c>
       <c r="C78" t="n">
-        <v>0.632542</v>
+        <v>0.649529</v>
       </c>
       <c r="D78" t="n">
-        <v>0.615239</v>
+        <v>0.616628</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.673284</v>
+        <v>0.676603</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6253880000000001</v>
+        <v>0.625116</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6129869999999999</v>
+        <v>0.59739</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.656261</v>
+        <v>0.659861</v>
       </c>
       <c r="C80" t="n">
-        <v>0.618136</v>
+        <v>0.622656</v>
       </c>
       <c r="D80" t="n">
-        <v>0.925907</v>
+        <v>0.922536</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9692730000000001</v>
+        <v>0.972404</v>
       </c>
       <c r="C81" t="n">
-        <v>0.957461</v>
+        <v>0.949947</v>
       </c>
       <c r="D81" t="n">
-        <v>0.928569</v>
+        <v>0.9223209999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.970619</v>
+        <v>0.949125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.919009</v>
+        <v>0.923029</v>
       </c>
       <c r="D82" t="n">
-        <v>0.879271</v>
+        <v>0.89588</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.943964</v>
+        <v>0.921465</v>
       </c>
       <c r="C83" t="n">
-        <v>0.901263</v>
+        <v>0.895225</v>
       </c>
       <c r="D83" t="n">
-        <v>0.862271</v>
+        <v>0.877385</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.910954</v>
+        <v>0.93594</v>
       </c>
       <c r="C84" t="n">
-        <v>0.888695</v>
+        <v>0.87918</v>
       </c>
       <c r="D84" t="n">
-        <v>0.85671</v>
+        <v>0.843838</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.911641</v>
+        <v>0.911786</v>
       </c>
       <c r="C85" t="n">
-        <v>0.895706</v>
+        <v>0.866132</v>
       </c>
       <c r="D85" t="n">
-        <v>0.838055</v>
+        <v>0.828016</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.897296</v>
+        <v>0.88093</v>
       </c>
       <c r="C86" t="n">
-        <v>0.848685</v>
+        <v>0.864841</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8175480000000001</v>
+        <v>0.815705</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.863601</v>
+        <v>0.860084</v>
       </c>
       <c r="C87" t="n">
-        <v>0.823096</v>
+        <v>0.824445</v>
       </c>
       <c r="D87" t="n">
-        <v>0.79715</v>
+        <v>0.800014</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8417</v>
+        <v>0.855196</v>
       </c>
       <c r="C88" t="n">
-        <v>0.810748</v>
+        <v>0.817416</v>
       </c>
       <c r="D88" t="n">
-        <v>0.784456</v>
+        <v>0.782718</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8280419999999999</v>
+        <v>0.8334589999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.78703</v>
+        <v>0.786239</v>
       </c>
       <c r="D89" t="n">
-        <v>0.768301</v>
+        <v>0.756216</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.808445</v>
+        <v>0.820373</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7812519999999999</v>
+        <v>0.773106</v>
       </c>
       <c r="D90" t="n">
-        <v>0.736443</v>
+        <v>0.742389</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.802678</v>
+        <v>0.80858</v>
       </c>
       <c r="C91" t="n">
-        <v>0.755379</v>
+        <v>0.762393</v>
       </c>
       <c r="D91" t="n">
-        <v>0.723492</v>
+        <v>0.733301</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.793968</v>
+        <v>0.788592</v>
       </c>
       <c r="C92" t="n">
-        <v>0.754674</v>
+        <v>0.73372</v>
       </c>
       <c r="D92" t="n">
-        <v>0.736162</v>
+        <v>0.720701</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.788254</v>
+        <v>0.787611</v>
       </c>
       <c r="C93" t="n">
-        <v>0.738617</v>
+        <v>0.732857</v>
       </c>
       <c r="D93" t="n">
-        <v>0.709886</v>
+        <v>0.718315</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.796639</v>
+        <v>0.786219</v>
       </c>
       <c r="C94" t="n">
-        <v>0.722415</v>
+        <v>0.7194199999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.03919</v>
+        <v>1.06203</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09751</v>
+        <v>1.07803</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0441</v>
+        <v>1.0487</v>
       </c>
       <c r="D95" t="n">
-        <v>1.02507</v>
+        <v>1.01629</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08204</v>
+        <v>1.08623</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03358</v>
+        <v>1.06897</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00593</v>
+        <v>1.01103</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04697</v>
+        <v>1.03577</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02366</v>
+        <v>1.00638</v>
       </c>
       <c r="D97" t="n">
-        <v>0.983248</v>
+        <v>0.990498</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.04268</v>
+        <v>1.02984</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00868</v>
+        <v>1.00232</v>
       </c>
       <c r="D98" t="n">
-        <v>0.965271</v>
+        <v>0.959945</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01796</v>
+        <v>1.02934</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00366</v>
+        <v>0.998369</v>
       </c>
       <c r="D99" t="n">
-        <v>0.946889</v>
+        <v>0.941907</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01398</v>
+        <v>0.9993570000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.979788</v>
+        <v>0.968928</v>
       </c>
       <c r="D100" t="n">
-        <v>0.941351</v>
+        <v>0.922273</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01353</v>
+        <v>0.999115</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9625</v>
+        <v>0.96853</v>
       </c>
       <c r="D101" t="n">
-        <v>0.93221</v>
+        <v>0.9013139999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.965487</v>
+        <v>0.972388</v>
       </c>
       <c r="C102" t="n">
-        <v>0.937306</v>
+        <v>0.945998</v>
       </c>
       <c r="D102" t="n">
-        <v>0.910853</v>
+        <v>0.8983910000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.94443</v>
+        <v>0.964018</v>
       </c>
       <c r="C103" t="n">
-        <v>0.912129</v>
+        <v>0.939903</v>
       </c>
       <c r="D103" t="n">
-        <v>0.861085</v>
+        <v>0.870335</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.948037</v>
+        <v>0.952477</v>
       </c>
       <c r="C104" t="n">
-        <v>0.917065</v>
+        <v>0.9258</v>
       </c>
       <c r="D104" t="n">
-        <v>0.877622</v>
+        <v>0.864569</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.94171</v>
+        <v>0.961117</v>
       </c>
       <c r="C105" t="n">
-        <v>0.904438</v>
+        <v>0.904592</v>
       </c>
       <c r="D105" t="n">
-        <v>0.857009</v>
+        <v>0.860607</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.914777</v>
+        <v>0.950668</v>
       </c>
       <c r="C106" t="n">
-        <v>0.914941</v>
+        <v>0.897478</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8507479999999999</v>
+        <v>0.824006</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.91932</v>
+        <v>0.906608</v>
       </c>
       <c r="C107" t="n">
-        <v>0.882003</v>
+        <v>0.882628</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8459719999999999</v>
+        <v>0.834653</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.914722</v>
+        <v>0.90444</v>
       </c>
       <c r="C108" t="n">
-        <v>0.902114</v>
+        <v>0.873928</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18588</v>
+        <v>1.18063</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.915307</v>
+        <v>0.929127</v>
       </c>
       <c r="C109" t="n">
-        <v>0.868385</v>
+        <v>0.880228</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1742</v>
+        <v>1.13457</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2148</v>
+        <v>1.204</v>
       </c>
       <c r="C110" t="n">
-        <v>1.1948</v>
+        <v>1.19059</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16093</v>
+        <v>1.15397</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.19253</v>
+        <v>1.18661</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19093</v>
+        <v>1.19647</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13023</v>
+        <v>1.14117</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.20089</v>
+        <v>1.17159</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18414</v>
+        <v>1.18321</v>
       </c>
       <c r="D112" t="n">
-        <v>1.1283</v>
+        <v>1.12703</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18605</v>
+        <v>1.17845</v>
       </c>
       <c r="C113" t="n">
-        <v>1.168</v>
+        <v>1.15513</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09879</v>
+        <v>1.11967</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.21282</v>
+        <v>1.15453</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17527</v>
+        <v>1.14673</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12879</v>
+        <v>1.08555</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16338</v>
+        <v>1.16833</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17884</v>
+        <v>1.13027</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09161</v>
+        <v>1.12782</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.15558</v>
+        <v>1.15736</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11984</v>
+        <v>1.13539</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08488</v>
+        <v>1.07411</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14215</v>
+        <v>1.15235</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13364</v>
+        <v>1.12247</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05846</v>
+        <v>1.07671</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13002</v>
+        <v>1.13404</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12584</v>
+        <v>1.11088</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06144</v>
+        <v>1.05364</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.15278</v>
+        <v>1.12467</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12506</v>
+        <v>1.10635</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04927</v>
+        <v>1.06756</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.16177</v>
+        <v>1.11442</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09892</v>
+        <v>1.09883</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03676</v>
+        <v>1.06333</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11159</v>
+        <v>1.11918</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10952</v>
+        <v>1.10724</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05349</v>
+        <v>1.05559</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.13287</v>
+        <v>1.13347</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10194</v>
+        <v>1.10695</v>
       </c>
       <c r="D122" t="n">
-        <v>1.04481</v>
+        <v>1.03852</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11297</v>
+        <v>1.12057</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08366</v>
+        <v>1.0967</v>
       </c>
       <c r="D123" t="n">
-        <v>1.40677</v>
+        <v>1.36994</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.41701</v>
+        <v>1.4219</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43506</v>
+        <v>1.40983</v>
       </c>
       <c r="D124" t="n">
-        <v>1.39721</v>
+        <v>1.35444</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42806</v>
+        <v>1.42171</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42201</v>
+        <v>1.41728</v>
       </c>
       <c r="D125" t="n">
-        <v>1.36599</v>
+        <v>1.38636</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.41164</v>
+        <v>1.3919</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41432</v>
+        <v>1.43143</v>
       </c>
       <c r="D126" t="n">
-        <v>1.38381</v>
+        <v>1.3586</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.42098</v>
+        <v>1.41984</v>
       </c>
       <c r="C127" t="n">
-        <v>1.4171</v>
+        <v>1.41481</v>
       </c>
       <c r="D127" t="n">
-        <v>1.37953</v>
+        <v>1.37614</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42319</v>
+        <v>1.41534</v>
       </c>
       <c r="C128" t="n">
-        <v>1.42165</v>
+        <v>1.45038</v>
       </c>
       <c r="D128" t="n">
-        <v>1.40295</v>
+        <v>1.38836</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.42617</v>
+        <v>1.40471</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41112</v>
+        <v>1.40016</v>
       </c>
       <c r="D129" t="n">
-        <v>1.35707</v>
+        <v>1.3519</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.42193</v>
+        <v>1.39374</v>
       </c>
       <c r="C130" t="n">
-        <v>1.39783</v>
+        <v>1.39204</v>
       </c>
       <c r="D130" t="n">
-        <v>1.39241</v>
+        <v>1.38266</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39667</v>
+        <v>1.40116</v>
       </c>
       <c r="C131" t="n">
-        <v>1.39257</v>
+        <v>1.39396</v>
       </c>
       <c r="D131" t="n">
-        <v>1.38899</v>
+        <v>1.35536</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.41553</v>
+        <v>1.42032</v>
       </c>
       <c r="C132" t="n">
-        <v>1.40624</v>
+        <v>1.38614</v>
       </c>
       <c r="D132" t="n">
-        <v>1.37051</v>
+        <v>1.35661</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42971</v>
+        <v>1.41676</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40509</v>
+        <v>1.42132</v>
       </c>
       <c r="D133" t="n">
-        <v>1.37568</v>
+        <v>1.3932</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41604</v>
+        <v>1.41612</v>
       </c>
       <c r="C134" t="n">
-        <v>1.39367</v>
+        <v>1.40127</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36198</v>
+        <v>1.34024</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.42891</v>
+        <v>1.4255</v>
       </c>
       <c r="C135" t="n">
-        <v>1.40677</v>
+        <v>1.40238</v>
       </c>
       <c r="D135" t="n">
-        <v>1.3735</v>
+        <v>1.35968</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39994</v>
+        <v>1.39936</v>
       </c>
       <c r="C136" t="n">
-        <v>1.40628</v>
+        <v>1.38734</v>
       </c>
       <c r="D136" t="n">
-        <v>1.37782</v>
+        <v>1.34663</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41861</v>
+        <v>1.38842</v>
       </c>
       <c r="C137" t="n">
-        <v>1.40533</v>
+        <v>1.39719</v>
       </c>
       <c r="D137" t="n">
-        <v>1.73104</v>
+        <v>1.71364</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73415</v>
+        <v>1.71753</v>
       </c>
       <c r="C138" t="n">
-        <v>1.76267</v>
+        <v>1.70743</v>
       </c>
       <c r="D138" t="n">
-        <v>1.72259</v>
+        <v>1.70256</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74719</v>
+        <v>1.72311</v>
       </c>
       <c r="C139" t="n">
-        <v>1.75337</v>
+        <v>1.72351</v>
       </c>
       <c r="D139" t="n">
-        <v>1.69996</v>
+        <v>1.69341</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71474</v>
+        <v>1.71841</v>
       </c>
       <c r="C140" t="n">
-        <v>1.74261</v>
+        <v>1.738</v>
       </c>
       <c r="D140" t="n">
-        <v>1.70091</v>
+        <v>1.70817</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.71325</v>
+        <v>1.71662</v>
       </c>
       <c r="C141" t="n">
-        <v>1.73029</v>
+        <v>1.73357</v>
       </c>
       <c r="D141" t="n">
-        <v>1.72144</v>
+        <v>1.70891</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72815</v>
+        <v>1.692</v>
       </c>
       <c r="C142" t="n">
-        <v>1.72374</v>
+        <v>1.70806</v>
       </c>
       <c r="D142" t="n">
-        <v>1.71334</v>
+        <v>1.70342</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70989</v>
+        <v>1.70146</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73654</v>
+        <v>1.71013</v>
       </c>
       <c r="D143" t="n">
-        <v>1.72114</v>
+        <v>1.68695</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.608312</v>
+        <v>0.6178090000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.448112</v>
+        <v>0.473804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.308109</v>
+        <v>0.319144</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.365852</v>
+        <v>0.371025</v>
       </c>
       <c r="C3" t="n">
-        <v>0.300674</v>
+        <v>0.297931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.301932</v>
+        <v>0.300186</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.350804</v>
+        <v>0.35626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.299297</v>
+        <v>0.289579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.311758</v>
+        <v>0.289736</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.353292</v>
+        <v>0.341129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.297179</v>
+        <v>0.296451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.299612</v>
+        <v>0.309207</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.34678</v>
+        <v>0.358326</v>
       </c>
       <c r="C6" t="n">
-        <v>0.294736</v>
+        <v>0.291467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.290181</v>
+        <v>0.294855</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.337079</v>
+        <v>0.337466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.28343</v>
+        <v>0.285746</v>
       </c>
       <c r="D7" t="n">
-        <v>0.292693</v>
+        <v>0.291805</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.345563</v>
+        <v>0.341785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.28455</v>
+        <v>0.289081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.286768</v>
+        <v>0.288994</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.349628</v>
+        <v>0.350006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278951</v>
+        <v>0.277471</v>
       </c>
       <c r="D9" t="n">
-        <v>0.647724</v>
+        <v>0.628647</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.608451</v>
+        <v>0.601085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.555495</v>
+        <v>0.557383</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6076240000000001</v>
+        <v>0.623431</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.582127</v>
+        <v>0.57816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.531726</v>
+        <v>0.538954</v>
       </c>
       <c r="D11" t="n">
-        <v>0.605359</v>
+        <v>0.585457</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.555054</v>
+        <v>0.555335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.528821</v>
+        <v>0.515448</v>
       </c>
       <c r="D12" t="n">
-        <v>0.59127</v>
+        <v>0.578372</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.550785</v>
+        <v>0.538073</v>
       </c>
       <c r="C13" t="n">
-        <v>0.512347</v>
+        <v>0.504239</v>
       </c>
       <c r="D13" t="n">
-        <v>0.552274</v>
+        <v>0.551021</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5344100000000001</v>
+        <v>0.527073</v>
       </c>
       <c r="C14" t="n">
-        <v>0.471491</v>
+        <v>0.489867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.530838</v>
+        <v>0.537602</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.513993</v>
+        <v>0.50286</v>
       </c>
       <c r="C15" t="n">
-        <v>0.469691</v>
+        <v>0.463936</v>
       </c>
       <c r="D15" t="n">
-        <v>0.512858</v>
+        <v>0.510948</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.492717</v>
+        <v>0.490785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.432373</v>
+        <v>0.447898</v>
       </c>
       <c r="D16" t="n">
-        <v>0.485676</v>
+        <v>0.492328</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.475318</v>
+        <v>0.477087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.421692</v>
+        <v>0.425959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.461099</v>
+        <v>0.475872</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460138</v>
+        <v>0.460741</v>
       </c>
       <c r="C18" t="n">
-        <v>0.408364</v>
+        <v>0.409969</v>
       </c>
       <c r="D18" t="n">
-        <v>0.466697</v>
+        <v>0.456872</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.451323</v>
+        <v>0.440482</v>
       </c>
       <c r="C19" t="n">
-        <v>0.406406</v>
+        <v>0.402691</v>
       </c>
       <c r="D19" t="n">
-        <v>0.451047</v>
+        <v>0.449782</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428576</v>
+        <v>0.44654</v>
       </c>
       <c r="C20" t="n">
-        <v>0.395335</v>
+        <v>0.391445</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431047</v>
+        <v>0.435648</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.43064</v>
+        <v>0.433271</v>
       </c>
       <c r="C21" t="n">
-        <v>0.379379</v>
+        <v>0.384126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.422387</v>
+        <v>0.425573</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.410205</v>
+        <v>0.416967</v>
       </c>
       <c r="C22" t="n">
-        <v>0.374663</v>
+        <v>0.375805</v>
       </c>
       <c r="D22" t="n">
-        <v>0.418123</v>
+        <v>0.410981</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.417272</v>
+        <v>0.424639</v>
       </c>
       <c r="C23" t="n">
-        <v>0.366978</v>
+        <v>0.36433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.558335</v>
+        <v>0.5592200000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.687122</v>
+        <v>0.671286</v>
       </c>
       <c r="C24" t="n">
-        <v>0.626865</v>
+        <v>0.646098</v>
       </c>
       <c r="D24" t="n">
-        <v>0.540835</v>
+        <v>0.539376</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.650357</v>
+        <v>0.65909</v>
       </c>
       <c r="C25" t="n">
-        <v>0.606241</v>
+        <v>0.629437</v>
       </c>
       <c r="D25" t="n">
-        <v>0.522136</v>
+        <v>0.520079</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.636094</v>
+        <v>0.6425689999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.590942</v>
+        <v>0.597237</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5074920000000001</v>
+        <v>0.49819</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.635016</v>
+        <v>0.609125</v>
       </c>
       <c r="C27" t="n">
-        <v>0.57479</v>
+        <v>0.581971</v>
       </c>
       <c r="D27" t="n">
-        <v>0.489724</v>
+        <v>0.497255</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.600954</v>
+        <v>0.5959950000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.568921</v>
+        <v>0.562563</v>
       </c>
       <c r="D28" t="n">
-        <v>0.470393</v>
+        <v>0.47272</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5821229999999999</v>
+        <v>0.573475</v>
       </c>
       <c r="C29" t="n">
-        <v>0.544481</v>
+        <v>0.538194</v>
       </c>
       <c r="D29" t="n">
-        <v>0.465109</v>
+        <v>0.460482</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.558374</v>
+        <v>0.555199</v>
       </c>
       <c r="C30" t="n">
-        <v>0.523755</v>
+        <v>0.525581</v>
       </c>
       <c r="D30" t="n">
-        <v>0.452074</v>
+        <v>0.443672</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.544768</v>
+        <v>0.53989</v>
       </c>
       <c r="C31" t="n">
-        <v>0.521379</v>
+        <v>0.508921</v>
       </c>
       <c r="D31" t="n">
-        <v>0.437106</v>
+        <v>0.430501</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.540954</v>
+        <v>0.530179</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5058510000000001</v>
+        <v>0.488081</v>
       </c>
       <c r="D32" t="n">
-        <v>0.420539</v>
+        <v>0.419364</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.528263</v>
+        <v>0.526663</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4797</v>
+        <v>0.49257</v>
       </c>
       <c r="D33" t="n">
-        <v>0.409284</v>
+        <v>0.408536</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.500053</v>
+        <v>0.532474</v>
       </c>
       <c r="C34" t="n">
-        <v>0.453618</v>
+        <v>0.454297</v>
       </c>
       <c r="D34" t="n">
-        <v>0.394127</v>
+        <v>0.403635</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.493734</v>
+        <v>0.497359</v>
       </c>
       <c r="C35" t="n">
-        <v>0.446256</v>
+        <v>0.439561</v>
       </c>
       <c r="D35" t="n">
-        <v>0.392455</v>
+        <v>0.394309</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.490932</v>
+        <v>0.473947</v>
       </c>
       <c r="C36" t="n">
-        <v>0.43261</v>
+        <v>0.438253</v>
       </c>
       <c r="D36" t="n">
-        <v>0.382482</v>
+        <v>0.387644</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.473459</v>
+        <v>0.475053</v>
       </c>
       <c r="C37" t="n">
-        <v>0.436226</v>
+        <v>0.4249</v>
       </c>
       <c r="D37" t="n">
-        <v>0.661149</v>
+        <v>0.663519</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.737113</v>
+        <v>0.725813</v>
       </c>
       <c r="C38" t="n">
-        <v>0.691667</v>
+        <v>0.717744</v>
       </c>
       <c r="D38" t="n">
-        <v>0.646258</v>
+        <v>0.637575</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.729558</v>
+        <v>0.727368</v>
       </c>
       <c r="C39" t="n">
-        <v>0.681805</v>
+        <v>0.675845</v>
       </c>
       <c r="D39" t="n">
-        <v>0.62913</v>
+        <v>0.611799</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.683905</v>
+        <v>0.691768</v>
       </c>
       <c r="C40" t="n">
-        <v>0.653048</v>
+        <v>0.663292</v>
       </c>
       <c r="D40" t="n">
-        <v>0.597601</v>
+        <v>0.593209</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.672885</v>
+        <v>0.6630509999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.627313</v>
+        <v>0.666683</v>
       </c>
       <c r="D41" t="n">
-        <v>0.587765</v>
+        <v>0.587429</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.650406</v>
+        <v>0.659374</v>
       </c>
       <c r="C42" t="n">
-        <v>0.60926</v>
+        <v>0.6492599999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.564895</v>
+        <v>0.566462</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.630587</v>
+        <v>0.637111</v>
       </c>
       <c r="C43" t="n">
-        <v>0.593487</v>
+        <v>0.600804</v>
       </c>
       <c r="D43" t="n">
-        <v>0.54245</v>
+        <v>0.55201</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.624332</v>
+        <v>0.611145</v>
       </c>
       <c r="C44" t="n">
-        <v>0.56086</v>
+        <v>0.575612</v>
       </c>
       <c r="D44" t="n">
-        <v>0.530116</v>
+        <v>0.528045</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.592652</v>
+        <v>0.597614</v>
       </c>
       <c r="C45" t="n">
-        <v>0.56588</v>
+        <v>0.562779</v>
       </c>
       <c r="D45" t="n">
-        <v>0.515351</v>
+        <v>0.513118</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.57863</v>
+        <v>0.597083</v>
       </c>
       <c r="C46" t="n">
-        <v>0.531382</v>
+        <v>0.547519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5013030000000001</v>
+        <v>0.491805</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.569426</v>
+        <v>0.563693</v>
       </c>
       <c r="C47" t="n">
-        <v>0.518736</v>
+        <v>0.518324</v>
       </c>
       <c r="D47" t="n">
-        <v>0.482357</v>
+        <v>0.483349</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.558824</v>
+        <v>0.578413</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5116039999999999</v>
+        <v>0.506866</v>
       </c>
       <c r="D48" t="n">
-        <v>0.475899</v>
+        <v>0.478393</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.537693</v>
+        <v>0.552889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.491468</v>
+        <v>0.499302</v>
       </c>
       <c r="D49" t="n">
-        <v>0.461873</v>
+        <v>0.475168</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.524255</v>
+        <v>0.542875</v>
       </c>
       <c r="C50" t="n">
-        <v>0.473413</v>
+        <v>0.48251</v>
       </c>
       <c r="D50" t="n">
-        <v>0.452306</v>
+        <v>0.448929</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.506873</v>
+        <v>0.5296920000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.467546</v>
+        <v>0.475433</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7340719999999999</v>
+        <v>0.747709</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.51266</v>
+        <v>0.508753</v>
       </c>
       <c r="C52" t="n">
-        <v>0.466894</v>
+        <v>0.458692</v>
       </c>
       <c r="D52" t="n">
-        <v>0.726931</v>
+        <v>0.718554</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.796353</v>
+        <v>0.763355</v>
       </c>
       <c r="C53" t="n">
-        <v>0.736775</v>
+        <v>0.747073</v>
       </c>
       <c r="D53" t="n">
-        <v>0.706421</v>
+        <v>0.707151</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.751449</v>
+        <v>0.759057</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7208560000000001</v>
+        <v>0.709713</v>
       </c>
       <c r="D54" t="n">
-        <v>0.692098</v>
+        <v>0.66559</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7404230000000001</v>
+        <v>0.745529</v>
       </c>
       <c r="C55" t="n">
-        <v>0.701437</v>
+        <v>0.684624</v>
       </c>
       <c r="D55" t="n">
-        <v>0.660829</v>
+        <v>0.661732</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.721769</v>
+        <v>0.718893</v>
       </c>
       <c r="C56" t="n">
-        <v>0.662423</v>
+        <v>0.67674</v>
       </c>
       <c r="D56" t="n">
-        <v>0.647394</v>
+        <v>0.649057</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.681663</v>
+        <v>0.7036750000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6537809999999999</v>
+        <v>0.672509</v>
       </c>
       <c r="D57" t="n">
-        <v>0.629278</v>
+        <v>0.621263</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.677789</v>
+        <v>0.677491</v>
       </c>
       <c r="C58" t="n">
-        <v>0.639273</v>
+        <v>0.646718</v>
       </c>
       <c r="D58" t="n">
-        <v>0.605537</v>
+        <v>0.623503</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.680827</v>
+        <v>0.671841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.617449</v>
+        <v>0.619306</v>
       </c>
       <c r="D59" t="n">
-        <v>0.598186</v>
+        <v>0.602301</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.641551</v>
+        <v>0.65744</v>
       </c>
       <c r="C60" t="n">
-        <v>0.599252</v>
+        <v>0.6070680000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.584444</v>
+        <v>0.580283</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.632726</v>
+        <v>0.651455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.592433</v>
+        <v>0.605341</v>
       </c>
       <c r="D61" t="n">
-        <v>0.56351</v>
+        <v>0.560745</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.614718</v>
+        <v>0.624262</v>
       </c>
       <c r="C62" t="n">
-        <v>0.575794</v>
+        <v>0.576614</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5569229999999999</v>
+        <v>0.5542280000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.60462</v>
+        <v>0.614654</v>
       </c>
       <c r="C63" t="n">
-        <v>0.55558</v>
+        <v>0.566815</v>
       </c>
       <c r="D63" t="n">
-        <v>0.533481</v>
+        <v>0.5338619999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.613805</v>
+        <v>0.616272</v>
       </c>
       <c r="C64" t="n">
-        <v>0.547959</v>
+        <v>0.557323</v>
       </c>
       <c r="D64" t="n">
-        <v>0.533195</v>
+        <v>0.53316</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.594494</v>
+        <v>0.59523</v>
       </c>
       <c r="C65" t="n">
-        <v>0.531092</v>
+        <v>0.545592</v>
       </c>
       <c r="D65" t="n">
-        <v>0.524714</v>
+        <v>0.516238</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.594021</v>
+        <v>0.588225</v>
       </c>
       <c r="C66" t="n">
-        <v>0.542954</v>
+        <v>0.529405</v>
       </c>
       <c r="D66" t="n">
-        <v>0.841557</v>
+        <v>0.839198</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.884002</v>
+        <v>0.882232</v>
       </c>
       <c r="C67" t="n">
-        <v>0.833849</v>
+        <v>0.830861</v>
       </c>
       <c r="D67" t="n">
-        <v>0.80506</v>
+        <v>0.806354</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.87719</v>
+        <v>0.848279</v>
       </c>
       <c r="C68" t="n">
-        <v>0.824078</v>
+        <v>0.817326</v>
       </c>
       <c r="D68" t="n">
-        <v>0.784115</v>
+        <v>0.780743</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.837914</v>
+        <v>0.828819</v>
       </c>
       <c r="C69" t="n">
-        <v>0.782068</v>
+        <v>0.7890740000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.743109</v>
+        <v>0.749227</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.821891</v>
+        <v>0.814368</v>
       </c>
       <c r="C70" t="n">
-        <v>0.757179</v>
+        <v>0.763466</v>
       </c>
       <c r="D70" t="n">
-        <v>0.748512</v>
+        <v>0.732451</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.801105</v>
+        <v>0.777662</v>
       </c>
       <c r="C71" t="n">
-        <v>0.753678</v>
+        <v>0.767915</v>
       </c>
       <c r="D71" t="n">
-        <v>0.707661</v>
+        <v>0.707353</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.77158</v>
+        <v>0.777873</v>
       </c>
       <c r="C72" t="n">
-        <v>0.722576</v>
+        <v>0.711181</v>
       </c>
       <c r="D72" t="n">
-        <v>0.700931</v>
+        <v>0.694064</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.748215</v>
+        <v>0.752592</v>
       </c>
       <c r="C73" t="n">
-        <v>0.701685</v>
+        <v>0.70785</v>
       </c>
       <c r="D73" t="n">
-        <v>0.686612</v>
+        <v>0.6776489999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.744678</v>
+        <v>0.745354</v>
       </c>
       <c r="C74" t="n">
-        <v>0.681404</v>
+        <v>0.687808</v>
       </c>
       <c r="D74" t="n">
-        <v>0.659245</v>
+        <v>0.658725</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.736636</v>
+        <v>0.737344</v>
       </c>
       <c r="C75" t="n">
-        <v>0.675914</v>
+        <v>0.662986</v>
       </c>
       <c r="D75" t="n">
-        <v>0.65477</v>
+        <v>0.647154</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.72736</v>
+        <v>0.72462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.666771</v>
+        <v>0.6711009999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.643768</v>
+        <v>0.6417079999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.701326</v>
+        <v>0.701756</v>
       </c>
       <c r="C77" t="n">
-        <v>0.647388</v>
+        <v>0.644192</v>
       </c>
       <c r="D77" t="n">
-        <v>0.624271</v>
+        <v>0.643455</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.679605</v>
+        <v>0.689591</v>
       </c>
       <c r="C78" t="n">
-        <v>0.649529</v>
+        <v>0.642254</v>
       </c>
       <c r="D78" t="n">
-        <v>0.616628</v>
+        <v>0.618597</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.676603</v>
+        <v>0.680583</v>
       </c>
       <c r="C79" t="n">
-        <v>0.625116</v>
+        <v>0.612635</v>
       </c>
       <c r="D79" t="n">
-        <v>0.59739</v>
+        <v>0.602664</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.659861</v>
+        <v>0.664729</v>
       </c>
       <c r="C80" t="n">
-        <v>0.622656</v>
+        <v>0.617056</v>
       </c>
       <c r="D80" t="n">
-        <v>0.922536</v>
+        <v>0.959816</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.972404</v>
+        <v>0.981816</v>
       </c>
       <c r="C81" t="n">
-        <v>0.949947</v>
+        <v>0.9413010000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9223209999999999</v>
+        <v>0.91737</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.949125</v>
+        <v>0.97838</v>
       </c>
       <c r="C82" t="n">
-        <v>0.923029</v>
+        <v>0.940302</v>
       </c>
       <c r="D82" t="n">
-        <v>0.89588</v>
+        <v>0.883623</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.921465</v>
+        <v>0.950166</v>
       </c>
       <c r="C83" t="n">
-        <v>0.895225</v>
+        <v>0.908931</v>
       </c>
       <c r="D83" t="n">
-        <v>0.877385</v>
+        <v>0.875838</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.93594</v>
+        <v>0.933902</v>
       </c>
       <c r="C84" t="n">
-        <v>0.87918</v>
+        <v>0.883306</v>
       </c>
       <c r="D84" t="n">
-        <v>0.843838</v>
+        <v>0.840662</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.911786</v>
+        <v>0.896881</v>
       </c>
       <c r="C85" t="n">
-        <v>0.866132</v>
+        <v>0.881881</v>
       </c>
       <c r="D85" t="n">
-        <v>0.828016</v>
+        <v>0.840797</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.88093</v>
+        <v>0.884358</v>
       </c>
       <c r="C86" t="n">
-        <v>0.864841</v>
+        <v>0.862199</v>
       </c>
       <c r="D86" t="n">
-        <v>0.815705</v>
+        <v>0.811101</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.860084</v>
+        <v>0.867627</v>
       </c>
       <c r="C87" t="n">
-        <v>0.824445</v>
+        <v>0.825055</v>
       </c>
       <c r="D87" t="n">
-        <v>0.800014</v>
+        <v>0.794466</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.855196</v>
+        <v>0.848454</v>
       </c>
       <c r="C88" t="n">
-        <v>0.817416</v>
+        <v>0.815734</v>
       </c>
       <c r="D88" t="n">
-        <v>0.782718</v>
+        <v>0.77396</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8334589999999999</v>
+        <v>0.824684</v>
       </c>
       <c r="C89" t="n">
-        <v>0.786239</v>
+        <v>0.806945</v>
       </c>
       <c r="D89" t="n">
-        <v>0.756216</v>
+        <v>0.755087</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.820373</v>
+        <v>0.8168069999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.773106</v>
+        <v>0.798946</v>
       </c>
       <c r="D90" t="n">
-        <v>0.742389</v>
+        <v>0.757547</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.80858</v>
+        <v>0.812086</v>
       </c>
       <c r="C91" t="n">
-        <v>0.762393</v>
+        <v>0.765338</v>
       </c>
       <c r="D91" t="n">
-        <v>0.733301</v>
+        <v>0.748207</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.788592</v>
+        <v>0.800416</v>
       </c>
       <c r="C92" t="n">
-        <v>0.73372</v>
+        <v>0.768198</v>
       </c>
       <c r="D92" t="n">
-        <v>0.720701</v>
+        <v>0.712382</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.787611</v>
+        <v>0.809329</v>
       </c>
       <c r="C93" t="n">
-        <v>0.732857</v>
+        <v>0.7385119999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.718315</v>
+        <v>0.712462</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.786219</v>
+        <v>0.781316</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7194199999999999</v>
+        <v>0.7263810000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.06203</v>
+        <v>1.05008</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07803</v>
+        <v>1.10964</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0487</v>
+        <v>1.05323</v>
       </c>
       <c r="D95" t="n">
-        <v>1.01629</v>
+        <v>1.03024</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08623</v>
+        <v>1.0733</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06897</v>
+        <v>1.05362</v>
       </c>
       <c r="D96" t="n">
-        <v>1.01103</v>
+        <v>1.04811</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03577</v>
+        <v>1.08317</v>
       </c>
       <c r="C97" t="n">
-        <v>1.00638</v>
+        <v>1.03382</v>
       </c>
       <c r="D97" t="n">
-        <v>0.990498</v>
+        <v>0.996626</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02984</v>
+        <v>1.07057</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00232</v>
+        <v>1.00811</v>
       </c>
       <c r="D98" t="n">
-        <v>0.959945</v>
+        <v>0.97995</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02934</v>
+        <v>1.04468</v>
       </c>
       <c r="C99" t="n">
-        <v>0.998369</v>
+        <v>1.01326</v>
       </c>
       <c r="D99" t="n">
-        <v>0.941907</v>
+        <v>0.9576440000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9993570000000001</v>
+        <v>1.03885</v>
       </c>
       <c r="C100" t="n">
-        <v>0.968928</v>
+        <v>1.01404</v>
       </c>
       <c r="D100" t="n">
-        <v>0.922273</v>
+        <v>0.9739139999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.999115</v>
+        <v>0.984623</v>
       </c>
       <c r="C101" t="n">
-        <v>0.96853</v>
+        <v>0.982419</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9013139999999999</v>
+        <v>0.91084</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.972388</v>
+        <v>0.993031</v>
       </c>
       <c r="C102" t="n">
-        <v>0.945998</v>
+        <v>0.96099</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8983910000000001</v>
+        <v>0.893483</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.964018</v>
+        <v>0.998741</v>
       </c>
       <c r="C103" t="n">
-        <v>0.939903</v>
+        <v>0.929664</v>
       </c>
       <c r="D103" t="n">
-        <v>0.870335</v>
+        <v>0.881204</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.952477</v>
+        <v>0.943141</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9258</v>
+        <v>0.942719</v>
       </c>
       <c r="D104" t="n">
-        <v>0.864569</v>
+        <v>0.869853</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.961117</v>
+        <v>0.936804</v>
       </c>
       <c r="C105" t="n">
-        <v>0.904592</v>
+        <v>0.911227</v>
       </c>
       <c r="D105" t="n">
-        <v>0.860607</v>
+        <v>0.868609</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.950668</v>
+        <v>0.942422</v>
       </c>
       <c r="C106" t="n">
-        <v>0.897478</v>
+        <v>0.9120239999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.824006</v>
+        <v>0.83811</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.906608</v>
+        <v>0.921926</v>
       </c>
       <c r="C107" t="n">
-        <v>0.882628</v>
+        <v>0.89785</v>
       </c>
       <c r="D107" t="n">
-        <v>0.834653</v>
+        <v>0.834244</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.90444</v>
+        <v>0.919107</v>
       </c>
       <c r="C108" t="n">
-        <v>0.873928</v>
+        <v>0.878627</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18063</v>
+        <v>1.19475</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.929127</v>
+        <v>0.9103019999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.880228</v>
+        <v>0.859328</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13457</v>
+        <v>1.19863</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.204</v>
+        <v>1.22482</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19059</v>
+        <v>1.20898</v>
       </c>
       <c r="D110" t="n">
-        <v>1.15397</v>
+        <v>1.16647</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18661</v>
+        <v>1.23147</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19647</v>
+        <v>1.19751</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14117</v>
+        <v>1.13995</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17159</v>
+        <v>1.20544</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18321</v>
+        <v>1.18219</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12703</v>
+        <v>1.14422</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17845</v>
+        <v>1.19655</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15513</v>
+        <v>1.20655</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11967</v>
+        <v>1.12353</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15453</v>
+        <v>1.20167</v>
       </c>
       <c r="C114" t="n">
-        <v>1.14673</v>
+        <v>1.16221</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08555</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16833</v>
+        <v>1.16795</v>
       </c>
       <c r="C115" t="n">
-        <v>1.13027</v>
+        <v>1.15492</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12782</v>
+        <v>1.1143</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.15736</v>
+        <v>1.15052</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13539</v>
+        <v>1.15102</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07411</v>
+        <v>1.10508</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15235</v>
+        <v>1.16724</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12247</v>
+        <v>1.15011</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07671</v>
+        <v>1.08322</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13404</v>
+        <v>1.13782</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11088</v>
+        <v>1.12361</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05364</v>
+        <v>1.05371</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12467</v>
+        <v>1.14168</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10635</v>
+        <v>1.13899</v>
       </c>
       <c r="D119" t="n">
-        <v>1.06756</v>
+        <v>1.06296</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11442</v>
+        <v>1.11103</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09883</v>
+        <v>1.118</v>
       </c>
       <c r="D120" t="n">
-        <v>1.06333</v>
+        <v>1.0529</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11918</v>
+        <v>1.1156</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10724</v>
+        <v>1.08643</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05559</v>
+        <v>1.0178</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.13347</v>
+        <v>1.12826</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10695</v>
+        <v>1.10628</v>
       </c>
       <c r="D122" t="n">
-        <v>1.03852</v>
+        <v>1.01819</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.12057</v>
+        <v>1.13227</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0967</v>
+        <v>1.09399</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36994</v>
+        <v>1.40164</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4219</v>
+        <v>1.44485</v>
       </c>
       <c r="C124" t="n">
-        <v>1.40983</v>
+        <v>1.45666</v>
       </c>
       <c r="D124" t="n">
-        <v>1.35444</v>
+        <v>1.37414</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42171</v>
+        <v>1.42096</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41728</v>
+        <v>1.41115</v>
       </c>
       <c r="D125" t="n">
-        <v>1.38636</v>
+        <v>1.36641</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3919</v>
+        <v>1.42781</v>
       </c>
       <c r="C126" t="n">
-        <v>1.43143</v>
+        <v>1.42</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3586</v>
+        <v>1.35383</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.41984</v>
+        <v>1.40394</v>
       </c>
       <c r="C127" t="n">
-        <v>1.41481</v>
+        <v>1.42273</v>
       </c>
       <c r="D127" t="n">
-        <v>1.37614</v>
+        <v>1.37235</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.41534</v>
+        <v>1.4133</v>
       </c>
       <c r="C128" t="n">
-        <v>1.45038</v>
+        <v>1.43887</v>
       </c>
       <c r="D128" t="n">
-        <v>1.38836</v>
+        <v>1.37928</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.40471</v>
+        <v>1.40509</v>
       </c>
       <c r="C129" t="n">
-        <v>1.40016</v>
+        <v>1.42523</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3519</v>
+        <v>1.36218</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39374</v>
+        <v>1.39869</v>
       </c>
       <c r="C130" t="n">
-        <v>1.39204</v>
+        <v>1.42857</v>
       </c>
       <c r="D130" t="n">
-        <v>1.38266</v>
+        <v>1.37061</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40116</v>
+        <v>1.39308</v>
       </c>
       <c r="C131" t="n">
-        <v>1.39396</v>
+        <v>1.39855</v>
       </c>
       <c r="D131" t="n">
-        <v>1.35536</v>
+        <v>1.35034</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42032</v>
+        <v>1.3927</v>
       </c>
       <c r="C132" t="n">
-        <v>1.38614</v>
+        <v>1.38517</v>
       </c>
       <c r="D132" t="n">
-        <v>1.35661</v>
+        <v>1.36209</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.41676</v>
+        <v>1.40869</v>
       </c>
       <c r="C133" t="n">
-        <v>1.42132</v>
+        <v>1.39746</v>
       </c>
       <c r="D133" t="n">
-        <v>1.3932</v>
+        <v>1.32774</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41612</v>
+        <v>1.38082</v>
       </c>
       <c r="C134" t="n">
-        <v>1.40127</v>
+        <v>1.37794</v>
       </c>
       <c r="D134" t="n">
-        <v>1.34024</v>
+        <v>1.35491</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.4255</v>
+        <v>1.40196</v>
       </c>
       <c r="C135" t="n">
-        <v>1.40238</v>
+        <v>1.40193</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35968</v>
+        <v>1.35788</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39936</v>
+        <v>1.40868</v>
       </c>
       <c r="C136" t="n">
-        <v>1.38734</v>
+        <v>1.39034</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34663</v>
+        <v>1.37543</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.38842</v>
+        <v>1.41203</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39719</v>
+        <v>1.39351</v>
       </c>
       <c r="D137" t="n">
-        <v>1.71364</v>
+        <v>1.74462</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.71753</v>
+        <v>1.74222</v>
       </c>
       <c r="C138" t="n">
-        <v>1.70743</v>
+        <v>1.77091</v>
       </c>
       <c r="D138" t="n">
-        <v>1.70256</v>
+        <v>1.71106</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.72311</v>
+        <v>1.72998</v>
       </c>
       <c r="C139" t="n">
-        <v>1.72351</v>
+        <v>1.73991</v>
       </c>
       <c r="D139" t="n">
-        <v>1.69341</v>
+        <v>1.73239</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71841</v>
+        <v>1.71069</v>
       </c>
       <c r="C140" t="n">
-        <v>1.738</v>
+        <v>1.73987</v>
       </c>
       <c r="D140" t="n">
-        <v>1.70817</v>
+        <v>1.71179</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.71662</v>
+        <v>1.7174</v>
       </c>
       <c r="C141" t="n">
-        <v>1.73357</v>
+        <v>1.72502</v>
       </c>
       <c r="D141" t="n">
-        <v>1.70891</v>
+        <v>1.71364</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.692</v>
+        <v>1.72188</v>
       </c>
       <c r="C142" t="n">
-        <v>1.70806</v>
+        <v>1.73537</v>
       </c>
       <c r="D142" t="n">
-        <v>1.70342</v>
+        <v>1.70047</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70146</v>
+        <v>1.72085</v>
       </c>
       <c r="C143" t="n">
-        <v>1.71013</v>
+        <v>1.73887</v>
       </c>
       <c r="D143" t="n">
-        <v>1.68695</v>
+        <v>1.71149</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6178090000000001</v>
+        <v>0.618946</v>
       </c>
       <c r="C2" t="n">
-        <v>0.473804</v>
+        <v>0.48547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.319144</v>
+        <v>0.342565</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.371025</v>
+        <v>0.3652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.297931</v>
+        <v>0.311952</v>
       </c>
       <c r="D3" t="n">
-        <v>0.300186</v>
+        <v>0.315657</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.35626</v>
+        <v>0.343527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.289579</v>
+        <v>0.300216</v>
       </c>
       <c r="D4" t="n">
-        <v>0.289736</v>
+        <v>0.318386</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.341129</v>
+        <v>0.347395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.296451</v>
+        <v>0.287886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.309207</v>
+        <v>0.302119</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.358326</v>
+        <v>0.329054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291467</v>
+        <v>0.287317</v>
       </c>
       <c r="D6" t="n">
-        <v>0.294855</v>
+        <v>0.314879</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.337466</v>
+        <v>0.33796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.285746</v>
+        <v>0.295336</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291805</v>
+        <v>0.296693</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.341785</v>
+        <v>0.334001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.289081</v>
+        <v>0.280108</v>
       </c>
       <c r="D8" t="n">
-        <v>0.288994</v>
+        <v>0.305037</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.350006</v>
+        <v>0.321768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.277471</v>
+        <v>0.275998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.628647</v>
+        <v>0.287955</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.601085</v>
+        <v>0.572427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.557383</v>
+        <v>0.542907</v>
       </c>
       <c r="D10" t="n">
-        <v>0.623431</v>
+        <v>0.572977</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.57816</v>
+        <v>0.556001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.538954</v>
+        <v>0.527236</v>
       </c>
       <c r="D11" t="n">
-        <v>0.585457</v>
+        <v>0.547208</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.555335</v>
+        <v>0.540399</v>
       </c>
       <c r="C12" t="n">
-        <v>0.515448</v>
+        <v>0.510742</v>
       </c>
       <c r="D12" t="n">
-        <v>0.578372</v>
+        <v>0.536656</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.538073</v>
+        <v>0.547759</v>
       </c>
       <c r="C13" t="n">
-        <v>0.504239</v>
+        <v>0.485321</v>
       </c>
       <c r="D13" t="n">
-        <v>0.551021</v>
+        <v>0.529425</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.527073</v>
+        <v>0.51915</v>
       </c>
       <c r="C14" t="n">
-        <v>0.489867</v>
+        <v>0.484453</v>
       </c>
       <c r="D14" t="n">
-        <v>0.537602</v>
+        <v>0.499084</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.50286</v>
+        <v>0.511361</v>
       </c>
       <c r="C15" t="n">
-        <v>0.463936</v>
+        <v>0.454468</v>
       </c>
       <c r="D15" t="n">
-        <v>0.510948</v>
+        <v>0.480425</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.490785</v>
+        <v>0.490125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.447898</v>
+        <v>0.442872</v>
       </c>
       <c r="D16" t="n">
-        <v>0.492328</v>
+        <v>0.456056</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.477087</v>
+        <v>0.462409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.425959</v>
+        <v>0.420309</v>
       </c>
       <c r="D17" t="n">
-        <v>0.475872</v>
+        <v>0.442872</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460741</v>
+        <v>0.45605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.409969</v>
+        <v>0.414391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.456872</v>
+        <v>0.445585</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440482</v>
+        <v>0.440088</v>
       </c>
       <c r="C19" t="n">
-        <v>0.402691</v>
+        <v>0.407028</v>
       </c>
       <c r="D19" t="n">
-        <v>0.449782</v>
+        <v>0.420243</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.44654</v>
+        <v>0.430577</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391445</v>
+        <v>0.392258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.435648</v>
+        <v>0.419149</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433271</v>
+        <v>0.42631</v>
       </c>
       <c r="C21" t="n">
-        <v>0.384126</v>
+        <v>0.387666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.425573</v>
+        <v>0.400239</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.416967</v>
+        <v>0.426159</v>
       </c>
       <c r="C22" t="n">
-        <v>0.375805</v>
+        <v>0.379813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.410981</v>
+        <v>0.40199</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.424639</v>
+        <v>0.426127</v>
       </c>
       <c r="C23" t="n">
-        <v>0.36433</v>
+        <v>0.376692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5592200000000001</v>
+        <v>0.389866</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.671286</v>
+        <v>0.691366</v>
       </c>
       <c r="C24" t="n">
-        <v>0.646098</v>
+        <v>0.660412</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539376</v>
+        <v>0.663429</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.65909</v>
+        <v>0.647489</v>
       </c>
       <c r="C25" t="n">
-        <v>0.629437</v>
+        <v>0.61736</v>
       </c>
       <c r="D25" t="n">
-        <v>0.520079</v>
+        <v>0.6576959999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6425689999999999</v>
+        <v>0.642449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.597237</v>
+        <v>0.6104349999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.49819</v>
+        <v>0.627493</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.609125</v>
+        <v>0.624869</v>
       </c>
       <c r="C27" t="n">
-        <v>0.581971</v>
+        <v>0.579657</v>
       </c>
       <c r="D27" t="n">
-        <v>0.497255</v>
+        <v>0.609669</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5959950000000001</v>
+        <v>0.6025740000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.562563</v>
+        <v>0.573669</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47272</v>
+        <v>0.582833</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.573475</v>
+        <v>0.58634</v>
       </c>
       <c r="C29" t="n">
-        <v>0.538194</v>
+        <v>0.5404910000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.460482</v>
+        <v>0.563598</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.555199</v>
+        <v>0.574205</v>
       </c>
       <c r="C30" t="n">
-        <v>0.525581</v>
+        <v>0.535934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.443672</v>
+        <v>0.575925</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.53989</v>
+        <v>0.54393</v>
       </c>
       <c r="C31" t="n">
-        <v>0.508921</v>
+        <v>0.509327</v>
       </c>
       <c r="D31" t="n">
-        <v>0.430501</v>
+        <v>0.5354139999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.530179</v>
+        <v>0.5323369999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.488081</v>
+        <v>0.494523</v>
       </c>
       <c r="D32" t="n">
-        <v>0.419364</v>
+        <v>0.522701</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.526663</v>
+        <v>0.524248</v>
       </c>
       <c r="C33" t="n">
-        <v>0.49257</v>
+        <v>0.481388</v>
       </c>
       <c r="D33" t="n">
-        <v>0.408536</v>
+        <v>0.507637</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.532474</v>
+        <v>0.523634</v>
       </c>
       <c r="C34" t="n">
-        <v>0.454297</v>
+        <v>0.472793</v>
       </c>
       <c r="D34" t="n">
-        <v>0.403635</v>
+        <v>0.493157</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.497359</v>
+        <v>0.486866</v>
       </c>
       <c r="C35" t="n">
-        <v>0.439561</v>
+        <v>0.458137</v>
       </c>
       <c r="D35" t="n">
-        <v>0.394309</v>
+        <v>0.476225</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.473947</v>
+        <v>0.500261</v>
       </c>
       <c r="C36" t="n">
-        <v>0.438253</v>
+        <v>0.445137</v>
       </c>
       <c r="D36" t="n">
-        <v>0.387644</v>
+        <v>0.457368</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.475053</v>
+        <v>0.475605</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4249</v>
+        <v>0.431473</v>
       </c>
       <c r="D37" t="n">
-        <v>0.663519</v>
+        <v>0.452011</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.725813</v>
+        <v>0.743722</v>
       </c>
       <c r="C38" t="n">
-        <v>0.717744</v>
+        <v>0.710544</v>
       </c>
       <c r="D38" t="n">
-        <v>0.637575</v>
+        <v>0.761767</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.727368</v>
+        <v>0.720956</v>
       </c>
       <c r="C39" t="n">
-        <v>0.675845</v>
+        <v>0.699481</v>
       </c>
       <c r="D39" t="n">
-        <v>0.611799</v>
+        <v>0.7303460000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.691768</v>
+        <v>0.714279</v>
       </c>
       <c r="C40" t="n">
-        <v>0.663292</v>
+        <v>0.670365</v>
       </c>
       <c r="D40" t="n">
-        <v>0.593209</v>
+        <v>0.697984</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6630509999999999</v>
+        <v>0.6957100000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.666683</v>
+        <v>0.65252</v>
       </c>
       <c r="D41" t="n">
-        <v>0.587429</v>
+        <v>0.678664</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.659374</v>
+        <v>0.656786</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6492599999999999</v>
+        <v>0.630727</v>
       </c>
       <c r="D42" t="n">
-        <v>0.566462</v>
+        <v>0.660517</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.637111</v>
+        <v>0.630744</v>
       </c>
       <c r="C43" t="n">
-        <v>0.600804</v>
+        <v>0.607882</v>
       </c>
       <c r="D43" t="n">
-        <v>0.55201</v>
+        <v>0.632418</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.611145</v>
+        <v>0.6391520000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.575612</v>
+        <v>0.5881</v>
       </c>
       <c r="D44" t="n">
-        <v>0.528045</v>
+        <v>0.614546</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.597614</v>
+        <v>0.606217</v>
       </c>
       <c r="C45" t="n">
-        <v>0.562779</v>
+        <v>0.563735</v>
       </c>
       <c r="D45" t="n">
-        <v>0.513118</v>
+        <v>0.587539</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.597083</v>
+        <v>0.57773</v>
       </c>
       <c r="C46" t="n">
-        <v>0.547519</v>
+        <v>0.545014</v>
       </c>
       <c r="D46" t="n">
-        <v>0.491805</v>
+        <v>0.556534</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.563693</v>
+        <v>0.56726</v>
       </c>
       <c r="C47" t="n">
-        <v>0.518324</v>
+        <v>0.533298</v>
       </c>
       <c r="D47" t="n">
-        <v>0.483349</v>
+        <v>0.554172</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.578413</v>
+        <v>0.553328</v>
       </c>
       <c r="C48" t="n">
-        <v>0.506866</v>
+        <v>0.528969</v>
       </c>
       <c r="D48" t="n">
-        <v>0.478393</v>
+        <v>0.55098</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.552889</v>
+        <v>0.541212</v>
       </c>
       <c r="C49" t="n">
-        <v>0.499302</v>
+        <v>0.5166770000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.475168</v>
+        <v>0.542046</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.542875</v>
+        <v>0.535774</v>
       </c>
       <c r="C50" t="n">
-        <v>0.48251</v>
+        <v>0.498349</v>
       </c>
       <c r="D50" t="n">
-        <v>0.448929</v>
+        <v>0.512578</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5296920000000001</v>
+        <v>0.5337190000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.475433</v>
+        <v>0.484563</v>
       </c>
       <c r="D51" t="n">
-        <v>0.747709</v>
+        <v>0.499355</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.508753</v>
+        <v>0.521113</v>
       </c>
       <c r="C52" t="n">
-        <v>0.458692</v>
+        <v>0.475126</v>
       </c>
       <c r="D52" t="n">
-        <v>0.718554</v>
+        <v>0.492711</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.763355</v>
+        <v>0.774189</v>
       </c>
       <c r="C53" t="n">
-        <v>0.747073</v>
+        <v>0.760073</v>
       </c>
       <c r="D53" t="n">
-        <v>0.707151</v>
+        <v>0.780788</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.759057</v>
+        <v>0.777122</v>
       </c>
       <c r="C54" t="n">
-        <v>0.709713</v>
+        <v>0.733888</v>
       </c>
       <c r="D54" t="n">
-        <v>0.66559</v>
+        <v>0.766383</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.745529</v>
+        <v>0.738295</v>
       </c>
       <c r="C55" t="n">
-        <v>0.684624</v>
+        <v>0.697703</v>
       </c>
       <c r="D55" t="n">
-        <v>0.661732</v>
+        <v>0.725516</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.718893</v>
+        <v>0.733091</v>
       </c>
       <c r="C56" t="n">
-        <v>0.67674</v>
+        <v>0.705298</v>
       </c>
       <c r="D56" t="n">
-        <v>0.649057</v>
+        <v>0.712332</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7036750000000001</v>
+        <v>0.719997</v>
       </c>
       <c r="C57" t="n">
-        <v>0.672509</v>
+        <v>0.680194</v>
       </c>
       <c r="D57" t="n">
-        <v>0.621263</v>
+        <v>0.70189</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.677491</v>
+        <v>0.7039570000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.646718</v>
+        <v>0.6354959999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.623503</v>
+        <v>0.673629</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.671841</v>
+        <v>0.664701</v>
       </c>
       <c r="C59" t="n">
-        <v>0.619306</v>
+        <v>0.643137</v>
       </c>
       <c r="D59" t="n">
-        <v>0.602301</v>
+        <v>0.671445</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.65744</v>
+        <v>0.668113</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6070680000000001</v>
+        <v>0.619426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.580283</v>
+        <v>0.634981</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.651455</v>
+        <v>0.676555</v>
       </c>
       <c r="C61" t="n">
-        <v>0.605341</v>
+        <v>0.587722</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560745</v>
+        <v>0.621351</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.624262</v>
+        <v>0.650185</v>
       </c>
       <c r="C62" t="n">
-        <v>0.576614</v>
+        <v>0.592264</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5542280000000001</v>
+        <v>0.603395</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.614654</v>
+        <v>0.630026</v>
       </c>
       <c r="C63" t="n">
-        <v>0.566815</v>
+        <v>0.582972</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5338619999999999</v>
+        <v>0.597272</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.616272</v>
+        <v>0.609108</v>
       </c>
       <c r="C64" t="n">
-        <v>0.557323</v>
+        <v>0.566476</v>
       </c>
       <c r="D64" t="n">
-        <v>0.53316</v>
+        <v>0.593662</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.59523</v>
+        <v>0.612196</v>
       </c>
       <c r="C65" t="n">
-        <v>0.545592</v>
+        <v>0.5475370000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.516238</v>
+        <v>0.570825</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.588225</v>
+        <v>0.603054</v>
       </c>
       <c r="C66" t="n">
-        <v>0.529405</v>
+        <v>0.540533</v>
       </c>
       <c r="D66" t="n">
-        <v>0.839198</v>
+        <v>0.569363</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.882232</v>
+        <v>0.890405</v>
       </c>
       <c r="C67" t="n">
-        <v>0.830861</v>
+        <v>0.848496</v>
       </c>
       <c r="D67" t="n">
-        <v>0.806354</v>
+        <v>0.883091</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.848279</v>
+        <v>0.872961</v>
       </c>
       <c r="C68" t="n">
-        <v>0.817326</v>
+        <v>0.830067</v>
       </c>
       <c r="D68" t="n">
-        <v>0.780743</v>
+        <v>0.866174</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.828819</v>
+        <v>0.857579</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7890740000000001</v>
+        <v>0.81435</v>
       </c>
       <c r="D69" t="n">
-        <v>0.749227</v>
+        <v>0.818726</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.814368</v>
+        <v>0.83622</v>
       </c>
       <c r="C70" t="n">
-        <v>0.763466</v>
+        <v>0.791506</v>
       </c>
       <c r="D70" t="n">
-        <v>0.732451</v>
+        <v>0.807669</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.777662</v>
+        <v>0.827151</v>
       </c>
       <c r="C71" t="n">
-        <v>0.767915</v>
+        <v>0.770241</v>
       </c>
       <c r="D71" t="n">
-        <v>0.707353</v>
+        <v>0.783017</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.777873</v>
+        <v>0.784784</v>
       </c>
       <c r="C72" t="n">
-        <v>0.711181</v>
+        <v>0.747723</v>
       </c>
       <c r="D72" t="n">
-        <v>0.694064</v>
+        <v>0.758505</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.752592</v>
+        <v>0.78272</v>
       </c>
       <c r="C73" t="n">
-        <v>0.70785</v>
+        <v>0.736642</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6776489999999999</v>
+        <v>0.754925</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.745354</v>
+        <v>0.776</v>
       </c>
       <c r="C74" t="n">
-        <v>0.687808</v>
+        <v>0.713801</v>
       </c>
       <c r="D74" t="n">
-        <v>0.658725</v>
+        <v>0.725734</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.737344</v>
+        <v>0.740796</v>
       </c>
       <c r="C75" t="n">
-        <v>0.662986</v>
+        <v>0.688605</v>
       </c>
       <c r="D75" t="n">
-        <v>0.647154</v>
+        <v>0.693613</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.72462</v>
+        <v>0.734475</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6711009999999999</v>
+        <v>0.676556</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6417079999999999</v>
+        <v>0.677229</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.701756</v>
+        <v>0.708883</v>
       </c>
       <c r="C77" t="n">
-        <v>0.644192</v>
+        <v>0.665797</v>
       </c>
       <c r="D77" t="n">
-        <v>0.643455</v>
+        <v>0.674086</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.689591</v>
+        <v>0.713935</v>
       </c>
       <c r="C78" t="n">
-        <v>0.642254</v>
+        <v>0.642587</v>
       </c>
       <c r="D78" t="n">
-        <v>0.618597</v>
+        <v>0.647926</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.680583</v>
+        <v>0.688841</v>
       </c>
       <c r="C79" t="n">
-        <v>0.612635</v>
+        <v>0.643701</v>
       </c>
       <c r="D79" t="n">
-        <v>0.602664</v>
+        <v>0.650093</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.664729</v>
+        <v>0.685864</v>
       </c>
       <c r="C80" t="n">
-        <v>0.617056</v>
+        <v>0.655162</v>
       </c>
       <c r="D80" t="n">
-        <v>0.959816</v>
+        <v>0.635393</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.981816</v>
+        <v>1.01362</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9413010000000001</v>
+        <v>0.976913</v>
       </c>
       <c r="D81" t="n">
-        <v>0.91737</v>
+        <v>1.00921</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.97838</v>
+        <v>0.981496</v>
       </c>
       <c r="C82" t="n">
-        <v>0.940302</v>
+        <v>0.949823</v>
       </c>
       <c r="D82" t="n">
-        <v>0.883623</v>
+        <v>0.993835</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.950166</v>
+        <v>0.966691</v>
       </c>
       <c r="C83" t="n">
-        <v>0.908931</v>
+        <v>0.921023</v>
       </c>
       <c r="D83" t="n">
-        <v>0.875838</v>
+        <v>0.945883</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.933902</v>
+        <v>0.967146</v>
       </c>
       <c r="C84" t="n">
-        <v>0.883306</v>
+        <v>0.923724</v>
       </c>
       <c r="D84" t="n">
-        <v>0.840662</v>
+        <v>0.924461</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.896881</v>
+        <v>0.9460190000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.881881</v>
+        <v>0.886419</v>
       </c>
       <c r="D85" t="n">
-        <v>0.840797</v>
+        <v>0.880906</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.884358</v>
+        <v>0.912004</v>
       </c>
       <c r="C86" t="n">
-        <v>0.862199</v>
+        <v>0.854841</v>
       </c>
       <c r="D86" t="n">
-        <v>0.811101</v>
+        <v>0.86708</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.867627</v>
+        <v>0.866712</v>
       </c>
       <c r="C87" t="n">
-        <v>0.825055</v>
+        <v>0.8448059999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.794466</v>
+        <v>0.854403</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.848454</v>
+        <v>0.85037</v>
       </c>
       <c r="C88" t="n">
-        <v>0.815734</v>
+        <v>0.8182469999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.77396</v>
+        <v>0.833214</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.824684</v>
+        <v>0.862911</v>
       </c>
       <c r="C89" t="n">
-        <v>0.806945</v>
+        <v>0.818655</v>
       </c>
       <c r="D89" t="n">
-        <v>0.755087</v>
+        <v>0.836987</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8168069999999999</v>
+        <v>0.840048</v>
       </c>
       <c r="C90" t="n">
-        <v>0.798946</v>
+        <v>0.8057609999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.757547</v>
+        <v>0.802385</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.812086</v>
+        <v>0.834999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.765338</v>
+        <v>0.762551</v>
       </c>
       <c r="D91" t="n">
-        <v>0.748207</v>
+        <v>0.755332</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.800416</v>
+        <v>0.820485</v>
       </c>
       <c r="C92" t="n">
-        <v>0.768198</v>
+        <v>0.77601</v>
       </c>
       <c r="D92" t="n">
-        <v>0.712382</v>
+        <v>0.765701</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.809329</v>
+        <v>0.812802</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7385119999999999</v>
+        <v>0.755751</v>
       </c>
       <c r="D93" t="n">
-        <v>0.712462</v>
+        <v>0.776913</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.781316</v>
+        <v>0.780232</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7263810000000001</v>
+        <v>0.738032</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05008</v>
+        <v>0.748295</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10964</v>
+        <v>1.12198</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05323</v>
+        <v>1.07306</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03024</v>
+        <v>1.07963</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0733</v>
+        <v>1.11376</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05362</v>
+        <v>1.07348</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04811</v>
+        <v>1.08577</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.08317</v>
+        <v>1.0631</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03382</v>
+        <v>1.07076</v>
       </c>
       <c r="D97" t="n">
-        <v>0.996626</v>
+        <v>1.02949</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07057</v>
+        <v>1.03705</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00811</v>
+        <v>1.05564</v>
       </c>
       <c r="D98" t="n">
-        <v>0.97995</v>
+        <v>1.03637</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.04468</v>
+        <v>1.04414</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01326</v>
+        <v>1.02615</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9576440000000001</v>
+        <v>1.01227</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03885</v>
+        <v>1.04902</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01404</v>
+        <v>1.02226</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9739139999999999</v>
+        <v>0.983674</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.984623</v>
+        <v>1.0229</v>
       </c>
       <c r="C101" t="n">
-        <v>0.982419</v>
+        <v>0.987264</v>
       </c>
       <c r="D101" t="n">
-        <v>0.91084</v>
+        <v>0.989333</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.993031</v>
+        <v>1.00615</v>
       </c>
       <c r="C102" t="n">
-        <v>0.96099</v>
+        <v>0.9824349999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.893483</v>
+        <v>0.948411</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.998741</v>
+        <v>0.9696939999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.929664</v>
+        <v>0.941036</v>
       </c>
       <c r="D103" t="n">
-        <v>0.881204</v>
+        <v>0.915034</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.943141</v>
+        <v>0.940374</v>
       </c>
       <c r="C104" t="n">
-        <v>0.942719</v>
+        <v>0.939059</v>
       </c>
       <c r="D104" t="n">
-        <v>0.869853</v>
+        <v>0.924475</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.936804</v>
+        <v>0.950161</v>
       </c>
       <c r="C105" t="n">
-        <v>0.911227</v>
+        <v>0.916086</v>
       </c>
       <c r="D105" t="n">
-        <v>0.868609</v>
+        <v>0.891803</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.942422</v>
+        <v>0.931323</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9120239999999999</v>
+        <v>0.898007</v>
       </c>
       <c r="D106" t="n">
-        <v>0.83811</v>
+        <v>0.875027</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.921926</v>
+        <v>0.93782</v>
       </c>
       <c r="C107" t="n">
-        <v>0.89785</v>
+        <v>0.909258</v>
       </c>
       <c r="D107" t="n">
-        <v>0.834244</v>
+        <v>0.878066</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.919107</v>
+        <v>0.929321</v>
       </c>
       <c r="C108" t="n">
-        <v>0.878627</v>
+        <v>0.882822</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19475</v>
+        <v>0.862005</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9103019999999999</v>
+        <v>0.908847</v>
       </c>
       <c r="C109" t="n">
-        <v>0.859328</v>
+        <v>0.867036</v>
       </c>
       <c r="D109" t="n">
-        <v>1.19863</v>
+        <v>0.877566</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22482</v>
+        <v>1.2407</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20898</v>
+        <v>1.22367</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16647</v>
+        <v>1.2278</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23147</v>
+        <v>1.23426</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19751</v>
+        <v>1.22555</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13995</v>
+        <v>1.20253</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.20544</v>
+        <v>1.21866</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18219</v>
+        <v>1.20497</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14422</v>
+        <v>1.18396</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.19655</v>
+        <v>1.19572</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20655</v>
+        <v>1.19174</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12353</v>
+        <v>1.16301</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.20167</v>
+        <v>1.17937</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16221</v>
+        <v>1.17801</v>
       </c>
       <c r="D114" t="n">
-        <v>1.113</v>
+        <v>1.14162</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16795</v>
+        <v>1.19425</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15492</v>
+        <v>1.16408</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1143</v>
+        <v>1.13212</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.15052</v>
+        <v>1.17479</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15102</v>
+        <v>1.15735</v>
       </c>
       <c r="D116" t="n">
-        <v>1.10508</v>
+        <v>1.10643</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16724</v>
+        <v>1.18283</v>
       </c>
       <c r="C117" t="n">
-        <v>1.15011</v>
+        <v>1.15846</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08322</v>
+        <v>1.08431</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13782</v>
+        <v>1.14621</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12361</v>
+        <v>1.12451</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05371</v>
+        <v>1.08589</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14168</v>
+        <v>1.12319</v>
       </c>
       <c r="C119" t="n">
-        <v>1.13899</v>
+        <v>1.1062</v>
       </c>
       <c r="D119" t="n">
-        <v>1.06296</v>
+        <v>1.08106</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11103</v>
+        <v>1.16366</v>
       </c>
       <c r="C120" t="n">
-        <v>1.118</v>
+        <v>1.12856</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0529</v>
+        <v>1.0961</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1156</v>
+        <v>1.12017</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08643</v>
+        <v>1.11431</v>
       </c>
       <c r="D121" t="n">
-        <v>1.0178</v>
+        <v>1.04351</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12826</v>
+        <v>1.11432</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10628</v>
+        <v>1.0792</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01819</v>
+        <v>1.05352</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.13227</v>
+        <v>1.11372</v>
       </c>
       <c r="C123" t="n">
-        <v>1.09399</v>
+        <v>1.08819</v>
       </c>
       <c r="D123" t="n">
-        <v>1.40164</v>
+        <v>1.06756</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.44485</v>
+        <v>1.41364</v>
       </c>
       <c r="C124" t="n">
-        <v>1.45666</v>
+        <v>1.41629</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37414</v>
+        <v>1.38669</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42096</v>
+        <v>1.44882</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41115</v>
+        <v>1.42849</v>
       </c>
       <c r="D125" t="n">
-        <v>1.36641</v>
+        <v>1.40773</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42781</v>
+        <v>1.4442</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42</v>
+        <v>1.42142</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35383</v>
+        <v>1.41201</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40394</v>
+        <v>1.40862</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42273</v>
+        <v>1.42641</v>
       </c>
       <c r="D127" t="n">
-        <v>1.37235</v>
+        <v>1.40702</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.4133</v>
+        <v>1.4117</v>
       </c>
       <c r="C128" t="n">
-        <v>1.43887</v>
+        <v>1.41772</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37928</v>
+        <v>1.37998</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.40509</v>
+        <v>1.4186</v>
       </c>
       <c r="C129" t="n">
-        <v>1.42523</v>
+        <v>1.40156</v>
       </c>
       <c r="D129" t="n">
-        <v>1.36218</v>
+        <v>1.37026</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39869</v>
+        <v>1.40456</v>
       </c>
       <c r="C130" t="n">
-        <v>1.42857</v>
+        <v>1.39799</v>
       </c>
       <c r="D130" t="n">
-        <v>1.37061</v>
+        <v>1.37622</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39308</v>
+        <v>1.40687</v>
       </c>
       <c r="C131" t="n">
-        <v>1.39855</v>
+        <v>1.40202</v>
       </c>
       <c r="D131" t="n">
-        <v>1.35034</v>
+        <v>1.38489</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.3927</v>
+        <v>1.40085</v>
       </c>
       <c r="C132" t="n">
-        <v>1.38517</v>
+        <v>1.41173</v>
       </c>
       <c r="D132" t="n">
-        <v>1.36209</v>
+        <v>1.35764</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40869</v>
+        <v>1.39393</v>
       </c>
       <c r="C133" t="n">
-        <v>1.39746</v>
+        <v>1.38913</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32774</v>
+        <v>1.35824</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.38082</v>
+        <v>1.39772</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37794</v>
+        <v>1.41449</v>
       </c>
       <c r="D134" t="n">
-        <v>1.35491</v>
+        <v>1.36526</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40196</v>
+        <v>1.41524</v>
       </c>
       <c r="C135" t="n">
-        <v>1.40193</v>
+        <v>1.40557</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35788</v>
+        <v>1.36362</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.40868</v>
+        <v>1.40963</v>
       </c>
       <c r="C136" t="n">
-        <v>1.39034</v>
+        <v>1.36574</v>
       </c>
       <c r="D136" t="n">
-        <v>1.37543</v>
+        <v>1.36203</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41203</v>
+        <v>1.40311</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39351</v>
+        <v>1.39713</v>
       </c>
       <c r="D137" t="n">
-        <v>1.74462</v>
+        <v>1.37444</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74222</v>
+        <v>1.72549</v>
       </c>
       <c r="C138" t="n">
-        <v>1.77091</v>
+        <v>1.73009</v>
       </c>
       <c r="D138" t="n">
-        <v>1.71106</v>
+        <v>1.74355</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.72998</v>
+        <v>1.73224</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73991</v>
+        <v>1.72906</v>
       </c>
       <c r="D139" t="n">
-        <v>1.73239</v>
+        <v>1.71861</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71069</v>
+        <v>1.73271</v>
       </c>
       <c r="C140" t="n">
-        <v>1.73987</v>
+        <v>1.71941</v>
       </c>
       <c r="D140" t="n">
-        <v>1.71179</v>
+        <v>1.73215</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.7174</v>
+        <v>1.70986</v>
       </c>
       <c r="C141" t="n">
-        <v>1.72502</v>
+        <v>1.74064</v>
       </c>
       <c r="D141" t="n">
-        <v>1.71364</v>
+        <v>1.70561</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72188</v>
+        <v>1.71747</v>
       </c>
       <c r="C142" t="n">
-        <v>1.73537</v>
+        <v>1.73011</v>
       </c>
       <c r="D142" t="n">
-        <v>1.70047</v>
+        <v>1.72695</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72085</v>
+        <v>1.72501</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73887</v>
+        <v>1.70239</v>
       </c>
       <c r="D143" t="n">
-        <v>1.71149</v>
+        <v>1.74246</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.618946</v>
+        <v>0.621449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.48547</v>
+        <v>0.490556</v>
       </c>
       <c r="D2" t="n">
-        <v>0.342565</v>
+        <v>0.340921</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3652</v>
+        <v>0.357941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311952</v>
+        <v>0.310053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315657</v>
+        <v>0.32115</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.343527</v>
+        <v>0.347747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.300216</v>
+        <v>0.29341</v>
       </c>
       <c r="D4" t="n">
-        <v>0.318386</v>
+        <v>0.321302</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.347395</v>
+        <v>0.345276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.287886</v>
+        <v>0.290976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.302119</v>
+        <v>0.308325</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.329054</v>
+        <v>0.329453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.287317</v>
+        <v>0.279374</v>
       </c>
       <c r="D6" t="n">
-        <v>0.314879</v>
+        <v>0.313179</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.33796</v>
+        <v>0.323695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.295336</v>
+        <v>0.277487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.296693</v>
+        <v>0.308616</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.334001</v>
+        <v>0.33775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.280108</v>
+        <v>0.272832</v>
       </c>
       <c r="D8" t="n">
-        <v>0.305037</v>
+        <v>0.299149</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.321768</v>
+        <v>0.31832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.275998</v>
+        <v>0.266137</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287955</v>
+        <v>0.29918</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.572427</v>
+        <v>0.579869</v>
       </c>
       <c r="C10" t="n">
-        <v>0.542907</v>
+        <v>0.5443</v>
       </c>
       <c r="D10" t="n">
-        <v>0.572977</v>
+        <v>0.585186</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556001</v>
+        <v>0.5558689999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.527236</v>
+        <v>0.5249549999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.547208</v>
+        <v>0.5379389999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.540399</v>
+        <v>0.532903</v>
       </c>
       <c r="C12" t="n">
-        <v>0.510742</v>
+        <v>0.51049</v>
       </c>
       <c r="D12" t="n">
-        <v>0.536656</v>
+        <v>0.5366610000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.547759</v>
+        <v>0.544052</v>
       </c>
       <c r="C13" t="n">
-        <v>0.485321</v>
+        <v>0.482284</v>
       </c>
       <c r="D13" t="n">
-        <v>0.529425</v>
+        <v>0.494956</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.51915</v>
+        <v>0.512915</v>
       </c>
       <c r="C14" t="n">
-        <v>0.484453</v>
+        <v>0.477659</v>
       </c>
       <c r="D14" t="n">
-        <v>0.499084</v>
+        <v>0.488265</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.511361</v>
+        <v>0.499718</v>
       </c>
       <c r="C15" t="n">
-        <v>0.454468</v>
+        <v>0.454546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.480425</v>
+        <v>0.479331</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.490125</v>
+        <v>0.487687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.442872</v>
+        <v>0.453492</v>
       </c>
       <c r="D16" t="n">
-        <v>0.456056</v>
+        <v>0.473936</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.462409</v>
+        <v>0.462857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.420309</v>
+        <v>0.430407</v>
       </c>
       <c r="D17" t="n">
-        <v>0.442872</v>
+        <v>0.445945</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45605</v>
+        <v>0.478643</v>
       </c>
       <c r="C18" t="n">
-        <v>0.414391</v>
+        <v>0.424833</v>
       </c>
       <c r="D18" t="n">
-        <v>0.445585</v>
+        <v>0.436378</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440088</v>
+        <v>0.451409</v>
       </c>
       <c r="C19" t="n">
-        <v>0.407028</v>
+        <v>0.389709</v>
       </c>
       <c r="D19" t="n">
-        <v>0.420243</v>
+        <v>0.410265</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.430577</v>
+        <v>0.420305</v>
       </c>
       <c r="C20" t="n">
-        <v>0.392258</v>
+        <v>0.388676</v>
       </c>
       <c r="D20" t="n">
-        <v>0.419149</v>
+        <v>0.411645</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42631</v>
+        <v>0.428981</v>
       </c>
       <c r="C21" t="n">
-        <v>0.387666</v>
+        <v>0.383241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.400239</v>
+        <v>0.406592</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.426159</v>
+        <v>0.415705</v>
       </c>
       <c r="C22" t="n">
-        <v>0.379813</v>
+        <v>0.378021</v>
       </c>
       <c r="D22" t="n">
-        <v>0.40199</v>
+        <v>0.406932</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.426127</v>
+        <v>0.417514</v>
       </c>
       <c r="C23" t="n">
-        <v>0.376692</v>
+        <v>0.365219</v>
       </c>
       <c r="D23" t="n">
-        <v>0.389866</v>
+        <v>0.393603</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.691366</v>
+        <v>0.673895</v>
       </c>
       <c r="C24" t="n">
-        <v>0.660412</v>
+        <v>0.653402</v>
       </c>
       <c r="D24" t="n">
-        <v>0.663429</v>
+        <v>0.6614679999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.647489</v>
+        <v>0.656749</v>
       </c>
       <c r="C25" t="n">
-        <v>0.61736</v>
+        <v>0.6332680000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6576959999999999</v>
+        <v>0.665073</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.642449</v>
+        <v>0.642178</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6104349999999999</v>
+        <v>0.605212</v>
       </c>
       <c r="D26" t="n">
-        <v>0.627493</v>
+        <v>0.629795</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.624869</v>
+        <v>0.607897</v>
       </c>
       <c r="C27" t="n">
-        <v>0.579657</v>
+        <v>0.584794</v>
       </c>
       <c r="D27" t="n">
-        <v>0.609669</v>
+        <v>0.608584</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6025740000000001</v>
+        <v>0.600174</v>
       </c>
       <c r="C28" t="n">
-        <v>0.573669</v>
+        <v>0.556253</v>
       </c>
       <c r="D28" t="n">
-        <v>0.582833</v>
+        <v>0.58451</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.58634</v>
+        <v>0.589623</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5404910000000001</v>
+        <v>0.557643</v>
       </c>
       <c r="D29" t="n">
-        <v>0.563598</v>
+        <v>0.571684</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.574205</v>
+        <v>0.567537</v>
       </c>
       <c r="C30" t="n">
-        <v>0.535934</v>
+        <v>0.514838</v>
       </c>
       <c r="D30" t="n">
-        <v>0.575925</v>
+        <v>0.543813</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.54393</v>
+        <v>0.531474</v>
       </c>
       <c r="C31" t="n">
-        <v>0.509327</v>
+        <v>0.507736</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5354139999999999</v>
+        <v>0.5212639999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5323369999999999</v>
+        <v>0.534057</v>
       </c>
       <c r="C32" t="n">
-        <v>0.494523</v>
+        <v>0.484775</v>
       </c>
       <c r="D32" t="n">
-        <v>0.522701</v>
+        <v>0.510155</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.524248</v>
+        <v>0.511559</v>
       </c>
       <c r="C33" t="n">
-        <v>0.481388</v>
+        <v>0.478162</v>
       </c>
       <c r="D33" t="n">
-        <v>0.507637</v>
+        <v>0.5046890000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.523634</v>
+        <v>0.515388</v>
       </c>
       <c r="C34" t="n">
-        <v>0.472793</v>
+        <v>0.458018</v>
       </c>
       <c r="D34" t="n">
-        <v>0.493157</v>
+        <v>0.497869</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.486866</v>
+        <v>0.482795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.458137</v>
+        <v>0.451658</v>
       </c>
       <c r="D35" t="n">
-        <v>0.476225</v>
+        <v>0.474355</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.500261</v>
+        <v>0.478055</v>
       </c>
       <c r="C36" t="n">
-        <v>0.445137</v>
+        <v>0.445902</v>
       </c>
       <c r="D36" t="n">
-        <v>0.457368</v>
+        <v>0.454246</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.475605</v>
+        <v>0.472861</v>
       </c>
       <c r="C37" t="n">
-        <v>0.431473</v>
+        <v>0.435466</v>
       </c>
       <c r="D37" t="n">
-        <v>0.452011</v>
+        <v>0.463947</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.743722</v>
+        <v>0.734636</v>
       </c>
       <c r="C38" t="n">
-        <v>0.710544</v>
+        <v>0.7057330000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.761767</v>
+        <v>0.755629</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.720956</v>
+        <v>0.712098</v>
       </c>
       <c r="C39" t="n">
-        <v>0.699481</v>
+        <v>0.675501</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7303460000000001</v>
+        <v>0.724548</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.714279</v>
+        <v>0.6854440000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.670365</v>
+        <v>0.651094</v>
       </c>
       <c r="D40" t="n">
-        <v>0.697984</v>
+        <v>0.679557</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6957100000000001</v>
+        <v>0.676301</v>
       </c>
       <c r="C41" t="n">
-        <v>0.65252</v>
+        <v>0.6402</v>
       </c>
       <c r="D41" t="n">
-        <v>0.678664</v>
+        <v>0.668192</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.656786</v>
+        <v>0.663693</v>
       </c>
       <c r="C42" t="n">
-        <v>0.630727</v>
+        <v>0.608837</v>
       </c>
       <c r="D42" t="n">
-        <v>0.660517</v>
+        <v>0.651885</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.630744</v>
+        <v>0.644463</v>
       </c>
       <c r="C43" t="n">
-        <v>0.607882</v>
+        <v>0.595575</v>
       </c>
       <c r="D43" t="n">
-        <v>0.632418</v>
+        <v>0.6130330000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6391520000000001</v>
+        <v>0.611947</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5881</v>
+        <v>0.579981</v>
       </c>
       <c r="D44" t="n">
-        <v>0.614546</v>
+        <v>0.604645</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.606217</v>
+        <v>0.616858</v>
       </c>
       <c r="C45" t="n">
-        <v>0.563735</v>
+        <v>0.577221</v>
       </c>
       <c r="D45" t="n">
-        <v>0.587539</v>
+        <v>0.580686</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.57773</v>
+        <v>0.5858409999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.545014</v>
+        <v>0.53964</v>
       </c>
       <c r="D46" t="n">
-        <v>0.556534</v>
+        <v>0.568396</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.56726</v>
+        <v>0.561577</v>
       </c>
       <c r="C47" t="n">
-        <v>0.533298</v>
+        <v>0.526519</v>
       </c>
       <c r="D47" t="n">
-        <v>0.554172</v>
+        <v>0.544661</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.553328</v>
+        <v>0.566345</v>
       </c>
       <c r="C48" t="n">
-        <v>0.528969</v>
+        <v>0.50474</v>
       </c>
       <c r="D48" t="n">
-        <v>0.55098</v>
+        <v>0.540535</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.541212</v>
+        <v>0.566597</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5166770000000001</v>
+        <v>0.495609</v>
       </c>
       <c r="D49" t="n">
-        <v>0.542046</v>
+        <v>0.536964</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.535774</v>
+        <v>0.537287</v>
       </c>
       <c r="C50" t="n">
-        <v>0.498349</v>
+        <v>0.490881</v>
       </c>
       <c r="D50" t="n">
-        <v>0.512578</v>
+        <v>0.502519</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5337190000000001</v>
+        <v>0.528911</v>
       </c>
       <c r="C51" t="n">
-        <v>0.484563</v>
+        <v>0.473824</v>
       </c>
       <c r="D51" t="n">
-        <v>0.499355</v>
+        <v>0.506907</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.521113</v>
+        <v>0.503872</v>
       </c>
       <c r="C52" t="n">
-        <v>0.475126</v>
+        <v>0.462579</v>
       </c>
       <c r="D52" t="n">
-        <v>0.492711</v>
+        <v>0.50275</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.774189</v>
+        <v>0.788837</v>
       </c>
       <c r="C53" t="n">
-        <v>0.760073</v>
+        <v>0.735386</v>
       </c>
       <c r="D53" t="n">
-        <v>0.780788</v>
+        <v>0.7758969999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.777122</v>
+        <v>0.772502</v>
       </c>
       <c r="C54" t="n">
-        <v>0.733888</v>
+        <v>0.738411</v>
       </c>
       <c r="D54" t="n">
-        <v>0.766383</v>
+        <v>0.750584</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.738295</v>
+        <v>0.7313499999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.697703</v>
+        <v>0.712373</v>
       </c>
       <c r="D55" t="n">
-        <v>0.725516</v>
+        <v>0.7333730000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.733091</v>
+        <v>0.71557</v>
       </c>
       <c r="C56" t="n">
-        <v>0.705298</v>
+        <v>0.684354</v>
       </c>
       <c r="D56" t="n">
-        <v>0.712332</v>
+        <v>0.703414</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.719997</v>
+        <v>0.715912</v>
       </c>
       <c r="C57" t="n">
-        <v>0.680194</v>
+        <v>0.665517</v>
       </c>
       <c r="D57" t="n">
-        <v>0.70189</v>
+        <v>0.68516</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7039570000000001</v>
+        <v>0.694412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6354959999999999</v>
+        <v>0.6587460000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.673629</v>
+        <v>0.693478</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.664701</v>
+        <v>0.6746</v>
       </c>
       <c r="C59" t="n">
-        <v>0.643137</v>
+        <v>0.628234</v>
       </c>
       <c r="D59" t="n">
-        <v>0.671445</v>
+        <v>0.656731</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.668113</v>
+        <v>0.673284</v>
       </c>
       <c r="C60" t="n">
-        <v>0.619426</v>
+        <v>0.626945</v>
       </c>
       <c r="D60" t="n">
-        <v>0.634981</v>
+        <v>0.639243</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.676555</v>
+        <v>0.647778</v>
       </c>
       <c r="C61" t="n">
-        <v>0.587722</v>
+        <v>0.592438</v>
       </c>
       <c r="D61" t="n">
-        <v>0.621351</v>
+        <v>0.623994</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.650185</v>
+        <v>0.63994</v>
       </c>
       <c r="C62" t="n">
-        <v>0.592264</v>
+        <v>0.588423</v>
       </c>
       <c r="D62" t="n">
-        <v>0.603395</v>
+        <v>0.615044</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.630026</v>
+        <v>0.6217</v>
       </c>
       <c r="C63" t="n">
-        <v>0.582972</v>
+        <v>0.562914</v>
       </c>
       <c r="D63" t="n">
-        <v>0.597272</v>
+        <v>0.596312</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.609108</v>
+        <v>0.611733</v>
       </c>
       <c r="C64" t="n">
-        <v>0.566476</v>
+        <v>0.566829</v>
       </c>
       <c r="D64" t="n">
-        <v>0.593662</v>
+        <v>0.5804319999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.612196</v>
+        <v>0.602341</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5475370000000001</v>
+        <v>0.552027</v>
       </c>
       <c r="D65" t="n">
-        <v>0.570825</v>
+        <v>0.572677</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.603054</v>
+        <v>0.588632</v>
       </c>
       <c r="C66" t="n">
-        <v>0.540533</v>
+        <v>0.538092</v>
       </c>
       <c r="D66" t="n">
-        <v>0.569363</v>
+        <v>0.564931</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.890405</v>
+        <v>0.87992</v>
       </c>
       <c r="C67" t="n">
-        <v>0.848496</v>
+        <v>0.8327369999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.883091</v>
+        <v>0.865967</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.872961</v>
+        <v>0.8721100000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.830067</v>
+        <v>0.84014</v>
       </c>
       <c r="D68" t="n">
-        <v>0.866174</v>
+        <v>0.860715</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.857579</v>
+        <v>0.831269</v>
       </c>
       <c r="C69" t="n">
-        <v>0.81435</v>
+        <v>0.812561</v>
       </c>
       <c r="D69" t="n">
-        <v>0.818726</v>
+        <v>0.834016</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.83622</v>
+        <v>0.831971</v>
       </c>
       <c r="C70" t="n">
-        <v>0.791506</v>
+        <v>0.7615960000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.807669</v>
+        <v>0.801139</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.827151</v>
+        <v>0.801087</v>
       </c>
       <c r="C71" t="n">
-        <v>0.770241</v>
+        <v>0.7583530000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.783017</v>
+        <v>0.7911589999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.784784</v>
+        <v>0.803352</v>
       </c>
       <c r="C72" t="n">
-        <v>0.747723</v>
+        <v>0.755119</v>
       </c>
       <c r="D72" t="n">
-        <v>0.758505</v>
+        <v>0.7681559999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.78272</v>
+        <v>0.765236</v>
       </c>
       <c r="C73" t="n">
-        <v>0.736642</v>
+        <v>0.7116710000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.754925</v>
+        <v>0.734813</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.776</v>
+        <v>0.7515269999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.713801</v>
+        <v>0.702307</v>
       </c>
       <c r="D74" t="n">
-        <v>0.725734</v>
+        <v>0.749212</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.740796</v>
+        <v>0.727684</v>
       </c>
       <c r="C75" t="n">
-        <v>0.688605</v>
+        <v>0.692003</v>
       </c>
       <c r="D75" t="n">
-        <v>0.693613</v>
+        <v>0.718032</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.734475</v>
+        <v>0.733743</v>
       </c>
       <c r="C76" t="n">
-        <v>0.676556</v>
+        <v>0.67645</v>
       </c>
       <c r="D76" t="n">
-        <v>0.677229</v>
+        <v>0.693608</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.708883</v>
+        <v>0.711969</v>
       </c>
       <c r="C77" t="n">
-        <v>0.665797</v>
+        <v>0.662093</v>
       </c>
       <c r="D77" t="n">
-        <v>0.674086</v>
+        <v>0.674435</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.713935</v>
+        <v>0.6928299999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.642587</v>
+        <v>0.639916</v>
       </c>
       <c r="D78" t="n">
-        <v>0.647926</v>
+        <v>0.671797</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.688841</v>
+        <v>0.6899</v>
       </c>
       <c r="C79" t="n">
-        <v>0.643701</v>
+        <v>0.633477</v>
       </c>
       <c r="D79" t="n">
-        <v>0.650093</v>
+        <v>0.665189</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.685864</v>
+        <v>0.665729</v>
       </c>
       <c r="C80" t="n">
-        <v>0.655162</v>
+        <v>0.60808</v>
       </c>
       <c r="D80" t="n">
-        <v>0.635393</v>
+        <v>0.656533</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01362</v>
+        <v>1.01465</v>
       </c>
       <c r="C81" t="n">
-        <v>0.976913</v>
+        <v>0.959827</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00921</v>
+        <v>0.957415</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.981496</v>
+        <v>0.970202</v>
       </c>
       <c r="C82" t="n">
-        <v>0.949823</v>
+        <v>0.9386100000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.993835</v>
+        <v>0.943489</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.966691</v>
+        <v>0.931688</v>
       </c>
       <c r="C83" t="n">
-        <v>0.921023</v>
+        <v>0.931464</v>
       </c>
       <c r="D83" t="n">
-        <v>0.945883</v>
+        <v>0.943712</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.967146</v>
+        <v>0.944225</v>
       </c>
       <c r="C84" t="n">
-        <v>0.923724</v>
+        <v>0.899134</v>
       </c>
       <c r="D84" t="n">
-        <v>0.924461</v>
+        <v>0.914513</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9460190000000001</v>
+        <v>0.905293</v>
       </c>
       <c r="C85" t="n">
-        <v>0.886419</v>
+        <v>0.866765</v>
       </c>
       <c r="D85" t="n">
-        <v>0.880906</v>
+        <v>0.914874</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.912004</v>
+        <v>0.879732</v>
       </c>
       <c r="C86" t="n">
-        <v>0.854841</v>
+        <v>0.843013</v>
       </c>
       <c r="D86" t="n">
-        <v>0.86708</v>
+        <v>0.881892</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.866712</v>
+        <v>0.8774459999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8448059999999999</v>
+        <v>0.8346980000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.854403</v>
+        <v>0.861721</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.85037</v>
+        <v>0.864139</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8182469999999999</v>
+        <v>0.847926</v>
       </c>
       <c r="D88" t="n">
-        <v>0.833214</v>
+        <v>0.829689</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.862911</v>
+        <v>0.86297</v>
       </c>
       <c r="C89" t="n">
-        <v>0.818655</v>
+        <v>0.796045</v>
       </c>
       <c r="D89" t="n">
-        <v>0.836987</v>
+        <v>0.816394</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.840048</v>
+        <v>0.821522</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8057609999999999</v>
+        <v>0.783362</v>
       </c>
       <c r="D90" t="n">
-        <v>0.802385</v>
+        <v>0.798747</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.834999</v>
+        <v>0.829393</v>
       </c>
       <c r="C91" t="n">
-        <v>0.762551</v>
+        <v>0.771979</v>
       </c>
       <c r="D91" t="n">
-        <v>0.755332</v>
+        <v>0.789761</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.820485</v>
+        <v>0.821747</v>
       </c>
       <c r="C92" t="n">
-        <v>0.77601</v>
+        <v>0.758415</v>
       </c>
       <c r="D92" t="n">
-        <v>0.765701</v>
+        <v>0.767512</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.812802</v>
+        <v>0.798916</v>
       </c>
       <c r="C93" t="n">
-        <v>0.755751</v>
+        <v>0.737874</v>
       </c>
       <c r="D93" t="n">
-        <v>0.776913</v>
+        <v>0.748823</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.780232</v>
+        <v>0.792257</v>
       </c>
       <c r="C94" t="n">
-        <v>0.738032</v>
+        <v>0.721809</v>
       </c>
       <c r="D94" t="n">
-        <v>0.748295</v>
+        <v>0.760257</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.12198</v>
+        <v>1.08543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07306</v>
+        <v>1.06212</v>
       </c>
       <c r="D95" t="n">
-        <v>1.07963</v>
+        <v>1.05698</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.11376</v>
+        <v>1.0587</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07348</v>
+        <v>1.06218</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08577</v>
+        <v>1.04487</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.0631</v>
+        <v>1.06141</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07076</v>
+        <v>1.00597</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02949</v>
+        <v>1.02554</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03705</v>
+        <v>1.03987</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05564</v>
+        <v>0.996966</v>
       </c>
       <c r="D98" t="n">
-        <v>1.03637</v>
+        <v>1.03656</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.04414</v>
+        <v>1.02089</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02615</v>
+        <v>1.00061</v>
       </c>
       <c r="D99" t="n">
-        <v>1.01227</v>
+        <v>1.01903</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.04902</v>
+        <v>1.01113</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02226</v>
+        <v>0.981551</v>
       </c>
       <c r="D100" t="n">
-        <v>0.983674</v>
+        <v>0.98453</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.0229</v>
+        <v>0.982545</v>
       </c>
       <c r="C101" t="n">
-        <v>0.987264</v>
+        <v>0.949758</v>
       </c>
       <c r="D101" t="n">
-        <v>0.989333</v>
+        <v>0.972536</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.00615</v>
+        <v>0.979853</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9824349999999999</v>
+        <v>0.947259</v>
       </c>
       <c r="D102" t="n">
-        <v>0.948411</v>
+        <v>0.957704</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9696939999999999</v>
+        <v>0.961126</v>
       </c>
       <c r="C103" t="n">
-        <v>0.941036</v>
+        <v>0.926651</v>
       </c>
       <c r="D103" t="n">
-        <v>0.915034</v>
+        <v>0.93161</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.940374</v>
+        <v>0.946028</v>
       </c>
       <c r="C104" t="n">
-        <v>0.939059</v>
+        <v>0.91132</v>
       </c>
       <c r="D104" t="n">
-        <v>0.924475</v>
+        <v>0.916266</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.950161</v>
+        <v>0.922485</v>
       </c>
       <c r="C105" t="n">
-        <v>0.916086</v>
+        <v>0.887288</v>
       </c>
       <c r="D105" t="n">
-        <v>0.891803</v>
+        <v>0.914857</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.931323</v>
+        <v>0.922276</v>
       </c>
       <c r="C106" t="n">
-        <v>0.898007</v>
+        <v>0.893423</v>
       </c>
       <c r="D106" t="n">
-        <v>0.875027</v>
+        <v>0.905621</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.93782</v>
+        <v>0.92399</v>
       </c>
       <c r="C107" t="n">
-        <v>0.909258</v>
+        <v>0.88336</v>
       </c>
       <c r="D107" t="n">
-        <v>0.878066</v>
+        <v>0.880771</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.929321</v>
+        <v>0.91586</v>
       </c>
       <c r="C108" t="n">
-        <v>0.882822</v>
+        <v>0.8841639999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.862005</v>
+        <v>0.883719</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.908847</v>
+        <v>0.9008969999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.867036</v>
+        <v>0.884429</v>
       </c>
       <c r="D109" t="n">
-        <v>0.877566</v>
+        <v>0.871717</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2407</v>
+        <v>1.20588</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22367</v>
+        <v>1.17318</v>
       </c>
       <c r="D110" t="n">
-        <v>1.2278</v>
+        <v>1.27435</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23426</v>
+        <v>1.2186</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22555</v>
+        <v>1.17772</v>
       </c>
       <c r="D111" t="n">
-        <v>1.20253</v>
+        <v>1.18916</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21866</v>
+        <v>1.19154</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20497</v>
+        <v>1.15462</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18396</v>
+        <v>1.21461</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.19572</v>
+        <v>1.18091</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19174</v>
+        <v>1.16503</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16301</v>
+        <v>1.15847</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17937</v>
+        <v>1.17912</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17801</v>
+        <v>1.14305</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14162</v>
+        <v>1.15544</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.19425</v>
+        <v>1.17225</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16408</v>
+        <v>1.14589</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13212</v>
+        <v>1.1235</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17479</v>
+        <v>1.13877</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15735</v>
+        <v>1.12006</v>
       </c>
       <c r="D116" t="n">
-        <v>1.10643</v>
+        <v>1.11095</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18283</v>
+        <v>1.146</v>
       </c>
       <c r="C117" t="n">
-        <v>1.15846</v>
+        <v>1.12769</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08431</v>
+        <v>1.1118</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14621</v>
+        <v>1.13906</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12451</v>
+        <v>1.10862</v>
       </c>
       <c r="D118" t="n">
-        <v>1.08589</v>
+        <v>1.10214</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12319</v>
+        <v>1.12881</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1062</v>
+        <v>1.116</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08106</v>
+        <v>1.10282</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.16366</v>
+        <v>1.12205</v>
       </c>
       <c r="C120" t="n">
-        <v>1.12856</v>
+        <v>1.09758</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0961</v>
+        <v>1.0812</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.12017</v>
+        <v>1.11759</v>
       </c>
       <c r="C121" t="n">
-        <v>1.11431</v>
+        <v>1.08355</v>
       </c>
       <c r="D121" t="n">
-        <v>1.04351</v>
+        <v>1.06563</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.11432</v>
+        <v>1.10246</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0792</v>
+        <v>1.07363</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05352</v>
+        <v>1.07168</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11372</v>
+        <v>1.10038</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08819</v>
+        <v>1.10259</v>
       </c>
       <c r="D123" t="n">
-        <v>1.06756</v>
+        <v>1.07447</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.41364</v>
+        <v>1.43806</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41629</v>
+        <v>1.43582</v>
       </c>
       <c r="D124" t="n">
-        <v>1.38669</v>
+        <v>1.43614</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44882</v>
+        <v>1.40242</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42849</v>
+        <v>1.41995</v>
       </c>
       <c r="D125" t="n">
-        <v>1.40773</v>
+        <v>1.41203</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.4442</v>
+        <v>1.43064</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42142</v>
+        <v>1.42813</v>
       </c>
       <c r="D126" t="n">
-        <v>1.41201</v>
+        <v>1.41175</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40862</v>
+        <v>1.42192</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42641</v>
+        <v>1.40475</v>
       </c>
       <c r="D127" t="n">
-        <v>1.40702</v>
+        <v>1.40242</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.4117</v>
+        <v>1.4036</v>
       </c>
       <c r="C128" t="n">
-        <v>1.41772</v>
+        <v>1.39606</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37998</v>
+        <v>1.40137</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.4186</v>
+        <v>1.40731</v>
       </c>
       <c r="C129" t="n">
-        <v>1.40156</v>
+        <v>1.3996</v>
       </c>
       <c r="D129" t="n">
-        <v>1.37026</v>
+        <v>1.40512</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40456</v>
+        <v>1.40461</v>
       </c>
       <c r="C130" t="n">
-        <v>1.39799</v>
+        <v>1.38644</v>
       </c>
       <c r="D130" t="n">
-        <v>1.37622</v>
+        <v>1.41372</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40687</v>
+        <v>1.38159</v>
       </c>
       <c r="C131" t="n">
-        <v>1.40202</v>
+        <v>1.39715</v>
       </c>
       <c r="D131" t="n">
-        <v>1.38489</v>
+        <v>1.38132</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40085</v>
+        <v>1.4254</v>
       </c>
       <c r="C132" t="n">
-        <v>1.41173</v>
+        <v>1.40012</v>
       </c>
       <c r="D132" t="n">
-        <v>1.35764</v>
+        <v>1.38437</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39393</v>
+        <v>1.39912</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38913</v>
+        <v>1.38602</v>
       </c>
       <c r="D133" t="n">
-        <v>1.35824</v>
+        <v>1.37881</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39772</v>
+        <v>1.39647</v>
       </c>
       <c r="C134" t="n">
-        <v>1.41449</v>
+        <v>1.4053</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36526</v>
+        <v>1.38836</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.41524</v>
+        <v>1.38638</v>
       </c>
       <c r="C135" t="n">
-        <v>1.40557</v>
+        <v>1.3935</v>
       </c>
       <c r="D135" t="n">
-        <v>1.36362</v>
+        <v>1.39647</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.40963</v>
+        <v>1.41068</v>
       </c>
       <c r="C136" t="n">
-        <v>1.36574</v>
+        <v>1.40358</v>
       </c>
       <c r="D136" t="n">
-        <v>1.36203</v>
+        <v>1.40574</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40311</v>
+        <v>1.39714</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39713</v>
+        <v>1.41908</v>
       </c>
       <c r="D137" t="n">
-        <v>1.37444</v>
+        <v>1.40638</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.72549</v>
+        <v>1.76233</v>
       </c>
       <c r="C138" t="n">
-        <v>1.73009</v>
+        <v>1.74049</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74355</v>
+        <v>1.72253</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.73224</v>
+        <v>1.74447</v>
       </c>
       <c r="C139" t="n">
-        <v>1.72906</v>
+        <v>1.72269</v>
       </c>
       <c r="D139" t="n">
-        <v>1.71861</v>
+        <v>1.74871</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.73271</v>
+        <v>1.72424</v>
       </c>
       <c r="C140" t="n">
-        <v>1.71941</v>
+        <v>1.71579</v>
       </c>
       <c r="D140" t="n">
-        <v>1.73215</v>
+        <v>1.75777</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.70986</v>
+        <v>1.725</v>
       </c>
       <c r="C141" t="n">
-        <v>1.74064</v>
+        <v>1.7254</v>
       </c>
       <c r="D141" t="n">
-        <v>1.70561</v>
+        <v>1.73586</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71747</v>
+        <v>1.72084</v>
       </c>
       <c r="C142" t="n">
-        <v>1.73011</v>
+        <v>1.72092</v>
       </c>
       <c r="D142" t="n">
-        <v>1.72695</v>
+        <v>1.73393</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72501</v>
+        <v>1.70469</v>
       </c>
       <c r="C143" t="n">
-        <v>1.70239</v>
+        <v>1.62634</v>
       </c>
       <c r="D143" t="n">
-        <v>1.74246</v>
+        <v>1.73154</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.621449</v>
+        <v>0.619868</v>
       </c>
       <c r="C2" t="n">
-        <v>0.490556</v>
+        <v>0.494904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.340921</v>
+        <v>0.332921</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.357941</v>
+        <v>0.364648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.310053</v>
+        <v>0.312494</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32115</v>
+        <v>0.33298</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.347747</v>
+        <v>0.36837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.29341</v>
+        <v>0.303652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.321302</v>
+        <v>0.316799</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.345276</v>
+        <v>0.335691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.290976</v>
+        <v>0.303044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.308325</v>
+        <v>0.315077</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.329453</v>
+        <v>0.355411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.279374</v>
+        <v>0.295567</v>
       </c>
       <c r="D6" t="n">
-        <v>0.313179</v>
+        <v>0.31197</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.323695</v>
+        <v>0.330321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.277487</v>
+        <v>0.282358</v>
       </c>
       <c r="D7" t="n">
-        <v>0.308616</v>
+        <v>0.303704</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.33775</v>
+        <v>0.3193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.272832</v>
+        <v>0.288779</v>
       </c>
       <c r="D8" t="n">
-        <v>0.299149</v>
+        <v>0.301437</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.31832</v>
+        <v>0.323097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266137</v>
+        <v>0.272268</v>
       </c>
       <c r="D9" t="n">
-        <v>0.29918</v>
+        <v>0.3009</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.579869</v>
+        <v>0.574731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5443</v>
+        <v>0.554236</v>
       </c>
       <c r="D10" t="n">
-        <v>0.585186</v>
+        <v>0.57076</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5558689999999999</v>
+        <v>0.570171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5249549999999999</v>
+        <v>0.512547</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5379389999999999</v>
+        <v>0.540297</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.532903</v>
+        <v>0.5543400000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.51049</v>
+        <v>0.495838</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5366610000000001</v>
+        <v>0.528575</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.544052</v>
+        <v>0.523935</v>
       </c>
       <c r="C13" t="n">
-        <v>0.482284</v>
+        <v>0.481522</v>
       </c>
       <c r="D13" t="n">
-        <v>0.494956</v>
+        <v>0.50943</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.512915</v>
+        <v>0.512834</v>
       </c>
       <c r="C14" t="n">
-        <v>0.477659</v>
+        <v>0.486265</v>
       </c>
       <c r="D14" t="n">
-        <v>0.488265</v>
+        <v>0.508584</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.499718</v>
+        <v>0.504776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.454546</v>
+        <v>0.45751</v>
       </c>
       <c r="D15" t="n">
-        <v>0.479331</v>
+        <v>0.473785</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.487687</v>
+        <v>0.474139</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453492</v>
+        <v>0.447855</v>
       </c>
       <c r="D16" t="n">
-        <v>0.473936</v>
+        <v>0.464004</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.462857</v>
+        <v>0.459067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.430407</v>
+        <v>0.424333</v>
       </c>
       <c r="D17" t="n">
-        <v>0.445945</v>
+        <v>0.45197</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.478643</v>
+        <v>0.454016</v>
       </c>
       <c r="C18" t="n">
-        <v>0.424833</v>
+        <v>0.408722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.436378</v>
+        <v>0.442322</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.451409</v>
+        <v>0.445751</v>
       </c>
       <c r="C19" t="n">
-        <v>0.389709</v>
+        <v>0.402794</v>
       </c>
       <c r="D19" t="n">
-        <v>0.410265</v>
+        <v>0.428379</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.420305</v>
+        <v>0.427857</v>
       </c>
       <c r="C20" t="n">
-        <v>0.388676</v>
+        <v>0.388001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.411645</v>
+        <v>0.404966</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.428981</v>
+        <v>0.435023</v>
       </c>
       <c r="C21" t="n">
-        <v>0.383241</v>
+        <v>0.384591</v>
       </c>
       <c r="D21" t="n">
-        <v>0.406592</v>
+        <v>0.403818</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.415705</v>
+        <v>0.420556</v>
       </c>
       <c r="C22" t="n">
-        <v>0.378021</v>
+        <v>0.376761</v>
       </c>
       <c r="D22" t="n">
-        <v>0.406932</v>
+        <v>0.396627</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.417514</v>
+        <v>0.407418</v>
       </c>
       <c r="C23" t="n">
-        <v>0.365219</v>
+        <v>0.363053</v>
       </c>
       <c r="D23" t="n">
-        <v>0.393603</v>
+        <v>0.390652</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.673895</v>
+        <v>0.672284</v>
       </c>
       <c r="C24" t="n">
-        <v>0.653402</v>
+        <v>0.644359</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6614679999999999</v>
+        <v>0.667194</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.656749</v>
+        <v>0.677373</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6332680000000001</v>
+        <v>0.617364</v>
       </c>
       <c r="D25" t="n">
-        <v>0.665073</v>
+        <v>0.655747</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.642178</v>
+        <v>0.645778</v>
       </c>
       <c r="C26" t="n">
-        <v>0.605212</v>
+        <v>0.5885</v>
       </c>
       <c r="D26" t="n">
-        <v>0.629795</v>
+        <v>0.6265849999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.607897</v>
+        <v>0.612424</v>
       </c>
       <c r="C27" t="n">
-        <v>0.584794</v>
+        <v>0.5912849999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.608584</v>
+        <v>0.604747</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.600174</v>
+        <v>0.595587</v>
       </c>
       <c r="C28" t="n">
-        <v>0.556253</v>
+        <v>0.560028</v>
       </c>
       <c r="D28" t="n">
-        <v>0.58451</v>
+        <v>0.592025</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.589623</v>
+        <v>0.587449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.557643</v>
+        <v>0.540561</v>
       </c>
       <c r="D29" t="n">
-        <v>0.571684</v>
+        <v>0.567901</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.567537</v>
+        <v>0.558265</v>
       </c>
       <c r="C30" t="n">
-        <v>0.514838</v>
+        <v>0.515404</v>
       </c>
       <c r="D30" t="n">
-        <v>0.543813</v>
+        <v>0.5355</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.531474</v>
+        <v>0.545227</v>
       </c>
       <c r="C31" t="n">
-        <v>0.507736</v>
+        <v>0.505988</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5212639999999999</v>
+        <v>0.5324179999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.534057</v>
+        <v>0.53318</v>
       </c>
       <c r="C32" t="n">
-        <v>0.484775</v>
+        <v>0.497982</v>
       </c>
       <c r="D32" t="n">
-        <v>0.510155</v>
+        <v>0.5059669999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.511559</v>
+        <v>0.516236</v>
       </c>
       <c r="C33" t="n">
-        <v>0.478162</v>
+        <v>0.478979</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5046890000000001</v>
+        <v>0.491873</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.515388</v>
+        <v>0.496292</v>
       </c>
       <c r="C34" t="n">
-        <v>0.458018</v>
+        <v>0.46281</v>
       </c>
       <c r="D34" t="n">
-        <v>0.497869</v>
+        <v>0.483313</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.482795</v>
+        <v>0.493418</v>
       </c>
       <c r="C35" t="n">
-        <v>0.451658</v>
+        <v>0.448116</v>
       </c>
       <c r="D35" t="n">
-        <v>0.474355</v>
+        <v>0.467428</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.478055</v>
+        <v>0.489206</v>
       </c>
       <c r="C36" t="n">
-        <v>0.445902</v>
+        <v>0.443797</v>
       </c>
       <c r="D36" t="n">
-        <v>0.454246</v>
+        <v>0.460666</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.472861</v>
+        <v>0.467254</v>
       </c>
       <c r="C37" t="n">
-        <v>0.435466</v>
+        <v>0.425386</v>
       </c>
       <c r="D37" t="n">
-        <v>0.463947</v>
+        <v>0.453028</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.734636</v>
+        <v>0.728335</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7057330000000001</v>
+        <v>0.7120339999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.755629</v>
+        <v>0.731241</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.712098</v>
+        <v>0.696478</v>
       </c>
       <c r="C39" t="n">
-        <v>0.675501</v>
+        <v>0.6775870000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.724548</v>
+        <v>0.706054</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6854440000000001</v>
+        <v>0.69126</v>
       </c>
       <c r="C40" t="n">
-        <v>0.651094</v>
+        <v>0.645012</v>
       </c>
       <c r="D40" t="n">
-        <v>0.679557</v>
+        <v>0.676835</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.676301</v>
+        <v>0.675555</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6402</v>
+        <v>0.651697</v>
       </c>
       <c r="D41" t="n">
-        <v>0.668192</v>
+        <v>0.661391</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.663693</v>
+        <v>0.6538620000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.608837</v>
+        <v>0.601261</v>
       </c>
       <c r="D42" t="n">
-        <v>0.651885</v>
+        <v>0.633792</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.644463</v>
+        <v>0.629343</v>
       </c>
       <c r="C43" t="n">
-        <v>0.595575</v>
+        <v>0.586684</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6130330000000001</v>
+        <v>0.622281</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.611947</v>
+        <v>0.609474</v>
       </c>
       <c r="C44" t="n">
-        <v>0.579981</v>
+        <v>0.580762</v>
       </c>
       <c r="D44" t="n">
-        <v>0.604645</v>
+        <v>0.6055970000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.616858</v>
+        <v>0.594496</v>
       </c>
       <c r="C45" t="n">
-        <v>0.577221</v>
+        <v>0.553489</v>
       </c>
       <c r="D45" t="n">
-        <v>0.580686</v>
+        <v>0.580477</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5858409999999999</v>
+        <v>0.582447</v>
       </c>
       <c r="C46" t="n">
-        <v>0.53964</v>
+        <v>0.537947</v>
       </c>
       <c r="D46" t="n">
-        <v>0.568396</v>
+        <v>0.554102</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.561577</v>
+        <v>0.575377</v>
       </c>
       <c r="C47" t="n">
-        <v>0.526519</v>
+        <v>0.529751</v>
       </c>
       <c r="D47" t="n">
-        <v>0.544661</v>
+        <v>0.540698</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.566345</v>
+        <v>0.542278</v>
       </c>
       <c r="C48" t="n">
-        <v>0.50474</v>
+        <v>0.511381</v>
       </c>
       <c r="D48" t="n">
-        <v>0.540535</v>
+        <v>0.5434560000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.566597</v>
+        <v>0.544045</v>
       </c>
       <c r="C49" t="n">
-        <v>0.495609</v>
+        <v>0.493712</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536964</v>
+        <v>0.511991</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.537287</v>
+        <v>0.526403</v>
       </c>
       <c r="C50" t="n">
-        <v>0.490881</v>
+        <v>0.480723</v>
       </c>
       <c r="D50" t="n">
-        <v>0.502519</v>
+        <v>0.507359</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.528911</v>
+        <v>0.516859</v>
       </c>
       <c r="C51" t="n">
-        <v>0.473824</v>
+        <v>0.480459</v>
       </c>
       <c r="D51" t="n">
-        <v>0.506907</v>
+        <v>0.492209</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.503872</v>
+        <v>0.499339</v>
       </c>
       <c r="C52" t="n">
-        <v>0.462579</v>
+        <v>0.463974</v>
       </c>
       <c r="D52" t="n">
-        <v>0.50275</v>
+        <v>0.500293</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.788837</v>
+        <v>0.766469</v>
       </c>
       <c r="C53" t="n">
-        <v>0.735386</v>
+        <v>0.729549</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7758969999999999</v>
+        <v>0.76707</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.772502</v>
+        <v>0.736137</v>
       </c>
       <c r="C54" t="n">
-        <v>0.738411</v>
+        <v>0.722574</v>
       </c>
       <c r="D54" t="n">
-        <v>0.750584</v>
+        <v>0.738097</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7313499999999999</v>
+        <v>0.718508</v>
       </c>
       <c r="C55" t="n">
-        <v>0.712373</v>
+        <v>0.684402</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7333730000000001</v>
+        <v>0.713556</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.71557</v>
+        <v>0.712288</v>
       </c>
       <c r="C56" t="n">
-        <v>0.684354</v>
+        <v>0.667795</v>
       </c>
       <c r="D56" t="n">
-        <v>0.703414</v>
+        <v>0.713639</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.715912</v>
+        <v>0.691079</v>
       </c>
       <c r="C57" t="n">
-        <v>0.665517</v>
+        <v>0.654134</v>
       </c>
       <c r="D57" t="n">
-        <v>0.68516</v>
+        <v>0.676405</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.694412</v>
+        <v>0.702326</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6587460000000001</v>
+        <v>0.637011</v>
       </c>
       <c r="D58" t="n">
-        <v>0.693478</v>
+        <v>0.668445</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6746</v>
+        <v>0.664998</v>
       </c>
       <c r="C59" t="n">
-        <v>0.628234</v>
+        <v>0.625212</v>
       </c>
       <c r="D59" t="n">
-        <v>0.656731</v>
+        <v>0.659454</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.673284</v>
+        <v>0.639455</v>
       </c>
       <c r="C60" t="n">
-        <v>0.626945</v>
+        <v>0.603183</v>
       </c>
       <c r="D60" t="n">
-        <v>0.639243</v>
+        <v>0.623071</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.647778</v>
+        <v>0.630172</v>
       </c>
       <c r="C61" t="n">
-        <v>0.592438</v>
+        <v>0.58249</v>
       </c>
       <c r="D61" t="n">
-        <v>0.623994</v>
+        <v>0.614306</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.63994</v>
+        <v>0.625762</v>
       </c>
       <c r="C62" t="n">
-        <v>0.588423</v>
+        <v>0.571499</v>
       </c>
       <c r="D62" t="n">
-        <v>0.615044</v>
+        <v>0.598552</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6217</v>
+        <v>0.598952</v>
       </c>
       <c r="C63" t="n">
-        <v>0.562914</v>
+        <v>0.563646</v>
       </c>
       <c r="D63" t="n">
-        <v>0.596312</v>
+        <v>0.585086</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.611733</v>
+        <v>0.588448</v>
       </c>
       <c r="C64" t="n">
-        <v>0.566829</v>
+        <v>0.549559</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5804319999999999</v>
+        <v>0.578912</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.602341</v>
+        <v>0.584196</v>
       </c>
       <c r="C65" t="n">
-        <v>0.552027</v>
+        <v>0.536118</v>
       </c>
       <c r="D65" t="n">
-        <v>0.572677</v>
+        <v>0.557594</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.588632</v>
+        <v>0.565982</v>
       </c>
       <c r="C66" t="n">
-        <v>0.538092</v>
+        <v>0.51953</v>
       </c>
       <c r="D66" t="n">
-        <v>0.564931</v>
+        <v>0.5554</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.87992</v>
+        <v>0.851592</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8327369999999999</v>
+        <v>0.82983</v>
       </c>
       <c r="D67" t="n">
-        <v>0.865967</v>
+        <v>0.857579</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8721100000000001</v>
+        <v>0.84651</v>
       </c>
       <c r="C68" t="n">
-        <v>0.84014</v>
+        <v>0.8055099999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.860715</v>
+        <v>0.841603</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.831269</v>
+        <v>0.827315</v>
       </c>
       <c r="C69" t="n">
-        <v>0.812561</v>
+        <v>0.783481</v>
       </c>
       <c r="D69" t="n">
-        <v>0.834016</v>
+        <v>0.804631</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.831971</v>
+        <v>0.808671</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7615960000000001</v>
+        <v>0.763805</v>
       </c>
       <c r="D70" t="n">
-        <v>0.801139</v>
+        <v>0.7882209999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.801087</v>
+        <v>0.793578</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7583530000000001</v>
+        <v>0.753873</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7911589999999999</v>
+        <v>0.771801</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.803352</v>
+        <v>0.776517</v>
       </c>
       <c r="C72" t="n">
-        <v>0.755119</v>
+        <v>0.739466</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7681559999999999</v>
+        <v>0.761025</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.765236</v>
+        <v>0.763186</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7116710000000001</v>
+        <v>0.713701</v>
       </c>
       <c r="D73" t="n">
-        <v>0.734813</v>
+        <v>0.748074</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7515269999999999</v>
+        <v>0.747397</v>
       </c>
       <c r="C74" t="n">
-        <v>0.702307</v>
+        <v>0.703114</v>
       </c>
       <c r="D74" t="n">
-        <v>0.749212</v>
+        <v>0.720925</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.727684</v>
+        <v>0.710341</v>
       </c>
       <c r="C75" t="n">
-        <v>0.692003</v>
+        <v>0.686947</v>
       </c>
       <c r="D75" t="n">
-        <v>0.718032</v>
+        <v>0.696676</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.733743</v>
+        <v>0.702956</v>
       </c>
       <c r="C76" t="n">
-        <v>0.67645</v>
+        <v>0.645944</v>
       </c>
       <c r="D76" t="n">
-        <v>0.693608</v>
+        <v>0.681538</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.711969</v>
+        <v>0.687627</v>
       </c>
       <c r="C77" t="n">
-        <v>0.662093</v>
+        <v>0.639052</v>
       </c>
       <c r="D77" t="n">
-        <v>0.674435</v>
+        <v>0.66956</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6928299999999999</v>
+        <v>0.692128</v>
       </c>
       <c r="C78" t="n">
-        <v>0.639916</v>
+        <v>0.630009</v>
       </c>
       <c r="D78" t="n">
-        <v>0.671797</v>
+        <v>0.66076</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6899</v>
+        <v>0.67086</v>
       </c>
       <c r="C79" t="n">
-        <v>0.633477</v>
+        <v>0.630765</v>
       </c>
       <c r="D79" t="n">
-        <v>0.665189</v>
+        <v>0.648504</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.665729</v>
+        <v>0.665161</v>
       </c>
       <c r="C80" t="n">
-        <v>0.60808</v>
+        <v>0.6253919999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.656533</v>
+        <v>0.629853</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01465</v>
+        <v>0.96123</v>
       </c>
       <c r="C81" t="n">
-        <v>0.959827</v>
+        <v>0.9415210000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.957415</v>
+        <v>0.981344</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.970202</v>
+        <v>0.964261</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9386100000000001</v>
+        <v>0.917306</v>
       </c>
       <c r="D82" t="n">
-        <v>0.943489</v>
+        <v>0.9365289999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.931688</v>
+        <v>0.933127</v>
       </c>
       <c r="C83" t="n">
-        <v>0.931464</v>
+        <v>0.928431</v>
       </c>
       <c r="D83" t="n">
-        <v>0.943712</v>
+        <v>0.928643</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.944225</v>
+        <v>0.928261</v>
       </c>
       <c r="C84" t="n">
-        <v>0.899134</v>
+        <v>0.898307</v>
       </c>
       <c r="D84" t="n">
-        <v>0.914513</v>
+        <v>0.908307</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.905293</v>
+        <v>0.903575</v>
       </c>
       <c r="C85" t="n">
-        <v>0.866765</v>
+        <v>0.859646</v>
       </c>
       <c r="D85" t="n">
-        <v>0.914874</v>
+        <v>0.883919</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.879732</v>
+        <v>0.8821</v>
       </c>
       <c r="C86" t="n">
-        <v>0.843013</v>
+        <v>0.8518520000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.881892</v>
+        <v>0.869254</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8774459999999999</v>
+        <v>0.868192</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8346980000000001</v>
+        <v>0.844141</v>
       </c>
       <c r="D87" t="n">
-        <v>0.861721</v>
+        <v>0.839135</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.864139</v>
+        <v>0.838395</v>
       </c>
       <c r="C88" t="n">
-        <v>0.847926</v>
+        <v>0.80162</v>
       </c>
       <c r="D88" t="n">
-        <v>0.829689</v>
+        <v>0.820889</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.86297</v>
+        <v>0.840488</v>
       </c>
       <c r="C89" t="n">
-        <v>0.796045</v>
+        <v>0.791533</v>
       </c>
       <c r="D89" t="n">
-        <v>0.816394</v>
+        <v>0.813484</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.821522</v>
+        <v>0.832689</v>
       </c>
       <c r="C90" t="n">
-        <v>0.783362</v>
+        <v>0.7786</v>
       </c>
       <c r="D90" t="n">
-        <v>0.798747</v>
+        <v>0.795641</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.829393</v>
+        <v>0.8133</v>
       </c>
       <c r="C91" t="n">
-        <v>0.771979</v>
+        <v>0.753234</v>
       </c>
       <c r="D91" t="n">
-        <v>0.789761</v>
+        <v>0.777188</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.821747</v>
+        <v>0.809822</v>
       </c>
       <c r="C92" t="n">
-        <v>0.758415</v>
+        <v>0.767496</v>
       </c>
       <c r="D92" t="n">
-        <v>0.767512</v>
+        <v>0.763283</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.798916</v>
+        <v>0.776409</v>
       </c>
       <c r="C93" t="n">
-        <v>0.737874</v>
+        <v>0.738197</v>
       </c>
       <c r="D93" t="n">
-        <v>0.748823</v>
+        <v>0.749611</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.792257</v>
+        <v>0.7840859999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.721809</v>
+        <v>0.71914</v>
       </c>
       <c r="D94" t="n">
-        <v>0.760257</v>
+        <v>0.748215</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08543</v>
+        <v>1.09288</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06212</v>
+        <v>1.06052</v>
       </c>
       <c r="D95" t="n">
-        <v>1.05698</v>
+        <v>1.09803</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0587</v>
+        <v>1.06626</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06218</v>
+        <v>1.05534</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04487</v>
+        <v>1.06466</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06141</v>
+        <v>1.05623</v>
       </c>
       <c r="C97" t="n">
-        <v>1.00597</v>
+        <v>1.02755</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02554</v>
+        <v>1.04216</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03987</v>
+        <v>1.02105</v>
       </c>
       <c r="C98" t="n">
-        <v>0.996966</v>
+        <v>0.998417</v>
       </c>
       <c r="D98" t="n">
-        <v>1.03656</v>
+        <v>1.02954</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02089</v>
+        <v>1.01185</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00061</v>
+        <v>0.985433</v>
       </c>
       <c r="D99" t="n">
-        <v>1.01903</v>
+        <v>1.00105</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01113</v>
+        <v>0.998584</v>
       </c>
       <c r="C100" t="n">
-        <v>0.981551</v>
+        <v>0.967988</v>
       </c>
       <c r="D100" t="n">
-        <v>0.98453</v>
+        <v>0.978564</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.982545</v>
+        <v>0.990005</v>
       </c>
       <c r="C101" t="n">
-        <v>0.949758</v>
+        <v>0.958908</v>
       </c>
       <c r="D101" t="n">
-        <v>0.972536</v>
+        <v>0.965239</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.979853</v>
+        <v>0.978355</v>
       </c>
       <c r="C102" t="n">
-        <v>0.947259</v>
+        <v>0.9530149999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.957704</v>
+        <v>0.969296</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.961126</v>
+        <v>0.95633</v>
       </c>
       <c r="C103" t="n">
-        <v>0.926651</v>
+        <v>0.924134</v>
       </c>
       <c r="D103" t="n">
-        <v>0.93161</v>
+        <v>0.932628</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.946028</v>
+        <v>0.940285</v>
       </c>
       <c r="C104" t="n">
-        <v>0.91132</v>
+        <v>0.924251</v>
       </c>
       <c r="D104" t="n">
-        <v>0.916266</v>
+        <v>0.911669</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.922485</v>
+        <v>0.927683</v>
       </c>
       <c r="C105" t="n">
-        <v>0.887288</v>
+        <v>0.924772</v>
       </c>
       <c r="D105" t="n">
-        <v>0.914857</v>
+        <v>0.912774</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.922276</v>
+        <v>0.933114</v>
       </c>
       <c r="C106" t="n">
-        <v>0.893423</v>
+        <v>0.890923</v>
       </c>
       <c r="D106" t="n">
-        <v>0.905621</v>
+        <v>0.880611</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.92399</v>
+        <v>0.924853</v>
       </c>
       <c r="C107" t="n">
-        <v>0.88336</v>
+        <v>0.870789</v>
       </c>
       <c r="D107" t="n">
-        <v>0.880771</v>
+        <v>0.8718</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.91586</v>
+        <v>0.892197</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8841639999999999</v>
+        <v>0.874517</v>
       </c>
       <c r="D108" t="n">
-        <v>0.883719</v>
+        <v>0.871718</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9008969999999999</v>
+        <v>0.901158</v>
       </c>
       <c r="C109" t="n">
-        <v>0.884429</v>
+        <v>0.863125</v>
       </c>
       <c r="D109" t="n">
-        <v>0.871717</v>
+        <v>0.886097</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.20588</v>
+        <v>1.22292</v>
       </c>
       <c r="C110" t="n">
-        <v>1.17318</v>
+        <v>1.19747</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27435</v>
+        <v>1.18094</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.2186</v>
+        <v>1.20307</v>
       </c>
       <c r="C111" t="n">
-        <v>1.17772</v>
+        <v>1.17581</v>
       </c>
       <c r="D111" t="n">
-        <v>1.18916</v>
+        <v>1.17804</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.19154</v>
+        <v>1.17145</v>
       </c>
       <c r="C112" t="n">
-        <v>1.15462</v>
+        <v>1.1736</v>
       </c>
       <c r="D112" t="n">
-        <v>1.21461</v>
+        <v>1.15322</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18091</v>
+        <v>1.18158</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16503</v>
+        <v>1.17732</v>
       </c>
       <c r="D113" t="n">
-        <v>1.15847</v>
+        <v>1.15869</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17912</v>
+        <v>1.17449</v>
       </c>
       <c r="C114" t="n">
-        <v>1.14305</v>
+        <v>1.17467</v>
       </c>
       <c r="D114" t="n">
-        <v>1.15544</v>
+        <v>1.15608</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17225</v>
+        <v>1.16845</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14589</v>
+        <v>1.16477</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1235</v>
+        <v>1.13856</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13877</v>
+        <v>1.15281</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12006</v>
+        <v>1.13939</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11095</v>
+        <v>1.11531</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.146</v>
+        <v>1.12164</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12769</v>
+        <v>1.11886</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1118</v>
+        <v>1.09463</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13906</v>
+        <v>1.13378</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10862</v>
+        <v>1.10861</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10214</v>
+        <v>1.10083</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12881</v>
+        <v>1.13174</v>
       </c>
       <c r="C119" t="n">
-        <v>1.116</v>
+        <v>1.11632</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10282</v>
+        <v>1.08701</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12205</v>
+        <v>1.1137</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09758</v>
+        <v>1.09708</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0812</v>
+        <v>1.07381</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11759</v>
+        <v>1.11213</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08355</v>
+        <v>1.09781</v>
       </c>
       <c r="D121" t="n">
-        <v>1.06563</v>
+        <v>1.07877</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10246</v>
+        <v>1.13835</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07363</v>
+        <v>1.09674</v>
       </c>
       <c r="D122" t="n">
-        <v>1.07168</v>
+        <v>1.07928</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10038</v>
+        <v>1.11227</v>
       </c>
       <c r="C123" t="n">
-        <v>1.10259</v>
+        <v>1.08487</v>
       </c>
       <c r="D123" t="n">
-        <v>1.07447</v>
+        <v>1.06068</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.43806</v>
+        <v>1.40565</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43582</v>
+        <v>1.42126</v>
       </c>
       <c r="D124" t="n">
-        <v>1.43614</v>
+        <v>1.41068</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.40242</v>
+        <v>1.44004</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41995</v>
+        <v>1.42734</v>
       </c>
       <c r="D125" t="n">
-        <v>1.41203</v>
+        <v>1.42526</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.43064</v>
+        <v>1.4036</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42813</v>
+        <v>1.41602</v>
       </c>
       <c r="D126" t="n">
-        <v>1.41175</v>
+        <v>1.39914</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.42192</v>
+        <v>1.41255</v>
       </c>
       <c r="C127" t="n">
-        <v>1.40475</v>
+        <v>1.40696</v>
       </c>
       <c r="D127" t="n">
-        <v>1.40242</v>
+        <v>1.41959</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.4036</v>
+        <v>1.42948</v>
       </c>
       <c r="C128" t="n">
-        <v>1.39606</v>
+        <v>1.42824</v>
       </c>
       <c r="D128" t="n">
-        <v>1.40137</v>
+        <v>1.41472</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.40731</v>
+        <v>1.42766</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3996</v>
+        <v>1.41003</v>
       </c>
       <c r="D129" t="n">
-        <v>1.40512</v>
+        <v>1.40536</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40461</v>
+        <v>1.39875</v>
       </c>
       <c r="C130" t="n">
-        <v>1.38644</v>
+        <v>1.41569</v>
       </c>
       <c r="D130" t="n">
-        <v>1.41372</v>
+        <v>1.39521</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.38159</v>
+        <v>1.40816</v>
       </c>
       <c r="C131" t="n">
-        <v>1.39715</v>
+        <v>1.4088</v>
       </c>
       <c r="D131" t="n">
-        <v>1.38132</v>
+        <v>1.37188</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.4254</v>
+        <v>1.40344</v>
       </c>
       <c r="C132" t="n">
-        <v>1.40012</v>
+        <v>1.39939</v>
       </c>
       <c r="D132" t="n">
-        <v>1.38437</v>
+        <v>1.38451</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39912</v>
+        <v>1.41099</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38602</v>
+        <v>1.40777</v>
       </c>
       <c r="D133" t="n">
-        <v>1.37881</v>
+        <v>1.39389</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39647</v>
+        <v>1.39665</v>
       </c>
       <c r="C134" t="n">
-        <v>1.4053</v>
+        <v>1.38652</v>
       </c>
       <c r="D134" t="n">
-        <v>1.38836</v>
+        <v>1.38272</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.38638</v>
+        <v>1.40633</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3935</v>
+        <v>1.38421</v>
       </c>
       <c r="D135" t="n">
-        <v>1.39647</v>
+        <v>1.38319</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.41068</v>
+        <v>1.40601</v>
       </c>
       <c r="C136" t="n">
-        <v>1.40358</v>
+        <v>1.38962</v>
       </c>
       <c r="D136" t="n">
-        <v>1.40574</v>
+        <v>1.38772</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.39714</v>
+        <v>1.40339</v>
       </c>
       <c r="C137" t="n">
-        <v>1.41908</v>
+        <v>1.38327</v>
       </c>
       <c r="D137" t="n">
-        <v>1.40638</v>
+        <v>1.40004</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.76233</v>
+        <v>1.72717</v>
       </c>
       <c r="C138" t="n">
-        <v>1.74049</v>
+        <v>1.71834</v>
       </c>
       <c r="D138" t="n">
-        <v>1.72253</v>
+        <v>1.74073</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74447</v>
+        <v>1.72607</v>
       </c>
       <c r="C139" t="n">
-        <v>1.72269</v>
+        <v>1.73399</v>
       </c>
       <c r="D139" t="n">
-        <v>1.74871</v>
+        <v>1.75041</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.72424</v>
+        <v>1.71752</v>
       </c>
       <c r="C140" t="n">
-        <v>1.71579</v>
+        <v>1.74734</v>
       </c>
       <c r="D140" t="n">
-        <v>1.75777</v>
+        <v>1.74512</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.725</v>
+        <v>1.71067</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7254</v>
+        <v>1.72669</v>
       </c>
       <c r="D141" t="n">
-        <v>1.73586</v>
+        <v>1.74559</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72084</v>
+        <v>1.7225</v>
       </c>
       <c r="C142" t="n">
-        <v>1.72092</v>
+        <v>1.73347</v>
       </c>
       <c r="D142" t="n">
-        <v>1.73393</v>
+        <v>1.74135</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70469</v>
+        <v>1.70669</v>
       </c>
       <c r="C143" t="n">
-        <v>1.62634</v>
+        <v>1.70767</v>
       </c>
       <c r="D143" t="n">
-        <v>1.73154</v>
+        <v>1.74596</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.619868</v>
+        <v>0.589108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.494904</v>
+        <v>0.457222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.332921</v>
+        <v>0.334628</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.364648</v>
+        <v>0.354373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.312494</v>
+        <v>0.295146</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33298</v>
+        <v>0.327933</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.36837</v>
+        <v>0.339605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.303652</v>
+        <v>0.292958</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316799</v>
+        <v>0.318996</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.335691</v>
+        <v>0.336205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303044</v>
+        <v>0.280298</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315077</v>
+        <v>0.307656</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.355411</v>
+        <v>0.337331</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295567</v>
+        <v>0.283153</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31197</v>
+        <v>0.307595</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.330321</v>
+        <v>0.326478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.282358</v>
+        <v>0.277735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.303704</v>
+        <v>0.296156</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3193</v>
+        <v>0.323181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.288779</v>
+        <v>0.277854</v>
       </c>
       <c r="D8" t="n">
-        <v>0.301437</v>
+        <v>0.29609</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.323097</v>
+        <v>0.335548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.272268</v>
+        <v>0.282447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3009</v>
+        <v>0.315727</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.574731</v>
+        <v>0.6906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.554236</v>
+        <v>0.547202</v>
       </c>
       <c r="D10" t="n">
-        <v>0.57076</v>
+        <v>0.585836</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.570171</v>
+        <v>0.575524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.512547</v>
+        <v>0.510741</v>
       </c>
       <c r="D11" t="n">
-        <v>0.540297</v>
+        <v>0.537972</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5543400000000001</v>
+        <v>0.539018</v>
       </c>
       <c r="C12" t="n">
-        <v>0.495838</v>
+        <v>0.500589</v>
       </c>
       <c r="D12" t="n">
-        <v>0.528575</v>
+        <v>0.520829</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523935</v>
+        <v>0.524665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.481522</v>
+        <v>0.494504</v>
       </c>
       <c r="D13" t="n">
-        <v>0.50943</v>
+        <v>0.502491</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.512834</v>
+        <v>0.502851</v>
       </c>
       <c r="C14" t="n">
-        <v>0.486265</v>
+        <v>0.464257</v>
       </c>
       <c r="D14" t="n">
-        <v>0.508584</v>
+        <v>0.496377</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.504776</v>
+        <v>0.497286</v>
       </c>
       <c r="C15" t="n">
-        <v>0.45751</v>
+        <v>0.448091</v>
       </c>
       <c r="D15" t="n">
-        <v>0.473785</v>
+        <v>0.476793</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.474139</v>
+        <v>0.495565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.447855</v>
+        <v>0.429298</v>
       </c>
       <c r="D16" t="n">
-        <v>0.464004</v>
+        <v>0.459356</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.459067</v>
+        <v>0.464546</v>
       </c>
       <c r="C17" t="n">
-        <v>0.424333</v>
+        <v>0.428485</v>
       </c>
       <c r="D17" t="n">
-        <v>0.45197</v>
+        <v>0.439654</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.454016</v>
+        <v>0.45456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.408722</v>
+        <v>0.417978</v>
       </c>
       <c r="D18" t="n">
-        <v>0.442322</v>
+        <v>0.437788</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.445751</v>
+        <v>0.447876</v>
       </c>
       <c r="C19" t="n">
-        <v>0.402794</v>
+        <v>0.404533</v>
       </c>
       <c r="D19" t="n">
-        <v>0.428379</v>
+        <v>0.423575</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.427857</v>
+        <v>0.431177</v>
       </c>
       <c r="C20" t="n">
-        <v>0.388001</v>
+        <v>0.379954</v>
       </c>
       <c r="D20" t="n">
-        <v>0.404966</v>
+        <v>0.408438</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.435023</v>
+        <v>0.424375</v>
       </c>
       <c r="C21" t="n">
-        <v>0.384591</v>
+        <v>0.374726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.403818</v>
+        <v>0.400292</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420556</v>
+        <v>0.417568</v>
       </c>
       <c r="C22" t="n">
-        <v>0.376761</v>
+        <v>0.367375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.396627</v>
+        <v>0.394782</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407418</v>
+        <v>0.409786</v>
       </c>
       <c r="C23" t="n">
-        <v>0.363053</v>
+        <v>0.369495</v>
       </c>
       <c r="D23" t="n">
-        <v>0.390652</v>
+        <v>0.389608</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.672284</v>
+        <v>0.6801970000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.644359</v>
+        <v>0.650385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.667194</v>
+        <v>0.6648539999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.677373</v>
+        <v>0.64864</v>
       </c>
       <c r="C25" t="n">
-        <v>0.617364</v>
+        <v>0.619189</v>
       </c>
       <c r="D25" t="n">
-        <v>0.655747</v>
+        <v>0.648392</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.645778</v>
+        <v>0.630992</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5885</v>
+        <v>0.603979</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6265849999999999</v>
+        <v>0.624815</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.612424</v>
+        <v>0.605858</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5912849999999999</v>
+        <v>0.568832</v>
       </c>
       <c r="D27" t="n">
-        <v>0.604747</v>
+        <v>0.59714</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.595587</v>
+        <v>0.5969989999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.560028</v>
+        <v>0.560066</v>
       </c>
       <c r="D28" t="n">
-        <v>0.592025</v>
+        <v>0.580775</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.587449</v>
+        <v>0.577338</v>
       </c>
       <c r="C29" t="n">
-        <v>0.540561</v>
+        <v>0.532612</v>
       </c>
       <c r="D29" t="n">
-        <v>0.567901</v>
+        <v>0.553831</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.558265</v>
+        <v>0.55725</v>
       </c>
       <c r="C30" t="n">
-        <v>0.515404</v>
+        <v>0.50968</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5355</v>
+        <v>0.536595</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.545227</v>
+        <v>0.545527</v>
       </c>
       <c r="C31" t="n">
-        <v>0.505988</v>
+        <v>0.506552</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5324179999999999</v>
+        <v>0.522251</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.53318</v>
+        <v>0.541052</v>
       </c>
       <c r="C32" t="n">
-        <v>0.497982</v>
+        <v>0.479745</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5059669999999999</v>
+        <v>0.524779</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.516236</v>
+        <v>0.515334</v>
       </c>
       <c r="C33" t="n">
-        <v>0.478979</v>
+        <v>0.478988</v>
       </c>
       <c r="D33" t="n">
-        <v>0.491873</v>
+        <v>0.514232</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.496292</v>
+        <v>0.503625</v>
       </c>
       <c r="C34" t="n">
-        <v>0.46281</v>
+        <v>0.453617</v>
       </c>
       <c r="D34" t="n">
-        <v>0.483313</v>
+        <v>0.486803</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.493418</v>
+        <v>0.490086</v>
       </c>
       <c r="C35" t="n">
-        <v>0.448116</v>
+        <v>0.440481</v>
       </c>
       <c r="D35" t="n">
-        <v>0.467428</v>
+        <v>0.462335</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.489206</v>
+        <v>0.472287</v>
       </c>
       <c r="C36" t="n">
-        <v>0.443797</v>
+        <v>0.427128</v>
       </c>
       <c r="D36" t="n">
-        <v>0.460666</v>
+        <v>0.470282</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.467254</v>
+        <v>0.467375</v>
       </c>
       <c r="C37" t="n">
-        <v>0.425386</v>
+        <v>0.420027</v>
       </c>
       <c r="D37" t="n">
-        <v>0.453028</v>
+        <v>0.442759</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.728335</v>
+        <v>0.735196</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7120339999999999</v>
+        <v>0.684763</v>
       </c>
       <c r="D38" t="n">
-        <v>0.731241</v>
+        <v>0.727284</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.696478</v>
+        <v>0.710917</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6775870000000001</v>
+        <v>0.680473</v>
       </c>
       <c r="D39" t="n">
-        <v>0.706054</v>
+        <v>0.724198</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.69126</v>
+        <v>0.70534</v>
       </c>
       <c r="C40" t="n">
-        <v>0.645012</v>
+        <v>0.644842</v>
       </c>
       <c r="D40" t="n">
-        <v>0.676835</v>
+        <v>0.6899380000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.675555</v>
+        <v>0.678119</v>
       </c>
       <c r="C41" t="n">
-        <v>0.651697</v>
+        <v>0.625633</v>
       </c>
       <c r="D41" t="n">
-        <v>0.661391</v>
+        <v>0.6533870000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6538620000000001</v>
+        <v>0.6435</v>
       </c>
       <c r="C42" t="n">
-        <v>0.601261</v>
+        <v>0.6172339999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.633792</v>
+        <v>0.62939</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.629343</v>
+        <v>0.620167</v>
       </c>
       <c r="C43" t="n">
-        <v>0.586684</v>
+        <v>0.593771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.622281</v>
+        <v>0.617591</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.609474</v>
+        <v>0.604111</v>
       </c>
       <c r="C44" t="n">
-        <v>0.580762</v>
+        <v>0.565412</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6055970000000001</v>
+        <v>0.594015</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.594496</v>
+        <v>0.590437</v>
       </c>
       <c r="C45" t="n">
-        <v>0.553489</v>
+        <v>0.554613</v>
       </c>
       <c r="D45" t="n">
-        <v>0.580477</v>
+        <v>0.588164</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.582447</v>
+        <v>0.573168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.537947</v>
+        <v>0.520412</v>
       </c>
       <c r="D46" t="n">
-        <v>0.554102</v>
+        <v>0.552847</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.575377</v>
+        <v>0.555368</v>
       </c>
       <c r="C47" t="n">
-        <v>0.529751</v>
+        <v>0.517638</v>
       </c>
       <c r="D47" t="n">
-        <v>0.540698</v>
+        <v>0.550393</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.542278</v>
+        <v>0.54811</v>
       </c>
       <c r="C48" t="n">
-        <v>0.511381</v>
+        <v>0.507762</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5434560000000001</v>
+        <v>0.525189</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.544045</v>
+        <v>0.5360510000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.493712</v>
+        <v>0.490285</v>
       </c>
       <c r="D49" t="n">
-        <v>0.511991</v>
+        <v>0.507219</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.526403</v>
+        <v>0.512372</v>
       </c>
       <c r="C50" t="n">
-        <v>0.480723</v>
+        <v>0.472583</v>
       </c>
       <c r="D50" t="n">
-        <v>0.507359</v>
+        <v>0.501356</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.516859</v>
+        <v>0.503857</v>
       </c>
       <c r="C51" t="n">
-        <v>0.480459</v>
+        <v>0.470035</v>
       </c>
       <c r="D51" t="n">
-        <v>0.492209</v>
+        <v>0.484481</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.499339</v>
+        <v>0.5112640000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.463974</v>
+        <v>0.454743</v>
       </c>
       <c r="D52" t="n">
-        <v>0.500293</v>
+        <v>0.481615</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.766469</v>
+        <v>0.7610479999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.729549</v>
+        <v>0.740795</v>
       </c>
       <c r="D53" t="n">
-        <v>0.76707</v>
+        <v>0.766418</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.736137</v>
+        <v>0.750266</v>
       </c>
       <c r="C54" t="n">
-        <v>0.722574</v>
+        <v>0.713017</v>
       </c>
       <c r="D54" t="n">
-        <v>0.738097</v>
+        <v>0.758124</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.718508</v>
+        <v>0.751508</v>
       </c>
       <c r="C55" t="n">
-        <v>0.684402</v>
+        <v>0.704746</v>
       </c>
       <c r="D55" t="n">
-        <v>0.713556</v>
+        <v>0.725849</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.712288</v>
+        <v>0.717066</v>
       </c>
       <c r="C56" t="n">
-        <v>0.667795</v>
+        <v>0.666389</v>
       </c>
       <c r="D56" t="n">
-        <v>0.713639</v>
+        <v>0.687898</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.691079</v>
+        <v>0.694445</v>
       </c>
       <c r="C57" t="n">
-        <v>0.654134</v>
+        <v>0.650617</v>
       </c>
       <c r="D57" t="n">
-        <v>0.676405</v>
+        <v>0.672865</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.702326</v>
+        <v>0.680873</v>
       </c>
       <c r="C58" t="n">
-        <v>0.637011</v>
+        <v>0.652419</v>
       </c>
       <c r="D58" t="n">
-        <v>0.668445</v>
+        <v>0.663559</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.664998</v>
+        <v>0.66609</v>
       </c>
       <c r="C59" t="n">
-        <v>0.625212</v>
+        <v>0.630652</v>
       </c>
       <c r="D59" t="n">
-        <v>0.659454</v>
+        <v>0.6336540000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.639455</v>
+        <v>0.655138</v>
       </c>
       <c r="C60" t="n">
-        <v>0.603183</v>
+        <v>0.59903</v>
       </c>
       <c r="D60" t="n">
-        <v>0.623071</v>
+        <v>0.647353</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.630172</v>
+        <v>0.643357</v>
       </c>
       <c r="C61" t="n">
-        <v>0.58249</v>
+        <v>0.602169</v>
       </c>
       <c r="D61" t="n">
-        <v>0.614306</v>
+        <v>0.609723</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.625762</v>
+        <v>0.621185</v>
       </c>
       <c r="C62" t="n">
-        <v>0.571499</v>
+        <v>0.569612</v>
       </c>
       <c r="D62" t="n">
-        <v>0.598552</v>
+        <v>0.6115350000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.598952</v>
+        <v>0.611012</v>
       </c>
       <c r="C63" t="n">
-        <v>0.563646</v>
+        <v>0.5597</v>
       </c>
       <c r="D63" t="n">
-        <v>0.585086</v>
+        <v>0.590135</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588448</v>
+        <v>0.607053</v>
       </c>
       <c r="C64" t="n">
-        <v>0.549559</v>
+        <v>0.545869</v>
       </c>
       <c r="D64" t="n">
-        <v>0.578912</v>
+        <v>0.574693</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.584196</v>
+        <v>0.587468</v>
       </c>
       <c r="C65" t="n">
-        <v>0.536118</v>
+        <v>0.537546</v>
       </c>
       <c r="D65" t="n">
-        <v>0.557594</v>
+        <v>0.565811</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.565982</v>
+        <v>0.597139</v>
       </c>
       <c r="C66" t="n">
-        <v>0.51953</v>
+        <v>0.536811</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5554</v>
+        <v>0.569632</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.851592</v>
+        <v>0.860798</v>
       </c>
       <c r="C67" t="n">
-        <v>0.82983</v>
+        <v>0.838367</v>
       </c>
       <c r="D67" t="n">
-        <v>0.857579</v>
+        <v>0.865568</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.84651</v>
+        <v>0.863255</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8055099999999999</v>
+        <v>0.812435</v>
       </c>
       <c r="D68" t="n">
-        <v>0.841603</v>
+        <v>0.825661</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.827315</v>
+        <v>0.817842</v>
       </c>
       <c r="C69" t="n">
-        <v>0.783481</v>
+        <v>0.7945489999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.804631</v>
+        <v>0.810981</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.808671</v>
+        <v>0.812835</v>
       </c>
       <c r="C70" t="n">
-        <v>0.763805</v>
+        <v>0.7654879999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7882209999999999</v>
+        <v>0.806696</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.793578</v>
+        <v>0.782108</v>
       </c>
       <c r="C71" t="n">
-        <v>0.753873</v>
+        <v>0.738174</v>
       </c>
       <c r="D71" t="n">
-        <v>0.771801</v>
+        <v>0.767764</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.776517</v>
+        <v>0.765309</v>
       </c>
       <c r="C72" t="n">
-        <v>0.739466</v>
+        <v>0.725064</v>
       </c>
       <c r="D72" t="n">
-        <v>0.761025</v>
+        <v>0.751955</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.763186</v>
+        <v>0.765897</v>
       </c>
       <c r="C73" t="n">
-        <v>0.713701</v>
+        <v>0.709589</v>
       </c>
       <c r="D73" t="n">
-        <v>0.748074</v>
+        <v>0.737344</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.747397</v>
+        <v>0.749009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.703114</v>
+        <v>0.69687</v>
       </c>
       <c r="D74" t="n">
-        <v>0.720925</v>
+        <v>0.718587</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.710341</v>
+        <v>0.712012</v>
       </c>
       <c r="C75" t="n">
-        <v>0.686947</v>
+        <v>0.6851969999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.696676</v>
+        <v>0.69953</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.702956</v>
+        <v>0.722089</v>
       </c>
       <c r="C76" t="n">
-        <v>0.645944</v>
+        <v>0.665725</v>
       </c>
       <c r="D76" t="n">
-        <v>0.681538</v>
+        <v>0.683998</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.687627</v>
+        <v>0.690392</v>
       </c>
       <c r="C77" t="n">
-        <v>0.639052</v>
+        <v>0.656063</v>
       </c>
       <c r="D77" t="n">
-        <v>0.66956</v>
+        <v>0.672741</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.692128</v>
+        <v>0.690076</v>
       </c>
       <c r="C78" t="n">
-        <v>0.630009</v>
+        <v>0.623622</v>
       </c>
       <c r="D78" t="n">
-        <v>0.66076</v>
+        <v>0.659458</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.67086</v>
+        <v>0.670094</v>
       </c>
       <c r="C79" t="n">
-        <v>0.630765</v>
+        <v>0.617066</v>
       </c>
       <c r="D79" t="n">
-        <v>0.648504</v>
+        <v>0.64886</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.665161</v>
+        <v>0.658585</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6253919999999999</v>
+        <v>0.619186</v>
       </c>
       <c r="D80" t="n">
-        <v>0.629853</v>
+        <v>0.647809</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.96123</v>
+        <v>0.971868</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9415210000000001</v>
+        <v>0.952151</v>
       </c>
       <c r="D81" t="n">
-        <v>0.981344</v>
+        <v>0.995262</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.964261</v>
+        <v>0.972878</v>
       </c>
       <c r="C82" t="n">
-        <v>0.917306</v>
+        <v>0.946049</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9365289999999999</v>
+        <v>0.957473</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.933127</v>
+        <v>0.943923</v>
       </c>
       <c r="C83" t="n">
-        <v>0.928431</v>
+        <v>0.909103</v>
       </c>
       <c r="D83" t="n">
-        <v>0.928643</v>
+        <v>0.930572</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.928261</v>
+        <v>0.909776</v>
       </c>
       <c r="C84" t="n">
-        <v>0.898307</v>
+        <v>0.900292</v>
       </c>
       <c r="D84" t="n">
-        <v>0.908307</v>
+        <v>0.907821</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.903575</v>
+        <v>0.918635</v>
       </c>
       <c r="C85" t="n">
-        <v>0.859646</v>
+        <v>0.872672</v>
       </c>
       <c r="D85" t="n">
-        <v>0.883919</v>
+        <v>0.899629</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8821</v>
+        <v>0.875621</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8518520000000001</v>
+        <v>0.833626</v>
       </c>
       <c r="D86" t="n">
-        <v>0.869254</v>
+        <v>0.871607</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.868192</v>
+        <v>0.862886</v>
       </c>
       <c r="C87" t="n">
-        <v>0.844141</v>
+        <v>0.817831</v>
       </c>
       <c r="D87" t="n">
-        <v>0.839135</v>
+        <v>0.878775</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.838395</v>
+        <v>0.8628</v>
       </c>
       <c r="C88" t="n">
-        <v>0.80162</v>
+        <v>0.822156</v>
       </c>
       <c r="D88" t="n">
-        <v>0.820889</v>
+        <v>0.827739</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.840488</v>
+        <v>0.828734</v>
       </c>
       <c r="C89" t="n">
-        <v>0.791533</v>
+        <v>0.787123</v>
       </c>
       <c r="D89" t="n">
-        <v>0.813484</v>
+        <v>0.810608</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.832689</v>
+        <v>0.807566</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7786</v>
+        <v>0.791954</v>
       </c>
       <c r="D90" t="n">
-        <v>0.795641</v>
+        <v>0.786672</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8133</v>
+        <v>0.794901</v>
       </c>
       <c r="C91" t="n">
-        <v>0.753234</v>
+        <v>0.777276</v>
       </c>
       <c r="D91" t="n">
-        <v>0.777188</v>
+        <v>0.779556</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.809822</v>
+        <v>0.780695</v>
       </c>
       <c r="C92" t="n">
-        <v>0.767496</v>
+        <v>0.756045</v>
       </c>
       <c r="D92" t="n">
-        <v>0.763283</v>
+        <v>0.763897</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.776409</v>
+        <v>0.789054</v>
       </c>
       <c r="C93" t="n">
-        <v>0.738197</v>
+        <v>0.742597</v>
       </c>
       <c r="D93" t="n">
-        <v>0.749611</v>
+        <v>0.763202</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7840859999999999</v>
+        <v>0.788388</v>
       </c>
       <c r="C94" t="n">
-        <v>0.71914</v>
+        <v>0.720458</v>
       </c>
       <c r="D94" t="n">
-        <v>0.748215</v>
+        <v>0.764988</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09288</v>
+        <v>1.07405</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06052</v>
+        <v>1.06413</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09803</v>
+        <v>1.07861</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06626</v>
+        <v>1.08999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05534</v>
+        <v>1.06013</v>
       </c>
       <c r="D96" t="n">
-        <v>1.06466</v>
+        <v>1.07462</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05623</v>
+        <v>1.03356</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02755</v>
+        <v>1.0228</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04216</v>
+        <v>1.06233</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02105</v>
+        <v>1.03626</v>
       </c>
       <c r="C98" t="n">
-        <v>0.998417</v>
+        <v>1.00426</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02954</v>
+        <v>1.03594</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01185</v>
+        <v>1.0294</v>
       </c>
       <c r="C99" t="n">
-        <v>0.985433</v>
+        <v>0.9830759999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00105</v>
+        <v>1.01076</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.998584</v>
+        <v>0.992995</v>
       </c>
       <c r="C100" t="n">
-        <v>0.967988</v>
+        <v>0.972732</v>
       </c>
       <c r="D100" t="n">
-        <v>0.978564</v>
+        <v>0.985584</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.990005</v>
+        <v>0.9776</v>
       </c>
       <c r="C101" t="n">
-        <v>0.958908</v>
+        <v>0.951635</v>
       </c>
       <c r="D101" t="n">
-        <v>0.965239</v>
+        <v>0.9695589999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.978355</v>
+        <v>0.982903</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9530149999999999</v>
+        <v>0.950342</v>
       </c>
       <c r="D102" t="n">
-        <v>0.969296</v>
+        <v>0.949691</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.95633</v>
+        <v>0.969359</v>
       </c>
       <c r="C103" t="n">
-        <v>0.924134</v>
+        <v>0.941866</v>
       </c>
       <c r="D103" t="n">
-        <v>0.932628</v>
+        <v>0.916975</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.940285</v>
+        <v>0.951219</v>
       </c>
       <c r="C104" t="n">
-        <v>0.924251</v>
+        <v>0.912891</v>
       </c>
       <c r="D104" t="n">
-        <v>0.911669</v>
+        <v>0.910834</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.927683</v>
+        <v>0.930078</v>
       </c>
       <c r="C105" t="n">
-        <v>0.924772</v>
+        <v>0.919329</v>
       </c>
       <c r="D105" t="n">
-        <v>0.912774</v>
+        <v>0.916617</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.933114</v>
+        <v>0.932233</v>
       </c>
       <c r="C106" t="n">
-        <v>0.890923</v>
+        <v>0.913092</v>
       </c>
       <c r="D106" t="n">
-        <v>0.880611</v>
+        <v>0.899495</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.924853</v>
+        <v>0.921448</v>
       </c>
       <c r="C107" t="n">
-        <v>0.870789</v>
+        <v>0.880973</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8718</v>
+        <v>0.875601</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.892197</v>
+        <v>0.915531</v>
       </c>
       <c r="C108" t="n">
-        <v>0.874517</v>
+        <v>0.872915</v>
       </c>
       <c r="D108" t="n">
-        <v>0.871718</v>
+        <v>0.875402</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.901158</v>
+        <v>0.897284</v>
       </c>
       <c r="C109" t="n">
-        <v>0.863125</v>
+        <v>0.864523</v>
       </c>
       <c r="D109" t="n">
-        <v>0.886097</v>
+        <v>0.8881790000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22292</v>
+        <v>1.18793</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19747</v>
+        <v>1.19868</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18094</v>
+        <v>1.21769</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.20307</v>
+        <v>1.17732</v>
       </c>
       <c r="C111" t="n">
-        <v>1.17581</v>
+        <v>1.17466</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17804</v>
+        <v>1.20044</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17145</v>
+        <v>1.2202</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1736</v>
+        <v>1.19893</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15322</v>
+        <v>1.23255</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18158</v>
+        <v>1.19328</v>
       </c>
       <c r="C113" t="n">
-        <v>1.17732</v>
+        <v>1.15104</v>
       </c>
       <c r="D113" t="n">
-        <v>1.15869</v>
+        <v>1.20221</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17449</v>
+        <v>1.17827</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17467</v>
+        <v>1.1532</v>
       </c>
       <c r="D114" t="n">
-        <v>1.15608</v>
+        <v>1.1687</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16845</v>
+        <v>1.15633</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16477</v>
+        <v>1.13175</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13856</v>
+        <v>1.13472</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.15281</v>
+        <v>1.16676</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13939</v>
+        <v>1.13678</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11531</v>
+        <v>1.14448</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12164</v>
+        <v>1.15678</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11886</v>
+        <v>1.11946</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09463</v>
+        <v>1.13587</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13378</v>
+        <v>1.13898</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10861</v>
+        <v>1.12264</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10083</v>
+        <v>1.12703</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13174</v>
+        <v>1.14094</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11632</v>
+        <v>1.11587</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08701</v>
+        <v>1.11271</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.1137</v>
+        <v>1.10993</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09708</v>
+        <v>1.09272</v>
       </c>
       <c r="D120" t="n">
-        <v>1.07381</v>
+        <v>1.10391</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11213</v>
+        <v>1.10553</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09781</v>
+        <v>1.09871</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07877</v>
+        <v>1.0804</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.13835</v>
+        <v>1.12848</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09674</v>
+        <v>1.09973</v>
       </c>
       <c r="D122" t="n">
-        <v>1.07928</v>
+        <v>1.10453</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11227</v>
+        <v>1.11294</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08487</v>
+        <v>1.10668</v>
       </c>
       <c r="D123" t="n">
-        <v>1.06068</v>
+        <v>1.09216</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.40565</v>
+        <v>1.43467</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42126</v>
+        <v>1.44676</v>
       </c>
       <c r="D124" t="n">
-        <v>1.41068</v>
+        <v>1.42616</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44004</v>
+        <v>1.43305</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42734</v>
+        <v>1.44704</v>
       </c>
       <c r="D125" t="n">
-        <v>1.42526</v>
+        <v>1.42499</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.4036</v>
+        <v>1.43332</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41602</v>
+        <v>1.40053</v>
       </c>
       <c r="D126" t="n">
-        <v>1.39914</v>
+        <v>1.42951</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.41255</v>
+        <v>1.43668</v>
       </c>
       <c r="C127" t="n">
-        <v>1.40696</v>
+        <v>1.42858</v>
       </c>
       <c r="D127" t="n">
-        <v>1.41959</v>
+        <v>1.42457</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42948</v>
+        <v>1.42536</v>
       </c>
       <c r="C128" t="n">
-        <v>1.42824</v>
+        <v>1.43271</v>
       </c>
       <c r="D128" t="n">
-        <v>1.41472</v>
+        <v>1.42523</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.42766</v>
+        <v>1.41673</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41003</v>
+        <v>1.42153</v>
       </c>
       <c r="D129" t="n">
-        <v>1.40536</v>
+        <v>1.45339</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39875</v>
+        <v>1.40349</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41569</v>
+        <v>1.42415</v>
       </c>
       <c r="D130" t="n">
-        <v>1.39521</v>
+        <v>1.39655</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40816</v>
+        <v>1.40496</v>
       </c>
       <c r="C131" t="n">
-        <v>1.4088</v>
+        <v>1.40566</v>
       </c>
       <c r="D131" t="n">
-        <v>1.37188</v>
+        <v>1.42044</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40344</v>
+        <v>1.41147</v>
       </c>
       <c r="C132" t="n">
-        <v>1.39939</v>
+        <v>1.41046</v>
       </c>
       <c r="D132" t="n">
-        <v>1.38451</v>
+        <v>1.38804</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.41099</v>
+        <v>1.4279</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40777</v>
+        <v>1.40184</v>
       </c>
       <c r="D133" t="n">
-        <v>1.39389</v>
+        <v>1.38952</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39665</v>
+        <v>1.40863</v>
       </c>
       <c r="C134" t="n">
-        <v>1.38652</v>
+        <v>1.40449</v>
       </c>
       <c r="D134" t="n">
-        <v>1.38272</v>
+        <v>1.41452</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40633</v>
+        <v>1.43492</v>
       </c>
       <c r="C135" t="n">
-        <v>1.38421</v>
+        <v>1.37773</v>
       </c>
       <c r="D135" t="n">
-        <v>1.38319</v>
+        <v>1.40219</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.40601</v>
+        <v>1.41487</v>
       </c>
       <c r="C136" t="n">
-        <v>1.38962</v>
+        <v>1.40338</v>
       </c>
       <c r="D136" t="n">
-        <v>1.38772</v>
+        <v>1.41219</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40339</v>
+        <v>1.41517</v>
       </c>
       <c r="C137" t="n">
-        <v>1.38327</v>
+        <v>1.40139</v>
       </c>
       <c r="D137" t="n">
-        <v>1.40004</v>
+        <v>1.43759</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.72717</v>
+        <v>1.74919</v>
       </c>
       <c r="C138" t="n">
-        <v>1.71834</v>
+        <v>1.73159</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74073</v>
+        <v>1.78949</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.72607</v>
+        <v>1.73653</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73399</v>
+        <v>1.74093</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75041</v>
+        <v>1.77803</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71752</v>
+        <v>1.71853</v>
       </c>
       <c r="C140" t="n">
-        <v>1.74734</v>
+        <v>1.73928</v>
       </c>
       <c r="D140" t="n">
-        <v>1.74512</v>
+        <v>1.76137</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.71067</v>
+        <v>1.73043</v>
       </c>
       <c r="C141" t="n">
-        <v>1.72669</v>
+        <v>1.73221</v>
       </c>
       <c r="D141" t="n">
-        <v>1.74559</v>
+        <v>1.77218</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.7225</v>
+        <v>1.72516</v>
       </c>
       <c r="C142" t="n">
-        <v>1.73347</v>
+        <v>1.73754</v>
       </c>
       <c r="D142" t="n">
-        <v>1.74135</v>
+        <v>1.75789</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70669</v>
+        <v>1.71275</v>
       </c>
       <c r="C143" t="n">
-        <v>1.70767</v>
+        <v>1.73674</v>
       </c>
       <c r="D143" t="n">
-        <v>1.74596</v>
+        <v>1.75384</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.589108</v>
+        <v>0.633467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.457222</v>
+        <v>0.499921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.334628</v>
+        <v>0.321413</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.354373</v>
+        <v>0.367988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.295146</v>
+        <v>0.308501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.327933</v>
+        <v>0.314178</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.339605</v>
+        <v>0.362738</v>
       </c>
       <c r="C4" t="n">
-        <v>0.292958</v>
+        <v>0.300213</v>
       </c>
       <c r="D4" t="n">
-        <v>0.318996</v>
+        <v>0.304995</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.336205</v>
+        <v>0.340994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.280298</v>
+        <v>0.29731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.307656</v>
+        <v>0.293659</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.337331</v>
+        <v>0.342695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.283153</v>
+        <v>0.287606</v>
       </c>
       <c r="D6" t="n">
-        <v>0.307595</v>
+        <v>0.290797</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.326478</v>
+        <v>0.331143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.277735</v>
+        <v>0.282622</v>
       </c>
       <c r="D7" t="n">
-        <v>0.296156</v>
+        <v>0.285278</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.323181</v>
+        <v>0.3174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.277854</v>
+        <v>0.276629</v>
       </c>
       <c r="D8" t="n">
-        <v>0.29609</v>
+        <v>0.28137</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.335548</v>
+        <v>0.320627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.282447</v>
+        <v>0.276126</v>
       </c>
       <c r="D9" t="n">
-        <v>0.315727</v>
+        <v>0.649409</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6906</v>
+        <v>0.578102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.547202</v>
+        <v>0.559436</v>
       </c>
       <c r="D10" t="n">
-        <v>0.585836</v>
+        <v>0.613862</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.575524</v>
+        <v>0.566887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.510741</v>
+        <v>0.534206</v>
       </c>
       <c r="D11" t="n">
-        <v>0.537972</v>
+        <v>0.583763</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539018</v>
+        <v>0.554132</v>
       </c>
       <c r="C12" t="n">
-        <v>0.500589</v>
+        <v>0.529271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.520829</v>
+        <v>0.591498</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.524665</v>
+        <v>0.553942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.494504</v>
+        <v>0.507089</v>
       </c>
       <c r="D13" t="n">
-        <v>0.502491</v>
+        <v>0.54086</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.502851</v>
+        <v>0.526858</v>
       </c>
       <c r="C14" t="n">
-        <v>0.464257</v>
+        <v>0.474189</v>
       </c>
       <c r="D14" t="n">
-        <v>0.496377</v>
+        <v>0.530123</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.497286</v>
+        <v>0.511423</v>
       </c>
       <c r="C15" t="n">
-        <v>0.448091</v>
+        <v>0.458002</v>
       </c>
       <c r="D15" t="n">
-        <v>0.476793</v>
+        <v>0.500054</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.495565</v>
+        <v>0.502547</v>
       </c>
       <c r="C16" t="n">
-        <v>0.429298</v>
+        <v>0.455986</v>
       </c>
       <c r="D16" t="n">
-        <v>0.459356</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.464546</v>
+        <v>0.469674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.428485</v>
+        <v>0.432155</v>
       </c>
       <c r="D17" t="n">
-        <v>0.439654</v>
+        <v>0.48056</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45456</v>
+        <v>0.468545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.417978</v>
+        <v>0.411906</v>
       </c>
       <c r="D18" t="n">
-        <v>0.437788</v>
+        <v>0.45393</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447876</v>
+        <v>0.45364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.404533</v>
+        <v>0.408336</v>
       </c>
       <c r="D19" t="n">
-        <v>0.423575</v>
+        <v>0.436878</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.431177</v>
+        <v>0.449794</v>
       </c>
       <c r="C20" t="n">
-        <v>0.379954</v>
+        <v>0.401294</v>
       </c>
       <c r="D20" t="n">
-        <v>0.408438</v>
+        <v>0.438147</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.424375</v>
+        <v>0.429436</v>
       </c>
       <c r="C21" t="n">
-        <v>0.374726</v>
+        <v>0.388155</v>
       </c>
       <c r="D21" t="n">
-        <v>0.400292</v>
+        <v>0.428747</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.417568</v>
+        <v>0.427721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.367375</v>
+        <v>0.385119</v>
       </c>
       <c r="D22" t="n">
-        <v>0.394782</v>
+        <v>0.410552</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409786</v>
+        <v>0.411814</v>
       </c>
       <c r="C23" t="n">
-        <v>0.369495</v>
+        <v>0.379887</v>
       </c>
       <c r="D23" t="n">
-        <v>0.389608</v>
+        <v>0.570016</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6801970000000001</v>
+        <v>0.678193</v>
       </c>
       <c r="C24" t="n">
-        <v>0.650385</v>
+        <v>0.65239</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6648539999999999</v>
+        <v>0.545966</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.64864</v>
+        <v>0.673729</v>
       </c>
       <c r="C25" t="n">
-        <v>0.619189</v>
+        <v>0.634269</v>
       </c>
       <c r="D25" t="n">
-        <v>0.648392</v>
+        <v>0.521275</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.630992</v>
+        <v>0.623761</v>
       </c>
       <c r="C26" t="n">
-        <v>0.603979</v>
+        <v>0.61121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.624815</v>
+        <v>0.506515</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.605858</v>
+        <v>0.637247</v>
       </c>
       <c r="C27" t="n">
-        <v>0.568832</v>
+        <v>0.581771</v>
       </c>
       <c r="D27" t="n">
-        <v>0.59714</v>
+        <v>0.496289</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5969989999999999</v>
+        <v>0.610163</v>
       </c>
       <c r="C28" t="n">
-        <v>0.560066</v>
+        <v>0.563689</v>
       </c>
       <c r="D28" t="n">
-        <v>0.580775</v>
+        <v>0.468686</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.577338</v>
+        <v>0.586313</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532612</v>
+        <v>0.547922</v>
       </c>
       <c r="D29" t="n">
-        <v>0.553831</v>
+        <v>0.461464</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.55725</v>
+        <v>0.555906</v>
       </c>
       <c r="C30" t="n">
-        <v>0.50968</v>
+        <v>0.532125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.536595</v>
+        <v>0.445506</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.545527</v>
+        <v>0.5512899999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.506552</v>
+        <v>0.515247</v>
       </c>
       <c r="D31" t="n">
-        <v>0.522251</v>
+        <v>0.436577</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.541052</v>
+        <v>0.522804</v>
       </c>
       <c r="C32" t="n">
-        <v>0.479745</v>
+        <v>0.500207</v>
       </c>
       <c r="D32" t="n">
-        <v>0.524779</v>
+        <v>0.43436</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.515334</v>
+        <v>0.516817</v>
       </c>
       <c r="C33" t="n">
-        <v>0.478988</v>
+        <v>0.481436</v>
       </c>
       <c r="D33" t="n">
-        <v>0.514232</v>
+        <v>0.410702</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.503625</v>
+        <v>0.510368</v>
       </c>
       <c r="C34" t="n">
-        <v>0.453617</v>
+        <v>0.466302</v>
       </c>
       <c r="D34" t="n">
-        <v>0.486803</v>
+        <v>0.40583</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.490086</v>
+        <v>0.506038</v>
       </c>
       <c r="C35" t="n">
-        <v>0.440481</v>
+        <v>0.446692</v>
       </c>
       <c r="D35" t="n">
-        <v>0.462335</v>
+        <v>0.395731</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.472287</v>
+        <v>0.477454</v>
       </c>
       <c r="C36" t="n">
-        <v>0.427128</v>
+        <v>0.449772</v>
       </c>
       <c r="D36" t="n">
-        <v>0.470282</v>
+        <v>0.385362</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.467375</v>
+        <v>0.476818</v>
       </c>
       <c r="C37" t="n">
-        <v>0.420027</v>
+        <v>0.432491</v>
       </c>
       <c r="D37" t="n">
-        <v>0.442759</v>
+        <v>0.670241</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.735196</v>
+        <v>0.760779</v>
       </c>
       <c r="C38" t="n">
-        <v>0.684763</v>
+        <v>0.704058</v>
       </c>
       <c r="D38" t="n">
-        <v>0.727284</v>
+        <v>0.646052</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.710917</v>
+        <v>0.727452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.680473</v>
+        <v>0.68891</v>
       </c>
       <c r="D39" t="n">
-        <v>0.724198</v>
+        <v>0.624565</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.70534</v>
+        <v>0.687933</v>
       </c>
       <c r="C40" t="n">
-        <v>0.644842</v>
+        <v>0.663223</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6899380000000001</v>
+        <v>0.619165</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.678119</v>
+        <v>0.674324</v>
       </c>
       <c r="C41" t="n">
-        <v>0.625633</v>
+        <v>0.650043</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6533870000000001</v>
+        <v>0.60379</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6435</v>
+        <v>0.66828</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6172339999999999</v>
+        <v>0.625255</v>
       </c>
       <c r="D42" t="n">
-        <v>0.62939</v>
+        <v>0.572339</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.620167</v>
+        <v>0.637581</v>
       </c>
       <c r="C43" t="n">
-        <v>0.593771</v>
+        <v>0.594739</v>
       </c>
       <c r="D43" t="n">
-        <v>0.617591</v>
+        <v>0.551316</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.604111</v>
+        <v>0.617747</v>
       </c>
       <c r="C44" t="n">
-        <v>0.565412</v>
+        <v>0.587052</v>
       </c>
       <c r="D44" t="n">
-        <v>0.594015</v>
+        <v>0.544475</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.590437</v>
+        <v>0.599091</v>
       </c>
       <c r="C45" t="n">
-        <v>0.554613</v>
+        <v>0.5672700000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.588164</v>
+        <v>0.515149</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.573168</v>
+        <v>0.587436</v>
       </c>
       <c r="C46" t="n">
-        <v>0.520412</v>
+        <v>0.551534</v>
       </c>
       <c r="D46" t="n">
-        <v>0.552847</v>
+        <v>0.515476</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.555368</v>
+        <v>0.572892</v>
       </c>
       <c r="C47" t="n">
-        <v>0.517638</v>
+        <v>0.5317460000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.550393</v>
+        <v>0.489507</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.54811</v>
+        <v>0.56301</v>
       </c>
       <c r="C48" t="n">
-        <v>0.507762</v>
+        <v>0.51311</v>
       </c>
       <c r="D48" t="n">
-        <v>0.525189</v>
+        <v>0.469914</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5360510000000001</v>
+        <v>0.536324</v>
       </c>
       <c r="C49" t="n">
-        <v>0.490285</v>
+        <v>0.509663</v>
       </c>
       <c r="D49" t="n">
-        <v>0.507219</v>
+        <v>0.483151</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.512372</v>
+        <v>0.5389350000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.472583</v>
+        <v>0.481779</v>
       </c>
       <c r="D50" t="n">
-        <v>0.501356</v>
+        <v>0.454321</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.503857</v>
+        <v>0.516448</v>
       </c>
       <c r="C51" t="n">
-        <v>0.470035</v>
+        <v>0.474366</v>
       </c>
       <c r="D51" t="n">
-        <v>0.484481</v>
+        <v>0.753192</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5112640000000001</v>
+        <v>0.494794</v>
       </c>
       <c r="C52" t="n">
-        <v>0.454743</v>
+        <v>0.469423</v>
       </c>
       <c r="D52" t="n">
-        <v>0.481615</v>
+        <v>0.7193929999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7610479999999999</v>
+        <v>0.768232</v>
       </c>
       <c r="C53" t="n">
-        <v>0.740795</v>
+        <v>0.750327</v>
       </c>
       <c r="D53" t="n">
-        <v>0.766418</v>
+        <v>0.698021</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.750266</v>
+        <v>0.75507</v>
       </c>
       <c r="C54" t="n">
-        <v>0.713017</v>
+        <v>0.732565</v>
       </c>
       <c r="D54" t="n">
-        <v>0.758124</v>
+        <v>0.672112</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.751508</v>
+        <v>0.73959</v>
       </c>
       <c r="C55" t="n">
-        <v>0.704746</v>
+        <v>0.6902740000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.725849</v>
+        <v>0.6609120000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.717066</v>
+        <v>0.731896</v>
       </c>
       <c r="C56" t="n">
-        <v>0.666389</v>
+        <v>0.670963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.687898</v>
+        <v>0.637274</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.694445</v>
+        <v>0.704388</v>
       </c>
       <c r="C57" t="n">
-        <v>0.650617</v>
+        <v>0.673581</v>
       </c>
       <c r="D57" t="n">
-        <v>0.672865</v>
+        <v>0.617775</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.680873</v>
+        <v>0.689419</v>
       </c>
       <c r="C58" t="n">
-        <v>0.652419</v>
+        <v>0.636496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.663559</v>
+        <v>0.617604</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.66609</v>
+        <v>0.662842</v>
       </c>
       <c r="C59" t="n">
-        <v>0.630652</v>
+        <v>0.618175</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6336540000000001</v>
+        <v>0.592407</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.655138</v>
+        <v>0.653168</v>
       </c>
       <c r="C60" t="n">
-        <v>0.59903</v>
+        <v>0.612703</v>
       </c>
       <c r="D60" t="n">
-        <v>0.647353</v>
+        <v>0.57219</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.643357</v>
+        <v>0.6358549999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.602169</v>
+        <v>0.594645</v>
       </c>
       <c r="D61" t="n">
-        <v>0.609723</v>
+        <v>0.560643</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.621185</v>
+        <v>0.626297</v>
       </c>
       <c r="C62" t="n">
-        <v>0.569612</v>
+        <v>0.5672700000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6115350000000001</v>
+        <v>0.557572</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.611012</v>
+        <v>0.6066820000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5597</v>
+        <v>0.573203</v>
       </c>
       <c r="D63" t="n">
-        <v>0.590135</v>
+        <v>0.55344</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.607053</v>
+        <v>0.609043</v>
       </c>
       <c r="C64" t="n">
-        <v>0.545869</v>
+        <v>0.550482</v>
       </c>
       <c r="D64" t="n">
-        <v>0.574693</v>
+        <v>0.528258</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587468</v>
+        <v>0.585779</v>
       </c>
       <c r="C65" t="n">
-        <v>0.537546</v>
+        <v>0.544297</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565811</v>
+        <v>0.519574</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.597139</v>
+        <v>0.589932</v>
       </c>
       <c r="C66" t="n">
-        <v>0.536811</v>
+        <v>0.532125</v>
       </c>
       <c r="D66" t="n">
-        <v>0.569632</v>
+        <v>0.84222</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.860798</v>
+        <v>0.887158</v>
       </c>
       <c r="C67" t="n">
-        <v>0.838367</v>
+        <v>0.820248</v>
       </c>
       <c r="D67" t="n">
-        <v>0.865568</v>
+        <v>0.8005139999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.863255</v>
+        <v>0.851274</v>
       </c>
       <c r="C68" t="n">
-        <v>0.812435</v>
+        <v>0.815006</v>
       </c>
       <c r="D68" t="n">
-        <v>0.825661</v>
+        <v>0.772253</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.817842</v>
+        <v>0.832322</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7945489999999999</v>
+        <v>0.792221</v>
       </c>
       <c r="D69" t="n">
-        <v>0.810981</v>
+        <v>0.758169</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.812835</v>
+        <v>0.805355</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7654879999999999</v>
+        <v>0.769526</v>
       </c>
       <c r="D70" t="n">
-        <v>0.806696</v>
+        <v>0.763301</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.782108</v>
+        <v>0.779363</v>
       </c>
       <c r="C71" t="n">
-        <v>0.738174</v>
+        <v>0.760058</v>
       </c>
       <c r="D71" t="n">
-        <v>0.767764</v>
+        <v>0.717629</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.765309</v>
+        <v>0.775342</v>
       </c>
       <c r="C72" t="n">
-        <v>0.725064</v>
+        <v>0.713587</v>
       </c>
       <c r="D72" t="n">
-        <v>0.751955</v>
+        <v>0.69674</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.765897</v>
+        <v>0.754911</v>
       </c>
       <c r="C73" t="n">
-        <v>0.709589</v>
+        <v>0.709187</v>
       </c>
       <c r="D73" t="n">
-        <v>0.737344</v>
+        <v>0.674103</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.749009</v>
+        <v>0.731096</v>
       </c>
       <c r="C74" t="n">
-        <v>0.69687</v>
+        <v>0.710292</v>
       </c>
       <c r="D74" t="n">
-        <v>0.718587</v>
+        <v>0.676103</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.712012</v>
+        <v>0.7307399999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6851969999999999</v>
+        <v>0.668834</v>
       </c>
       <c r="D75" t="n">
-        <v>0.69953</v>
+        <v>0.664941</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.722089</v>
+        <v>0.718205</v>
       </c>
       <c r="C76" t="n">
-        <v>0.665725</v>
+        <v>0.671697</v>
       </c>
       <c r="D76" t="n">
-        <v>0.683998</v>
+        <v>0.631601</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.690392</v>
+        <v>0.706744</v>
       </c>
       <c r="C77" t="n">
-        <v>0.656063</v>
+        <v>0.643475</v>
       </c>
       <c r="D77" t="n">
-        <v>0.672741</v>
+        <v>0.63485</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.690076</v>
+        <v>0.678716</v>
       </c>
       <c r="C78" t="n">
-        <v>0.623622</v>
+        <v>0.632571</v>
       </c>
       <c r="D78" t="n">
-        <v>0.659458</v>
+        <v>0.619041</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.670094</v>
+        <v>0.671926</v>
       </c>
       <c r="C79" t="n">
-        <v>0.617066</v>
+        <v>0.633846</v>
       </c>
       <c r="D79" t="n">
-        <v>0.64886</v>
+        <v>0.602815</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.658585</v>
+        <v>0.659447</v>
       </c>
       <c r="C80" t="n">
-        <v>0.619186</v>
+        <v>0.611843</v>
       </c>
       <c r="D80" t="n">
-        <v>0.647809</v>
+        <v>0.940872</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.971868</v>
+        <v>0.967226</v>
       </c>
       <c r="C81" t="n">
-        <v>0.952151</v>
+        <v>0.945249</v>
       </c>
       <c r="D81" t="n">
-        <v>0.995262</v>
+        <v>0.908033</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.972878</v>
+        <v>0.953327</v>
       </c>
       <c r="C82" t="n">
-        <v>0.946049</v>
+        <v>0.917869</v>
       </c>
       <c r="D82" t="n">
-        <v>0.957473</v>
+        <v>0.913331</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.943923</v>
+        <v>0.946364</v>
       </c>
       <c r="C83" t="n">
-        <v>0.909103</v>
+        <v>0.924194</v>
       </c>
       <c r="D83" t="n">
-        <v>0.930572</v>
+        <v>0.888144</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.909776</v>
+        <v>0.925834</v>
       </c>
       <c r="C84" t="n">
-        <v>0.900292</v>
+        <v>0.882836</v>
       </c>
       <c r="D84" t="n">
-        <v>0.907821</v>
+        <v>0.862596</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.918635</v>
+        <v>0.9076070000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.872672</v>
+        <v>0.869197</v>
       </c>
       <c r="D85" t="n">
-        <v>0.899629</v>
+        <v>0.840376</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.875621</v>
+        <v>0.892617</v>
       </c>
       <c r="C86" t="n">
-        <v>0.833626</v>
+        <v>0.852181</v>
       </c>
       <c r="D86" t="n">
-        <v>0.871607</v>
+        <v>0.822112</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.862886</v>
+        <v>0.866429</v>
       </c>
       <c r="C87" t="n">
-        <v>0.817831</v>
+        <v>0.825689</v>
       </c>
       <c r="D87" t="n">
-        <v>0.878775</v>
+        <v>0.800363</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8628</v>
+        <v>0.851681</v>
       </c>
       <c r="C88" t="n">
-        <v>0.822156</v>
+        <v>0.806966</v>
       </c>
       <c r="D88" t="n">
-        <v>0.827739</v>
+        <v>0.783133</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.828734</v>
+        <v>0.8563730000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.787123</v>
+        <v>0.792164</v>
       </c>
       <c r="D89" t="n">
-        <v>0.810608</v>
+        <v>0.751682</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.807566</v>
+        <v>0.84079</v>
       </c>
       <c r="C90" t="n">
-        <v>0.791954</v>
+        <v>0.787447</v>
       </c>
       <c r="D90" t="n">
-        <v>0.786672</v>
+        <v>0.745807</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.794901</v>
+        <v>0.807785</v>
       </c>
       <c r="C91" t="n">
-        <v>0.777276</v>
+        <v>0.772251</v>
       </c>
       <c r="D91" t="n">
-        <v>0.779556</v>
+        <v>0.741526</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.780695</v>
+        <v>0.794266</v>
       </c>
       <c r="C92" t="n">
-        <v>0.756045</v>
+        <v>0.763361</v>
       </c>
       <c r="D92" t="n">
-        <v>0.763897</v>
+        <v>0.726338</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.789054</v>
+        <v>0.7789509999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.742597</v>
+        <v>0.7319600000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.763202</v>
+        <v>0.712539</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.788388</v>
+        <v>0.77462</v>
       </c>
       <c r="C94" t="n">
-        <v>0.720458</v>
+        <v>0.745441</v>
       </c>
       <c r="D94" t="n">
-        <v>0.764988</v>
+        <v>1.05026</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07405</v>
+        <v>1.07823</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06413</v>
+        <v>1.05306</v>
       </c>
       <c r="D95" t="n">
-        <v>1.07861</v>
+        <v>1.02231</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08999</v>
+        <v>1.0539</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06013</v>
+        <v>1.03336</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07462</v>
+        <v>0.989668</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03356</v>
+        <v>1.05407</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0228</v>
+        <v>1.04479</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06233</v>
+        <v>1.00661</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03626</v>
+        <v>1.03307</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00426</v>
+        <v>1.02098</v>
       </c>
       <c r="D98" t="n">
-        <v>1.03594</v>
+        <v>0.984506</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0294</v>
+        <v>1.01562</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9830759999999999</v>
+        <v>0.9819329999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>1.01076</v>
+        <v>0.967757</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.992995</v>
+        <v>1.00545</v>
       </c>
       <c r="C100" t="n">
-        <v>0.972732</v>
+        <v>0.97944</v>
       </c>
       <c r="D100" t="n">
-        <v>0.985584</v>
+        <v>0.924328</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9776</v>
+        <v>0.994472</v>
       </c>
       <c r="C101" t="n">
-        <v>0.951635</v>
+        <v>0.950033</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9695589999999999</v>
+        <v>0.89418</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.982903</v>
+        <v>0.989976</v>
       </c>
       <c r="C102" t="n">
-        <v>0.950342</v>
+        <v>0.944753</v>
       </c>
       <c r="D102" t="n">
-        <v>0.949691</v>
+        <v>0.892456</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.969359</v>
+        <v>0.954766</v>
       </c>
       <c r="C103" t="n">
-        <v>0.941866</v>
+        <v>0.94241</v>
       </c>
       <c r="D103" t="n">
-        <v>0.916975</v>
+        <v>0.872932</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.951219</v>
+        <v>0.939704</v>
       </c>
       <c r="C104" t="n">
-        <v>0.912891</v>
+        <v>0.921404</v>
       </c>
       <c r="D104" t="n">
-        <v>0.910834</v>
+        <v>0.877194</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.930078</v>
+        <v>0.930759</v>
       </c>
       <c r="C105" t="n">
-        <v>0.919329</v>
+        <v>0.895586</v>
       </c>
       <c r="D105" t="n">
-        <v>0.916617</v>
+        <v>0.863338</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.932233</v>
+        <v>0.92957</v>
       </c>
       <c r="C106" t="n">
-        <v>0.913092</v>
+        <v>0.897017</v>
       </c>
       <c r="D106" t="n">
-        <v>0.899495</v>
+        <v>0.839214</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.921448</v>
+        <v>0.909562</v>
       </c>
       <c r="C107" t="n">
-        <v>0.880973</v>
+        <v>0.875345</v>
       </c>
       <c r="D107" t="n">
-        <v>0.875601</v>
+        <v>0.832601</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.915531</v>
+        <v>0.901118</v>
       </c>
       <c r="C108" t="n">
-        <v>0.872915</v>
+        <v>0.866978</v>
       </c>
       <c r="D108" t="n">
-        <v>0.875402</v>
+        <v>1.16939</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.897284</v>
+        <v>0.915916</v>
       </c>
       <c r="C109" t="n">
-        <v>0.864523</v>
+        <v>0.869654</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8881790000000001</v>
+        <v>1.14158</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18793</v>
+        <v>1.19631</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19868</v>
+        <v>1.20146</v>
       </c>
       <c r="D110" t="n">
-        <v>1.21769</v>
+        <v>1.16364</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17732</v>
+        <v>1.2512</v>
       </c>
       <c r="C111" t="n">
-        <v>1.17466</v>
+        <v>1.20336</v>
       </c>
       <c r="D111" t="n">
-        <v>1.20044</v>
+        <v>1.12757</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.2202</v>
+        <v>1.19424</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19893</v>
+        <v>1.19911</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23255</v>
+        <v>1.12873</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.19328</v>
+        <v>1.18267</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15104</v>
+        <v>1.16857</v>
       </c>
       <c r="D113" t="n">
-        <v>1.20221</v>
+        <v>1.11212</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17827</v>
+        <v>1.15455</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1532</v>
+        <v>1.16652</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1687</v>
+        <v>1.10673</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15633</v>
+        <v>1.1816</v>
       </c>
       <c r="C115" t="n">
-        <v>1.13175</v>
+        <v>1.16458</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13472</v>
+        <v>1.08829</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16676</v>
+        <v>1.12112</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13678</v>
+        <v>1.14586</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14448</v>
+        <v>1.07881</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15678</v>
+        <v>1.13282</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11946</v>
+        <v>1.11603</v>
       </c>
       <c r="D117" t="n">
-        <v>1.13587</v>
+        <v>1.0847</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13898</v>
+        <v>1.14291</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12264</v>
+        <v>1.10479</v>
       </c>
       <c r="D118" t="n">
-        <v>1.12703</v>
+        <v>1.04889</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14094</v>
+        <v>1.1487</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11587</v>
+        <v>1.12038</v>
       </c>
       <c r="D119" t="n">
-        <v>1.11271</v>
+        <v>1.06368</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10993</v>
+        <v>1.11445</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09272</v>
+        <v>1.10271</v>
       </c>
       <c r="D120" t="n">
-        <v>1.10391</v>
+        <v>1.04328</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10553</v>
+        <v>1.12615</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09871</v>
+        <v>1.0915</v>
       </c>
       <c r="D121" t="n">
-        <v>1.0804</v>
+        <v>1.04998</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12848</v>
+        <v>1.12593</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09973</v>
+        <v>1.09523</v>
       </c>
       <c r="D122" t="n">
-        <v>1.10453</v>
+        <v>1.05291</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11294</v>
+        <v>1.11526</v>
       </c>
       <c r="C123" t="n">
-        <v>1.10668</v>
+        <v>1.11176</v>
       </c>
       <c r="D123" t="n">
-        <v>1.09216</v>
+        <v>1.39282</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.43467</v>
+        <v>1.4533</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44676</v>
+        <v>1.43986</v>
       </c>
       <c r="D124" t="n">
-        <v>1.42616</v>
+        <v>1.38931</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.43305</v>
+        <v>1.41982</v>
       </c>
       <c r="C125" t="n">
-        <v>1.44704</v>
+        <v>1.41598</v>
       </c>
       <c r="D125" t="n">
-        <v>1.42499</v>
+        <v>1.37978</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.43332</v>
+        <v>1.41661</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40053</v>
+        <v>1.42856</v>
       </c>
       <c r="D126" t="n">
-        <v>1.42951</v>
+        <v>1.36265</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.43668</v>
+        <v>1.41031</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42858</v>
+        <v>1.41665</v>
       </c>
       <c r="D127" t="n">
-        <v>1.42457</v>
+        <v>1.36983</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42536</v>
+        <v>1.42702</v>
       </c>
       <c r="C128" t="n">
-        <v>1.43271</v>
+        <v>1.43336</v>
       </c>
       <c r="D128" t="n">
-        <v>1.42523</v>
+        <v>1.37794</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41673</v>
+        <v>1.43395</v>
       </c>
       <c r="C129" t="n">
-        <v>1.42153</v>
+        <v>1.40178</v>
       </c>
       <c r="D129" t="n">
-        <v>1.45339</v>
+        <v>1.39148</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40349</v>
+        <v>1.4235</v>
       </c>
       <c r="C130" t="n">
-        <v>1.42415</v>
+        <v>1.4047</v>
       </c>
       <c r="D130" t="n">
-        <v>1.39655</v>
+        <v>1.36951</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40496</v>
+        <v>1.40573</v>
       </c>
       <c r="C131" t="n">
-        <v>1.40566</v>
+        <v>1.40908</v>
       </c>
       <c r="D131" t="n">
-        <v>1.42044</v>
+        <v>1.36815</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.41147</v>
+        <v>1.40757</v>
       </c>
       <c r="C132" t="n">
-        <v>1.41046</v>
+        <v>1.42151</v>
       </c>
       <c r="D132" t="n">
-        <v>1.38804</v>
+        <v>1.37349</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.4279</v>
+        <v>1.40564</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40184</v>
+        <v>1.40761</v>
       </c>
       <c r="D133" t="n">
-        <v>1.38952</v>
+        <v>1.37175</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40863</v>
+        <v>1.40648</v>
       </c>
       <c r="C134" t="n">
-        <v>1.40449</v>
+        <v>1.40189</v>
       </c>
       <c r="D134" t="n">
-        <v>1.41452</v>
+        <v>1.37432</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.43492</v>
+        <v>1.40524</v>
       </c>
       <c r="C135" t="n">
-        <v>1.37773</v>
+        <v>1.38578</v>
       </c>
       <c r="D135" t="n">
-        <v>1.40219</v>
+        <v>1.36093</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.41487</v>
+        <v>1.40481</v>
       </c>
       <c r="C136" t="n">
-        <v>1.40338</v>
+        <v>1.41069</v>
       </c>
       <c r="D136" t="n">
-        <v>1.41219</v>
+        <v>1.36104</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41517</v>
+        <v>1.41349</v>
       </c>
       <c r="C137" t="n">
-        <v>1.40139</v>
+        <v>1.39813</v>
       </c>
       <c r="D137" t="n">
-        <v>1.43759</v>
+        <v>1.69748</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.74919</v>
+        <v>1.73281</v>
       </c>
       <c r="C138" t="n">
-        <v>1.73159</v>
+        <v>1.74657</v>
       </c>
       <c r="D138" t="n">
-        <v>1.78949</v>
+        <v>1.69739</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.73653</v>
+        <v>1.72307</v>
       </c>
       <c r="C139" t="n">
-        <v>1.74093</v>
+        <v>1.73499</v>
       </c>
       <c r="D139" t="n">
-        <v>1.77803</v>
+        <v>1.72457</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71853</v>
+        <v>1.71737</v>
       </c>
       <c r="C140" t="n">
-        <v>1.73928</v>
+        <v>1.74126</v>
       </c>
       <c r="D140" t="n">
-        <v>1.76137</v>
+        <v>1.71849</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.73043</v>
+        <v>1.73107</v>
       </c>
       <c r="C141" t="n">
-        <v>1.73221</v>
+        <v>1.74314</v>
       </c>
       <c r="D141" t="n">
-        <v>1.77218</v>
+        <v>1.72369</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.72516</v>
+        <v>1.73222</v>
       </c>
       <c r="C142" t="n">
-        <v>1.73754</v>
+        <v>1.74687</v>
       </c>
       <c r="D142" t="n">
-        <v>1.75789</v>
+        <v>1.73311</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.71275</v>
+        <v>1.72536</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73674</v>
+        <v>1.73446</v>
       </c>
       <c r="D143" t="n">
-        <v>1.75384</v>
+        <v>1.71399</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.633467</v>
+        <v>0.6351599999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.499921</v>
+        <v>0.471571</v>
       </c>
       <c r="D2" t="n">
-        <v>0.321413</v>
+        <v>0.315245</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.367988</v>
+        <v>0.36952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.308501</v>
+        <v>0.309958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314178</v>
+        <v>0.3115</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.362738</v>
+        <v>0.355401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.300213</v>
+        <v>0.302491</v>
       </c>
       <c r="D4" t="n">
-        <v>0.304995</v>
+        <v>0.313327</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.340994</v>
+        <v>0.34004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.29731</v>
+        <v>0.291129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293659</v>
+        <v>0.303476</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.342695</v>
+        <v>0.334647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.287606</v>
+        <v>0.280536</v>
       </c>
       <c r="D6" t="n">
-        <v>0.290797</v>
+        <v>0.286397</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.331143</v>
+        <v>0.33293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.282622</v>
+        <v>0.272963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.285278</v>
+        <v>0.291071</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3174</v>
+        <v>0.322179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.276629</v>
+        <v>0.279489</v>
       </c>
       <c r="D8" t="n">
-        <v>0.28137</v>
+        <v>0.292159</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.320627</v>
+        <v>0.329753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.276126</v>
+        <v>0.278555</v>
       </c>
       <c r="D9" t="n">
-        <v>0.649409</v>
+        <v>0.6299670000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.578102</v>
+        <v>0.5865939999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.559436</v>
+        <v>0.538992</v>
       </c>
       <c r="D10" t="n">
-        <v>0.613862</v>
+        <v>0.6006860000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.566887</v>
+        <v>0.568775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.534206</v>
+        <v>0.529674</v>
       </c>
       <c r="D11" t="n">
-        <v>0.583763</v>
+        <v>0.600105</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.554132</v>
+        <v>0.551101</v>
       </c>
       <c r="C12" t="n">
-        <v>0.529271</v>
+        <v>0.508498</v>
       </c>
       <c r="D12" t="n">
-        <v>0.591498</v>
+        <v>0.563271</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.553942</v>
+        <v>0.5458460000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.507089</v>
+        <v>0.489081</v>
       </c>
       <c r="D13" t="n">
-        <v>0.54086</v>
+        <v>0.547658</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.526858</v>
+        <v>0.517892</v>
       </c>
       <c r="C14" t="n">
-        <v>0.474189</v>
+        <v>0.465499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.530123</v>
+        <v>0.528363</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.511423</v>
+        <v>0.504099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.458002</v>
+        <v>0.451343</v>
       </c>
       <c r="D15" t="n">
-        <v>0.500054</v>
+        <v>0.500532</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.502547</v>
+        <v>0.495193</v>
       </c>
       <c r="C16" t="n">
-        <v>0.455986</v>
+        <v>0.456922</v>
       </c>
       <c r="D16" t="n">
-        <v>0.502</v>
+        <v>0.492976</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.469674</v>
+        <v>0.480594</v>
       </c>
       <c r="C17" t="n">
-        <v>0.432155</v>
+        <v>0.44439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.48056</v>
+        <v>0.482709</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.468545</v>
+        <v>0.471653</v>
       </c>
       <c r="C18" t="n">
-        <v>0.411906</v>
+        <v>0.428414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.45393</v>
+        <v>0.470316</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.45364</v>
+        <v>0.449971</v>
       </c>
       <c r="C19" t="n">
-        <v>0.408336</v>
+        <v>0.405108</v>
       </c>
       <c r="D19" t="n">
-        <v>0.436878</v>
+        <v>0.448335</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.449794</v>
+        <v>0.448309</v>
       </c>
       <c r="C20" t="n">
-        <v>0.401294</v>
+        <v>0.387857</v>
       </c>
       <c r="D20" t="n">
-        <v>0.438147</v>
+        <v>0.431837</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429436</v>
+        <v>0.439672</v>
       </c>
       <c r="C21" t="n">
-        <v>0.388155</v>
+        <v>0.379161</v>
       </c>
       <c r="D21" t="n">
-        <v>0.428747</v>
+        <v>0.423934</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.427721</v>
+        <v>0.438836</v>
       </c>
       <c r="C22" t="n">
-        <v>0.385119</v>
+        <v>0.373266</v>
       </c>
       <c r="D22" t="n">
-        <v>0.410552</v>
+        <v>0.41933</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.411814</v>
+        <v>0.415023</v>
       </c>
       <c r="C23" t="n">
-        <v>0.379887</v>
+        <v>0.369116</v>
       </c>
       <c r="D23" t="n">
-        <v>0.570016</v>
+        <v>0.567818</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.678193</v>
+        <v>0.684882</v>
       </c>
       <c r="C24" t="n">
-        <v>0.65239</v>
+        <v>0.640811</v>
       </c>
       <c r="D24" t="n">
-        <v>0.545966</v>
+        <v>0.548253</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.673729</v>
+        <v>0.676929</v>
       </c>
       <c r="C25" t="n">
-        <v>0.634269</v>
+        <v>0.641931</v>
       </c>
       <c r="D25" t="n">
-        <v>0.521275</v>
+        <v>0.538527</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.623761</v>
+        <v>0.654959</v>
       </c>
       <c r="C26" t="n">
-        <v>0.61121</v>
+        <v>0.627229</v>
       </c>
       <c r="D26" t="n">
-        <v>0.506515</v>
+        <v>0.5218120000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.637247</v>
+        <v>0.658849</v>
       </c>
       <c r="C27" t="n">
-        <v>0.581771</v>
+        <v>0.576711</v>
       </c>
       <c r="D27" t="n">
-        <v>0.496289</v>
+        <v>0.491364</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.610163</v>
+        <v>0.595048</v>
       </c>
       <c r="C28" t="n">
-        <v>0.563689</v>
+        <v>0.5593360000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.468686</v>
+        <v>0.489575</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.586313</v>
+        <v>0.595253</v>
       </c>
       <c r="C29" t="n">
-        <v>0.547922</v>
+        <v>0.54122</v>
       </c>
       <c r="D29" t="n">
-        <v>0.461464</v>
+        <v>0.464903</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.555906</v>
+        <v>0.567955</v>
       </c>
       <c r="C30" t="n">
-        <v>0.532125</v>
+        <v>0.5304219999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.445506</v>
+        <v>0.448854</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5512899999999999</v>
+        <v>0.543468</v>
       </c>
       <c r="C31" t="n">
-        <v>0.515247</v>
+        <v>0.510853</v>
       </c>
       <c r="D31" t="n">
-        <v>0.436577</v>
+        <v>0.438203</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.522804</v>
+        <v>0.538926</v>
       </c>
       <c r="C32" t="n">
-        <v>0.500207</v>
+        <v>0.484581</v>
       </c>
       <c r="D32" t="n">
-        <v>0.43436</v>
+        <v>0.430427</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.516817</v>
+        <v>0.538965</v>
       </c>
       <c r="C33" t="n">
-        <v>0.481436</v>
+        <v>0.475008</v>
       </c>
       <c r="D33" t="n">
-        <v>0.410702</v>
+        <v>0.425878</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.510368</v>
+        <v>0.526842</v>
       </c>
       <c r="C34" t="n">
-        <v>0.466302</v>
+        <v>0.465356</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40583</v>
+        <v>0.400988</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.506038</v>
+        <v>0.492957</v>
       </c>
       <c r="C35" t="n">
-        <v>0.446692</v>
+        <v>0.457064</v>
       </c>
       <c r="D35" t="n">
-        <v>0.395731</v>
+        <v>0.397134</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.477454</v>
+        <v>0.502383</v>
       </c>
       <c r="C36" t="n">
-        <v>0.449772</v>
+        <v>0.445888</v>
       </c>
       <c r="D36" t="n">
-        <v>0.385362</v>
+        <v>0.382179</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.476818</v>
+        <v>0.493403</v>
       </c>
       <c r="C37" t="n">
-        <v>0.432491</v>
+        <v>0.439773</v>
       </c>
       <c r="D37" t="n">
-        <v>0.670241</v>
+        <v>0.665028</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.760779</v>
+        <v>0.738655</v>
       </c>
       <c r="C38" t="n">
-        <v>0.704058</v>
+        <v>0.707519</v>
       </c>
       <c r="D38" t="n">
-        <v>0.646052</v>
+        <v>0.63918</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.727452</v>
+        <v>0.739862</v>
       </c>
       <c r="C39" t="n">
-        <v>0.68891</v>
+        <v>0.697473</v>
       </c>
       <c r="D39" t="n">
-        <v>0.624565</v>
+        <v>0.623519</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.687933</v>
+        <v>0.707167</v>
       </c>
       <c r="C40" t="n">
-        <v>0.663223</v>
+        <v>0.662085</v>
       </c>
       <c r="D40" t="n">
-        <v>0.619165</v>
+        <v>0.6128440000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.674324</v>
+        <v>0.682679</v>
       </c>
       <c r="C41" t="n">
-        <v>0.650043</v>
+        <v>0.642366</v>
       </c>
       <c r="D41" t="n">
-        <v>0.60379</v>
+        <v>0.591769</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.66828</v>
+        <v>0.653453</v>
       </c>
       <c r="C42" t="n">
-        <v>0.625255</v>
+        <v>0.632347</v>
       </c>
       <c r="D42" t="n">
-        <v>0.572339</v>
+        <v>0.590274</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.637581</v>
+        <v>0.6507500000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.594739</v>
+        <v>0.600699</v>
       </c>
       <c r="D43" t="n">
-        <v>0.551316</v>
+        <v>0.548065</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.617747</v>
+        <v>0.629674</v>
       </c>
       <c r="C44" t="n">
-        <v>0.587052</v>
+        <v>0.587824</v>
       </c>
       <c r="D44" t="n">
-        <v>0.544475</v>
+        <v>0.537346</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.599091</v>
+        <v>0.609255</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5672700000000001</v>
+        <v>0.569161</v>
       </c>
       <c r="D45" t="n">
-        <v>0.515149</v>
+        <v>0.5273640000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.587436</v>
+        <v>0.589147</v>
       </c>
       <c r="C46" t="n">
-        <v>0.551534</v>
+        <v>0.547488</v>
       </c>
       <c r="D46" t="n">
-        <v>0.515476</v>
+        <v>0.512175</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.572892</v>
+        <v>0.579284</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5317460000000001</v>
+        <v>0.527918</v>
       </c>
       <c r="D47" t="n">
-        <v>0.489507</v>
+        <v>0.495411</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.56301</v>
+        <v>0.558697</v>
       </c>
       <c r="C48" t="n">
-        <v>0.51311</v>
+        <v>0.506302</v>
       </c>
       <c r="D48" t="n">
-        <v>0.469914</v>
+        <v>0.472499</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.536324</v>
+        <v>0.549258</v>
       </c>
       <c r="C49" t="n">
-        <v>0.509663</v>
+        <v>0.50213</v>
       </c>
       <c r="D49" t="n">
-        <v>0.483151</v>
+        <v>0.475133</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5389350000000001</v>
+        <v>0.538494</v>
       </c>
       <c r="C50" t="n">
-        <v>0.481779</v>
+        <v>0.484954</v>
       </c>
       <c r="D50" t="n">
-        <v>0.454321</v>
+        <v>0.462581</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.516448</v>
+        <v>0.529674</v>
       </c>
       <c r="C51" t="n">
-        <v>0.474366</v>
+        <v>0.489424</v>
       </c>
       <c r="D51" t="n">
-        <v>0.753192</v>
+        <v>0.763347</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.494794</v>
+        <v>0.5200630000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.469423</v>
+        <v>0.468391</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7193929999999999</v>
+        <v>0.731455</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.768232</v>
+        <v>0.768767</v>
       </c>
       <c r="C53" t="n">
-        <v>0.750327</v>
+        <v>0.739031</v>
       </c>
       <c r="D53" t="n">
-        <v>0.698021</v>
+        <v>0.703496</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.75507</v>
+        <v>0.757226</v>
       </c>
       <c r="C54" t="n">
-        <v>0.732565</v>
+        <v>0.730568</v>
       </c>
       <c r="D54" t="n">
-        <v>0.672112</v>
+        <v>0.690532</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.73959</v>
+        <v>0.741932</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6902740000000001</v>
+        <v>0.708411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6609120000000001</v>
+        <v>0.666977</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.731896</v>
+        <v>0.724261</v>
       </c>
       <c r="C56" t="n">
-        <v>0.670963</v>
+        <v>0.683941</v>
       </c>
       <c r="D56" t="n">
-        <v>0.637274</v>
+        <v>0.659442</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.704388</v>
+        <v>0.721199</v>
       </c>
       <c r="C57" t="n">
-        <v>0.673581</v>
+        <v>0.661198</v>
       </c>
       <c r="D57" t="n">
-        <v>0.617775</v>
+        <v>0.638262</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.689419</v>
+        <v>0.700435</v>
       </c>
       <c r="C58" t="n">
-        <v>0.636496</v>
+        <v>0.661803</v>
       </c>
       <c r="D58" t="n">
-        <v>0.617604</v>
+        <v>0.606519</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.662842</v>
+        <v>0.688671</v>
       </c>
       <c r="C59" t="n">
-        <v>0.618175</v>
+        <v>0.631613</v>
       </c>
       <c r="D59" t="n">
-        <v>0.592407</v>
+        <v>0.629753</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.653168</v>
+        <v>0.671384</v>
       </c>
       <c r="C60" t="n">
-        <v>0.612703</v>
+        <v>0.626511</v>
       </c>
       <c r="D60" t="n">
-        <v>0.57219</v>
+        <v>0.598202</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6358549999999999</v>
+        <v>0.6898879999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.594645</v>
+        <v>0.614042</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560643</v>
+        <v>0.576155</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.626297</v>
+        <v>0.62375</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5672700000000001</v>
+        <v>0.579009</v>
       </c>
       <c r="D62" t="n">
-        <v>0.557572</v>
+        <v>0.570977</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6066820000000001</v>
+        <v>0.614188</v>
       </c>
       <c r="C63" t="n">
-        <v>0.573203</v>
+        <v>0.576223</v>
       </c>
       <c r="D63" t="n">
-        <v>0.55344</v>
+        <v>0.548855</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.609043</v>
+        <v>0.613666</v>
       </c>
       <c r="C64" t="n">
-        <v>0.550482</v>
+        <v>0.554968</v>
       </c>
       <c r="D64" t="n">
-        <v>0.528258</v>
+        <v>0.542795</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.585779</v>
+        <v>0.591681</v>
       </c>
       <c r="C65" t="n">
-        <v>0.544297</v>
+        <v>0.549594</v>
       </c>
       <c r="D65" t="n">
-        <v>0.519574</v>
+        <v>0.530623</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.589932</v>
+        <v>0.579305</v>
       </c>
       <c r="C66" t="n">
-        <v>0.532125</v>
+        <v>0.545327</v>
       </c>
       <c r="D66" t="n">
-        <v>0.84222</v>
+        <v>0.846217</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.887158</v>
+        <v>0.874568</v>
       </c>
       <c r="C67" t="n">
-        <v>0.820248</v>
+        <v>0.85599</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8005139999999999</v>
+        <v>0.827842</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.851274</v>
+        <v>0.890082</v>
       </c>
       <c r="C68" t="n">
-        <v>0.815006</v>
+        <v>0.837642</v>
       </c>
       <c r="D68" t="n">
-        <v>0.772253</v>
+        <v>0.807918</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.832322</v>
+        <v>0.839664</v>
       </c>
       <c r="C69" t="n">
-        <v>0.792221</v>
+        <v>0.805858</v>
       </c>
       <c r="D69" t="n">
-        <v>0.758169</v>
+        <v>0.768057</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.805355</v>
+        <v>0.823908</v>
       </c>
       <c r="C70" t="n">
-        <v>0.769526</v>
+        <v>0.787888</v>
       </c>
       <c r="D70" t="n">
-        <v>0.763301</v>
+        <v>0.781165</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.779363</v>
+        <v>0.806429</v>
       </c>
       <c r="C71" t="n">
-        <v>0.760058</v>
+        <v>0.765641</v>
       </c>
       <c r="D71" t="n">
-        <v>0.717629</v>
+        <v>0.745637</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.775342</v>
+        <v>0.811066</v>
       </c>
       <c r="C72" t="n">
-        <v>0.713587</v>
+        <v>0.752922</v>
       </c>
       <c r="D72" t="n">
-        <v>0.69674</v>
+        <v>0.692057</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.754911</v>
+        <v>0.764656</v>
       </c>
       <c r="C73" t="n">
-        <v>0.709187</v>
+        <v>0.732663</v>
       </c>
       <c r="D73" t="n">
-        <v>0.674103</v>
+        <v>0.703286</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.731096</v>
+        <v>0.761718</v>
       </c>
       <c r="C74" t="n">
-        <v>0.710292</v>
+        <v>0.689041</v>
       </c>
       <c r="D74" t="n">
-        <v>0.676103</v>
+        <v>0.685917</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7307399999999999</v>
+        <v>0.736019</v>
       </c>
       <c r="C75" t="n">
-        <v>0.668834</v>
+        <v>0.691199</v>
       </c>
       <c r="D75" t="n">
-        <v>0.664941</v>
+        <v>0.6743440000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.718205</v>
+        <v>0.736113</v>
       </c>
       <c r="C76" t="n">
-        <v>0.671697</v>
+        <v>0.68872</v>
       </c>
       <c r="D76" t="n">
-        <v>0.631601</v>
+        <v>0.684512</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.706744</v>
+        <v>0.719579</v>
       </c>
       <c r="C77" t="n">
-        <v>0.643475</v>
+        <v>0.669417</v>
       </c>
       <c r="D77" t="n">
-        <v>0.63485</v>
+        <v>0.629306</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.678716</v>
+        <v>0.7013509999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.632571</v>
+        <v>0.648653</v>
       </c>
       <c r="D78" t="n">
-        <v>0.619041</v>
+        <v>0.623202</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.671926</v>
+        <v>0.688415</v>
       </c>
       <c r="C79" t="n">
-        <v>0.633846</v>
+        <v>0.621733</v>
       </c>
       <c r="D79" t="n">
-        <v>0.602815</v>
+        <v>0.623785</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.659447</v>
+        <v>0.689323</v>
       </c>
       <c r="C80" t="n">
-        <v>0.611843</v>
+        <v>0.6262529999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.940872</v>
+        <v>0.9525709999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.967226</v>
+        <v>0.99107</v>
       </c>
       <c r="C81" t="n">
-        <v>0.945249</v>
+        <v>0.968758</v>
       </c>
       <c r="D81" t="n">
-        <v>0.908033</v>
+        <v>0.931516</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.953327</v>
+        <v>0.972753</v>
       </c>
       <c r="C82" t="n">
-        <v>0.917869</v>
+        <v>0.943377</v>
       </c>
       <c r="D82" t="n">
-        <v>0.913331</v>
+        <v>0.905429</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.946364</v>
+        <v>0.942862</v>
       </c>
       <c r="C83" t="n">
-        <v>0.924194</v>
+        <v>0.92675</v>
       </c>
       <c r="D83" t="n">
-        <v>0.888144</v>
+        <v>0.894056</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.925834</v>
+        <v>0.940775</v>
       </c>
       <c r="C84" t="n">
-        <v>0.882836</v>
+        <v>0.925823</v>
       </c>
       <c r="D84" t="n">
-        <v>0.862596</v>
+        <v>0.873011</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9076070000000001</v>
+        <v>0.9149119999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.869197</v>
+        <v>0.882294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.840376</v>
+        <v>0.848228</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.892617</v>
+        <v>0.918474</v>
       </c>
       <c r="C86" t="n">
-        <v>0.852181</v>
+        <v>0.860024</v>
       </c>
       <c r="D86" t="n">
-        <v>0.822112</v>
+        <v>0.839594</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.866429</v>
+        <v>0.869398</v>
       </c>
       <c r="C87" t="n">
-        <v>0.825689</v>
+        <v>0.841461</v>
       </c>
       <c r="D87" t="n">
-        <v>0.800363</v>
+        <v>0.820788</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.851681</v>
+        <v>0.857091</v>
       </c>
       <c r="C88" t="n">
-        <v>0.806966</v>
+        <v>0.813526</v>
       </c>
       <c r="D88" t="n">
-        <v>0.783133</v>
+        <v>0.785695</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8563730000000001</v>
+        <v>0.857256</v>
       </c>
       <c r="C89" t="n">
-        <v>0.792164</v>
+        <v>0.795439</v>
       </c>
       <c r="D89" t="n">
-        <v>0.751682</v>
+        <v>0.762294</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.84079</v>
+        <v>0.8392309999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.787447</v>
+        <v>0.792145</v>
       </c>
       <c r="D90" t="n">
-        <v>0.745807</v>
+        <v>0.7592370000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.807785</v>
+        <v>0.816522</v>
       </c>
       <c r="C91" t="n">
-        <v>0.772251</v>
+        <v>0.786229</v>
       </c>
       <c r="D91" t="n">
-        <v>0.741526</v>
+        <v>0.738679</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.794266</v>
+        <v>0.802212</v>
       </c>
       <c r="C92" t="n">
-        <v>0.763361</v>
+        <v>0.779845</v>
       </c>
       <c r="D92" t="n">
-        <v>0.726338</v>
+        <v>0.729907</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7789509999999999</v>
+        <v>0.796655</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7319600000000001</v>
+        <v>0.749855</v>
       </c>
       <c r="D93" t="n">
-        <v>0.712539</v>
+        <v>0.7118679999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.77462</v>
+        <v>0.783039</v>
       </c>
       <c r="C94" t="n">
-        <v>0.745441</v>
+        <v>0.74039</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05026</v>
+        <v>1.07633</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07823</v>
+        <v>1.1003</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05306</v>
+        <v>1.06267</v>
       </c>
       <c r="D95" t="n">
-        <v>1.02231</v>
+        <v>1.03921</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0539</v>
+        <v>1.09247</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03336</v>
+        <v>1.06229</v>
       </c>
       <c r="D96" t="n">
-        <v>0.989668</v>
+        <v>1.00985</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05407</v>
+        <v>1.07828</v>
       </c>
       <c r="C97" t="n">
-        <v>1.04479</v>
+        <v>1.03115</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00661</v>
+        <v>0.9827129999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03307</v>
+        <v>1.05349</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02098</v>
+        <v>1.0174</v>
       </c>
       <c r="D98" t="n">
-        <v>0.984506</v>
+        <v>0.954858</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01562</v>
+        <v>1.01384</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9819329999999999</v>
+        <v>1.01817</v>
       </c>
       <c r="D99" t="n">
-        <v>0.967757</v>
+        <v>0.954113</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00545</v>
+        <v>1.01385</v>
       </c>
       <c r="C100" t="n">
-        <v>0.97944</v>
+        <v>0.9903110000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.924328</v>
+        <v>0.944697</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.994472</v>
+        <v>1.03112</v>
       </c>
       <c r="C101" t="n">
-        <v>0.950033</v>
+        <v>0.959909</v>
       </c>
       <c r="D101" t="n">
-        <v>0.89418</v>
+        <v>0.910389</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.989976</v>
+        <v>0.98156</v>
       </c>
       <c r="C102" t="n">
-        <v>0.944753</v>
+        <v>0.941435</v>
       </c>
       <c r="D102" t="n">
-        <v>0.892456</v>
+        <v>0.894733</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.954766</v>
+        <v>0.96438</v>
       </c>
       <c r="C103" t="n">
-        <v>0.94241</v>
+        <v>0.9465980000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.872932</v>
+        <v>0.894491</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.939704</v>
+        <v>0.953399</v>
       </c>
       <c r="C104" t="n">
-        <v>0.921404</v>
+        <v>0.933578</v>
       </c>
       <c r="D104" t="n">
-        <v>0.877194</v>
+        <v>0.864274</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.930759</v>
+        <v>0.924695</v>
       </c>
       <c r="C105" t="n">
-        <v>0.895586</v>
+        <v>0.92036</v>
       </c>
       <c r="D105" t="n">
-        <v>0.863338</v>
+        <v>0.856003</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.92957</v>
+        <v>0.926627</v>
       </c>
       <c r="C106" t="n">
-        <v>0.897017</v>
+        <v>0.9076920000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.839214</v>
+        <v>0.849868</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.909562</v>
+        <v>0.920695</v>
       </c>
       <c r="C107" t="n">
-        <v>0.875345</v>
+        <v>0.89735</v>
       </c>
       <c r="D107" t="n">
-        <v>0.832601</v>
+        <v>0.84188</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.901118</v>
+        <v>0.908725</v>
       </c>
       <c r="C108" t="n">
-        <v>0.866978</v>
+        <v>0.905726</v>
       </c>
       <c r="D108" t="n">
-        <v>1.16939</v>
+        <v>1.18596</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.915916</v>
+        <v>0.9166800000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.869654</v>
+        <v>0.89291</v>
       </c>
       <c r="D109" t="n">
-        <v>1.14158</v>
+        <v>1.15303</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19631</v>
+        <v>1.24851</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20146</v>
+        <v>1.20965</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16364</v>
+        <v>1.15029</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.2512</v>
+        <v>1.21212</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20336</v>
+        <v>1.19172</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12757</v>
+        <v>1.12355</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.19424</v>
+        <v>1.18431</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19911</v>
+        <v>1.20868</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12873</v>
+        <v>1.10449</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18267</v>
+        <v>1.16455</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16857</v>
+        <v>1.16337</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11212</v>
+        <v>1.10716</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15455</v>
+        <v>1.18405</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16652</v>
+        <v>1.18434</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10673</v>
+        <v>1.10522</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1816</v>
+        <v>1.21571</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16458</v>
+        <v>1.14712</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08829</v>
+        <v>1.08949</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12112</v>
+        <v>1.16802</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14586</v>
+        <v>1.12414</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07881</v>
+        <v>1.04039</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13282</v>
+        <v>1.14526</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11603</v>
+        <v>1.12208</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0847</v>
+        <v>1.07746</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14291</v>
+        <v>1.12601</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10479</v>
+        <v>1.12578</v>
       </c>
       <c r="D118" t="n">
-        <v>1.04889</v>
+        <v>1.0297</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1487</v>
+        <v>1.1291</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12038</v>
+        <v>1.12115</v>
       </c>
       <c r="D119" t="n">
-        <v>1.06368</v>
+        <v>1.02496</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11445</v>
+        <v>1.12278</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10271</v>
+        <v>1.12114</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04328</v>
+        <v>1.00007</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.12615</v>
+        <v>1.1306</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0915</v>
+        <v>1.10318</v>
       </c>
       <c r="D121" t="n">
-        <v>1.04998</v>
+        <v>1.02286</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12593</v>
+        <v>1.12846</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09523</v>
+        <v>1.0821</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05291</v>
+        <v>1.00829</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11526</v>
+        <v>1.10611</v>
       </c>
       <c r="C123" t="n">
-        <v>1.11176</v>
+        <v>1.08795</v>
       </c>
       <c r="D123" t="n">
-        <v>1.39282</v>
+        <v>1.37242</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4533</v>
+        <v>1.444</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43986</v>
+        <v>1.42377</v>
       </c>
       <c r="D124" t="n">
-        <v>1.38931</v>
+        <v>1.33122</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.41982</v>
+        <v>1.43574</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41598</v>
+        <v>1.4212</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37978</v>
+        <v>1.34391</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.41661</v>
+        <v>1.4423</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42856</v>
+        <v>1.40319</v>
       </c>
       <c r="D126" t="n">
-        <v>1.36265</v>
+        <v>1.32833</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.41031</v>
+        <v>1.42869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.41665</v>
+        <v>1.41051</v>
       </c>
       <c r="D127" t="n">
-        <v>1.36983</v>
+        <v>1.33914</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42702</v>
+        <v>1.44215</v>
       </c>
       <c r="C128" t="n">
-        <v>1.43336</v>
+        <v>1.42306</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37794</v>
+        <v>1.30564</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.43395</v>
+        <v>1.41013</v>
       </c>
       <c r="C129" t="n">
-        <v>1.40178</v>
+        <v>1.41502</v>
       </c>
       <c r="D129" t="n">
-        <v>1.39148</v>
+        <v>1.32598</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.4235</v>
+        <v>1.40222</v>
       </c>
       <c r="C130" t="n">
-        <v>1.4047</v>
+        <v>1.40969</v>
       </c>
       <c r="D130" t="n">
-        <v>1.36951</v>
+        <v>1.30196</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.40573</v>
+        <v>1.41831</v>
       </c>
       <c r="C131" t="n">
-        <v>1.40908</v>
+        <v>1.40327</v>
       </c>
       <c r="D131" t="n">
-        <v>1.36815</v>
+        <v>1.30722</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40757</v>
+        <v>1.40768</v>
       </c>
       <c r="C132" t="n">
-        <v>1.42151</v>
+        <v>1.39298</v>
       </c>
       <c r="D132" t="n">
-        <v>1.37349</v>
+        <v>1.31415</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40564</v>
+        <v>1.42513</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40761</v>
+        <v>1.4041</v>
       </c>
       <c r="D133" t="n">
-        <v>1.37175</v>
+        <v>1.30555</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40648</v>
+        <v>1.42318</v>
       </c>
       <c r="C134" t="n">
-        <v>1.40189</v>
+        <v>1.40682</v>
       </c>
       <c r="D134" t="n">
-        <v>1.37432</v>
+        <v>1.28885</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40524</v>
+        <v>1.40529</v>
       </c>
       <c r="C135" t="n">
-        <v>1.38578</v>
+        <v>1.40431</v>
       </c>
       <c r="D135" t="n">
-        <v>1.36093</v>
+        <v>1.32462</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.40481</v>
+        <v>1.43779</v>
       </c>
       <c r="C136" t="n">
-        <v>1.41069</v>
+        <v>1.38507</v>
       </c>
       <c r="D136" t="n">
-        <v>1.36104</v>
+        <v>1.31367</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.41349</v>
+        <v>1.40245</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39813</v>
+        <v>1.41135</v>
       </c>
       <c r="D137" t="n">
-        <v>1.69748</v>
+        <v>1.64103</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73281</v>
+        <v>1.73728</v>
       </c>
       <c r="C138" t="n">
-        <v>1.74657</v>
+        <v>1.75294</v>
       </c>
       <c r="D138" t="n">
-        <v>1.69739</v>
+        <v>1.67155</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.72307</v>
+        <v>1.7381</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73499</v>
+        <v>1.71787</v>
       </c>
       <c r="D139" t="n">
-        <v>1.72457</v>
+        <v>1.64522</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.71737</v>
+        <v>1.753</v>
       </c>
       <c r="C140" t="n">
-        <v>1.74126</v>
+        <v>1.74924</v>
       </c>
       <c r="D140" t="n">
-        <v>1.71849</v>
+        <v>1.63126</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.73107</v>
+        <v>1.71486</v>
       </c>
       <c r="C141" t="n">
-        <v>1.74314</v>
+        <v>1.72973</v>
       </c>
       <c r="D141" t="n">
-        <v>1.72369</v>
+        <v>1.62549</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.73222</v>
+        <v>1.71284</v>
       </c>
       <c r="C142" t="n">
-        <v>1.74687</v>
+        <v>1.74575</v>
       </c>
       <c r="D142" t="n">
-        <v>1.73311</v>
+        <v>1.63349</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.72536</v>
+        <v>1.70349</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73446</v>
+        <v>1.72427</v>
       </c>
       <c r="D143" t="n">
-        <v>1.71399</v>
+        <v>1.62874</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6351599999999999</v>
+        <v>0.626694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.471571</v>
+        <v>0.478828</v>
       </c>
       <c r="D2" t="n">
-        <v>0.315245</v>
+        <v>0.311629</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.36952</v>
+        <v>0.366274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.309958</v>
+        <v>0.306255</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3115</v>
+        <v>0.302395</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.355401</v>
+        <v>0.351441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.302491</v>
+        <v>0.293355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.313327</v>
+        <v>0.29389</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.34004</v>
+        <v>0.332554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.291129</v>
+        <v>0.291849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.303476</v>
+        <v>0.29077</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.334647</v>
+        <v>0.343899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.280536</v>
+        <v>0.288725</v>
       </c>
       <c r="D6" t="n">
-        <v>0.286397</v>
+        <v>0.294095</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.33293</v>
+        <v>0.33386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.272963</v>
+        <v>0.294234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291071</v>
+        <v>0.293216</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.322179</v>
+        <v>0.33081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279489</v>
+        <v>0.275273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.292159</v>
+        <v>0.275573</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.329753</v>
+        <v>0.323585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278555</v>
+        <v>0.272273</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6299670000000001</v>
+        <v>0.637836</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5865939999999999</v>
+        <v>0.601056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.538992</v>
+        <v>0.534505</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6006860000000001</v>
+        <v>0.6144500000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.568775</v>
+        <v>0.547716</v>
       </c>
       <c r="C11" t="n">
-        <v>0.529674</v>
+        <v>0.513667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.600105</v>
+        <v>0.585816</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.551101</v>
+        <v>0.5416609999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.508498</v>
+        <v>0.513653</v>
       </c>
       <c r="D12" t="n">
-        <v>0.563271</v>
+        <v>0.568072</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5458460000000001</v>
+        <v>0.536173</v>
       </c>
       <c r="C13" t="n">
-        <v>0.489081</v>
+        <v>0.506732</v>
       </c>
       <c r="D13" t="n">
-        <v>0.547658</v>
+        <v>0.551037</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.517892</v>
+        <v>0.5212869999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.465499</v>
+        <v>0.468947</v>
       </c>
       <c r="D14" t="n">
-        <v>0.528363</v>
+        <v>0.5302750000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.504099</v>
+        <v>0.512647</v>
       </c>
       <c r="C15" t="n">
-        <v>0.451343</v>
+        <v>0.461688</v>
       </c>
       <c r="D15" t="n">
-        <v>0.500532</v>
+        <v>0.505311</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.495193</v>
+        <v>0.490789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.456922</v>
+        <v>0.452534</v>
       </c>
       <c r="D16" t="n">
-        <v>0.492976</v>
+        <v>0.491422</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.480594</v>
+        <v>0.471325</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44439</v>
+        <v>0.434835</v>
       </c>
       <c r="D17" t="n">
-        <v>0.482709</v>
+        <v>0.47992</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471653</v>
+        <v>0.459396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.428414</v>
+        <v>0.431039</v>
       </c>
       <c r="D18" t="n">
-        <v>0.470316</v>
+        <v>0.462232</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.449971</v>
+        <v>0.458611</v>
       </c>
       <c r="C19" t="n">
-        <v>0.405108</v>
+        <v>0.415444</v>
       </c>
       <c r="D19" t="n">
-        <v>0.448335</v>
+        <v>0.445753</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.448309</v>
+        <v>0.457594</v>
       </c>
       <c r="C20" t="n">
-        <v>0.387857</v>
+        <v>0.40733</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431837</v>
+        <v>0.4506</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.439672</v>
+        <v>0.437439</v>
       </c>
       <c r="C21" t="n">
-        <v>0.379161</v>
+        <v>0.390387</v>
       </c>
       <c r="D21" t="n">
-        <v>0.423934</v>
+        <v>0.418838</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.438836</v>
+        <v>0.428698</v>
       </c>
       <c r="C22" t="n">
-        <v>0.373266</v>
+        <v>0.384712</v>
       </c>
       <c r="D22" t="n">
-        <v>0.41933</v>
+        <v>0.406585</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.415023</v>
+        <v>0.433319</v>
       </c>
       <c r="C23" t="n">
-        <v>0.369116</v>
+        <v>0.365605</v>
       </c>
       <c r="D23" t="n">
-        <v>0.567818</v>
+        <v>0.566941</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.684882</v>
+        <v>0.686472</v>
       </c>
       <c r="C24" t="n">
-        <v>0.640811</v>
+        <v>0.6697419999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.548253</v>
+        <v>0.545955</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.676929</v>
+        <v>0.659828</v>
       </c>
       <c r="C25" t="n">
-        <v>0.641931</v>
+        <v>0.65074</v>
       </c>
       <c r="D25" t="n">
-        <v>0.538527</v>
+        <v>0.528459</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.654959</v>
+        <v>0.62812</v>
       </c>
       <c r="C26" t="n">
-        <v>0.627229</v>
+        <v>0.613775</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5218120000000001</v>
+        <v>0.504711</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658849</v>
+        <v>0.6206159999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576711</v>
+        <v>0.597788</v>
       </c>
       <c r="D27" t="n">
-        <v>0.491364</v>
+        <v>0.497943</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.595048</v>
+        <v>0.603617</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5593360000000001</v>
+        <v>0.584485</v>
       </c>
       <c r="D28" t="n">
-        <v>0.489575</v>
+        <v>0.489276</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.595253</v>
+        <v>0.577708</v>
       </c>
       <c r="C29" t="n">
-        <v>0.54122</v>
+        <v>0.54627</v>
       </c>
       <c r="D29" t="n">
-        <v>0.464903</v>
+        <v>0.463535</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.567955</v>
+        <v>0.569263</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5304219999999999</v>
+        <v>0.544226</v>
       </c>
       <c r="D30" t="n">
-        <v>0.448854</v>
+        <v>0.451492</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.543468</v>
+        <v>0.557304</v>
       </c>
       <c r="C31" t="n">
-        <v>0.510853</v>
+        <v>0.5253370000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.438203</v>
+        <v>0.456442</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.538926</v>
+        <v>0.546472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.484581</v>
+        <v>0.50902</v>
       </c>
       <c r="D32" t="n">
-        <v>0.430427</v>
+        <v>0.431097</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.538965</v>
+        <v>0.531067</v>
       </c>
       <c r="C33" t="n">
-        <v>0.475008</v>
+        <v>0.484043</v>
       </c>
       <c r="D33" t="n">
-        <v>0.425878</v>
+        <v>0.416113</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.526842</v>
+        <v>0.50644</v>
       </c>
       <c r="C34" t="n">
-        <v>0.465356</v>
+        <v>0.477906</v>
       </c>
       <c r="D34" t="n">
-        <v>0.400988</v>
+        <v>0.407575</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.492957</v>
+        <v>0.511128</v>
       </c>
       <c r="C35" t="n">
-        <v>0.457064</v>
+        <v>0.471387</v>
       </c>
       <c r="D35" t="n">
-        <v>0.397134</v>
+        <v>0.396249</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.502383</v>
+        <v>0.486694</v>
       </c>
       <c r="C36" t="n">
-        <v>0.445888</v>
+        <v>0.444713</v>
       </c>
       <c r="D36" t="n">
-        <v>0.382179</v>
+        <v>0.393776</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.493403</v>
+        <v>0.486729</v>
       </c>
       <c r="C37" t="n">
-        <v>0.439773</v>
+        <v>0.43748</v>
       </c>
       <c r="D37" t="n">
-        <v>0.665028</v>
+        <v>0.685788</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.738655</v>
+        <v>0.745463</v>
       </c>
       <c r="C38" t="n">
-        <v>0.707519</v>
+        <v>0.720332</v>
       </c>
       <c r="D38" t="n">
-        <v>0.63918</v>
+        <v>0.641381</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.739862</v>
+        <v>0.723376</v>
       </c>
       <c r="C39" t="n">
-        <v>0.697473</v>
+        <v>0.694951</v>
       </c>
       <c r="D39" t="n">
-        <v>0.623519</v>
+        <v>0.643108</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.707167</v>
+        <v>0.705721</v>
       </c>
       <c r="C40" t="n">
-        <v>0.662085</v>
+        <v>0.690326</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6128440000000001</v>
+        <v>0.612526</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.682679</v>
+        <v>0.68338</v>
       </c>
       <c r="C41" t="n">
-        <v>0.642366</v>
+        <v>0.652369</v>
       </c>
       <c r="D41" t="n">
-        <v>0.591769</v>
+        <v>0.6087129999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653453</v>
+        <v>0.679332</v>
       </c>
       <c r="C42" t="n">
-        <v>0.632347</v>
+        <v>0.63264</v>
       </c>
       <c r="D42" t="n">
-        <v>0.590274</v>
+        <v>0.567912</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6507500000000001</v>
+        <v>0.644342</v>
       </c>
       <c r="C43" t="n">
-        <v>0.600699</v>
+        <v>0.622126</v>
       </c>
       <c r="D43" t="n">
-        <v>0.548065</v>
+        <v>0.566246</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.629674</v>
+        <v>0.632418</v>
       </c>
       <c r="C44" t="n">
-        <v>0.587824</v>
+        <v>0.585995</v>
       </c>
       <c r="D44" t="n">
-        <v>0.537346</v>
+        <v>0.55327</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.609255</v>
+        <v>0.594008</v>
       </c>
       <c r="C45" t="n">
-        <v>0.569161</v>
+        <v>0.564047</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5273640000000001</v>
+        <v>0.522648</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.589147</v>
+        <v>0.592045</v>
       </c>
       <c r="C46" t="n">
-        <v>0.547488</v>
+        <v>0.5501</v>
       </c>
       <c r="D46" t="n">
-        <v>0.512175</v>
+        <v>0.5106039999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.579284</v>
+        <v>0.573116</v>
       </c>
       <c r="C47" t="n">
-        <v>0.527918</v>
+        <v>0.547777</v>
       </c>
       <c r="D47" t="n">
-        <v>0.495411</v>
+        <v>0.489237</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.558697</v>
+        <v>0.572369</v>
       </c>
       <c r="C48" t="n">
-        <v>0.506302</v>
+        <v>0.534207</v>
       </c>
       <c r="D48" t="n">
-        <v>0.472499</v>
+        <v>0.498786</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.549258</v>
+        <v>0.541933</v>
       </c>
       <c r="C49" t="n">
-        <v>0.50213</v>
+        <v>0.507591</v>
       </c>
       <c r="D49" t="n">
-        <v>0.475133</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.538494</v>
+        <v>0.53486</v>
       </c>
       <c r="C50" t="n">
-        <v>0.484954</v>
+        <v>0.497703</v>
       </c>
       <c r="D50" t="n">
-        <v>0.462581</v>
+        <v>0.458358</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.529674</v>
+        <v>0.534733</v>
       </c>
       <c r="C51" t="n">
-        <v>0.489424</v>
+        <v>0.489635</v>
       </c>
       <c r="D51" t="n">
-        <v>0.763347</v>
+        <v>0.753309</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5200630000000001</v>
+        <v>0.518898</v>
       </c>
       <c r="C52" t="n">
-        <v>0.468391</v>
+        <v>0.484982</v>
       </c>
       <c r="D52" t="n">
-        <v>0.731455</v>
+        <v>0.7409480000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.768767</v>
+        <v>0.7953170000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.739031</v>
+        <v>0.749592</v>
       </c>
       <c r="D53" t="n">
-        <v>0.703496</v>
+        <v>0.701648</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.757226</v>
+        <v>0.76969</v>
       </c>
       <c r="C54" t="n">
-        <v>0.730568</v>
+        <v>0.732645</v>
       </c>
       <c r="D54" t="n">
-        <v>0.690532</v>
+        <v>0.698182</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.741932</v>
+        <v>0.740781</v>
       </c>
       <c r="C55" t="n">
-        <v>0.708411</v>
+        <v>0.718166</v>
       </c>
       <c r="D55" t="n">
-        <v>0.666977</v>
+        <v>0.678828</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.724261</v>
+        <v>0.740385</v>
       </c>
       <c r="C56" t="n">
-        <v>0.683941</v>
+        <v>0.691173</v>
       </c>
       <c r="D56" t="n">
-        <v>0.659442</v>
+        <v>0.67035</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.721199</v>
+        <v>0.735912</v>
       </c>
       <c r="C57" t="n">
-        <v>0.661198</v>
+        <v>0.681758</v>
       </c>
       <c r="D57" t="n">
-        <v>0.638262</v>
+        <v>0.6267</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.700435</v>
+        <v>0.692411</v>
       </c>
       <c r="C58" t="n">
-        <v>0.661803</v>
+        <v>0.671645</v>
       </c>
       <c r="D58" t="n">
-        <v>0.606519</v>
+        <v>0.620313</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.688671</v>
+        <v>0.674211</v>
       </c>
       <c r="C59" t="n">
-        <v>0.631613</v>
+        <v>0.650759</v>
       </c>
       <c r="D59" t="n">
-        <v>0.629753</v>
+        <v>0.608056</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.671384</v>
+        <v>0.665666</v>
       </c>
       <c r="C60" t="n">
-        <v>0.626511</v>
+        <v>0.622155</v>
       </c>
       <c r="D60" t="n">
-        <v>0.598202</v>
+        <v>0.603068</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6898879999999999</v>
+        <v>0.674631</v>
       </c>
       <c r="C61" t="n">
-        <v>0.614042</v>
+        <v>0.604326</v>
       </c>
       <c r="D61" t="n">
-        <v>0.576155</v>
+        <v>0.596704</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.62375</v>
+        <v>0.635772</v>
       </c>
       <c r="C62" t="n">
-        <v>0.579009</v>
+        <v>0.591934</v>
       </c>
       <c r="D62" t="n">
-        <v>0.570977</v>
+        <v>0.556662</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.614188</v>
+        <v>0.621287</v>
       </c>
       <c r="C63" t="n">
-        <v>0.576223</v>
+        <v>0.566905</v>
       </c>
       <c r="D63" t="n">
-        <v>0.548855</v>
+        <v>0.542916</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.613666</v>
+        <v>0.615608</v>
       </c>
       <c r="C64" t="n">
-        <v>0.554968</v>
+        <v>0.563748</v>
       </c>
       <c r="D64" t="n">
-        <v>0.542795</v>
+        <v>0.553412</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.591681</v>
+        <v>0.604919</v>
       </c>
       <c r="C65" t="n">
-        <v>0.549594</v>
+        <v>0.560708</v>
       </c>
       <c r="D65" t="n">
-        <v>0.530623</v>
+        <v>0.541411</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.579305</v>
+        <v>0.603213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.545327</v>
+        <v>0.536651</v>
       </c>
       <c r="D66" t="n">
-        <v>0.846217</v>
+        <v>0.839414</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.874568</v>
+        <v>0.8932099999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.85599</v>
+        <v>0.843797</v>
       </c>
       <c r="D67" t="n">
-        <v>0.827842</v>
+        <v>0.796519</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.890082</v>
+        <v>0.877041</v>
       </c>
       <c r="C68" t="n">
-        <v>0.837642</v>
+        <v>0.817944</v>
       </c>
       <c r="D68" t="n">
-        <v>0.807918</v>
+        <v>0.80209</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.839664</v>
+        <v>0.856569</v>
       </c>
       <c r="C69" t="n">
-        <v>0.805858</v>
+        <v>0.816681</v>
       </c>
       <c r="D69" t="n">
-        <v>0.768057</v>
+        <v>0.773555</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.823908</v>
+        <v>0.833383</v>
       </c>
       <c r="C70" t="n">
-        <v>0.787888</v>
+        <v>0.78509</v>
       </c>
       <c r="D70" t="n">
-        <v>0.781165</v>
+        <v>0.753934</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.806429</v>
+        <v>0.795911</v>
       </c>
       <c r="C71" t="n">
-        <v>0.765641</v>
+        <v>0.766857</v>
       </c>
       <c r="D71" t="n">
-        <v>0.745637</v>
+        <v>0.722722</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.811066</v>
+        <v>0.795675</v>
       </c>
       <c r="C72" t="n">
-        <v>0.752922</v>
+        <v>0.756463</v>
       </c>
       <c r="D72" t="n">
-        <v>0.692057</v>
+        <v>0.7021309999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.764656</v>
+        <v>0.7711170000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.732663</v>
+        <v>0.724645</v>
       </c>
       <c r="D73" t="n">
-        <v>0.703286</v>
+        <v>0.7097329999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.761718</v>
+        <v>0.784152</v>
       </c>
       <c r="C74" t="n">
-        <v>0.689041</v>
+        <v>0.734133</v>
       </c>
       <c r="D74" t="n">
-        <v>0.685917</v>
+        <v>0.690001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.736019</v>
+        <v>0.750817</v>
       </c>
       <c r="C75" t="n">
-        <v>0.691199</v>
+        <v>0.708726</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6743440000000001</v>
+        <v>0.676704</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.736113</v>
+        <v>0.737785</v>
       </c>
       <c r="C76" t="n">
-        <v>0.68872</v>
+        <v>0.673777</v>
       </c>
       <c r="D76" t="n">
-        <v>0.684512</v>
+        <v>0.648845</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.719579</v>
+        <v>0.718436</v>
       </c>
       <c r="C77" t="n">
-        <v>0.669417</v>
+        <v>0.663036</v>
       </c>
       <c r="D77" t="n">
-        <v>0.629306</v>
+        <v>0.640395</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7013509999999999</v>
+        <v>0.704784</v>
       </c>
       <c r="C78" t="n">
-        <v>0.648653</v>
+        <v>0.654118</v>
       </c>
       <c r="D78" t="n">
-        <v>0.623202</v>
+        <v>0.629138</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.688415</v>
+        <v>0.680541</v>
       </c>
       <c r="C79" t="n">
-        <v>0.621733</v>
+        <v>0.635061</v>
       </c>
       <c r="D79" t="n">
-        <v>0.623785</v>
+        <v>0.615364</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.689323</v>
+        <v>0.685823</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6262529999999999</v>
+        <v>0.634931</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9525709999999999</v>
+        <v>0.945868</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.99107</v>
+        <v>0.998823</v>
       </c>
       <c r="C81" t="n">
-        <v>0.968758</v>
+        <v>0.9508529999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.931516</v>
+        <v>0.938949</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.972753</v>
+        <v>0.995719</v>
       </c>
       <c r="C82" t="n">
-        <v>0.943377</v>
+        <v>0.942905</v>
       </c>
       <c r="D82" t="n">
-        <v>0.905429</v>
+        <v>0.9206260000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.942862</v>
+        <v>0.972815</v>
       </c>
       <c r="C83" t="n">
-        <v>0.92675</v>
+        <v>0.955881</v>
       </c>
       <c r="D83" t="n">
-        <v>0.894056</v>
+        <v>0.885476</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.940775</v>
+        <v>0.935019</v>
       </c>
       <c r="C84" t="n">
-        <v>0.925823</v>
+        <v>0.909408</v>
       </c>
       <c r="D84" t="n">
-        <v>0.873011</v>
+        <v>0.852357</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9149119999999999</v>
+        <v>0.91944</v>
       </c>
       <c r="C85" t="n">
-        <v>0.882294</v>
+        <v>0.898814</v>
       </c>
       <c r="D85" t="n">
-        <v>0.848228</v>
+        <v>0.861159</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.918474</v>
+        <v>0.9071360000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.860024</v>
+        <v>0.889402</v>
       </c>
       <c r="D86" t="n">
-        <v>0.839594</v>
+        <v>0.817121</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.869398</v>
+        <v>0.8740599999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.841461</v>
+        <v>0.833495</v>
       </c>
       <c r="D87" t="n">
-        <v>0.820788</v>
+        <v>0.804907</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.857091</v>
+        <v>0.854888</v>
       </c>
       <c r="C88" t="n">
-        <v>0.813526</v>
+        <v>0.818215</v>
       </c>
       <c r="D88" t="n">
-        <v>0.785695</v>
+        <v>0.783325</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.857256</v>
+        <v>0.853091</v>
       </c>
       <c r="C89" t="n">
-        <v>0.795439</v>
+        <v>0.813185</v>
       </c>
       <c r="D89" t="n">
-        <v>0.762294</v>
+        <v>0.764176</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8392309999999999</v>
+        <v>0.839369</v>
       </c>
       <c r="C90" t="n">
-        <v>0.792145</v>
+        <v>0.805963</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7592370000000001</v>
+        <v>0.759622</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.816522</v>
+        <v>0.839967</v>
       </c>
       <c r="C91" t="n">
-        <v>0.786229</v>
+        <v>0.79564</v>
       </c>
       <c r="D91" t="n">
-        <v>0.738679</v>
+        <v>0.731546</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.802212</v>
+        <v>0.796743</v>
       </c>
       <c r="C92" t="n">
-        <v>0.779845</v>
+        <v>0.772711</v>
       </c>
       <c r="D92" t="n">
-        <v>0.729907</v>
+        <v>0.728056</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.796655</v>
+        <v>0.790813</v>
       </c>
       <c r="C93" t="n">
-        <v>0.749855</v>
+        <v>0.760243</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7118679999999999</v>
+        <v>0.729443</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.783039</v>
+        <v>0.768876</v>
       </c>
       <c r="C94" t="n">
-        <v>0.74039</v>
+        <v>0.738816</v>
       </c>
       <c r="D94" t="n">
-        <v>1.07633</v>
+        <v>1.05749</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1003</v>
+        <v>1.11307</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06267</v>
+        <v>1.07578</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03921</v>
+        <v>1.01183</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.09247</v>
+        <v>1.09444</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06229</v>
+        <v>1.05301</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00985</v>
+        <v>0.993818</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07828</v>
+        <v>1.06345</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03115</v>
+        <v>1.06323</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9827129999999999</v>
+        <v>1.01447</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05349</v>
+        <v>1.03414</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0174</v>
+        <v>1.02555</v>
       </c>
       <c r="D98" t="n">
-        <v>0.954858</v>
+        <v>0.954725</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01384</v>
+        <v>1.03077</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01817</v>
+        <v>1.00597</v>
       </c>
       <c r="D99" t="n">
-        <v>0.954113</v>
+        <v>0.978149</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01385</v>
+        <v>1.0416</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9903110000000001</v>
+        <v>0.99822</v>
       </c>
       <c r="D100" t="n">
-        <v>0.944697</v>
+        <v>0.957637</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.03112</v>
+        <v>0.977534</v>
       </c>
       <c r="C101" t="n">
-        <v>0.959909</v>
+        <v>0.97771</v>
       </c>
       <c r="D101" t="n">
-        <v>0.910389</v>
+        <v>0.921997</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.98156</v>
+        <v>0.979179</v>
       </c>
       <c r="C102" t="n">
-        <v>0.941435</v>
+        <v>0.968258</v>
       </c>
       <c r="D102" t="n">
-        <v>0.894733</v>
+        <v>0.914498</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.96438</v>
+        <v>0.977473</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9465980000000001</v>
+        <v>0.964486</v>
       </c>
       <c r="D103" t="n">
-        <v>0.894491</v>
+        <v>0.894519</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.953399</v>
+        <v>0.94811</v>
       </c>
       <c r="C104" t="n">
-        <v>0.933578</v>
+        <v>0.919678</v>
       </c>
       <c r="D104" t="n">
-        <v>0.864274</v>
+        <v>0.867743</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.924695</v>
+        <v>0.947816</v>
       </c>
       <c r="C105" t="n">
-        <v>0.92036</v>
+        <v>0.914629</v>
       </c>
       <c r="D105" t="n">
-        <v>0.856003</v>
+        <v>0.864386</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.926627</v>
+        <v>0.941512</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9076920000000001</v>
+        <v>0.920799</v>
       </c>
       <c r="D106" t="n">
-        <v>0.849868</v>
+        <v>0.8663729999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.920695</v>
+        <v>0.923976</v>
       </c>
       <c r="C107" t="n">
-        <v>0.89735</v>
+        <v>0.8988699999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.84188</v>
+        <v>0.844953</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.908725</v>
+        <v>0.91576</v>
       </c>
       <c r="C108" t="n">
-        <v>0.905726</v>
+        <v>0.896997</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18596</v>
+        <v>1.22055</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9166800000000001</v>
+        <v>0.921137</v>
       </c>
       <c r="C109" t="n">
-        <v>0.89291</v>
+        <v>0.876386</v>
       </c>
       <c r="D109" t="n">
-        <v>1.15303</v>
+        <v>1.15391</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.24851</v>
+        <v>1.23421</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20965</v>
+        <v>1.22724</v>
       </c>
       <c r="D110" t="n">
-        <v>1.15029</v>
+        <v>1.16869</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.21212</v>
+        <v>1.202</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19172</v>
+        <v>1.21358</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12355</v>
+        <v>1.15392</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.18431</v>
+        <v>1.21042</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20868</v>
+        <v>1.20985</v>
       </c>
       <c r="D112" t="n">
-        <v>1.10449</v>
+        <v>1.13693</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16455</v>
+        <v>1.2175</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16337</v>
+        <v>1.176</v>
       </c>
       <c r="D113" t="n">
-        <v>1.10716</v>
+        <v>1.13461</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.18405</v>
+        <v>1.2032</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18434</v>
+        <v>1.17457</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10522</v>
+        <v>1.12813</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.21571</v>
+        <v>1.179</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14712</v>
+        <v>1.17199</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08949</v>
+        <v>1.0962</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16802</v>
+        <v>1.17797</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12414</v>
+        <v>1.15025</v>
       </c>
       <c r="D116" t="n">
-        <v>1.04039</v>
+        <v>1.1036</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14526</v>
+        <v>1.14454</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12208</v>
+        <v>1.12508</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07746</v>
+        <v>1.07113</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12601</v>
+        <v>1.15466</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12578</v>
+        <v>1.13246</v>
       </c>
       <c r="D118" t="n">
-        <v>1.0297</v>
+        <v>1.06352</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1291</v>
+        <v>1.12197</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12115</v>
+        <v>1.12654</v>
       </c>
       <c r="D119" t="n">
-        <v>1.02496</v>
+        <v>1.08918</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.12278</v>
+        <v>1.15546</v>
       </c>
       <c r="C120" t="n">
-        <v>1.12114</v>
+        <v>1.10602</v>
       </c>
       <c r="D120" t="n">
-        <v>1.00007</v>
+        <v>1.06477</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1306</v>
+        <v>1.10748</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10318</v>
+        <v>1.10239</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02286</v>
+        <v>1.02497</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12846</v>
+        <v>1.1149</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0821</v>
+        <v>1.10242</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00829</v>
+        <v>1.05178</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10611</v>
+        <v>1.13979</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08795</v>
+        <v>1.08708</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37242</v>
+        <v>1.41578</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.444</v>
+        <v>1.4305</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42377</v>
+        <v>1.43922</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33122</v>
+        <v>1.35584</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.43574</v>
+        <v>1.42927</v>
       </c>
       <c r="C125" t="n">
-        <v>1.4212</v>
+        <v>1.44614</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34391</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.4423</v>
+        <v>1.42123</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40319</v>
+        <v>1.43371</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32833</v>
+        <v>1.38282</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.42869</v>
+        <v>1.43879</v>
       </c>
       <c r="C127" t="n">
-        <v>1.41051</v>
+        <v>1.42406</v>
       </c>
       <c r="D127" t="n">
-        <v>1.33914</v>
+        <v>1.35331</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.44215</v>
+        <v>1.43654</v>
       </c>
       <c r="C128" t="n">
-        <v>1.42306</v>
+        <v>1.40931</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30564</v>
+        <v>1.37271</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41013</v>
+        <v>1.41476</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41502</v>
+        <v>1.41607</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32598</v>
+        <v>1.37148</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40222</v>
+        <v>1.42635</v>
       </c>
       <c r="C130" t="n">
-        <v>1.40969</v>
+        <v>1.3911</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30196</v>
+        <v>1.37788</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.41831</v>
+        <v>1.42119</v>
       </c>
       <c r="C131" t="n">
-        <v>1.40327</v>
+        <v>1.4</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30722</v>
+        <v>1.37453</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40768</v>
+        <v>1.41418</v>
       </c>
       <c r="C132" t="n">
-        <v>1.39298</v>
+        <v>1.42769</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31415</v>
+        <v>1.34975</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42513</v>
+        <v>1.41722</v>
       </c>
       <c r="C133" t="n">
-        <v>1.4041</v>
+        <v>1.394</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30555</v>
+        <v>1.34663</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.42318</v>
+        <v>1.40831</v>
       </c>
       <c r="C134" t="n">
-        <v>1.40682</v>
+        <v>1.38057</v>
       </c>
       <c r="D134" t="n">
-        <v>1.28885</v>
+        <v>1.35445</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40529</v>
+        <v>1.39826</v>
       </c>
       <c r="C135" t="n">
-        <v>1.40431</v>
+        <v>1.39304</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32462</v>
+        <v>1.35854</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.43779</v>
+        <v>1.40101</v>
       </c>
       <c r="C136" t="n">
-        <v>1.38507</v>
+        <v>1.39368</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31367</v>
+        <v>1.34734</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40245</v>
+        <v>1.40121</v>
       </c>
       <c r="C137" t="n">
-        <v>1.41135</v>
+        <v>1.40586</v>
       </c>
       <c r="D137" t="n">
-        <v>1.64103</v>
+        <v>1.71912</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73728</v>
+        <v>1.75509</v>
       </c>
       <c r="C138" t="n">
-        <v>1.75294</v>
+        <v>1.73791</v>
       </c>
       <c r="D138" t="n">
-        <v>1.67155</v>
+        <v>1.71475</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.7381</v>
+        <v>1.72928</v>
       </c>
       <c r="C139" t="n">
-        <v>1.71787</v>
+        <v>1.74598</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64522</v>
+        <v>1.69884</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.753</v>
+        <v>1.75356</v>
       </c>
       <c r="C140" t="n">
-        <v>1.74924</v>
+        <v>1.74047</v>
       </c>
       <c r="D140" t="n">
-        <v>1.63126</v>
+        <v>1.71196</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.71486</v>
+        <v>1.72503</v>
       </c>
       <c r="C141" t="n">
-        <v>1.72973</v>
+        <v>1.7241</v>
       </c>
       <c r="D141" t="n">
-        <v>1.62549</v>
+        <v>1.68733</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71284</v>
+        <v>1.71802</v>
       </c>
       <c r="C142" t="n">
-        <v>1.74575</v>
+        <v>1.71858</v>
       </c>
       <c r="D142" t="n">
-        <v>1.63349</v>
+        <v>1.70649</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70349</v>
+        <v>1.72491</v>
       </c>
       <c r="C143" t="n">
-        <v>1.72427</v>
+        <v>1.72006</v>
       </c>
       <c r="D143" t="n">
-        <v>1.62874</v>
+        <v>1.69326</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.657975</v>
+        <v>0.627354</v>
       </c>
       <c r="C2" t="n">
-        <v>1.14048</v>
+        <v>1.1332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.350718</v>
+        <v>0.320525</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.362554</v>
+        <v>0.35886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8264629999999999</v>
+        <v>0.833251</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343705</v>
+        <v>0.31561</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.352314</v>
+        <v>0.34607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.803867</v>
+        <v>0.813002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.334318</v>
+        <v>0.304836</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.353933</v>
+        <v>0.350302</v>
       </c>
       <c r="C5" t="n">
-        <v>0.805084</v>
+        <v>0.787183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.331364</v>
+        <v>0.295087</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.337788</v>
+        <v>0.343912</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0723</v>
+        <v>1.06938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.324954</v>
+        <v>0.291778</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.33644</v>
+        <v>0.332182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.783714</v>
+        <v>0.797543</v>
       </c>
       <c r="D7" t="n">
-        <v>0.321325</v>
+        <v>0.286732</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.334854</v>
+        <v>0.332181</v>
       </c>
       <c r="C8" t="n">
-        <v>1.02774</v>
+        <v>1.01244</v>
       </c>
       <c r="D8" t="n">
-        <v>0.315686</v>
+        <v>0.297233</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.326585</v>
+        <v>0.318441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.993464</v>
+        <v>1.0057</v>
       </c>
       <c r="D9" t="n">
-        <v>0.446582</v>
+        <v>0.396838</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.600877</v>
+        <v>0.581468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9687170000000001</v>
+        <v>0.953122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.428969</v>
+        <v>0.398038</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.591129</v>
+        <v>0.566324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.941086</v>
+        <v>0.912338</v>
       </c>
       <c r="D11" t="n">
-        <v>0.427147</v>
+        <v>0.374123</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.543459</v>
+        <v>0.545355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8873799999999999</v>
+        <v>0.912698</v>
       </c>
       <c r="D12" t="n">
-        <v>0.393829</v>
+        <v>0.366563</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5340819999999999</v>
+        <v>0.53129</v>
       </c>
       <c r="C13" t="n">
-        <v>0.875852</v>
+        <v>0.855524</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391025</v>
+        <v>0.35702</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.519186</v>
+        <v>0.506844</v>
       </c>
       <c r="C14" t="n">
-        <v>0.859131</v>
+        <v>0.860246</v>
       </c>
       <c r="D14" t="n">
-        <v>0.371238</v>
+        <v>0.335012</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.511738</v>
+        <v>0.4987</v>
       </c>
       <c r="C15" t="n">
-        <v>0.991803</v>
+        <v>0.994329</v>
       </c>
       <c r="D15" t="n">
-        <v>0.367542</v>
+        <v>0.325834</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.480941</v>
+        <v>0.487993</v>
       </c>
       <c r="C16" t="n">
-        <v>0.967382</v>
+        <v>0.953819</v>
       </c>
       <c r="D16" t="n">
-        <v>0.355013</v>
+        <v>0.326451</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470165</v>
+        <v>0.466251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.941879</v>
+        <v>0.966188</v>
       </c>
       <c r="D17" t="n">
-        <v>0.337481</v>
+        <v>0.314813</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459776</v>
+        <v>0.461649</v>
       </c>
       <c r="C18" t="n">
-        <v>0.935177</v>
+        <v>0.928956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332139</v>
+        <v>0.312734</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.453969</v>
+        <v>0.449496</v>
       </c>
       <c r="C19" t="n">
-        <v>0.931149</v>
+        <v>0.910043</v>
       </c>
       <c r="D19" t="n">
-        <v>0.334569</v>
+        <v>0.295517</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.435063</v>
+        <v>0.422315</v>
       </c>
       <c r="C20" t="n">
-        <v>0.893939</v>
+        <v>0.903982</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322768</v>
+        <v>0.293809</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429704</v>
+        <v>0.415836</v>
       </c>
       <c r="C21" t="n">
-        <v>0.904832</v>
+        <v>0.877729</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309626</v>
+        <v>0.287358</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422884</v>
+        <v>0.41515</v>
       </c>
       <c r="C22" t="n">
-        <v>1.20799</v>
+        <v>1.25166</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308479</v>
+        <v>0.28267</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.415014</v>
+        <v>0.414065</v>
       </c>
       <c r="C23" t="n">
-        <v>1.27358</v>
+        <v>1.27069</v>
       </c>
       <c r="D23" t="n">
-        <v>0.587265</v>
+        <v>0.558419</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.67888</v>
+        <v>0.665493</v>
       </c>
       <c r="C24" t="n">
-        <v>1.24474</v>
+        <v>1.24752</v>
       </c>
       <c r="D24" t="n">
-        <v>0.577694</v>
+        <v>0.545003</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.679733</v>
+        <v>0.656779</v>
       </c>
       <c r="C25" t="n">
-        <v>1.22864</v>
+        <v>1.19212</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5616640000000001</v>
+        <v>0.516671</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.636965</v>
+        <v>0.630767</v>
       </c>
       <c r="C26" t="n">
-        <v>1.21972</v>
+        <v>1.17965</v>
       </c>
       <c r="D26" t="n">
-        <v>0.54359</v>
+        <v>0.50773</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.619798</v>
+        <v>0.617774</v>
       </c>
       <c r="C27" t="n">
-        <v>1.16702</v>
+        <v>1.14537</v>
       </c>
       <c r="D27" t="n">
-        <v>0.51608</v>
+        <v>0.493503</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.613205</v>
+        <v>0.595876</v>
       </c>
       <c r="C28" t="n">
-        <v>1.13922</v>
+        <v>1.13587</v>
       </c>
       <c r="D28" t="n">
-        <v>0.502927</v>
+        <v>0.470744</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.584167</v>
+        <v>0.581389</v>
       </c>
       <c r="C29" t="n">
-        <v>1.11267</v>
+        <v>1.11216</v>
       </c>
       <c r="D29" t="n">
-        <v>0.495651</v>
+        <v>0.464648</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.567989</v>
+        <v>0.553909</v>
       </c>
       <c r="C30" t="n">
-        <v>1.08302</v>
+        <v>1.09357</v>
       </c>
       <c r="D30" t="n">
-        <v>0.477532</v>
+        <v>0.451688</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.567846</v>
+        <v>0.558926</v>
       </c>
       <c r="C31" t="n">
-        <v>1.03831</v>
+        <v>1.06775</v>
       </c>
       <c r="D31" t="n">
-        <v>0.457872</v>
+        <v>0.442871</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.538265</v>
+        <v>0.528555</v>
       </c>
       <c r="C32" t="n">
-        <v>1.12629</v>
+        <v>1.14101</v>
       </c>
       <c r="D32" t="n">
-        <v>0.446606</v>
+        <v>0.425507</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.52654</v>
+        <v>0.515025</v>
       </c>
       <c r="C33" t="n">
-        <v>1.11714</v>
+        <v>1.11388</v>
       </c>
       <c r="D33" t="n">
-        <v>0.436683</v>
+        <v>0.410745</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.511702</v>
+        <v>0.49551</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0629</v>
+        <v>1.06185</v>
       </c>
       <c r="D34" t="n">
-        <v>0.419591</v>
+        <v>0.395206</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.489437</v>
+        <v>0.491011</v>
       </c>
       <c r="C35" t="n">
-        <v>1.06688</v>
+        <v>1.08011</v>
       </c>
       <c r="D35" t="n">
-        <v>0.417709</v>
+        <v>0.391044</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.479144</v>
+        <v>0.47694</v>
       </c>
       <c r="C36" t="n">
-        <v>1.09167</v>
+        <v>1.07543</v>
       </c>
       <c r="D36" t="n">
-        <v>0.416148</v>
+        <v>0.381519</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.485111</v>
+        <v>0.475357</v>
       </c>
       <c r="C37" t="n">
-        <v>1.40682</v>
+        <v>1.44927</v>
       </c>
       <c r="D37" t="n">
-        <v>0.712846</v>
+        <v>0.670652</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.753216</v>
+        <v>0.74614</v>
       </c>
       <c r="C38" t="n">
-        <v>1.35396</v>
+        <v>1.37108</v>
       </c>
       <c r="D38" t="n">
-        <v>0.688191</v>
+        <v>0.646829</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.719742</v>
+        <v>0.712575</v>
       </c>
       <c r="C39" t="n">
-        <v>1.28225</v>
+        <v>1.30762</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6641629999999999</v>
+        <v>0.613444</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.713641</v>
+        <v>0.7071</v>
       </c>
       <c r="C40" t="n">
-        <v>1.36596</v>
+        <v>1.38678</v>
       </c>
       <c r="D40" t="n">
-        <v>0.62369</v>
+        <v>0.626643</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.68414</v>
+        <v>0.706438</v>
       </c>
       <c r="C41" t="n">
-        <v>1.32228</v>
+        <v>1.3279</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6030720000000001</v>
+        <v>0.5823739999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.669981</v>
+        <v>0.648549</v>
       </c>
       <c r="C42" t="n">
-        <v>1.28483</v>
+        <v>1.30013</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5971919999999999</v>
+        <v>0.5710730000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.646319</v>
+        <v>0.626085</v>
       </c>
       <c r="C43" t="n">
-        <v>1.24818</v>
+        <v>1.24714</v>
       </c>
       <c r="D43" t="n">
-        <v>0.571749</v>
+        <v>0.552602</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.618055</v>
+        <v>0.607063</v>
       </c>
       <c r="C44" t="n">
-        <v>1.18727</v>
+        <v>1.22682</v>
       </c>
       <c r="D44" t="n">
-        <v>0.558948</v>
+        <v>0.5137350000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.594327</v>
+        <v>0.597163</v>
       </c>
       <c r="C45" t="n">
-        <v>1.18644</v>
+        <v>1.17382</v>
       </c>
       <c r="D45" t="n">
-        <v>0.539852</v>
+        <v>0.507302</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.585314</v>
+        <v>0.57339</v>
       </c>
       <c r="C46" t="n">
-        <v>1.15795</v>
+        <v>1.15927</v>
       </c>
       <c r="D46" t="n">
-        <v>0.527338</v>
+        <v>0.50278</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.574249</v>
+        <v>0.57053</v>
       </c>
       <c r="C47" t="n">
-        <v>1.14516</v>
+        <v>1.15638</v>
       </c>
       <c r="D47" t="n">
-        <v>0.515673</v>
+        <v>0.485711</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.558418</v>
+        <v>0.553946</v>
       </c>
       <c r="C48" t="n">
-        <v>1.19284</v>
+        <v>1.23473</v>
       </c>
       <c r="D48" t="n">
-        <v>0.485862</v>
+        <v>0.468751</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.543708</v>
+        <v>0.534448</v>
       </c>
       <c r="C49" t="n">
-        <v>1.17873</v>
+        <v>1.20667</v>
       </c>
       <c r="D49" t="n">
-        <v>0.487543</v>
+        <v>0.455859</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.525509</v>
+        <v>0.535728</v>
       </c>
       <c r="C50" t="n">
-        <v>1.17065</v>
+        <v>1.17391</v>
       </c>
       <c r="D50" t="n">
-        <v>0.470833</v>
+        <v>0.451579</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.508392</v>
+        <v>0.517268</v>
       </c>
       <c r="C51" t="n">
-        <v>1.45092</v>
+        <v>1.53726</v>
       </c>
       <c r="D51" t="n">
-        <v>0.789048</v>
+        <v>0.727175</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.509612</v>
+        <v>0.5057970000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>1.43089</v>
+        <v>1.51626</v>
       </c>
       <c r="D52" t="n">
-        <v>0.772403</v>
+        <v>0.715289</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.768519</v>
+        <v>0.7629320000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>1.43509</v>
+        <v>1.44852</v>
       </c>
       <c r="D53" t="n">
-        <v>0.730025</v>
+        <v>0.697585</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.767184</v>
+        <v>0.7523919999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>1.4174</v>
+        <v>1.34767</v>
       </c>
       <c r="D54" t="n">
-        <v>0.70935</v>
+        <v>0.694533</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.734073</v>
+        <v>0.718664</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38305</v>
+        <v>1.37829</v>
       </c>
       <c r="D55" t="n">
-        <v>0.700222</v>
+        <v>0.661759</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.731742</v>
+        <v>0.707094</v>
       </c>
       <c r="C56" t="n">
-        <v>1.2988</v>
+        <v>1.36156</v>
       </c>
       <c r="D56" t="n">
-        <v>0.677558</v>
+        <v>0.650691</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.723702</v>
+        <v>0.706143</v>
       </c>
       <c r="C57" t="n">
-        <v>1.39816</v>
+        <v>1.37938</v>
       </c>
       <c r="D57" t="n">
-        <v>0.646608</v>
+        <v>0.618655</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.703088</v>
+        <v>0.713608</v>
       </c>
       <c r="C58" t="n">
-        <v>1.3877</v>
+        <v>1.33459</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6387350000000001</v>
+        <v>0.603071</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.667814</v>
+        <v>0.674111</v>
       </c>
       <c r="C59" t="n">
-        <v>1.32469</v>
+        <v>1.2846</v>
       </c>
       <c r="D59" t="n">
-        <v>0.629659</v>
+        <v>0.599141</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6549430000000001</v>
+        <v>0.645091</v>
       </c>
       <c r="C60" t="n">
-        <v>1.30855</v>
+        <v>1.24481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.61717</v>
+        <v>0.58631</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.657527</v>
+        <v>0.640327</v>
       </c>
       <c r="C61" t="n">
-        <v>1.24565</v>
+        <v>1.23637</v>
       </c>
       <c r="D61" t="n">
-        <v>0.597862</v>
+        <v>0.580272</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.620913</v>
+        <v>0.634841</v>
       </c>
       <c r="C62" t="n">
-        <v>1.20119</v>
+        <v>1.18752</v>
       </c>
       <c r="D62" t="n">
-        <v>0.579077</v>
+        <v>0.550867</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.608949</v>
+        <v>0.606589</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22709</v>
+        <v>1.21839</v>
       </c>
       <c r="D63" t="n">
-        <v>0.563562</v>
+        <v>0.553342</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.597087</v>
+        <v>0.596601</v>
       </c>
       <c r="C64" t="n">
-        <v>1.17037</v>
+        <v>1.15614</v>
       </c>
       <c r="D64" t="n">
-        <v>0.565021</v>
+        <v>0.543052</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.591221</v>
+        <v>0.608529</v>
       </c>
       <c r="C65" t="n">
-        <v>1.79158</v>
+        <v>1.73336</v>
       </c>
       <c r="D65" t="n">
-        <v>0.556457</v>
+        <v>0.516707</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.583838</v>
+        <v>0.589367</v>
       </c>
       <c r="C66" t="n">
-        <v>1.76932</v>
+        <v>1.66047</v>
       </c>
       <c r="D66" t="n">
-        <v>0.857476</v>
+        <v>0.818007</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.902915</v>
+        <v>0.855899</v>
       </c>
       <c r="C67" t="n">
-        <v>1.63843</v>
+        <v>1.61461</v>
       </c>
       <c r="D67" t="n">
-        <v>0.845279</v>
+        <v>0.8160230000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.858502</v>
+        <v>0.8529369999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>1.5809</v>
+        <v>1.5575</v>
       </c>
       <c r="D68" t="n">
-        <v>0.842091</v>
+        <v>0.776491</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.837449</v>
+        <v>0.821349</v>
       </c>
       <c r="C69" t="n">
-        <v>1.55432</v>
+        <v>1.56477</v>
       </c>
       <c r="D69" t="n">
-        <v>0.775899</v>
+        <v>0.763836</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.800511</v>
+        <v>0.815262</v>
       </c>
       <c r="C70" t="n">
-        <v>1.49476</v>
+        <v>1.48951</v>
       </c>
       <c r="D70" t="n">
-        <v>0.763671</v>
+        <v>0.74802</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7796729999999999</v>
+        <v>0.7856</v>
       </c>
       <c r="C71" t="n">
-        <v>1.45006</v>
+        <v>1.48038</v>
       </c>
       <c r="D71" t="n">
-        <v>0.763647</v>
+        <v>0.72014</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.767768</v>
+        <v>0.765776</v>
       </c>
       <c r="C72" t="n">
-        <v>1.4413</v>
+        <v>1.47097</v>
       </c>
       <c r="D72" t="n">
-        <v>0.770795</v>
+        <v>0.707256</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.760588</v>
+        <v>0.76049</v>
       </c>
       <c r="C73" t="n">
-        <v>1.53548</v>
+        <v>1.57646</v>
       </c>
       <c r="D73" t="n">
-        <v>0.71048</v>
+        <v>0.676186</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.741932</v>
+        <v>0.730189</v>
       </c>
       <c r="C74" t="n">
-        <v>1.56433</v>
+        <v>1.56334</v>
       </c>
       <c r="D74" t="n">
-        <v>0.689968</v>
+        <v>0.6668190000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.736789</v>
+        <v>0.737576</v>
       </c>
       <c r="C75" t="n">
-        <v>1.49494</v>
+        <v>1.51663</v>
       </c>
       <c r="D75" t="n">
-        <v>0.682921</v>
+        <v>0.681277</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.720373</v>
+        <v>0.709869</v>
       </c>
       <c r="C76" t="n">
-        <v>1.47467</v>
+        <v>1.48574</v>
       </c>
       <c r="D76" t="n">
-        <v>0.668954</v>
+        <v>0.6375960000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.696528</v>
+        <v>0.705624</v>
       </c>
       <c r="C77" t="n">
-        <v>1.43097</v>
+        <v>1.4441</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6641089999999999</v>
+        <v>0.621842</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.695636</v>
+        <v>0.686144</v>
       </c>
       <c r="C78" t="n">
-        <v>1.40495</v>
+        <v>1.43284</v>
       </c>
       <c r="D78" t="n">
-        <v>0.627631</v>
+        <v>0.612996</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.672916</v>
+        <v>0.671894</v>
       </c>
       <c r="C79" t="n">
-        <v>2.05032</v>
+        <v>2.07926</v>
       </c>
       <c r="D79" t="n">
-        <v>0.629763</v>
+        <v>0.603379</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.658125</v>
+        <v>0.671735</v>
       </c>
       <c r="C80" t="n">
-        <v>1.97954</v>
+        <v>1.95807</v>
       </c>
       <c r="D80" t="n">
-        <v>0.990605</v>
+        <v>0.943531</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01312</v>
+        <v>0.975673</v>
       </c>
       <c r="C81" t="n">
-        <v>1.95057</v>
+        <v>1.93079</v>
       </c>
       <c r="D81" t="n">
-        <v>0.972463</v>
+        <v>0.907092</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.95709</v>
+        <v>0.979671</v>
       </c>
       <c r="C82" t="n">
-        <v>1.95729</v>
+        <v>2.08259</v>
       </c>
       <c r="D82" t="n">
-        <v>0.919167</v>
+        <v>0.8975880000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.959649</v>
+        <v>0.951504</v>
       </c>
       <c r="C83" t="n">
-        <v>1.96598</v>
+        <v>2.01276</v>
       </c>
       <c r="D83" t="n">
-        <v>0.910685</v>
+        <v>0.889363</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.917574</v>
+        <v>0.931393</v>
       </c>
       <c r="C84" t="n">
-        <v>1.9306</v>
+        <v>1.99561</v>
       </c>
       <c r="D84" t="n">
-        <v>0.87951</v>
+        <v>0.848495</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.889892</v>
+        <v>0.893524</v>
       </c>
       <c r="C85" t="n">
-        <v>1.9185</v>
+        <v>1.93614</v>
       </c>
       <c r="D85" t="n">
-        <v>0.861417</v>
+        <v>0.833538</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9087229999999999</v>
+        <v>0.906734</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89506</v>
+        <v>1.86214</v>
       </c>
       <c r="D86" t="n">
-        <v>0.833132</v>
+        <v>0.8018690000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.858854</v>
+        <v>0.864312</v>
       </c>
       <c r="C87" t="n">
-        <v>1.82299</v>
+        <v>1.86964</v>
       </c>
       <c r="D87" t="n">
-        <v>0.822431</v>
+        <v>0.808886</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.844139</v>
+        <v>0.835144</v>
       </c>
       <c r="C88" t="n">
-        <v>1.79673</v>
+        <v>1.80914</v>
       </c>
       <c r="D88" t="n">
-        <v>0.82812</v>
+        <v>0.7692909999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8549290000000001</v>
+        <v>0.844071</v>
       </c>
       <c r="C89" t="n">
-        <v>1.8236</v>
+        <v>1.75447</v>
       </c>
       <c r="D89" t="n">
-        <v>0.794457</v>
+        <v>0.752466</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.826681</v>
+        <v>0.822151</v>
       </c>
       <c r="C90" t="n">
-        <v>1.86956</v>
+        <v>1.888</v>
       </c>
       <c r="D90" t="n">
-        <v>0.767338</v>
+        <v>0.740012</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8070619999999999</v>
+        <v>0.813452</v>
       </c>
       <c r="C91" t="n">
-        <v>1.83605</v>
+        <v>1.84238</v>
       </c>
       <c r="D91" t="n">
-        <v>0.77959</v>
+        <v>0.738003</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8143089999999999</v>
+        <v>0.80394</v>
       </c>
       <c r="C92" t="n">
-        <v>1.85614</v>
+        <v>1.81909</v>
       </c>
       <c r="D92" t="n">
-        <v>0.755977</v>
+        <v>0.713479</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.77793</v>
+        <v>0.773804</v>
       </c>
       <c r="C93" t="n">
-        <v>1.76457</v>
+        <v>1.81706</v>
       </c>
       <c r="D93" t="n">
-        <v>0.729031</v>
+        <v>0.70206</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7691</v>
+        <v>0.786968</v>
       </c>
       <c r="C94" t="n">
-        <v>2.46587</v>
+        <v>2.38019</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0816</v>
+        <v>1.06342</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09891</v>
+        <v>1.08257</v>
       </c>
       <c r="C95" t="n">
-        <v>2.37646</v>
+        <v>2.34888</v>
       </c>
       <c r="D95" t="n">
-        <v>1.04663</v>
+        <v>1.04668</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.05752</v>
+        <v>1.09009</v>
       </c>
       <c r="C96" t="n">
-        <v>2.37491</v>
+        <v>2.39421</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07721</v>
+        <v>1.05922</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06801</v>
+        <v>1.06287</v>
       </c>
       <c r="C97" t="n">
-        <v>2.34501</v>
+        <v>2.25995</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04932</v>
+        <v>0.983605</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.04748</v>
+        <v>1.05754</v>
       </c>
       <c r="C98" t="n">
-        <v>2.38354</v>
+        <v>2.38262</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01423</v>
+        <v>0.976137</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02305</v>
+        <v>1.05024</v>
       </c>
       <c r="C99" t="n">
-        <v>2.29522</v>
+        <v>2.38459</v>
       </c>
       <c r="D99" t="n">
-        <v>0.96225</v>
+        <v>0.929436</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03569</v>
+        <v>1.00866</v>
       </c>
       <c r="C100" t="n">
-        <v>2.30801</v>
+        <v>2.26932</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9489570000000001</v>
+        <v>0.920077</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9756089999999999</v>
+        <v>0.979283</v>
       </c>
       <c r="C101" t="n">
-        <v>2.21376</v>
+        <v>2.20232</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9372509999999999</v>
+        <v>0.901265</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.984185</v>
+        <v>0.9507370000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>2.17882</v>
+        <v>2.23191</v>
       </c>
       <c r="D102" t="n">
-        <v>0.921671</v>
+        <v>0.880022</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.956166</v>
+        <v>0.943112</v>
       </c>
       <c r="C103" t="n">
-        <v>2.14461</v>
+        <v>2.11893</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9122749999999999</v>
+        <v>0.880587</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.959832</v>
+        <v>0.951704</v>
       </c>
       <c r="C104" t="n">
-        <v>2.15168</v>
+        <v>2.10661</v>
       </c>
       <c r="D104" t="n">
-        <v>0.902428</v>
+        <v>0.874151</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.938773</v>
+        <v>0.93199</v>
       </c>
       <c r="C105" t="n">
-        <v>2.12885</v>
+        <v>2.0885</v>
       </c>
       <c r="D105" t="n">
-        <v>0.886903</v>
+        <v>0.869349</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.935922</v>
+        <v>0.9211279999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>2.07523</v>
+        <v>2.07365</v>
       </c>
       <c r="D106" t="n">
-        <v>0.86646</v>
+        <v>0.834071</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.919551</v>
+        <v>0.91308</v>
       </c>
       <c r="C107" t="n">
-        <v>2.09441</v>
+        <v>2.16238</v>
       </c>
       <c r="D107" t="n">
-        <v>0.879182</v>
+        <v>0.835977</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.906361</v>
+        <v>0.898594</v>
       </c>
       <c r="C108" t="n">
-        <v>2.85433</v>
+        <v>2.85692</v>
       </c>
       <c r="D108" t="n">
-        <v>1.20047</v>
+        <v>1.18594</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.890158</v>
+        <v>0.88722</v>
       </c>
       <c r="C109" t="n">
-        <v>2.78255</v>
+        <v>2.81739</v>
       </c>
       <c r="D109" t="n">
-        <v>1.21987</v>
+        <v>1.16692</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22959</v>
+        <v>1.21232</v>
       </c>
       <c r="C110" t="n">
-        <v>2.72188</v>
+        <v>2.773</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18959</v>
+        <v>1.15148</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.19768</v>
+        <v>1.21728</v>
       </c>
       <c r="C111" t="n">
-        <v>2.68166</v>
+        <v>2.66431</v>
       </c>
       <c r="D111" t="n">
-        <v>1.15559</v>
+        <v>1.12619</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.18599</v>
+        <v>1.19255</v>
       </c>
       <c r="C112" t="n">
-        <v>2.62113</v>
+        <v>2.60574</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15598</v>
+        <v>1.13561</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.18083</v>
+        <v>1.18357</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57495</v>
+        <v>2.57473</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12869</v>
+        <v>1.11039</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17516</v>
+        <v>1.17407</v>
       </c>
       <c r="C114" t="n">
-        <v>2.56754</v>
+        <v>2.53066</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11824</v>
+        <v>1.10407</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15417</v>
+        <v>1.17468</v>
       </c>
       <c r="C115" t="n">
-        <v>2.60311</v>
+        <v>2.59212</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10947</v>
+        <v>1.12355</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14867</v>
+        <v>1.14778</v>
       </c>
       <c r="C116" t="n">
-        <v>2.53262</v>
+        <v>2.53873</v>
       </c>
       <c r="D116" t="n">
-        <v>1.12459</v>
+        <v>1.1009</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15525</v>
+        <v>1.14723</v>
       </c>
       <c r="C117" t="n">
-        <v>2.51302</v>
+        <v>2.5314</v>
       </c>
       <c r="D117" t="n">
-        <v>1.12726</v>
+        <v>1.11147</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12763</v>
+        <v>1.14023</v>
       </c>
       <c r="C118" t="n">
-        <v>2.45023</v>
+        <v>2.47383</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09281</v>
+        <v>1.0711</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1096</v>
+        <v>1.12647</v>
       </c>
       <c r="C119" t="n">
-        <v>2.40096</v>
+        <v>2.42066</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08867</v>
+        <v>1.04865</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.16571</v>
+        <v>1.11295</v>
       </c>
       <c r="C120" t="n">
-        <v>2.36178</v>
+        <v>2.36355</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0743</v>
+        <v>1.02051</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11195</v>
+        <v>1.11045</v>
       </c>
       <c r="C121" t="n">
-        <v>2.33868</v>
+        <v>2.3361</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07207</v>
+        <v>1.01659</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.14424</v>
+        <v>1.10268</v>
       </c>
       <c r="C122" t="n">
-        <v>3.11306</v>
+        <v>3.11608</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0582</v>
+        <v>1.01515</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.12021</v>
+        <v>1.0992</v>
       </c>
       <c r="C123" t="n">
-        <v>3.22769</v>
+        <v>3.1977</v>
       </c>
       <c r="D123" t="n">
-        <v>1.41876</v>
+        <v>1.38446</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4252</v>
+        <v>1.46035</v>
       </c>
       <c r="C124" t="n">
-        <v>3.09711</v>
+        <v>3.14971</v>
       </c>
       <c r="D124" t="n">
-        <v>1.44731</v>
+        <v>1.37135</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.44829</v>
+        <v>1.41633</v>
       </c>
       <c r="C125" t="n">
-        <v>3.05712</v>
+        <v>3.01545</v>
       </c>
       <c r="D125" t="n">
-        <v>1.41671</v>
+        <v>1.36097</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.41507</v>
+        <v>1.42475</v>
       </c>
       <c r="C126" t="n">
-        <v>2.97615</v>
+        <v>2.97088</v>
       </c>
       <c r="D126" t="n">
-        <v>1.42608</v>
+        <v>1.38887</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40816</v>
+        <v>1.41022</v>
       </c>
       <c r="C127" t="n">
-        <v>2.87113</v>
+        <v>2.88503</v>
       </c>
       <c r="D127" t="n">
-        <v>1.39543</v>
+        <v>1.37421</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42982</v>
+        <v>1.45182</v>
       </c>
       <c r="C128" t="n">
-        <v>2.84504</v>
+        <v>2.84048</v>
       </c>
       <c r="D128" t="n">
-        <v>1.40228</v>
+        <v>1.36542</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41879</v>
+        <v>1.42293</v>
       </c>
       <c r="C129" t="n">
-        <v>2.79477</v>
+        <v>2.77611</v>
       </c>
       <c r="D129" t="n">
-        <v>1.40158</v>
+        <v>1.36565</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39786</v>
+        <v>1.41623</v>
       </c>
       <c r="C130" t="n">
-        <v>2.71057</v>
+        <v>2.7351</v>
       </c>
       <c r="D130" t="n">
-        <v>1.40872</v>
+        <v>1.36083</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.41126</v>
+        <v>1.40887</v>
       </c>
       <c r="C131" t="n">
-        <v>2.66533</v>
+        <v>2.67248</v>
       </c>
       <c r="D131" t="n">
-        <v>1.39779</v>
+        <v>1.35501</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42594</v>
+        <v>1.40359</v>
       </c>
       <c r="C132" t="n">
-        <v>2.75756</v>
+        <v>2.73438</v>
       </c>
       <c r="D132" t="n">
-        <v>1.3867</v>
+        <v>1.34647</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.41694</v>
+        <v>1.42883</v>
       </c>
       <c r="C133" t="n">
-        <v>2.68501</v>
+        <v>2.67576</v>
       </c>
       <c r="D133" t="n">
-        <v>1.39685</v>
+        <v>1.35291</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40189</v>
+        <v>1.401</v>
       </c>
       <c r="C134" t="n">
-        <v>2.64148</v>
+        <v>2.62067</v>
       </c>
       <c r="D134" t="n">
-        <v>1.40478</v>
+        <v>1.35905</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39855</v>
+        <v>1.39531</v>
       </c>
       <c r="C135" t="n">
-        <v>2.62322</v>
+        <v>2.61924</v>
       </c>
       <c r="D135" t="n">
-        <v>1.40053</v>
+        <v>1.36793</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42257</v>
+        <v>1.42357</v>
       </c>
       <c r="C136" t="n">
-        <v>3.51347</v>
+        <v>3.47265</v>
       </c>
       <c r="D136" t="n">
-        <v>1.38083</v>
+        <v>1.34759</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.4198</v>
+        <v>1.43546</v>
       </c>
       <c r="C137" t="n">
-        <v>3.42336</v>
+        <v>3.41134</v>
       </c>
       <c r="D137" t="n">
-        <v>1.76888</v>
+        <v>1.71098</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.72797</v>
+        <v>1.74338</v>
       </c>
       <c r="C138" t="n">
-        <v>3.34318</v>
+        <v>3.30094</v>
       </c>
       <c r="D138" t="n">
-        <v>1.78314</v>
+        <v>1.73993</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74325</v>
+        <v>1.71463</v>
       </c>
       <c r="C139" t="n">
-        <v>3.27929</v>
+        <v>3.23375</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75848</v>
+        <v>1.71969</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.73008</v>
+        <v>1.73464</v>
       </c>
       <c r="C140" t="n">
-        <v>3.30836</v>
+        <v>3.27289</v>
       </c>
       <c r="D140" t="n">
-        <v>1.74867</v>
+        <v>1.69395</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.7403</v>
+        <v>1.71973</v>
       </c>
       <c r="C141" t="n">
-        <v>3.22028</v>
+        <v>3.23435</v>
       </c>
       <c r="D141" t="n">
-        <v>1.74144</v>
+        <v>1.72105</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.73153</v>
+        <v>1.72717</v>
       </c>
       <c r="C142" t="n">
-        <v>3.15702</v>
+        <v>3.14936</v>
       </c>
       <c r="D142" t="n">
-        <v>1.73254</v>
+        <v>1.72178</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.70787</v>
+        <v>1.7381</v>
       </c>
       <c r="C143" t="n">
-        <v>3.09018</v>
+        <v>3.09649</v>
       </c>
       <c r="D143" t="n">
-        <v>1.75118</v>
+        <v>1.69808</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running insertion.xlsx
+++ b/vs-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626694</v>
+        <v>0.608998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.478828</v>
+        <v>0.460405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.311629</v>
+        <v>0.319822</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.366274</v>
+        <v>0.360491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306255</v>
+        <v>0.305348</v>
       </c>
       <c r="D3" t="n">
-        <v>0.302395</v>
+        <v>0.299622</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.351441</v>
+        <v>0.35202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.293355</v>
+        <v>0.297846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29389</v>
+        <v>0.29808</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.332554</v>
+        <v>0.337146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.291849</v>
+        <v>0.292777</v>
       </c>
       <c r="D5" t="n">
-        <v>0.29077</v>
+        <v>0.287528</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.343899</v>
+        <v>0.334849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.288725</v>
+        <v>0.281403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.294095</v>
+        <v>0.281461</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.33386</v>
+        <v>0.325816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.294234</v>
+        <v>0.290188</v>
       </c>
       <c r="D7" t="n">
-        <v>0.293216</v>
+        <v>0.29419</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.33081</v>
+        <v>0.344939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.275273</v>
+        <v>0.285269</v>
       </c>
       <c r="D8" t="n">
-        <v>0.275573</v>
+        <v>0.287472</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.323585</v>
+        <v>0.336013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.272273</v>
+        <v>0.283367</v>
       </c>
       <c r="D9" t="n">
-        <v>0.637836</v>
+        <v>0.645767</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.601056</v>
+        <v>0.590836</v>
       </c>
       <c r="C10" t="n">
-        <v>0.534505</v>
+        <v>0.568616</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6144500000000001</v>
+        <v>0.615074</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.547716</v>
+        <v>0.571791</v>
       </c>
       <c r="C11" t="n">
-        <v>0.513667</v>
+        <v>0.536931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.585816</v>
+        <v>0.586839</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5416609999999999</v>
+        <v>0.55686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.513653</v>
+        <v>0.520458</v>
       </c>
       <c r="D12" t="n">
-        <v>0.568072</v>
+        <v>0.575909</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.536173</v>
+        <v>0.5396339999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.506732</v>
+        <v>0.500182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.551037</v>
+        <v>0.550297</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5212869999999999</v>
+        <v>0.509599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.468947</v>
+        <v>0.47723</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5302750000000001</v>
+        <v>0.523578</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.512647</v>
+        <v>0.489707</v>
       </c>
       <c r="C15" t="n">
-        <v>0.461688</v>
+        <v>0.454216</v>
       </c>
       <c r="D15" t="n">
-        <v>0.505311</v>
+        <v>0.504539</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.490789</v>
+        <v>0.476467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.452534</v>
+        <v>0.432745</v>
       </c>
       <c r="D16" t="n">
-        <v>0.491422</v>
+        <v>0.487421</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471325</v>
+        <v>0.466939</v>
       </c>
       <c r="C17" t="n">
-        <v>0.434835</v>
+        <v>0.413246</v>
       </c>
       <c r="D17" t="n">
-        <v>0.47992</v>
+        <v>0.469413</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459396</v>
+        <v>0.45234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.431039</v>
+        <v>0.404884</v>
       </c>
       <c r="D18" t="n">
-        <v>0.462232</v>
+        <v>0.444973</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.458611</v>
+        <v>0.447818</v>
       </c>
       <c r="C19" t="n">
-        <v>0.415444</v>
+        <v>0.406388</v>
       </c>
       <c r="D19" t="n">
-        <v>0.445753</v>
+        <v>0.44639</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.457594</v>
+        <v>0.44077</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40733</v>
+        <v>0.384318</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4506</v>
+        <v>0.428355</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.437439</v>
+        <v>0.421176</v>
       </c>
       <c r="C21" t="n">
-        <v>0.390387</v>
+        <v>0.375705</v>
       </c>
       <c r="D21" t="n">
-        <v>0.418838</v>
+        <v>0.412208</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.428698</v>
+        <v>0.416692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.384712</v>
+        <v>0.376557</v>
       </c>
       <c r="D22" t="n">
-        <v>0.406585</v>
+        <v>0.423283</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.433319</v>
+        <v>0.40638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.365605</v>
+        <v>0.365032</v>
       </c>
       <c r="D23" t="n">
-        <v>0.566941</v>
+        <v>0.551241</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.686472</v>
+        <v>0.677565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6697419999999999</v>
+        <v>0.646142</v>
       </c>
       <c r="D24" t="n">
-        <v>0.545955</v>
+        <v>0.530477</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.659828</v>
+        <v>0.650405</v>
       </c>
       <c r="C25" t="n">
-        <v>0.65074</v>
+        <v>0.613834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.528459</v>
+        <v>0.51908</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.62812</v>
+        <v>0.628572</v>
       </c>
       <c r="C26" t="n">
-        <v>0.613775</v>
+        <v>0.586789</v>
       </c>
       <c r="D26" t="n">
-        <v>0.504711</v>
+        <v>0.495427</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6206159999999999</v>
+        <v>0.614462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.597788</v>
+        <v>0.568894</v>
       </c>
       <c r="D27" t="n">
-        <v>0.497943</v>
+        <v>0.480527</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.603617</v>
+        <v>0.590387</v>
       </c>
       <c r="C28" t="n">
-        <v>0.584485</v>
+        <v>0.557675</v>
       </c>
       <c r="D28" t="n">
-        <v>0.489276</v>
+        <v>0.48081</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.577708</v>
+        <v>0.586255</v>
       </c>
       <c r="C29" t="n">
-        <v>0.54627</v>
+        <v>0.540233</v>
       </c>
       <c r="D29" t="n">
-        <v>0.463535</v>
+        <v>0.45003</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.569263</v>
+        <v>0.558565</v>
       </c>
       <c r="C30" t="n">
-        <v>0.544226</v>
+        <v>0.519448</v>
       </c>
       <c r="D30" t="n">
-        <v>0.451492</v>
+        <v>0.433574</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.557304</v>
+        <v>0.547941</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5253370000000001</v>
+        <v>0.50881</v>
       </c>
       <c r="D31" t="n">
-        <v>0.456442</v>
+        <v>0.431249</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.546472</v>
+        <v>0.5356030000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.50902</v>
+        <v>0.482671</v>
       </c>
       <c r="D32" t="n">
-        <v>0.431097</v>
+        <v>0.418441</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.531067</v>
+        <v>0.499102</v>
       </c>
       <c r="C33" t="n">
-        <v>0.484043</v>
+        <v>0.483685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.416113</v>
+        <v>0.400074</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.50644</v>
+        <v>0.501804</v>
       </c>
       <c r="C34" t="n">
-        <v>0.477906</v>
+        <v>0.458153</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407575</v>
+        <v>0.393263</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.511128</v>
+        <v>0.508708</v>
       </c>
       <c r="C35" t="n">
-        <v>0.471387</v>
+        <v>0.457503</v>
       </c>
       <c r="D35" t="n">
-        <v>0.396249</v>
+        <v>0.396988</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.486694</v>
+        <v>0.478381</v>
       </c>
       <c r="C36" t="n">
-        <v>0.444713</v>
+        <v>0.438302</v>
       </c>
       <c r="D36" t="n">
-        <v>0.393776</v>
+        <v>0.376196</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.486729</v>
+        <v>0.483313</v>
       </c>
       <c r="C37" t="n">
-        <v>0.43748</v>
+        <v>0.423253</v>
       </c>
       <c r="D37" t="n">
-        <v>0.685788</v>
+        <v>0.6478</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.745463</v>
+        <v>0.723495</v>
       </c>
       <c r="C38" t="n">
-        <v>0.720332</v>
+        <v>0.705719</v>
       </c>
       <c r="D38" t="n">
-        <v>0.641381</v>
+        <v>0.640068</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.723376</v>
+        <v>0.705384</v>
       </c>
       <c r="C39" t="n">
-        <v>0.694951</v>
+        <v>0.677912</v>
       </c>
       <c r="D39" t="n">
-        <v>0.643108</v>
+        <v>0.625611</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.705721</v>
+        <v>0.697848</v>
       </c>
       <c r="C40" t="n">
-        <v>0.690326</v>
+        <v>0.6578079999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.612526</v>
+        <v>0.590659</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.68338</v>
+        <v>0.661399</v>
       </c>
       <c r="C41" t="n">
-        <v>0.652369</v>
+        <v>0.637629</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6087129999999999</v>
+        <v>0.573421</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.679332</v>
+        <v>0.6566959999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.63264</v>
+        <v>0.613089</v>
       </c>
       <c r="D42" t="n">
-        <v>0.567912</v>
+        <v>0.565539</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.644342</v>
+        <v>0.626914</v>
       </c>
       <c r="C43" t="n">
-        <v>0.622126</v>
+        <v>0.594011</v>
       </c>
       <c r="D43" t="n">
-        <v>0.566246</v>
+        <v>0.541842</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.632418</v>
+        <v>0.618791</v>
       </c>
       <c r="C44" t="n">
-        <v>0.585995</v>
+        <v>0.571913</v>
       </c>
       <c r="D44" t="n">
-        <v>0.55327</v>
+        <v>0.527347</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.594008</v>
+        <v>0.591877</v>
       </c>
       <c r="C45" t="n">
-        <v>0.564047</v>
+        <v>0.570119</v>
       </c>
       <c r="D45" t="n">
-        <v>0.522648</v>
+        <v>0.5056929999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592045</v>
+        <v>0.573921</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5501</v>
+        <v>0.537541</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5106039999999999</v>
+        <v>0.488038</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.573116</v>
+        <v>0.573395</v>
       </c>
       <c r="C47" t="n">
-        <v>0.547777</v>
+        <v>0.520823</v>
       </c>
       <c r="D47" t="n">
-        <v>0.489237</v>
+        <v>0.480461</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.572369</v>
+        <v>0.5506259999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.534207</v>
+        <v>0.501822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.498786</v>
+        <v>0.463258</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.541933</v>
+        <v>0.533353</v>
       </c>
       <c r="C49" t="n">
-        <v>0.507591</v>
+        <v>0.491367</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4764</v>
+        <v>0.461847</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.53486</v>
+        <v>0.510942</v>
       </c>
       <c r="C50" t="n">
-        <v>0.497703</v>
+        <v>0.480941</v>
       </c>
       <c r="D50" t="n">
-        <v>0.458358</v>
+        <v>0.440374</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.534733</v>
+        <v>0.498829</v>
       </c>
       <c r="C51" t="n">
-        <v>0.489635</v>
+        <v>0.459644</v>
       </c>
       <c r="D51" t="n">
-        <v>0.753309</v>
+        <v>0.741097</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.518898</v>
+        <v>0.496777</v>
       </c>
       <c r="C52" t="n">
-        <v>0.484982</v>
+        <v>0.463902</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7409480000000001</v>
+        <v>0.720255</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7953170000000001</v>
+        <v>0.772424</v>
       </c>
       <c r="C53" t="n">
-        <v>0.749592</v>
+        <v>0.736613</v>
       </c>
       <c r="D53" t="n">
-        <v>0.701648</v>
+        <v>0.6853</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.76969</v>
+        <v>0.74331</v>
       </c>
       <c r="C54" t="n">
-        <v>0.732645</v>
+        <v>0.707369</v>
       </c>
       <c r="D54" t="n">
-        <v>0.698182</v>
+        <v>0.667633</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.740781</v>
+        <v>0.735551</v>
       </c>
       <c r="C55" t="n">
-        <v>0.718166</v>
+        <v>0.682037</v>
       </c>
       <c r="D55" t="n">
-        <v>0.678828</v>
+        <v>0.641214</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.740385</v>
+        <v>0.711527</v>
       </c>
       <c r="C56" t="n">
-        <v>0.691173</v>
+        <v>0.668044</v>
       </c>
       <c r="D56" t="n">
-        <v>0.67035</v>
+        <v>0.628314</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.735912</v>
+        <v>0.69433</v>
       </c>
       <c r="C57" t="n">
-        <v>0.681758</v>
+        <v>0.645732</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6267</v>
+        <v>0.623109</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.692411</v>
+        <v>0.681991</v>
       </c>
       <c r="C58" t="n">
-        <v>0.671645</v>
+        <v>0.6337</v>
       </c>
       <c r="D58" t="n">
-        <v>0.620313</v>
+        <v>0.606221</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.674211</v>
+        <v>0.655693</v>
       </c>
       <c r="C59" t="n">
-        <v>0.650759</v>
+        <v>0.622664</v>
       </c>
       <c r="D59" t="n">
-        <v>0.608056</v>
+        <v>0.5854279999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.665666</v>
+        <v>0.654996</v>
       </c>
       <c r="C60" t="n">
-        <v>0.622155</v>
+        <v>0.600656</v>
       </c>
       <c r="D60" t="n">
-        <v>0.603068</v>
+        <v>0.5799800000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.674631</v>
+        <v>0.639638</v>
       </c>
       <c r="C61" t="n">
-        <v>0.604326</v>
+        <v>0.593345</v>
       </c>
       <c r="D61" t="n">
-        <v>0.596704</v>
+        <v>0.542655</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.635772</v>
+        <v>0.637335</v>
       </c>
       <c r="C62" t="n">
-        <v>0.591934</v>
+        <v>0.563381</v>
       </c>
       <c r="D62" t="n">
-        <v>0.556662</v>
+        <v>0.536914</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.621287</v>
+        <v>0.609635</v>
       </c>
       <c r="C63" t="n">
-        <v>0.566905</v>
+        <v>0.555353</v>
       </c>
       <c r="D63" t="n">
-        <v>0.542916</v>
+        <v>0.537651</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.615608</v>
+        <v>0.592621</v>
       </c>
       <c r="C64" t="n">
-        <v>0.563748</v>
+        <v>0.549262</v>
       </c>
       <c r="D64" t="n">
-        <v>0.553412</v>
+        <v>0.532026</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.604919</v>
+        <v>0.595583</v>
       </c>
       <c r="C65" t="n">
-        <v>0.560708</v>
+        <v>0.538415</v>
       </c>
       <c r="D65" t="n">
-        <v>0.541411</v>
+        <v>0.512758</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.603213</v>
+        <v>0.5886980000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.536651</v>
+        <v>0.527477</v>
       </c>
       <c r="D66" t="n">
-        <v>0.839414</v>
+        <v>0.838083</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8932099999999999</v>
+        <v>0.844224</v>
       </c>
       <c r="C67" t="n">
-        <v>0.843797</v>
+        <v>0.834699</v>
       </c>
       <c r="D67" t="n">
-        <v>0.796519</v>
+        <v>0.769857</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.877041</v>
+        <v>0.839377</v>
       </c>
       <c r="C68" t="n">
-        <v>0.817944</v>
+        <v>0.823668</v>
       </c>
       <c r="D68" t="n">
-        <v>0.80209</v>
+        <v>0.774362</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.856569</v>
+        <v>0.827782</v>
       </c>
       <c r="C69" t="n">
-        <v>0.816681</v>
+        <v>0.801289</v>
       </c>
       <c r="D69" t="n">
-        <v>0.773555</v>
+        <v>0.769003</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.833383</v>
+        <v>0.803026</v>
       </c>
       <c r="C70" t="n">
-        <v>0.78509</v>
+        <v>0.780376</v>
       </c>
       <c r="D70" t="n">
-        <v>0.753934</v>
+        <v>0.732388</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.795911</v>
+        <v>0.777165</v>
       </c>
       <c r="C71" t="n">
-        <v>0.766857</v>
+        <v>0.746621</v>
       </c>
       <c r="D71" t="n">
-        <v>0.722722</v>
+        <v>0.733494</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.795675</v>
+        <v>0.763948</v>
       </c>
       <c r="C72" t="n">
-        <v>0.756463</v>
+        <v>0.729924</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7021309999999999</v>
+        <v>0.7063199999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7711170000000001</v>
+        <v>0.758061</v>
       </c>
       <c r="C73" t="n">
-        <v>0.724645</v>
+        <v>0.694824</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7097329999999999</v>
+        <v>0.674172</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.784152</v>
+        <v>0.734949</v>
       </c>
       <c r="C74" t="n">
-        <v>0.734133</v>
+        <v>0.691634</v>
       </c>
       <c r="D74" t="n">
-        <v>0.690001</v>
+        <v>0.657922</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.750817</v>
+        <v>0.71513</v>
       </c>
       <c r="C75" t="n">
-        <v>0.708726</v>
+        <v>0.679442</v>
       </c>
       <c r="D75" t="n">
-        <v>0.676704</v>
+        <v>0.649683</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.737785</v>
+        <v>0.720008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.673777</v>
+        <v>0.646376</v>
       </c>
       <c r="D76" t="n">
-        <v>0.648845</v>
+        <v>0.64078</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.718436</v>
+        <v>0.70058</v>
       </c>
       <c r="C77" t="n">
-        <v>0.663036</v>
+        <v>0.643188</v>
       </c>
       <c r="D77" t="n">
-        <v>0.640395</v>
+        <v>0.608611</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.704784</v>
+        <v>0.6655219999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.654118</v>
+        <v>0.636191</v>
       </c>
       <c r="D78" t="n">
-        <v>0.629138</v>
+        <v>0.611961</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.680541</v>
+        <v>0.674214</v>
       </c>
       <c r="C79" t="n">
-        <v>0.635061</v>
+        <v>0.6161720000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.615364</v>
+        <v>0.594746</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.685823</v>
+        <v>0.668173</v>
       </c>
       <c r="C80" t="n">
-        <v>0.634931</v>
+        <v>0.603112</v>
       </c>
       <c r="D80" t="n">
-        <v>0.945868</v>
+        <v>0.955384</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.998823</v>
+        <v>0.957936</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9508529999999999</v>
+        <v>0.944086</v>
       </c>
       <c r="D81" t="n">
-        <v>0.938949</v>
+        <v>0.903027</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.995719</v>
+        <v>0.924862</v>
       </c>
       <c r="C82" t="n">
-        <v>0.942905</v>
+        <v>0.943773</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9206260000000001</v>
+        <v>0.890154</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.972815</v>
+        <v>0.924883</v>
       </c>
       <c r="C83" t="n">
-        <v>0.955881</v>
+        <v>0.887331</v>
       </c>
       <c r="D83" t="n">
-        <v>0.885476</v>
+        <v>0.8749169999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.935019</v>
+        <v>0.902286</v>
       </c>
       <c r="C84" t="n">
-        <v>0.909408</v>
+        <v>0.881453</v>
       </c>
       <c r="D84" t="n">
-        <v>0.852357</v>
+        <v>0.834057</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.91944</v>
+        <v>0.8901520000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.898814</v>
+        <v>0.866575</v>
       </c>
       <c r="D85" t="n">
-        <v>0.861159</v>
+        <v>0.839641</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9071360000000001</v>
+        <v>0.895155</v>
       </c>
       <c r="C86" t="n">
-        <v>0.889402</v>
+        <v>0.850044</v>
       </c>
       <c r="D86" t="n">
-        <v>0.817121</v>
+        <v>0.804265</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8740599999999999</v>
+        <v>0.869348</v>
       </c>
       <c r="C87" t="n">
-        <v>0.833495</v>
+        <v>0.8358370000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.804907</v>
+        <v>0.801635</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.854888</v>
+        <v>0.85773</v>
       </c>
       <c r="C88" t="n">
-        <v>0.818215</v>
+        <v>0.817169</v>
       </c>
       <c r="D88" t="n">
-        <v>0.783325</v>
+        <v>0.768945</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.853091</v>
+        <v>0.823746</v>
       </c>
       <c r="C89" t="n">
-        <v>0.813185</v>
+        <v>0.77881</v>
       </c>
       <c r="D89" t="n">
-        <v>0.764176</v>
+        <v>0.757286</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.839369</v>
+        <v>0.812867</v>
       </c>
       <c r="C90" t="n">
-        <v>0.805963</v>
+        <v>0.7797460000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.759622</v>
+        <v>0.743596</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.839967</v>
+        <v>0.79886</v>
       </c>
       <c r="C91" t="n">
-        <v>0.79564</v>
+        <v>0.758377</v>
       </c>
       <c r="D91" t="n">
-        <v>0.731546</v>
+        <v>0.726749</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.796743</v>
+        <v>0.786282</v>
       </c>
       <c r="C92" t="n">
-        <v>0.772711</v>
+        <v>0.73552</v>
       </c>
       <c r="D92" t="n">
-        <v>0.728056</v>
+        <v>0.713035</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.790813</v>
+        <v>0.781955</v>
       </c>
       <c r="C93" t="n">
-        <v>0.760243</v>
+        <v>0.740671</v>
       </c>
       <c r="D93" t="n">
-        <v>0.729443</v>
+        <v>0.707779</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.768876</v>
+        <v>0.782425</v>
       </c>
       <c r="C94" t="n">
-        <v>0.738816</v>
+        <v>0.727001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05749</v>
+        <v>1.05146</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.11307</v>
+        <v>1.0654</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07578</v>
+        <v>1.06361</v>
       </c>
       <c r="D95" t="n">
-        <v>1.01183</v>
+        <v>1.00931</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.09444</v>
+        <v>1.06205</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05301</v>
+        <v>1.04965</v>
       </c>
       <c r="D96" t="n">
-        <v>0.993818</v>
+        <v>0.978983</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06345</v>
+        <v>1.03287</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06323</v>
+        <v>1.01259</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01447</v>
+        <v>0.963529</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03414</v>
+        <v>1.02621</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02555</v>
+        <v>0.976533</v>
       </c>
       <c r="D98" t="n">
-        <v>0.954725</v>
+        <v>0.950503</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03077</v>
+        <v>1.01468</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00597</v>
+        <v>0.987304</v>
       </c>
       <c r="D99" t="n">
-        <v>0.978149</v>
+        <v>0.945316</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.0416</v>
+        <v>0.979034</v>
       </c>
       <c r="C100" t="n">
-        <v>0.99822</v>
+        <v>0.968751</v>
       </c>
       <c r="D100" t="n">
-        <v>0.957637</v>
+        <v>0.933094</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.977534</v>
+        <v>0.961884</v>
       </c>
       <c r="C101" t="n">
-        <v>0.97771</v>
+        <v>0.961967</v>
       </c>
       <c r="D101" t="n">
-        <v>0.921997</v>
+        <v>0.901672</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.979179</v>
+        <v>0.9576480000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.968258</v>
+        <v>0.942151</v>
       </c>
       <c r="D102" t="n">
-        <v>0.914498</v>
+        <v>0.897018</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.977473</v>
+        <v>0.945152</v>
       </c>
       <c r="C103" t="n">
-        <v>0.964486</v>
+        <v>0.9383</v>
       </c>
       <c r="D103" t="n">
-        <v>0.894519</v>
+        <v>0.87476</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.94811</v>
+        <v>0.941248</v>
       </c>
       <c r="C104" t="n">
-        <v>0.919678</v>
+        <v>0.918573</v>
       </c>
       <c r="D104" t="n">
-        <v>0.867743</v>
+        <v>0.86111</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.947816</v>
+        <v>0.922559</v>
       </c>
       <c r="C105" t="n">
-        <v>0.914629</v>
+        <v>0.906447</v>
       </c>
       <c r="D105" t="n">
-        <v>0.864386</v>
+        <v>0.84405</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.941512</v>
+        <v>0.922397</v>
       </c>
       <c r="C106" t="n">
-        <v>0.920799</v>
+        <v>0.887859</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8663729999999999</v>
+        <v>0.839552</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.923976</v>
+        <v>0.9114</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8988699999999999</v>
+        <v>0.902613</v>
       </c>
       <c r="D107" t="n">
-        <v>0.844953</v>
+        <v>0.819034</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.91576</v>
+        <v>0.907223</v>
       </c>
       <c r="C108" t="n">
-        <v>0.896997</v>
+        <v>0.889482</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22055</v>
+        <v>1.17221</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.921137</v>
+        <v>0.913708</v>
       </c>
       <c r="C109" t="n">
-        <v>0.876386</v>
+        <v>0.8712800000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>1.15391</v>
+        <v>1.15325</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23421</v>
+        <v>1.20531</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22724</v>
+        <v>1.20004</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16869</v>
+        <v>1.15857</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.202</v>
+        <v>1.17067</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21358</v>
+        <v>1.18623</v>
       </c>
       <c r="D111" t="n">
-        <v>1.15392</v>
+        <v>1.10286</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21042</v>
+        <v>1.16933</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20985</v>
+        <v>1.17184</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13693</v>
+        <v>1.12872</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.2175</v>
+        <v>1.17263</v>
       </c>
       <c r="C113" t="n">
-        <v>1.176</v>
+        <v>1.17092</v>
       </c>
       <c r="D113" t="n">
-        <v>1.13461</v>
+        <v>1.09156</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2032</v>
+        <v>1.20737</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17457</v>
+        <v>1.17098</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12813</v>
+        <v>1.08402</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.179</v>
+        <v>1.17539</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17199</v>
+        <v>1.15098</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0962</v>
+        <v>1.10782</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17797</v>
+        <v>1.15605</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15025</v>
+        <v>1.12036</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1036</v>
+        <v>1.10279</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14454</v>
+        <v>1.1276</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12508</v>
+        <v>1.13446</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07113</v>
+        <v>1.05451</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.15466</v>
+        <v>1.12203</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13246</v>
+        <v>1.10437</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06352</v>
+        <v>1.05899</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12197</v>
+        <v>1.11112</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12654</v>
+        <v>1.10115</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08918</v>
+        <v>1.05528</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.15546</v>
+        <v>1.12113</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10602</v>
+        <v>1.12758</v>
       </c>
       <c r="D120" t="n">
-        <v>1.06477</v>
+        <v>1.02663</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10748</v>
+        <v>1.11082</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10239</v>
+        <v>1.09014</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02497</v>
+        <v>1.01972</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.1149</v>
+        <v>1.11642</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10242</v>
+        <v>1.1025</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05178</v>
+        <v>1.0183</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.13979</v>
+        <v>1.08615</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08708</v>
+        <v>1.07467</v>
       </c>
       <c r="D123" t="n">
-        <v>1.41578</v>
+        <v>1.39314</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.4305</v>
+        <v>1.42158</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43922</v>
+        <v>1.40463</v>
       </c>
       <c r="D124" t="n">
-        <v>1.35584</v>
+        <v>1.37468</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42927</v>
+        <v>1.40516</v>
       </c>
       <c r="C125" t="n">
-        <v>1.44614</v>
+        <v>1.41955</v>
       </c>
       <c r="D125" t="n">
-        <v>1.375</v>
+        <v>1.3591</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42123</v>
+        <v>1.41622</v>
       </c>
       <c r="C126" t="n">
-        <v>1.43371</v>
+        <v>1.42178</v>
       </c>
       <c r="D126" t="n">
-        <v>1.38282</v>
+        <v>1.37719</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.43879</v>
+        <v>1.38999</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42406</v>
+        <v>1.39326</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35331</v>
+        <v>1.37794</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.43654</v>
+        <v>1.42823</v>
       </c>
       <c r="C128" t="n">
-        <v>1.40931</v>
+        <v>1.41272</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37271</v>
+        <v>1.36731</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.41476</v>
+        <v>1.40969</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41607</v>
+        <v>1.42622</v>
       </c>
       <c r="D129" t="n">
-        <v>1.37148</v>
+        <v>1.35491</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n"